--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CD8ABA-171F-5B43-97BB-247FFFFF9B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DF244E-169C-D049-8089-E4A3694277C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="1220" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="6" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Overall Stats" sheetId="1" r:id="rId6"/>
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -346,7 +346,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,7 +471,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -500,6 +500,8 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -823,14 +825,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18.95">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="18.95">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -845,17 +847,17 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -872,24 +874,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13">
-        <v>5322</v>
+        <v>5654</v>
       </c>
       <c r="C2" s="13">
-        <v>2580</v>
+        <v>2762</v>
       </c>
       <c r="D2" s="13">
-        <v>2733</v>
+        <v>2882</v>
       </c>
       <c r="E2" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -906,143 +908,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="13">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C4" s="8">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D4" s="8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="13">
-        <v>831</v>
+        <v>886</v>
       </c>
       <c r="C5" s="8">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="D5" s="8">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>1017</v>
+        <v>1080</v>
       </c>
       <c r="C6" s="8">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="D6" s="8">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="13">
-        <v>853</v>
+        <v>905</v>
       </c>
       <c r="C7" s="8">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="D7" s="8">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="13">
-        <v>932</v>
+        <v>980</v>
       </c>
       <c r="C8" s="8">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="D8" s="8">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="13">
-        <v>799</v>
+        <v>850</v>
       </c>
       <c r="C9" s="8">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="D9" s="8">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="E9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="13">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="C10" s="8">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D10" s="8">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="C11" s="8">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D11" s="8">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
@@ -1053,19 +1055,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AJ1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL3" sqref="AL3:AL11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1102,8 +1105,9 @@
       <c r="AH1" s="5"/>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
-    </row>
-    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK1" s="5"/>
+    </row>
+    <row r="2" spans="1:38" s="1" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1212,8 +1216,14 @@
       <c r="AJ2" s="5">
         <v>43955</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK2" s="5">
+        <v>43956</v>
+      </c>
+      <c r="AL2" s="21">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1322,8 +1332,14 @@
       <c r="AJ3" s="8">
         <v>694</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK3" s="8">
+        <v>710</v>
+      </c>
+      <c r="AL3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1432,8 +1448,14 @@
       <c r="AJ4" s="8">
         <v>345</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK4" s="8">
+        <v>352</v>
+      </c>
+      <c r="AL4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1542,8 +1564,14 @@
       <c r="AJ5" s="8">
         <v>317</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK5" s="8">
+        <v>326</v>
+      </c>
+      <c r="AL5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1652,8 +1680,14 @@
       <c r="AJ6" s="8">
         <v>1009</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK6" s="8">
+        <v>1044</v>
+      </c>
+      <c r="AL6">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1762,8 +1796,14 @@
       <c r="AJ7" s="8">
         <v>819</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK7" s="8">
+        <v>846</v>
+      </c>
+      <c r="AL7">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1872,8 +1912,14 @@
       <c r="AJ8" s="8">
         <v>525</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK8" s="8">
+        <v>533</v>
+      </c>
+      <c r="AL8">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1982,8 +2028,14 @@
       <c r="AJ9" s="8">
         <v>791</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK9" s="8">
+        <v>802</v>
+      </c>
+      <c r="AL9">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2092,8 +2144,14 @@
       <c r="AJ10" s="8">
         <v>751</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK10" s="8">
+        <v>775</v>
+      </c>
+      <c r="AL10">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2201,6 +2259,12 @@
       </c>
       <c r="AJ11" s="8">
         <v>71</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>73</v>
+      </c>
+      <c r="AL11">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2211,22 +2275,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AF19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="AH10" sqref="AH10:AH13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -2323,8 +2390,14 @@
       <c r="AF1" s="5">
         <v>43955</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="AH1" s="20">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -2421,8 +2494,14 @@
       <c r="AF2" s="8">
         <v>817</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG2" s="8">
+        <v>810</v>
+      </c>
+      <c r="AH2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2519,8 +2598,14 @@
       <c r="AF3" s="8">
         <v>826</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG3" s="8">
+        <v>847</v>
+      </c>
+      <c r="AH3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2617,8 +2702,14 @@
       <c r="AF4" s="8">
         <v>2471</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG4" s="8">
+        <v>2550</v>
+      </c>
+      <c r="AH4">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -2715,8 +2806,14 @@
       <c r="AF5" s="8">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG5" s="8">
+        <v>73</v>
+      </c>
+      <c r="AH5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -2813,8 +2910,14 @@
       <c r="AF6" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AH6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -2907,8 +3010,14 @@
       <c r="AF7" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AH7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -3005,8 +3114,14 @@
       <c r="AF8" s="8">
         <v>1077</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG8" s="8">
+        <v>1124</v>
+      </c>
+      <c r="AH8">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -3103,8 +3218,14 @@
       <c r="AF9" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="8">
+        <v>33</v>
+      </c>
+      <c r="AH9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
@@ -3201,8 +3322,14 @@
       <c r="AF10" s="8">
         <v>1272</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="8">
+        <v>1254</v>
+      </c>
+      <c r="AH10">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
@@ -3299,8 +3426,14 @@
       <c r="AF11" s="8">
         <v>1033</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="8">
+        <v>1107</v>
+      </c>
+      <c r="AH11">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -3397,8 +3530,14 @@
       <c r="AF12" s="8">
         <v>2997</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG12" s="8">
+        <v>3083</v>
+      </c>
+      <c r="AH12">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
@@ -3495,8 +3634,14 @@
       <c r="AF13" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="8">
+        <v>17</v>
+      </c>
+      <c r="AH13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -3529,8 +3674,9 @@
       <c r="AD14" s="8"/>
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="8"/>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -3563,8 +3709,9 @@
       <c r="AD15" s="8"/>
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -3597,14 +3744,15 @@
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="11"/>
     </row>
   </sheetData>
@@ -3615,18 +3763,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S2" sqref="S2:S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -3678,8 +3827,14 @@
       <c r="Q1" s="5">
         <v>43955</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="S1" s="20">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -3732,8 +3887,14 @@
       <c r="Q2" s="19">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="19">
+        <v>277</v>
+      </c>
+      <c r="S2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -3785,8 +3946,14 @@
       <c r="Q3" s="8">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="8">
+        <v>24</v>
+      </c>
+      <c r="S3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -3838,8 +4005,14 @@
       <c r="Q4" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="8">
+        <v>15</v>
+      </c>
+      <c r="S4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -3891,8 +4064,14 @@
       <c r="Q5" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="8">
+        <v>18</v>
+      </c>
+      <c r="S5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -3944,8 +4123,14 @@
       <c r="Q6" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="8">
+        <v>38</v>
+      </c>
+      <c r="S6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -3997,8 +4182,14 @@
       <c r="Q7" s="8">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="8">
+        <v>45</v>
+      </c>
+      <c r="S7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4050,8 +4241,14 @@
       <c r="Q8" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="8">
+        <v>30</v>
+      </c>
+      <c r="S8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4103,8 +4300,14 @@
       <c r="Q9" s="8">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="8">
+        <v>37</v>
+      </c>
+      <c r="S9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -4156,8 +4359,14 @@
       <c r="Q10" s="8">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="8">
+        <v>60</v>
+      </c>
+      <c r="S10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -4209,8 +4418,14 @@
       <c r="Q11" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="8">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
@@ -4262,32 +4477,38 @@
       <c r="Q12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="11"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="11"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="11"/>
     </row>
   </sheetData>
@@ -4298,23 +4519,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI86"/>
+  <dimension ref="A1:BK86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK10" sqref="BK10"/>
+      <pane xSplit="2" topLeftCell="BH44" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BK67" sqref="BK67:BK85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -4494,8 +4715,14 @@
       <c r="BI1" s="5">
         <v>43955</v>
       </c>
-    </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="BK1" s="20">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>31</v>
@@ -4559,8 +4786,9 @@
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
-    </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ2" s="4"/>
+    </row>
+    <row r="3" spans="1:63">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -4732,8 +4960,14 @@
       <c r="BI3" s="12">
         <v>24329</v>
       </c>
-    </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ3" s="12">
+        <v>24984</v>
+      </c>
+      <c r="BK3">
+        <v>25856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -4917,8 +5151,14 @@
       <c r="BI4" s="12">
         <v>5322</v>
       </c>
-    </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ4" s="12">
+        <v>5461</v>
+      </c>
+      <c r="BK4">
+        <v>5654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -5090,8 +5330,14 @@
       <c r="BI5" s="12">
         <v>264</v>
       </c>
-    </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ5" s="12">
+        <v>277</v>
+      </c>
+      <c r="BK5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -5243,8 +5489,14 @@
       <c r="BI6" s="12">
         <v>667</v>
       </c>
-    </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ6" s="12">
+        <v>808</v>
+      </c>
+      <c r="BK6">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -5306,8 +5558,9 @@
       <c r="BG7" s="12"/>
       <c r="BH7" s="12"/>
       <c r="BI7" s="12"/>
-    </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ7" s="12"/>
+    </row>
+    <row r="8" spans="1:63">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -5387,8 +5640,14 @@
       <c r="BI8" s="12">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ8" s="12">
+        <v>345</v>
+      </c>
+      <c r="BK8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -5536,8 +5795,14 @@
       <c r="BI9" s="12">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ9" s="12">
+        <v>47</v>
+      </c>
+      <c r="BK9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -5685,8 +5950,14 @@
       <c r="BI10" s="12">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ10" s="12">
+        <v>440</v>
+      </c>
+      <c r="BK10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -5834,8 +6105,14 @@
       <c r="BI11" s="12">
         <v>246</v>
       </c>
-    </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ11" s="12">
+        <v>241</v>
+      </c>
+      <c r="BK11">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -5983,8 +6260,14 @@
       <c r="BI12" s="12">
         <v>194</v>
       </c>
-    </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ12" s="12">
+        <v>199</v>
+      </c>
+      <c r="BK12">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
@@ -6046,8 +6329,9 @@
       <c r="BG13" s="12"/>
       <c r="BH13" s="12"/>
       <c r="BI13" s="12"/>
-    </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ13" s="12"/>
+    </row>
+    <row r="14" spans="1:63">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
         <v>41</v>
@@ -6111,8 +6395,9 @@
       <c r="BG14" s="12"/>
       <c r="BH14" s="12"/>
       <c r="BI14" s="12"/>
-    </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ14" s="12"/>
+    </row>
+    <row r="15" spans="1:63">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -6178,8 +6463,9 @@
       <c r="BG15" s="12"/>
       <c r="BH15" s="12"/>
       <c r="BI15" s="12"/>
-    </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ15" s="12"/>
+    </row>
+    <row r="16" spans="1:63">
       <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
@@ -6329,8 +6615,14 @@
       <c r="BI16" s="12">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ16" s="12">
+        <v>98</v>
+      </c>
+      <c r="BK16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -6444,8 +6736,14 @@
       <c r="BI17" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ17" s="12">
+        <v>35</v>
+      </c>
+      <c r="BK17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -6559,8 +6857,14 @@
       <c r="BI18" s="12">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ18" s="12">
+        <v>63</v>
+      </c>
+      <c r="BK18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -6704,8 +7008,14 @@
       <c r="BI19" s="12">
         <v>195</v>
       </c>
-    </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ19" s="12">
+        <v>182</v>
+      </c>
+      <c r="BK19">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -6849,8 +7159,14 @@
       <c r="BI20" s="12">
         <v>230</v>
       </c>
-    </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ20" s="12">
+        <v>217</v>
+      </c>
+      <c r="BK20">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -6994,8 +7310,14 @@
       <c r="BI21" s="12">
         <v>828</v>
       </c>
-    </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ21" s="12">
+        <v>862</v>
+      </c>
+      <c r="BK21">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="12"/>
@@ -7057,8 +7379,9 @@
       <c r="BG22" s="12"/>
       <c r="BH22" s="12"/>
       <c r="BI22" s="12"/>
-    </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ22" s="12"/>
+    </row>
+    <row r="23" spans="1:63">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>50</v>
@@ -7122,8 +7445,9 @@
       <c r="BG23" s="12"/>
       <c r="BH23" s="12"/>
       <c r="BI23" s="12"/>
-    </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ23" s="12"/>
+    </row>
+    <row r="24" spans="1:63">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -7273,8 +7597,14 @@
       <c r="BI24" s="12">
         <v>106</v>
       </c>
-    </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ24" s="12">
+        <v>106</v>
+      </c>
+      <c r="BK24">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
       <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
@@ -7388,8 +7718,14 @@
       <c r="BI25" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ25" s="12">
+        <v>45</v>
+      </c>
+      <c r="BK25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -7503,8 +7839,14 @@
       <c r="BI26" s="12">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ26" s="12">
+        <v>61</v>
+      </c>
+      <c r="BK26">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
       <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
@@ -7648,8 +7990,14 @@
       <c r="BI27" s="12">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ27" s="12">
+        <v>50</v>
+      </c>
+      <c r="BK27">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
       <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
@@ -7793,8 +8141,14 @@
       <c r="BI28" s="12">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ28" s="12">
+        <v>95</v>
+      </c>
+      <c r="BK28">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
       <c r="A29" s="6" t="s">
         <v>51</v>
       </c>
@@ -7938,8 +8292,14 @@
       <c r="BI29" s="12">
         <v>831</v>
       </c>
-    </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ29" s="12">
+        <v>846</v>
+      </c>
+      <c r="BK29">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -8001,8 +8361,9 @@
       <c r="BG30" s="12"/>
       <c r="BH30" s="12"/>
       <c r="BI30" s="12"/>
-    </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ30" s="12"/>
+    </row>
+    <row r="31" spans="1:63">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
         <v>55</v>
@@ -8066,8 +8427,9 @@
       <c r="BG31" s="12"/>
       <c r="BH31" s="12"/>
       <c r="BI31" s="12"/>
-    </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ31" s="12"/>
+    </row>
+    <row r="32" spans="1:63">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
@@ -8209,8 +8571,14 @@
       <c r="BI32" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ32" s="12">
+        <v>65</v>
+      </c>
+      <c r="BK32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
       <c r="A33" s="6" t="s">
         <v>56</v>
       </c>
@@ -8320,8 +8688,14 @@
       <c r="BI33" s="12">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ33" s="12">
+        <v>34</v>
+      </c>
+      <c r="BK33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
       <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
@@ -8431,8 +8805,14 @@
       <c r="BI34" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ34" s="12">
+        <v>30</v>
+      </c>
+      <c r="BK34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
       <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
@@ -8572,8 +8952,14 @@
       <c r="BI35" s="12">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ35" s="12">
+        <v>18</v>
+      </c>
+      <c r="BK35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
       <c r="A36" s="6" t="s">
         <v>56</v>
       </c>
@@ -8711,8 +9097,14 @@
       <c r="BI36" s="12">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ36" s="12">
+        <v>52</v>
+      </c>
+      <c r="BK36">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
       <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
@@ -8854,8 +9246,14 @@
       <c r="BI37" s="12">
         <v>205</v>
       </c>
-    </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ37" s="12">
+        <v>216</v>
+      </c>
+      <c r="BK37">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
       <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
@@ -8953,8 +9351,14 @@
       <c r="BI38" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ38" s="12">
+        <v>1</v>
+      </c>
+      <c r="BK38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="12"/>
@@ -9016,8 +9420,9 @@
       <c r="BG39" s="12"/>
       <c r="BH39" s="12"/>
       <c r="BI39" s="12"/>
-    </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ39" s="12"/>
+    </row>
+    <row r="40" spans="1:63">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>55</v>
@@ -9081,8 +9486,9 @@
       <c r="BG40" s="12"/>
       <c r="BH40" s="12"/>
       <c r="BI40" s="12"/>
-    </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ40" s="12"/>
+    </row>
+    <row r="41" spans="1:63">
       <c r="A41" s="6" t="s">
         <v>60</v>
       </c>
@@ -9228,8 +9634,14 @@
       <c r="BI41" s="12">
         <v>158</v>
       </c>
-    </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ41" s="12">
+        <v>158</v>
+      </c>
+      <c r="BK41">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
@@ -9343,8 +9755,14 @@
       <c r="BI42" s="12">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ42" s="12">
+        <v>52</v>
+      </c>
+      <c r="BK42">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
       <c r="A43" s="6" t="s">
         <v>60</v>
       </c>
@@ -9458,8 +9876,14 @@
       <c r="BI43" s="12">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ43" s="12">
+        <v>101</v>
+      </c>
+      <c r="BK43">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63">
       <c r="A44" s="6" t="s">
         <v>60</v>
       </c>
@@ -9603,8 +10027,14 @@
       <c r="BI44" s="12">
         <v>799</v>
       </c>
-    </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ44" s="12">
+        <v>803</v>
+      </c>
+      <c r="BK44">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
       <c r="A45" s="6" t="s">
         <v>60</v>
       </c>
@@ -9718,8 +10148,14 @@
       <c r="BI45" s="12">
         <v>856</v>
       </c>
-    </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ45" s="12">
+        <v>855</v>
+      </c>
+      <c r="BK45">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="46" spans="1:63">
       <c r="A46" s="6" t="s">
         <v>60</v>
       </c>
@@ -9831,8 +10267,14 @@
       <c r="BI46" s="12">
         <v>490</v>
       </c>
-    </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ46" s="12">
+        <v>488</v>
+      </c>
+      <c r="BK46">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63">
       <c r="A47" s="6" t="s">
         <v>60</v>
       </c>
@@ -9940,8 +10382,14 @@
       <c r="BI47" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ47" s="12">
+        <v>1</v>
+      </c>
+      <c r="BK47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="12"/>
@@ -10003,8 +10451,9 @@
       <c r="BG48" s="12"/>
       <c r="BH48" s="12"/>
       <c r="BI48" s="12"/>
-    </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ48" s="12"/>
+    </row>
+    <row r="49" spans="1:63">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>68</v>
@@ -10068,8 +10517,9 @@
       <c r="BG49" s="12"/>
       <c r="BH49" s="12"/>
       <c r="BI49" s="12"/>
-    </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ49" s="12"/>
+    </row>
+    <row r="50" spans="1:63">
       <c r="A50" s="6" t="s">
         <v>69</v>
       </c>
@@ -10205,8 +10655,14 @@
       <c r="BI50" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ50" s="12">
+        <v>26</v>
+      </c>
+      <c r="BK50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63">
       <c r="A51" s="6" t="s">
         <v>69</v>
       </c>
@@ -10318,8 +10774,14 @@
       <c r="BI51" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ51" s="12">
+        <v>15</v>
+      </c>
+      <c r="BK51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:63">
       <c r="A52" s="6" t="s">
         <v>69</v>
       </c>
@@ -10431,8 +10893,14 @@
       <c r="BI52" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ52" s="12">
+        <v>10</v>
+      </c>
+      <c r="BK52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:63">
       <c r="A53" s="6" t="s">
         <v>69</v>
       </c>
@@ -10568,8 +11036,14 @@
       <c r="BI53" s="12">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ53" s="12">
+        <v>25</v>
+      </c>
+      <c r="BK53">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:63">
       <c r="A54" s="6" t="s">
         <v>69</v>
       </c>
@@ -10705,8 +11179,14 @@
       <c r="BI54" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ54" s="12">
+        <v>40</v>
+      </c>
+      <c r="BK54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:63">
       <c r="A55" s="6" t="s">
         <v>69</v>
       </c>
@@ -10842,8 +11322,14 @@
       <c r="BI55" s="12">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ55" s="12">
+        <v>112</v>
+      </c>
+      <c r="BK55">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:63">
       <c r="A56" s="6" t="s">
         <v>69</v>
       </c>
@@ -10951,8 +11437,14 @@
       <c r="BI56" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ56" s="12">
+        <v>1</v>
+      </c>
+      <c r="BK56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:63">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="12"/>
@@ -11014,8 +11506,9 @@
       <c r="BG57" s="12"/>
       <c r="BH57" s="12"/>
       <c r="BI57" s="12"/>
-    </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ57" s="12"/>
+    </row>
+    <row r="58" spans="1:63">
       <c r="A58" s="6" t="s">
         <v>71</v>
       </c>
@@ -11151,8 +11644,14 @@
       <c r="BI58" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ58" s="12">
+        <v>10</v>
+      </c>
+      <c r="BK58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63">
       <c r="A59" s="6" t="s">
         <v>71</v>
       </c>
@@ -11264,8 +11763,14 @@
       <c r="BI59" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ59" s="12">
+        <v>4</v>
+      </c>
+      <c r="BK59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63">
       <c r="A60" s="6" t="s">
         <v>71</v>
       </c>
@@ -11377,8 +11882,14 @@
       <c r="BI60" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ60" s="12">
+        <v>6</v>
+      </c>
+      <c r="BK60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63">
       <c r="A61" s="6" t="s">
         <v>71</v>
       </c>
@@ -11514,8 +12025,14 @@
       <c r="BI61" s="12">
         <v>45</v>
       </c>
-    </row>
-    <row r="62" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ61" s="12">
+        <v>44</v>
+      </c>
+      <c r="BK61">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63">
       <c r="A62" s="6" t="s">
         <v>71</v>
       </c>
@@ -11651,8 +12168,14 @@
       <c r="BI62" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ62" s="12">
+        <v>48</v>
+      </c>
+      <c r="BK62">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63">
       <c r="A63" s="6" t="s">
         <v>71</v>
       </c>
@@ -11786,8 +12309,14 @@
       <c r="BI63" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ63" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63">
       <c r="A64" s="6" t="s">
         <v>71</v>
       </c>
@@ -11899,8 +12428,14 @@
       <c r="BI64" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ64" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="12"/>
@@ -11962,8 +12497,9 @@
       <c r="BG65" s="12"/>
       <c r="BH65" s="12"/>
       <c r="BI65" s="12"/>
-    </row>
-    <row r="66" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ65" s="12"/>
+    </row>
+    <row r="66" spans="1:63">
       <c r="A66" s="7"/>
       <c r="B66" s="6" t="s">
         <v>78</v>
@@ -12027,8 +12563,9 @@
       <c r="BG66" s="12"/>
       <c r="BH66" s="12"/>
       <c r="BI66" s="12"/>
-    </row>
-    <row r="67" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ66" s="12"/>
+    </row>
+    <row r="67" spans="1:63">
       <c r="A67" s="6" t="s">
         <v>79</v>
       </c>
@@ -12164,8 +12701,14 @@
       <c r="BI67" s="12">
         <v>220</v>
       </c>
-    </row>
-    <row r="68" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ67" s="12">
+        <v>220</v>
+      </c>
+      <c r="BK67">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63">
       <c r="A68" s="6" t="s">
         <v>79</v>
       </c>
@@ -12301,8 +12844,14 @@
       <c r="BI68" s="12">
         <v>303</v>
       </c>
-    </row>
-    <row r="69" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ68" s="12">
+        <v>311</v>
+      </c>
+      <c r="BK68">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63">
       <c r="A69" s="6" t="s">
         <v>79</v>
       </c>
@@ -12438,8 +12987,14 @@
       <c r="BI69" s="12">
         <v>243</v>
       </c>
-    </row>
-    <row r="70" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ69" s="12">
+        <v>263</v>
+      </c>
+      <c r="BK69">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
       <c r="A70" s="6" t="s">
         <v>79</v>
       </c>
@@ -12547,8 +13102,14 @@
       <c r="BI70" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ70" s="12">
+        <v>9</v>
+      </c>
+      <c r="BK70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="12"/>
@@ -12610,8 +13171,9 @@
       <c r="BG71" s="12"/>
       <c r="BH71" s="12"/>
       <c r="BI71" s="12"/>
-    </row>
-    <row r="72" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ71" s="12"/>
+    </row>
+    <row r="72" spans="1:63">
       <c r="A72" s="6" t="s">
         <v>84</v>
       </c>
@@ -12747,8 +13309,14 @@
       <c r="BI72" s="12">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ72" s="12">
+        <v>75</v>
+      </c>
+      <c r="BK72">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63">
       <c r="A73" s="6" t="s">
         <v>84</v>
       </c>
@@ -12884,8 +13452,14 @@
       <c r="BI73" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ73" s="12">
+        <v>31</v>
+      </c>
+      <c r="BK73">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63">
       <c r="A74" s="6" t="s">
         <v>84</v>
       </c>
@@ -13021,8 +13595,14 @@
       <c r="BI74" s="12">
         <v>105</v>
       </c>
-    </row>
-    <row r="75" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ74" s="12">
+        <v>106</v>
+      </c>
+      <c r="BK74">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -13150,8 +13730,14 @@
       <c r="BI75" s="12">
         <v>128</v>
       </c>
-    </row>
-    <row r="76" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ75" s="12">
+        <v>131</v>
+      </c>
+      <c r="BK75">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="12"/>
@@ -13213,8 +13799,9 @@
       <c r="BG76" s="12"/>
       <c r="BH76" s="12"/>
       <c r="BI76" s="12"/>
-    </row>
-    <row r="77" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ76" s="12"/>
+    </row>
+    <row r="77" spans="1:63">
       <c r="A77" s="6" t="s">
         <v>85</v>
       </c>
@@ -13350,8 +13937,14 @@
       <c r="BI77" s="12">
         <v>70</v>
       </c>
-    </row>
-    <row r="78" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ77" s="12">
+        <v>72</v>
+      </c>
+      <c r="BK77">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
       <c r="A78" s="6" t="s">
         <v>85</v>
       </c>
@@ -13487,8 +14080,14 @@
       <c r="BI78" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ78" s="12">
+        <v>51</v>
+      </c>
+      <c r="BK78">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
       <c r="A79" s="6" t="s">
         <v>85</v>
       </c>
@@ -13602,8 +14201,14 @@
       <c r="BI79" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ79" s="12">
+        <v>152</v>
+      </c>
+      <c r="BK79">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
       <c r="A80" s="6" t="s">
         <v>85</v>
       </c>
@@ -13713,8 +14318,14 @@
       <c r="BI80" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ80" s="12">
+        <v>5</v>
+      </c>
+      <c r="BK80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
       <c r="A81" s="6" t="s">
         <v>85</v>
       </c>
@@ -13848,8 +14459,14 @@
       <c r="BI81" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ81" s="12">
+        <v>13</v>
+      </c>
+      <c r="BK81">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="12"/>
@@ -13911,8 +14528,9 @@
       <c r="BG82" s="12"/>
       <c r="BH82" s="12"/>
       <c r="BI82" s="12"/>
-    </row>
-    <row r="83" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ82" s="12"/>
+    </row>
+    <row r="83" spans="1:63">
       <c r="A83" s="6" t="s">
         <v>92</v>
       </c>
@@ -13994,8 +14612,14 @@
       <c r="BI83" s="12">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ83" s="12">
+        <v>142</v>
+      </c>
+      <c r="BK83">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
       <c r="A84" s="6" t="s">
         <v>92</v>
       </c>
@@ -14077,8 +14701,14 @@
       <c r="BI84" s="12">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ84" s="12">
+        <v>19</v>
+      </c>
+      <c r="BK84">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
       <c r="A85" s="6" t="s">
         <v>92</v>
       </c>
@@ -14160,8 +14790,14 @@
       <c r="BI85" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ85" s="12">
+        <v>19</v>
+      </c>
+      <c r="BK85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="12"/>
@@ -14223,6 +14859,7 @@
       <c r="BG86" s="12"/>
       <c r="BH86" s="12"/>
       <c r="BI86" s="12"/>
+      <c r="BJ86" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14232,18 +14869,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="A1" s="9"/>
       <c r="B1" s="5">
         <v>43926</v>
@@ -14335,8 +14973,14 @@
       <c r="AE1" s="5">
         <v>43955</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="AG1" s="20">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -14370,8 +15014,9 @@
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF2" s="4"/>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
@@ -14465,8 +15110,14 @@
       <c r="AE3" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -14560,8 +15211,14 @@
       <c r="AE4" s="8">
         <v>210</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF4" s="8">
+        <v>220</v>
+      </c>
+      <c r="AG4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="10" t="s">
         <v>96</v>
       </c>
@@ -14655,8 +15312,14 @@
       <c r="AE5" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF5" s="8">
+        <v>21</v>
+      </c>
+      <c r="AG5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="10" t="s">
         <v>97</v>
       </c>
@@ -14750,8 +15413,14 @@
       <c r="AE6" s="8">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF6" s="8">
+        <v>29</v>
+      </c>
+      <c r="AG6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="10" t="s">
         <v>98</v>
       </c>
@@ -14843,8 +15512,14 @@
       <c r="AE7" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -14876,8 +15551,9 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="8"/>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -14909,8 +15585,9 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="8"/>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -14942,8 +15619,9 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="8"/>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -14975,35 +15653,36 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="8"/>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33">
       <c r="A16" s="11"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="11"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="11"/>
     </row>
   </sheetData>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DF244E-169C-D049-8089-E4A3694277C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="6" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB097C5-61FE-3342-9C03-F1C59662C9D7}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -879,16 +879,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="13">
-        <v>5654</v>
+        <v>5899</v>
       </c>
       <c r="C2" s="13">
-        <v>2762</v>
+        <v>2879</v>
       </c>
       <c r="D2" s="13">
-        <v>2882</v>
+        <v>3006</v>
       </c>
       <c r="E2" s="14">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -896,13 +896,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
       </c>
       <c r="D3" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="18">
         <v>0</v>
@@ -913,16 +913,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="13">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C4" s="8">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D4" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E4" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -930,13 +930,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="13">
-        <v>886</v>
+        <v>940</v>
       </c>
       <c r="C5" s="8">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="D5" s="8">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
@@ -947,13 +947,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="C6" s="8">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="D6" s="8">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -964,13 +964,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="13">
-        <v>905</v>
+        <v>937</v>
       </c>
       <c r="C7" s="8">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="D7" s="8">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="13">
-        <v>980</v>
+        <v>1009</v>
       </c>
       <c r="C8" s="8">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="D8" s="8">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -998,16 +998,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="13">
-        <v>850</v>
+        <v>891</v>
       </c>
       <c r="C9" s="8">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="D9" s="8">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="E9" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1015,13 +1015,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="13">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C10" s="8">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D10" s="8">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
@@ -1032,13 +1032,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C11" s="8">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D11" s="8">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -1055,11 +1055,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL3" sqref="AL3:AL11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1068,7 +1068,7 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1107,7 +1107,7 @@
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1">
+    <row r="2" spans="1:39" s="1" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1222,8 +1222,11 @@
       <c r="AL2" s="21">
         <v>43957</v>
       </c>
-    </row>
-    <row r="3" spans="1:38">
+      <c r="AM2" s="21">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1338,8 +1341,11 @@
       <c r="AL3">
         <v>746</v>
       </c>
-    </row>
-    <row r="4" spans="1:38">
+      <c r="AM3">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1454,8 +1460,11 @@
       <c r="AL4">
         <v>357</v>
       </c>
-    </row>
-    <row r="5" spans="1:38">
+      <c r="AM4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1570,8 +1579,11 @@
       <c r="AL5">
         <v>332</v>
       </c>
-    </row>
-    <row r="6" spans="1:38">
+      <c r="AM5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1686,8 +1698,11 @@
       <c r="AL6">
         <v>1089</v>
       </c>
-    </row>
-    <row r="7" spans="1:38">
+      <c r="AM6">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1802,8 +1817,11 @@
       <c r="AL7">
         <v>887</v>
       </c>
-    </row>
-    <row r="8" spans="1:38">
+      <c r="AM7">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1918,8 +1936,11 @@
       <c r="AL8">
         <v>548</v>
       </c>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="AM8">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2034,8 +2055,11 @@
       <c r="AL9">
         <v>823</v>
       </c>
-    </row>
-    <row r="10" spans="1:38">
+      <c r="AM9">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2150,8 +2174,11 @@
       <c r="AL10">
         <v>799</v>
       </c>
-    </row>
-    <row r="11" spans="1:38">
+      <c r="AM10">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2265,6 +2292,9 @@
       </c>
       <c r="AL11">
         <v>73</v>
+      </c>
+      <c r="AM11">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2275,11 +2305,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="AH10" sqref="AH10:AH13"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="AI10" sqref="AI10:AI13"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -2293,7 +2323,7 @@
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -2396,8 +2426,11 @@
       <c r="AH1" s="20">
         <v>43957</v>
       </c>
-    </row>
-    <row r="2" spans="1:34">
+      <c r="AI1" s="20">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -2500,8 +2533,11 @@
       <c r="AH2">
         <v>734</v>
       </c>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AI2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2604,8 +2640,11 @@
       <c r="AH3">
         <v>900</v>
       </c>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AI3">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2708,8 +2747,11 @@
       <c r="AH4">
         <v>2710</v>
       </c>
-    </row>
-    <row r="5" spans="1:34">
+      <c r="AI4">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -2812,8 +2854,11 @@
       <c r="AH5">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:34">
+      <c r="AI5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -2916,8 +2961,11 @@
       <c r="AH6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AI6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -3016,8 +3064,11 @@
       <c r="AH7">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AI7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -3120,8 +3171,11 @@
       <c r="AH8">
         <v>1167</v>
       </c>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="AI8">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -3224,8 +3278,11 @@
       <c r="AH9">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="AI9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
@@ -3328,8 +3385,11 @@
       <c r="AH10">
         <v>1114</v>
       </c>
-    </row>
-    <row r="11" spans="1:34">
+      <c r="AI10">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
@@ -3432,8 +3492,11 @@
       <c r="AH11">
         <v>1227</v>
       </c>
-    </row>
-    <row r="12" spans="1:34">
+      <c r="AI11">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -3536,8 +3599,11 @@
       <c r="AH12">
         <v>3292</v>
       </c>
-    </row>
-    <row r="13" spans="1:34">
+      <c r="AI12">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
@@ -3640,8 +3706,11 @@
       <c r="AH13">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:34">
+      <c r="AI13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -3676,7 +3745,7 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -3711,7 +3780,7 @@
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -3763,11 +3832,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S2" sqref="S2:S12"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T2" sqref="T2:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3775,7 +3844,7 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -3833,8 +3902,11 @@
       <c r="S1" s="20">
         <v>43957</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="20">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -3893,8 +3965,11 @@
       <c r="S2">
         <v>285</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -3952,8 +4027,11 @@
       <c r="S3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4011,8 +4089,11 @@
       <c r="S4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4070,8 +4151,11 @@
       <c r="S5">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4129,8 +4213,11 @@
       <c r="S6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4188,8 +4275,11 @@
       <c r="S7">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4247,8 +4337,11 @@
       <c r="S8">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4306,8 +4399,11 @@
       <c r="S9">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -4365,8 +4461,11 @@
       <c r="S10">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -4424,8 +4523,11 @@
       <c r="S11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
@@ -4483,17 +4585,20 @@
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1">
@@ -4519,11 +4624,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK86"/>
+  <dimension ref="A1:BL86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BH44" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK67" sqref="BK67:BK85"/>
+      <pane xSplit="2" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BL67" sqref="BL67:BL85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4535,7 +4640,7 @@
     <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:64">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -4721,8 +4826,11 @@
       <c r="BK1" s="20">
         <v>43957</v>
       </c>
-    </row>
-    <row r="2" spans="1:63">
+      <c r="BL1" s="20">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>31</v>
@@ -4788,7 +4896,7 @@
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:64">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -4966,8 +5074,11 @@
       <c r="BK3">
         <v>25856</v>
       </c>
-    </row>
-    <row r="4" spans="1:63">
+      <c r="BL3">
+        <v>27115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -5157,8 +5268,11 @@
       <c r="BK4">
         <v>5654</v>
       </c>
-    </row>
-    <row r="5" spans="1:63">
+      <c r="BL4">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -5336,8 +5450,11 @@
       <c r="BK5">
         <v>285</v>
       </c>
-    </row>
-    <row r="6" spans="1:63">
+      <c r="BL5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -5495,8 +5612,11 @@
       <c r="BK6">
         <v>825</v>
       </c>
-    </row>
-    <row r="7" spans="1:63">
+      <c r="BL6">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -5560,7 +5680,7 @@
       <c r="BI7" s="12"/>
       <c r="BJ7" s="12"/>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:64">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -5646,8 +5766,11 @@
       <c r="BK8">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:63">
+      <c r="BL8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -5801,8 +5924,11 @@
       <c r="BK9">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:63">
+      <c r="BL9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -5956,8 +6082,11 @@
       <c r="BK10">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:63">
+      <c r="BL10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -6111,8 +6240,11 @@
       <c r="BK11">
         <v>259</v>
       </c>
-    </row>
-    <row r="12" spans="1:63">
+      <c r="BL11">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -6266,8 +6398,11 @@
       <c r="BK12">
         <v>181</v>
       </c>
-    </row>
-    <row r="13" spans="1:63">
+      <c r="BL12">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
@@ -6331,7 +6466,7 @@
       <c r="BI13" s="12"/>
       <c r="BJ13" s="12"/>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:64">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
         <v>41</v>
@@ -6397,7 +6532,7 @@
       <c r="BI14" s="12"/>
       <c r="BJ14" s="12"/>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:64">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -6465,7 +6600,7 @@
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:64">
       <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
@@ -6621,8 +6756,11 @@
       <c r="BK16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:63">
+      <c r="BL16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:64">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -6742,8 +6880,11 @@
       <c r="BK17">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:63">
+      <c r="BL17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -6863,8 +7004,11 @@
       <c r="BK18">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:63">
+      <c r="BL18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -7014,8 +7158,11 @@
       <c r="BK19">
         <v>166</v>
       </c>
-    </row>
-    <row r="20" spans="1:63">
+      <c r="BL19">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:64">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -7165,8 +7312,11 @@
       <c r="BK20">
         <v>202</v>
       </c>
-    </row>
-    <row r="21" spans="1:63">
+      <c r="BL20">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -7316,8 +7466,11 @@
       <c r="BK21">
         <v>904</v>
       </c>
-    </row>
-    <row r="22" spans="1:63">
+      <c r="BL21">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="12"/>
@@ -7381,7 +7534,7 @@
       <c r="BI22" s="12"/>
       <c r="BJ22" s="12"/>
     </row>
-    <row r="23" spans="1:63">
+    <row r="23" spans="1:64">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>50</v>
@@ -7447,7 +7600,7 @@
       <c r="BI23" s="12"/>
       <c r="BJ23" s="12"/>
     </row>
-    <row r="24" spans="1:63">
+    <row r="24" spans="1:64">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -7603,8 +7756,11 @@
       <c r="BK24">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:63">
+      <c r="BL24">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:64">
       <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
@@ -7724,8 +7880,11 @@
       <c r="BK25">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:63">
+      <c r="BL25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:64">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -7845,8 +8004,11 @@
       <c r="BK26">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:63">
+      <c r="BL26">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:64">
       <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
@@ -7996,8 +8158,11 @@
       <c r="BK27">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="1:63">
+      <c r="BL27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:64">
       <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
@@ -8147,8 +8312,11 @@
       <c r="BK28">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:63">
+      <c r="BL28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:64">
       <c r="A29" s="6" t="s">
         <v>51</v>
       </c>
@@ -8298,8 +8466,11 @@
       <c r="BK29">
         <v>871</v>
       </c>
-    </row>
-    <row r="30" spans="1:63">
+      <c r="BL29">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:64">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -8363,7 +8534,7 @@
       <c r="BI30" s="12"/>
       <c r="BJ30" s="12"/>
     </row>
-    <row r="31" spans="1:63">
+    <row r="31" spans="1:64">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
         <v>55</v>
@@ -8429,7 +8600,7 @@
       <c r="BI31" s="12"/>
       <c r="BJ31" s="12"/>
     </row>
-    <row r="32" spans="1:63">
+    <row r="32" spans="1:64">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
@@ -8577,8 +8748,11 @@
       <c r="BK32">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:63">
+      <c r="BL32">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:64">
       <c r="A33" s="6" t="s">
         <v>56</v>
       </c>
@@ -8694,8 +8868,11 @@
       <c r="BK33">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:63">
+      <c r="BL33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:64">
       <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
@@ -8811,8 +8988,11 @@
       <c r="BK34">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:63">
+      <c r="BL34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:64">
       <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
@@ -8958,8 +9138,11 @@
       <c r="BK35">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:63">
+      <c r="BL35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:64">
       <c r="A36" s="6" t="s">
         <v>56</v>
       </c>
@@ -9103,8 +9286,11 @@
       <c r="BK36">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:63">
+      <c r="BL36">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:64">
       <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
@@ -9252,8 +9438,11 @@
       <c r="BK37">
         <v>226</v>
       </c>
-    </row>
-    <row r="38" spans="1:63">
+      <c r="BL37">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:64">
       <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
@@ -9357,8 +9546,11 @@
       <c r="BK38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:63">
+      <c r="BL38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:64">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="12"/>
@@ -9422,7 +9614,7 @@
       <c r="BI39" s="12"/>
       <c r="BJ39" s="12"/>
     </row>
-    <row r="40" spans="1:63">
+    <row r="40" spans="1:64">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>55</v>
@@ -9488,7 +9680,7 @@
       <c r="BI40" s="12"/>
       <c r="BJ40" s="12"/>
     </row>
-    <row r="41" spans="1:63">
+    <row r="41" spans="1:64">
       <c r="A41" s="6" t="s">
         <v>60</v>
       </c>
@@ -9640,8 +9832,11 @@
       <c r="BK41">
         <v>158</v>
       </c>
-    </row>
-    <row r="42" spans="1:63">
+      <c r="BL41">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:64">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
@@ -9761,8 +9956,11 @@
       <c r="BK42">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:63">
+      <c r="BL42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:64">
       <c r="A43" s="6" t="s">
         <v>60</v>
       </c>
@@ -9882,8 +10080,11 @@
       <c r="BK43">
         <v>110</v>
       </c>
-    </row>
-    <row r="44" spans="1:63">
+      <c r="BL43">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:64">
       <c r="A44" s="6" t="s">
         <v>60</v>
       </c>
@@ -10033,8 +10234,11 @@
       <c r="BK44">
         <v>811</v>
       </c>
-    </row>
-    <row r="45" spans="1:63">
+      <c r="BL44">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:64">
       <c r="A45" s="6" t="s">
         <v>60</v>
       </c>
@@ -10154,8 +10358,11 @@
       <c r="BK45">
         <v>854</v>
       </c>
-    </row>
-    <row r="46" spans="1:63">
+      <c r="BL45">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="46" spans="1:64">
       <c r="A46" s="6" t="s">
         <v>60</v>
       </c>
@@ -10273,8 +10480,11 @@
       <c r="BK46">
         <v>478</v>
       </c>
-    </row>
-    <row r="47" spans="1:63">
+      <c r="BL46">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="47" spans="1:64">
       <c r="A47" s="6" t="s">
         <v>60</v>
       </c>
@@ -10388,8 +10598,11 @@
       <c r="BK47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:63">
+      <c r="BL47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:64">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="12"/>
@@ -10453,7 +10666,7 @@
       <c r="BI48" s="12"/>
       <c r="BJ48" s="12"/>
     </row>
-    <row r="49" spans="1:63">
+    <row r="49" spans="1:64">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>68</v>
@@ -10519,7 +10732,7 @@
       <c r="BI49" s="12"/>
       <c r="BJ49" s="12"/>
     </row>
-    <row r="50" spans="1:63">
+    <row r="50" spans="1:64">
       <c r="A50" s="6" t="s">
         <v>69</v>
       </c>
@@ -10661,8 +10874,11 @@
       <c r="BK50">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:63">
+      <c r="BL50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:64">
       <c r="A51" s="6" t="s">
         <v>69</v>
       </c>
@@ -10780,8 +10996,11 @@
       <c r="BK51">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:63">
+      <c r="BL51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:64">
       <c r="A52" s="6" t="s">
         <v>69</v>
       </c>
@@ -10899,8 +11118,11 @@
       <c r="BK52">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:63">
+      <c r="BL52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:64">
       <c r="A53" s="6" t="s">
         <v>69</v>
       </c>
@@ -11042,8 +11264,11 @@
       <c r="BK53">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:63">
+      <c r="BL53">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:64">
       <c r="A54" s="6" t="s">
         <v>69</v>
       </c>
@@ -11185,8 +11410,11 @@
       <c r="BK54">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:63">
+      <c r="BL54">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:64">
       <c r="A55" s="6" t="s">
         <v>69</v>
       </c>
@@ -11328,8 +11556,11 @@
       <c r="BK55">
         <v>113</v>
       </c>
-    </row>
-    <row r="56" spans="1:63">
+      <c r="BL55">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:64">
       <c r="A56" s="6" t="s">
         <v>69</v>
       </c>
@@ -11443,8 +11674,11 @@
       <c r="BK56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:63">
+      <c r="BL56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:64">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="12"/>
@@ -11508,7 +11742,7 @@
       <c r="BI57" s="12"/>
       <c r="BJ57" s="12"/>
     </row>
-    <row r="58" spans="1:63">
+    <row r="58" spans="1:64">
       <c r="A58" s="6" t="s">
         <v>71</v>
       </c>
@@ -11650,8 +11884,11 @@
       <c r="BK58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:63">
+      <c r="BL58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:64">
       <c r="A59" s="6" t="s">
         <v>71</v>
       </c>
@@ -11769,8 +12006,11 @@
       <c r="BK59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:63">
+      <c r="BL59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:64">
       <c r="A60" s="6" t="s">
         <v>71</v>
       </c>
@@ -11888,8 +12128,11 @@
       <c r="BK60">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:63">
+      <c r="BL60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:64">
       <c r="A61" s="6" t="s">
         <v>71</v>
       </c>
@@ -12031,8 +12274,11 @@
       <c r="BK61">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:63">
+      <c r="BL61">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:64">
       <c r="A62" s="6" t="s">
         <v>71</v>
       </c>
@@ -12174,8 +12420,11 @@
       <c r="BK62">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:63">
+      <c r="BL62">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:64">
       <c r="A63" s="6" t="s">
         <v>71</v>
       </c>
@@ -12315,8 +12564,11 @@
       <c r="BK63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:63">
+      <c r="BL63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:64">
       <c r="A64" s="6" t="s">
         <v>71</v>
       </c>
@@ -12434,8 +12686,11 @@
       <c r="BK64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:63">
+      <c r="BL64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:64">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="12"/>
@@ -12499,7 +12754,7 @@
       <c r="BI65" s="12"/>
       <c r="BJ65" s="12"/>
     </row>
-    <row r="66" spans="1:63">
+    <row r="66" spans="1:64">
       <c r="A66" s="7"/>
       <c r="B66" s="6" t="s">
         <v>78</v>
@@ -12565,7 +12820,7 @@
       <c r="BI66" s="12"/>
       <c r="BJ66" s="12"/>
     </row>
-    <row r="67" spans="1:63">
+    <row r="67" spans="1:64">
       <c r="A67" s="6" t="s">
         <v>79</v>
       </c>
@@ -12707,8 +12962,11 @@
       <c r="BK67">
         <v>227</v>
       </c>
-    </row>
-    <row r="68" spans="1:63">
+      <c r="BL67">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:64">
       <c r="A68" s="6" t="s">
         <v>79</v>
       </c>
@@ -12850,8 +13108,11 @@
       <c r="BK68">
         <v>316</v>
       </c>
-    </row>
-    <row r="69" spans="1:63">
+      <c r="BL68">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:64">
       <c r="A69" s="6" t="s">
         <v>79</v>
       </c>
@@ -12993,8 +13254,11 @@
       <c r="BK69">
         <v>268</v>
       </c>
-    </row>
-    <row r="70" spans="1:63">
+      <c r="BL69">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:64">
       <c r="A70" s="6" t="s">
         <v>79</v>
       </c>
@@ -13108,8 +13372,11 @@
       <c r="BK70">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:63">
+      <c r="BL70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:64">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="12"/>
@@ -13173,7 +13440,7 @@
       <c r="BI71" s="12"/>
       <c r="BJ71" s="12"/>
     </row>
-    <row r="72" spans="1:63">
+    <row r="72" spans="1:64">
       <c r="A72" s="6" t="s">
         <v>84</v>
       </c>
@@ -13315,8 +13582,11 @@
       <c r="BK72">
         <v>78</v>
       </c>
-    </row>
-    <row r="73" spans="1:63">
+      <c r="BL72">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:64">
       <c r="A73" s="6" t="s">
         <v>84</v>
       </c>
@@ -13458,8 +13728,11 @@
       <c r="BK73">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:63">
+      <c r="BL73">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:64">
       <c r="A74" s="6" t="s">
         <v>84</v>
       </c>
@@ -13601,8 +13874,11 @@
       <c r="BK74">
         <v>108</v>
       </c>
-    </row>
-    <row r="75" spans="1:63">
+      <c r="BL74">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:64">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -13736,8 +14012,11 @@
       <c r="BK75">
         <v>134</v>
       </c>
-    </row>
-    <row r="76" spans="1:63">
+      <c r="BL75">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:64">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="12"/>
@@ -13801,7 +14080,7 @@
       <c r="BI76" s="12"/>
       <c r="BJ76" s="12"/>
     </row>
-    <row r="77" spans="1:63">
+    <row r="77" spans="1:64">
       <c r="A77" s="6" t="s">
         <v>85</v>
       </c>
@@ -13943,8 +14222,11 @@
       <c r="BK77">
         <v>72</v>
       </c>
-    </row>
-    <row r="78" spans="1:63">
+      <c r="BL77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:64">
       <c r="A78" s="6" t="s">
         <v>85</v>
       </c>
@@ -14086,8 +14368,11 @@
       <c r="BK78">
         <v>51</v>
       </c>
-    </row>
-    <row r="79" spans="1:63">
+      <c r="BL78">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:64">
       <c r="A79" s="6" t="s">
         <v>85</v>
       </c>
@@ -14207,8 +14492,11 @@
       <c r="BK79">
         <v>152</v>
       </c>
-    </row>
-    <row r="80" spans="1:63">
+      <c r="BL79">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:64">
       <c r="A80" s="6" t="s">
         <v>85</v>
       </c>
@@ -14324,8 +14612,11 @@
       <c r="BK80">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:63">
+      <c r="BL80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:64">
       <c r="A81" s="6" t="s">
         <v>85</v>
       </c>
@@ -14465,8 +14756,11 @@
       <c r="BK81">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:63">
+      <c r="BL81">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:64">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="12"/>
@@ -14530,7 +14824,7 @@
       <c r="BI82" s="12"/>
       <c r="BJ82" s="12"/>
     </row>
-    <row r="83" spans="1:63">
+    <row r="83" spans="1:64">
       <c r="A83" s="6" t="s">
         <v>92</v>
       </c>
@@ -14618,8 +14912,11 @@
       <c r="BK83">
         <v>144</v>
       </c>
-    </row>
-    <row r="84" spans="1:63">
+      <c r="BL83">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:64">
       <c r="A84" s="6" t="s">
         <v>92</v>
       </c>
@@ -14707,8 +15004,11 @@
       <c r="BK84">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:63">
+      <c r="BL84">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:64">
       <c r="A85" s="6" t="s">
         <v>92</v>
       </c>
@@ -14796,8 +15096,11 @@
       <c r="BK85">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="1:63">
+      <c r="BL85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:64">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="12"/>
@@ -14869,11 +15172,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG2" sqref="AG2"/>
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH3" sqref="AH3:AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14881,7 +15184,7 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" s="9"/>
       <c r="B1" s="5">
         <v>43926</v>
@@ -14979,8 +15282,11 @@
       <c r="AG1" s="20">
         <v>43957</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" s="20">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -15016,7 +15322,7 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
@@ -15116,8 +15422,11 @@
       <c r="AG3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -15217,8 +15526,11 @@
       <c r="AG4">
         <v>226</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="10" t="s">
         <v>96</v>
       </c>
@@ -15318,8 +15630,11 @@
       <c r="AG5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" s="10" t="s">
         <v>97</v>
       </c>
@@ -15419,8 +15734,11 @@
       <c r="AG6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AH6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="10" t="s">
         <v>98</v>
       </c>
@@ -15518,8 +15836,11 @@
       <c r="AG7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AH7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -15553,7 +15874,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:34">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -15587,7 +15908,7 @@
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:34">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -15621,7 +15942,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:34">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -15655,19 +15976,19 @@
       <c r="AE11" s="8"/>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:34">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:34">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:34">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:34">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:34">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1">

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22907"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DF244E-169C-D049-8089-E4A3694277C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -879,16 +879,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="13">
-        <v>5899</v>
+        <v>6102</v>
       </c>
       <c r="C2" s="13">
-        <v>2879</v>
+        <v>2970</v>
       </c>
       <c r="D2" s="13">
-        <v>3006</v>
+        <v>3116</v>
       </c>
       <c r="E2" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -896,13 +896,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
       </c>
       <c r="D3" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="18">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="13">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C4" s="8">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D4" s="8">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E4" s="12">
         <v>6</v>
@@ -930,13 +930,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="13">
-        <v>940</v>
+        <v>985</v>
       </c>
       <c r="C5" s="8">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="D5" s="8">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
@@ -947,16 +947,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>1120</v>
+        <v>1164</v>
       </c>
       <c r="C6" s="8">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="D6" s="8">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="E6" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -964,13 +964,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="13">
-        <v>937</v>
+        <v>965</v>
       </c>
       <c r="C7" s="8">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D7" s="8">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="13">
-        <v>1009</v>
+        <v>1039</v>
       </c>
       <c r="C8" s="8">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="D8" s="8">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="E8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -998,13 +998,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="13">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="C9" s="8">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D9" s="8">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -1015,13 +1015,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="13">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C10" s="8">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D10" s="8">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
@@ -1032,13 +1032,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C11" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D11" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -1055,11 +1055,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN3" sqref="AN3:AN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1068,7 +1068,7 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1107,7 +1107,7 @@
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1">
+    <row r="2" spans="1:40" s="1" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1225,8 +1225,11 @@
       <c r="AM2" s="21">
         <v>43958</v>
       </c>
-    </row>
-    <row r="3" spans="1:39">
+      <c r="AN2" s="21">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1344,8 +1347,11 @@
       <c r="AM3">
         <v>774</v>
       </c>
-    </row>
-    <row r="4" spans="1:39">
+      <c r="AN3">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1463,8 +1469,11 @@
       <c r="AM4">
         <v>372</v>
       </c>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="AN4">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1582,8 +1591,11 @@
       <c r="AM5">
         <v>339</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AN5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1701,8 +1713,11 @@
       <c r="AM6">
         <v>1150</v>
       </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="AN6">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1820,8 +1835,11 @@
       <c r="AM7">
         <v>930</v>
       </c>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AN7">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1939,8 +1957,11 @@
       <c r="AM8">
         <v>570</v>
       </c>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AN8">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2058,8 +2079,11 @@
       <c r="AM9">
         <v>860</v>
       </c>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AN9">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2177,8 +2201,11 @@
       <c r="AM10">
         <v>830</v>
       </c>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="AN10">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2295,6 +2322,9 @@
       </c>
       <c r="AM11">
         <v>74</v>
+      </c>
+      <c r="AN11">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2305,11 +2335,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="AI10" sqref="AI10:AI13"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="AJ10" sqref="AJ10:AJ13"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -2323,7 +2353,7 @@
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -2429,8 +2459,11 @@
       <c r="AI1" s="20">
         <v>43958</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="20">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -2536,8 +2569,11 @@
       <c r="AI2">
         <v>799</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2643,8 +2679,11 @@
       <c r="AI3">
         <v>927</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2750,8 +2789,11 @@
       <c r="AI4">
         <v>2793</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -2857,8 +2899,11 @@
       <c r="AI5">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -2964,8 +3009,11 @@
       <c r="AI6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="AJ6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -3067,8 +3115,11 @@
       <c r="AI7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -3174,8 +3225,11 @@
       <c r="AI8">
         <v>1232</v>
       </c>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AJ8">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -3281,8 +3335,11 @@
       <c r="AI9">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
@@ -3388,8 +3445,11 @@
       <c r="AI10">
         <v>1201</v>
       </c>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AJ10">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
@@ -3495,8 +3555,11 @@
       <c r="AI11">
         <v>1283</v>
       </c>
-    </row>
-    <row r="12" spans="1:35">
+      <c r="AJ11">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -3602,8 +3665,11 @@
       <c r="AI12">
         <v>3393</v>
       </c>
-    </row>
-    <row r="13" spans="1:35">
+      <c r="AJ12">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
       <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
@@ -3709,8 +3775,11 @@
       <c r="AI13">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:35">
+      <c r="AJ13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -3745,7 +3814,7 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:36">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -3780,7 +3849,7 @@
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:36">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -3832,11 +3901,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T2" sqref="T2:T12"/>
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U2" sqref="U2:U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3844,7 +3913,7 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -3905,8 +3974,11 @@
       <c r="T1" s="20">
         <v>43958</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="20">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -3968,8 +4040,11 @@
       <c r="T2">
         <v>304</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4030,8 +4105,11 @@
       <c r="T3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4092,8 +4170,11 @@
       <c r="T4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4154,8 +4235,11 @@
       <c r="T5">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4216,8 +4300,11 @@
       <c r="T6">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4278,8 +4365,11 @@
       <c r="T7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4340,8 +4430,11 @@
       <c r="T8">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4402,8 +4495,11 @@
       <c r="T9">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -4464,8 +4560,11 @@
       <c r="T10">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -4526,8 +4625,11 @@
       <c r="T11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
@@ -4588,17 +4690,20 @@
       <c r="T12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1">
@@ -4624,11 +4729,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL86"/>
+  <dimension ref="A1:BM86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BL67" sqref="BL67:BL85"/>
+      <pane xSplit="2" topLeftCell="BK70" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM67" sqref="BM67:BM85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4640,7 +4745,7 @@
     <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:65">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -4829,8 +4934,11 @@
       <c r="BL1" s="20">
         <v>43958</v>
       </c>
-    </row>
-    <row r="2" spans="1:64">
+      <c r="BM1" s="20">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>31</v>
@@ -4896,7 +5004,7 @@
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
     </row>
-    <row r="3" spans="1:64">
+    <row r="3" spans="1:65">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -5077,8 +5185,11 @@
       <c r="BL3">
         <v>27115</v>
       </c>
-    </row>
-    <row r="4" spans="1:64">
+      <c r="BM3">
+        <v>28183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -5271,8 +5382,11 @@
       <c r="BL4">
         <v>5899</v>
       </c>
-    </row>
-    <row r="5" spans="1:64">
+      <c r="BM4">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -5453,8 +5567,11 @@
       <c r="BL5">
         <v>304</v>
       </c>
-    </row>
-    <row r="6" spans="1:64">
+      <c r="BM5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -5615,8 +5732,11 @@
       <c r="BL6">
         <v>825</v>
       </c>
-    </row>
-    <row r="7" spans="1:64">
+      <c r="BM6">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -5680,7 +5800,7 @@
       <c r="BI7" s="12"/>
       <c r="BJ7" s="12"/>
     </row>
-    <row r="8" spans="1:64">
+    <row r="8" spans="1:65">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -5769,8 +5889,11 @@
       <c r="BL8">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:64">
+      <c r="BM8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -5927,8 +6050,11 @@
       <c r="BL9">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:64">
+      <c r="BM9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -6085,8 +6211,11 @@
       <c r="BL10">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:64">
+      <c r="BM10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -6243,8 +6372,11 @@
       <c r="BL11">
         <v>261</v>
       </c>
-    </row>
-    <row r="12" spans="1:64">
+      <c r="BM11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -6401,8 +6533,11 @@
       <c r="BL12">
         <v>179</v>
       </c>
-    </row>
-    <row r="13" spans="1:64">
+      <c r="BM12">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
@@ -6466,7 +6601,7 @@
       <c r="BI13" s="12"/>
       <c r="BJ13" s="12"/>
     </row>
-    <row r="14" spans="1:64">
+    <row r="14" spans="1:65">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
         <v>41</v>
@@ -6532,7 +6667,7 @@
       <c r="BI14" s="12"/>
       <c r="BJ14" s="12"/>
     </row>
-    <row r="15" spans="1:64">
+    <row r="15" spans="1:65">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -6600,7 +6735,7 @@
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
     </row>
-    <row r="16" spans="1:64">
+    <row r="16" spans="1:65">
       <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
@@ -6759,8 +6894,11 @@
       <c r="BL16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:64">
+      <c r="BM16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -6883,8 +7021,11 @@
       <c r="BL17">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:64">
+      <c r="BM17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -7007,8 +7148,11 @@
       <c r="BL18">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:64">
+      <c r="BM18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -7161,8 +7305,11 @@
       <c r="BL19">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:64">
+      <c r="BM19">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -7315,8 +7462,11 @@
       <c r="BL20">
         <v>189</v>
       </c>
-    </row>
-    <row r="21" spans="1:64">
+      <c r="BM20">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -7469,8 +7619,11 @@
       <c r="BL21">
         <v>927</v>
       </c>
-    </row>
-    <row r="22" spans="1:64">
+      <c r="BM21">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="12"/>
@@ -7534,7 +7687,7 @@
       <c r="BI22" s="12"/>
       <c r="BJ22" s="12"/>
     </row>
-    <row r="23" spans="1:64">
+    <row r="23" spans="1:65">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>50</v>
@@ -7600,7 +7753,7 @@
       <c r="BI23" s="12"/>
       <c r="BJ23" s="12"/>
     </row>
-    <row r="24" spans="1:64">
+    <row r="24" spans="1:65">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -7759,8 +7912,11 @@
       <c r="BL24">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:64">
+      <c r="BM24">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65">
       <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
@@ -7883,8 +8039,11 @@
       <c r="BL25">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:64">
+      <c r="BM25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:65">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -8007,8 +8166,11 @@
       <c r="BL26">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:64">
+      <c r="BM26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65">
       <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
@@ -8161,8 +8323,11 @@
       <c r="BL27">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:64">
+      <c r="BM27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65">
       <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
@@ -8315,8 +8480,11 @@
       <c r="BL28">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" spans="1:64">
+      <c r="BM28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65">
       <c r="A29" s="6" t="s">
         <v>51</v>
       </c>
@@ -8469,8 +8637,11 @@
       <c r="BL29">
         <v>889</v>
       </c>
-    </row>
-    <row r="30" spans="1:64">
+      <c r="BM29">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -8534,7 +8705,7 @@
       <c r="BI30" s="12"/>
       <c r="BJ30" s="12"/>
     </row>
-    <row r="31" spans="1:64">
+    <row r="31" spans="1:65">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
         <v>55</v>
@@ -8600,7 +8771,7 @@
       <c r="BI31" s="12"/>
       <c r="BJ31" s="12"/>
     </row>
-    <row r="32" spans="1:64">
+    <row r="32" spans="1:65">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
@@ -8751,8 +8922,11 @@
       <c r="BL32">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:64">
+      <c r="BM32">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:65">
       <c r="A33" s="6" t="s">
         <v>56</v>
       </c>
@@ -8871,8 +9045,11 @@
       <c r="BL33">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:64">
+      <c r="BM33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65">
       <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
@@ -8991,8 +9168,11 @@
       <c r="BL34">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:64">
+      <c r="BM34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:65">
       <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
@@ -9141,8 +9321,11 @@
       <c r="BL35">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:64">
+      <c r="BM35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65">
       <c r="A36" s="6" t="s">
         <v>56</v>
       </c>
@@ -9289,8 +9472,11 @@
       <c r="BL36">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:64">
+      <c r="BM36">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65">
       <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
@@ -9441,8 +9627,11 @@
       <c r="BL37">
         <v>227</v>
       </c>
-    </row>
-    <row r="38" spans="1:64">
+      <c r="BM37">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65">
       <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
@@ -9549,8 +9738,11 @@
       <c r="BL38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:64">
+      <c r="BM38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:65">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="12"/>
@@ -9614,7 +9806,7 @@
       <c r="BI39" s="12"/>
       <c r="BJ39" s="12"/>
     </row>
-    <row r="40" spans="1:64">
+    <row r="40" spans="1:65">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>55</v>
@@ -9680,7 +9872,7 @@
       <c r="BI40" s="12"/>
       <c r="BJ40" s="12"/>
     </row>
-    <row r="41" spans="1:64">
+    <row r="41" spans="1:65">
       <c r="A41" s="6" t="s">
         <v>60</v>
       </c>
@@ -9835,8 +10027,11 @@
       <c r="BL41">
         <v>160</v>
       </c>
-    </row>
-    <row r="42" spans="1:64">
+      <c r="BM41">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:65">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
@@ -9959,8 +10154,11 @@
       <c r="BL42">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:64">
+      <c r="BM42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:65">
       <c r="A43" s="6" t="s">
         <v>60</v>
       </c>
@@ -10083,8 +10281,11 @@
       <c r="BL43">
         <v>117</v>
       </c>
-    </row>
-    <row r="44" spans="1:64">
+      <c r="BM43">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:65">
       <c r="A44" s="6" t="s">
         <v>60</v>
       </c>
@@ -10237,8 +10438,11 @@
       <c r="BL44">
         <v>862</v>
       </c>
-    </row>
-    <row r="45" spans="1:64">
+      <c r="BM44">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="45" spans="1:65">
       <c r="A45" s="6" t="s">
         <v>60</v>
       </c>
@@ -10361,8 +10565,11 @@
       <c r="BL45">
         <v>900</v>
       </c>
-    </row>
-    <row r="46" spans="1:64">
+      <c r="BM45">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="46" spans="1:65">
       <c r="A46" s="6" t="s">
         <v>60</v>
       </c>
@@ -10483,8 +10690,11 @@
       <c r="BL46">
         <v>438</v>
       </c>
-    </row>
-    <row r="47" spans="1:64">
+      <c r="BM46">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="47" spans="1:65">
       <c r="A47" s="6" t="s">
         <v>60</v>
       </c>
@@ -10601,8 +10811,11 @@
       <c r="BL47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:64">
+      <c r="BM47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:65">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="12"/>
@@ -10666,7 +10879,7 @@
       <c r="BI48" s="12"/>
       <c r="BJ48" s="12"/>
     </row>
-    <row r="49" spans="1:64">
+    <row r="49" spans="1:65">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>68</v>
@@ -10732,7 +10945,7 @@
       <c r="BI49" s="12"/>
       <c r="BJ49" s="12"/>
     </row>
-    <row r="50" spans="1:64">
+    <row r="50" spans="1:65">
       <c r="A50" s="6" t="s">
         <v>69</v>
       </c>
@@ -10877,8 +11090,11 @@
       <c r="BL50">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:64">
+      <c r="BM50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:65">
       <c r="A51" s="6" t="s">
         <v>69</v>
       </c>
@@ -10999,8 +11215,11 @@
       <c r="BL51">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:64">
+      <c r="BM51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:65">
       <c r="A52" s="6" t="s">
         <v>69</v>
       </c>
@@ -11121,8 +11340,11 @@
       <c r="BL52">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:64">
+      <c r="BM52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:65">
       <c r="A53" s="6" t="s">
         <v>69</v>
       </c>
@@ -11267,8 +11489,11 @@
       <c r="BL53">
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="1:64">
+      <c r="BM53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:65">
       <c r="A54" s="6" t="s">
         <v>69</v>
       </c>
@@ -11413,8 +11638,11 @@
       <c r="BL54">
         <v>38</v>
       </c>
-    </row>
-    <row r="55" spans="1:64">
+      <c r="BM54">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:65">
       <c r="A55" s="6" t="s">
         <v>69</v>
       </c>
@@ -11559,8 +11787,11 @@
       <c r="BL55">
         <v>114</v>
       </c>
-    </row>
-    <row r="56" spans="1:64">
+      <c r="BM55">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:65">
       <c r="A56" s="6" t="s">
         <v>69</v>
       </c>
@@ -11677,8 +11908,11 @@
       <c r="BL56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:64">
+      <c r="BM56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:65">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="12"/>
@@ -11742,7 +11976,7 @@
       <c r="BI57" s="12"/>
       <c r="BJ57" s="12"/>
     </row>
-    <row r="58" spans="1:64">
+    <row r="58" spans="1:65">
       <c r="A58" s="6" t="s">
         <v>71</v>
       </c>
@@ -11887,8 +12121,11 @@
       <c r="BL58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:64">
+      <c r="BM58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:65">
       <c r="A59" s="6" t="s">
         <v>71</v>
       </c>
@@ -12009,8 +12246,11 @@
       <c r="BL59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:64">
+      <c r="BM59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:65">
       <c r="A60" s="6" t="s">
         <v>71</v>
       </c>
@@ -12131,8 +12371,11 @@
       <c r="BL60">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:64">
+      <c r="BM60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:65">
       <c r="A61" s="6" t="s">
         <v>71</v>
       </c>
@@ -12277,8 +12520,11 @@
       <c r="BL61">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:64">
+      <c r="BM61">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:65">
       <c r="A62" s="6" t="s">
         <v>71</v>
       </c>
@@ -12423,8 +12669,11 @@
       <c r="BL62">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:64">
+      <c r="BM62">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:65">
       <c r="A63" s="6" t="s">
         <v>71</v>
       </c>
@@ -12567,8 +12816,11 @@
       <c r="BL63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:64">
+      <c r="BM63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:65">
       <c r="A64" s="6" t="s">
         <v>71</v>
       </c>
@@ -12689,8 +12941,11 @@
       <c r="BL64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:64">
+      <c r="BM64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:65">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="12"/>
@@ -12754,7 +13009,7 @@
       <c r="BI65" s="12"/>
       <c r="BJ65" s="12"/>
     </row>
-    <row r="66" spans="1:64">
+    <row r="66" spans="1:65">
       <c r="A66" s="7"/>
       <c r="B66" s="6" t="s">
         <v>78</v>
@@ -12820,7 +13075,7 @@
       <c r="BI66" s="12"/>
       <c r="BJ66" s="12"/>
     </row>
-    <row r="67" spans="1:64">
+    <row r="67" spans="1:65">
       <c r="A67" s="6" t="s">
         <v>79</v>
       </c>
@@ -12965,8 +13220,11 @@
       <c r="BL67">
         <v>237</v>
       </c>
-    </row>
-    <row r="68" spans="1:64">
+      <c r="BM67">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:65">
       <c r="A68" s="6" t="s">
         <v>79</v>
       </c>
@@ -13111,8 +13369,11 @@
       <c r="BL68">
         <v>360</v>
       </c>
-    </row>
-    <row r="69" spans="1:64">
+      <c r="BM68">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:65">
       <c r="A69" s="6" t="s">
         <v>79</v>
       </c>
@@ -13257,8 +13518,11 @@
       <c r="BL69">
         <v>276</v>
       </c>
-    </row>
-    <row r="70" spans="1:64">
+      <c r="BM69">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:65">
       <c r="A70" s="6" t="s">
         <v>79</v>
       </c>
@@ -13375,8 +13639,11 @@
       <c r="BL70">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:64">
+      <c r="BM70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:65">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="12"/>
@@ -13440,7 +13707,7 @@
       <c r="BI71" s="12"/>
       <c r="BJ71" s="12"/>
     </row>
-    <row r="72" spans="1:64">
+    <row r="72" spans="1:65">
       <c r="A72" s="6" t="s">
         <v>84</v>
       </c>
@@ -13585,8 +13852,11 @@
       <c r="BL72">
         <v>79</v>
       </c>
-    </row>
-    <row r="73" spans="1:64">
+      <c r="BM72">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:65">
       <c r="A73" s="6" t="s">
         <v>84</v>
       </c>
@@ -13731,8 +14001,11 @@
       <c r="BL73">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:64">
+      <c r="BM73">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:65">
       <c r="A74" s="6" t="s">
         <v>84</v>
       </c>
@@ -13877,8 +14150,11 @@
       <c r="BL74">
         <v>103</v>
       </c>
-    </row>
-    <row r="75" spans="1:64">
+      <c r="BM74">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:65">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -14015,8 +14291,11 @@
       <c r="BL75">
         <v>145</v>
       </c>
-    </row>
-    <row r="76" spans="1:64">
+      <c r="BM75">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:65">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="12"/>
@@ -14080,7 +14359,7 @@
       <c r="BI76" s="12"/>
       <c r="BJ76" s="12"/>
     </row>
-    <row r="77" spans="1:64">
+    <row r="77" spans="1:65">
       <c r="A77" s="6" t="s">
         <v>85</v>
       </c>
@@ -14225,8 +14504,11 @@
       <c r="BL77">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:64">
+      <c r="BM77">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:65">
       <c r="A78" s="6" t="s">
         <v>85</v>
       </c>
@@ -14371,8 +14653,11 @@
       <c r="BL78">
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:64">
+      <c r="BM78">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:65">
       <c r="A79" s="6" t="s">
         <v>85</v>
       </c>
@@ -14495,8 +14780,11 @@
       <c r="BL79">
         <v>147</v>
       </c>
-    </row>
-    <row r="80" spans="1:64">
+      <c r="BM79">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:65">
       <c r="A80" s="6" t="s">
         <v>85</v>
       </c>
@@ -14615,8 +14903,11 @@
       <c r="BL80">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:64">
+      <c r="BM80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:65">
       <c r="A81" s="6" t="s">
         <v>85</v>
       </c>
@@ -14759,8 +15050,11 @@
       <c r="BL81">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:64">
+      <c r="BM81">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:65">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="12"/>
@@ -14824,7 +15118,7 @@
       <c r="BI82" s="12"/>
       <c r="BJ82" s="12"/>
     </row>
-    <row r="83" spans="1:64">
+    <row r="83" spans="1:65">
       <c r="A83" s="6" t="s">
         <v>92</v>
       </c>
@@ -14915,8 +15209,11 @@
       <c r="BL83">
         <v>145</v>
       </c>
-    </row>
-    <row r="84" spans="1:64">
+      <c r="BM83">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:65">
       <c r="A84" s="6" t="s">
         <v>92</v>
       </c>
@@ -15007,8 +15304,11 @@
       <c r="BL84">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:64">
+      <c r="BM84">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:65">
       <c r="A85" s="6" t="s">
         <v>92</v>
       </c>
@@ -15099,8 +15399,11 @@
       <c r="BL85">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:64">
+      <c r="BM85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:65">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="12"/>
@@ -15172,11 +15475,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH3" sqref="AH3:AH7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15184,7 +15487,7 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="9"/>
       <c r="B1" s="5">
         <v>43926</v>
@@ -15285,8 +15588,11 @@
       <c r="AH1" s="20">
         <v>43958</v>
       </c>
-    </row>
-    <row r="2" spans="1:34">
+      <c r="AI1" s="20">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -15322,7 +15628,7 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
@@ -15425,8 +15731,11 @@
       <c r="AH3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AI3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -15529,8 +15838,11 @@
       <c r="AH4">
         <v>241</v>
       </c>
-    </row>
-    <row r="5" spans="1:34">
+      <c r="AI4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="10" t="s">
         <v>96</v>
       </c>
@@ -15633,8 +15945,11 @@
       <c r="AH5">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:34">
+      <c r="AI5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="10" t="s">
         <v>97</v>
       </c>
@@ -15737,8 +16052,11 @@
       <c r="AH6">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AI6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" s="10" t="s">
         <v>98</v>
       </c>
@@ -15839,8 +16157,11 @@
       <c r="AH7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AI7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -15874,7 +16195,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -15908,7 +16229,7 @@
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -15942,7 +16263,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -15976,19 +16297,19 @@
       <c r="AE11" s="8"/>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1">

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DF244E-169C-D049-8089-E4A3694277C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07623D33-E400-C243-872A-885782D977B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="1220" windowWidth="51200" windowHeight="28340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Overall Stats" sheetId="1" r:id="rId6"/>
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -346,7 +346,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,7 +471,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -500,8 +500,6 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -825,14 +823,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.95">
+    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.95">
+    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -847,17 +845,17 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -874,24 +872,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13">
-        <v>6102</v>
+        <v>6272</v>
       </c>
       <c r="C2" s="13">
-        <v>2970</v>
+        <v>3056</v>
       </c>
       <c r="D2" s="13">
-        <v>3116</v>
+        <v>3199</v>
       </c>
       <c r="E2" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -908,143 +906,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="13">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C4" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D4" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E4" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="13">
-        <v>985</v>
+        <v>1021</v>
       </c>
       <c r="C5" s="8">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="D5" s="8">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>1164</v>
+        <v>1201</v>
       </c>
       <c r="C6" s="8">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="D6" s="8">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="E6" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="13">
-        <v>965</v>
+        <v>988</v>
       </c>
       <c r="C7" s="8">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D7" s="8">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="13">
-        <v>1039</v>
+        <v>1070</v>
       </c>
       <c r="C8" s="8">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="D8" s="8">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="13">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="C9" s="8">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="D9" s="8">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="13">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="C10" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D10" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C11" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D11" s="8">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
@@ -1055,20 +1053,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN3" sqref="AN3:AN11"/>
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1106,8 +1104,12 @@
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
-    </row>
-    <row r="2" spans="1:40" s="1" customFormat="1">
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+    </row>
+    <row r="2" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1219,17 +1221,20 @@
       <c r="AK2" s="5">
         <v>43956</v>
       </c>
-      <c r="AL2" s="21">
+      <c r="AL2" s="5">
         <v>43957</v>
       </c>
-      <c r="AM2" s="21">
+      <c r="AM2" s="5">
         <v>43958</v>
       </c>
-      <c r="AN2" s="21">
+      <c r="AN2" s="5">
         <v>43959</v>
       </c>
-    </row>
-    <row r="3" spans="1:40">
+      <c r="AO2" s="5">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1341,17 +1346,20 @@
       <c r="AK3" s="8">
         <v>710</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="8">
         <v>746</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="8">
         <v>774</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="8">
         <v>809</v>
       </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AO3" s="8">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1463,17 +1471,20 @@
       <c r="AK4" s="8">
         <v>352</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="8">
         <v>357</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="8">
         <v>372</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="8">
         <v>377</v>
       </c>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AO4" s="8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1585,17 +1596,20 @@
       <c r="AK5" s="8">
         <v>326</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="8">
         <v>332</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="8">
         <v>339</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="8">
         <v>343</v>
       </c>
-    </row>
-    <row r="6" spans="1:40">
+      <c r="AO5" s="8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1707,17 +1721,20 @@
       <c r="AK6" s="8">
         <v>1044</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="8">
         <v>1089</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="8">
         <v>1150</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="8">
         <v>1203</v>
       </c>
-    </row>
-    <row r="7" spans="1:40">
+      <c r="AO6" s="8">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1829,17 +1846,20 @@
       <c r="AK7" s="8">
         <v>846</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="8">
         <v>887</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="8">
         <v>930</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="8">
         <v>971</v>
       </c>
-    </row>
-    <row r="8" spans="1:40">
+      <c r="AO7" s="8">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1951,17 +1971,20 @@
       <c r="AK8" s="8">
         <v>533</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="8">
         <v>548</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="8">
         <v>570</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="8">
         <v>584</v>
       </c>
-    </row>
-    <row r="9" spans="1:40">
+      <c r="AO8" s="8">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2073,17 +2096,20 @@
       <c r="AK9" s="8">
         <v>802</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="8">
         <v>823</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="8">
         <v>860</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" s="8">
         <v>882</v>
       </c>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="AO9" s="8">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2195,17 +2221,20 @@
       <c r="AK10" s="8">
         <v>775</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="8">
         <v>799</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="8">
         <v>830</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="8">
         <v>862</v>
       </c>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="AO10" s="8">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2317,14 +2346,17 @@
       <c r="AK11" s="8">
         <v>73</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="8">
         <v>73</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="8">
         <v>74</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="8">
         <v>71</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2335,25 +2367,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="AJ10" sqref="AJ10:AJ13"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -2453,17 +2485,20 @@
       <c r="AG1" s="5">
         <v>43956</v>
       </c>
-      <c r="AH1" s="20">
+      <c r="AH1" s="5">
         <v>43957</v>
       </c>
-      <c r="AI1" s="20">
+      <c r="AI1" s="5">
         <v>43958</v>
       </c>
-      <c r="AJ1" s="20">
+      <c r="AJ1" s="5">
         <v>43959</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="5">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -2563,17 +2598,20 @@
       <c r="AG2" s="8">
         <v>810</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="8">
         <v>734</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="8">
         <v>799</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="8">
         <v>857</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2" s="8">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2673,17 +2711,20 @@
       <c r="AG3" s="8">
         <v>847</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="8">
         <v>900</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="8">
         <v>927</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="8">
         <v>944</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3" s="8">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2783,17 +2824,20 @@
       <c r="AG4" s="8">
         <v>2550</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="8">
         <v>2710</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="8">
         <v>2793</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="8">
         <v>2865</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -2893,17 +2937,20 @@
       <c r="AG5" s="8">
         <v>73</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="8">
         <v>75</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="8">
         <v>79</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="8">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5" s="8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -3003,17 +3050,20 @@
       <c r="AG6" s="8">
         <v>14</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="8">
         <v>14</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="8">
         <v>14</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AK6" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -3109,17 +3159,20 @@
       <c r="AG7" s="8">
         <v>10</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="8">
         <v>13</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="8">
         <v>14</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AK7" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -3219,17 +3272,20 @@
       <c r="AG8" s="8">
         <v>1124</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="8">
         <v>1167</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="8">
         <v>1232</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="8">
         <v>1286</v>
       </c>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="AK8" s="8">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -3329,17 +3385,20 @@
       <c r="AG9" s="8">
         <v>33</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="8">
         <v>41</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="8">
         <v>41</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="8">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AK9" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
@@ -3439,17 +3498,20 @@
       <c r="AG10" s="8">
         <v>1254</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="8">
         <v>1114</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="8">
         <v>1201</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="8">
         <v>1276</v>
       </c>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AK10" s="8">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
@@ -3549,17 +3611,20 @@
       <c r="AG11" s="8">
         <v>1107</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="8">
         <v>1227</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="8">
         <v>1283</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="8">
         <v>1337</v>
       </c>
-    </row>
-    <row r="12" spans="1:36">
+      <c r="AK11" s="8">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -3659,17 +3724,20 @@
       <c r="AG12" s="8">
         <v>3083</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="8">
         <v>3292</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="8">
         <v>3393</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="8">
         <v>3468</v>
       </c>
-    </row>
-    <row r="13" spans="1:36">
+      <c r="AK12" s="8">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
@@ -3769,17 +3837,20 @@
       <c r="AG13" s="8">
         <v>17</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="8">
         <v>21</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" s="8">
         <v>22</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" s="8">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="AK13" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -3813,8 +3884,12 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
-    </row>
-    <row r="15" spans="1:36">
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -3848,8 +3923,12 @@
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -3883,14 +3962,18 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
     </row>
   </sheetData>
@@ -3901,19 +3984,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U2" sqref="U2:U12"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -3968,17 +4051,20 @@
       <c r="R1" s="5">
         <v>43956</v>
       </c>
-      <c r="S1" s="20">
+      <c r="S1" s="5">
         <v>43957</v>
       </c>
-      <c r="T1" s="20">
+      <c r="T1" s="5">
         <v>43958</v>
       </c>
-      <c r="U1" s="20">
+      <c r="U1" s="5">
         <v>43959</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="5">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -4034,17 +4120,20 @@
       <c r="R2" s="19">
         <v>277</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="19">
         <v>285</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="19">
         <v>304</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="19">
         <v>311</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="19">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4099,17 +4188,20 @@
       <c r="R3" s="8">
         <v>24</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="8">
         <v>25</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="8">
         <v>25</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4164,17 +4256,20 @@
       <c r="R4" s="8">
         <v>15</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="8">
         <v>15</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="8">
         <v>16</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4229,17 +4324,20 @@
       <c r="R5" s="8">
         <v>18</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="8">
         <v>18</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="8">
         <v>19</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4294,17 +4392,20 @@
       <c r="R6" s="8">
         <v>38</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="8">
         <v>40</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="8">
         <v>42</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="8">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4359,17 +4460,20 @@
       <c r="R7" s="8">
         <v>45</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="8">
         <v>46</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="8">
         <v>50</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4424,17 +4528,20 @@
       <c r="R8" s="8">
         <v>30</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="8">
         <v>31</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="8">
         <v>33</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4489,17 +4596,20 @@
       <c r="R9" s="8">
         <v>37</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="8">
         <v>39</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="8">
         <v>42</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="8">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -4554,17 +4664,20 @@
       <c r="R10" s="8">
         <v>60</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="8">
         <v>61</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="8">
         <v>67</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="8">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -4619,17 +4732,20 @@
       <c r="R11" s="8">
         <v>10</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="8">
         <v>10</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="8">
         <v>10</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
@@ -4684,41 +4800,44 @@
       <c r="R12" s="8">
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="8">
         <v>0</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="8">
         <v>0</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
     </row>
   </sheetData>
@@ -4729,23 +4848,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM86"/>
+  <dimension ref="A1:BN86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BK70" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM67" sqref="BM67:BM85"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM10" sqref="BM10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -4928,17 +5047,20 @@
       <c r="BJ1" s="5">
         <v>43956</v>
       </c>
-      <c r="BK1" s="20">
+      <c r="BK1" s="5">
         <v>43957</v>
       </c>
-      <c r="BL1" s="20">
+      <c r="BL1" s="5">
         <v>43958</v>
       </c>
-      <c r="BM1" s="20">
+      <c r="BM1" s="5">
         <v>43959</v>
       </c>
-    </row>
-    <row r="2" spans="1:65">
+      <c r="BN1" s="5">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>31</v>
@@ -5003,8 +5125,12 @@
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
-    </row>
-    <row r="3" spans="1:65">
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -5179,17 +5305,20 @@
       <c r="BJ3" s="12">
         <v>24984</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" s="12">
         <v>25856</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" s="12">
         <v>27115</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" s="12">
         <v>28183</v>
       </c>
-    </row>
-    <row r="4" spans="1:65">
+      <c r="BN3" s="12">
+        <v>29570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -5376,17 +5505,20 @@
       <c r="BJ4" s="12">
         <v>5461</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" s="12">
         <v>5654</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" s="12">
         <v>5899</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" s="12">
         <v>6102</v>
       </c>
-    </row>
-    <row r="5" spans="1:65">
+      <c r="BN4" s="12">
+        <v>6272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -5561,17 +5693,20 @@
       <c r="BJ5" s="12">
         <v>277</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" s="12">
         <v>285</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" s="12">
         <v>304</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" s="12">
         <v>311</v>
       </c>
-    </row>
-    <row r="6" spans="1:65">
+      <c r="BN5" s="12">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -5726,17 +5861,20 @@
       <c r="BJ6" s="12">
         <v>808</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" s="12">
         <v>825</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" s="12">
         <v>825</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" s="12">
         <v>879</v>
       </c>
-    </row>
-    <row r="7" spans="1:65">
+      <c r="BN6" s="12">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -5799,8 +5937,12 @@
       <c r="BH7" s="12"/>
       <c r="BI7" s="12"/>
       <c r="BJ7" s="12"/>
-    </row>
-    <row r="8" spans="1:65">
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BN7" s="12"/>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -5883,17 +6025,20 @@
       <c r="BJ8" s="12">
         <v>345</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" s="12">
         <v>345</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" s="12">
         <v>345</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" s="12">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:65">
+      <c r="BN8" s="12">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -6044,17 +6189,20 @@
       <c r="BJ9" s="12">
         <v>47</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" s="12">
         <v>57</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" s="12">
         <v>49</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" s="12">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:65">
+      <c r="BN9" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -6205,17 +6353,20 @@
       <c r="BJ10" s="12">
         <v>440</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" s="12">
         <v>440</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" s="12">
         <v>440</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" s="12">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:65">
+      <c r="BN10" s="12">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -6366,17 +6517,20 @@
       <c r="BJ11" s="12">
         <v>241</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" s="12">
         <v>259</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" s="12">
         <v>261</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" s="12">
         <v>262</v>
       </c>
-    </row>
-    <row r="12" spans="1:65">
+      <c r="BN11" s="12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -6527,17 +6681,20 @@
       <c r="BJ12" s="12">
         <v>199</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" s="12">
         <v>181</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" s="12">
         <v>179</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" s="12">
         <v>178</v>
       </c>
-    </row>
-    <row r="13" spans="1:65">
+      <c r="BN12" s="12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
@@ -6600,8 +6757,12 @@
       <c r="BH13" s="12"/>
       <c r="BI13" s="12"/>
       <c r="BJ13" s="12"/>
-    </row>
-    <row r="14" spans="1:65">
+      <c r="BK13" s="12"/>
+      <c r="BL13" s="12"/>
+      <c r="BM13" s="12"/>
+      <c r="BN13" s="12"/>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
         <v>41</v>
@@ -6666,8 +6827,12 @@
       <c r="BH14" s="12"/>
       <c r="BI14" s="12"/>
       <c r="BJ14" s="12"/>
-    </row>
-    <row r="15" spans="1:65">
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="12"/>
+      <c r="BM14" s="12"/>
+      <c r="BN14" s="12"/>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -6734,8 +6899,12 @@
       <c r="BH15" s="12"/>
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
-    </row>
-    <row r="16" spans="1:65">
+      <c r="BK15" s="12"/>
+      <c r="BL15" s="12"/>
+      <c r="BM15" s="12"/>
+      <c r="BN15" s="12"/>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
@@ -6888,17 +7057,20 @@
       <c r="BJ16" s="12">
         <v>98</v>
       </c>
-      <c r="BK16">
+      <c r="BK16" s="12">
         <v>100</v>
       </c>
-      <c r="BL16">
+      <c r="BL16" s="12">
         <v>100</v>
       </c>
-      <c r="BM16">
+      <c r="BM16" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:65">
+      <c r="BN16" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -7015,17 +7187,20 @@
       <c r="BJ17" s="12">
         <v>35</v>
       </c>
-      <c r="BK17">
+      <c r="BK17" s="12">
         <v>36</v>
       </c>
-      <c r="BL17">
+      <c r="BL17" s="12">
         <v>35</v>
       </c>
-      <c r="BM17">
+      <c r="BM17" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:65">
+      <c r="BN17" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -7142,17 +7317,20 @@
       <c r="BJ18" s="12">
         <v>63</v>
       </c>
-      <c r="BK18">
+      <c r="BK18" s="12">
         <v>64</v>
       </c>
-      <c r="BL18">
+      <c r="BL18" s="12">
         <v>65</v>
       </c>
-      <c r="BM18">
+      <c r="BM18" s="12">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:65">
+      <c r="BN18" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -7299,17 +7477,20 @@
       <c r="BJ19" s="12">
         <v>182</v>
       </c>
-      <c r="BK19">
+      <c r="BK19" s="12">
         <v>166</v>
       </c>
-      <c r="BL19">
+      <c r="BL19" s="12">
         <v>154</v>
       </c>
-      <c r="BM19">
+      <c r="BM19" s="12">
         <v>137</v>
       </c>
-    </row>
-    <row r="20" spans="1:65">
+      <c r="BN19" s="12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -7456,17 +7637,20 @@
       <c r="BJ20" s="12">
         <v>217</v>
       </c>
-      <c r="BK20">
+      <c r="BK20" s="12">
         <v>202</v>
       </c>
-      <c r="BL20">
+      <c r="BL20" s="12">
         <v>189</v>
       </c>
-      <c r="BM20">
+      <c r="BM20" s="12">
         <v>172</v>
       </c>
-    </row>
-    <row r="21" spans="1:65">
+      <c r="BN20" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -7613,17 +7797,20 @@
       <c r="BJ21" s="12">
         <v>862</v>
       </c>
-      <c r="BK21">
+      <c r="BK21" s="12">
         <v>904</v>
       </c>
-      <c r="BL21">
+      <c r="BL21" s="12">
         <v>927</v>
       </c>
-      <c r="BM21">
+      <c r="BM21" s="12">
         <v>950</v>
       </c>
-    </row>
-    <row r="22" spans="1:65">
+      <c r="BN21" s="12">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="12"/>
@@ -7686,8 +7873,12 @@
       <c r="BH22" s="12"/>
       <c r="BI22" s="12"/>
       <c r="BJ22" s="12"/>
-    </row>
-    <row r="23" spans="1:65">
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
+      <c r="BM22" s="12"/>
+      <c r="BN22" s="12"/>
+    </row>
+    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>50</v>
@@ -7752,8 +7943,12 @@
       <c r="BH23" s="12"/>
       <c r="BI23" s="12"/>
       <c r="BJ23" s="12"/>
-    </row>
-    <row r="24" spans="1:65">
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12"/>
+      <c r="BM23" s="12"/>
+      <c r="BN23" s="12"/>
+    </row>
+    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -7906,17 +8101,20 @@
       <c r="BJ24" s="12">
         <v>106</v>
       </c>
-      <c r="BK24">
+      <c r="BK24" s="12">
         <v>107</v>
       </c>
-      <c r="BL24">
+      <c r="BL24" s="12">
         <v>108</v>
       </c>
-      <c r="BM24">
+      <c r="BM24" s="12">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" spans="1:65">
+      <c r="BN24" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
@@ -8033,17 +8231,20 @@
       <c r="BJ25" s="12">
         <v>45</v>
       </c>
-      <c r="BK25">
+      <c r="BK25" s="12">
         <v>44</v>
       </c>
-      <c r="BL25">
+      <c r="BL25" s="12">
         <v>40</v>
       </c>
-      <c r="BM25">
+      <c r="BM25" s="12">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:65">
+      <c r="BN25" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -8160,17 +8361,20 @@
       <c r="BJ26" s="12">
         <v>61</v>
       </c>
-      <c r="BK26">
+      <c r="BK26" s="12">
         <v>63</v>
       </c>
-      <c r="BL26">
+      <c r="BL26" s="12">
         <v>68</v>
       </c>
-      <c r="BM26">
+      <c r="BM26" s="12">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:65">
+      <c r="BN26" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
@@ -8317,17 +8521,20 @@
       <c r="BJ27" s="12">
         <v>50</v>
       </c>
-      <c r="BK27">
+      <c r="BK27" s="12">
         <v>61</v>
       </c>
-      <c r="BL27">
+      <c r="BL27" s="12">
         <v>54</v>
       </c>
-      <c r="BM27">
+      <c r="BM27" s="12">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:65">
+      <c r="BN27" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
@@ -8474,17 +8681,20 @@
       <c r="BJ28" s="12">
         <v>95</v>
       </c>
-      <c r="BK28">
+      <c r="BK28" s="12">
         <v>105</v>
       </c>
-      <c r="BL28">
+      <c r="BL28" s="12">
         <v>94</v>
       </c>
-      <c r="BM28">
+      <c r="BM28" s="12">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:65">
+      <c r="BN28" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>51</v>
       </c>
@@ -8631,17 +8841,20 @@
       <c r="BJ29" s="12">
         <v>846</v>
       </c>
-      <c r="BK29">
+      <c r="BK29" s="12">
         <v>871</v>
       </c>
-      <c r="BL29">
+      <c r="BL29" s="12">
         <v>889</v>
       </c>
-      <c r="BM29">
+      <c r="BM29" s="12">
         <v>938</v>
       </c>
-    </row>
-    <row r="30" spans="1:65">
+      <c r="BN29" s="12">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="30" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -8704,8 +8917,12 @@
       <c r="BH30" s="12"/>
       <c r="BI30" s="12"/>
       <c r="BJ30" s="12"/>
-    </row>
-    <row r="31" spans="1:65">
+      <c r="BK30" s="12"/>
+      <c r="BL30" s="12"/>
+      <c r="BM30" s="12"/>
+      <c r="BN30" s="12"/>
+    </row>
+    <row r="31" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
         <v>55</v>
@@ -8770,8 +8987,12 @@
       <c r="BH31" s="12"/>
       <c r="BI31" s="12"/>
       <c r="BJ31" s="12"/>
-    </row>
-    <row r="32" spans="1:65">
+      <c r="BK31" s="12"/>
+      <c r="BL31" s="12"/>
+      <c r="BM31" s="12"/>
+      <c r="BN31" s="12"/>
+    </row>
+    <row r="32" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
@@ -8916,17 +9137,20 @@
       <c r="BJ32" s="12">
         <v>65</v>
       </c>
-      <c r="BK32">
+      <c r="BK32" s="12">
         <v>70</v>
       </c>
-      <c r="BL32">
+      <c r="BL32" s="12">
         <v>72</v>
       </c>
-      <c r="BM32">
+      <c r="BM32" s="12">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:65">
+      <c r="BN32" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>56</v>
       </c>
@@ -9039,17 +9263,20 @@
       <c r="BJ33" s="12">
         <v>34</v>
       </c>
-      <c r="BK33">
+      <c r="BK33" s="12">
         <v>34</v>
       </c>
-      <c r="BL33">
+      <c r="BL33" s="12">
         <v>35</v>
       </c>
-      <c r="BM33">
+      <c r="BM33" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:65">
+      <c r="BN33" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
@@ -9162,17 +9389,20 @@
       <c r="BJ34" s="12">
         <v>30</v>
       </c>
-      <c r="BK34">
+      <c r="BK34" s="12">
         <v>35</v>
       </c>
-      <c r="BL34">
+      <c r="BL34" s="12">
         <v>36</v>
       </c>
-      <c r="BM34">
+      <c r="BM34" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:65">
+      <c r="BN34" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
@@ -9315,17 +9545,20 @@
       <c r="BJ35" s="12">
         <v>18</v>
       </c>
-      <c r="BK35">
+      <c r="BK35" s="12">
         <v>13</v>
       </c>
-      <c r="BL35">
+      <c r="BL35" s="12">
         <v>13</v>
       </c>
-      <c r="BM35">
+      <c r="BM35" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:65">
+      <c r="BN35" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>56</v>
       </c>
@@ -9466,17 +9699,20 @@
       <c r="BJ36" s="12">
         <v>52</v>
       </c>
-      <c r="BK36">
+      <c r="BK36" s="12">
         <v>47</v>
       </c>
-      <c r="BL36">
+      <c r="BL36" s="12">
         <v>48</v>
       </c>
-      <c r="BM36">
+      <c r="BM36" s="12">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:65">
+      <c r="BN36" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
@@ -9621,17 +9857,20 @@
       <c r="BJ37" s="12">
         <v>216</v>
       </c>
-      <c r="BK37">
+      <c r="BK37" s="12">
         <v>226</v>
       </c>
-      <c r="BL37">
+      <c r="BL37" s="12">
         <v>227</v>
       </c>
-      <c r="BM37">
+      <c r="BM37" s="12">
         <v>228</v>
       </c>
-    </row>
-    <row r="38" spans="1:65">
+      <c r="BN37" s="12">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
@@ -9732,17 +9971,20 @@
       <c r="BJ38" s="12">
         <v>1</v>
       </c>
-      <c r="BK38">
+      <c r="BK38" s="12">
         <v>1</v>
       </c>
-      <c r="BL38">
+      <c r="BL38" s="12">
         <v>1</v>
       </c>
-      <c r="BM38">
+      <c r="BM38" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:65">
+      <c r="BN38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="12"/>
@@ -9805,8 +10047,12 @@
       <c r="BH39" s="12"/>
       <c r="BI39" s="12"/>
       <c r="BJ39" s="12"/>
-    </row>
-    <row r="40" spans="1:65">
+      <c r="BK39" s="12"/>
+      <c r="BL39" s="12"/>
+      <c r="BM39" s="12"/>
+      <c r="BN39" s="12"/>
+    </row>
+    <row r="40" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>55</v>
@@ -9871,8 +10117,12 @@
       <c r="BH40" s="12"/>
       <c r="BI40" s="12"/>
       <c r="BJ40" s="12"/>
-    </row>
-    <row r="41" spans="1:65">
+      <c r="BK40" s="12"/>
+      <c r="BL40" s="12"/>
+      <c r="BM40" s="12"/>
+      <c r="BN40" s="12"/>
+    </row>
+    <row r="41" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>60</v>
       </c>
@@ -10021,17 +10271,20 @@
       <c r="BJ41" s="12">
         <v>158</v>
       </c>
-      <c r="BK41">
+      <c r="BK41" s="12">
         <v>158</v>
       </c>
-      <c r="BL41">
+      <c r="BL41" s="12">
         <v>160</v>
       </c>
-      <c r="BM41">
+      <c r="BM41" s="12">
         <v>164</v>
       </c>
-    </row>
-    <row r="42" spans="1:65">
+      <c r="BN41" s="12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
@@ -10148,17 +10401,20 @@
       <c r="BJ42" s="12">
         <v>52</v>
       </c>
-      <c r="BK42">
+      <c r="BK42" s="12">
         <v>43</v>
       </c>
-      <c r="BL42">
+      <c r="BL42" s="12">
         <v>38</v>
       </c>
-      <c r="BM42">
+      <c r="BM42" s="12">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:65">
+      <c r="BN42" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>60</v>
       </c>
@@ -10275,17 +10531,20 @@
       <c r="BJ43" s="12">
         <v>101</v>
       </c>
-      <c r="BK43">
+      <c r="BK43" s="12">
         <v>110</v>
       </c>
-      <c r="BL43">
+      <c r="BL43" s="12">
         <v>117</v>
       </c>
-      <c r="BM43">
+      <c r="BM43" s="12">
         <v>117</v>
       </c>
-    </row>
-    <row r="44" spans="1:65">
+      <c r="BN43" s="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>60</v>
       </c>
@@ -10432,17 +10691,20 @@
       <c r="BJ44" s="12">
         <v>803</v>
       </c>
-      <c r="BK44">
+      <c r="BK44" s="12">
         <v>811</v>
       </c>
-      <c r="BL44">
+      <c r="BL44" s="12">
         <v>862</v>
       </c>
-      <c r="BM44">
+      <c r="BM44" s="12">
         <v>824</v>
       </c>
-    </row>
-    <row r="45" spans="1:65">
+      <c r="BN44" s="12">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>60</v>
       </c>
@@ -10559,17 +10821,20 @@
       <c r="BJ45" s="12">
         <v>855</v>
       </c>
-      <c r="BK45">
+      <c r="BK45" s="12">
         <v>854</v>
       </c>
-      <c r="BL45">
+      <c r="BL45" s="12">
         <v>900</v>
       </c>
-      <c r="BM45">
+      <c r="BM45" s="12">
         <v>866</v>
       </c>
-    </row>
-    <row r="46" spans="1:65">
+      <c r="BN45" s="12">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="46" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>60</v>
       </c>
@@ -10684,17 +10949,20 @@
       <c r="BJ46" s="12">
         <v>488</v>
       </c>
-      <c r="BK46">
+      <c r="BK46" s="12">
         <v>478</v>
       </c>
-      <c r="BL46">
+      <c r="BL46" s="12">
         <v>438</v>
       </c>
-      <c r="BM46">
+      <c r="BM46" s="12">
         <v>472</v>
       </c>
-    </row>
-    <row r="47" spans="1:65">
+      <c r="BN46" s="12">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>60</v>
       </c>
@@ -10805,17 +11073,20 @@
       <c r="BJ47" s="12">
         <v>1</v>
       </c>
-      <c r="BK47">
+      <c r="BK47" s="12">
         <v>1</v>
       </c>
-      <c r="BL47">
+      <c r="BL47" s="12">
         <v>1</v>
       </c>
-      <c r="BM47">
+      <c r="BM47" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:65">
+      <c r="BN47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="12"/>
@@ -10878,8 +11149,12 @@
       <c r="BH48" s="12"/>
       <c r="BI48" s="12"/>
       <c r="BJ48" s="12"/>
-    </row>
-    <row r="49" spans="1:65">
+      <c r="BK48" s="12"/>
+      <c r="BL48" s="12"/>
+      <c r="BM48" s="12"/>
+      <c r="BN48" s="12"/>
+    </row>
+    <row r="49" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>68</v>
@@ -10944,8 +11219,12 @@
       <c r="BH49" s="12"/>
       <c r="BI49" s="12"/>
       <c r="BJ49" s="12"/>
-    </row>
-    <row r="50" spans="1:65">
+      <c r="BK49" s="12"/>
+      <c r="BL49" s="12"/>
+      <c r="BM49" s="12"/>
+      <c r="BN49" s="12"/>
+    </row>
+    <row r="50" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>69</v>
       </c>
@@ -11084,17 +11363,20 @@
       <c r="BJ50" s="12">
         <v>26</v>
       </c>
-      <c r="BK50">
+      <c r="BK50" s="12">
         <v>26</v>
       </c>
-      <c r="BL50">
+      <c r="BL50" s="12">
         <v>26</v>
       </c>
-      <c r="BM50">
+      <c r="BM50" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:65">
+      <c r="BN50" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>69</v>
       </c>
@@ -11209,17 +11491,20 @@
       <c r="BJ51" s="12">
         <v>15</v>
       </c>
-      <c r="BK51">
+      <c r="BK51" s="12">
         <v>15</v>
       </c>
-      <c r="BL51">
+      <c r="BL51" s="12">
         <v>15</v>
       </c>
-      <c r="BM51">
+      <c r="BM51" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:65">
+      <c r="BN51" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>69</v>
       </c>
@@ -11334,17 +11619,20 @@
       <c r="BJ52" s="12">
         <v>10</v>
       </c>
-      <c r="BK52">
+      <c r="BK52" s="12">
         <v>10</v>
       </c>
-      <c r="BL52">
+      <c r="BL52" s="12">
         <v>10</v>
       </c>
-      <c r="BM52">
+      <c r="BM52" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:65">
+      <c r="BN52" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>69</v>
       </c>
@@ -11483,17 +11771,20 @@
       <c r="BJ53" s="12">
         <v>25</v>
       </c>
-      <c r="BK53">
+      <c r="BK53" s="12">
         <v>24</v>
       </c>
-      <c r="BL53">
+      <c r="BL53" s="12">
         <v>23</v>
       </c>
-      <c r="BM53">
+      <c r="BM53" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:65">
+      <c r="BN53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>69</v>
       </c>
@@ -11632,17 +11923,20 @@
       <c r="BJ54" s="12">
         <v>40</v>
       </c>
-      <c r="BK54">
+      <c r="BK54" s="12">
         <v>39</v>
       </c>
-      <c r="BL54">
+      <c r="BL54" s="12">
         <v>38</v>
       </c>
-      <c r="BM54">
+      <c r="BM54" s="12">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:65">
+      <c r="BN54" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>69</v>
       </c>
@@ -11781,17 +12075,20 @@
       <c r="BJ55" s="12">
         <v>112</v>
       </c>
-      <c r="BK55">
+      <c r="BK55" s="12">
         <v>113</v>
       </c>
-      <c r="BL55">
+      <c r="BL55" s="12">
         <v>114</v>
       </c>
-      <c r="BM55">
+      <c r="BM55" s="12">
         <v>116</v>
       </c>
-    </row>
-    <row r="56" spans="1:65">
+      <c r="BN55" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>69</v>
       </c>
@@ -11902,17 +12199,20 @@
       <c r="BJ56" s="12">
         <v>1</v>
       </c>
-      <c r="BK56">
+      <c r="BK56" s="12">
         <v>1</v>
       </c>
-      <c r="BL56">
+      <c r="BL56" s="12">
         <v>1</v>
       </c>
-      <c r="BM56">
+      <c r="BM56" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:65">
+      <c r="BN56" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="12"/>
@@ -11975,8 +12275,12 @@
       <c r="BH57" s="12"/>
       <c r="BI57" s="12"/>
       <c r="BJ57" s="12"/>
-    </row>
-    <row r="58" spans="1:65">
+      <c r="BK57" s="12"/>
+      <c r="BL57" s="12"/>
+      <c r="BM57" s="12"/>
+      <c r="BN57" s="12"/>
+    </row>
+    <row r="58" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>71</v>
       </c>
@@ -12115,17 +12419,20 @@
       <c r="BJ58" s="12">
         <v>10</v>
       </c>
-      <c r="BK58">
+      <c r="BK58" s="12">
         <v>10</v>
       </c>
-      <c r="BL58">
+      <c r="BL58" s="12">
         <v>10</v>
       </c>
-      <c r="BM58">
+      <c r="BM58" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:65">
+      <c r="BN58" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>71</v>
       </c>
@@ -12240,17 +12547,20 @@
       <c r="BJ59" s="12">
         <v>4</v>
       </c>
-      <c r="BK59">
+      <c r="BK59" s="12">
         <v>4</v>
       </c>
-      <c r="BL59">
+      <c r="BL59" s="12">
         <v>4</v>
       </c>
-      <c r="BM59">
+      <c r="BM59" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:65">
+      <c r="BN59" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>71</v>
       </c>
@@ -12365,17 +12675,20 @@
       <c r="BJ60" s="12">
         <v>6</v>
       </c>
-      <c r="BK60">
+      <c r="BK60" s="12">
         <v>6</v>
       </c>
-      <c r="BL60">
+      <c r="BL60" s="12">
         <v>6</v>
       </c>
-      <c r="BM60">
+      <c r="BM60" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:65">
+      <c r="BN60" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>71</v>
       </c>
@@ -12514,17 +12827,20 @@
       <c r="BJ61" s="12">
         <v>44</v>
       </c>
-      <c r="BK61">
+      <c r="BK61" s="12">
         <v>41</v>
       </c>
-      <c r="BL61">
+      <c r="BL61" s="12">
         <v>41</v>
       </c>
-      <c r="BM61">
+      <c r="BM61" s="12">
         <v>42</v>
       </c>
-    </row>
-    <row r="62" spans="1:65">
+      <c r="BN61" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>71</v>
       </c>
@@ -12663,17 +12979,20 @@
       <c r="BJ62" s="12">
         <v>48</v>
       </c>
-      <c r="BK62">
+      <c r="BK62" s="12">
         <v>45</v>
       </c>
-      <c r="BL62">
+      <c r="BL62" s="12">
         <v>45</v>
       </c>
-      <c r="BM62">
+      <c r="BM62" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="63" spans="1:65">
+      <c r="BN62" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>71</v>
       </c>
@@ -12810,17 +13129,20 @@
       <c r="BJ63" s="12">
         <v>0</v>
       </c>
-      <c r="BK63">
+      <c r="BK63" s="12">
         <v>0</v>
       </c>
-      <c r="BL63">
+      <c r="BL63" s="12">
         <v>0</v>
       </c>
-      <c r="BM63">
+      <c r="BM63" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:65">
+      <c r="BN63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>71</v>
       </c>
@@ -12935,17 +13257,20 @@
       <c r="BJ64" s="12">
         <v>0</v>
       </c>
-      <c r="BK64">
+      <c r="BK64" s="12">
         <v>0</v>
       </c>
-      <c r="BL64">
+      <c r="BL64" s="12">
         <v>0</v>
       </c>
-      <c r="BM64">
+      <c r="BM64" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:65">
+      <c r="BN64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="12"/>
@@ -13008,8 +13333,12 @@
       <c r="BH65" s="12"/>
       <c r="BI65" s="12"/>
       <c r="BJ65" s="12"/>
-    </row>
-    <row r="66" spans="1:65">
+      <c r="BK65" s="12"/>
+      <c r="BL65" s="12"/>
+      <c r="BM65" s="12"/>
+      <c r="BN65" s="12"/>
+    </row>
+    <row r="66" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="6" t="s">
         <v>78</v>
@@ -13074,8 +13403,12 @@
       <c r="BH66" s="12"/>
       <c r="BI66" s="12"/>
       <c r="BJ66" s="12"/>
-    </row>
-    <row r="67" spans="1:65">
+      <c r="BK66" s="12"/>
+      <c r="BL66" s="12"/>
+      <c r="BM66" s="12"/>
+      <c r="BN66" s="12"/>
+    </row>
+    <row r="67" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>79</v>
       </c>
@@ -13214,17 +13547,20 @@
       <c r="BJ67" s="12">
         <v>220</v>
       </c>
-      <c r="BK67">
+      <c r="BK67" s="12">
         <v>227</v>
       </c>
-      <c r="BL67">
+      <c r="BL67" s="12">
         <v>237</v>
       </c>
-      <c r="BM67">
+      <c r="BM67" s="12">
         <v>241</v>
       </c>
-    </row>
-    <row r="68" spans="1:65">
+      <c r="BN67" s="12">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>79</v>
       </c>
@@ -13363,17 +13699,20 @@
       <c r="BJ68" s="12">
         <v>311</v>
       </c>
-      <c r="BK68">
+      <c r="BK68" s="12">
         <v>316</v>
       </c>
-      <c r="BL68">
+      <c r="BL68" s="12">
         <v>360</v>
       </c>
-      <c r="BM68">
+      <c r="BM68" s="12">
         <v>354</v>
       </c>
-    </row>
-    <row r="69" spans="1:65">
+      <c r="BN68" s="12">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>79</v>
       </c>
@@ -13512,17 +13851,20 @@
       <c r="BJ69" s="12">
         <v>263</v>
       </c>
-      <c r="BK69">
+      <c r="BK69" s="12">
         <v>268</v>
       </c>
-      <c r="BL69">
+      <c r="BL69" s="12">
         <v>276</v>
       </c>
-      <c r="BM69">
+      <c r="BM69" s="12">
         <v>296</v>
       </c>
-    </row>
-    <row r="70" spans="1:65">
+      <c r="BN69" s="12">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>79</v>
       </c>
@@ -13633,17 +13975,20 @@
       <c r="BJ70" s="12">
         <v>9</v>
       </c>
-      <c r="BK70">
+      <c r="BK70" s="12">
         <v>10</v>
       </c>
-      <c r="BL70">
+      <c r="BL70" s="12">
         <v>10</v>
       </c>
-      <c r="BM70">
+      <c r="BM70" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:65">
+      <c r="BN70" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="12"/>
@@ -13706,8 +14051,12 @@
       <c r="BH71" s="12"/>
       <c r="BI71" s="12"/>
       <c r="BJ71" s="12"/>
-    </row>
-    <row r="72" spans="1:65">
+      <c r="BK71" s="12"/>
+      <c r="BL71" s="12"/>
+      <c r="BM71" s="12"/>
+      <c r="BN71" s="12"/>
+    </row>
+    <row r="72" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>84</v>
       </c>
@@ -13846,17 +14195,20 @@
       <c r="BJ72" s="12">
         <v>75</v>
       </c>
-      <c r="BK72">
+      <c r="BK72" s="12">
         <v>78</v>
       </c>
-      <c r="BL72">
+      <c r="BL72" s="12">
         <v>79</v>
       </c>
-      <c r="BM72">
+      <c r="BM72" s="12">
         <v>79</v>
       </c>
-    </row>
-    <row r="73" spans="1:65">
+      <c r="BN72" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>84</v>
       </c>
@@ -13995,17 +14347,20 @@
       <c r="BJ73" s="12">
         <v>31</v>
       </c>
-      <c r="BK73">
+      <c r="BK73" s="12">
         <v>30</v>
       </c>
-      <c r="BL73">
+      <c r="BL73" s="12">
         <v>23</v>
       </c>
-      <c r="BM73">
+      <c r="BM73" s="12">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:65">
+      <c r="BN73" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>84</v>
       </c>
@@ -14144,17 +14499,20 @@
       <c r="BJ74" s="12">
         <v>106</v>
       </c>
-      <c r="BK74">
+      <c r="BK74" s="12">
         <v>108</v>
       </c>
-      <c r="BL74">
+      <c r="BL74" s="12">
         <v>103</v>
       </c>
-      <c r="BM74">
+      <c r="BM74" s="12">
         <v>106</v>
       </c>
-    </row>
-    <row r="75" spans="1:65">
+      <c r="BN74" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -14285,17 +14643,20 @@
       <c r="BJ75" s="12">
         <v>131</v>
       </c>
-      <c r="BK75">
+      <c r="BK75" s="12">
         <v>134</v>
       </c>
-      <c r="BL75">
+      <c r="BL75" s="12">
         <v>145</v>
       </c>
-      <c r="BM75">
+      <c r="BM75" s="12">
         <v>145</v>
       </c>
-    </row>
-    <row r="76" spans="1:65">
+      <c r="BN75" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="12"/>
@@ -14358,8 +14719,12 @@
       <c r="BH76" s="12"/>
       <c r="BI76" s="12"/>
       <c r="BJ76" s="12"/>
-    </row>
-    <row r="77" spans="1:65">
+      <c r="BK76" s="12"/>
+      <c r="BL76" s="12"/>
+      <c r="BM76" s="12"/>
+      <c r="BN76" s="12"/>
+    </row>
+    <row r="77" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>85</v>
       </c>
@@ -14498,17 +14863,20 @@
       <c r="BJ77" s="12">
         <v>72</v>
       </c>
-      <c r="BK77">
+      <c r="BK77" s="12">
         <v>72</v>
       </c>
-      <c r="BL77">
+      <c r="BL77" s="12">
         <v>77</v>
       </c>
-      <c r="BM77">
+      <c r="BM77" s="12">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:65">
+      <c r="BN77" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>85</v>
       </c>
@@ -14647,17 +15015,20 @@
       <c r="BJ78" s="12">
         <v>51</v>
       </c>
-      <c r="BK78">
+      <c r="BK78" s="12">
         <v>51</v>
       </c>
-      <c r="BL78">
+      <c r="BL78" s="12">
         <v>56</v>
       </c>
-      <c r="BM78">
+      <c r="BM78" s="12">
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:65">
+      <c r="BN78" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>85</v>
       </c>
@@ -14774,17 +15145,20 @@
       <c r="BJ79" s="12">
         <v>152</v>
       </c>
-      <c r="BK79">
+      <c r="BK79" s="12">
         <v>152</v>
       </c>
-      <c r="BL79">
+      <c r="BL79" s="12">
         <v>147</v>
       </c>
-      <c r="BM79">
+      <c r="BM79" s="12">
         <v>147</v>
       </c>
-    </row>
-    <row r="80" spans="1:65">
+      <c r="BN79" s="12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>85</v>
       </c>
@@ -14897,17 +15271,20 @@
       <c r="BJ80" s="12">
         <v>5</v>
       </c>
-      <c r="BK80">
+      <c r="BK80" s="12">
         <v>5</v>
       </c>
-      <c r="BL80">
+      <c r="BL80" s="12">
         <v>5</v>
       </c>
-      <c r="BM80">
+      <c r="BM80" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:65">
+      <c r="BN80" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>85</v>
       </c>
@@ -15044,17 +15421,20 @@
       <c r="BJ81" s="12">
         <v>13</v>
       </c>
-      <c r="BK81">
+      <c r="BK81" s="12">
         <v>13</v>
       </c>
-      <c r="BL81">
+      <c r="BL81" s="12">
         <v>13</v>
       </c>
-      <c r="BM81">
+      <c r="BM81" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:65">
+      <c r="BN81" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="12"/>
@@ -15117,8 +15497,12 @@
       <c r="BH82" s="12"/>
       <c r="BI82" s="12"/>
       <c r="BJ82" s="12"/>
-    </row>
-    <row r="83" spans="1:65">
+      <c r="BK82" s="12"/>
+      <c r="BL82" s="12"/>
+      <c r="BM82" s="12"/>
+      <c r="BN82" s="12"/>
+    </row>
+    <row r="83" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>92</v>
       </c>
@@ -15203,17 +15587,20 @@
       <c r="BJ83" s="12">
         <v>142</v>
       </c>
-      <c r="BK83">
+      <c r="BK83" s="12">
         <v>144</v>
       </c>
-      <c r="BL83">
+      <c r="BL83" s="12">
         <v>145</v>
       </c>
-      <c r="BM83">
+      <c r="BM83" s="12">
         <v>147</v>
       </c>
-    </row>
-    <row r="84" spans="1:65">
+      <c r="BN83" s="12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>92</v>
       </c>
@@ -15298,17 +15685,20 @@
       <c r="BJ84" s="12">
         <v>19</v>
       </c>
-      <c r="BK84">
+      <c r="BK84" s="12">
         <v>22</v>
       </c>
-      <c r="BL84">
+      <c r="BL84" s="12">
         <v>22</v>
       </c>
-      <c r="BM84">
+      <c r="BM84" s="12">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="1:65">
+      <c r="BN84" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>92</v>
       </c>
@@ -15393,17 +15783,20 @@
       <c r="BJ85" s="12">
         <v>19</v>
       </c>
-      <c r="BK85">
+      <c r="BK85" s="12">
         <v>19</v>
       </c>
-      <c r="BL85">
+      <c r="BL85" s="12">
         <v>20</v>
       </c>
-      <c r="BM85">
+      <c r="BM85" s="12">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:65">
+      <c r="BN85" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="12"/>
@@ -15466,6 +15859,10 @@
       <c r="BH86" s="12"/>
       <c r="BI86" s="12"/>
       <c r="BJ86" s="12"/>
+      <c r="BK86" s="12"/>
+      <c r="BL86" s="12"/>
+      <c r="BM86" s="12"/>
+      <c r="BN86" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15475,19 +15872,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI3" sqref="AI3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="5">
         <v>43926</v>
@@ -15582,17 +15979,20 @@
       <c r="AF1" s="5">
         <v>43956</v>
       </c>
-      <c r="AG1" s="20">
+      <c r="AG1" s="5">
         <v>43957</v>
       </c>
-      <c r="AH1" s="20">
+      <c r="AH1" s="5">
         <v>43958</v>
       </c>
-      <c r="AI1" s="20">
+      <c r="AI1" s="5">
         <v>43959</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="5">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -15627,8 +16027,12 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
@@ -15725,17 +16129,20 @@
       <c r="AF3" s="8">
         <v>5</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="8">
         <v>5</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="8">
         <v>5</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -15832,17 +16239,20 @@
       <c r="AF4" s="8">
         <v>220</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="8">
         <v>226</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="8">
         <v>241</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="8">
         <v>247</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4" s="8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>96</v>
       </c>
@@ -15939,17 +16349,20 @@
       <c r="AF5" s="8">
         <v>21</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="8">
         <v>22</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="8">
         <v>23</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>97</v>
       </c>
@@ -16046,17 +16459,20 @@
       <c r="AF6" s="8">
         <v>29</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="8">
         <v>30</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="8">
         <v>33</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="AJ6" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>98</v>
       </c>
@@ -16151,17 +16567,20 @@
       <c r="AF7" s="8">
         <v>2</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="8">
         <v>2</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="8">
         <v>2</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -16194,8 +16613,12 @@
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -16228,8 +16651,12 @@
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -16262,8 +16689,12 @@
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -16296,35 +16727,39 @@
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
       <c r="AF11" s="8"/>
-    </row>
-    <row r="12" spans="1:35">
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
     </row>
   </sheetData>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075DD6DB-0D4B-3F49-BE7E-09E4C401F86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB14C38-69EC-3546-A407-2020D9B772AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="5" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
     <sheet name="Total Cases by Ward" sheetId="2" r:id="rId2"/>
-    <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId3"/>
-    <sheet name="Total Cases by Race" sheetId="3" r:id="rId4"/>
-    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId5"/>
-    <sheet name="Overall Stats" sheetId="1" r:id="rId6"/>
+    <sheet name="Overall Stats" sheetId="1" r:id="rId3"/>
+    <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId4"/>
+    <sheet name="Total Cases by Race" sheetId="3" r:id="rId5"/>
+    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId6"/>
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="101">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -53,91 +53,13 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Patient Age (yrs)</t>
-  </si>
-  <si>
-    <t>Total Positives</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>0-18</t>
-  </si>
-  <si>
-    <t>19-30</t>
-  </si>
-  <si>
-    <t>31-40</t>
-  </si>
-  <si>
-    <t>41-50</t>
-  </si>
-  <si>
-    <t>51-60</t>
-  </si>
-  <si>
-    <t>61-70</t>
-  </si>
-  <si>
-    <t>71-80</t>
-  </si>
-  <si>
-    <t>81+</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity Category</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity Values</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>American Indian</t>
-  </si>
-  <si>
-    <t>Native Hawaiian Pacific Islander</t>
-  </si>
-  <si>
-    <t>Two or More Races</t>
-  </si>
-  <si>
-    <t>Refused During Interview</t>
-  </si>
-  <si>
-    <t>Ethnicity</t>
-  </si>
-  <si>
-    <t>Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>NOT Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>Homeless</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
     <t>People Tested Overall</t>
+  </si>
+  <si>
+    <t>Total Positives</t>
   </si>
   <si>
     <t>Number of Deaths</t>
@@ -168,9 +90,6 @@
   </si>
   <si>
     <t>Total Patients in DC Hospitals (COVID and non-COVID</t>
-  </si>
-  <si>
-    <t>Percentage of pre-COVID Hospital Bed Capacity</t>
   </si>
   <si>
     <t>Public Safety</t>
@@ -338,6 +257,84 @@
     <t xml:space="preserve">Number of Lives Lost Among DDA-Connected Individuals </t>
   </si>
   <si>
+    <t>Patient Age (yrs)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>0-18</t>
+  </si>
+  <si>
+    <t>19-30</t>
+  </si>
+  <si>
+    <t>31-40</t>
+  </si>
+  <si>
+    <t>41-50</t>
+  </si>
+  <si>
+    <t>51-60</t>
+  </si>
+  <si>
+    <t>61-70</t>
+  </si>
+  <si>
+    <t>71-80</t>
+  </si>
+  <si>
+    <t>81+</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity Category</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity Values</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>American Indian</t>
+  </si>
+  <si>
+    <t>Native Hawaiian Pacific Islander</t>
+  </si>
+  <si>
+    <t>Two or More Races</t>
+  </si>
+  <si>
+    <t>Refused During Interview</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>NOT Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Homeless</t>
+  </si>
+  <si>
     <t>Hispanic/Latinx</t>
   </si>
   <si>
@@ -355,7 +352,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,7 +477,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -509,8 +506,6 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -834,14 +829,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.95">
+    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.95">
+    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -853,20 +848,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP3" sqref="AP3:AP11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -908,8 +903,10 @@
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
       <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
     </row>
-    <row r="2" spans="1:42" s="1" customFormat="1">
+    <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1033,11 +1030,14 @@
       <c r="AO2" s="5">
         <v>43960</v>
       </c>
-      <c r="AP2" s="21">
+      <c r="AP2" s="5">
         <v>43961</v>
       </c>
+      <c r="AQ2" s="5">
+        <v>43962</v>
+      </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1161,11 +1161,14 @@
       <c r="AO3" s="8">
         <v>835</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="8">
         <v>851</v>
       </c>
+      <c r="AQ3" s="8">
+        <v>872</v>
+      </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1289,11 +1292,14 @@
       <c r="AO4" s="8">
         <v>383</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="8">
         <v>392</v>
       </c>
+      <c r="AQ4" s="8">
+        <v>400</v>
+      </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1417,11 +1423,14 @@
       <c r="AO5" s="8">
         <v>347</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="8">
         <v>350</v>
       </c>
+      <c r="AQ5" s="8">
+        <v>353</v>
+      </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1545,11 +1554,14 @@
       <c r="AO6" s="8">
         <v>1241</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="8">
         <v>1275</v>
       </c>
+      <c r="AQ6" s="8">
+        <v>1298</v>
+      </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1673,11 +1685,14 @@
       <c r="AO7" s="8">
         <v>993</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="8">
         <v>1008</v>
       </c>
+      <c r="AQ7" s="8">
+        <v>1017</v>
+      </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1801,11 +1816,14 @@
       <c r="AO8" s="8">
         <v>596</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" s="8">
         <v>602</v>
       </c>
+      <c r="AQ8" s="8">
+        <v>610</v>
+      </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1929,11 +1947,14 @@
       <c r="AO9" s="8">
         <v>910</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" s="8">
         <v>930</v>
       </c>
+      <c r="AQ9" s="8">
+        <v>943</v>
+      </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2057,11 +2078,14 @@
       <c r="AO10" s="8">
         <v>888</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" s="8">
         <v>899</v>
       </c>
+      <c r="AQ10" s="8">
+        <v>909</v>
+      </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -2185,8 +2209,11 @@
       <c r="AO11" s="8">
         <v>79</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" s="8">
         <v>82</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2196,2791 +2223,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB097C5-61FE-3342-9C03-F1C59662C9D7}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP89"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BP1" sqref="BP1:BP1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="13">
-        <v>6389</v>
-      </c>
-      <c r="C2" s="13">
-        <v>3113</v>
-      </c>
-      <c r="D2" s="13">
-        <v>3258</v>
-      </c>
-      <c r="E2" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13">
-        <v>7</v>
-      </c>
-      <c r="C3" s="17">
-        <v>2</v>
-      </c>
-      <c r="D3" s="17">
-        <v>5</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13">
-        <v>218</v>
-      </c>
-      <c r="C4" s="8">
-        <v>107</v>
-      </c>
-      <c r="D4" s="8">
-        <v>104</v>
-      </c>
-      <c r="E4" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1046</v>
-      </c>
-      <c r="C5" s="8">
-        <v>554</v>
-      </c>
-      <c r="D5" s="8">
-        <v>487</v>
-      </c>
-      <c r="E5" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1220</v>
-      </c>
-      <c r="C6" s="8">
-        <v>594</v>
-      </c>
-      <c r="D6" s="8">
-        <v>624</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1007</v>
-      </c>
-      <c r="C7" s="8">
-        <v>482</v>
-      </c>
-      <c r="D7" s="8">
-        <v>525</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1084</v>
-      </c>
-      <c r="C8" s="8">
-        <v>477</v>
-      </c>
-      <c r="D8" s="8">
-        <v>606</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="13">
-        <v>938</v>
-      </c>
-      <c r="C9" s="8">
-        <v>424</v>
-      </c>
-      <c r="D9" s="8">
-        <v>513</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13">
-        <v>471</v>
-      </c>
-      <c r="C10" s="8">
-        <v>220</v>
-      </c>
-      <c r="D10" s="8">
-        <v>249</v>
-      </c>
-      <c r="E10" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="13">
-        <v>398</v>
-      </c>
-      <c r="C11" s="8">
-        <v>253</v>
-      </c>
-      <c r="D11" s="8">
-        <v>145</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="AL10" sqref="AL10:AL13"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38">
-      <c r="A1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43926</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43927</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43928</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43929</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43930</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43931</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43932</v>
-      </c>
-      <c r="J1" s="5">
-        <v>43933</v>
-      </c>
-      <c r="K1" s="5">
-        <v>43934</v>
-      </c>
-      <c r="L1" s="5">
-        <v>43935</v>
-      </c>
-      <c r="M1" s="5">
-        <v>43936</v>
-      </c>
-      <c r="N1" s="5">
-        <v>43937</v>
-      </c>
-      <c r="O1" s="5">
-        <v>43938</v>
-      </c>
-      <c r="P1" s="5">
-        <v>43939</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="R1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="S1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="T1" s="5">
-        <v>43943</v>
-      </c>
-      <c r="U1" s="5">
-        <v>43944</v>
-      </c>
-      <c r="V1" s="5">
-        <v>43945</v>
-      </c>
-      <c r="W1" s="5">
-        <v>43946</v>
-      </c>
-      <c r="X1" s="5">
-        <v>43947</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>43948</v>
-      </c>
-      <c r="Z1" s="5">
-        <v>43949</v>
-      </c>
-      <c r="AA1" s="5">
-        <v>43950</v>
-      </c>
-      <c r="AB1" s="5">
-        <v>43951</v>
-      </c>
-      <c r="AC1" s="5">
-        <v>43952</v>
-      </c>
-      <c r="AD1" s="5">
-        <v>43953</v>
-      </c>
-      <c r="AE1" s="5">
-        <v>43954</v>
-      </c>
-      <c r="AF1" s="5">
-        <v>43955</v>
-      </c>
-      <c r="AG1" s="5">
-        <v>43956</v>
-      </c>
-      <c r="AH1" s="5">
-        <v>43957</v>
-      </c>
-      <c r="AI1" s="5">
-        <v>43958</v>
-      </c>
-      <c r="AJ1" s="5">
-        <v>43959</v>
-      </c>
-      <c r="AK1" s="5">
-        <v>43960</v>
-      </c>
-      <c r="AL1" s="20">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8">
-        <v>349</v>
-      </c>
-      <c r="D2" s="8">
-        <v>596</v>
-      </c>
-      <c r="E2" s="8">
-        <v>604</v>
-      </c>
-      <c r="F2" s="8">
-        <v>536</v>
-      </c>
-      <c r="G2" s="8">
-        <v>516</v>
-      </c>
-      <c r="H2" s="8">
-        <v>355</v>
-      </c>
-      <c r="I2" s="8">
-        <v>379</v>
-      </c>
-      <c r="J2" s="8">
-        <v>391</v>
-      </c>
-      <c r="K2" s="8">
-        <v>400</v>
-      </c>
-      <c r="L2" s="8">
-        <v>410</v>
-      </c>
-      <c r="M2" s="8">
-        <v>404</v>
-      </c>
-      <c r="N2" s="8">
-        <v>383</v>
-      </c>
-      <c r="O2" s="8">
-        <v>413</v>
-      </c>
-      <c r="P2" s="8">
-        <v>358</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>406</v>
-      </c>
-      <c r="R2" s="8">
-        <v>470</v>
-      </c>
-      <c r="S2" s="8">
-        <v>443</v>
-      </c>
-      <c r="T2" s="8">
-        <v>479</v>
-      </c>
-      <c r="U2" s="8">
-        <v>490</v>
-      </c>
-      <c r="V2" s="8">
-        <v>494</v>
-      </c>
-      <c r="W2" s="8">
-        <v>527</v>
-      </c>
-      <c r="X2" s="8">
-        <v>517</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>503</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>487</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>534</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>666</v>
-      </c>
-      <c r="AC2" s="8">
-        <v>726</v>
-      </c>
-      <c r="AD2" s="8">
-        <v>769</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>789</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>817</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>810</v>
-      </c>
-      <c r="AH2" s="8">
-        <v>734</v>
-      </c>
-      <c r="AI2" s="8">
-        <v>799</v>
-      </c>
-      <c r="AJ2" s="8">
-        <v>857</v>
-      </c>
-      <c r="AK2" s="8">
-        <v>891</v>
-      </c>
-      <c r="AL2">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
-      <c r="A3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8">
-        <v>135</v>
-      </c>
-      <c r="D3" s="8">
-        <v>154</v>
-      </c>
-      <c r="E3" s="8">
-        <v>218</v>
-      </c>
-      <c r="F3" s="8">
-        <v>253</v>
-      </c>
-      <c r="G3" s="8">
-        <v>281</v>
-      </c>
-      <c r="H3" s="8">
-        <v>339</v>
-      </c>
-      <c r="I3" s="8">
-        <v>354</v>
-      </c>
-      <c r="J3" s="8">
-        <v>365</v>
-      </c>
-      <c r="K3" s="8">
-        <v>388</v>
-      </c>
-      <c r="L3" s="8">
-        <v>411</v>
-      </c>
-      <c r="M3" s="8">
-        <v>439</v>
-      </c>
-      <c r="N3" s="8">
-        <v>461</v>
-      </c>
-      <c r="O3" s="8">
-        <v>473</v>
-      </c>
-      <c r="P3" s="8">
-        <v>548</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>553</v>
-      </c>
-      <c r="R3" s="8">
-        <v>565</v>
-      </c>
-      <c r="S3" s="8">
-        <v>587</v>
-      </c>
-      <c r="T3" s="8">
-        <v>603</v>
-      </c>
-      <c r="U3" s="8">
-        <v>635</v>
-      </c>
-      <c r="V3" s="8">
-        <v>653</v>
-      </c>
-      <c r="W3" s="8">
-        <v>665</v>
-      </c>
-      <c r="X3" s="8">
-        <v>670</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>690</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>703</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>743</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>765</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>773</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>789</v>
-      </c>
-      <c r="AE3" s="8">
-        <v>810</v>
-      </c>
-      <c r="AF3" s="8">
-        <v>826</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>847</v>
-      </c>
-      <c r="AH3" s="8">
-        <v>900</v>
-      </c>
-      <c r="AI3" s="8">
-        <v>927</v>
-      </c>
-      <c r="AJ3" s="8">
-        <v>944</v>
-      </c>
-      <c r="AK3" s="8">
-        <v>970</v>
-      </c>
-      <c r="AL3">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="A4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8">
-        <v>303</v>
-      </c>
-      <c r="D4" s="8">
-        <v>353</v>
-      </c>
-      <c r="E4" s="8">
-        <v>460</v>
-      </c>
-      <c r="F4" s="8">
-        <v>542</v>
-      </c>
-      <c r="G4" s="8">
-        <v>642</v>
-      </c>
-      <c r="H4" s="8">
-        <v>812</v>
-      </c>
-      <c r="I4" s="8">
-        <v>852</v>
-      </c>
-      <c r="J4" s="8">
-        <v>884</v>
-      </c>
-      <c r="K4" s="8">
-        <v>932</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1009</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1089</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1171</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1271</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1403</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>1458</v>
-      </c>
-      <c r="R4" s="8">
-        <v>1517</v>
-      </c>
-      <c r="S4" s="8">
-        <v>1595</v>
-      </c>
-      <c r="T4" s="8">
-        <v>1670</v>
-      </c>
-      <c r="U4" s="8">
-        <v>1762</v>
-      </c>
-      <c r="V4" s="8">
-        <v>1846</v>
-      </c>
-      <c r="W4" s="8">
-        <v>1891</v>
-      </c>
-      <c r="X4" s="8">
-        <v>1919</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>1978</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>2037</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>2138</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>2247</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>2287</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>2341</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>2426</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>2471</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>2550</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>2710</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>2793</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>2865</v>
-      </c>
-      <c r="AK4" s="8">
-        <v>2919</v>
-      </c>
-      <c r="AL4">
-        <v>2977</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8">
-        <v>20</v>
-      </c>
-      <c r="G5" s="8">
-        <v>21</v>
-      </c>
-      <c r="H5" s="8">
-        <v>24</v>
-      </c>
-      <c r="I5" s="8">
-        <v>26</v>
-      </c>
-      <c r="J5" s="8">
-        <v>29</v>
-      </c>
-      <c r="K5" s="8">
-        <v>30</v>
-      </c>
-      <c r="L5" s="8">
-        <v>31</v>
-      </c>
-      <c r="M5" s="8">
-        <v>35</v>
-      </c>
-      <c r="N5" s="8">
-        <v>36</v>
-      </c>
-      <c r="O5" s="8">
-        <v>38</v>
-      </c>
-      <c r="P5" s="8">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>52</v>
-      </c>
-      <c r="R5" s="8">
-        <v>54</v>
-      </c>
-      <c r="S5" s="8">
-        <v>57</v>
-      </c>
-      <c r="T5" s="8">
-        <v>58</v>
-      </c>
-      <c r="U5" s="8">
-        <v>60</v>
-      </c>
-      <c r="V5" s="8">
-        <v>63</v>
-      </c>
-      <c r="W5" s="8">
-        <v>63</v>
-      </c>
-      <c r="X5" s="8">
-        <v>62</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>62</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>64</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>65</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>66</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>66</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>72</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>74</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>73</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>73</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>75</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>79</v>
-      </c>
-      <c r="AJ5" s="8">
-        <v>80</v>
-      </c>
-      <c r="AK5" s="8">
-        <v>83</v>
-      </c>
-      <c r="AL5">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="A6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>6</v>
-      </c>
-      <c r="G6" s="8">
-        <v>6</v>
-      </c>
-      <c r="H6" s="8">
-        <v>6</v>
-      </c>
-      <c r="I6" s="8">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8">
-        <v>6</v>
-      </c>
-      <c r="K6" s="8">
-        <v>6</v>
-      </c>
-      <c r="L6" s="8">
-        <v>7</v>
-      </c>
-      <c r="M6" s="8">
-        <v>7</v>
-      </c>
-      <c r="N6" s="8">
-        <v>7</v>
-      </c>
-      <c r="O6" s="8">
-        <v>8</v>
-      </c>
-      <c r="P6" s="8">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>12</v>
-      </c>
-      <c r="R6" s="8">
-        <v>12</v>
-      </c>
-      <c r="S6" s="8">
-        <v>11</v>
-      </c>
-      <c r="T6" s="8">
-        <v>12</v>
-      </c>
-      <c r="U6" s="8">
-        <v>12</v>
-      </c>
-      <c r="V6" s="8">
-        <v>12</v>
-      </c>
-      <c r="W6" s="8">
-        <v>11</v>
-      </c>
-      <c r="X6" s="8">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>11</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>13</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>13</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>13</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>13</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AI6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AJ6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AK6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AL6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8">
-        <v>2</v>
-      </c>
-      <c r="M7" s="8">
-        <v>4</v>
-      </c>
-      <c r="N7" s="8">
-        <v>4</v>
-      </c>
-      <c r="O7" s="8">
-        <v>5</v>
-      </c>
-      <c r="P7" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>6</v>
-      </c>
-      <c r="R7" s="8">
-        <v>6</v>
-      </c>
-      <c r="S7" s="8">
-        <v>7</v>
-      </c>
-      <c r="T7" s="8">
-        <v>7</v>
-      </c>
-      <c r="U7" s="8">
-        <v>7</v>
-      </c>
-      <c r="V7" s="8">
-        <v>7</v>
-      </c>
-      <c r="W7" s="8">
-        <v>8</v>
-      </c>
-      <c r="X7" s="8">
-        <v>8</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>8</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>8</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>10</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>10</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>10</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>10</v>
-      </c>
-      <c r="AF7" s="8">
-        <v>11</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>10</v>
-      </c>
-      <c r="AH7" s="8">
-        <v>13</v>
-      </c>
-      <c r="AI7" s="8">
-        <v>14</v>
-      </c>
-      <c r="AJ7" s="8">
-        <v>17</v>
-      </c>
-      <c r="AK7" s="8">
-        <v>17</v>
-      </c>
-      <c r="AL7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8">
-        <v>78</v>
-      </c>
-      <c r="D8" s="8">
-        <v>80</v>
-      </c>
-      <c r="E8" s="8">
-        <v>123</v>
-      </c>
-      <c r="F8" s="8">
-        <v>153</v>
-      </c>
-      <c r="G8" s="8">
-        <v>179</v>
-      </c>
-      <c r="H8" s="8">
-        <v>226</v>
-      </c>
-      <c r="I8" s="8">
-        <v>242</v>
-      </c>
-      <c r="J8" s="8">
-        <v>256</v>
-      </c>
-      <c r="K8" s="8">
-        <v>275</v>
-      </c>
-      <c r="L8" s="8">
-        <v>300</v>
-      </c>
-      <c r="M8" s="8">
-        <v>345</v>
-      </c>
-      <c r="N8" s="8">
-        <v>386</v>
-      </c>
-      <c r="O8" s="8">
-        <v>431</v>
-      </c>
-      <c r="P8" s="8">
-        <v>390</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>415</v>
-      </c>
-      <c r="R8" s="8">
-        <v>450</v>
-      </c>
-      <c r="S8" s="8">
-        <v>481</v>
-      </c>
-      <c r="T8" s="8">
-        <v>508</v>
-      </c>
-      <c r="U8" s="8">
-        <v>538</v>
-      </c>
-      <c r="V8" s="8">
-        <v>599</v>
-      </c>
-      <c r="W8" s="8">
-        <v>652</v>
-      </c>
-      <c r="X8" s="8">
-        <v>680</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>717</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>770</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>794</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>861</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>889</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>990</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>1014</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>1077</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>1124</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>1167</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>1232</v>
-      </c>
-      <c r="AJ8" s="8">
-        <v>1286</v>
-      </c>
-      <c r="AK8" s="8">
-        <v>1339</v>
-      </c>
-      <c r="AL8">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38">
-      <c r="A9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8">
-        <v>12</v>
-      </c>
-      <c r="G9" s="8">
-        <v>14</v>
-      </c>
-      <c r="H9" s="8">
-        <v>15</v>
-      </c>
-      <c r="I9" s="8">
-        <v>15</v>
-      </c>
-      <c r="J9" s="8">
-        <v>23</v>
-      </c>
-      <c r="K9" s="8">
-        <v>26</v>
-      </c>
-      <c r="L9" s="8">
-        <v>27</v>
-      </c>
-      <c r="M9" s="8">
-        <v>27</v>
-      </c>
-      <c r="N9" s="8">
-        <v>28</v>
-      </c>
-      <c r="O9" s="8">
-        <v>27</v>
-      </c>
-      <c r="P9" s="8">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>25</v>
-      </c>
-      <c r="R9" s="8">
-        <v>24</v>
-      </c>
-      <c r="S9" s="8">
-        <v>25</v>
-      </c>
-      <c r="T9" s="8">
-        <v>24</v>
-      </c>
-      <c r="U9" s="8">
-        <v>24</v>
-      </c>
-      <c r="V9" s="8">
-        <v>25</v>
-      </c>
-      <c r="W9" s="8">
-        <v>24</v>
-      </c>
-      <c r="X9" s="8">
-        <v>25</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>25</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>26</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>28</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>30</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>33</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>32</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>33</v>
-      </c>
-      <c r="AF9" s="8">
-        <v>33</v>
-      </c>
-      <c r="AG9" s="8">
-        <v>33</v>
-      </c>
-      <c r="AH9" s="8">
-        <v>41</v>
-      </c>
-      <c r="AI9" s="8">
-        <v>41</v>
-      </c>
-      <c r="AJ9" s="8">
-        <v>39</v>
-      </c>
-      <c r="AK9" s="8">
-        <v>39</v>
-      </c>
-      <c r="AL9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="A10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8">
-        <v>341</v>
-      </c>
-      <c r="D10" s="8">
-        <v>520</v>
-      </c>
-      <c r="E10" s="8">
-        <v>585</v>
-      </c>
-      <c r="F10" s="8">
-        <v>550</v>
-      </c>
-      <c r="G10" s="8">
-        <v>564</v>
-      </c>
-      <c r="H10" s="8">
-        <v>443</v>
-      </c>
-      <c r="I10" s="8">
-        <v>483</v>
-      </c>
-      <c r="J10" s="8">
-        <v>496</v>
-      </c>
-      <c r="K10" s="8">
-        <v>501</v>
-      </c>
-      <c r="L10" s="8">
-        <v>527</v>
-      </c>
-      <c r="M10" s="8">
-        <v>539</v>
-      </c>
-      <c r="N10" s="8">
-        <v>544</v>
-      </c>
-      <c r="O10" s="8">
-        <v>607</v>
-      </c>
-      <c r="P10" s="8">
-        <v>500</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>563</v>
-      </c>
-      <c r="R10" s="8">
-        <v>615</v>
-      </c>
-      <c r="S10" s="8">
-        <v>601</v>
-      </c>
-      <c r="T10" s="8">
-        <v>663</v>
-      </c>
-      <c r="U10" s="8">
-        <v>705</v>
-      </c>
-      <c r="V10" s="8">
-        <v>744</v>
-      </c>
-      <c r="W10" s="8">
-        <v>799</v>
-      </c>
-      <c r="X10" s="8">
-        <v>802</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>806</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>803</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>838</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>1013</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>1083</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>1189</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>1239</v>
-      </c>
-      <c r="AF10" s="8">
-        <v>1272</v>
-      </c>
-      <c r="AG10" s="8">
-        <v>1254</v>
-      </c>
-      <c r="AH10" s="8">
-        <v>1114</v>
-      </c>
-      <c r="AI10" s="8">
-        <v>1201</v>
-      </c>
-      <c r="AJ10" s="8">
-        <v>1276</v>
-      </c>
-      <c r="AK10" s="8">
-        <v>1358</v>
-      </c>
-      <c r="AL10">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
-      <c r="A11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="8">
-        <v>98</v>
-      </c>
-      <c r="D11" s="8">
-        <v>107</v>
-      </c>
-      <c r="E11" s="8">
-        <v>154</v>
-      </c>
-      <c r="F11" s="8">
-        <v>169</v>
-      </c>
-      <c r="G11" s="8">
-        <v>188</v>
-      </c>
-      <c r="H11" s="8">
-        <v>227</v>
-      </c>
-      <c r="I11" s="8">
-        <v>241</v>
-      </c>
-      <c r="J11" s="8">
-        <v>263</v>
-      </c>
-      <c r="K11" s="8">
-        <v>299</v>
-      </c>
-      <c r="L11" s="8">
-        <v>324</v>
-      </c>
-      <c r="M11" s="8">
-        <v>361</v>
-      </c>
-      <c r="N11" s="8">
-        <v>403</v>
-      </c>
-      <c r="O11" s="8">
-        <v>439</v>
-      </c>
-      <c r="P11" s="8">
-        <v>494</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>516</v>
-      </c>
-      <c r="R11" s="8">
-        <v>555</v>
-      </c>
-      <c r="S11" s="8">
-        <v>589</v>
-      </c>
-      <c r="T11" s="8">
-        <v>610</v>
-      </c>
-      <c r="U11" s="8">
-        <v>636</v>
-      </c>
-      <c r="V11" s="8">
-        <v>678</v>
-      </c>
-      <c r="W11" s="8">
-        <v>708</v>
-      </c>
-      <c r="X11" s="8">
-        <v>730</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>757</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>797</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>855</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>886</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>913</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>954</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>976</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>1033</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>1107</v>
-      </c>
-      <c r="AH11" s="8">
-        <v>1227</v>
-      </c>
-      <c r="AI11" s="8">
-        <v>1283</v>
-      </c>
-      <c r="AJ11" s="8">
-        <v>1337</v>
-      </c>
-      <c r="AK11" s="8">
-        <v>1370</v>
-      </c>
-      <c r="AL11">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38">
-      <c r="A12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="8">
-        <v>517</v>
-      </c>
-      <c r="D12" s="8">
-        <v>580</v>
-      </c>
-      <c r="E12" s="8">
-        <v>696</v>
-      </c>
-      <c r="F12" s="8">
-        <v>799</v>
-      </c>
-      <c r="G12" s="8">
-        <v>903</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1104</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1146</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1191</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1252</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1340</v>
-      </c>
-      <c r="M12" s="8">
-        <v>1445</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1522</v>
-      </c>
-      <c r="O12" s="8">
-        <v>1613</v>
-      </c>
-      <c r="P12" s="8">
-        <v>1783</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>1832</v>
-      </c>
-      <c r="R12" s="8">
-        <v>1914</v>
-      </c>
-      <c r="S12" s="8">
-        <v>2002</v>
-      </c>
-      <c r="T12" s="8">
-        <v>2074</v>
-      </c>
-      <c r="U12" s="8">
-        <v>2173</v>
-      </c>
-      <c r="V12" s="8">
-        <v>2263</v>
-      </c>
-      <c r="W12" s="8">
-        <v>2320</v>
-      </c>
-      <c r="X12" s="8">
-        <v>2345</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>2416</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>2490</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>2613</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>2741</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>2782</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>2854</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>2936</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>2997</v>
-      </c>
-      <c r="AG12" s="8">
-        <v>3083</v>
-      </c>
-      <c r="AH12" s="8">
-        <v>3292</v>
-      </c>
-      <c r="AI12" s="8">
-        <v>3393</v>
-      </c>
-      <c r="AJ12" s="8">
-        <v>3468</v>
-      </c>
-      <c r="AK12" s="8">
-        <v>3523</v>
-      </c>
-      <c r="AL12">
-        <v>3586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38">
-      <c r="A13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8">
-        <v>5</v>
-      </c>
-      <c r="F13" s="8">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8">
-        <v>5</v>
-      </c>
-      <c r="H13" s="8">
-        <v>4</v>
-      </c>
-      <c r="I13" s="8">
-        <v>5</v>
-      </c>
-      <c r="J13" s="8">
-        <v>5</v>
-      </c>
-      <c r="K13" s="8">
-        <v>6</v>
-      </c>
-      <c r="L13" s="8">
-        <v>6</v>
-      </c>
-      <c r="M13" s="8">
-        <v>5</v>
-      </c>
-      <c r="N13" s="8">
-        <v>7</v>
-      </c>
-      <c r="O13" s="8">
-        <v>7</v>
-      </c>
-      <c r="P13" s="8">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>16</v>
-      </c>
-      <c r="R13" s="8">
-        <v>14</v>
-      </c>
-      <c r="S13" s="8">
-        <v>14</v>
-      </c>
-      <c r="T13" s="8">
-        <v>14</v>
-      </c>
-      <c r="U13" s="8">
-        <v>14</v>
-      </c>
-      <c r="V13" s="8">
-        <v>14</v>
-      </c>
-      <c r="W13" s="8">
-        <v>14</v>
-      </c>
-      <c r="X13" s="8">
-        <v>15</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>16</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>17</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>18</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>19</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>19</v>
-      </c>
-      <c r="AE13" s="8">
-        <v>19</v>
-      </c>
-      <c r="AF13" s="8">
-        <v>20</v>
-      </c>
-      <c r="AG13" s="8">
-        <v>17</v>
-      </c>
-      <c r="AH13" s="8">
-        <v>21</v>
-      </c>
-      <c r="AI13" s="8">
-        <v>22</v>
-      </c>
-      <c r="AJ13" s="8">
-        <v>21</v>
-      </c>
-      <c r="AK13" s="8">
-        <v>21</v>
-      </c>
-      <c r="AL13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-    </row>
-    <row r="15" spans="1:38">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-    </row>
-    <row r="16" spans="1:38">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:W21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W2" sqref="W2:W12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43943</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43944</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43945</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43946</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43947</v>
-      </c>
-      <c r="J1" s="5">
-        <v>43948</v>
-      </c>
-      <c r="K1" s="5">
-        <v>43949</v>
-      </c>
-      <c r="L1" s="5">
-        <v>43950</v>
-      </c>
-      <c r="M1" s="5">
-        <v>43951</v>
-      </c>
-      <c r="N1" s="5">
-        <v>43952</v>
-      </c>
-      <c r="O1" s="5">
-        <v>43953</v>
-      </c>
-      <c r="P1" s="5">
-        <v>43954</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>43955</v>
-      </c>
-      <c r="R1" s="5">
-        <v>43956</v>
-      </c>
-      <c r="S1" s="5">
-        <v>43957</v>
-      </c>
-      <c r="T1" s="5">
-        <v>43958</v>
-      </c>
-      <c r="U1" s="5">
-        <v>43959</v>
-      </c>
-      <c r="V1" s="5">
-        <v>43960</v>
-      </c>
-      <c r="W1" s="20">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="19">
-        <f>SUM(B3:B12)</f>
-        <v>105</v>
-      </c>
-      <c r="C2" s="19">
-        <v>112</v>
-      </c>
-      <c r="D2" s="19">
-        <v>127</v>
-      </c>
-      <c r="E2" s="19">
-        <v>139</v>
-      </c>
-      <c r="F2" s="19">
-        <v>153</v>
-      </c>
-      <c r="G2" s="19">
-        <v>165</v>
-      </c>
-      <c r="H2" s="19">
-        <v>178</v>
-      </c>
-      <c r="I2" s="19">
-        <v>185</v>
-      </c>
-      <c r="J2" s="19">
-        <v>190</v>
-      </c>
-      <c r="K2" s="19">
-        <v>205</v>
-      </c>
-      <c r="L2" s="19">
-        <v>224</v>
-      </c>
-      <c r="M2" s="19">
-        <v>231</v>
-      </c>
-      <c r="N2" s="19">
-        <v>240</v>
-      </c>
-      <c r="O2" s="19">
-        <v>251</v>
-      </c>
-      <c r="P2" s="19">
-        <v>258</v>
-      </c>
-      <c r="Q2" s="19">
-        <v>264</v>
-      </c>
-      <c r="R2" s="19">
-        <v>277</v>
-      </c>
-      <c r="S2" s="19">
-        <v>285</v>
-      </c>
-      <c r="T2" s="19">
-        <v>304</v>
-      </c>
-      <c r="U2" s="19">
-        <v>311</v>
-      </c>
-      <c r="V2" s="19">
-        <v>323</v>
-      </c>
-      <c r="W2">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8">
-        <v>11</v>
-      </c>
-      <c r="H3" s="8">
-        <v>11</v>
-      </c>
-      <c r="I3" s="8">
-        <v>11</v>
-      </c>
-      <c r="J3" s="8">
-        <v>12</v>
-      </c>
-      <c r="K3" s="8">
-        <v>17</v>
-      </c>
-      <c r="L3" s="8">
-        <v>21</v>
-      </c>
-      <c r="M3" s="8">
-        <v>21</v>
-      </c>
-      <c r="N3" s="8">
-        <v>21</v>
-      </c>
-      <c r="O3" s="8">
-        <v>21</v>
-      </c>
-      <c r="P3" s="8">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>22</v>
-      </c>
-      <c r="R3" s="8">
-        <v>24</v>
-      </c>
-      <c r="S3" s="8">
-        <v>25</v>
-      </c>
-      <c r="T3" s="8">
-        <v>25</v>
-      </c>
-      <c r="U3" s="8">
-        <v>28</v>
-      </c>
-      <c r="V3" s="8">
-        <v>32</v>
-      </c>
-      <c r="W3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8">
-        <v>6</v>
-      </c>
-      <c r="I4" s="8">
-        <v>7</v>
-      </c>
-      <c r="J4" s="8">
-        <v>8</v>
-      </c>
-      <c r="K4" s="8">
-        <v>9</v>
-      </c>
-      <c r="L4" s="8">
-        <v>10</v>
-      </c>
-      <c r="M4" s="8">
-        <v>13</v>
-      </c>
-      <c r="N4" s="8">
-        <v>14</v>
-      </c>
-      <c r="O4" s="8">
-        <v>14</v>
-      </c>
-      <c r="P4" s="8">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>14</v>
-      </c>
-      <c r="R4" s="8">
-        <v>15</v>
-      </c>
-      <c r="S4" s="8">
-        <v>15</v>
-      </c>
-      <c r="T4" s="8">
-        <v>16</v>
-      </c>
-      <c r="U4" s="8">
-        <v>17</v>
-      </c>
-      <c r="V4" s="8">
-        <v>18</v>
-      </c>
-      <c r="W4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8">
-        <v>12</v>
-      </c>
-      <c r="H5" s="8">
-        <v>12</v>
-      </c>
-      <c r="I5" s="8">
-        <v>13</v>
-      </c>
-      <c r="J5" s="8">
-        <v>14</v>
-      </c>
-      <c r="K5" s="8">
-        <v>14</v>
-      </c>
-      <c r="L5" s="8">
-        <v>14</v>
-      </c>
-      <c r="M5" s="8">
-        <v>14</v>
-      </c>
-      <c r="N5" s="8">
-        <v>15</v>
-      </c>
-      <c r="O5" s="8">
-        <v>15</v>
-      </c>
-      <c r="P5" s="8">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>15</v>
-      </c>
-      <c r="R5" s="8">
-        <v>18</v>
-      </c>
-      <c r="S5" s="8">
-        <v>18</v>
-      </c>
-      <c r="T5" s="8">
-        <v>19</v>
-      </c>
-      <c r="U5" s="8">
-        <v>19</v>
-      </c>
-      <c r="V5" s="8">
-        <v>21</v>
-      </c>
-      <c r="W5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8">
-        <v>20</v>
-      </c>
-      <c r="H6" s="8">
-        <v>22</v>
-      </c>
-      <c r="I6" s="8">
-        <v>23</v>
-      </c>
-      <c r="J6" s="8">
-        <v>23</v>
-      </c>
-      <c r="K6" s="8">
-        <v>26</v>
-      </c>
-      <c r="L6" s="8">
-        <v>30</v>
-      </c>
-      <c r="M6" s="8">
-        <v>30</v>
-      </c>
-      <c r="N6" s="8">
-        <v>30</v>
-      </c>
-      <c r="O6" s="8">
-        <v>35</v>
-      </c>
-      <c r="P6" s="8">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>36</v>
-      </c>
-      <c r="R6" s="8">
-        <v>38</v>
-      </c>
-      <c r="S6" s="8">
-        <v>40</v>
-      </c>
-      <c r="T6" s="8">
-        <v>42</v>
-      </c>
-      <c r="U6" s="8">
-        <v>42</v>
-      </c>
-      <c r="V6" s="8">
-        <v>44</v>
-      </c>
-      <c r="W6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8">
-        <v>21</v>
-      </c>
-      <c r="G7" s="8">
-        <v>23</v>
-      </c>
-      <c r="H7" s="8">
-        <v>25</v>
-      </c>
-      <c r="I7" s="8">
-        <v>27</v>
-      </c>
-      <c r="J7" s="8">
-        <v>28</v>
-      </c>
-      <c r="K7" s="8">
-        <v>30</v>
-      </c>
-      <c r="L7" s="8">
-        <v>34</v>
-      </c>
-      <c r="M7" s="8">
-        <v>35</v>
-      </c>
-      <c r="N7" s="8">
-        <v>38</v>
-      </c>
-      <c r="O7" s="8">
-        <v>39</v>
-      </c>
-      <c r="P7" s="8">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>42</v>
-      </c>
-      <c r="R7" s="8">
-        <v>45</v>
-      </c>
-      <c r="S7" s="8">
-        <v>46</v>
-      </c>
-      <c r="T7" s="8">
-        <v>50</v>
-      </c>
-      <c r="U7" s="8">
-        <v>50</v>
-      </c>
-      <c r="V7" s="8">
-        <v>51</v>
-      </c>
-      <c r="W7">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8">
-        <v>25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>26</v>
-      </c>
-      <c r="H8" s="8">
-        <v>27</v>
-      </c>
-      <c r="I8" s="8">
-        <v>28</v>
-      </c>
-      <c r="J8" s="8">
-        <v>28</v>
-      </c>
-      <c r="K8" s="8">
-        <v>28</v>
-      </c>
-      <c r="L8" s="8">
-        <v>28</v>
-      </c>
-      <c r="M8" s="8">
-        <v>28</v>
-      </c>
-      <c r="N8" s="8">
-        <v>29</v>
-      </c>
-      <c r="O8" s="8">
-        <v>30</v>
-      </c>
-      <c r="P8" s="8">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>30</v>
-      </c>
-      <c r="R8" s="8">
-        <v>30</v>
-      </c>
-      <c r="S8" s="8">
-        <v>31</v>
-      </c>
-      <c r="T8" s="8">
-        <v>33</v>
-      </c>
-      <c r="U8" s="8">
-        <v>33</v>
-      </c>
-      <c r="V8" s="8">
-        <v>33</v>
-      </c>
-      <c r="W8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8">
-        <v>17</v>
-      </c>
-      <c r="E9" s="8">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8">
-        <v>23</v>
-      </c>
-      <c r="G9" s="8">
-        <v>23</v>
-      </c>
-      <c r="H9" s="8">
-        <v>25</v>
-      </c>
-      <c r="I9" s="8">
-        <v>25</v>
-      </c>
-      <c r="J9" s="8">
-        <v>25</v>
-      </c>
-      <c r="K9" s="8">
-        <v>27</v>
-      </c>
-      <c r="L9" s="8">
-        <v>29</v>
-      </c>
-      <c r="M9" s="8">
-        <v>30</v>
-      </c>
-      <c r="N9" s="8">
-        <v>32</v>
-      </c>
-      <c r="O9" s="8">
-        <v>34</v>
-      </c>
-      <c r="P9" s="8">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>37</v>
-      </c>
-      <c r="R9" s="8">
-        <v>37</v>
-      </c>
-      <c r="S9" s="8">
-        <v>39</v>
-      </c>
-      <c r="T9" s="8">
-        <v>42</v>
-      </c>
-      <c r="U9" s="8">
-        <v>43</v>
-      </c>
-      <c r="V9" s="8">
-        <v>44</v>
-      </c>
-      <c r="W9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8">
-        <v>33</v>
-      </c>
-      <c r="G10" s="8">
-        <v>36</v>
-      </c>
-      <c r="H10" s="8">
-        <v>41</v>
-      </c>
-      <c r="I10" s="8">
-        <v>42</v>
-      </c>
-      <c r="J10" s="8">
-        <v>43</v>
-      </c>
-      <c r="K10" s="8">
-        <v>45</v>
-      </c>
-      <c r="L10" s="8">
-        <v>49</v>
-      </c>
-      <c r="M10" s="8">
-        <v>51</v>
-      </c>
-      <c r="N10" s="8">
-        <v>52</v>
-      </c>
-      <c r="O10" s="8">
-        <v>54</v>
-      </c>
-      <c r="P10" s="8">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>59</v>
-      </c>
-      <c r="R10" s="8">
-        <v>60</v>
-      </c>
-      <c r="S10" s="8">
-        <v>61</v>
-      </c>
-      <c r="T10" s="8">
-        <v>67</v>
-      </c>
-      <c r="U10" s="8">
-        <v>68</v>
-      </c>
-      <c r="V10" s="8">
-        <v>69</v>
-      </c>
-      <c r="W10">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8">
-        <v>9</v>
-      </c>
-      <c r="G11" s="8">
-        <v>9</v>
-      </c>
-      <c r="H11" s="8">
-        <v>9</v>
-      </c>
-      <c r="I11" s="8">
-        <v>9</v>
-      </c>
-      <c r="J11" s="8">
-        <v>9</v>
-      </c>
-      <c r="K11" s="8">
-        <v>9</v>
-      </c>
-      <c r="L11" s="8">
-        <v>9</v>
-      </c>
-      <c r="M11" s="8">
-        <v>9</v>
-      </c>
-      <c r="N11" s="8">
-        <v>9</v>
-      </c>
-      <c r="O11" s="8">
-        <v>9</v>
-      </c>
-      <c r="P11" s="8">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>9</v>
-      </c>
-      <c r="R11" s="8">
-        <v>10</v>
-      </c>
-      <c r="S11" s="8">
-        <v>10</v>
-      </c>
-      <c r="T11" s="8">
-        <v>10</v>
-      </c>
-      <c r="U11" s="8">
-        <v>11</v>
-      </c>
-      <c r="V11" s="8">
-        <v>11</v>
-      </c>
-      <c r="W11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO89"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ30" sqref="BQ30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -5178,11 +2439,14 @@
       <c r="BO1" s="5">
         <v>43961</v>
       </c>
+      <c r="BP1" s="5">
+        <v>43962</v>
+      </c>
     </row>
-    <row r="2" spans="1:67">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -5249,13 +2513,14 @@
       <c r="BM2" s="4"/>
       <c r="BN2" s="4"/>
       <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
     </row>
-    <row r="3" spans="1:67">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -5440,13 +2705,16 @@
       <c r="BO3" s="12">
         <v>30261</v>
       </c>
+      <c r="BP3" s="12">
+        <v>31050</v>
+      </c>
     </row>
-    <row r="4" spans="1:67">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="12">
         <v>2</v>
@@ -5643,13 +2911,16 @@
       <c r="BO4" s="12">
         <v>6389</v>
       </c>
+      <c r="BP4" s="12">
+        <v>6485</v>
+      </c>
     </row>
-    <row r="5" spans="1:67">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -5834,13 +3105,16 @@
       <c r="BO5" s="12">
         <v>328</v>
       </c>
+      <c r="BP5" s="12">
+        <v>336</v>
+      </c>
     </row>
-    <row r="6" spans="1:67">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -6005,8 +3279,11 @@
       <c r="BO6" s="12">
         <v>881</v>
       </c>
+      <c r="BP6" s="12">
+        <v>886</v>
+      </c>
     </row>
-    <row r="7" spans="1:67">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -6074,13 +3351,14 @@
       <c r="BM7" s="12"/>
       <c r="BN7" s="12"/>
       <c r="BO7" s="12"/>
+      <c r="BP7" s="12"/>
     </row>
-    <row r="8" spans="1:67">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -6173,13 +3451,16 @@
       <c r="BO8" s="12">
         <v>345</v>
       </c>
+      <c r="BP8" s="12">
+        <v>345</v>
+      </c>
     </row>
-    <row r="9" spans="1:67">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -6340,13 +3621,16 @@
       <c r="BO9" s="12">
         <v>74</v>
       </c>
+      <c r="BP9" s="12">
+        <v>88</v>
+      </c>
     </row>
-    <row r="10" spans="1:67">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -6507,13 +3791,16 @@
       <c r="BO10" s="12">
         <v>440</v>
       </c>
+      <c r="BP10" s="12">
+        <v>440</v>
+      </c>
     </row>
-    <row r="11" spans="1:67">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -6674,13 +3961,16 @@
       <c r="BO11" s="12">
         <v>241</v>
       </c>
+      <c r="BP11" s="12">
+        <v>243</v>
+      </c>
     </row>
-    <row r="12" spans="1:67">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -6841,13 +4131,16 @@
       <c r="BO12" s="12">
         <v>199</v>
       </c>
+      <c r="BP12" s="12">
+        <v>197</v>
+      </c>
     </row>
-    <row r="13" spans="1:67">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -6916,13 +4209,16 @@
       <c r="BO13" s="12">
         <v>416</v>
       </c>
+      <c r="BP13" s="12">
+        <v>435</v>
+      </c>
     </row>
-    <row r="14" spans="1:67">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -6991,14 +4287,13 @@
       <c r="BO14" s="12">
         <v>1775</v>
       </c>
+      <c r="BP14" s="12">
+        <v>1805</v>
+      </c>
     </row>
-    <row r="15" spans="1:67">
-      <c r="A15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>43</v>
-      </c>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -7063,11 +4358,10 @@
       <c r="BL15" s="12"/>
       <c r="BM15" s="12"/>
       <c r="BN15" s="12"/>
-      <c r="BO15" s="12">
-        <v>0.71</v>
-      </c>
+      <c r="BO15" s="12"/>
+      <c r="BP15" s="12"/>
     </row>
-    <row r="16" spans="1:67">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="12"/>
@@ -7135,11 +4429,12 @@
       <c r="BM16" s="12"/>
       <c r="BN16" s="12"/>
       <c r="BO16" s="12"/>
+      <c r="BP16" s="12"/>
     </row>
-    <row r="17" spans="1:67">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -7206,13 +4501,14 @@
       <c r="BM17" s="12"/>
       <c r="BN17" s="12"/>
       <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
     </row>
-    <row r="18" spans="1:67">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -7279,13 +4575,14 @@
       <c r="BM18" s="12"/>
       <c r="BN18" s="12"/>
       <c r="BO18" s="12"/>
+      <c r="BP18" s="12"/>
     </row>
-    <row r="19" spans="1:67">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -7448,13 +4745,16 @@
       <c r="BO19" s="12">
         <v>103</v>
       </c>
+      <c r="BP19" s="12">
+        <v>104</v>
+      </c>
     </row>
-    <row r="20" spans="1:67">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -7581,13 +4881,16 @@
       <c r="BO20" s="12">
         <v>36</v>
       </c>
+      <c r="BP20" s="12">
+        <v>37</v>
+      </c>
     </row>
-    <row r="21" spans="1:67">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -7714,13 +5017,16 @@
       <c r="BO21" s="12">
         <v>67</v>
       </c>
+      <c r="BP21" s="12">
+        <v>67</v>
+      </c>
     </row>
-    <row r="22" spans="1:67">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -7877,13 +5183,16 @@
       <c r="BO22" s="12">
         <v>143</v>
       </c>
+      <c r="BP22" s="12">
+        <v>172</v>
+      </c>
     </row>
-    <row r="23" spans="1:67">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -8040,13 +5349,16 @@
       <c r="BO23" s="12">
         <v>179</v>
       </c>
+      <c r="BP23" s="12">
+        <v>209</v>
+      </c>
     </row>
-    <row r="24" spans="1:67">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -8203,8 +5515,11 @@
       <c r="BO24" s="12">
         <v>1001</v>
       </c>
+      <c r="BP24" s="12">
+        <v>1031</v>
+      </c>
     </row>
-    <row r="25" spans="1:67">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="12"/>
@@ -8272,11 +5587,12 @@
       <c r="BM25" s="12"/>
       <c r="BN25" s="12"/>
       <c r="BO25" s="12"/>
+      <c r="BP25" s="12"/>
     </row>
-    <row r="26" spans="1:67">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -8343,13 +5659,14 @@
       <c r="BM26" s="12"/>
       <c r="BN26" s="12"/>
       <c r="BO26" s="12"/>
+      <c r="BP26" s="12"/>
     </row>
-    <row r="27" spans="1:67">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -8512,13 +5829,16 @@
       <c r="BO27" s="12">
         <v>113</v>
       </c>
+      <c r="BP27" s="12">
+        <v>113</v>
+      </c>
     </row>
-    <row r="28" spans="1:67">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -8645,13 +5965,16 @@
       <c r="BO28" s="12">
         <v>41</v>
       </c>
+      <c r="BP28" s="12">
+        <v>39</v>
+      </c>
     </row>
-    <row r="29" spans="1:67">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -8778,13 +6101,16 @@
       <c r="BO29" s="12">
         <v>72</v>
       </c>
+      <c r="BP29" s="12">
+        <v>74</v>
+      </c>
     </row>
-    <row r="30" spans="1:67">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -8941,13 +6267,16 @@
       <c r="BO30" s="12">
         <v>60</v>
       </c>
+      <c r="BP30" s="12">
+        <v>65</v>
+      </c>
     </row>
-    <row r="31" spans="1:67">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -9104,13 +6433,16 @@
       <c r="BO31" s="12">
         <v>101</v>
       </c>
+      <c r="BP31" s="12">
+        <v>104</v>
+      </c>
     </row>
-    <row r="32" spans="1:67">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -9267,8 +6599,11 @@
       <c r="BO32" s="12">
         <v>939</v>
       </c>
+      <c r="BP32" s="12">
+        <v>968</v>
+      </c>
     </row>
-    <row r="33" spans="1:67">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="12"/>
@@ -9336,11 +6671,12 @@
       <c r="BM33" s="12"/>
       <c r="BN33" s="12"/>
       <c r="BO33" s="12"/>
+      <c r="BP33" s="12"/>
     </row>
-    <row r="34" spans="1:67">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -9407,13 +6743,14 @@
       <c r="BM34" s="12"/>
       <c r="BN34" s="12"/>
       <c r="BO34" s="12"/>
+      <c r="BP34" s="12"/>
     </row>
-    <row r="35" spans="1:67">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -9568,13 +6905,16 @@
       <c r="BO35" s="12">
         <v>74</v>
       </c>
+      <c r="BP35" s="12">
+        <v>75</v>
+      </c>
     </row>
-    <row r="36" spans="1:67">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -9697,13 +7037,16 @@
       <c r="BO36" s="12">
         <v>36</v>
       </c>
+      <c r="BP36" s="12">
+        <v>35</v>
+      </c>
     </row>
-    <row r="37" spans="1:67">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -9826,13 +7169,16 @@
       <c r="BO37" s="12">
         <v>37</v>
       </c>
+      <c r="BP37" s="12">
+        <v>39</v>
+      </c>
     </row>
-    <row r="38" spans="1:67">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -9985,13 +7331,16 @@
       <c r="BO38" s="12">
         <v>13</v>
       </c>
+      <c r="BP38" s="12">
+        <v>13</v>
+      </c>
     </row>
-    <row r="39" spans="1:67">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -10142,13 +7491,16 @@
       <c r="BO39" s="12">
         <v>49</v>
       </c>
+      <c r="BP39" s="12">
+        <v>48</v>
+      </c>
     </row>
-    <row r="40" spans="1:67">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -10303,13 +7655,16 @@
       <c r="BO40" s="12">
         <v>228</v>
       </c>
+      <c r="BP40" s="12">
+        <v>230</v>
+      </c>
     </row>
-    <row r="41" spans="1:67">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -10420,8 +7775,11 @@
       <c r="BO41" s="12">
         <v>1</v>
       </c>
+      <c r="BP41" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:67">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="12"/>
@@ -10489,11 +7847,12 @@
       <c r="BM42" s="12"/>
       <c r="BN42" s="12"/>
       <c r="BO42" s="12"/>
+      <c r="BP42" s="12"/>
     </row>
-    <row r="43" spans="1:67">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -10560,13 +7919,14 @@
       <c r="BM43" s="12"/>
       <c r="BN43" s="12"/>
       <c r="BO43" s="12"/>
+      <c r="BP43" s="12"/>
     </row>
-    <row r="44" spans="1:67">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -10725,13 +8085,16 @@
       <c r="BO44" s="12">
         <v>177</v>
       </c>
+      <c r="BP44" s="12">
+        <v>179</v>
+      </c>
     </row>
-    <row r="45" spans="1:67">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -10858,13 +8221,16 @@
       <c r="BO45" s="12">
         <v>45</v>
       </c>
+      <c r="BP45" s="12">
+        <v>44</v>
+      </c>
     </row>
-    <row r="46" spans="1:67">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -10991,13 +8357,16 @@
       <c r="BO46" s="12">
         <v>127</v>
       </c>
+      <c r="BP46" s="12">
+        <v>130</v>
+      </c>
     </row>
-    <row r="47" spans="1:67">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -11154,13 +8523,16 @@
       <c r="BO47" s="12">
         <v>828</v>
       </c>
+      <c r="BP47" s="12">
+        <v>833</v>
+      </c>
     </row>
-    <row r="48" spans="1:67">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -11287,13 +8659,16 @@
       <c r="BO48" s="12">
         <v>873</v>
       </c>
+      <c r="BP48" s="12">
+        <v>877</v>
+      </c>
     </row>
-    <row r="49" spans="1:67">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -11418,13 +8793,16 @@
       <c r="BO49" s="12">
         <v>475</v>
       </c>
+      <c r="BP49" s="12">
+        <v>471</v>
+      </c>
     </row>
-    <row r="50" spans="1:67">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -11545,8 +8923,11 @@
       <c r="BO50" s="12">
         <v>1</v>
       </c>
+      <c r="BP50" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:67">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="12"/>
@@ -11614,11 +8995,12 @@
       <c r="BM51" s="12"/>
       <c r="BN51" s="12"/>
       <c r="BO51" s="12"/>
+      <c r="BP51" s="12"/>
     </row>
-    <row r="52" spans="1:67">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -11685,13 +9067,14 @@
       <c r="BM52" s="12"/>
       <c r="BN52" s="12"/>
       <c r="BO52" s="12"/>
+      <c r="BP52" s="12"/>
     </row>
-    <row r="53" spans="1:67">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -11840,13 +9223,16 @@
       <c r="BO53" s="12">
         <v>26</v>
       </c>
+      <c r="BP53" s="12">
+        <v>27</v>
+      </c>
     </row>
-    <row r="54" spans="1:67">
+    <row r="54" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -11971,13 +9357,16 @@
       <c r="BO54" s="12">
         <v>15</v>
       </c>
+      <c r="BP54" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="55" spans="1:67">
+    <row r="55" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -12102,13 +9491,16 @@
       <c r="BO55" s="12">
         <v>10</v>
       </c>
+      <c r="BP55" s="12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="56" spans="1:67">
+    <row r="56" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -12257,13 +9649,16 @@
       <c r="BO56" s="12">
         <v>21</v>
       </c>
+      <c r="BP56" s="12">
+        <v>22</v>
+      </c>
     </row>
-    <row r="57" spans="1:67">
+    <row r="57" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -12412,13 +9807,16 @@
       <c r="BO57" s="12">
         <v>36</v>
       </c>
+      <c r="BP57" s="12">
+        <v>38</v>
+      </c>
     </row>
-    <row r="58" spans="1:67">
+    <row r="58" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -12567,13 +9965,16 @@
       <c r="BO58" s="12">
         <v>116</v>
       </c>
+      <c r="BP58" s="12">
+        <v>116</v>
+      </c>
     </row>
-    <row r="59" spans="1:67">
+    <row r="59" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -12694,8 +10095,11 @@
       <c r="BO59" s="12">
         <v>1</v>
       </c>
+      <c r="BP59" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:67">
+    <row r="60" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="12"/>
@@ -12763,13 +10167,14 @@
       <c r="BM60" s="12"/>
       <c r="BN60" s="12"/>
       <c r="BO60" s="12"/>
+      <c r="BP60" s="12"/>
     </row>
-    <row r="61" spans="1:67">
+    <row r="61" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -12918,13 +10323,16 @@
       <c r="BO61" s="12">
         <v>10</v>
       </c>
+      <c r="BP61" s="12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="62" spans="1:67">
+    <row r="62" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -13049,13 +10457,16 @@
       <c r="BO62" s="12">
         <v>4</v>
       </c>
+      <c r="BP62" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="63" spans="1:67">
+    <row r="63" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -13180,13 +10591,16 @@
       <c r="BO63" s="12">
         <v>6</v>
       </c>
+      <c r="BP63" s="12">
+        <v>6</v>
+      </c>
     </row>
-    <row r="64" spans="1:67">
+    <row r="64" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -13335,13 +10749,16 @@
       <c r="BO64" s="12">
         <v>44</v>
       </c>
+      <c r="BP64" s="12">
+        <v>44</v>
+      </c>
     </row>
-    <row r="65" spans="1:67">
+    <row r="65" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -13490,13 +10907,16 @@
       <c r="BO65" s="12">
         <v>48</v>
       </c>
+      <c r="BP65" s="12">
+        <v>48</v>
+      </c>
     </row>
-    <row r="66" spans="1:67">
+    <row r="66" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -13643,13 +11063,16 @@
       <c r="BO66" s="12">
         <v>0</v>
       </c>
+      <c r="BP66" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:67">
+    <row r="67" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -13774,8 +11197,11 @@
       <c r="BO67" s="12">
         <v>0</v>
       </c>
+      <c r="BP67" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:67">
+    <row r="68" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="12"/>
@@ -13843,11 +11269,12 @@
       <c r="BM68" s="12"/>
       <c r="BN68" s="12"/>
       <c r="BO68" s="12"/>
+      <c r="BP68" s="12"/>
     </row>
-    <row r="69" spans="1:67">
+    <row r="69" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="6" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -13914,13 +11341,14 @@
       <c r="BM69" s="12"/>
       <c r="BN69" s="12"/>
       <c r="BO69" s="12"/>
+      <c r="BP69" s="12"/>
     </row>
-    <row r="70" spans="1:67">
+    <row r="70" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -14069,13 +11497,16 @@
       <c r="BO70" s="12">
         <v>260</v>
       </c>
+      <c r="BP70" s="12">
+        <v>267</v>
+      </c>
     </row>
-    <row r="71" spans="1:67">
+    <row r="71" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -14224,13 +11655,16 @@
       <c r="BO71" s="12">
         <v>357</v>
       </c>
+      <c r="BP71" s="12">
+        <v>349</v>
+      </c>
     </row>
-    <row r="72" spans="1:67">
+    <row r="72" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -14379,13 +11813,16 @@
       <c r="BO72" s="12">
         <v>354</v>
       </c>
+      <c r="BP72" s="12">
+        <v>342</v>
+      </c>
     </row>
-    <row r="73" spans="1:67">
+    <row r="73" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -14506,8 +11943,11 @@
       <c r="BO73" s="12">
         <v>12</v>
       </c>
+      <c r="BP73" s="12">
+        <v>15</v>
+      </c>
     </row>
-    <row r="74" spans="1:67">
+    <row r="74" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="12"/>
@@ -14575,13 +12015,14 @@
       <c r="BM74" s="12"/>
       <c r="BN74" s="12"/>
       <c r="BO74" s="12"/>
+      <c r="BP74" s="12"/>
     </row>
-    <row r="75" spans="1:67">
+    <row r="75" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -14730,13 +12171,16 @@
       <c r="BO75" s="12">
         <v>81</v>
       </c>
+      <c r="BP75" s="12">
+        <v>81</v>
+      </c>
     </row>
-    <row r="76" spans="1:67">
+    <row r="76" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -14885,13 +12329,16 @@
       <c r="BO76" s="12">
         <v>23</v>
       </c>
+      <c r="BP76" s="12">
+        <v>27</v>
+      </c>
     </row>
-    <row r="77" spans="1:67">
+    <row r="77" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -15040,13 +12487,16 @@
       <c r="BO77" s="12">
         <v>104</v>
       </c>
+      <c r="BP77" s="12">
+        <v>109</v>
+      </c>
     </row>
-    <row r="78" spans="1:67">
+    <row r="78" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -15187,8 +12637,11 @@
       <c r="BO78" s="12">
         <v>151</v>
       </c>
+      <c r="BP78" s="12">
+        <v>152</v>
+      </c>
     </row>
-    <row r="79" spans="1:67">
+    <row r="79" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="12"/>
@@ -15256,13 +12709,14 @@
       <c r="BM79" s="12"/>
       <c r="BN79" s="12"/>
       <c r="BO79" s="12"/>
+      <c r="BP79" s="12"/>
     </row>
-    <row r="80" spans="1:67">
+    <row r="80" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -15411,13 +12865,16 @@
       <c r="BO80" s="12">
         <v>78</v>
       </c>
+      <c r="BP80" s="12">
+        <v>79</v>
+      </c>
     </row>
-    <row r="81" spans="1:67">
+    <row r="81" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -15566,13 +13023,16 @@
       <c r="BO81" s="12">
         <v>55</v>
       </c>
+      <c r="BP81" s="12">
+        <v>56</v>
+      </c>
     </row>
-    <row r="82" spans="1:67">
+    <row r="82" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -15655,31 +13115,31 @@
         <v>34</v>
       </c>
       <c r="BA82" s="12" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="BB82" s="12" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="BC82" s="12">
         <v>17</v>
       </c>
       <c r="BD82" s="12" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="BE82" s="12">
         <v>127</v>
       </c>
       <c r="BF82" s="12" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="BG82" s="12" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="BH82" s="12" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="BI82" s="12" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="BJ82" s="12">
         <v>152</v>
@@ -15699,13 +13159,16 @@
       <c r="BO82" s="12">
         <v>147</v>
       </c>
+      <c r="BP82" s="12">
+        <v>142</v>
+      </c>
     </row>
-    <row r="83" spans="1:67">
+    <row r="83" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -15828,13 +13291,16 @@
       <c r="BO83" s="12">
         <v>5</v>
       </c>
+      <c r="BP83" s="12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="84" spans="1:67">
+    <row r="84" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -15981,8 +13447,11 @@
       <c r="BO84" s="12">
         <v>14</v>
       </c>
+      <c r="BP84" s="12">
+        <v>14</v>
+      </c>
     </row>
-    <row r="85" spans="1:67">
+    <row r="85" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="12"/>
@@ -16050,13 +13519,14 @@
       <c r="BM85" s="12"/>
       <c r="BN85" s="12"/>
       <c r="BO85" s="12"/>
+      <c r="BP85" s="12"/>
     </row>
-    <row r="86" spans="1:67">
+    <row r="86" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
@@ -16151,13 +13621,16 @@
       <c r="BO86" s="12">
         <v>150</v>
       </c>
+      <c r="BP86" s="12">
+        <v>155</v>
+      </c>
     </row>
-    <row r="87" spans="1:67">
+    <row r="87" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -16252,13 +13725,16 @@
       <c r="BO87" s="12">
         <v>24</v>
       </c>
+      <c r="BP87" s="12">
+        <v>24</v>
+      </c>
     </row>
-    <row r="88" spans="1:67">
+    <row r="88" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -16353,8 +13829,11 @@
       <c r="BO88" s="12">
         <v>20</v>
       </c>
+      <c r="BP88" s="12">
+        <v>20</v>
+      </c>
     </row>
-    <row r="89" spans="1:67">
+    <row r="89" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="12"/>
@@ -16422,6 +13901,7 @@
       <c r="BM89" s="12"/>
       <c r="BN89" s="12"/>
       <c r="BO89" s="12"/>
+      <c r="BP89" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16429,21 +13909,2902 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB097C5-61FE-3342-9C03-F1C59662C9D7}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="13">
+        <v>6485</v>
+      </c>
+      <c r="C2" s="13">
+        <v>3166</v>
+      </c>
+      <c r="D2" s="13">
+        <v>3301</v>
+      </c>
+      <c r="E2" s="14">
+        <v>17</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17">
+        <v>5</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="13">
+        <v>230</v>
+      </c>
+      <c r="C4" s="8">
+        <v>116</v>
+      </c>
+      <c r="D4" s="8">
+        <v>107</v>
+      </c>
+      <c r="E4" s="12">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1061</v>
+      </c>
+      <c r="C5" s="8">
+        <v>564</v>
+      </c>
+      <c r="D5" s="8">
+        <v>492</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1244</v>
+      </c>
+      <c r="C6" s="8">
+        <v>607</v>
+      </c>
+      <c r="D6" s="8">
+        <v>635</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1017</v>
+      </c>
+      <c r="C7" s="8">
+        <v>487</v>
+      </c>
+      <c r="D7" s="8">
+        <v>530</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1095</v>
+      </c>
+      <c r="C8" s="8">
+        <v>480</v>
+      </c>
+      <c r="D8" s="8">
+        <v>614</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="13">
+        <v>949</v>
+      </c>
+      <c r="C9" s="8">
+        <v>428</v>
+      </c>
+      <c r="D9" s="8">
+        <v>520</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="13">
+        <v>478</v>
+      </c>
+      <c r="C10" s="8">
+        <v>224</v>
+      </c>
+      <c r="D10" s="8">
+        <v>252</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="13">
+        <v>404</v>
+      </c>
+      <c r="C11" s="8">
+        <v>258</v>
+      </c>
+      <c r="D11" s="8">
+        <v>146</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AM19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AO31" sqref="AO31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43926</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43927</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43928</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43929</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43930</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43931</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43932</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43933</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43934</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43935</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43936</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43937</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43938</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43939</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="R1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="S1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="T1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="U1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="V1" s="5">
+        <v>43945</v>
+      </c>
+      <c r="W1" s="5">
+        <v>43946</v>
+      </c>
+      <c r="X1" s="5">
+        <v>43947</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>43948</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>43949</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>43950</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>43951</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>43952</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>43953</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>43954</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>43955</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>43957</v>
+      </c>
+      <c r="AI1" s="5">
+        <v>43958</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>43959</v>
+      </c>
+      <c r="AK1" s="5">
+        <v>43960</v>
+      </c>
+      <c r="AL1" s="5">
+        <v>43961</v>
+      </c>
+      <c r="AM1" s="5">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>349</v>
+      </c>
+      <c r="D2" s="8">
+        <v>596</v>
+      </c>
+      <c r="E2" s="8">
+        <v>604</v>
+      </c>
+      <c r="F2" s="8">
+        <v>536</v>
+      </c>
+      <c r="G2" s="8">
+        <v>516</v>
+      </c>
+      <c r="H2" s="8">
+        <v>355</v>
+      </c>
+      <c r="I2" s="8">
+        <v>379</v>
+      </c>
+      <c r="J2" s="8">
+        <v>391</v>
+      </c>
+      <c r="K2" s="8">
+        <v>400</v>
+      </c>
+      <c r="L2" s="8">
+        <v>410</v>
+      </c>
+      <c r="M2" s="8">
+        <v>404</v>
+      </c>
+      <c r="N2" s="8">
+        <v>383</v>
+      </c>
+      <c r="O2" s="8">
+        <v>413</v>
+      </c>
+      <c r="P2" s="8">
+        <v>358</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>406</v>
+      </c>
+      <c r="R2" s="8">
+        <v>470</v>
+      </c>
+      <c r="S2" s="8">
+        <v>443</v>
+      </c>
+      <c r="T2" s="8">
+        <v>479</v>
+      </c>
+      <c r="U2" s="8">
+        <v>490</v>
+      </c>
+      <c r="V2" s="8">
+        <v>494</v>
+      </c>
+      <c r="W2" s="8">
+        <v>527</v>
+      </c>
+      <c r="X2" s="8">
+        <v>517</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>503</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>487</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>534</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>666</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>726</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>769</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>789</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>817</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>810</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>734</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>799</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>857</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>891</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>899</v>
+      </c>
+      <c r="AM2" s="8">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="8">
+        <v>135</v>
+      </c>
+      <c r="D3" s="8">
+        <v>154</v>
+      </c>
+      <c r="E3" s="8">
+        <v>218</v>
+      </c>
+      <c r="F3" s="8">
+        <v>253</v>
+      </c>
+      <c r="G3" s="8">
+        <v>281</v>
+      </c>
+      <c r="H3" s="8">
+        <v>339</v>
+      </c>
+      <c r="I3" s="8">
+        <v>354</v>
+      </c>
+      <c r="J3" s="8">
+        <v>365</v>
+      </c>
+      <c r="K3" s="8">
+        <v>388</v>
+      </c>
+      <c r="L3" s="8">
+        <v>411</v>
+      </c>
+      <c r="M3" s="8">
+        <v>439</v>
+      </c>
+      <c r="N3" s="8">
+        <v>461</v>
+      </c>
+      <c r="O3" s="8">
+        <v>473</v>
+      </c>
+      <c r="P3" s="8">
+        <v>548</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>553</v>
+      </c>
+      <c r="R3" s="8">
+        <v>565</v>
+      </c>
+      <c r="S3" s="8">
+        <v>587</v>
+      </c>
+      <c r="T3" s="8">
+        <v>603</v>
+      </c>
+      <c r="U3" s="8">
+        <v>635</v>
+      </c>
+      <c r="V3" s="8">
+        <v>653</v>
+      </c>
+      <c r="W3" s="8">
+        <v>665</v>
+      </c>
+      <c r="X3" s="8">
+        <v>670</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>690</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>703</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>743</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>765</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>773</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>789</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>810</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>826</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>847</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>900</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>927</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>944</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>970</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>977</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="8">
+        <v>303</v>
+      </c>
+      <c r="D4" s="8">
+        <v>353</v>
+      </c>
+      <c r="E4" s="8">
+        <v>460</v>
+      </c>
+      <c r="F4" s="8">
+        <v>542</v>
+      </c>
+      <c r="G4" s="8">
+        <v>642</v>
+      </c>
+      <c r="H4" s="8">
+        <v>812</v>
+      </c>
+      <c r="I4" s="8">
+        <v>852</v>
+      </c>
+      <c r="J4" s="8">
+        <v>884</v>
+      </c>
+      <c r="K4" s="8">
+        <v>932</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1009</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1089</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1171</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1271</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1403</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1458</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1517</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1595</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1670</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1762</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1846</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1891</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1919</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>1978</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>2037</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>2138</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>2247</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>2287</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>2341</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>2426</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>2471</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>2550</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>2710</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>2793</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>2865</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>2919</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>2977</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="8">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8">
+        <v>26</v>
+      </c>
+      <c r="J5" s="8">
+        <v>29</v>
+      </c>
+      <c r="K5" s="8">
+        <v>30</v>
+      </c>
+      <c r="L5" s="8">
+        <v>31</v>
+      </c>
+      <c r="M5" s="8">
+        <v>35</v>
+      </c>
+      <c r="N5" s="8">
+        <v>36</v>
+      </c>
+      <c r="O5" s="8">
+        <v>38</v>
+      </c>
+      <c r="P5" s="8">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>52</v>
+      </c>
+      <c r="R5" s="8">
+        <v>54</v>
+      </c>
+      <c r="S5" s="8">
+        <v>57</v>
+      </c>
+      <c r="T5" s="8">
+        <v>58</v>
+      </c>
+      <c r="U5" s="8">
+        <v>60</v>
+      </c>
+      <c r="V5" s="8">
+        <v>63</v>
+      </c>
+      <c r="W5" s="8">
+        <v>63</v>
+      </c>
+      <c r="X5" s="8">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>62</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>65</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>66</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>66</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>72</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>74</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>73</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>73</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>75</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>79</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>80</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>83</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>84</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8">
+        <v>6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>6</v>
+      </c>
+      <c r="K6" s="8">
+        <v>6</v>
+      </c>
+      <c r="L6" s="8">
+        <v>7</v>
+      </c>
+      <c r="M6" s="8">
+        <v>7</v>
+      </c>
+      <c r="N6" s="8">
+        <v>7</v>
+      </c>
+      <c r="O6" s="8">
+        <v>8</v>
+      </c>
+      <c r="P6" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>12</v>
+      </c>
+      <c r="R6" s="8">
+        <v>12</v>
+      </c>
+      <c r="S6" s="8">
+        <v>11</v>
+      </c>
+      <c r="T6" s="8">
+        <v>12</v>
+      </c>
+      <c r="U6" s="8">
+        <v>12</v>
+      </c>
+      <c r="V6" s="8">
+        <v>12</v>
+      </c>
+      <c r="W6" s="8">
+        <v>11</v>
+      </c>
+      <c r="X6" s="8">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2</v>
+      </c>
+      <c r="M7" s="8">
+        <v>4</v>
+      </c>
+      <c r="N7" s="8">
+        <v>4</v>
+      </c>
+      <c r="O7" s="8">
+        <v>5</v>
+      </c>
+      <c r="P7" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>6</v>
+      </c>
+      <c r="R7" s="8">
+        <v>6</v>
+      </c>
+      <c r="S7" s="8">
+        <v>7</v>
+      </c>
+      <c r="T7" s="8">
+        <v>7</v>
+      </c>
+      <c r="U7" s="8">
+        <v>7</v>
+      </c>
+      <c r="V7" s="8">
+        <v>7</v>
+      </c>
+      <c r="W7" s="8">
+        <v>8</v>
+      </c>
+      <c r="X7" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>11</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>13</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>14</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>17</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>17</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>18</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="8">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8">
+        <v>123</v>
+      </c>
+      <c r="F8" s="8">
+        <v>153</v>
+      </c>
+      <c r="G8" s="8">
+        <v>179</v>
+      </c>
+      <c r="H8" s="8">
+        <v>226</v>
+      </c>
+      <c r="I8" s="8">
+        <v>242</v>
+      </c>
+      <c r="J8" s="8">
+        <v>256</v>
+      </c>
+      <c r="K8" s="8">
+        <v>275</v>
+      </c>
+      <c r="L8" s="8">
+        <v>300</v>
+      </c>
+      <c r="M8" s="8">
+        <v>345</v>
+      </c>
+      <c r="N8" s="8">
+        <v>386</v>
+      </c>
+      <c r="O8" s="8">
+        <v>431</v>
+      </c>
+      <c r="P8" s="8">
+        <v>390</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>415</v>
+      </c>
+      <c r="R8" s="8">
+        <v>450</v>
+      </c>
+      <c r="S8" s="8">
+        <v>481</v>
+      </c>
+      <c r="T8" s="8">
+        <v>508</v>
+      </c>
+      <c r="U8" s="8">
+        <v>538</v>
+      </c>
+      <c r="V8" s="8">
+        <v>599</v>
+      </c>
+      <c r="W8" s="8">
+        <v>652</v>
+      </c>
+      <c r="X8" s="8">
+        <v>680</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>717</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>770</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>794</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>861</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>889</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>990</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>1014</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>1077</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>1124</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>1167</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>1232</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>1286</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>1339</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>1381</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8">
+        <v>14</v>
+      </c>
+      <c r="H9" s="8">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8">
+        <v>23</v>
+      </c>
+      <c r="K9" s="8">
+        <v>26</v>
+      </c>
+      <c r="L9" s="8">
+        <v>27</v>
+      </c>
+      <c r="M9" s="8">
+        <v>27</v>
+      </c>
+      <c r="N9" s="8">
+        <v>28</v>
+      </c>
+      <c r="O9" s="8">
+        <v>27</v>
+      </c>
+      <c r="P9" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>25</v>
+      </c>
+      <c r="R9" s="8">
+        <v>24</v>
+      </c>
+      <c r="S9" s="8">
+        <v>25</v>
+      </c>
+      <c r="T9" s="8">
+        <v>24</v>
+      </c>
+      <c r="U9" s="8">
+        <v>24</v>
+      </c>
+      <c r="V9" s="8">
+        <v>25</v>
+      </c>
+      <c r="W9" s="8">
+        <v>24</v>
+      </c>
+      <c r="X9" s="8">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>25</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>26</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>28</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>33</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>32</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>33</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>33</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>33</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>41</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>41</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>39</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>39</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>39</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
+        <v>341</v>
+      </c>
+      <c r="D10" s="8">
+        <v>520</v>
+      </c>
+      <c r="E10" s="8">
+        <v>585</v>
+      </c>
+      <c r="F10" s="8">
+        <v>550</v>
+      </c>
+      <c r="G10" s="8">
+        <v>564</v>
+      </c>
+      <c r="H10" s="8">
+        <v>443</v>
+      </c>
+      <c r="I10" s="8">
+        <v>483</v>
+      </c>
+      <c r="J10" s="8">
+        <v>496</v>
+      </c>
+      <c r="K10" s="8">
+        <v>501</v>
+      </c>
+      <c r="L10" s="8">
+        <v>527</v>
+      </c>
+      <c r="M10" s="8">
+        <v>539</v>
+      </c>
+      <c r="N10" s="8">
+        <v>544</v>
+      </c>
+      <c r="O10" s="8">
+        <v>607</v>
+      </c>
+      <c r="P10" s="8">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>563</v>
+      </c>
+      <c r="R10" s="8">
+        <v>615</v>
+      </c>
+      <c r="S10" s="8">
+        <v>601</v>
+      </c>
+      <c r="T10" s="8">
+        <v>663</v>
+      </c>
+      <c r="U10" s="8">
+        <v>705</v>
+      </c>
+      <c r="V10" s="8">
+        <v>744</v>
+      </c>
+      <c r="W10" s="8">
+        <v>799</v>
+      </c>
+      <c r="X10" s="8">
+        <v>802</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>806</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>803</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>838</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>1013</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>1083</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>1189</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>1239</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>1272</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>1254</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>1114</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>1201</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>1276</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>1358</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>1393</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="8">
+        <v>98</v>
+      </c>
+      <c r="D11" s="8">
+        <v>107</v>
+      </c>
+      <c r="E11" s="8">
+        <v>154</v>
+      </c>
+      <c r="F11" s="8">
+        <v>169</v>
+      </c>
+      <c r="G11" s="8">
+        <v>188</v>
+      </c>
+      <c r="H11" s="8">
+        <v>227</v>
+      </c>
+      <c r="I11" s="8">
+        <v>241</v>
+      </c>
+      <c r="J11" s="8">
+        <v>263</v>
+      </c>
+      <c r="K11" s="8">
+        <v>299</v>
+      </c>
+      <c r="L11" s="8">
+        <v>324</v>
+      </c>
+      <c r="M11" s="8">
+        <v>361</v>
+      </c>
+      <c r="N11" s="8">
+        <v>403</v>
+      </c>
+      <c r="O11" s="8">
+        <v>439</v>
+      </c>
+      <c r="P11" s="8">
+        <v>494</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>516</v>
+      </c>
+      <c r="R11" s="8">
+        <v>555</v>
+      </c>
+      <c r="S11" s="8">
+        <v>589</v>
+      </c>
+      <c r="T11" s="8">
+        <v>610</v>
+      </c>
+      <c r="U11" s="8">
+        <v>636</v>
+      </c>
+      <c r="V11" s="8">
+        <v>678</v>
+      </c>
+      <c r="W11" s="8">
+        <v>708</v>
+      </c>
+      <c r="X11" s="8">
+        <v>730</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>757</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>797</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>855</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>886</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>913</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>954</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>976</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>1033</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>1107</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>1227</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>1283</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>1337</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>1370</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>1389</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="8">
+        <v>517</v>
+      </c>
+      <c r="D12" s="8">
+        <v>580</v>
+      </c>
+      <c r="E12" s="8">
+        <v>696</v>
+      </c>
+      <c r="F12" s="8">
+        <v>799</v>
+      </c>
+      <c r="G12" s="8">
+        <v>903</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1104</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1146</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1191</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1252</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1340</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1445</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1522</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1613</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1783</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1832</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1914</v>
+      </c>
+      <c r="S12" s="8">
+        <v>2002</v>
+      </c>
+      <c r="T12" s="8">
+        <v>2074</v>
+      </c>
+      <c r="U12" s="8">
+        <v>2173</v>
+      </c>
+      <c r="V12" s="8">
+        <v>2263</v>
+      </c>
+      <c r="W12" s="8">
+        <v>2320</v>
+      </c>
+      <c r="X12" s="8">
+        <v>2345</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>2416</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>2490</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>2613</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>2741</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>2782</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>2854</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>2936</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>2997</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>3083</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>3292</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>3393</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>3468</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>3523</v>
+      </c>
+      <c r="AL12" s="8">
+        <v>3586</v>
+      </c>
+      <c r="AM12" s="8">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8">
+        <v>5</v>
+      </c>
+      <c r="K13" s="8">
+        <v>6</v>
+      </c>
+      <c r="L13" s="8">
+        <v>6</v>
+      </c>
+      <c r="M13" s="8">
+        <v>5</v>
+      </c>
+      <c r="N13" s="8">
+        <v>7</v>
+      </c>
+      <c r="O13" s="8">
+        <v>7</v>
+      </c>
+      <c r="P13" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>16</v>
+      </c>
+      <c r="R13" s="8">
+        <v>14</v>
+      </c>
+      <c r="S13" s="8">
+        <v>14</v>
+      </c>
+      <c r="T13" s="8">
+        <v>14</v>
+      </c>
+      <c r="U13" s="8">
+        <v>14</v>
+      </c>
+      <c r="V13" s="8">
+        <v>14</v>
+      </c>
+      <c r="W13" s="8">
+        <v>14</v>
+      </c>
+      <c r="X13" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>16</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>17</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>18</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>19</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>19</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>19</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>20</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>17</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>21</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>22</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>21</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>21</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>21</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
+  <dimension ref="A1:X21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W1" sqref="W1:X1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43945</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43946</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43947</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43948</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43949</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43950</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43951</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43952</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43953</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43954</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>43955</v>
+      </c>
+      <c r="R1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="S1" s="5">
+        <v>43957</v>
+      </c>
+      <c r="T1" s="5">
+        <v>43958</v>
+      </c>
+      <c r="U1" s="5">
+        <v>43959</v>
+      </c>
+      <c r="V1" s="5">
+        <v>43960</v>
+      </c>
+      <c r="W1" s="5">
+        <v>43961</v>
+      </c>
+      <c r="X1" s="5">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="19">
+        <f>SUM(B3:B12)</f>
+        <v>105</v>
+      </c>
+      <c r="C2" s="19">
+        <v>112</v>
+      </c>
+      <c r="D2" s="19">
+        <v>127</v>
+      </c>
+      <c r="E2" s="19">
+        <v>139</v>
+      </c>
+      <c r="F2" s="19">
+        <v>153</v>
+      </c>
+      <c r="G2" s="19">
+        <v>165</v>
+      </c>
+      <c r="H2" s="19">
+        <v>178</v>
+      </c>
+      <c r="I2" s="19">
+        <v>185</v>
+      </c>
+      <c r="J2" s="19">
+        <v>190</v>
+      </c>
+      <c r="K2" s="19">
+        <v>205</v>
+      </c>
+      <c r="L2" s="19">
+        <v>224</v>
+      </c>
+      <c r="M2" s="19">
+        <v>231</v>
+      </c>
+      <c r="N2" s="19">
+        <v>240</v>
+      </c>
+      <c r="O2" s="19">
+        <v>251</v>
+      </c>
+      <c r="P2" s="19">
+        <v>258</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>264</v>
+      </c>
+      <c r="R2" s="19">
+        <v>277</v>
+      </c>
+      <c r="S2" s="19">
+        <v>285</v>
+      </c>
+      <c r="T2" s="19">
+        <v>304</v>
+      </c>
+      <c r="U2" s="19">
+        <v>311</v>
+      </c>
+      <c r="V2" s="19">
+        <v>323</v>
+      </c>
+      <c r="W2" s="19">
+        <v>328</v>
+      </c>
+      <c r="X2" s="19">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8">
+        <v>11</v>
+      </c>
+      <c r="I3" s="8">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8">
+        <v>17</v>
+      </c>
+      <c r="L3" s="8">
+        <v>21</v>
+      </c>
+      <c r="M3" s="8">
+        <v>21</v>
+      </c>
+      <c r="N3" s="8">
+        <v>21</v>
+      </c>
+      <c r="O3" s="8">
+        <v>21</v>
+      </c>
+      <c r="P3" s="8">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>22</v>
+      </c>
+      <c r="R3" s="8">
+        <v>24</v>
+      </c>
+      <c r="S3" s="8">
+        <v>25</v>
+      </c>
+      <c r="T3" s="8">
+        <v>25</v>
+      </c>
+      <c r="U3" s="8">
+        <v>28</v>
+      </c>
+      <c r="V3" s="8">
+        <v>32</v>
+      </c>
+      <c r="W3" s="8">
+        <v>29</v>
+      </c>
+      <c r="X3" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6</v>
+      </c>
+      <c r="I4" s="8">
+        <v>7</v>
+      </c>
+      <c r="J4" s="8">
+        <v>8</v>
+      </c>
+      <c r="K4" s="8">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8">
+        <v>10</v>
+      </c>
+      <c r="M4" s="8">
+        <v>13</v>
+      </c>
+      <c r="N4" s="8">
+        <v>14</v>
+      </c>
+      <c r="O4" s="8">
+        <v>14</v>
+      </c>
+      <c r="P4" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>14</v>
+      </c>
+      <c r="R4" s="8">
+        <v>15</v>
+      </c>
+      <c r="S4" s="8">
+        <v>15</v>
+      </c>
+      <c r="T4" s="8">
+        <v>16</v>
+      </c>
+      <c r="U4" s="8">
+        <v>17</v>
+      </c>
+      <c r="V4" s="8">
+        <v>18</v>
+      </c>
+      <c r="W4" s="8">
+        <v>16</v>
+      </c>
+      <c r="X4" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8">
+        <v>14</v>
+      </c>
+      <c r="K5" s="8">
+        <v>14</v>
+      </c>
+      <c r="L5" s="8">
+        <v>14</v>
+      </c>
+      <c r="M5" s="8">
+        <v>14</v>
+      </c>
+      <c r="N5" s="8">
+        <v>15</v>
+      </c>
+      <c r="O5" s="8">
+        <v>15</v>
+      </c>
+      <c r="P5" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>15</v>
+      </c>
+      <c r="R5" s="8">
+        <v>18</v>
+      </c>
+      <c r="S5" s="8">
+        <v>18</v>
+      </c>
+      <c r="T5" s="8">
+        <v>19</v>
+      </c>
+      <c r="U5" s="8">
+        <v>19</v>
+      </c>
+      <c r="V5" s="8">
+        <v>21</v>
+      </c>
+      <c r="W5" s="8">
+        <v>21</v>
+      </c>
+      <c r="X5" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8">
+        <v>22</v>
+      </c>
+      <c r="I6" s="8">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8">
+        <v>23</v>
+      </c>
+      <c r="K6" s="8">
+        <v>26</v>
+      </c>
+      <c r="L6" s="8">
+        <v>30</v>
+      </c>
+      <c r="M6" s="8">
+        <v>30</v>
+      </c>
+      <c r="N6" s="8">
+        <v>30</v>
+      </c>
+      <c r="O6" s="8">
+        <v>35</v>
+      </c>
+      <c r="P6" s="8">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>36</v>
+      </c>
+      <c r="R6" s="8">
+        <v>38</v>
+      </c>
+      <c r="S6" s="8">
+        <v>40</v>
+      </c>
+      <c r="T6" s="8">
+        <v>42</v>
+      </c>
+      <c r="U6" s="8">
+        <v>42</v>
+      </c>
+      <c r="V6" s="8">
+        <v>44</v>
+      </c>
+      <c r="W6" s="8">
+        <v>42</v>
+      </c>
+      <c r="X6" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8">
+        <v>25</v>
+      </c>
+      <c r="I7" s="8">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8">
+        <v>28</v>
+      </c>
+      <c r="K7" s="8">
+        <v>30</v>
+      </c>
+      <c r="L7" s="8">
+        <v>34</v>
+      </c>
+      <c r="M7" s="8">
+        <v>35</v>
+      </c>
+      <c r="N7" s="8">
+        <v>38</v>
+      </c>
+      <c r="O7" s="8">
+        <v>39</v>
+      </c>
+      <c r="P7" s="8">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>42</v>
+      </c>
+      <c r="R7" s="8">
+        <v>45</v>
+      </c>
+      <c r="S7" s="8">
+        <v>46</v>
+      </c>
+      <c r="T7" s="8">
+        <v>50</v>
+      </c>
+      <c r="U7" s="8">
+        <v>50</v>
+      </c>
+      <c r="V7" s="8">
+        <v>51</v>
+      </c>
+      <c r="W7" s="8">
+        <v>52</v>
+      </c>
+      <c r="X7" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>26</v>
+      </c>
+      <c r="H8" s="8">
+        <v>27</v>
+      </c>
+      <c r="I8" s="8">
+        <v>28</v>
+      </c>
+      <c r="J8" s="8">
+        <v>28</v>
+      </c>
+      <c r="K8" s="8">
+        <v>28</v>
+      </c>
+      <c r="L8" s="8">
+        <v>28</v>
+      </c>
+      <c r="M8" s="8">
+        <v>28</v>
+      </c>
+      <c r="N8" s="8">
+        <v>29</v>
+      </c>
+      <c r="O8" s="8">
+        <v>30</v>
+      </c>
+      <c r="P8" s="8">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>30</v>
+      </c>
+      <c r="R8" s="8">
+        <v>30</v>
+      </c>
+      <c r="S8" s="8">
+        <v>31</v>
+      </c>
+      <c r="T8" s="8">
+        <v>33</v>
+      </c>
+      <c r="U8" s="8">
+        <v>33</v>
+      </c>
+      <c r="V8" s="8">
+        <v>33</v>
+      </c>
+      <c r="W8" s="8">
+        <v>36</v>
+      </c>
+      <c r="X8" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8">
+        <v>23</v>
+      </c>
+      <c r="G9" s="8">
+        <v>23</v>
+      </c>
+      <c r="H9" s="8">
+        <v>25</v>
+      </c>
+      <c r="I9" s="8">
+        <v>25</v>
+      </c>
+      <c r="J9" s="8">
+        <v>25</v>
+      </c>
+      <c r="K9" s="8">
+        <v>27</v>
+      </c>
+      <c r="L9" s="8">
+        <v>29</v>
+      </c>
+      <c r="M9" s="8">
+        <v>30</v>
+      </c>
+      <c r="N9" s="8">
+        <v>32</v>
+      </c>
+      <c r="O9" s="8">
+        <v>34</v>
+      </c>
+      <c r="P9" s="8">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>37</v>
+      </c>
+      <c r="R9" s="8">
+        <v>37</v>
+      </c>
+      <c r="S9" s="8">
+        <v>39</v>
+      </c>
+      <c r="T9" s="8">
+        <v>42</v>
+      </c>
+      <c r="U9" s="8">
+        <v>43</v>
+      </c>
+      <c r="V9" s="8">
+        <v>44</v>
+      </c>
+      <c r="W9" s="8">
+        <v>43</v>
+      </c>
+      <c r="X9" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8">
+        <v>33</v>
+      </c>
+      <c r="G10" s="8">
+        <v>36</v>
+      </c>
+      <c r="H10" s="8">
+        <v>41</v>
+      </c>
+      <c r="I10" s="8">
+        <v>42</v>
+      </c>
+      <c r="J10" s="8">
+        <v>43</v>
+      </c>
+      <c r="K10" s="8">
+        <v>45</v>
+      </c>
+      <c r="L10" s="8">
+        <v>49</v>
+      </c>
+      <c r="M10" s="8">
+        <v>51</v>
+      </c>
+      <c r="N10" s="8">
+        <v>52</v>
+      </c>
+      <c r="O10" s="8">
+        <v>54</v>
+      </c>
+      <c r="P10" s="8">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>59</v>
+      </c>
+      <c r="R10" s="8">
+        <v>60</v>
+      </c>
+      <c r="S10" s="8">
+        <v>61</v>
+      </c>
+      <c r="T10" s="8">
+        <v>67</v>
+      </c>
+      <c r="U10" s="8">
+        <v>68</v>
+      </c>
+      <c r="V10" s="8">
+        <v>69</v>
+      </c>
+      <c r="W10" s="8">
+        <v>74</v>
+      </c>
+      <c r="X10" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8">
+        <v>9</v>
+      </c>
+      <c r="H11" s="8">
+        <v>9</v>
+      </c>
+      <c r="I11" s="8">
+        <v>9</v>
+      </c>
+      <c r="J11" s="8">
+        <v>9</v>
+      </c>
+      <c r="K11" s="8">
+        <v>9</v>
+      </c>
+      <c r="L11" s="8">
+        <v>9</v>
+      </c>
+      <c r="M11" s="8">
+        <v>9</v>
+      </c>
+      <c r="N11" s="8">
+        <v>9</v>
+      </c>
+      <c r="O11" s="8">
+        <v>9</v>
+      </c>
+      <c r="P11" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>9</v>
+      </c>
+      <c r="R11" s="8">
+        <v>10</v>
+      </c>
+      <c r="S11" s="8">
+        <v>10</v>
+      </c>
+      <c r="T11" s="8">
+        <v>10</v>
+      </c>
+      <c r="U11" s="8">
+        <v>11</v>
+      </c>
+      <c r="V11" s="8">
+        <v>11</v>
+      </c>
+      <c r="W11" s="8">
+        <v>15</v>
+      </c>
+      <c r="X11" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AK21"/>
+  <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN52" sqref="AN52"/>
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP29" sqref="AP29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="5">
         <v>43926</v>
@@ -16550,13 +16911,16 @@
       <c r="AJ1" s="5">
         <v>43960</v>
       </c>
-      <c r="AK1" s="20">
+      <c r="AK1" s="5">
         <v>43961</v>
       </c>
+      <c r="AL1" s="5">
+        <v>43962</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -16593,10 +16957,12 @@
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -16703,13 +17069,16 @@
       <c r="AJ3" s="8">
         <v>5</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="8">
         <v>5</v>
       </c>
+      <c r="AL3" s="8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7">
         <v>14</v>
@@ -16816,13 +17185,16 @@
       <c r="AJ4" s="8">
         <v>252</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="8">
         <v>254</v>
       </c>
+      <c r="AL4" s="8">
+        <v>259</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -16929,13 +17301,16 @@
       <c r="AJ5" s="8">
         <v>29</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="8">
         <v>30</v>
       </c>
+      <c r="AL5" s="8">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
@@ -17042,13 +17417,16 @@
       <c r="AJ6" s="8">
         <v>35</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="8">
         <v>37</v>
       </c>
+      <c r="AL6" s="8">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="7">
         <v>2</v>
@@ -17153,11 +17531,14 @@
       <c r="AJ7" s="8">
         <v>2</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="8">
         <v>2</v>
       </c>
+      <c r="AL7" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -17194,8 +17575,10 @@
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -17232,8 +17615,10 @@
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -17270,8 +17655,10 @@
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -17308,35 +17695,37 @@
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
     </row>
   </sheetData>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB14C38-69EC-3546-A407-2020D9B772AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453ED9CB-C580-4244-99A1-25D5C4A82359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
     <sheet name="Total Cases by Ward" sheetId="2" r:id="rId2"/>
-    <sheet name="Overall Stats" sheetId="1" r:id="rId3"/>
-    <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId4"/>
-    <sheet name="Total Cases by Race" sheetId="3" r:id="rId5"/>
-    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId6"/>
-    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId7"/>
+    <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId3"/>
+    <sheet name="Total Cases by Race" sheetId="3" r:id="rId4"/>
+    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId5"/>
+    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId6"/>
+    <sheet name="Overall Stats" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -53,13 +53,100 @@
     <t>Unknown</t>
   </si>
   <si>
+    <t>Patient Age (yrs)</t>
+  </si>
+  <si>
+    <t>Total Positives</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>0-18</t>
+  </si>
+  <si>
+    <t>19-30</t>
+  </si>
+  <si>
+    <t>31-40</t>
+  </si>
+  <si>
+    <t>41-50</t>
+  </si>
+  <si>
+    <t>51-60</t>
+  </si>
+  <si>
+    <t>61-70</t>
+  </si>
+  <si>
+    <t>71-80</t>
+  </si>
+  <si>
+    <t>81+</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity Category</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity Values</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>American Indian</t>
+  </si>
+  <si>
+    <t>Native Hawaiian Pacific Islander</t>
+  </si>
+  <si>
+    <t>Two or More Races</t>
+  </si>
+  <si>
+    <t>Refused During Interview</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>NOT Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Homeless</t>
+  </si>
+  <si>
+    <t>Hispanic/Latinx</t>
+  </si>
+  <si>
+    <t>Non-Hispanic White</t>
+  </si>
+  <si>
     <t>Testing</t>
   </si>
   <si>
     <t>People Tested Overall</t>
-  </si>
-  <si>
-    <t>Total Positives</t>
   </si>
   <si>
     <t>Number of Deaths</t>
@@ -256,93 +343,6 @@
   <si>
     <t xml:space="preserve">Number of Lives Lost Among DDA-Connected Individuals </t>
   </si>
-  <si>
-    <t>Patient Age (yrs)</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>0-18</t>
-  </si>
-  <si>
-    <t>19-30</t>
-  </si>
-  <si>
-    <t>31-40</t>
-  </si>
-  <si>
-    <t>41-50</t>
-  </si>
-  <si>
-    <t>51-60</t>
-  </si>
-  <si>
-    <t>61-70</t>
-  </si>
-  <si>
-    <t>71-80</t>
-  </si>
-  <si>
-    <t>81+</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity Category</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity Values</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>American Indian</t>
-  </si>
-  <si>
-    <t>Native Hawaiian Pacific Islander</t>
-  </si>
-  <si>
-    <t>Two or More Races</t>
-  </si>
-  <si>
-    <t>Refused During Interview</t>
-  </si>
-  <si>
-    <t>Ethnicity</t>
-  </si>
-  <si>
-    <t>Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>NOT Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>Homeless</t>
-  </si>
-  <si>
-    <t>Hispanic/Latinx</t>
-  </si>
-  <si>
-    <t>Non-Hispanic White</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
 </sst>
 </file>
 
@@ -352,7 +352,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,14 +829,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="19">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="19">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -848,20 +848,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP16" sqref="AP16"/>
+      <selection pane="topRight" activeCell="AR1" sqref="AR1:AR1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="42" max="44" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -905,8 +906,9 @@
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
       <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
     </row>
-    <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" s="1" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1036,8 +1038,11 @@
       <c r="AQ2" s="5">
         <v>43962</v>
       </c>
+      <c r="AR2" s="5">
+        <v>43963</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1167,8 +1172,11 @@
       <c r="AQ3" s="8">
         <v>872</v>
       </c>
+      <c r="AR3" s="8">
+        <v>880</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1298,8 +1306,11 @@
       <c r="AQ4" s="8">
         <v>400</v>
       </c>
+      <c r="AR4" s="8">
+        <v>403</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1429,8 +1440,11 @@
       <c r="AQ5" s="8">
         <v>353</v>
       </c>
+      <c r="AR5" s="8">
+        <v>357</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1560,8 +1574,11 @@
       <c r="AQ6" s="8">
         <v>1298</v>
       </c>
+      <c r="AR6" s="8">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1691,8 +1708,11 @@
       <c r="AQ7" s="8">
         <v>1017</v>
       </c>
+      <c r="AR7" s="8">
+        <v>1032</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1822,8 +1842,11 @@
       <c r="AQ8" s="8">
         <v>610</v>
       </c>
+      <c r="AR8" s="8">
+        <v>616</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1953,8 +1976,11 @@
       <c r="AQ9" s="8">
         <v>943</v>
       </c>
+      <c r="AR9" s="8">
+        <v>960</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2084,8 +2110,11 @@
       <c r="AQ10" s="8">
         <v>909</v>
       </c>
+      <c r="AR10" s="8">
+        <v>925</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -2213,6 +2242,9 @@
         <v>82</v>
       </c>
       <c r="AQ11" s="8">
+        <v>83</v>
+      </c>
+      <c r="AR11" s="8">
         <v>83</v>
       </c>
     </row>
@@ -2223,25 +2255,3951 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB097C5-61FE-3342-9C03-F1C59662C9D7}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BP1" sqref="BP1:BP1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="13">
+        <v>6584</v>
+      </c>
+      <c r="C2" s="13">
+        <v>3219</v>
+      </c>
+      <c r="D2" s="13">
+        <v>3347</v>
+      </c>
+      <c r="E2" s="14">
+        <v>16</v>
+      </c>
+      <c r="F2" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17">
+        <v>5</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13">
+        <v>235</v>
+      </c>
+      <c r="C4" s="8">
+        <v>120</v>
+      </c>
+      <c r="D4" s="8">
+        <v>110</v>
+      </c>
+      <c r="E4" s="12">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1082</v>
+      </c>
+      <c r="C5" s="8">
+        <v>576</v>
+      </c>
+      <c r="D5" s="8">
+        <v>501</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1257</v>
+      </c>
+      <c r="C6" s="8">
+        <v>612</v>
+      </c>
+      <c r="D6" s="8">
+        <v>643</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1034</v>
+      </c>
+      <c r="C7" s="8">
+        <v>495</v>
+      </c>
+      <c r="D7" s="8">
+        <v>538</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1114</v>
+      </c>
+      <c r="C8" s="8">
+        <v>492</v>
+      </c>
+      <c r="D8" s="8">
+        <v>620</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="13">
+        <v>956</v>
+      </c>
+      <c r="C9" s="8">
+        <v>431</v>
+      </c>
+      <c r="D9" s="8">
+        <v>524</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13">
+        <v>489</v>
+      </c>
+      <c r="C10" s="8">
+        <v>229</v>
+      </c>
+      <c r="D10" s="8">
+        <v>258</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="13">
+        <v>410</v>
+      </c>
+      <c r="C11" s="8">
+        <v>262</v>
+      </c>
+      <c r="D11" s="8">
+        <v>148</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AN19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43926</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43927</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43928</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43929</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43930</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43931</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43932</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43933</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43934</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43935</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43936</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43937</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43938</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43939</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="R1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="S1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="T1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="U1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="V1" s="5">
+        <v>43945</v>
+      </c>
+      <c r="W1" s="5">
+        <v>43946</v>
+      </c>
+      <c r="X1" s="5">
+        <v>43947</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>43948</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>43949</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>43950</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>43951</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>43952</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>43953</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>43954</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>43955</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>43957</v>
+      </c>
+      <c r="AI1" s="5">
+        <v>43958</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>43959</v>
+      </c>
+      <c r="AK1" s="5">
+        <v>43960</v>
+      </c>
+      <c r="AL1" s="5">
+        <v>43961</v>
+      </c>
+      <c r="AM1" s="5">
+        <v>43962</v>
+      </c>
+      <c r="AN1" s="5">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>349</v>
+      </c>
+      <c r="D2" s="8">
+        <v>596</v>
+      </c>
+      <c r="E2" s="8">
+        <v>604</v>
+      </c>
+      <c r="F2" s="8">
+        <v>536</v>
+      </c>
+      <c r="G2" s="8">
+        <v>516</v>
+      </c>
+      <c r="H2" s="8">
+        <v>355</v>
+      </c>
+      <c r="I2" s="8">
+        <v>379</v>
+      </c>
+      <c r="J2" s="8">
+        <v>391</v>
+      </c>
+      <c r="K2" s="8">
+        <v>400</v>
+      </c>
+      <c r="L2" s="8">
+        <v>410</v>
+      </c>
+      <c r="M2" s="8">
+        <v>404</v>
+      </c>
+      <c r="N2" s="8">
+        <v>383</v>
+      </c>
+      <c r="O2" s="8">
+        <v>413</v>
+      </c>
+      <c r="P2" s="8">
+        <v>358</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>406</v>
+      </c>
+      <c r="R2" s="8">
+        <v>470</v>
+      </c>
+      <c r="S2" s="8">
+        <v>443</v>
+      </c>
+      <c r="T2" s="8">
+        <v>479</v>
+      </c>
+      <c r="U2" s="8">
+        <v>490</v>
+      </c>
+      <c r="V2" s="8">
+        <v>494</v>
+      </c>
+      <c r="W2" s="8">
+        <v>527</v>
+      </c>
+      <c r="X2" s="8">
+        <v>517</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>503</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>487</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>534</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>666</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>726</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>769</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>789</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>817</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>810</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>734</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>799</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>857</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>891</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>899</v>
+      </c>
+      <c r="AM2" s="8">
+        <v>905</v>
+      </c>
+      <c r="AN2" s="8">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8">
+        <v>135</v>
+      </c>
+      <c r="D3" s="8">
+        <v>154</v>
+      </c>
+      <c r="E3" s="8">
+        <v>218</v>
+      </c>
+      <c r="F3" s="8">
+        <v>253</v>
+      </c>
+      <c r="G3" s="8">
+        <v>281</v>
+      </c>
+      <c r="H3" s="8">
+        <v>339</v>
+      </c>
+      <c r="I3" s="8">
+        <v>354</v>
+      </c>
+      <c r="J3" s="8">
+        <v>365</v>
+      </c>
+      <c r="K3" s="8">
+        <v>388</v>
+      </c>
+      <c r="L3" s="8">
+        <v>411</v>
+      </c>
+      <c r="M3" s="8">
+        <v>439</v>
+      </c>
+      <c r="N3" s="8">
+        <v>461</v>
+      </c>
+      <c r="O3" s="8">
+        <v>473</v>
+      </c>
+      <c r="P3" s="8">
+        <v>548</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>553</v>
+      </c>
+      <c r="R3" s="8">
+        <v>565</v>
+      </c>
+      <c r="S3" s="8">
+        <v>587</v>
+      </c>
+      <c r="T3" s="8">
+        <v>603</v>
+      </c>
+      <c r="U3" s="8">
+        <v>635</v>
+      </c>
+      <c r="V3" s="8">
+        <v>653</v>
+      </c>
+      <c r="W3" s="8">
+        <v>665</v>
+      </c>
+      <c r="X3" s="8">
+        <v>670</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>690</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>703</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>743</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>765</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>773</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>789</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>810</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>826</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>847</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>900</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>927</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>944</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>970</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>977</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>988</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8">
+        <v>303</v>
+      </c>
+      <c r="D4" s="8">
+        <v>353</v>
+      </c>
+      <c r="E4" s="8">
+        <v>460</v>
+      </c>
+      <c r="F4" s="8">
+        <v>542</v>
+      </c>
+      <c r="G4" s="8">
+        <v>642</v>
+      </c>
+      <c r="H4" s="8">
+        <v>812</v>
+      </c>
+      <c r="I4" s="8">
+        <v>852</v>
+      </c>
+      <c r="J4" s="8">
+        <v>884</v>
+      </c>
+      <c r="K4" s="8">
+        <v>932</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1009</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1089</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1171</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1271</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1403</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1458</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1517</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1595</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1670</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1762</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1846</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1891</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1919</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>1978</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>2037</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>2138</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>2247</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>2287</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>2341</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>2426</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>2471</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>2550</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>2710</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>2793</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>2865</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>2919</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>2977</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>3022</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8">
+        <v>26</v>
+      </c>
+      <c r="J5" s="8">
+        <v>29</v>
+      </c>
+      <c r="K5" s="8">
+        <v>30</v>
+      </c>
+      <c r="L5" s="8">
+        <v>31</v>
+      </c>
+      <c r="M5" s="8">
+        <v>35</v>
+      </c>
+      <c r="N5" s="8">
+        <v>36</v>
+      </c>
+      <c r="O5" s="8">
+        <v>38</v>
+      </c>
+      <c r="P5" s="8">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>52</v>
+      </c>
+      <c r="R5" s="8">
+        <v>54</v>
+      </c>
+      <c r="S5" s="8">
+        <v>57</v>
+      </c>
+      <c r="T5" s="8">
+        <v>58</v>
+      </c>
+      <c r="U5" s="8">
+        <v>60</v>
+      </c>
+      <c r="V5" s="8">
+        <v>63</v>
+      </c>
+      <c r="W5" s="8">
+        <v>63</v>
+      </c>
+      <c r="X5" s="8">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>62</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>65</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>66</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>66</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>72</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>74</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>73</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>73</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>75</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>79</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>80</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>83</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>84</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>85</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8">
+        <v>6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>6</v>
+      </c>
+      <c r="K6" s="8">
+        <v>6</v>
+      </c>
+      <c r="L6" s="8">
+        <v>7</v>
+      </c>
+      <c r="M6" s="8">
+        <v>7</v>
+      </c>
+      <c r="N6" s="8">
+        <v>7</v>
+      </c>
+      <c r="O6" s="8">
+        <v>8</v>
+      </c>
+      <c r="P6" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>12</v>
+      </c>
+      <c r="R6" s="8">
+        <v>12</v>
+      </c>
+      <c r="S6" s="8">
+        <v>11</v>
+      </c>
+      <c r="T6" s="8">
+        <v>12</v>
+      </c>
+      <c r="U6" s="8">
+        <v>12</v>
+      </c>
+      <c r="V6" s="8">
+        <v>12</v>
+      </c>
+      <c r="W6" s="8">
+        <v>11</v>
+      </c>
+      <c r="X6" s="8">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2</v>
+      </c>
+      <c r="M7" s="8">
+        <v>4</v>
+      </c>
+      <c r="N7" s="8">
+        <v>4</v>
+      </c>
+      <c r="O7" s="8">
+        <v>5</v>
+      </c>
+      <c r="P7" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>6</v>
+      </c>
+      <c r="R7" s="8">
+        <v>6</v>
+      </c>
+      <c r="S7" s="8">
+        <v>7</v>
+      </c>
+      <c r="T7" s="8">
+        <v>7</v>
+      </c>
+      <c r="U7" s="8">
+        <v>7</v>
+      </c>
+      <c r="V7" s="8">
+        <v>7</v>
+      </c>
+      <c r="W7" s="8">
+        <v>8</v>
+      </c>
+      <c r="X7" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>11</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>13</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>14</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>17</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>17</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>18</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>16</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8">
+        <v>123</v>
+      </c>
+      <c r="F8" s="8">
+        <v>153</v>
+      </c>
+      <c r="G8" s="8">
+        <v>179</v>
+      </c>
+      <c r="H8" s="8">
+        <v>226</v>
+      </c>
+      <c r="I8" s="8">
+        <v>242</v>
+      </c>
+      <c r="J8" s="8">
+        <v>256</v>
+      </c>
+      <c r="K8" s="8">
+        <v>275</v>
+      </c>
+      <c r="L8" s="8">
+        <v>300</v>
+      </c>
+      <c r="M8" s="8">
+        <v>345</v>
+      </c>
+      <c r="N8" s="8">
+        <v>386</v>
+      </c>
+      <c r="O8" s="8">
+        <v>431</v>
+      </c>
+      <c r="P8" s="8">
+        <v>390</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>415</v>
+      </c>
+      <c r="R8" s="8">
+        <v>450</v>
+      </c>
+      <c r="S8" s="8">
+        <v>481</v>
+      </c>
+      <c r="T8" s="8">
+        <v>508</v>
+      </c>
+      <c r="U8" s="8">
+        <v>538</v>
+      </c>
+      <c r="V8" s="8">
+        <v>599</v>
+      </c>
+      <c r="W8" s="8">
+        <v>652</v>
+      </c>
+      <c r="X8" s="8">
+        <v>680</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>717</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>770</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>794</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>861</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>889</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>990</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>1014</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>1077</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>1124</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>1167</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>1232</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>1286</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>1339</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>1381</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>1414</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8">
+        <v>14</v>
+      </c>
+      <c r="H9" s="8">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8">
+        <v>23</v>
+      </c>
+      <c r="K9" s="8">
+        <v>26</v>
+      </c>
+      <c r="L9" s="8">
+        <v>27</v>
+      </c>
+      <c r="M9" s="8">
+        <v>27</v>
+      </c>
+      <c r="N9" s="8">
+        <v>28</v>
+      </c>
+      <c r="O9" s="8">
+        <v>27</v>
+      </c>
+      <c r="P9" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>25</v>
+      </c>
+      <c r="R9" s="8">
+        <v>24</v>
+      </c>
+      <c r="S9" s="8">
+        <v>25</v>
+      </c>
+      <c r="T9" s="8">
+        <v>24</v>
+      </c>
+      <c r="U9" s="8">
+        <v>24</v>
+      </c>
+      <c r="V9" s="8">
+        <v>25</v>
+      </c>
+      <c r="W9" s="8">
+        <v>24</v>
+      </c>
+      <c r="X9" s="8">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>25</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>26</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>28</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>33</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>32</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>33</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>33</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>33</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>41</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>41</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>39</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>39</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>39</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>40</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
+        <v>341</v>
+      </c>
+      <c r="D10" s="8">
+        <v>520</v>
+      </c>
+      <c r="E10" s="8">
+        <v>585</v>
+      </c>
+      <c r="F10" s="8">
+        <v>550</v>
+      </c>
+      <c r="G10" s="8">
+        <v>564</v>
+      </c>
+      <c r="H10" s="8">
+        <v>443</v>
+      </c>
+      <c r="I10" s="8">
+        <v>483</v>
+      </c>
+      <c r="J10" s="8">
+        <v>496</v>
+      </c>
+      <c r="K10" s="8">
+        <v>501</v>
+      </c>
+      <c r="L10" s="8">
+        <v>527</v>
+      </c>
+      <c r="M10" s="8">
+        <v>539</v>
+      </c>
+      <c r="N10" s="8">
+        <v>544</v>
+      </c>
+      <c r="O10" s="8">
+        <v>607</v>
+      </c>
+      <c r="P10" s="8">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>563</v>
+      </c>
+      <c r="R10" s="8">
+        <v>615</v>
+      </c>
+      <c r="S10" s="8">
+        <v>601</v>
+      </c>
+      <c r="T10" s="8">
+        <v>663</v>
+      </c>
+      <c r="U10" s="8">
+        <v>705</v>
+      </c>
+      <c r="V10" s="8">
+        <v>744</v>
+      </c>
+      <c r="W10" s="8">
+        <v>799</v>
+      </c>
+      <c r="X10" s="8">
+        <v>802</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>806</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>803</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>838</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>1013</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>1083</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>1189</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>1239</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>1272</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>1254</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>1114</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>1201</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>1276</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>1358</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>1393</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>1398</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8">
+        <v>98</v>
+      </c>
+      <c r="D11" s="8">
+        <v>107</v>
+      </c>
+      <c r="E11" s="8">
+        <v>154</v>
+      </c>
+      <c r="F11" s="8">
+        <v>169</v>
+      </c>
+      <c r="G11" s="8">
+        <v>188</v>
+      </c>
+      <c r="H11" s="8">
+        <v>227</v>
+      </c>
+      <c r="I11" s="8">
+        <v>241</v>
+      </c>
+      <c r="J11" s="8">
+        <v>263</v>
+      </c>
+      <c r="K11" s="8">
+        <v>299</v>
+      </c>
+      <c r="L11" s="8">
+        <v>324</v>
+      </c>
+      <c r="M11" s="8">
+        <v>361</v>
+      </c>
+      <c r="N11" s="8">
+        <v>403</v>
+      </c>
+      <c r="O11" s="8">
+        <v>439</v>
+      </c>
+      <c r="P11" s="8">
+        <v>494</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>516</v>
+      </c>
+      <c r="R11" s="8">
+        <v>555</v>
+      </c>
+      <c r="S11" s="8">
+        <v>589</v>
+      </c>
+      <c r="T11" s="8">
+        <v>610</v>
+      </c>
+      <c r="U11" s="8">
+        <v>636</v>
+      </c>
+      <c r="V11" s="8">
+        <v>678</v>
+      </c>
+      <c r="W11" s="8">
+        <v>708</v>
+      </c>
+      <c r="X11" s="8">
+        <v>730</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>757</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>797</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>855</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>886</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>913</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>954</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>976</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>1033</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>1107</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>1227</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>1283</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>1337</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>1370</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>1389</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>1416</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8">
+        <v>517</v>
+      </c>
+      <c r="D12" s="8">
+        <v>580</v>
+      </c>
+      <c r="E12" s="8">
+        <v>696</v>
+      </c>
+      <c r="F12" s="8">
+        <v>799</v>
+      </c>
+      <c r="G12" s="8">
+        <v>903</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1104</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1146</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1191</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1252</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1340</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1445</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1522</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1613</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1783</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1832</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1914</v>
+      </c>
+      <c r="S12" s="8">
+        <v>2002</v>
+      </c>
+      <c r="T12" s="8">
+        <v>2074</v>
+      </c>
+      <c r="U12" s="8">
+        <v>2173</v>
+      </c>
+      <c r="V12" s="8">
+        <v>2263</v>
+      </c>
+      <c r="W12" s="8">
+        <v>2320</v>
+      </c>
+      <c r="X12" s="8">
+        <v>2345</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>2416</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>2490</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>2613</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>2741</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>2782</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>2854</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>2936</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>2997</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>3083</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>3292</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>3393</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>3468</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>3523</v>
+      </c>
+      <c r="AL12" s="8">
+        <v>3586</v>
+      </c>
+      <c r="AM12" s="8">
+        <v>3649</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8">
+        <v>5</v>
+      </c>
+      <c r="K13" s="8">
+        <v>6</v>
+      </c>
+      <c r="L13" s="8">
+        <v>6</v>
+      </c>
+      <c r="M13" s="8">
+        <v>5</v>
+      </c>
+      <c r="N13" s="8">
+        <v>7</v>
+      </c>
+      <c r="O13" s="8">
+        <v>7</v>
+      </c>
+      <c r="P13" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>16</v>
+      </c>
+      <c r="R13" s="8">
+        <v>14</v>
+      </c>
+      <c r="S13" s="8">
+        <v>14</v>
+      </c>
+      <c r="T13" s="8">
+        <v>14</v>
+      </c>
+      <c r="U13" s="8">
+        <v>14</v>
+      </c>
+      <c r="V13" s="8">
+        <v>14</v>
+      </c>
+      <c r="W13" s="8">
+        <v>14</v>
+      </c>
+      <c r="X13" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>16</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>17</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>18</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>19</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>19</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>19</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>20</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>17</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>21</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>22</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>21</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>21</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>21</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>22</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
+  <dimension ref="A1:Y21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC21" sqref="AC21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43945</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43946</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43947</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43948</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43949</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43950</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43951</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43952</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43953</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43954</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>43955</v>
+      </c>
+      <c r="R1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="S1" s="5">
+        <v>43957</v>
+      </c>
+      <c r="T1" s="5">
+        <v>43958</v>
+      </c>
+      <c r="U1" s="5">
+        <v>43959</v>
+      </c>
+      <c r="V1" s="5">
+        <v>43960</v>
+      </c>
+      <c r="W1" s="5">
+        <v>43961</v>
+      </c>
+      <c r="X1" s="5">
+        <v>43962</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="19">
+        <f>SUM(B3:B12)</f>
+        <v>105</v>
+      </c>
+      <c r="C2" s="19">
+        <v>112</v>
+      </c>
+      <c r="D2" s="19">
+        <v>127</v>
+      </c>
+      <c r="E2" s="19">
+        <v>139</v>
+      </c>
+      <c r="F2" s="19">
+        <v>153</v>
+      </c>
+      <c r="G2" s="19">
+        <v>165</v>
+      </c>
+      <c r="H2" s="19">
+        <v>178</v>
+      </c>
+      <c r="I2" s="19">
+        <v>185</v>
+      </c>
+      <c r="J2" s="19">
+        <v>190</v>
+      </c>
+      <c r="K2" s="19">
+        <v>205</v>
+      </c>
+      <c r="L2" s="19">
+        <v>224</v>
+      </c>
+      <c r="M2" s="19">
+        <v>231</v>
+      </c>
+      <c r="N2" s="19">
+        <v>240</v>
+      </c>
+      <c r="O2" s="19">
+        <v>251</v>
+      </c>
+      <c r="P2" s="19">
+        <v>258</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>264</v>
+      </c>
+      <c r="R2" s="19">
+        <v>277</v>
+      </c>
+      <c r="S2" s="19">
+        <v>285</v>
+      </c>
+      <c r="T2" s="19">
+        <v>304</v>
+      </c>
+      <c r="U2" s="19">
+        <v>311</v>
+      </c>
+      <c r="V2" s="19">
+        <v>323</v>
+      </c>
+      <c r="W2" s="19">
+        <v>328</v>
+      </c>
+      <c r="X2" s="19">
+        <v>336</v>
+      </c>
+      <c r="Y2" s="19">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8">
+        <v>11</v>
+      </c>
+      <c r="I3" s="8">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8">
+        <v>17</v>
+      </c>
+      <c r="L3" s="8">
+        <v>21</v>
+      </c>
+      <c r="M3" s="8">
+        <v>21</v>
+      </c>
+      <c r="N3" s="8">
+        <v>21</v>
+      </c>
+      <c r="O3" s="8">
+        <v>21</v>
+      </c>
+      <c r="P3" s="8">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>22</v>
+      </c>
+      <c r="R3" s="8">
+        <v>24</v>
+      </c>
+      <c r="S3" s="8">
+        <v>25</v>
+      </c>
+      <c r="T3" s="8">
+        <v>25</v>
+      </c>
+      <c r="U3" s="8">
+        <v>28</v>
+      </c>
+      <c r="V3" s="8">
+        <v>32</v>
+      </c>
+      <c r="W3" s="8">
+        <v>29</v>
+      </c>
+      <c r="X3" s="8">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6</v>
+      </c>
+      <c r="I4" s="8">
+        <v>7</v>
+      </c>
+      <c r="J4" s="8">
+        <v>8</v>
+      </c>
+      <c r="K4" s="8">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8">
+        <v>10</v>
+      </c>
+      <c r="M4" s="8">
+        <v>13</v>
+      </c>
+      <c r="N4" s="8">
+        <v>14</v>
+      </c>
+      <c r="O4" s="8">
+        <v>14</v>
+      </c>
+      <c r="P4" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>14</v>
+      </c>
+      <c r="R4" s="8">
+        <v>15</v>
+      </c>
+      <c r="S4" s="8">
+        <v>15</v>
+      </c>
+      <c r="T4" s="8">
+        <v>16</v>
+      </c>
+      <c r="U4" s="8">
+        <v>17</v>
+      </c>
+      <c r="V4" s="8">
+        <v>18</v>
+      </c>
+      <c r="W4" s="8">
+        <v>16</v>
+      </c>
+      <c r="X4" s="8">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8">
+        <v>14</v>
+      </c>
+      <c r="K5" s="8">
+        <v>14</v>
+      </c>
+      <c r="L5" s="8">
+        <v>14</v>
+      </c>
+      <c r="M5" s="8">
+        <v>14</v>
+      </c>
+      <c r="N5" s="8">
+        <v>15</v>
+      </c>
+      <c r="O5" s="8">
+        <v>15</v>
+      </c>
+      <c r="P5" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>15</v>
+      </c>
+      <c r="R5" s="8">
+        <v>18</v>
+      </c>
+      <c r="S5" s="8">
+        <v>18</v>
+      </c>
+      <c r="T5" s="8">
+        <v>19</v>
+      </c>
+      <c r="U5" s="8">
+        <v>19</v>
+      </c>
+      <c r="V5" s="8">
+        <v>21</v>
+      </c>
+      <c r="W5" s="8">
+        <v>21</v>
+      </c>
+      <c r="X5" s="8">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8">
+        <v>22</v>
+      </c>
+      <c r="I6" s="8">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8">
+        <v>23</v>
+      </c>
+      <c r="K6" s="8">
+        <v>26</v>
+      </c>
+      <c r="L6" s="8">
+        <v>30</v>
+      </c>
+      <c r="M6" s="8">
+        <v>30</v>
+      </c>
+      <c r="N6" s="8">
+        <v>30</v>
+      </c>
+      <c r="O6" s="8">
+        <v>35</v>
+      </c>
+      <c r="P6" s="8">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>36</v>
+      </c>
+      <c r="R6" s="8">
+        <v>38</v>
+      </c>
+      <c r="S6" s="8">
+        <v>40</v>
+      </c>
+      <c r="T6" s="8">
+        <v>42</v>
+      </c>
+      <c r="U6" s="8">
+        <v>42</v>
+      </c>
+      <c r="V6" s="8">
+        <v>44</v>
+      </c>
+      <c r="W6" s="8">
+        <v>42</v>
+      </c>
+      <c r="X6" s="8">
+        <v>43</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8">
+        <v>25</v>
+      </c>
+      <c r="I7" s="8">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8">
+        <v>28</v>
+      </c>
+      <c r="K7" s="8">
+        <v>30</v>
+      </c>
+      <c r="L7" s="8">
+        <v>34</v>
+      </c>
+      <c r="M7" s="8">
+        <v>35</v>
+      </c>
+      <c r="N7" s="8">
+        <v>38</v>
+      </c>
+      <c r="O7" s="8">
+        <v>39</v>
+      </c>
+      <c r="P7" s="8">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>42</v>
+      </c>
+      <c r="R7" s="8">
+        <v>45</v>
+      </c>
+      <c r="S7" s="8">
+        <v>46</v>
+      </c>
+      <c r="T7" s="8">
+        <v>50</v>
+      </c>
+      <c r="U7" s="8">
+        <v>50</v>
+      </c>
+      <c r="V7" s="8">
+        <v>51</v>
+      </c>
+      <c r="W7" s="8">
+        <v>52</v>
+      </c>
+      <c r="X7" s="8">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>26</v>
+      </c>
+      <c r="H8" s="8">
+        <v>27</v>
+      </c>
+      <c r="I8" s="8">
+        <v>28</v>
+      </c>
+      <c r="J8" s="8">
+        <v>28</v>
+      </c>
+      <c r="K8" s="8">
+        <v>28</v>
+      </c>
+      <c r="L8" s="8">
+        <v>28</v>
+      </c>
+      <c r="M8" s="8">
+        <v>28</v>
+      </c>
+      <c r="N8" s="8">
+        <v>29</v>
+      </c>
+      <c r="O8" s="8">
+        <v>30</v>
+      </c>
+      <c r="P8" s="8">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>30</v>
+      </c>
+      <c r="R8" s="8">
+        <v>30</v>
+      </c>
+      <c r="S8" s="8">
+        <v>31</v>
+      </c>
+      <c r="T8" s="8">
+        <v>33</v>
+      </c>
+      <c r="U8" s="8">
+        <v>33</v>
+      </c>
+      <c r="V8" s="8">
+        <v>33</v>
+      </c>
+      <c r="W8" s="8">
+        <v>36</v>
+      </c>
+      <c r="X8" s="8">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8">
+        <v>23</v>
+      </c>
+      <c r="G9" s="8">
+        <v>23</v>
+      </c>
+      <c r="H9" s="8">
+        <v>25</v>
+      </c>
+      <c r="I9" s="8">
+        <v>25</v>
+      </c>
+      <c r="J9" s="8">
+        <v>25</v>
+      </c>
+      <c r="K9" s="8">
+        <v>27</v>
+      </c>
+      <c r="L9" s="8">
+        <v>29</v>
+      </c>
+      <c r="M9" s="8">
+        <v>30</v>
+      </c>
+      <c r="N9" s="8">
+        <v>32</v>
+      </c>
+      <c r="O9" s="8">
+        <v>34</v>
+      </c>
+      <c r="P9" s="8">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>37</v>
+      </c>
+      <c r="R9" s="8">
+        <v>37</v>
+      </c>
+      <c r="S9" s="8">
+        <v>39</v>
+      </c>
+      <c r="T9" s="8">
+        <v>42</v>
+      </c>
+      <c r="U9" s="8">
+        <v>43</v>
+      </c>
+      <c r="V9" s="8">
+        <v>44</v>
+      </c>
+      <c r="W9" s="8">
+        <v>43</v>
+      </c>
+      <c r="X9" s="8">
+        <v>43</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8">
+        <v>33</v>
+      </c>
+      <c r="G10" s="8">
+        <v>36</v>
+      </c>
+      <c r="H10" s="8">
+        <v>41</v>
+      </c>
+      <c r="I10" s="8">
+        <v>42</v>
+      </c>
+      <c r="J10" s="8">
+        <v>43</v>
+      </c>
+      <c r="K10" s="8">
+        <v>45</v>
+      </c>
+      <c r="L10" s="8">
+        <v>49</v>
+      </c>
+      <c r="M10" s="8">
+        <v>51</v>
+      </c>
+      <c r="N10" s="8">
+        <v>52</v>
+      </c>
+      <c r="O10" s="8">
+        <v>54</v>
+      </c>
+      <c r="P10" s="8">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>59</v>
+      </c>
+      <c r="R10" s="8">
+        <v>60</v>
+      </c>
+      <c r="S10" s="8">
+        <v>61</v>
+      </c>
+      <c r="T10" s="8">
+        <v>67</v>
+      </c>
+      <c r="U10" s="8">
+        <v>68</v>
+      </c>
+      <c r="V10" s="8">
+        <v>69</v>
+      </c>
+      <c r="W10" s="8">
+        <v>74</v>
+      </c>
+      <c r="X10" s="8">
+        <v>74</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8">
+        <v>9</v>
+      </c>
+      <c r="H11" s="8">
+        <v>9</v>
+      </c>
+      <c r="I11" s="8">
+        <v>9</v>
+      </c>
+      <c r="J11" s="8">
+        <v>9</v>
+      </c>
+      <c r="K11" s="8">
+        <v>9</v>
+      </c>
+      <c r="L11" s="8">
+        <v>9</v>
+      </c>
+      <c r="M11" s="8">
+        <v>9</v>
+      </c>
+      <c r="N11" s="8">
+        <v>9</v>
+      </c>
+      <c r="O11" s="8">
+        <v>9</v>
+      </c>
+      <c r="P11" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>9</v>
+      </c>
+      <c r="R11" s="8">
+        <v>10</v>
+      </c>
+      <c r="S11" s="8">
+        <v>10</v>
+      </c>
+      <c r="T11" s="8">
+        <v>10</v>
+      </c>
+      <c r="U11" s="8">
+        <v>11</v>
+      </c>
+      <c r="V11" s="8">
+        <v>11</v>
+      </c>
+      <c r="W11" s="8">
+        <v>15</v>
+      </c>
+      <c r="X11" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AM21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM1" sqref="AM1:AM1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" s="9"/>
+      <c r="B1" s="5">
+        <v>43926</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43927</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43928</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43929</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43930</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43931</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43932</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43933</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43934</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43935</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43936</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43937</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43938</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43939</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="R1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="S1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="T1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="U1" s="5">
+        <v>43945</v>
+      </c>
+      <c r="V1" s="5">
+        <v>43946</v>
+      </c>
+      <c r="W1" s="5">
+        <v>43947</v>
+      </c>
+      <c r="X1" s="5">
+        <v>43948</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>43949</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>43950</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>43951</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>43952</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>43953</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>43954</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>43955</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>43957</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>43958</v>
+      </c>
+      <c r="AI1" s="5">
+        <v>43959</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>43960</v>
+      </c>
+      <c r="AK1" s="5">
+        <v>43961</v>
+      </c>
+      <c r="AL1" s="5">
+        <v>43962</v>
+      </c>
+      <c r="AM1" s="5">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8">
+        <v>2</v>
+      </c>
+      <c r="M3" s="8">
+        <v>2</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8">
+        <v>2</v>
+      </c>
+      <c r="P3" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>2</v>
+      </c>
+      <c r="R3" s="8">
+        <v>3</v>
+      </c>
+      <c r="S3" s="8">
+        <v>3</v>
+      </c>
+      <c r="T3" s="8">
+        <v>3</v>
+      </c>
+      <c r="U3" s="8">
+        <v>4</v>
+      </c>
+      <c r="V3" s="8">
+        <v>4</v>
+      </c>
+      <c r="W3" s="8">
+        <v>4</v>
+      </c>
+      <c r="X3" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8">
+        <v>36</v>
+      </c>
+      <c r="I4" s="8">
+        <v>38</v>
+      </c>
+      <c r="J4" s="8">
+        <v>51</v>
+      </c>
+      <c r="K4" s="8">
+        <v>54</v>
+      </c>
+      <c r="L4" s="8">
+        <v>61</v>
+      </c>
+      <c r="M4" s="8">
+        <v>66</v>
+      </c>
+      <c r="N4" s="8">
+        <v>71</v>
+      </c>
+      <c r="O4" s="8">
+        <v>75</v>
+      </c>
+      <c r="P4" s="8">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>90</v>
+      </c>
+      <c r="R4" s="8">
+        <v>102</v>
+      </c>
+      <c r="S4" s="8">
+        <v>112</v>
+      </c>
+      <c r="T4" s="8">
+        <v>124</v>
+      </c>
+      <c r="U4" s="8">
+        <v>131</v>
+      </c>
+      <c r="V4" s="8">
+        <v>142</v>
+      </c>
+      <c r="W4" s="8">
+        <v>147</v>
+      </c>
+      <c r="X4" s="8">
+        <v>150</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>163</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>177</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>183</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>190</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>198</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>205</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>210</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>220</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>226</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>241</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>247</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>252</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>254</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>259</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8">
+        <v>6</v>
+      </c>
+      <c r="I5" s="8">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8">
+        <v>7</v>
+      </c>
+      <c r="K5" s="8">
+        <v>8</v>
+      </c>
+      <c r="L5" s="8">
+        <v>9</v>
+      </c>
+      <c r="M5" s="8">
+        <v>8</v>
+      </c>
+      <c r="N5" s="8">
+        <v>8</v>
+      </c>
+      <c r="O5" s="8">
+        <v>8</v>
+      </c>
+      <c r="P5" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>8</v>
+      </c>
+      <c r="R5" s="8">
+        <v>8</v>
+      </c>
+      <c r="S5" s="8">
+        <v>9</v>
+      </c>
+      <c r="T5" s="8">
+        <v>9</v>
+      </c>
+      <c r="U5" s="8">
+        <v>10</v>
+      </c>
+      <c r="V5" s="8">
+        <v>11</v>
+      </c>
+      <c r="W5" s="8">
+        <v>11</v>
+      </c>
+      <c r="X5" s="8">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>17</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>19</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>19</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>21</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>22</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>23</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>24</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>29</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>32</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>7</v>
+      </c>
+      <c r="K6" s="8">
+        <v>8</v>
+      </c>
+      <c r="L6" s="8">
+        <v>8</v>
+      </c>
+      <c r="M6" s="8">
+        <v>10</v>
+      </c>
+      <c r="N6" s="8">
+        <v>10</v>
+      </c>
+      <c r="O6" s="8">
+        <v>11</v>
+      </c>
+      <c r="P6" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>12</v>
+      </c>
+      <c r="R6" s="8">
+        <v>14</v>
+      </c>
+      <c r="S6" s="8">
+        <v>15</v>
+      </c>
+      <c r="T6" s="8">
+        <v>16</v>
+      </c>
+      <c r="U6" s="8">
+        <v>19</v>
+      </c>
+      <c r="V6" s="8">
+        <v>20</v>
+      </c>
+      <c r="W6" s="8">
+        <v>21</v>
+      </c>
+      <c r="X6" s="8">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>27</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>27</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>29</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>30</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>33</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>33</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>35</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>37</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>38</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8">
+        <v>1</v>
+      </c>
+      <c r="V7" s="8">
+        <v>1</v>
+      </c>
+      <c r="W7" s="8">
+        <v>2</v>
+      </c>
+      <c r="X7" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BQ89"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BT18" sqref="BT18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="2" width="62.5" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="69" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:69">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -2442,11 +6400,14 @@
       <c r="BP1" s="5">
         <v>43962</v>
       </c>
+      <c r="BQ1" s="5">
+        <v>43963</v>
+      </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -2514,13 +6475,14 @@
       <c r="BN2" s="4"/>
       <c r="BO2" s="4"/>
       <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -2708,13 +6670,16 @@
       <c r="BP3" s="12">
         <v>31050</v>
       </c>
+      <c r="BQ3" s="12">
+        <v>31658</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:69">
       <c r="A4" s="6" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="12">
         <v>2</v>
@@ -2914,13 +6879,16 @@
       <c r="BP4" s="12">
         <v>6485</v>
       </c>
+      <c r="BQ4" s="12">
+        <v>6584</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -3108,13 +7076,16 @@
       <c r="BP5" s="12">
         <v>336</v>
       </c>
+      <c r="BQ5" s="12">
+        <v>350</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69">
       <c r="A6" s="6" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -3282,8 +7253,11 @@
       <c r="BP6" s="12">
         <v>886</v>
       </c>
+      <c r="BQ6" s="12">
+        <v>934</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:69">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -3352,13 +7326,14 @@
       <c r="BN7" s="12"/>
       <c r="BO7" s="12"/>
       <c r="BP7" s="12"/>
+      <c r="BQ7" s="12"/>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:69">
       <c r="A8" s="6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -3454,13 +7429,16 @@
       <c r="BP8" s="12">
         <v>345</v>
       </c>
+      <c r="BQ8" s="12">
+        <v>345</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -3624,13 +7602,16 @@
       <c r="BP9" s="12">
         <v>88</v>
       </c>
+      <c r="BQ9" s="12">
+        <v>73</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:69">
       <c r="A10" s="6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -3794,13 +7775,16 @@
       <c r="BP10" s="12">
         <v>440</v>
       </c>
+      <c r="BQ10" s="12">
+        <v>440</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:69">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -3964,13 +7948,16 @@
       <c r="BP11" s="12">
         <v>243</v>
       </c>
+      <c r="BQ11" s="12">
+        <v>250</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:69">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -4134,13 +8121,16 @@
       <c r="BP12" s="12">
         <v>197</v>
       </c>
+      <c r="BQ12" s="12">
+        <v>190</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:69">
       <c r="A13" s="6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -4212,13 +8202,16 @@
       <c r="BP13" s="12">
         <v>435</v>
       </c>
+      <c r="BQ13" s="12">
+        <v>423</v>
+      </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:69">
       <c r="A14" s="6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -4290,8 +8283,11 @@
       <c r="BP14" s="12">
         <v>1805</v>
       </c>
+      <c r="BQ14" s="12">
+        <v>1887</v>
+      </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:69">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="12"/>
@@ -4360,8 +8356,9 @@
       <c r="BN15" s="12"/>
       <c r="BO15" s="12"/>
       <c r="BP15" s="12"/>
+      <c r="BQ15" s="12"/>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:69">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="12"/>
@@ -4430,11 +8427,12 @@
       <c r="BN16" s="12"/>
       <c r="BO16" s="12"/>
       <c r="BP16" s="12"/>
+      <c r="BQ16" s="12"/>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:69">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -4502,13 +8500,14 @@
       <c r="BN17" s="12"/>
       <c r="BO17" s="12"/>
       <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:69">
       <c r="A18" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -4576,13 +8575,14 @@
       <c r="BN18" s="12"/>
       <c r="BO18" s="12"/>
       <c r="BP18" s="12"/>
+      <c r="BQ18" s="12"/>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:69">
       <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -4748,13 +8748,16 @@
       <c r="BP19" s="12">
         <v>104</v>
       </c>
+      <c r="BQ19" s="12">
+        <v>104</v>
+      </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:69">
       <c r="A20" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -4884,13 +8887,16 @@
       <c r="BP20" s="12">
         <v>37</v>
       </c>
+      <c r="BQ20" s="12">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:69">
       <c r="A21" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -5020,13 +9026,16 @@
       <c r="BP21" s="12">
         <v>67</v>
       </c>
+      <c r="BQ21" s="12">
+        <v>69</v>
+      </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:69">
       <c r="A22" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -5186,13 +9195,16 @@
       <c r="BP22" s="12">
         <v>172</v>
       </c>
+      <c r="BQ22" s="12">
+        <v>115</v>
+      </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:69">
       <c r="A23" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -5352,13 +9364,16 @@
       <c r="BP23" s="12">
         <v>209</v>
       </c>
+      <c r="BQ23" s="12">
+        <v>150</v>
+      </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:69">
       <c r="A24" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -5518,8 +9533,11 @@
       <c r="BP24" s="12">
         <v>1031</v>
       </c>
+      <c r="BQ24" s="12">
+        <v>1065</v>
+      </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:69">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="12"/>
@@ -5588,11 +9606,12 @@
       <c r="BN25" s="12"/>
       <c r="BO25" s="12"/>
       <c r="BP25" s="12"/>
+      <c r="BQ25" s="12"/>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:69">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -5660,13 +9679,14 @@
       <c r="BN26" s="12"/>
       <c r="BO26" s="12"/>
       <c r="BP26" s="12"/>
+      <c r="BQ26" s="12"/>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:69">
       <c r="A27" s="6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -5832,13 +9852,16 @@
       <c r="BP27" s="12">
         <v>113</v>
       </c>
+      <c r="BQ27" s="12">
+        <v>113</v>
+      </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:69">
       <c r="A28" s="6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -5968,13 +9991,16 @@
       <c r="BP28" s="12">
         <v>39</v>
       </c>
+      <c r="BQ28" s="12">
+        <v>38</v>
+      </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:69">
       <c r="A29" s="6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -6104,13 +10130,16 @@
       <c r="BP29" s="12">
         <v>74</v>
       </c>
+      <c r="BQ29" s="12">
+        <v>75</v>
+      </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:69">
       <c r="A30" s="6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -6270,13 +10299,16 @@
       <c r="BP30" s="12">
         <v>65</v>
       </c>
+      <c r="BQ30" s="12">
+        <v>51</v>
+      </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:69">
       <c r="A31" s="6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -6436,13 +10468,16 @@
       <c r="BP31" s="12">
         <v>104</v>
       </c>
+      <c r="BQ31" s="12">
+        <v>89</v>
+      </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:69">
       <c r="A32" s="6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -6602,8 +10637,11 @@
       <c r="BP32" s="12">
         <v>968</v>
       </c>
+      <c r="BQ32" s="12">
+        <v>1007</v>
+      </c>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:69">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="12"/>
@@ -6672,11 +10710,12 @@
       <c r="BN33" s="12"/>
       <c r="BO33" s="12"/>
       <c r="BP33" s="12"/>
+      <c r="BQ33" s="12"/>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:69">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -6744,13 +10783,14 @@
       <c r="BN34" s="12"/>
       <c r="BO34" s="12"/>
       <c r="BP34" s="12"/>
+      <c r="BQ34" s="12"/>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:69">
       <c r="A35" s="6" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -6908,13 +10948,16 @@
       <c r="BP35" s="12">
         <v>75</v>
       </c>
+      <c r="BQ35" s="12">
+        <v>75</v>
+      </c>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:69">
       <c r="A36" s="6" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -7040,13 +11083,16 @@
       <c r="BP36" s="12">
         <v>35</v>
       </c>
+      <c r="BQ36" s="12">
+        <v>30</v>
+      </c>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:69">
       <c r="A37" s="6" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -7172,13 +11218,16 @@
       <c r="BP37" s="12">
         <v>39</v>
       </c>
+      <c r="BQ37" s="12">
+        <v>44</v>
+      </c>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:69">
       <c r="A38" s="6" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -7334,13 +11383,16 @@
       <c r="BP38" s="12">
         <v>13</v>
       </c>
+      <c r="BQ38" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:69">
       <c r="A39" s="6" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -7494,13 +11546,16 @@
       <c r="BP39" s="12">
         <v>48</v>
       </c>
+      <c r="BQ39" s="12">
+        <v>42</v>
+      </c>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:69">
       <c r="A40" s="6" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -7658,13 +11713,16 @@
       <c r="BP40" s="12">
         <v>230</v>
       </c>
+      <c r="BQ40" s="12">
+        <v>240</v>
+      </c>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:69">
       <c r="A41" s="6" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -7778,8 +11836,11 @@
       <c r="BP41" s="12">
         <v>1</v>
       </c>
+      <c r="BQ41" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:69">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="12"/>
@@ -7848,11 +11909,12 @@
       <c r="BN42" s="12"/>
       <c r="BO42" s="12"/>
       <c r="BP42" s="12"/>
+      <c r="BQ42" s="12"/>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:69">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -7920,13 +11982,14 @@
       <c r="BN43" s="12"/>
       <c r="BO43" s="12"/>
       <c r="BP43" s="12"/>
+      <c r="BQ43" s="12"/>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:69">
       <c r="A44" s="6" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -8088,13 +12151,16 @@
       <c r="BP44" s="12">
         <v>179</v>
       </c>
+      <c r="BQ44" s="12">
+        <v>179</v>
+      </c>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:69">
       <c r="A45" s="6" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -8224,13 +12290,16 @@
       <c r="BP45" s="12">
         <v>44</v>
       </c>
+      <c r="BQ45" s="12">
+        <v>40</v>
+      </c>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:69">
       <c r="A46" s="6" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -8360,13 +12429,16 @@
       <c r="BP46" s="12">
         <v>130</v>
       </c>
+      <c r="BQ46" s="12">
+        <v>134</v>
+      </c>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:69">
       <c r="A47" s="6" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -8526,13 +12598,16 @@
       <c r="BP47" s="12">
         <v>833</v>
       </c>
+      <c r="BQ47" s="12">
+        <v>828</v>
+      </c>
     </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:69">
       <c r="A48" s="6" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -8662,13 +12737,16 @@
       <c r="BP48" s="12">
         <v>877</v>
       </c>
+      <c r="BQ48" s="12">
+        <v>868</v>
+      </c>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:69">
       <c r="A49" s="6" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -8796,13 +12874,16 @@
       <c r="BP49" s="12">
         <v>471</v>
       </c>
+      <c r="BQ49" s="12">
+        <v>481</v>
+      </c>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:69">
       <c r="A50" s="6" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -8926,8 +13007,11 @@
       <c r="BP50" s="12">
         <v>1</v>
       </c>
+      <c r="BQ50" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:69">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="12"/>
@@ -8996,11 +13080,12 @@
       <c r="BN51" s="12"/>
       <c r="BO51" s="12"/>
       <c r="BP51" s="12"/>
+      <c r="BQ51" s="12"/>
     </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:69">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -9068,13 +13153,14 @@
       <c r="BN52" s="12"/>
       <c r="BO52" s="12"/>
       <c r="BP52" s="12"/>
+      <c r="BQ52" s="12"/>
     </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:69">
       <c r="A53" s="6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -9226,13 +13312,16 @@
       <c r="BP53" s="12">
         <v>27</v>
       </c>
+      <c r="BQ53" s="12">
+        <v>27</v>
+      </c>
     </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:69">
       <c r="A54" s="6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -9360,13 +13449,16 @@
       <c r="BP54" s="12">
         <v>16</v>
       </c>
+      <c r="BQ54" s="12">
+        <v>14</v>
+      </c>
     </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:69">
       <c r="A55" s="6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -9494,13 +13586,16 @@
       <c r="BP55" s="12">
         <v>10</v>
       </c>
+      <c r="BQ55" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:69">
       <c r="A56" s="6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -9652,13 +13747,16 @@
       <c r="BP56" s="12">
         <v>22</v>
       </c>
+      <c r="BQ56" s="12">
+        <v>19</v>
+      </c>
     </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:69">
       <c r="A57" s="6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -9810,13 +13908,16 @@
       <c r="BP57" s="12">
         <v>38</v>
       </c>
+      <c r="BQ57" s="12">
+        <v>33</v>
+      </c>
     </row>
-    <row r="58" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:69">
       <c r="A58" s="6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -9968,13 +14069,16 @@
       <c r="BP58" s="12">
         <v>116</v>
       </c>
+      <c r="BQ58" s="12">
+        <v>121</v>
+      </c>
     </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:69">
       <c r="A59" s="6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -10098,8 +14202,11 @@
       <c r="BP59" s="12">
         <v>1</v>
       </c>
+      <c r="BQ59" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:69">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="12"/>
@@ -10168,13 +14275,14 @@
       <c r="BN60" s="12"/>
       <c r="BO60" s="12"/>
       <c r="BP60" s="12"/>
+      <c r="BQ60" s="12"/>
     </row>
-    <row r="61" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:69">
       <c r="A61" s="6" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -10326,13 +14434,16 @@
       <c r="BP61" s="12">
         <v>10</v>
       </c>
+      <c r="BQ61" s="12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:69">
       <c r="A62" s="6" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -10460,13 +14571,16 @@
       <c r="BP62" s="12">
         <v>4</v>
       </c>
+      <c r="BQ62" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="63" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:69">
       <c r="A63" s="6" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -10594,13 +14708,16 @@
       <c r="BP63" s="12">
         <v>6</v>
       </c>
+      <c r="BQ63" s="12">
+        <v>6</v>
+      </c>
     </row>
-    <row r="64" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:69">
       <c r="A64" s="6" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -10752,13 +14869,16 @@
       <c r="BP64" s="12">
         <v>44</v>
       </c>
+      <c r="BQ64" s="12">
+        <v>44</v>
+      </c>
     </row>
-    <row r="65" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:69">
       <c r="A65" s="6" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -10910,13 +15030,16 @@
       <c r="BP65" s="12">
         <v>48</v>
       </c>
+      <c r="BQ65" s="12">
+        <v>48</v>
+      </c>
     </row>
-    <row r="66" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:69">
       <c r="A66" s="6" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -11066,13 +15189,16 @@
       <c r="BP66" s="12">
         <v>0</v>
       </c>
+      <c r="BQ66" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:69">
       <c r="A67" s="6" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -11200,8 +15326,11 @@
       <c r="BP67" s="12">
         <v>0</v>
       </c>
+      <c r="BQ67" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:69">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="12"/>
@@ -11270,11 +15399,12 @@
       <c r="BN68" s="12"/>
       <c r="BO68" s="12"/>
       <c r="BP68" s="12"/>
+      <c r="BQ68" s="12"/>
     </row>
-    <row r="69" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:69">
       <c r="A69" s="7"/>
       <c r="B69" s="6" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -11342,13 +15472,14 @@
       <c r="BN69" s="12"/>
       <c r="BO69" s="12"/>
       <c r="BP69" s="12"/>
+      <c r="BQ69" s="12"/>
     </row>
-    <row r="70" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:69">
       <c r="A70" s="6" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -11500,13 +15631,16 @@
       <c r="BP70" s="12">
         <v>267</v>
       </c>
+      <c r="BQ70" s="12">
+        <v>267</v>
+      </c>
     </row>
-    <row r="71" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:69">
       <c r="A71" s="6" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -11658,13 +15792,16 @@
       <c r="BP71" s="12">
         <v>349</v>
       </c>
+      <c r="BQ71" s="12">
+        <v>323</v>
+      </c>
     </row>
-    <row r="72" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:69">
       <c r="A72" s="6" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -11816,13 +15953,16 @@
       <c r="BP72" s="12">
         <v>342</v>
       </c>
+      <c r="BQ72" s="12">
+        <v>319</v>
+      </c>
     </row>
-    <row r="73" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:69">
       <c r="A73" s="6" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -11946,8 +16086,11 @@
       <c r="BP73" s="12">
         <v>15</v>
       </c>
+      <c r="BQ73" s="12">
+        <v>15</v>
+      </c>
     </row>
-    <row r="74" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:69">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="12"/>
@@ -12016,13 +16159,14 @@
       <c r="BN74" s="12"/>
       <c r="BO74" s="12"/>
       <c r="BP74" s="12"/>
+      <c r="BQ74" s="12"/>
     </row>
-    <row r="75" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:69">
       <c r="A75" s="6" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -12174,13 +16318,16 @@
       <c r="BP75" s="12">
         <v>81</v>
       </c>
+      <c r="BQ75" s="12">
+        <v>84</v>
+      </c>
     </row>
-    <row r="76" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:69">
       <c r="A76" s="6" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -12332,13 +16479,16 @@
       <c r="BP76" s="12">
         <v>27</v>
       </c>
+      <c r="BQ76" s="12">
+        <v>19</v>
+      </c>
     </row>
-    <row r="77" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:69">
       <c r="A77" s="6" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -12490,13 +16640,16 @@
       <c r="BP77" s="12">
         <v>109</v>
       </c>
+      <c r="BQ77" s="12">
+        <v>103</v>
+      </c>
     </row>
-    <row r="78" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:69">
       <c r="A78" s="6" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -12640,8 +16793,11 @@
       <c r="BP78" s="12">
         <v>152</v>
       </c>
+      <c r="BQ78" s="12">
+        <v>157</v>
+      </c>
     </row>
-    <row r="79" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:69">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="12"/>
@@ -12710,13 +16866,16 @@
       <c r="BN79" s="12"/>
       <c r="BO79" s="12"/>
       <c r="BP79" s="12"/>
+      <c r="BQ79" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:69">
       <c r="A80" s="6" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -12868,13 +17027,14 @@
       <c r="BP80" s="12">
         <v>79</v>
       </c>
+      <c r="BQ80" s="12"/>
     </row>
-    <row r="81" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:69">
       <c r="A81" s="6" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -13026,13 +17186,16 @@
       <c r="BP81" s="12">
         <v>56</v>
       </c>
+      <c r="BQ81" s="12">
+        <v>79</v>
+      </c>
     </row>
-    <row r="82" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:69">
       <c r="A82" s="6" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -13115,31 +17278,31 @@
         <v>34</v>
       </c>
       <c r="BA82" s="12" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="BB82" s="12" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="BC82" s="12">
         <v>17</v>
       </c>
       <c r="BD82" s="12" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="BE82" s="12">
         <v>127</v>
       </c>
       <c r="BF82" s="12" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="BG82" s="12" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="BH82" s="12" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="BI82" s="12" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="BJ82" s="12">
         <v>152</v>
@@ -13162,13 +17325,16 @@
       <c r="BP82" s="12">
         <v>142</v>
       </c>
+      <c r="BQ82" s="12">
+        <v>56</v>
+      </c>
     </row>
-    <row r="83" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:69">
       <c r="A83" s="6" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -13294,13 +17460,16 @@
       <c r="BP83" s="12">
         <v>5</v>
       </c>
+      <c r="BQ83" s="12">
+        <v>142</v>
+      </c>
     </row>
-    <row r="84" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:69">
       <c r="A84" s="6" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -13450,8 +17619,11 @@
       <c r="BP84" s="12">
         <v>14</v>
       </c>
+      <c r="BQ84" s="12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="85" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:69">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="12"/>
@@ -13520,13 +17692,16 @@
       <c r="BN85" s="12"/>
       <c r="BO85" s="12"/>
       <c r="BP85" s="12"/>
+      <c r="BQ85" s="12">
+        <v>13</v>
+      </c>
     </row>
-    <row r="86" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:69">
       <c r="A86" s="6" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
@@ -13624,13 +17799,14 @@
       <c r="BP86" s="12">
         <v>155</v>
       </c>
+      <c r="BQ86" s="12"/>
     </row>
-    <row r="87" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:69">
       <c r="A87" s="6" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -13728,13 +17904,16 @@
       <c r="BP87" s="12">
         <v>24</v>
       </c>
+      <c r="BQ87" s="12">
+        <v>156</v>
+      </c>
     </row>
-    <row r="88" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:69">
       <c r="A88" s="6" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -13832,8 +18011,11 @@
       <c r="BP88" s="12">
         <v>20</v>
       </c>
+      <c r="BQ88" s="12">
+        <v>27</v>
+      </c>
     </row>
-    <row r="89" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:69">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="12"/>
@@ -13902,3834 +18084,12 @@
       <c r="BN89" s="12"/>
       <c r="BO89" s="12"/>
       <c r="BP89" s="12"/>
+      <c r="BQ89" s="12">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB097C5-61FE-3342-9C03-F1C59662C9D7}">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="13">
-        <v>6485</v>
-      </c>
-      <c r="C2" s="13">
-        <v>3166</v>
-      </c>
-      <c r="D2" s="13">
-        <v>3301</v>
-      </c>
-      <c r="E2" s="14">
-        <v>17</v>
-      </c>
-      <c r="F2" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13">
-        <v>7</v>
-      </c>
-      <c r="C3" s="17">
-        <v>2</v>
-      </c>
-      <c r="D3" s="17">
-        <v>5</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="13">
-        <v>230</v>
-      </c>
-      <c r="C4" s="8">
-        <v>116</v>
-      </c>
-      <c r="D4" s="8">
-        <v>107</v>
-      </c>
-      <c r="E4" s="12">
-        <v>7</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1061</v>
-      </c>
-      <c r="C5" s="8">
-        <v>564</v>
-      </c>
-      <c r="D5" s="8">
-        <v>492</v>
-      </c>
-      <c r="E5" s="12">
-        <v>4</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1244</v>
-      </c>
-      <c r="C6" s="8">
-        <v>607</v>
-      </c>
-      <c r="D6" s="8">
-        <v>635</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1017</v>
-      </c>
-      <c r="C7" s="8">
-        <v>487</v>
-      </c>
-      <c r="D7" s="8">
-        <v>530</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1095</v>
-      </c>
-      <c r="C8" s="8">
-        <v>480</v>
-      </c>
-      <c r="D8" s="8">
-        <v>614</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="13">
-        <v>949</v>
-      </c>
-      <c r="C9" s="8">
-        <v>428</v>
-      </c>
-      <c r="D9" s="8">
-        <v>520</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="13">
-        <v>478</v>
-      </c>
-      <c r="C10" s="8">
-        <v>224</v>
-      </c>
-      <c r="D10" s="8">
-        <v>252</v>
-      </c>
-      <c r="E10" s="12">
-        <v>2</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="13">
-        <v>404</v>
-      </c>
-      <c r="C11" s="8">
-        <v>258</v>
-      </c>
-      <c r="D11" s="8">
-        <v>146</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AM19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO31" sqref="AO31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43926</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43927</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43928</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43929</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43930</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43931</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43932</v>
-      </c>
-      <c r="J1" s="5">
-        <v>43933</v>
-      </c>
-      <c r="K1" s="5">
-        <v>43934</v>
-      </c>
-      <c r="L1" s="5">
-        <v>43935</v>
-      </c>
-      <c r="M1" s="5">
-        <v>43936</v>
-      </c>
-      <c r="N1" s="5">
-        <v>43937</v>
-      </c>
-      <c r="O1" s="5">
-        <v>43938</v>
-      </c>
-      <c r="P1" s="5">
-        <v>43939</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="R1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="S1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="T1" s="5">
-        <v>43943</v>
-      </c>
-      <c r="U1" s="5">
-        <v>43944</v>
-      </c>
-      <c r="V1" s="5">
-        <v>43945</v>
-      </c>
-      <c r="W1" s="5">
-        <v>43946</v>
-      </c>
-      <c r="X1" s="5">
-        <v>43947</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>43948</v>
-      </c>
-      <c r="Z1" s="5">
-        <v>43949</v>
-      </c>
-      <c r="AA1" s="5">
-        <v>43950</v>
-      </c>
-      <c r="AB1" s="5">
-        <v>43951</v>
-      </c>
-      <c r="AC1" s="5">
-        <v>43952</v>
-      </c>
-      <c r="AD1" s="5">
-        <v>43953</v>
-      </c>
-      <c r="AE1" s="5">
-        <v>43954</v>
-      </c>
-      <c r="AF1" s="5">
-        <v>43955</v>
-      </c>
-      <c r="AG1" s="5">
-        <v>43956</v>
-      </c>
-      <c r="AH1" s="5">
-        <v>43957</v>
-      </c>
-      <c r="AI1" s="5">
-        <v>43958</v>
-      </c>
-      <c r="AJ1" s="5">
-        <v>43959</v>
-      </c>
-      <c r="AK1" s="5">
-        <v>43960</v>
-      </c>
-      <c r="AL1" s="5">
-        <v>43961</v>
-      </c>
-      <c r="AM1" s="5">
-        <v>43962</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8">
-        <v>349</v>
-      </c>
-      <c r="D2" s="8">
-        <v>596</v>
-      </c>
-      <c r="E2" s="8">
-        <v>604</v>
-      </c>
-      <c r="F2" s="8">
-        <v>536</v>
-      </c>
-      <c r="G2" s="8">
-        <v>516</v>
-      </c>
-      <c r="H2" s="8">
-        <v>355</v>
-      </c>
-      <c r="I2" s="8">
-        <v>379</v>
-      </c>
-      <c r="J2" s="8">
-        <v>391</v>
-      </c>
-      <c r="K2" s="8">
-        <v>400</v>
-      </c>
-      <c r="L2" s="8">
-        <v>410</v>
-      </c>
-      <c r="M2" s="8">
-        <v>404</v>
-      </c>
-      <c r="N2" s="8">
-        <v>383</v>
-      </c>
-      <c r="O2" s="8">
-        <v>413</v>
-      </c>
-      <c r="P2" s="8">
-        <v>358</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>406</v>
-      </c>
-      <c r="R2" s="8">
-        <v>470</v>
-      </c>
-      <c r="S2" s="8">
-        <v>443</v>
-      </c>
-      <c r="T2" s="8">
-        <v>479</v>
-      </c>
-      <c r="U2" s="8">
-        <v>490</v>
-      </c>
-      <c r="V2" s="8">
-        <v>494</v>
-      </c>
-      <c r="W2" s="8">
-        <v>527</v>
-      </c>
-      <c r="X2" s="8">
-        <v>517</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>503</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>487</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>534</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>666</v>
-      </c>
-      <c r="AC2" s="8">
-        <v>726</v>
-      </c>
-      <c r="AD2" s="8">
-        <v>769</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>789</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>817</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>810</v>
-      </c>
-      <c r="AH2" s="8">
-        <v>734</v>
-      </c>
-      <c r="AI2" s="8">
-        <v>799</v>
-      </c>
-      <c r="AJ2" s="8">
-        <v>857</v>
-      </c>
-      <c r="AK2" s="8">
-        <v>891</v>
-      </c>
-      <c r="AL2" s="8">
-        <v>899</v>
-      </c>
-      <c r="AM2" s="8">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="8">
-        <v>135</v>
-      </c>
-      <c r="D3" s="8">
-        <v>154</v>
-      </c>
-      <c r="E3" s="8">
-        <v>218</v>
-      </c>
-      <c r="F3" s="8">
-        <v>253</v>
-      </c>
-      <c r="G3" s="8">
-        <v>281</v>
-      </c>
-      <c r="H3" s="8">
-        <v>339</v>
-      </c>
-      <c r="I3" s="8">
-        <v>354</v>
-      </c>
-      <c r="J3" s="8">
-        <v>365</v>
-      </c>
-      <c r="K3" s="8">
-        <v>388</v>
-      </c>
-      <c r="L3" s="8">
-        <v>411</v>
-      </c>
-      <c r="M3" s="8">
-        <v>439</v>
-      </c>
-      <c r="N3" s="8">
-        <v>461</v>
-      </c>
-      <c r="O3" s="8">
-        <v>473</v>
-      </c>
-      <c r="P3" s="8">
-        <v>548</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>553</v>
-      </c>
-      <c r="R3" s="8">
-        <v>565</v>
-      </c>
-      <c r="S3" s="8">
-        <v>587</v>
-      </c>
-      <c r="T3" s="8">
-        <v>603</v>
-      </c>
-      <c r="U3" s="8">
-        <v>635</v>
-      </c>
-      <c r="V3" s="8">
-        <v>653</v>
-      </c>
-      <c r="W3" s="8">
-        <v>665</v>
-      </c>
-      <c r="X3" s="8">
-        <v>670</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>690</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>703</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>743</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>765</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>773</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>789</v>
-      </c>
-      <c r="AE3" s="8">
-        <v>810</v>
-      </c>
-      <c r="AF3" s="8">
-        <v>826</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>847</v>
-      </c>
-      <c r="AH3" s="8">
-        <v>900</v>
-      </c>
-      <c r="AI3" s="8">
-        <v>927</v>
-      </c>
-      <c r="AJ3" s="8">
-        <v>944</v>
-      </c>
-      <c r="AK3" s="8">
-        <v>970</v>
-      </c>
-      <c r="AL3" s="8">
-        <v>977</v>
-      </c>
-      <c r="AM3" s="8">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="8">
-        <v>303</v>
-      </c>
-      <c r="D4" s="8">
-        <v>353</v>
-      </c>
-      <c r="E4" s="8">
-        <v>460</v>
-      </c>
-      <c r="F4" s="8">
-        <v>542</v>
-      </c>
-      <c r="G4" s="8">
-        <v>642</v>
-      </c>
-      <c r="H4" s="8">
-        <v>812</v>
-      </c>
-      <c r="I4" s="8">
-        <v>852</v>
-      </c>
-      <c r="J4" s="8">
-        <v>884</v>
-      </c>
-      <c r="K4" s="8">
-        <v>932</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1009</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1089</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1171</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1271</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1403</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>1458</v>
-      </c>
-      <c r="R4" s="8">
-        <v>1517</v>
-      </c>
-      <c r="S4" s="8">
-        <v>1595</v>
-      </c>
-      <c r="T4" s="8">
-        <v>1670</v>
-      </c>
-      <c r="U4" s="8">
-        <v>1762</v>
-      </c>
-      <c r="V4" s="8">
-        <v>1846</v>
-      </c>
-      <c r="W4" s="8">
-        <v>1891</v>
-      </c>
-      <c r="X4" s="8">
-        <v>1919</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>1978</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>2037</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>2138</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>2247</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>2287</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>2341</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>2426</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>2471</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>2550</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>2710</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>2793</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>2865</v>
-      </c>
-      <c r="AK4" s="8">
-        <v>2919</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>2977</v>
-      </c>
-      <c r="AM4" s="8">
-        <v>3022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="8">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8">
-        <v>20</v>
-      </c>
-      <c r="G5" s="8">
-        <v>21</v>
-      </c>
-      <c r="H5" s="8">
-        <v>24</v>
-      </c>
-      <c r="I5" s="8">
-        <v>26</v>
-      </c>
-      <c r="J5" s="8">
-        <v>29</v>
-      </c>
-      <c r="K5" s="8">
-        <v>30</v>
-      </c>
-      <c r="L5" s="8">
-        <v>31</v>
-      </c>
-      <c r="M5" s="8">
-        <v>35</v>
-      </c>
-      <c r="N5" s="8">
-        <v>36</v>
-      </c>
-      <c r="O5" s="8">
-        <v>38</v>
-      </c>
-      <c r="P5" s="8">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>52</v>
-      </c>
-      <c r="R5" s="8">
-        <v>54</v>
-      </c>
-      <c r="S5" s="8">
-        <v>57</v>
-      </c>
-      <c r="T5" s="8">
-        <v>58</v>
-      </c>
-      <c r="U5" s="8">
-        <v>60</v>
-      </c>
-      <c r="V5" s="8">
-        <v>63</v>
-      </c>
-      <c r="W5" s="8">
-        <v>63</v>
-      </c>
-      <c r="X5" s="8">
-        <v>62</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>62</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>64</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>65</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>66</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>66</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>72</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>74</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>73</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>73</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>75</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>79</v>
-      </c>
-      <c r="AJ5" s="8">
-        <v>80</v>
-      </c>
-      <c r="AK5" s="8">
-        <v>83</v>
-      </c>
-      <c r="AL5" s="8">
-        <v>84</v>
-      </c>
-      <c r="AM5" s="8">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>6</v>
-      </c>
-      <c r="G6" s="8">
-        <v>6</v>
-      </c>
-      <c r="H6" s="8">
-        <v>6</v>
-      </c>
-      <c r="I6" s="8">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8">
-        <v>6</v>
-      </c>
-      <c r="K6" s="8">
-        <v>6</v>
-      </c>
-      <c r="L6" s="8">
-        <v>7</v>
-      </c>
-      <c r="M6" s="8">
-        <v>7</v>
-      </c>
-      <c r="N6" s="8">
-        <v>7</v>
-      </c>
-      <c r="O6" s="8">
-        <v>8</v>
-      </c>
-      <c r="P6" s="8">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>12</v>
-      </c>
-      <c r="R6" s="8">
-        <v>12</v>
-      </c>
-      <c r="S6" s="8">
-        <v>11</v>
-      </c>
-      <c r="T6" s="8">
-        <v>12</v>
-      </c>
-      <c r="U6" s="8">
-        <v>12</v>
-      </c>
-      <c r="V6" s="8">
-        <v>12</v>
-      </c>
-      <c r="W6" s="8">
-        <v>11</v>
-      </c>
-      <c r="X6" s="8">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>11</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>13</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>13</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>13</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>13</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AI6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AJ6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AK6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AL6" s="8">
-        <v>14</v>
-      </c>
-      <c r="AM6" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8">
-        <v>2</v>
-      </c>
-      <c r="M7" s="8">
-        <v>4</v>
-      </c>
-      <c r="N7" s="8">
-        <v>4</v>
-      </c>
-      <c r="O7" s="8">
-        <v>5</v>
-      </c>
-      <c r="P7" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>6</v>
-      </c>
-      <c r="R7" s="8">
-        <v>6</v>
-      </c>
-      <c r="S7" s="8">
-        <v>7</v>
-      </c>
-      <c r="T7" s="8">
-        <v>7</v>
-      </c>
-      <c r="U7" s="8">
-        <v>7</v>
-      </c>
-      <c r="V7" s="8">
-        <v>7</v>
-      </c>
-      <c r="W7" s="8">
-        <v>8</v>
-      </c>
-      <c r="X7" s="8">
-        <v>8</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>8</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>8</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>10</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>10</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>10</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>10</v>
-      </c>
-      <c r="AF7" s="8">
-        <v>11</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>10</v>
-      </c>
-      <c r="AH7" s="8">
-        <v>13</v>
-      </c>
-      <c r="AI7" s="8">
-        <v>14</v>
-      </c>
-      <c r="AJ7" s="8">
-        <v>17</v>
-      </c>
-      <c r="AK7" s="8">
-        <v>17</v>
-      </c>
-      <c r="AL7" s="8">
-        <v>18</v>
-      </c>
-      <c r="AM7" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="8">
-        <v>78</v>
-      </c>
-      <c r="D8" s="8">
-        <v>80</v>
-      </c>
-      <c r="E8" s="8">
-        <v>123</v>
-      </c>
-      <c r="F8" s="8">
-        <v>153</v>
-      </c>
-      <c r="G8" s="8">
-        <v>179</v>
-      </c>
-      <c r="H8" s="8">
-        <v>226</v>
-      </c>
-      <c r="I8" s="8">
-        <v>242</v>
-      </c>
-      <c r="J8" s="8">
-        <v>256</v>
-      </c>
-      <c r="K8" s="8">
-        <v>275</v>
-      </c>
-      <c r="L8" s="8">
-        <v>300</v>
-      </c>
-      <c r="M8" s="8">
-        <v>345</v>
-      </c>
-      <c r="N8" s="8">
-        <v>386</v>
-      </c>
-      <c r="O8" s="8">
-        <v>431</v>
-      </c>
-      <c r="P8" s="8">
-        <v>390</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>415</v>
-      </c>
-      <c r="R8" s="8">
-        <v>450</v>
-      </c>
-      <c r="S8" s="8">
-        <v>481</v>
-      </c>
-      <c r="T8" s="8">
-        <v>508</v>
-      </c>
-      <c r="U8" s="8">
-        <v>538</v>
-      </c>
-      <c r="V8" s="8">
-        <v>599</v>
-      </c>
-      <c r="W8" s="8">
-        <v>652</v>
-      </c>
-      <c r="X8" s="8">
-        <v>680</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>717</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>770</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>794</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>861</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>889</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>990</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>1014</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>1077</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>1124</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>1167</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>1232</v>
-      </c>
-      <c r="AJ8" s="8">
-        <v>1286</v>
-      </c>
-      <c r="AK8" s="8">
-        <v>1339</v>
-      </c>
-      <c r="AL8" s="8">
-        <v>1381</v>
-      </c>
-      <c r="AM8" s="8">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="8">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8">
-        <v>12</v>
-      </c>
-      <c r="G9" s="8">
-        <v>14</v>
-      </c>
-      <c r="H9" s="8">
-        <v>15</v>
-      </c>
-      <c r="I9" s="8">
-        <v>15</v>
-      </c>
-      <c r="J9" s="8">
-        <v>23</v>
-      </c>
-      <c r="K9" s="8">
-        <v>26</v>
-      </c>
-      <c r="L9" s="8">
-        <v>27</v>
-      </c>
-      <c r="M9" s="8">
-        <v>27</v>
-      </c>
-      <c r="N9" s="8">
-        <v>28</v>
-      </c>
-      <c r="O9" s="8">
-        <v>27</v>
-      </c>
-      <c r="P9" s="8">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>25</v>
-      </c>
-      <c r="R9" s="8">
-        <v>24</v>
-      </c>
-      <c r="S9" s="8">
-        <v>25</v>
-      </c>
-      <c r="T9" s="8">
-        <v>24</v>
-      </c>
-      <c r="U9" s="8">
-        <v>24</v>
-      </c>
-      <c r="V9" s="8">
-        <v>25</v>
-      </c>
-      <c r="W9" s="8">
-        <v>24</v>
-      </c>
-      <c r="X9" s="8">
-        <v>25</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>25</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>26</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>28</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>30</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>33</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>32</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>33</v>
-      </c>
-      <c r="AF9" s="8">
-        <v>33</v>
-      </c>
-      <c r="AG9" s="8">
-        <v>33</v>
-      </c>
-      <c r="AH9" s="8">
-        <v>41</v>
-      </c>
-      <c r="AI9" s="8">
-        <v>41</v>
-      </c>
-      <c r="AJ9" s="8">
-        <v>39</v>
-      </c>
-      <c r="AK9" s="8">
-        <v>39</v>
-      </c>
-      <c r="AL9" s="8">
-        <v>39</v>
-      </c>
-      <c r="AM9" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8">
-        <v>341</v>
-      </c>
-      <c r="D10" s="8">
-        <v>520</v>
-      </c>
-      <c r="E10" s="8">
-        <v>585</v>
-      </c>
-      <c r="F10" s="8">
-        <v>550</v>
-      </c>
-      <c r="G10" s="8">
-        <v>564</v>
-      </c>
-      <c r="H10" s="8">
-        <v>443</v>
-      </c>
-      <c r="I10" s="8">
-        <v>483</v>
-      </c>
-      <c r="J10" s="8">
-        <v>496</v>
-      </c>
-      <c r="K10" s="8">
-        <v>501</v>
-      </c>
-      <c r="L10" s="8">
-        <v>527</v>
-      </c>
-      <c r="M10" s="8">
-        <v>539</v>
-      </c>
-      <c r="N10" s="8">
-        <v>544</v>
-      </c>
-      <c r="O10" s="8">
-        <v>607</v>
-      </c>
-      <c r="P10" s="8">
-        <v>500</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>563</v>
-      </c>
-      <c r="R10" s="8">
-        <v>615</v>
-      </c>
-      <c r="S10" s="8">
-        <v>601</v>
-      </c>
-      <c r="T10" s="8">
-        <v>663</v>
-      </c>
-      <c r="U10" s="8">
-        <v>705</v>
-      </c>
-      <c r="V10" s="8">
-        <v>744</v>
-      </c>
-      <c r="W10" s="8">
-        <v>799</v>
-      </c>
-      <c r="X10" s="8">
-        <v>802</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>806</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>803</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>838</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>1013</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>1083</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>1189</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>1239</v>
-      </c>
-      <c r="AF10" s="8">
-        <v>1272</v>
-      </c>
-      <c r="AG10" s="8">
-        <v>1254</v>
-      </c>
-      <c r="AH10" s="8">
-        <v>1114</v>
-      </c>
-      <c r="AI10" s="8">
-        <v>1201</v>
-      </c>
-      <c r="AJ10" s="8">
-        <v>1276</v>
-      </c>
-      <c r="AK10" s="8">
-        <v>1358</v>
-      </c>
-      <c r="AL10" s="8">
-        <v>1393</v>
-      </c>
-      <c r="AM10" s="8">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="8">
-        <v>98</v>
-      </c>
-      <c r="D11" s="8">
-        <v>107</v>
-      </c>
-      <c r="E11" s="8">
-        <v>154</v>
-      </c>
-      <c r="F11" s="8">
-        <v>169</v>
-      </c>
-      <c r="G11" s="8">
-        <v>188</v>
-      </c>
-      <c r="H11" s="8">
-        <v>227</v>
-      </c>
-      <c r="I11" s="8">
-        <v>241</v>
-      </c>
-      <c r="J11" s="8">
-        <v>263</v>
-      </c>
-      <c r="K11" s="8">
-        <v>299</v>
-      </c>
-      <c r="L11" s="8">
-        <v>324</v>
-      </c>
-      <c r="M11" s="8">
-        <v>361</v>
-      </c>
-      <c r="N11" s="8">
-        <v>403</v>
-      </c>
-      <c r="O11" s="8">
-        <v>439</v>
-      </c>
-      <c r="P11" s="8">
-        <v>494</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>516</v>
-      </c>
-      <c r="R11" s="8">
-        <v>555</v>
-      </c>
-      <c r="S11" s="8">
-        <v>589</v>
-      </c>
-      <c r="T11" s="8">
-        <v>610</v>
-      </c>
-      <c r="U11" s="8">
-        <v>636</v>
-      </c>
-      <c r="V11" s="8">
-        <v>678</v>
-      </c>
-      <c r="W11" s="8">
-        <v>708</v>
-      </c>
-      <c r="X11" s="8">
-        <v>730</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>757</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>797</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>855</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>886</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>913</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>954</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>976</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>1033</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>1107</v>
-      </c>
-      <c r="AH11" s="8">
-        <v>1227</v>
-      </c>
-      <c r="AI11" s="8">
-        <v>1283</v>
-      </c>
-      <c r="AJ11" s="8">
-        <v>1337</v>
-      </c>
-      <c r="AK11" s="8">
-        <v>1370</v>
-      </c>
-      <c r="AL11" s="8">
-        <v>1389</v>
-      </c>
-      <c r="AM11" s="8">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="8">
-        <v>517</v>
-      </c>
-      <c r="D12" s="8">
-        <v>580</v>
-      </c>
-      <c r="E12" s="8">
-        <v>696</v>
-      </c>
-      <c r="F12" s="8">
-        <v>799</v>
-      </c>
-      <c r="G12" s="8">
-        <v>903</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1104</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1146</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1191</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1252</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1340</v>
-      </c>
-      <c r="M12" s="8">
-        <v>1445</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1522</v>
-      </c>
-      <c r="O12" s="8">
-        <v>1613</v>
-      </c>
-      <c r="P12" s="8">
-        <v>1783</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>1832</v>
-      </c>
-      <c r="R12" s="8">
-        <v>1914</v>
-      </c>
-      <c r="S12" s="8">
-        <v>2002</v>
-      </c>
-      <c r="T12" s="8">
-        <v>2074</v>
-      </c>
-      <c r="U12" s="8">
-        <v>2173</v>
-      </c>
-      <c r="V12" s="8">
-        <v>2263</v>
-      </c>
-      <c r="W12" s="8">
-        <v>2320</v>
-      </c>
-      <c r="X12" s="8">
-        <v>2345</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>2416</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>2490</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>2613</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>2741</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>2782</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>2854</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>2936</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>2997</v>
-      </c>
-      <c r="AG12" s="8">
-        <v>3083</v>
-      </c>
-      <c r="AH12" s="8">
-        <v>3292</v>
-      </c>
-      <c r="AI12" s="8">
-        <v>3393</v>
-      </c>
-      <c r="AJ12" s="8">
-        <v>3468</v>
-      </c>
-      <c r="AK12" s="8">
-        <v>3523</v>
-      </c>
-      <c r="AL12" s="8">
-        <v>3586</v>
-      </c>
-      <c r="AM12" s="8">
-        <v>3649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8">
-        <v>5</v>
-      </c>
-      <c r="F13" s="8">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8">
-        <v>5</v>
-      </c>
-      <c r="H13" s="8">
-        <v>4</v>
-      </c>
-      <c r="I13" s="8">
-        <v>5</v>
-      </c>
-      <c r="J13" s="8">
-        <v>5</v>
-      </c>
-      <c r="K13" s="8">
-        <v>6</v>
-      </c>
-      <c r="L13" s="8">
-        <v>6</v>
-      </c>
-      <c r="M13" s="8">
-        <v>5</v>
-      </c>
-      <c r="N13" s="8">
-        <v>7</v>
-      </c>
-      <c r="O13" s="8">
-        <v>7</v>
-      </c>
-      <c r="P13" s="8">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>16</v>
-      </c>
-      <c r="R13" s="8">
-        <v>14</v>
-      </c>
-      <c r="S13" s="8">
-        <v>14</v>
-      </c>
-      <c r="T13" s="8">
-        <v>14</v>
-      </c>
-      <c r="U13" s="8">
-        <v>14</v>
-      </c>
-      <c r="V13" s="8">
-        <v>14</v>
-      </c>
-      <c r="W13" s="8">
-        <v>14</v>
-      </c>
-      <c r="X13" s="8">
-        <v>15</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>16</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>17</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>18</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>19</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>19</v>
-      </c>
-      <c r="AE13" s="8">
-        <v>19</v>
-      </c>
-      <c r="AF13" s="8">
-        <v>20</v>
-      </c>
-      <c r="AG13" s="8">
-        <v>17</v>
-      </c>
-      <c r="AH13" s="8">
-        <v>21</v>
-      </c>
-      <c r="AI13" s="8">
-        <v>22</v>
-      </c>
-      <c r="AJ13" s="8">
-        <v>21</v>
-      </c>
-      <c r="AK13" s="8">
-        <v>21</v>
-      </c>
-      <c r="AL13" s="8">
-        <v>21</v>
-      </c>
-      <c r="AM13" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:X21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W1" sqref="W1:X1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43943</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43944</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43945</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43946</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43947</v>
-      </c>
-      <c r="J1" s="5">
-        <v>43948</v>
-      </c>
-      <c r="K1" s="5">
-        <v>43949</v>
-      </c>
-      <c r="L1" s="5">
-        <v>43950</v>
-      </c>
-      <c r="M1" s="5">
-        <v>43951</v>
-      </c>
-      <c r="N1" s="5">
-        <v>43952</v>
-      </c>
-      <c r="O1" s="5">
-        <v>43953</v>
-      </c>
-      <c r="P1" s="5">
-        <v>43954</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>43955</v>
-      </c>
-      <c r="R1" s="5">
-        <v>43956</v>
-      </c>
-      <c r="S1" s="5">
-        <v>43957</v>
-      </c>
-      <c r="T1" s="5">
-        <v>43958</v>
-      </c>
-      <c r="U1" s="5">
-        <v>43959</v>
-      </c>
-      <c r="V1" s="5">
-        <v>43960</v>
-      </c>
-      <c r="W1" s="5">
-        <v>43961</v>
-      </c>
-      <c r="X1" s="5">
-        <v>43962</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="19">
-        <f>SUM(B3:B12)</f>
-        <v>105</v>
-      </c>
-      <c r="C2" s="19">
-        <v>112</v>
-      </c>
-      <c r="D2" s="19">
-        <v>127</v>
-      </c>
-      <c r="E2" s="19">
-        <v>139</v>
-      </c>
-      <c r="F2" s="19">
-        <v>153</v>
-      </c>
-      <c r="G2" s="19">
-        <v>165</v>
-      </c>
-      <c r="H2" s="19">
-        <v>178</v>
-      </c>
-      <c r="I2" s="19">
-        <v>185</v>
-      </c>
-      <c r="J2" s="19">
-        <v>190</v>
-      </c>
-      <c r="K2" s="19">
-        <v>205</v>
-      </c>
-      <c r="L2" s="19">
-        <v>224</v>
-      </c>
-      <c r="M2" s="19">
-        <v>231</v>
-      </c>
-      <c r="N2" s="19">
-        <v>240</v>
-      </c>
-      <c r="O2" s="19">
-        <v>251</v>
-      </c>
-      <c r="P2" s="19">
-        <v>258</v>
-      </c>
-      <c r="Q2" s="19">
-        <v>264</v>
-      </c>
-      <c r="R2" s="19">
-        <v>277</v>
-      </c>
-      <c r="S2" s="19">
-        <v>285</v>
-      </c>
-      <c r="T2" s="19">
-        <v>304</v>
-      </c>
-      <c r="U2" s="19">
-        <v>311</v>
-      </c>
-      <c r="V2" s="19">
-        <v>323</v>
-      </c>
-      <c r="W2" s="19">
-        <v>328</v>
-      </c>
-      <c r="X2" s="19">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8">
-        <v>11</v>
-      </c>
-      <c r="H3" s="8">
-        <v>11</v>
-      </c>
-      <c r="I3" s="8">
-        <v>11</v>
-      </c>
-      <c r="J3" s="8">
-        <v>12</v>
-      </c>
-      <c r="K3" s="8">
-        <v>17</v>
-      </c>
-      <c r="L3" s="8">
-        <v>21</v>
-      </c>
-      <c r="M3" s="8">
-        <v>21</v>
-      </c>
-      <c r="N3" s="8">
-        <v>21</v>
-      </c>
-      <c r="O3" s="8">
-        <v>21</v>
-      </c>
-      <c r="P3" s="8">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>22</v>
-      </c>
-      <c r="R3" s="8">
-        <v>24</v>
-      </c>
-      <c r="S3" s="8">
-        <v>25</v>
-      </c>
-      <c r="T3" s="8">
-        <v>25</v>
-      </c>
-      <c r="U3" s="8">
-        <v>28</v>
-      </c>
-      <c r="V3" s="8">
-        <v>32</v>
-      </c>
-      <c r="W3" s="8">
-        <v>29</v>
-      </c>
-      <c r="X3" s="8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8">
-        <v>6</v>
-      </c>
-      <c r="I4" s="8">
-        <v>7</v>
-      </c>
-      <c r="J4" s="8">
-        <v>8</v>
-      </c>
-      <c r="K4" s="8">
-        <v>9</v>
-      </c>
-      <c r="L4" s="8">
-        <v>10</v>
-      </c>
-      <c r="M4" s="8">
-        <v>13</v>
-      </c>
-      <c r="N4" s="8">
-        <v>14</v>
-      </c>
-      <c r="O4" s="8">
-        <v>14</v>
-      </c>
-      <c r="P4" s="8">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>14</v>
-      </c>
-      <c r="R4" s="8">
-        <v>15</v>
-      </c>
-      <c r="S4" s="8">
-        <v>15</v>
-      </c>
-      <c r="T4" s="8">
-        <v>16</v>
-      </c>
-      <c r="U4" s="8">
-        <v>17</v>
-      </c>
-      <c r="V4" s="8">
-        <v>18</v>
-      </c>
-      <c r="W4" s="8">
-        <v>16</v>
-      </c>
-      <c r="X4" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8">
-        <v>12</v>
-      </c>
-      <c r="H5" s="8">
-        <v>12</v>
-      </c>
-      <c r="I5" s="8">
-        <v>13</v>
-      </c>
-      <c r="J5" s="8">
-        <v>14</v>
-      </c>
-      <c r="K5" s="8">
-        <v>14</v>
-      </c>
-      <c r="L5" s="8">
-        <v>14</v>
-      </c>
-      <c r="M5" s="8">
-        <v>14</v>
-      </c>
-      <c r="N5" s="8">
-        <v>15</v>
-      </c>
-      <c r="O5" s="8">
-        <v>15</v>
-      </c>
-      <c r="P5" s="8">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>15</v>
-      </c>
-      <c r="R5" s="8">
-        <v>18</v>
-      </c>
-      <c r="S5" s="8">
-        <v>18</v>
-      </c>
-      <c r="T5" s="8">
-        <v>19</v>
-      </c>
-      <c r="U5" s="8">
-        <v>19</v>
-      </c>
-      <c r="V5" s="8">
-        <v>21</v>
-      </c>
-      <c r="W5" s="8">
-        <v>21</v>
-      </c>
-      <c r="X5" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8">
-        <v>20</v>
-      </c>
-      <c r="H6" s="8">
-        <v>22</v>
-      </c>
-      <c r="I6" s="8">
-        <v>23</v>
-      </c>
-      <c r="J6" s="8">
-        <v>23</v>
-      </c>
-      <c r="K6" s="8">
-        <v>26</v>
-      </c>
-      <c r="L6" s="8">
-        <v>30</v>
-      </c>
-      <c r="M6" s="8">
-        <v>30</v>
-      </c>
-      <c r="N6" s="8">
-        <v>30</v>
-      </c>
-      <c r="O6" s="8">
-        <v>35</v>
-      </c>
-      <c r="P6" s="8">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>36</v>
-      </c>
-      <c r="R6" s="8">
-        <v>38</v>
-      </c>
-      <c r="S6" s="8">
-        <v>40</v>
-      </c>
-      <c r="T6" s="8">
-        <v>42</v>
-      </c>
-      <c r="U6" s="8">
-        <v>42</v>
-      </c>
-      <c r="V6" s="8">
-        <v>44</v>
-      </c>
-      <c r="W6" s="8">
-        <v>42</v>
-      </c>
-      <c r="X6" s="8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8">
-        <v>21</v>
-      </c>
-      <c r="G7" s="8">
-        <v>23</v>
-      </c>
-      <c r="H7" s="8">
-        <v>25</v>
-      </c>
-      <c r="I7" s="8">
-        <v>27</v>
-      </c>
-      <c r="J7" s="8">
-        <v>28</v>
-      </c>
-      <c r="K7" s="8">
-        <v>30</v>
-      </c>
-      <c r="L7" s="8">
-        <v>34</v>
-      </c>
-      <c r="M7" s="8">
-        <v>35</v>
-      </c>
-      <c r="N7" s="8">
-        <v>38</v>
-      </c>
-      <c r="O7" s="8">
-        <v>39</v>
-      </c>
-      <c r="P7" s="8">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>42</v>
-      </c>
-      <c r="R7" s="8">
-        <v>45</v>
-      </c>
-      <c r="S7" s="8">
-        <v>46</v>
-      </c>
-      <c r="T7" s="8">
-        <v>50</v>
-      </c>
-      <c r="U7" s="8">
-        <v>50</v>
-      </c>
-      <c r="V7" s="8">
-        <v>51</v>
-      </c>
-      <c r="W7" s="8">
-        <v>52</v>
-      </c>
-      <c r="X7" s="8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8">
-        <v>25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>26</v>
-      </c>
-      <c r="H8" s="8">
-        <v>27</v>
-      </c>
-      <c r="I8" s="8">
-        <v>28</v>
-      </c>
-      <c r="J8" s="8">
-        <v>28</v>
-      </c>
-      <c r="K8" s="8">
-        <v>28</v>
-      </c>
-      <c r="L8" s="8">
-        <v>28</v>
-      </c>
-      <c r="M8" s="8">
-        <v>28</v>
-      </c>
-      <c r="N8" s="8">
-        <v>29</v>
-      </c>
-      <c r="O8" s="8">
-        <v>30</v>
-      </c>
-      <c r="P8" s="8">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>30</v>
-      </c>
-      <c r="R8" s="8">
-        <v>30</v>
-      </c>
-      <c r="S8" s="8">
-        <v>31</v>
-      </c>
-      <c r="T8" s="8">
-        <v>33</v>
-      </c>
-      <c r="U8" s="8">
-        <v>33</v>
-      </c>
-      <c r="V8" s="8">
-        <v>33</v>
-      </c>
-      <c r="W8" s="8">
-        <v>36</v>
-      </c>
-      <c r="X8" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8">
-        <v>17</v>
-      </c>
-      <c r="E9" s="8">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8">
-        <v>23</v>
-      </c>
-      <c r="G9" s="8">
-        <v>23</v>
-      </c>
-      <c r="H9" s="8">
-        <v>25</v>
-      </c>
-      <c r="I9" s="8">
-        <v>25</v>
-      </c>
-      <c r="J9" s="8">
-        <v>25</v>
-      </c>
-      <c r="K9" s="8">
-        <v>27</v>
-      </c>
-      <c r="L9" s="8">
-        <v>29</v>
-      </c>
-      <c r="M9" s="8">
-        <v>30</v>
-      </c>
-      <c r="N9" s="8">
-        <v>32</v>
-      </c>
-      <c r="O9" s="8">
-        <v>34</v>
-      </c>
-      <c r="P9" s="8">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>37</v>
-      </c>
-      <c r="R9" s="8">
-        <v>37</v>
-      </c>
-      <c r="S9" s="8">
-        <v>39</v>
-      </c>
-      <c r="T9" s="8">
-        <v>42</v>
-      </c>
-      <c r="U9" s="8">
-        <v>43</v>
-      </c>
-      <c r="V9" s="8">
-        <v>44</v>
-      </c>
-      <c r="W9" s="8">
-        <v>43</v>
-      </c>
-      <c r="X9" s="8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8">
-        <v>33</v>
-      </c>
-      <c r="G10" s="8">
-        <v>36</v>
-      </c>
-      <c r="H10" s="8">
-        <v>41</v>
-      </c>
-      <c r="I10" s="8">
-        <v>42</v>
-      </c>
-      <c r="J10" s="8">
-        <v>43</v>
-      </c>
-      <c r="K10" s="8">
-        <v>45</v>
-      </c>
-      <c r="L10" s="8">
-        <v>49</v>
-      </c>
-      <c r="M10" s="8">
-        <v>51</v>
-      </c>
-      <c r="N10" s="8">
-        <v>52</v>
-      </c>
-      <c r="O10" s="8">
-        <v>54</v>
-      </c>
-      <c r="P10" s="8">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>59</v>
-      </c>
-      <c r="R10" s="8">
-        <v>60</v>
-      </c>
-      <c r="S10" s="8">
-        <v>61</v>
-      </c>
-      <c r="T10" s="8">
-        <v>67</v>
-      </c>
-      <c r="U10" s="8">
-        <v>68</v>
-      </c>
-      <c r="V10" s="8">
-        <v>69</v>
-      </c>
-      <c r="W10" s="8">
-        <v>74</v>
-      </c>
-      <c r="X10" s="8">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="8">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8">
-        <v>9</v>
-      </c>
-      <c r="G11" s="8">
-        <v>9</v>
-      </c>
-      <c r="H11" s="8">
-        <v>9</v>
-      </c>
-      <c r="I11" s="8">
-        <v>9</v>
-      </c>
-      <c r="J11" s="8">
-        <v>9</v>
-      </c>
-      <c r="K11" s="8">
-        <v>9</v>
-      </c>
-      <c r="L11" s="8">
-        <v>9</v>
-      </c>
-      <c r="M11" s="8">
-        <v>9</v>
-      </c>
-      <c r="N11" s="8">
-        <v>9</v>
-      </c>
-      <c r="O11" s="8">
-        <v>9</v>
-      </c>
-      <c r="P11" s="8">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>9</v>
-      </c>
-      <c r="R11" s="8">
-        <v>10</v>
-      </c>
-      <c r="S11" s="8">
-        <v>10</v>
-      </c>
-      <c r="T11" s="8">
-        <v>10</v>
-      </c>
-      <c r="U11" s="8">
-        <v>11</v>
-      </c>
-      <c r="V11" s="8">
-        <v>11</v>
-      </c>
-      <c r="W11" s="8">
-        <v>15</v>
-      </c>
-      <c r="X11" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8">
-        <v>0</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AL21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP29" sqref="AP29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="5">
-        <v>43926</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43927</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43928</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43929</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43930</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43931</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43932</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43933</v>
-      </c>
-      <c r="J1" s="5">
-        <v>43934</v>
-      </c>
-      <c r="K1" s="5">
-        <v>43935</v>
-      </c>
-      <c r="L1" s="5">
-        <v>43936</v>
-      </c>
-      <c r="M1" s="5">
-        <v>43937</v>
-      </c>
-      <c r="N1" s="5">
-        <v>43938</v>
-      </c>
-      <c r="O1" s="5">
-        <v>43939</v>
-      </c>
-      <c r="P1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="R1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="S1" s="5">
-        <v>43943</v>
-      </c>
-      <c r="T1" s="5">
-        <v>43944</v>
-      </c>
-      <c r="U1" s="5">
-        <v>43945</v>
-      </c>
-      <c r="V1" s="5">
-        <v>43946</v>
-      </c>
-      <c r="W1" s="5">
-        <v>43947</v>
-      </c>
-      <c r="X1" s="5">
-        <v>43948</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>43949</v>
-      </c>
-      <c r="Z1" s="5">
-        <v>43950</v>
-      </c>
-      <c r="AA1" s="5">
-        <v>43951</v>
-      </c>
-      <c r="AB1" s="5">
-        <v>43952</v>
-      </c>
-      <c r="AC1" s="5">
-        <v>43953</v>
-      </c>
-      <c r="AD1" s="5">
-        <v>43954</v>
-      </c>
-      <c r="AE1" s="5">
-        <v>43955</v>
-      </c>
-      <c r="AF1" s="5">
-        <v>43956</v>
-      </c>
-      <c r="AG1" s="5">
-        <v>43957</v>
-      </c>
-      <c r="AH1" s="5">
-        <v>43958</v>
-      </c>
-      <c r="AI1" s="5">
-        <v>43959</v>
-      </c>
-      <c r="AJ1" s="5">
-        <v>43960</v>
-      </c>
-      <c r="AK1" s="5">
-        <v>43961</v>
-      </c>
-      <c r="AL1" s="5">
-        <v>43962</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>2</v>
-      </c>
-      <c r="I3" s="8">
-        <v>2</v>
-      </c>
-      <c r="J3" s="8">
-        <v>2</v>
-      </c>
-      <c r="K3" s="8">
-        <v>2</v>
-      </c>
-      <c r="L3" s="8">
-        <v>2</v>
-      </c>
-      <c r="M3" s="8">
-        <v>2</v>
-      </c>
-      <c r="N3" s="8">
-        <v>2</v>
-      </c>
-      <c r="O3" s="8">
-        <v>2</v>
-      </c>
-      <c r="P3" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>2</v>
-      </c>
-      <c r="R3" s="8">
-        <v>3</v>
-      </c>
-      <c r="S3" s="8">
-        <v>3</v>
-      </c>
-      <c r="T3" s="8">
-        <v>3</v>
-      </c>
-      <c r="U3" s="8">
-        <v>4</v>
-      </c>
-      <c r="V3" s="8">
-        <v>4</v>
-      </c>
-      <c r="W3" s="8">
-        <v>4</v>
-      </c>
-      <c r="X3" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AE3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AH3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AI3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AK3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AL3" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="7">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8">
-        <v>15</v>
-      </c>
-      <c r="E4" s="8">
-        <v>20</v>
-      </c>
-      <c r="F4" s="8">
-        <v>25</v>
-      </c>
-      <c r="G4" s="8">
-        <v>34</v>
-      </c>
-      <c r="H4" s="8">
-        <v>36</v>
-      </c>
-      <c r="I4" s="8">
-        <v>38</v>
-      </c>
-      <c r="J4" s="8">
-        <v>51</v>
-      </c>
-      <c r="K4" s="8">
-        <v>54</v>
-      </c>
-      <c r="L4" s="8">
-        <v>61</v>
-      </c>
-      <c r="M4" s="8">
-        <v>66</v>
-      </c>
-      <c r="N4" s="8">
-        <v>71</v>
-      </c>
-      <c r="O4" s="8">
-        <v>75</v>
-      </c>
-      <c r="P4" s="8">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>90</v>
-      </c>
-      <c r="R4" s="8">
-        <v>102</v>
-      </c>
-      <c r="S4" s="8">
-        <v>112</v>
-      </c>
-      <c r="T4" s="8">
-        <v>124</v>
-      </c>
-      <c r="U4" s="8">
-        <v>131</v>
-      </c>
-      <c r="V4" s="8">
-        <v>142</v>
-      </c>
-      <c r="W4" s="8">
-        <v>147</v>
-      </c>
-      <c r="X4" s="8">
-        <v>150</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>163</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>177</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>183</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>190</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>198</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>205</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>210</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>220</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>226</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>241</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>247</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>252</v>
-      </c>
-      <c r="AK4" s="8">
-        <v>254</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8">
-        <v>6</v>
-      </c>
-      <c r="H5" s="8">
-        <v>6</v>
-      </c>
-      <c r="I5" s="8">
-        <v>6</v>
-      </c>
-      <c r="J5" s="8">
-        <v>7</v>
-      </c>
-      <c r="K5" s="8">
-        <v>8</v>
-      </c>
-      <c r="L5" s="8">
-        <v>9</v>
-      </c>
-      <c r="M5" s="8">
-        <v>8</v>
-      </c>
-      <c r="N5" s="8">
-        <v>8</v>
-      </c>
-      <c r="O5" s="8">
-        <v>8</v>
-      </c>
-      <c r="P5" s="8">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>8</v>
-      </c>
-      <c r="R5" s="8">
-        <v>8</v>
-      </c>
-      <c r="S5" s="8">
-        <v>9</v>
-      </c>
-      <c r="T5" s="8">
-        <v>9</v>
-      </c>
-      <c r="U5" s="8">
-        <v>10</v>
-      </c>
-      <c r="V5" s="8">
-        <v>11</v>
-      </c>
-      <c r="W5" s="8">
-        <v>11</v>
-      </c>
-      <c r="X5" s="8">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>16</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>17</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>17</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>19</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>19</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>20</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>21</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>22</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>23</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>24</v>
-      </c>
-      <c r="AJ5" s="8">
-        <v>29</v>
-      </c>
-      <c r="AK5" s="8">
-        <v>30</v>
-      </c>
-      <c r="AL5" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>5</v>
-      </c>
-      <c r="G6" s="8">
-        <v>5</v>
-      </c>
-      <c r="H6" s="8">
-        <v>6</v>
-      </c>
-      <c r="I6" s="8">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8">
-        <v>7</v>
-      </c>
-      <c r="K6" s="8">
-        <v>8</v>
-      </c>
-      <c r="L6" s="8">
-        <v>8</v>
-      </c>
-      <c r="M6" s="8">
-        <v>10</v>
-      </c>
-      <c r="N6" s="8">
-        <v>10</v>
-      </c>
-      <c r="O6" s="8">
-        <v>11</v>
-      </c>
-      <c r="P6" s="8">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>12</v>
-      </c>
-      <c r="R6" s="8">
-        <v>14</v>
-      </c>
-      <c r="S6" s="8">
-        <v>15</v>
-      </c>
-      <c r="T6" s="8">
-        <v>16</v>
-      </c>
-      <c r="U6" s="8">
-        <v>19</v>
-      </c>
-      <c r="V6" s="8">
-        <v>20</v>
-      </c>
-      <c r="W6" s="8">
-        <v>21</v>
-      </c>
-      <c r="X6" s="8">
-        <v>22</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>25</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>25</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>27</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>27</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>27</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>27</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>29</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>30</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>33</v>
-      </c>
-      <c r="AI6" s="8">
-        <v>33</v>
-      </c>
-      <c r="AJ6" s="8">
-        <v>35</v>
-      </c>
-      <c r="AK6" s="8">
-        <v>37</v>
-      </c>
-      <c r="AL6" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
-        <v>1</v>
-      </c>
-      <c r="U7" s="8">
-        <v>1</v>
-      </c>
-      <c r="V7" s="8">
-        <v>1</v>
-      </c>
-      <c r="W7" s="8">
-        <v>2</v>
-      </c>
-      <c r="X7" s="8">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AI7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AJ7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AK7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AL7" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453ED9CB-C580-4244-99A1-25D5C4A82359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId6"/>
     <sheet name="Overall Stats" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="102">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -311,6 +311,9 @@
     <t xml:space="preserve">Saint Elizabeths Hospital (SEH-Personnel) </t>
   </si>
   <si>
+    <t>Number of Lives Lost Among Personnel</t>
+  </si>
+  <si>
     <t>Saint Elizabeths Hospital (SEH-Individuals in Care [IIC])</t>
   </si>
   <si>
@@ -477,7 +480,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -506,6 +509,8 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -829,14 +834,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="19">
+    <row r="1" spans="1:1" ht="18.95">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19">
+    <row r="2" spans="1:1" ht="18.95">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -848,21 +853,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR1" sqref="AR1:AR1048576"/>
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS3" sqref="AS3:AS11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="42" max="44" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="42" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:45">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -908,7 +913,7 @@
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
     </row>
-    <row r="2" spans="1:44" s="1" customFormat="1">
+    <row r="2" spans="1:45" s="1" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1041,8 +1046,11 @@
       <c r="AR2" s="5">
         <v>43963</v>
       </c>
+      <c r="AS2" s="21">
+        <v>43964</v>
+      </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:45">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1175,8 +1183,11 @@
       <c r="AR3" s="8">
         <v>880</v>
       </c>
+      <c r="AS3">
+        <v>908</v>
+      </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:45">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1309,8 +1320,11 @@
       <c r="AR4" s="8">
         <v>403</v>
       </c>
+      <c r="AS4">
+        <v>400</v>
+      </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:45">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1443,8 +1457,11 @@
       <c r="AR5" s="8">
         <v>357</v>
       </c>
+      <c r="AS5">
+        <v>362</v>
+      </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:45">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1577,8 +1594,11 @@
       <c r="AR6" s="8">
         <v>1328</v>
       </c>
+      <c r="AS6">
+        <v>1377</v>
+      </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:45">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1711,8 +1731,11 @@
       <c r="AR7" s="8">
         <v>1032</v>
       </c>
+      <c r="AS7">
+        <v>1054</v>
+      </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:45">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1845,8 +1868,11 @@
       <c r="AR8" s="8">
         <v>616</v>
       </c>
+      <c r="AS8">
+        <v>624</v>
+      </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:45">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1979,8 +2005,11 @@
       <c r="AR9" s="8">
         <v>960</v>
       </c>
+      <c r="AS9">
+        <v>979</v>
+      </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:45">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2113,8 +2142,11 @@
       <c r="AR10" s="8">
         <v>925</v>
       </c>
+      <c r="AS10">
+        <v>937</v>
+      </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:45">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -2246,6 +2278,9 @@
       </c>
       <c r="AR11" s="8">
         <v>83</v>
+      </c>
+      <c r="AS11">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2259,13 +2294,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -2294,13 +2329,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="13">
-        <v>6584</v>
+        <v>6736</v>
       </c>
       <c r="C2" s="13">
-        <v>3219</v>
+        <v>3298</v>
       </c>
       <c r="D2" s="13">
-        <v>3347</v>
+        <v>3420</v>
       </c>
       <c r="E2" s="14">
         <v>16</v>
@@ -2314,13 +2349,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="17">
         <v>2</v>
       </c>
       <c r="D3" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="18">
         <v>0</v>
@@ -2334,16 +2369,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="13">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C4" s="8">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D4" s="8">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E4" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
@@ -2354,13 +2389,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="13">
-        <v>1082</v>
+        <v>1116</v>
       </c>
       <c r="C5" s="8">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="D5" s="8">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="E5" s="12">
         <v>4</v>
@@ -2374,13 +2409,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="13">
-        <v>1257</v>
+        <v>1287</v>
       </c>
       <c r="C6" s="8">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="D6" s="8">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -2394,16 +2429,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="13">
-        <v>1034</v>
+        <v>1052</v>
       </c>
       <c r="C7" s="8">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D7" s="8">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="E7" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="12">
         <v>0</v>
@@ -2414,13 +2449,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="13">
-        <v>1114</v>
+        <v>1132</v>
       </c>
       <c r="C8" s="8">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="D8" s="8">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
@@ -2434,13 +2469,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="13">
-        <v>956</v>
+        <v>980</v>
       </c>
       <c r="C9" s="8">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="D9" s="8">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -2454,13 +2489,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="13">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C10" s="8">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D10" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
@@ -2474,10 +2509,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="13">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C11" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D11" s="8">
         <v>148</v>
@@ -2500,25 +2535,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="AO10" sqref="AO10:AO13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -2639,8 +2674,11 @@
       <c r="AN1" s="5">
         <v>43963</v>
       </c>
+      <c r="AO1" s="20">
+        <v>43964</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:41">
       <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
@@ -2761,8 +2799,11 @@
       <c r="AN2" s="8">
         <v>882</v>
       </c>
+      <c r="AO2">
+        <v>795</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:41">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
@@ -2883,8 +2924,11 @@
       <c r="AN3" s="8">
         <v>1013</v>
       </c>
+      <c r="AO3">
+        <v>1076</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:41">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -3005,8 +3049,11 @@
       <c r="AN4" s="8">
         <v>3071</v>
       </c>
+      <c r="AO4">
+        <v>3179</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:41">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3174,11 @@
       <c r="AN5" s="8">
         <v>88</v>
       </c>
+      <c r="AO5">
+        <v>93</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:41">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -3249,8 +3299,11 @@
       <c r="AN6" s="8">
         <v>15</v>
       </c>
+      <c r="AO6">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:41">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
@@ -3367,8 +3420,11 @@
       <c r="AN7" s="8">
         <v>15</v>
       </c>
+      <c r="AO7">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:41">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -3489,8 +3545,11 @@
       <c r="AN8" s="8">
         <v>1460</v>
       </c>
+      <c r="AO8">
+        <v>1499</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:41">
       <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
@@ -3611,8 +3670,11 @@
       <c r="AN9" s="8">
         <v>40</v>
       </c>
+      <c r="AO9">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:41">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -3733,8 +3795,11 @@
       <c r="AN10" s="8">
         <v>1382</v>
       </c>
+      <c r="AO10">
+        <v>1259</v>
+      </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:41">
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
@@ -3855,8 +3920,11 @@
       <c r="AN11" s="8">
         <v>1472</v>
       </c>
+      <c r="AO11">
+        <v>1573</v>
+      </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:41">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
@@ -3977,8 +4045,11 @@
       <c r="AN12" s="8">
         <v>3708</v>
       </c>
+      <c r="AO12">
+        <v>3881</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:41">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -4099,8 +4170,11 @@
       <c r="AN13" s="8">
         <v>22</v>
       </c>
+      <c r="AO13">
+        <v>23</v>
+      </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:41">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -4142,7 +4216,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:41">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -4184,7 +4258,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:41">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -4243,19 +4317,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC21" sqref="AC21"/>
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z2" sqref="Z2:Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -4331,8 +4405,11 @@
       <c r="Y1" s="5">
         <v>43963</v>
       </c>
+      <c r="Z1" s="20">
+        <v>43964</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -4409,8 +4486,11 @@
       <c r="Y2" s="19">
         <v>350</v>
       </c>
+      <c r="Z2">
+        <v>358</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4486,8 +4566,11 @@
       <c r="Y3" s="8">
         <v>32</v>
       </c>
+      <c r="Z3">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4563,8 +4646,11 @@
       <c r="Y4" s="8">
         <v>18</v>
       </c>
+      <c r="Z4">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4640,8 +4726,11 @@
       <c r="Y5" s="8">
         <v>23</v>
       </c>
+      <c r="Z5">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4717,8 +4806,11 @@
       <c r="Y6" s="8">
         <v>47</v>
       </c>
+      <c r="Z6">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4794,8 +4886,11 @@
       <c r="Y7" s="8">
         <v>55</v>
       </c>
+      <c r="Z7">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4871,8 +4966,11 @@
       <c r="Y8" s="8">
         <v>38</v>
       </c>
+      <c r="Z8">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4948,8 +5046,11 @@
       <c r="Y9" s="8">
         <v>44</v>
       </c>
+      <c r="Z9">
+        <v>47</v>
+      </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -5025,8 +5126,11 @@
       <c r="Y10" s="8">
         <v>78</v>
       </c>
+      <c r="Z10">
+        <v>80</v>
+      </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
@@ -5102,8 +5206,11 @@
       <c r="Y11" s="8">
         <v>15</v>
       </c>
+      <c r="Z11">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
@@ -5179,17 +5286,20 @@
       <c r="Y12" s="8">
         <v>0</v>
       </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1">
@@ -5215,19 +5325,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM1" sqref="AM1:AM1048576"/>
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN3" sqref="AN3:AN7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="9"/>
       <c r="B1" s="5">
         <v>43926</v>
@@ -5343,8 +5453,11 @@
       <c r="AM1" s="5">
         <v>43963</v>
       </c>
+      <c r="AN1" s="20">
+        <v>43964</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
@@ -5387,7 +5500,7 @@
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -5505,8 +5618,11 @@
       <c r="AM3" s="8">
         <v>5</v>
       </c>
+      <c r="AN3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -5624,8 +5740,11 @@
       <c r="AM4" s="8">
         <v>271</v>
       </c>
+      <c r="AN4">
+        <v>277</v>
+      </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
@@ -5743,8 +5862,11 @@
       <c r="AM5" s="8">
         <v>38</v>
       </c>
+      <c r="AN5">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
@@ -5862,8 +5984,11 @@
       <c r="AM6" s="8">
         <v>34</v>
       </c>
+      <c r="AN6">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -5979,8 +6104,11 @@
       <c r="AM7" s="8">
         <v>2</v>
       </c>
+      <c r="AN7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -6021,7 +6149,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:40">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -6062,7 +6190,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:40">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -6103,7 +6231,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="8"/>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:40">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -6144,19 +6272,19 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="8"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:40">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:40">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:40">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:40">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:40">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1">
@@ -6182,24 +6310,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ89"/>
+  <dimension ref="A1:BR90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT18" sqref="BT18"/>
+      <pane xSplit="2" topLeftCell="BL46" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="69" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="69" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:70">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -6403,8 +6531,11 @@
       <c r="BQ1" s="5">
         <v>43963</v>
       </c>
+      <c r="BR1" s="20">
+        <v>43964</v>
+      </c>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:70">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -6477,7 +6608,7 @@
       <c r="BP2" s="4"/>
       <c r="BQ2" s="4"/>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:70">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -6673,8 +6804,11 @@
       <c r="BQ3" s="12">
         <v>31658</v>
       </c>
+      <c r="BR3">
+        <v>32999</v>
+      </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:70">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -6882,8 +7016,11 @@
       <c r="BQ4" s="12">
         <v>6584</v>
       </c>
+      <c r="BR4">
+        <v>6736</v>
+      </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:70">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -7079,8 +7216,11 @@
       <c r="BQ5" s="12">
         <v>350</v>
       </c>
+      <c r="BR5">
+        <v>358</v>
+      </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:70">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -7256,8 +7396,11 @@
       <c r="BQ6" s="12">
         <v>934</v>
       </c>
+      <c r="BR6">
+        <v>966</v>
+      </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:70">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -7328,7 +7471,7 @@
       <c r="BP7" s="12"/>
       <c r="BQ7" s="12"/>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:70">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -7432,8 +7575,11 @@
       <c r="BQ8" s="12">
         <v>345</v>
       </c>
+      <c r="BR8">
+        <v>345</v>
+      </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:70">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -7605,8 +7751,11 @@
       <c r="BQ9" s="12">
         <v>73</v>
       </c>
+      <c r="BR9">
+        <v>74</v>
+      </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:70">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -7778,8 +7927,11 @@
       <c r="BQ10" s="12">
         <v>440</v>
       </c>
+      <c r="BR10">
+        <v>440</v>
+      </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:70">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
@@ -7951,8 +8103,11 @@
       <c r="BQ11" s="12">
         <v>250</v>
       </c>
+      <c r="BR11">
+        <v>264</v>
+      </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:70">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -8124,8 +8279,11 @@
       <c r="BQ12" s="12">
         <v>190</v>
       </c>
+      <c r="BR12">
+        <v>176</v>
+      </c>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:70">
       <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
@@ -8205,8 +8363,11 @@
       <c r="BQ13" s="12">
         <v>423</v>
       </c>
+      <c r="BR13">
+        <v>397</v>
+      </c>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:70">
       <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
@@ -8286,8 +8447,11 @@
       <c r="BQ14" s="12">
         <v>1887</v>
       </c>
+      <c r="BR14">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:70">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="12"/>
@@ -8358,7 +8522,7 @@
       <c r="BP15" s="12"/>
       <c r="BQ15" s="12"/>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:70">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="12"/>
@@ -8429,7 +8593,7 @@
       <c r="BP16" s="12"/>
       <c r="BQ16" s="12"/>
     </row>
-    <row r="17" spans="1:69">
+    <row r="17" spans="1:70">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
         <v>46</v>
@@ -8502,7 +8666,7 @@
       <c r="BP17" s="12"/>
       <c r="BQ17" s="12"/>
     </row>
-    <row r="18" spans="1:69">
+    <row r="18" spans="1:70">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -8577,7 +8741,7 @@
       <c r="BP18" s="12"/>
       <c r="BQ18" s="12"/>
     </row>
-    <row r="19" spans="1:69">
+    <row r="19" spans="1:70">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -8751,8 +8915,11 @@
       <c r="BQ19" s="12">
         <v>104</v>
       </c>
+      <c r="BR19">
+        <v>104</v>
+      </c>
     </row>
-    <row r="20" spans="1:69">
+    <row r="20" spans="1:70">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
@@ -8890,8 +9057,11 @@
       <c r="BQ20" s="12">
         <v>35</v>
       </c>
+      <c r="BR20">
+        <v>32</v>
+      </c>
     </row>
-    <row r="21" spans="1:69">
+    <row r="21" spans="1:70">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -9029,8 +9199,11 @@
       <c r="BQ21" s="12">
         <v>69</v>
       </c>
+      <c r="BR21">
+        <v>72</v>
+      </c>
     </row>
-    <row r="22" spans="1:69">
+    <row r="22" spans="1:70">
       <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
@@ -9198,8 +9371,11 @@
       <c r="BQ22" s="12">
         <v>115</v>
       </c>
+      <c r="BR22">
+        <v>108</v>
+      </c>
     </row>
-    <row r="23" spans="1:69">
+    <row r="23" spans="1:70">
       <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
@@ -9367,8 +9543,11 @@
       <c r="BQ23" s="12">
         <v>150</v>
       </c>
+      <c r="BR23">
+        <v>140</v>
+      </c>
     </row>
-    <row r="24" spans="1:69">
+    <row r="24" spans="1:70">
       <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
@@ -9536,8 +9715,11 @@
       <c r="BQ24" s="12">
         <v>1065</v>
       </c>
+      <c r="BR24">
+        <v>1075</v>
+      </c>
     </row>
-    <row r="25" spans="1:69">
+    <row r="25" spans="1:70">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="12"/>
@@ -9608,7 +9790,7 @@
       <c r="BP25" s="12"/>
       <c r="BQ25" s="12"/>
     </row>
-    <row r="26" spans="1:69">
+    <row r="26" spans="1:70">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>55</v>
@@ -9681,7 +9863,7 @@
       <c r="BP26" s="12"/>
       <c r="BQ26" s="12"/>
     </row>
-    <row r="27" spans="1:69">
+    <row r="27" spans="1:70">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -9855,8 +10037,11 @@
       <c r="BQ27" s="12">
         <v>113</v>
       </c>
+      <c r="BR27">
+        <v>113</v>
+      </c>
     </row>
-    <row r="28" spans="1:69">
+    <row r="28" spans="1:70">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
@@ -9994,8 +10179,11 @@
       <c r="BQ28" s="12">
         <v>38</v>
       </c>
+      <c r="BR28">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:69">
+    <row r="29" spans="1:70">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -10133,8 +10321,11 @@
       <c r="BQ29" s="12">
         <v>75</v>
       </c>
+      <c r="BR29">
+        <v>78</v>
+      </c>
     </row>
-    <row r="30" spans="1:69">
+    <row r="30" spans="1:70">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
@@ -10302,8 +10493,11 @@
       <c r="BQ30" s="12">
         <v>51</v>
       </c>
+      <c r="BR30">
+        <v>56</v>
+      </c>
     </row>
-    <row r="31" spans="1:69">
+    <row r="31" spans="1:70">
       <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
@@ -10471,8 +10665,11 @@
       <c r="BQ31" s="12">
         <v>89</v>
       </c>
+      <c r="BR31">
+        <v>91</v>
+      </c>
     </row>
-    <row r="32" spans="1:69">
+    <row r="32" spans="1:70">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
@@ -10640,8 +10837,11 @@
       <c r="BQ32" s="12">
         <v>1007</v>
       </c>
+      <c r="BR32">
+        <v>1036</v>
+      </c>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:70">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="12"/>
@@ -10712,7 +10912,7 @@
       <c r="BP33" s="12"/>
       <c r="BQ33" s="12"/>
     </row>
-    <row r="34" spans="1:69">
+    <row r="34" spans="1:70">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>60</v>
@@ -10785,7 +10985,7 @@
       <c r="BP34" s="12"/>
       <c r="BQ34" s="12"/>
     </row>
-    <row r="35" spans="1:69">
+    <row r="35" spans="1:70">
       <c r="A35" s="6" t="s">
         <v>61</v>
       </c>
@@ -10951,8 +11151,11 @@
       <c r="BQ35" s="12">
         <v>75</v>
       </c>
+      <c r="BR35">
+        <v>76</v>
+      </c>
     </row>
-    <row r="36" spans="1:69">
+    <row r="36" spans="1:70">
       <c r="A36" s="6" t="s">
         <v>61</v>
       </c>
@@ -11086,8 +11289,11 @@
       <c r="BQ36" s="12">
         <v>30</v>
       </c>
+      <c r="BR36">
+        <v>26</v>
+      </c>
     </row>
-    <row r="37" spans="1:69">
+    <row r="37" spans="1:70">
       <c r="A37" s="6" t="s">
         <v>61</v>
       </c>
@@ -11221,8 +11427,11 @@
       <c r="BQ37" s="12">
         <v>44</v>
       </c>
+      <c r="BR37">
+        <v>49</v>
+      </c>
     </row>
-    <row r="38" spans="1:69">
+    <row r="38" spans="1:70">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -11386,8 +11595,11 @@
       <c r="BQ38" s="12">
         <v>12</v>
       </c>
+      <c r="BR38">
+        <v>12</v>
+      </c>
     </row>
-    <row r="39" spans="1:69">
+    <row r="39" spans="1:70">
       <c r="A39" s="6" t="s">
         <v>61</v>
       </c>
@@ -11549,8 +11761,11 @@
       <c r="BQ39" s="12">
         <v>42</v>
       </c>
+      <c r="BR39">
+        <v>38</v>
+      </c>
     </row>
-    <row r="40" spans="1:69">
+    <row r="40" spans="1:70">
       <c r="A40" s="6" t="s">
         <v>61</v>
       </c>
@@ -11716,8 +11931,11 @@
       <c r="BQ40" s="12">
         <v>240</v>
       </c>
+      <c r="BR40">
+        <v>245</v>
+      </c>
     </row>
-    <row r="41" spans="1:69">
+    <row r="41" spans="1:70">
       <c r="A41" s="6" t="s">
         <v>61</v>
       </c>
@@ -11839,8 +12057,11 @@
       <c r="BQ41" s="12">
         <v>1</v>
       </c>
+      <c r="BR41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:69">
+    <row r="42" spans="1:70">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="12"/>
@@ -11911,7 +12132,7 @@
       <c r="BP42" s="12"/>
       <c r="BQ42" s="12"/>
     </row>
-    <row r="43" spans="1:69">
+    <row r="43" spans="1:70">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
         <v>60</v>
@@ -11984,7 +12205,7 @@
       <c r="BP43" s="12"/>
       <c r="BQ43" s="12"/>
     </row>
-    <row r="44" spans="1:69">
+    <row r="44" spans="1:70">
       <c r="A44" s="6" t="s">
         <v>65</v>
       </c>
@@ -12154,8 +12375,11 @@
       <c r="BQ44" s="12">
         <v>179</v>
       </c>
+      <c r="BR44">
+        <v>182</v>
+      </c>
     </row>
-    <row r="45" spans="1:69">
+    <row r="45" spans="1:70">
       <c r="A45" s="6" t="s">
         <v>65</v>
       </c>
@@ -12293,8 +12517,11 @@
       <c r="BQ45" s="12">
         <v>40</v>
       </c>
+      <c r="BR45">
+        <v>38</v>
+      </c>
     </row>
-    <row r="46" spans="1:69">
+    <row r="46" spans="1:70">
       <c r="A46" s="6" t="s">
         <v>65</v>
       </c>
@@ -12432,8 +12659,11 @@
       <c r="BQ46" s="12">
         <v>134</v>
       </c>
+      <c r="BR46">
+        <v>138</v>
+      </c>
     </row>
-    <row r="47" spans="1:69">
+    <row r="47" spans="1:70">
       <c r="A47" s="6" t="s">
         <v>65</v>
       </c>
@@ -12601,8 +12831,11 @@
       <c r="BQ47" s="12">
         <v>828</v>
       </c>
+      <c r="BR47">
+        <v>755</v>
+      </c>
     </row>
-    <row r="48" spans="1:69">
+    <row r="48" spans="1:70">
       <c r="A48" s="6" t="s">
         <v>65</v>
       </c>
@@ -12740,8 +12973,11 @@
       <c r="BQ48" s="12">
         <v>868</v>
       </c>
+      <c r="BR48">
+        <v>793</v>
+      </c>
     </row>
-    <row r="49" spans="1:69">
+    <row r="49" spans="1:70">
       <c r="A49" s="6" t="s">
         <v>65</v>
       </c>
@@ -12877,8 +13113,11 @@
       <c r="BQ49" s="12">
         <v>481</v>
       </c>
+      <c r="BR49">
+        <v>534</v>
+      </c>
     </row>
-    <row r="50" spans="1:69">
+    <row r="50" spans="1:70">
       <c r="A50" s="6" t="s">
         <v>65</v>
       </c>
@@ -13010,8 +13249,11 @@
       <c r="BQ50" s="12">
         <v>1</v>
       </c>
+      <c r="BR50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:69">
+    <row r="51" spans="1:70">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="12"/>
@@ -13082,7 +13324,7 @@
       <c r="BP51" s="12"/>
       <c r="BQ51" s="12"/>
     </row>
-    <row r="52" spans="1:69">
+    <row r="52" spans="1:70">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
         <v>73</v>
@@ -13155,7 +13397,7 @@
       <c r="BP52" s="12"/>
       <c r="BQ52" s="12"/>
     </row>
-    <row r="53" spans="1:69">
+    <row r="53" spans="1:70">
       <c r="A53" s="6" t="s">
         <v>74</v>
       </c>
@@ -13315,8 +13557,11 @@
       <c r="BQ53" s="12">
         <v>27</v>
       </c>
+      <c r="BR53">
+        <v>27</v>
+      </c>
     </row>
-    <row r="54" spans="1:69">
+    <row r="54" spans="1:70">
       <c r="A54" s="6" t="s">
         <v>74</v>
       </c>
@@ -13452,8 +13697,11 @@
       <c r="BQ54" s="12">
         <v>14</v>
       </c>
+      <c r="BR54">
+        <v>14</v>
+      </c>
     </row>
-    <row r="55" spans="1:69">
+    <row r="55" spans="1:70">
       <c r="A55" s="6" t="s">
         <v>74</v>
       </c>
@@ -13589,8 +13837,11 @@
       <c r="BQ55" s="12">
         <v>12</v>
       </c>
+      <c r="BR55">
+        <v>12</v>
+      </c>
     </row>
-    <row r="56" spans="1:69">
+    <row r="56" spans="1:70">
       <c r="A56" s="6" t="s">
         <v>74</v>
       </c>
@@ -13750,8 +14001,11 @@
       <c r="BQ56" s="12">
         <v>19</v>
       </c>
+      <c r="BR56">
+        <v>17</v>
+      </c>
     </row>
-    <row r="57" spans="1:69">
+    <row r="57" spans="1:70">
       <c r="A57" s="6" t="s">
         <v>74</v>
       </c>
@@ -13911,8 +14165,11 @@
       <c r="BQ57" s="12">
         <v>33</v>
       </c>
+      <c r="BR57">
+        <v>31</v>
+      </c>
     </row>
-    <row r="58" spans="1:69">
+    <row r="58" spans="1:70">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
@@ -14072,8 +14329,11 @@
       <c r="BQ58" s="12">
         <v>121</v>
       </c>
+      <c r="BR58">
+        <v>122</v>
+      </c>
     </row>
-    <row r="59" spans="1:69">
+    <row r="59" spans="1:70">
       <c r="A59" s="6" t="s">
         <v>74</v>
       </c>
@@ -14205,8 +14465,11 @@
       <c r="BQ59" s="12">
         <v>1</v>
       </c>
+      <c r="BR59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:69">
+    <row r="60" spans="1:70">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="12"/>
@@ -14277,7 +14540,7 @@
       <c r="BP60" s="12"/>
       <c r="BQ60" s="12"/>
     </row>
-    <row r="61" spans="1:69">
+    <row r="61" spans="1:70">
       <c r="A61" s="6" t="s">
         <v>76</v>
       </c>
@@ -14437,8 +14700,11 @@
       <c r="BQ61" s="12">
         <v>10</v>
       </c>
+      <c r="BR61">
+        <v>10</v>
+      </c>
     </row>
-    <row r="62" spans="1:69">
+    <row r="62" spans="1:70">
       <c r="A62" s="6" t="s">
         <v>76</v>
       </c>
@@ -14574,8 +14840,11 @@
       <c r="BQ62" s="12">
         <v>4</v>
       </c>
+      <c r="BR62">
+        <v>4</v>
+      </c>
     </row>
-    <row r="63" spans="1:69">
+    <row r="63" spans="1:70">
       <c r="A63" s="6" t="s">
         <v>76</v>
       </c>
@@ -14711,8 +14980,11 @@
       <c r="BQ63" s="12">
         <v>6</v>
       </c>
+      <c r="BR63">
+        <v>6</v>
+      </c>
     </row>
-    <row r="64" spans="1:69">
+    <row r="64" spans="1:70">
       <c r="A64" s="6" t="s">
         <v>76</v>
       </c>
@@ -14872,8 +15144,11 @@
       <c r="BQ64" s="12">
         <v>44</v>
       </c>
+      <c r="BR64">
+        <v>45</v>
+      </c>
     </row>
-    <row r="65" spans="1:69">
+    <row r="65" spans="1:70">
       <c r="A65" s="6" t="s">
         <v>76</v>
       </c>
@@ -15033,8 +15308,11 @@
       <c r="BQ65" s="12">
         <v>48</v>
       </c>
+      <c r="BR65">
+        <v>49</v>
+      </c>
     </row>
-    <row r="66" spans="1:69">
+    <row r="66" spans="1:70">
       <c r="A66" s="6" t="s">
         <v>76</v>
       </c>
@@ -15192,8 +15470,11 @@
       <c r="BQ66" s="12">
         <v>0</v>
       </c>
+      <c r="BR66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:69">
+    <row r="67" spans="1:70">
       <c r="A67" s="6" t="s">
         <v>76</v>
       </c>
@@ -15329,8 +15610,11 @@
       <c r="BQ67" s="12">
         <v>0</v>
       </c>
+      <c r="BR67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:69">
+    <row r="68" spans="1:70">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="12"/>
@@ -15401,7 +15685,7 @@
       <c r="BP68" s="12"/>
       <c r="BQ68" s="12"/>
     </row>
-    <row r="69" spans="1:69">
+    <row r="69" spans="1:70">
       <c r="A69" s="7"/>
       <c r="B69" s="6" t="s">
         <v>83</v>
@@ -15474,7 +15758,7 @@
       <c r="BP69" s="12"/>
       <c r="BQ69" s="12"/>
     </row>
-    <row r="70" spans="1:69">
+    <row r="70" spans="1:70">
       <c r="A70" s="6" t="s">
         <v>84</v>
       </c>
@@ -15634,8 +15918,11 @@
       <c r="BQ70" s="12">
         <v>267</v>
       </c>
+      <c r="BR70">
+        <v>269</v>
+      </c>
     </row>
-    <row r="71" spans="1:69">
+    <row r="71" spans="1:70">
       <c r="A71" s="6" t="s">
         <v>84</v>
       </c>
@@ -15795,8 +16082,11 @@
       <c r="BQ71" s="12">
         <v>323</v>
       </c>
+      <c r="BR71">
+        <v>330</v>
+      </c>
     </row>
-    <row r="72" spans="1:69">
+    <row r="72" spans="1:70">
       <c r="A72" s="6" t="s">
         <v>84</v>
       </c>
@@ -15956,8 +16246,11 @@
       <c r="BQ72" s="12">
         <v>319</v>
       </c>
+      <c r="BR72">
+        <v>312</v>
+      </c>
     </row>
-    <row r="73" spans="1:69">
+    <row r="73" spans="1:70">
       <c r="A73" s="6" t="s">
         <v>84</v>
       </c>
@@ -16089,8 +16382,11 @@
       <c r="BQ73" s="12">
         <v>15</v>
       </c>
+      <c r="BR73">
+        <v>15</v>
+      </c>
     </row>
-    <row r="74" spans="1:69">
+    <row r="74" spans="1:70">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="12"/>
@@ -16161,7 +16457,7 @@
       <c r="BP74" s="12"/>
       <c r="BQ74" s="12"/>
     </row>
-    <row r="75" spans="1:69">
+    <row r="75" spans="1:70">
       <c r="A75" s="6" t="s">
         <v>89</v>
       </c>
@@ -16321,8 +16617,11 @@
       <c r="BQ75" s="12">
         <v>84</v>
       </c>
+      <c r="BR75">
+        <v>84</v>
+      </c>
     </row>
-    <row r="76" spans="1:69">
+    <row r="76" spans="1:70">
       <c r="A76" s="6" t="s">
         <v>89</v>
       </c>
@@ -16482,8 +16781,11 @@
       <c r="BQ76" s="12">
         <v>19</v>
       </c>
+      <c r="BR76">
+        <v>19</v>
+      </c>
     </row>
-    <row r="77" spans="1:69">
+    <row r="77" spans="1:70">
       <c r="A77" s="6" t="s">
         <v>89</v>
       </c>
@@ -16643,8 +16945,11 @@
       <c r="BQ77" s="12">
         <v>103</v>
       </c>
+      <c r="BR77">
+        <v>103</v>
+      </c>
     </row>
-    <row r="78" spans="1:69">
+    <row r="78" spans="1:70">
       <c r="A78" s="6" t="s">
         <v>89</v>
       </c>
@@ -16796,10 +17101,17 @@
       <c r="BQ78" s="12">
         <v>157</v>
       </c>
+      <c r="BR78">
+        <v>157</v>
+      </c>
     </row>
-    <row r="79" spans="1:69">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
+    <row r="79" spans="1:70">
+      <c r="A79" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -16827,7 +17139,7 @@
       <c r="AA79" s="12"/>
       <c r="AB79" s="12"/>
       <c r="AC79" s="12"/>
-      <c r="AD79" s="12"/>
+      <c r="AD79" s="15"/>
       <c r="AE79" s="12"/>
       <c r="AF79" s="12"/>
       <c r="AG79" s="12"/>
@@ -16869,14 +17181,13 @@
       <c r="BQ79" s="12">
         <v>1</v>
       </c>
+      <c r="BR79">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:69">
-      <c r="A80" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>91</v>
-      </c>
+    <row r="80" spans="1:70">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
@@ -16901,137 +17212,52 @@
       <c r="X80" s="12"/>
       <c r="Y80" s="12"/>
       <c r="Z80" s="12"/>
-      <c r="AA80" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB80" s="12">
-        <v>1</v>
-      </c>
-      <c r="AC80" s="12">
-        <v>3</v>
-      </c>
-      <c r="AD80" s="12">
-        <v>5</v>
-      </c>
-      <c r="AE80" s="12">
-        <v>6</v>
-      </c>
-      <c r="AF80" s="12">
-        <v>7</v>
-      </c>
-      <c r="AG80" s="12">
-        <v>9</v>
-      </c>
-      <c r="AH80" s="12">
-        <v>11</v>
-      </c>
-      <c r="AI80" s="12">
-        <v>14</v>
-      </c>
-      <c r="AJ80" s="12">
-        <v>15</v>
-      </c>
-      <c r="AK80" s="12">
-        <v>17</v>
-      </c>
-      <c r="AL80" s="12">
-        <v>21</v>
-      </c>
-      <c r="AM80" s="12">
-        <v>21</v>
-      </c>
-      <c r="AN80" s="12">
-        <v>28</v>
-      </c>
-      <c r="AO80" s="12">
-        <v>28</v>
-      </c>
-      <c r="AP80" s="12">
-        <v>32</v>
-      </c>
-      <c r="AQ80" s="12">
-        <v>33</v>
-      </c>
-      <c r="AR80" s="12">
-        <v>36</v>
-      </c>
-      <c r="AS80" s="12">
-        <v>36</v>
-      </c>
-      <c r="AT80" s="12">
-        <v>37</v>
-      </c>
-      <c r="AU80" s="12">
-        <v>41</v>
-      </c>
-      <c r="AV80" s="12">
-        <v>41</v>
-      </c>
-      <c r="AW80" s="12">
-        <v>42</v>
-      </c>
-      <c r="AX80" s="12">
-        <v>41</v>
-      </c>
-      <c r="AY80" s="12">
-        <v>46</v>
-      </c>
-      <c r="AZ80" s="12">
-        <v>46</v>
-      </c>
-      <c r="BA80" s="12">
-        <v>48</v>
-      </c>
-      <c r="BB80" s="12">
-        <v>48</v>
-      </c>
-      <c r="BC80" s="12">
-        <v>55</v>
-      </c>
-      <c r="BD80" s="12">
-        <v>66</v>
-      </c>
-      <c r="BE80" s="12">
-        <v>66</v>
-      </c>
-      <c r="BF80" s="12">
-        <v>68</v>
-      </c>
-      <c r="BG80" s="12">
-        <v>68</v>
-      </c>
-      <c r="BH80" s="12">
-        <v>68</v>
-      </c>
-      <c r="BI80" s="12">
-        <v>70</v>
-      </c>
-      <c r="BJ80" s="12">
-        <v>72</v>
-      </c>
-      <c r="BK80" s="12">
-        <v>72</v>
-      </c>
-      <c r="BL80" s="12">
-        <v>77</v>
-      </c>
-      <c r="BM80" s="12">
-        <v>78</v>
-      </c>
-      <c r="BN80" s="12">
-        <v>78</v>
-      </c>
-      <c r="BO80" s="12">
-        <v>78</v>
-      </c>
-      <c r="BP80" s="12">
-        <v>79</v>
-      </c>
-      <c r="BQ80" s="12"/>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="12"/>
+      <c r="AC80" s="12"/>
+      <c r="AD80" s="12"/>
+      <c r="AE80" s="12"/>
+      <c r="AF80" s="12"/>
+      <c r="AG80" s="12"/>
+      <c r="AH80" s="12"/>
+      <c r="AI80" s="12"/>
+      <c r="AJ80" s="12"/>
+      <c r="AK80" s="12"/>
+      <c r="AL80" s="12"/>
+      <c r="AM80" s="12"/>
+      <c r="AN80" s="12"/>
+      <c r="AO80" s="12"/>
+      <c r="AP80" s="12"/>
+      <c r="AQ80" s="12"/>
+      <c r="AR80" s="12"/>
+      <c r="AS80" s="12"/>
+      <c r="AT80" s="12"/>
+      <c r="AU80" s="12"/>
+      <c r="AV80" s="12"/>
+      <c r="AW80" s="12"/>
+      <c r="AX80" s="12"/>
+      <c r="AY80" s="12"/>
+      <c r="AZ80" s="12"/>
+      <c r="BA80" s="12"/>
+      <c r="BB80" s="12"/>
+      <c r="BC80" s="12"/>
+      <c r="BD80" s="12"/>
+      <c r="BE80" s="12"/>
+      <c r="BF80" s="12"/>
+      <c r="BG80" s="12"/>
+      <c r="BH80" s="12"/>
+      <c r="BI80" s="12"/>
+      <c r="BJ80" s="12"/>
+      <c r="BK80" s="12"/>
+      <c r="BL80" s="12"/>
+      <c r="BM80" s="12"/>
+      <c r="BN80" s="12"/>
+      <c r="BO80" s="12"/>
+      <c r="BP80" s="12"/>
     </row>
-    <row r="81" spans="1:69">
+    <row r="81" spans="1:70">
       <c r="A81" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>92</v>
@@ -17061,138 +17287,141 @@
       <c r="Y81" s="12"/>
       <c r="Z81" s="12"/>
       <c r="AA81" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB81" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD81" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE81" s="12">
+        <v>6</v>
+      </c>
+      <c r="AF81" s="12">
+        <v>7</v>
+      </c>
+      <c r="AG81" s="12">
+        <v>9</v>
+      </c>
+      <c r="AH81" s="12">
+        <v>11</v>
+      </c>
+      <c r="AI81" s="12">
+        <v>14</v>
+      </c>
+      <c r="AJ81" s="12">
+        <v>15</v>
+      </c>
+      <c r="AK81" s="12">
         <v>17</v>
       </c>
-      <c r="AB81" s="12">
-        <v>18</v>
-      </c>
-      <c r="AC81" s="12">
-        <v>81</v>
-      </c>
-      <c r="AD81" s="12">
-        <v>124</v>
-      </c>
-      <c r="AE81" s="12">
-        <v>95</v>
-      </c>
-      <c r="AF81" s="12">
-        <v>95</v>
-      </c>
-      <c r="AG81" s="12">
-        <v>119</v>
-      </c>
-      <c r="AH81" s="12">
-        <v>142</v>
-      </c>
-      <c r="AI81" s="12">
-        <v>142</v>
-      </c>
-      <c r="AJ81" s="12">
-        <v>142</v>
-      </c>
-      <c r="AK81" s="12">
-        <v>144</v>
-      </c>
       <c r="AL81" s="12">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="AM81" s="12">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="AN81" s="12">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="AO81" s="12">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="AP81" s="12">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="AQ81" s="12">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="AR81" s="12">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AS81" s="12">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AT81" s="12">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AU81" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AV81" s="12">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AW81" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AX81" s="12">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY81" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AZ81" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="BA81" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="BB81" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="BC81" s="12">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="BD81" s="12">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="BE81" s="12">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="BF81" s="12">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="BG81" s="12">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="BH81" s="12">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="BI81" s="12">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="BJ81" s="12">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="BK81" s="12">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="BL81" s="12">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="BM81" s="12">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="BN81" s="12">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="BO81" s="12">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="BP81" s="12">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="BQ81" s="12">
         <v>79</v>
       </c>
+      <c r="BR81">
+        <v>79</v>
+      </c>
     </row>
-    <row r="82" spans="1:69">
+    <row r="82" spans="1:70">
       <c r="A82" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>93</v>
@@ -17221,19 +17450,41 @@
       <c r="X82" s="12"/>
       <c r="Y82" s="12"/>
       <c r="Z82" s="12"/>
-      <c r="AA82" s="12"/>
-      <c r="AB82" s="12"/>
-      <c r="AC82" s="12"/>
-      <c r="AD82" s="12"/>
-      <c r="AE82" s="12"/>
-      <c r="AF82" s="12"/>
-      <c r="AG82" s="12"/>
-      <c r="AH82" s="12"/>
-      <c r="AI82" s="12"/>
-      <c r="AJ82" s="12"/>
-      <c r="AK82" s="12"/>
+      <c r="AA82" s="12">
+        <v>17</v>
+      </c>
+      <c r="AB82" s="12">
+        <v>18</v>
+      </c>
+      <c r="AC82" s="12">
+        <v>81</v>
+      </c>
+      <c r="AD82" s="12">
+        <v>124</v>
+      </c>
+      <c r="AE82" s="12">
+        <v>95</v>
+      </c>
+      <c r="AF82" s="12">
+        <v>95</v>
+      </c>
+      <c r="AG82" s="12">
+        <v>119</v>
+      </c>
+      <c r="AH82" s="12">
+        <v>142</v>
+      </c>
+      <c r="AI82" s="12">
+        <v>142</v>
+      </c>
+      <c r="AJ82" s="12">
+        <v>142</v>
+      </c>
+      <c r="AK82" s="12">
+        <v>144</v>
+      </c>
       <c r="AL82" s="12">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="AM82" s="12">
         <v>144</v>
@@ -17275,66 +17526,69 @@
         <v>29</v>
       </c>
       <c r="AZ82" s="12">
-        <v>34</v>
-      </c>
-      <c r="BA82" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB82" s="12" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="BA82" s="12">
+        <v>29</v>
+      </c>
+      <c r="BB82" s="12">
+        <v>29</v>
       </c>
       <c r="BC82" s="12">
-        <v>17</v>
-      </c>
-      <c r="BD82" s="12" t="s">
-        <v>95</v>
+        <v>43</v>
+      </c>
+      <c r="BD82" s="12">
+        <v>50</v>
       </c>
       <c r="BE82" s="12">
-        <v>127</v>
-      </c>
-      <c r="BF82" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG82" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH82" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI82" s="12" t="s">
-        <v>95</v>
+        <v>50</v>
+      </c>
+      <c r="BF82" s="12">
+        <v>50</v>
+      </c>
+      <c r="BG82" s="12">
+        <v>50</v>
+      </c>
+      <c r="BH82" s="12">
+        <v>50</v>
+      </c>
+      <c r="BI82" s="12">
+        <v>50</v>
       </c>
       <c r="BJ82" s="12">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="BK82" s="12">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="BL82" s="12">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="BM82" s="12">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="BN82" s="12">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="BO82" s="12">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="BP82" s="12">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="BQ82" s="12">
         <v>56</v>
       </c>
+      <c r="BR82">
+        <v>56</v>
+      </c>
     </row>
-    <row r="83" spans="1:69">
+    <row r="83" spans="1:70">
       <c r="A83" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -17371,105 +17625,112 @@
       <c r="AI83" s="12"/>
       <c r="AJ83" s="12"/>
       <c r="AK83" s="12"/>
-      <c r="AL83" s="12"/>
-      <c r="AM83" s="12"/>
+      <c r="AL83" s="12">
+        <v>144</v>
+      </c>
+      <c r="AM83" s="12">
+        <v>144</v>
+      </c>
       <c r="AN83" s="12">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="AO83" s="12">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="AP83" s="12">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="AQ83" s="12">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="AR83" s="12">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="AS83" s="12">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="AT83" s="12">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="AU83" s="12">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AV83" s="12">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="AW83" s="12">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="AX83" s="12">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="AY83" s="12">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="AZ83" s="12">
-        <v>2</v>
-      </c>
-      <c r="BA83" s="12">
-        <v>2</v>
-      </c>
-      <c r="BB83" s="12">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="BA83" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB83" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="BC83" s="12">
-        <v>2</v>
-      </c>
-      <c r="BD83" s="12">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="BD83" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="BE83" s="12">
-        <v>2</v>
-      </c>
-      <c r="BF83" s="12">
-        <v>2</v>
-      </c>
-      <c r="BG83" s="12">
-        <v>5</v>
-      </c>
-      <c r="BH83" s="12">
-        <v>5</v>
-      </c>
-      <c r="BI83" s="12">
-        <v>5</v>
+        <v>127</v>
+      </c>
+      <c r="BF83" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG83" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH83" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI83" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="BJ83" s="12">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="BK83" s="12">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="BL83" s="12">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="BM83" s="12">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="BN83" s="12">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="BO83" s="12">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="BP83" s="12">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="BQ83" s="12">
         <v>142</v>
       </c>
+      <c r="BR83">
+        <v>142</v>
+      </c>
     </row>
-    <row r="84" spans="1:69">
+    <row r="84" spans="1:70">
       <c r="A84" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -17495,137 +17756,120 @@
       <c r="X84" s="12"/>
       <c r="Y84" s="12"/>
       <c r="Z84" s="12"/>
-      <c r="AA84" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="12">
-        <v>1</v>
-      </c>
-      <c r="AC84" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD84" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE84" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF84" s="12">
-        <v>1</v>
-      </c>
-      <c r="AG84" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH84" s="12">
-        <v>1</v>
-      </c>
-      <c r="AI84" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ84" s="12">
-        <v>1</v>
-      </c>
-      <c r="AK84" s="12">
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="12"/>
+      <c r="AC84" s="12"/>
+      <c r="AD84" s="12"/>
+      <c r="AE84" s="12"/>
+      <c r="AF84" s="12"/>
+      <c r="AG84" s="12"/>
+      <c r="AH84" s="12"/>
+      <c r="AI84" s="12"/>
+      <c r="AJ84" s="12"/>
+      <c r="AK84" s="12"/>
+      <c r="AL84" s="12"/>
+      <c r="AM84" s="12"/>
+      <c r="AN84" s="12">
         <v>2</v>
       </c>
-      <c r="AL84" s="12">
+      <c r="AO84" s="12">
         <v>2</v>
       </c>
-      <c r="AM84" s="12">
+      <c r="AP84" s="12">
         <v>2</v>
       </c>
-      <c r="AN84" s="12"/>
-      <c r="AO84" s="12">
-        <v>4</v>
-      </c>
-      <c r="AP84" s="12">
-        <v>4</v>
-      </c>
       <c r="AQ84" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR84" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS84" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT84" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU84" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV84" s="12">
+        <v>2</v>
+      </c>
+      <c r="AW84" s="12">
+        <v>2</v>
+      </c>
+      <c r="AX84" s="12">
+        <v>2</v>
+      </c>
+      <c r="AY84" s="12">
+        <v>2</v>
+      </c>
+      <c r="AZ84" s="12">
+        <v>2</v>
+      </c>
+      <c r="BA84" s="12">
+        <v>2</v>
+      </c>
+      <c r="BB84" s="12">
+        <v>2</v>
+      </c>
+      <c r="BC84" s="12">
+        <v>2</v>
+      </c>
+      <c r="BD84" s="12">
+        <v>2</v>
+      </c>
+      <c r="BE84" s="12">
+        <v>2</v>
+      </c>
+      <c r="BF84" s="12">
+        <v>2</v>
+      </c>
+      <c r="BG84" s="12">
         <v>5</v>
       </c>
-      <c r="AV84" s="12">
-        <v>6</v>
-      </c>
-      <c r="AW84" s="12">
-        <v>6</v>
-      </c>
-      <c r="AX84" s="12">
-        <v>6</v>
-      </c>
-      <c r="AY84" s="12">
-        <v>6</v>
-      </c>
-      <c r="AZ84" s="12">
-        <v>8</v>
-      </c>
-      <c r="BA84" s="12">
-        <v>9</v>
-      </c>
-      <c r="BB84" s="12">
-        <v>9</v>
-      </c>
-      <c r="BC84" s="12">
-        <v>9</v>
-      </c>
-      <c r="BD84" s="12">
-        <v>9</v>
-      </c>
-      <c r="BE84" s="12">
-        <v>10</v>
-      </c>
-      <c r="BF84" s="12">
-        <v>10</v>
-      </c>
-      <c r="BG84" s="12">
-        <v>11</v>
-      </c>
       <c r="BH84" s="12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BI84" s="12">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BJ84" s="12">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BK84" s="12">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BL84" s="12">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BM84" s="12">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BN84" s="12">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BO84" s="12">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BP84" s="12">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BQ84" s="12">
         <v>5</v>
       </c>
+      <c r="BR84">
+        <v>5</v>
+      </c>
     </row>
-    <row r="85" spans="1:69">
-      <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
+    <row r="85" spans="1:70">
+      <c r="A85" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
@@ -17650,59 +17894,140 @@
       <c r="X85" s="12"/>
       <c r="Y85" s="12"/>
       <c r="Z85" s="12"/>
-      <c r="AA85" s="12"/>
-      <c r="AB85" s="12"/>
-      <c r="AC85" s="12"/>
-      <c r="AD85" s="12"/>
-      <c r="AE85" s="12"/>
-      <c r="AF85" s="12"/>
-      <c r="AG85" s="12"/>
-      <c r="AH85" s="12"/>
-      <c r="AI85" s="12"/>
-      <c r="AJ85" s="12"/>
-      <c r="AK85" s="12"/>
-      <c r="AL85" s="12"/>
-      <c r="AM85" s="12"/>
+      <c r="AA85" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD85" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE85" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF85" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG85" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH85" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI85" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ85" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK85" s="12">
+        <v>2</v>
+      </c>
+      <c r="AL85" s="12">
+        <v>2</v>
+      </c>
+      <c r="AM85" s="12">
+        <v>2</v>
+      </c>
       <c r="AN85" s="12"/>
-      <c r="AO85" s="12"/>
-      <c r="AP85" s="12"/>
-      <c r="AQ85" s="12"/>
-      <c r="AR85" s="12"/>
-      <c r="AS85" s="12"/>
-      <c r="AT85" s="12"/>
-      <c r="AU85" s="12"/>
-      <c r="AV85" s="12"/>
-      <c r="AW85" s="12"/>
-      <c r="AX85" s="12"/>
-      <c r="AY85" s="12"/>
-      <c r="AZ85" s="12"/>
-      <c r="BA85" s="12"/>
-      <c r="BB85" s="12"/>
-      <c r="BC85" s="12"/>
-      <c r="BD85" s="12"/>
-      <c r="BE85" s="12"/>
-      <c r="BF85" s="12"/>
-      <c r="BG85" s="12"/>
-      <c r="BH85" s="12"/>
-      <c r="BI85" s="12"/>
-      <c r="BJ85" s="12"/>
-      <c r="BK85" s="12"/>
-      <c r="BL85" s="12"/>
-      <c r="BM85" s="12"/>
-      <c r="BN85" s="12"/>
-      <c r="BO85" s="12"/>
-      <c r="BP85" s="12"/>
+      <c r="AO85" s="12">
+        <v>4</v>
+      </c>
+      <c r="AP85" s="12">
+        <v>4</v>
+      </c>
+      <c r="AQ85" s="12">
+        <v>4</v>
+      </c>
+      <c r="AR85" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS85" s="12">
+        <v>4</v>
+      </c>
+      <c r="AT85" s="12">
+        <v>4</v>
+      </c>
+      <c r="AU85" s="12">
+        <v>5</v>
+      </c>
+      <c r="AV85" s="12">
+        <v>6</v>
+      </c>
+      <c r="AW85" s="12">
+        <v>6</v>
+      </c>
+      <c r="AX85" s="12">
+        <v>6</v>
+      </c>
+      <c r="AY85" s="12">
+        <v>6</v>
+      </c>
+      <c r="AZ85" s="12">
+        <v>8</v>
+      </c>
+      <c r="BA85" s="12">
+        <v>9</v>
+      </c>
+      <c r="BB85" s="12">
+        <v>9</v>
+      </c>
+      <c r="BC85" s="12">
+        <v>9</v>
+      </c>
+      <c r="BD85" s="12">
+        <v>9</v>
+      </c>
+      <c r="BE85" s="12">
+        <v>10</v>
+      </c>
+      <c r="BF85" s="12">
+        <v>10</v>
+      </c>
+      <c r="BG85" s="12">
+        <v>11</v>
+      </c>
+      <c r="BH85" s="12">
+        <v>11</v>
+      </c>
+      <c r="BI85" s="12">
+        <v>13</v>
+      </c>
+      <c r="BJ85" s="12">
+        <v>13</v>
+      </c>
+      <c r="BK85" s="12">
+        <v>13</v>
+      </c>
+      <c r="BL85" s="12">
+        <v>13</v>
+      </c>
+      <c r="BM85" s="12">
+        <v>13</v>
+      </c>
+      <c r="BN85" s="12">
+        <v>13</v>
+      </c>
+      <c r="BO85" s="12">
+        <v>14</v>
+      </c>
+      <c r="BP85" s="12">
+        <v>14</v>
+      </c>
       <c r="BQ85" s="12">
         <v>13</v>
       </c>
+      <c r="BR85">
+        <v>13</v>
+      </c>
     </row>
-    <row r="86" spans="1:69">
-      <c r="A86" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>98</v>
-      </c>
+    <row r="86" spans="1:70">
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
@@ -17754,56 +18079,26 @@
       <c r="AY86" s="12"/>
       <c r="AZ86" s="12"/>
       <c r="BA86" s="12"/>
-      <c r="BB86" s="12">
-        <v>112</v>
-      </c>
-      <c r="BC86" s="12">
-        <v>121</v>
-      </c>
-      <c r="BD86" s="12">
-        <v>130</v>
-      </c>
-      <c r="BE86" s="12">
-        <v>135</v>
-      </c>
-      <c r="BF86" s="12">
-        <v>137</v>
-      </c>
-      <c r="BG86" s="12">
-        <v>137</v>
-      </c>
-      <c r="BH86" s="12">
-        <v>137</v>
-      </c>
-      <c r="BI86" s="12">
-        <v>137</v>
-      </c>
-      <c r="BJ86" s="12">
-        <v>142</v>
-      </c>
-      <c r="BK86" s="12">
-        <v>144</v>
-      </c>
-      <c r="BL86" s="12">
-        <v>145</v>
-      </c>
-      <c r="BM86" s="12">
-        <v>147</v>
-      </c>
-      <c r="BN86" s="12">
-        <v>147</v>
-      </c>
-      <c r="BO86" s="12">
-        <v>150</v>
-      </c>
-      <c r="BP86" s="12">
-        <v>155</v>
-      </c>
+      <c r="BB86" s="12"/>
+      <c r="BC86" s="12"/>
+      <c r="BD86" s="12"/>
+      <c r="BE86" s="12"/>
+      <c r="BF86" s="12"/>
+      <c r="BG86" s="12"/>
+      <c r="BH86" s="12"/>
+      <c r="BI86" s="12"/>
+      <c r="BJ86" s="12"/>
+      <c r="BK86" s="12"/>
+      <c r="BL86" s="12"/>
+      <c r="BM86" s="12"/>
+      <c r="BN86" s="12"/>
+      <c r="BO86" s="12"/>
+      <c r="BP86" s="12"/>
       <c r="BQ86" s="12"/>
     </row>
-    <row r="87" spans="1:69">
+    <row r="87" spans="1:70">
       <c r="A87" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>99</v>
@@ -17860,57 +18155,60 @@
       <c r="AZ87" s="12"/>
       <c r="BA87" s="12"/>
       <c r="BB87" s="12">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="BC87" s="12">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="BD87" s="12">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="BE87" s="12">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="BF87" s="12">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="BG87" s="12">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="BH87" s="12">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="BI87" s="12">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="BJ87" s="12">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="BK87" s="12">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="BL87" s="12">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="BM87" s="12">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="BN87" s="12">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="BO87" s="12">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="BP87" s="12">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="BQ87" s="12">
         <v>156</v>
       </c>
+      <c r="BR87">
+        <v>158</v>
+      </c>
     </row>
-    <row r="88" spans="1:69">
+    <row r="88" spans="1:70">
       <c r="A88" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>100</v>
@@ -17967,57 +18265,64 @@
       <c r="AZ88" s="12"/>
       <c r="BA88" s="12"/>
       <c r="BB88" s="12">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BC88" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BD88" s="12">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BE88" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BF88" s="12">
+        <v>14</v>
+      </c>
+      <c r="BG88" s="12">
+        <v>15</v>
+      </c>
+      <c r="BH88" s="12">
+        <v>15</v>
+      </c>
+      <c r="BI88" s="12">
         <v>18</v>
-      </c>
-      <c r="BG88" s="12">
-        <v>18</v>
-      </c>
-      <c r="BH88" s="12">
-        <v>19</v>
-      </c>
-      <c r="BI88" s="12">
-        <v>19</v>
       </c>
       <c r="BJ88" s="12">
         <v>19</v>
       </c>
       <c r="BK88" s="12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BL88" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BM88" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BN88" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BO88" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BP88" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BQ88" s="12">
         <v>27</v>
       </c>
+      <c r="BR88">
+        <v>27</v>
+      </c>
     </row>
-    <row r="89" spans="1:69">
-      <c r="A89" s="6"/>
-      <c r="B89" s="7"/>
+    <row r="89" spans="1:70">
+      <c r="A89" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
@@ -18069,24 +18374,127 @@
       <c r="AY89" s="12"/>
       <c r="AZ89" s="12"/>
       <c r="BA89" s="12"/>
-      <c r="BB89" s="12"/>
-      <c r="BC89" s="12"/>
-      <c r="BD89" s="12"/>
-      <c r="BE89" s="12"/>
-      <c r="BF89" s="12"/>
-      <c r="BG89" s="12"/>
-      <c r="BH89" s="12"/>
-      <c r="BI89" s="12"/>
-      <c r="BJ89" s="12"/>
-      <c r="BK89" s="12"/>
-      <c r="BL89" s="12"/>
-      <c r="BM89" s="12"/>
-      <c r="BN89" s="12"/>
-      <c r="BO89" s="12"/>
-      <c r="BP89" s="12"/>
+      <c r="BB89" s="12">
+        <v>16</v>
+      </c>
+      <c r="BC89" s="12">
+        <v>16</v>
+      </c>
+      <c r="BD89" s="12">
+        <v>17</v>
+      </c>
+      <c r="BE89" s="12">
+        <v>17</v>
+      </c>
+      <c r="BF89" s="12">
+        <v>18</v>
+      </c>
+      <c r="BG89" s="12">
+        <v>18</v>
+      </c>
+      <c r="BH89" s="12">
+        <v>19</v>
+      </c>
+      <c r="BI89" s="12">
+        <v>19</v>
+      </c>
+      <c r="BJ89" s="12">
+        <v>19</v>
+      </c>
+      <c r="BK89" s="12">
+        <v>19</v>
+      </c>
+      <c r="BL89" s="12">
+        <v>20</v>
+      </c>
+      <c r="BM89" s="12">
+        <v>20</v>
+      </c>
+      <c r="BN89" s="12">
+        <v>20</v>
+      </c>
+      <c r="BO89" s="12">
+        <v>20</v>
+      </c>
+      <c r="BP89" s="12">
+        <v>20</v>
+      </c>
       <c r="BQ89" s="12">
         <v>21</v>
       </c>
+      <c r="BR89">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:70">
+      <c r="A90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="12"/>
+      <c r="AB90" s="12"/>
+      <c r="AC90" s="12"/>
+      <c r="AD90" s="12"/>
+      <c r="AE90" s="12"/>
+      <c r="AF90" s="12"/>
+      <c r="AG90" s="12"/>
+      <c r="AH90" s="12"/>
+      <c r="AI90" s="12"/>
+      <c r="AJ90" s="12"/>
+      <c r="AK90" s="12"/>
+      <c r="AL90" s="12"/>
+      <c r="AM90" s="12"/>
+      <c r="AN90" s="12"/>
+      <c r="AO90" s="12"/>
+      <c r="AP90" s="12"/>
+      <c r="AQ90" s="12"/>
+      <c r="AR90" s="12"/>
+      <c r="AS90" s="12"/>
+      <c r="AT90" s="12"/>
+      <c r="AU90" s="12"/>
+      <c r="AV90" s="12"/>
+      <c r="AW90" s="12"/>
+      <c r="AX90" s="12"/>
+      <c r="AY90" s="12"/>
+      <c r="AZ90" s="12"/>
+      <c r="BA90" s="12"/>
+      <c r="BB90" s="12"/>
+      <c r="BC90" s="12"/>
+      <c r="BD90" s="12"/>
+      <c r="BE90" s="12"/>
+      <c r="BF90" s="12"/>
+      <c r="BG90" s="12"/>
+      <c r="BH90" s="12"/>
+      <c r="BI90" s="12"/>
+      <c r="BJ90" s="12"/>
+      <c r="BK90" s="12"/>
+      <c r="BL90" s="12"/>
+      <c r="BM90" s="12"/>
+      <c r="BN90" s="12"/>
+      <c r="BO90" s="12"/>
+      <c r="BP90" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453ED9CB-C580-4244-99A1-25D5C4A82359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE5E46C-5875-DB4B-95CF-4C48FBF8A101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54520" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId6"/>
     <sheet name="Overall Stats" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -480,7 +480,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -509,8 +509,6 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -834,14 +832,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.95">
+    <row r="1" spans="1:1" ht="19">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.95">
+    <row r="2" spans="1:1" ht="19">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -853,21 +851,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AT11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS3" sqref="AS3:AS11"/>
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW26" sqref="AW26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="42" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="42" max="46" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:46">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -912,8 +910,10 @@
       <c r="AP1" s="5"/>
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
     </row>
-    <row r="2" spans="1:45" s="1" customFormat="1">
+    <row r="2" spans="1:46" s="1" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1046,11 +1046,14 @@
       <c r="AR2" s="5">
         <v>43963</v>
       </c>
-      <c r="AS2" s="21">
+      <c r="AS2" s="5">
         <v>43964</v>
       </c>
+      <c r="AT2" s="5">
+        <v>43965</v>
+      </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:46">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1183,11 +1186,14 @@
       <c r="AR3" s="8">
         <v>880</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="8">
         <v>908</v>
       </c>
+      <c r="AT3" s="8">
+        <v>924</v>
+      </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:46">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1320,11 +1326,14 @@
       <c r="AR4" s="8">
         <v>403</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="8">
         <v>400</v>
       </c>
+      <c r="AT4" s="8">
+        <v>408</v>
+      </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:46">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1457,11 +1466,14 @@
       <c r="AR5" s="8">
         <v>357</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="8">
         <v>362</v>
       </c>
+      <c r="AT5" s="8">
+        <v>364</v>
+      </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:46">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1594,11 +1606,14 @@
       <c r="AR6" s="8">
         <v>1328</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="8">
         <v>1377</v>
       </c>
+      <c r="AT6" s="8">
+        <v>1409</v>
+      </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:46">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1731,11 +1746,14 @@
       <c r="AR7" s="8">
         <v>1032</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="8">
         <v>1054</v>
       </c>
+      <c r="AT7" s="8">
+        <v>1070</v>
+      </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:46">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1868,11 +1886,14 @@
       <c r="AR8" s="8">
         <v>616</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" s="8">
         <v>624</v>
       </c>
+      <c r="AT8" s="8">
+        <v>635</v>
+      </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:46">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2005,11 +2026,14 @@
       <c r="AR9" s="8">
         <v>960</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" s="8">
         <v>979</v>
       </c>
+      <c r="AT9" s="8">
+        <v>989</v>
+      </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:46">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2142,11 +2166,14 @@
       <c r="AR10" s="8">
         <v>925</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" s="8">
         <v>937</v>
       </c>
+      <c r="AT10" s="8">
+        <v>977</v>
+      </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:46">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -2279,7 +2306,10 @@
       <c r="AR11" s="8">
         <v>83</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" s="8">
+        <v>95</v>
+      </c>
+      <c r="AT11" s="8">
         <v>95</v>
       </c>
     </row>
@@ -2294,13 +2324,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -2329,16 +2359,16 @@
         <v>9</v>
       </c>
       <c r="B2" s="13">
-        <v>6736</v>
+        <v>6871</v>
       </c>
       <c r="C2" s="13">
-        <v>3298</v>
+        <v>3366</v>
       </c>
       <c r="D2" s="13">
-        <v>3420</v>
+        <v>3488</v>
       </c>
       <c r="E2" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="14">
         <v>2</v>
@@ -2369,16 +2399,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="13">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C4" s="8">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D4" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E4" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
@@ -2389,13 +2419,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="13">
-        <v>1116</v>
+        <v>1131</v>
       </c>
       <c r="C5" s="8">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="D5" s="8">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E5" s="12">
         <v>4</v>
@@ -2409,13 +2439,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="13">
-        <v>1287</v>
+        <v>1316</v>
       </c>
       <c r="C6" s="8">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="D6" s="8">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -2429,13 +2459,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="13">
-        <v>1052</v>
+        <v>1077</v>
       </c>
       <c r="C7" s="8">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D7" s="8">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -2449,13 +2479,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="13">
-        <v>1132</v>
+        <v>1154</v>
       </c>
       <c r="C8" s="8">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D8" s="8">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
@@ -2469,13 +2499,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="13">
-        <v>980</v>
+        <v>1001</v>
       </c>
       <c r="C9" s="8">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="D9" s="8">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -2489,13 +2519,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="13">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C10" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D10" s="8">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
@@ -2509,13 +2539,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="13">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C11" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D11" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -2535,25 +2565,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AP19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="AO10" sqref="AO10:AO13"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="AO1" sqref="AO1:AP1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:42">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -2674,11 +2704,14 @@
       <c r="AN1" s="5">
         <v>43963</v>
       </c>
-      <c r="AO1" s="20">
+      <c r="AO1" s="5">
         <v>43964</v>
       </c>
+      <c r="AP1" s="5">
+        <v>43965</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:42">
       <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
@@ -2799,11 +2832,14 @@
       <c r="AN2" s="8">
         <v>882</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="8">
         <v>795</v>
       </c>
+      <c r="AP2" s="8">
+        <v>807</v>
+      </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:42">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
@@ -2924,11 +2960,14 @@
       <c r="AN3" s="8">
         <v>1013</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="8">
         <v>1076</v>
       </c>
+      <c r="AP3" s="8">
+        <v>1097</v>
+      </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:42">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -3049,11 +3088,14 @@
       <c r="AN4" s="8">
         <v>3071</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="8">
         <v>3179</v>
       </c>
+      <c r="AP4" s="8">
+        <v>3258</v>
+      </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:42">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -3174,11 +3216,14 @@
       <c r="AN5" s="8">
         <v>88</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="8">
         <v>93</v>
       </c>
+      <c r="AP5" s="8">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:42">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -3299,11 +3344,14 @@
       <c r="AN6" s="8">
         <v>15</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="8">
         <v>18</v>
       </c>
+      <c r="AP6" s="8">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
@@ -3420,11 +3468,14 @@
       <c r="AN7" s="8">
         <v>15</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" s="8">
         <v>16</v>
       </c>
+      <c r="AP7" s="8">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:42">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -3545,11 +3596,14 @@
       <c r="AN8" s="8">
         <v>1460</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" s="8">
         <v>1499</v>
       </c>
+      <c r="AP8" s="8">
+        <v>1538</v>
+      </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:42">
       <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
@@ -3670,11 +3724,14 @@
       <c r="AN9" s="8">
         <v>40</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" s="8">
         <v>42</v>
       </c>
+      <c r="AP9" s="8">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:42">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -3795,11 +3852,14 @@
       <c r="AN10" s="8">
         <v>1382</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" s="8">
         <v>1259</v>
       </c>
+      <c r="AP10" s="8">
+        <v>1286</v>
+      </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42">
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
@@ -3920,11 +3980,14 @@
       <c r="AN11" s="8">
         <v>1472</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" s="8">
         <v>1573</v>
       </c>
+      <c r="AP11" s="8">
+        <v>1624</v>
+      </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:42">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
@@ -4045,11 +4108,14 @@
       <c r="AN12" s="8">
         <v>3708</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" s="8">
         <v>3881</v>
       </c>
+      <c r="AP12" s="8">
+        <v>3938</v>
+      </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:42">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -4170,11 +4236,14 @@
       <c r="AN13" s="8">
         <v>22</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" s="8">
         <v>23</v>
       </c>
+      <c r="AP13" s="8">
+        <v>23</v>
+      </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:42">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -4215,8 +4284,10 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:42">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -4257,8 +4328,10 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:42">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -4299,6 +4372,8 @@
       <c r="AL16" s="8"/>
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="11"/>
@@ -4317,19 +4392,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z2" sqref="Z2:Z12"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -4405,11 +4480,14 @@
       <c r="Y1" s="5">
         <v>43963</v>
       </c>
-      <c r="Z1" s="20">
+      <c r="Z1" s="5">
         <v>43964</v>
       </c>
+      <c r="AA1" s="5">
+        <v>43965</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -4486,11 +4564,14 @@
       <c r="Y2" s="19">
         <v>350</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="19">
         <v>358</v>
       </c>
+      <c r="AA2" s="19">
+        <v>368</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4566,11 +4647,14 @@
       <c r="Y3" s="8">
         <v>32</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="8">
         <v>33</v>
       </c>
+      <c r="AA3" s="8">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4646,11 +4730,14 @@
       <c r="Y4" s="8">
         <v>18</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="8">
         <v>18</v>
       </c>
+      <c r="AA4" s="8">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4726,11 +4813,14 @@
       <c r="Y5" s="8">
         <v>23</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="8">
         <v>23</v>
       </c>
+      <c r="AA5" s="8">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4806,11 +4896,14 @@
       <c r="Y6" s="8">
         <v>47</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="8">
         <v>48</v>
       </c>
+      <c r="AA6" s="8">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4886,11 +4979,14 @@
       <c r="Y7" s="8">
         <v>55</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="8">
         <v>56</v>
       </c>
+      <c r="AA7" s="8">
+        <v>57</v>
+      </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4966,11 +5062,14 @@
       <c r="Y8" s="8">
         <v>38</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="8">
         <v>38</v>
       </c>
+      <c r="AA8" s="8">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -5046,11 +5145,14 @@
       <c r="Y9" s="8">
         <v>44</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="8">
         <v>47</v>
       </c>
+      <c r="AA9" s="8">
+        <v>49</v>
+      </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -5126,11 +5228,14 @@
       <c r="Y10" s="8">
         <v>78</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="8">
         <v>80</v>
       </c>
+      <c r="AA10" s="8">
+        <v>82</v>
+      </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
@@ -5206,11 +5311,14 @@
       <c r="Y11" s="8">
         <v>15</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="8">
         <v>15</v>
       </c>
+      <c r="AA11" s="8">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
@@ -5286,20 +5394,23 @@
       <c r="Y12" s="8">
         <v>0</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="8">
         <v>0</v>
       </c>
+      <c r="AA12" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1">
@@ -5325,19 +5436,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AN21"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN3" sqref="AN3:AN7"/>
+      <selection pane="topRight" activeCell="AT26" sqref="AT26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="9"/>
       <c r="B1" s="5">
         <v>43926</v>
@@ -5453,11 +5564,14 @@
       <c r="AM1" s="5">
         <v>43963</v>
       </c>
-      <c r="AN1" s="20">
+      <c r="AN1" s="5">
         <v>43964</v>
       </c>
+      <c r="AO1" s="5">
+        <v>43965</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:41">
       <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
@@ -5499,8 +5613,10 @@
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:41">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -5618,11 +5734,14 @@
       <c r="AM3" s="8">
         <v>5</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="8">
         <v>5</v>
       </c>
+      <c r="AO3" s="8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:41">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -5740,11 +5859,14 @@
       <c r="AM4" s="8">
         <v>271</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="8">
         <v>277</v>
       </c>
+      <c r="AO4" s="8">
+        <v>283</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:41">
       <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
@@ -5862,11 +5984,14 @@
       <c r="AM5" s="8">
         <v>38</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="8">
         <v>36</v>
       </c>
+      <c r="AO5" s="8">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:41">
       <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
@@ -5984,11 +6109,14 @@
       <c r="AM6" s="8">
         <v>34</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="8">
         <v>38</v>
       </c>
+      <c r="AO6" s="8">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:41">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -6104,11 +6232,14 @@
       <c r="AM7" s="8">
         <v>2</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="8">
         <v>2</v>
       </c>
+      <c r="AO7" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:41">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -6148,8 +6279,10 @@
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:41">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -6189,8 +6322,10 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:41">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -6230,8 +6365,10 @@
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
       <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:41">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -6271,20 +6408,22 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
       <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:41">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:41">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:41">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:41">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:41">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1">
@@ -6310,24 +6449,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR90"/>
+  <dimension ref="A1:BS90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BL46" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B79" sqref="B79"/>
+      <pane xSplit="2" topLeftCell="BK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BW23" sqref="BW23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="69" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="71" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:71">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -6531,11 +6670,14 @@
       <c r="BQ1" s="5">
         <v>43963</v>
       </c>
-      <c r="BR1" s="20">
+      <c r="BR1" s="5">
         <v>43964</v>
       </c>
+      <c r="BS1" s="5">
+        <v>43965</v>
+      </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:71">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -6607,8 +6749,10 @@
       <c r="BO2" s="4"/>
       <c r="BP2" s="4"/>
       <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:71">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -6804,11 +6948,14 @@
       <c r="BQ3" s="12">
         <v>31658</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" s="12">
         <v>32999</v>
       </c>
+      <c r="BS3" s="12">
+        <v>34339</v>
+      </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:71">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -7016,11 +7163,14 @@
       <c r="BQ4" s="12">
         <v>6584</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" s="12">
         <v>6736</v>
       </c>
+      <c r="BS4" s="12">
+        <v>6871</v>
+      </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:71">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -7216,11 +7366,14 @@
       <c r="BQ5" s="12">
         <v>350</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" s="12">
         <v>358</v>
       </c>
+      <c r="BS5" s="12">
+        <v>368</v>
+      </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:71">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -7396,11 +7549,14 @@
       <c r="BQ6" s="12">
         <v>934</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" s="12">
         <v>966</v>
       </c>
+      <c r="BS6" s="12">
+        <v>975</v>
+      </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:71">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -7470,8 +7626,10 @@
       <c r="BO7" s="12"/>
       <c r="BP7" s="12"/>
       <c r="BQ7" s="12"/>
+      <c r="BR7" s="12"/>
+      <c r="BS7" s="12"/>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:71">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -7575,11 +7733,14 @@
       <c r="BQ8" s="12">
         <v>345</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" s="12">
         <v>345</v>
       </c>
+      <c r="BS8" s="12">
+        <v>345</v>
+      </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:71">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -7751,11 +7912,14 @@
       <c r="BQ9" s="12">
         <v>73</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" s="12">
         <v>74</v>
       </c>
+      <c r="BS9" s="12">
+        <v>88</v>
+      </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:71">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -7927,11 +8091,14 @@
       <c r="BQ10" s="12">
         <v>440</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" s="12">
         <v>440</v>
       </c>
+      <c r="BS10" s="12">
+        <v>440</v>
+      </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:71">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
@@ -8103,11 +8270,14 @@
       <c r="BQ11" s="12">
         <v>250</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" s="12">
         <v>264</v>
       </c>
+      <c r="BS11" s="12">
+        <v>249</v>
+      </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:71">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -8279,11 +8449,14 @@
       <c r="BQ12" s="12">
         <v>190</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" s="12">
         <v>176</v>
       </c>
+      <c r="BS12" s="12">
+        <v>191</v>
+      </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:71">
       <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
@@ -8363,11 +8536,14 @@
       <c r="BQ13" s="12">
         <v>423</v>
       </c>
-      <c r="BR13">
+      <c r="BR13" s="12">
         <v>397</v>
       </c>
+      <c r="BS13" s="12">
+        <v>393</v>
+      </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:71">
       <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
@@ -8447,11 +8623,14 @@
       <c r="BQ14" s="12">
         <v>1887</v>
       </c>
-      <c r="BR14">
+      <c r="BR14" s="12">
         <v>1895</v>
       </c>
+      <c r="BS14" s="12">
+        <v>1874</v>
+      </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:71">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="12"/>
@@ -8521,8 +8700,10 @@
       <c r="BO15" s="12"/>
       <c r="BP15" s="12"/>
       <c r="BQ15" s="12"/>
+      <c r="BR15" s="12"/>
+      <c r="BS15" s="12"/>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:71">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="12"/>
@@ -8592,8 +8773,10 @@
       <c r="BO16" s="12"/>
       <c r="BP16" s="12"/>
       <c r="BQ16" s="12"/>
+      <c r="BR16" s="12"/>
+      <c r="BS16" s="12"/>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:71">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
         <v>46</v>
@@ -8665,8 +8848,10 @@
       <c r="BO17" s="12"/>
       <c r="BP17" s="12"/>
       <c r="BQ17" s="12"/>
+      <c r="BR17" s="12"/>
+      <c r="BS17" s="12"/>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:71">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -8740,8 +8925,10 @@
       <c r="BO18" s="12"/>
       <c r="BP18" s="12"/>
       <c r="BQ18" s="12"/>
+      <c r="BR18" s="12"/>
+      <c r="BS18" s="12"/>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:71">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -8915,11 +9102,14 @@
       <c r="BQ19" s="12">
         <v>104</v>
       </c>
-      <c r="BR19">
+      <c r="BR19" s="12">
         <v>104</v>
       </c>
+      <c r="BS19" s="12">
+        <v>104</v>
+      </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:71">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
@@ -9057,11 +9247,14 @@
       <c r="BQ20" s="12">
         <v>35</v>
       </c>
-      <c r="BR20">
+      <c r="BR20" s="12">
         <v>32</v>
       </c>
+      <c r="BS20" s="12">
+        <v>32</v>
+      </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:71">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -9199,11 +9392,14 @@
       <c r="BQ21" s="12">
         <v>69</v>
       </c>
-      <c r="BR21">
+      <c r="BR21" s="12">
         <v>72</v>
       </c>
+      <c r="BS21" s="12">
+        <v>72</v>
+      </c>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:71">
       <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
@@ -9371,11 +9567,14 @@
       <c r="BQ22" s="12">
         <v>115</v>
       </c>
-      <c r="BR22">
+      <c r="BR22" s="12">
         <v>108</v>
       </c>
+      <c r="BS22" s="12">
+        <v>100</v>
+      </c>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:71">
       <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
@@ -9543,11 +9742,14 @@
       <c r="BQ23" s="12">
         <v>150</v>
       </c>
-      <c r="BR23">
+      <c r="BR23" s="12">
         <v>140</v>
       </c>
+      <c r="BS23" s="12">
+        <v>132</v>
+      </c>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:71">
       <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
@@ -9715,11 +9917,14 @@
       <c r="BQ24" s="12">
         <v>1065</v>
       </c>
-      <c r="BR24">
+      <c r="BR24" s="12">
         <v>1075</v>
       </c>
+      <c r="BS24" s="12">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:71">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="12"/>
@@ -9789,8 +9994,10 @@
       <c r="BO25" s="12"/>
       <c r="BP25" s="12"/>
       <c r="BQ25" s="12"/>
+      <c r="BR25" s="12"/>
+      <c r="BS25" s="12"/>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:71">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>55</v>
@@ -9862,8 +10069,10 @@
       <c r="BO26" s="12"/>
       <c r="BP26" s="12"/>
       <c r="BQ26" s="12"/>
+      <c r="BR26" s="12"/>
+      <c r="BS26" s="12"/>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:71">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -10037,11 +10246,14 @@
       <c r="BQ27" s="12">
         <v>113</v>
       </c>
-      <c r="BR27">
+      <c r="BR27" s="12">
         <v>113</v>
       </c>
+      <c r="BS27" s="12">
+        <v>114</v>
+      </c>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:71">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
@@ -10179,11 +10391,14 @@
       <c r="BQ28" s="12">
         <v>38</v>
       </c>
-      <c r="BR28">
+      <c r="BR28" s="12">
         <v>35</v>
       </c>
+      <c r="BS28" s="12">
+        <v>36</v>
+      </c>
     </row>
-    <row r="29" spans="1:70">
+    <row r="29" spans="1:71">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -10321,11 +10536,14 @@
       <c r="BQ29" s="12">
         <v>75</v>
       </c>
-      <c r="BR29">
+      <c r="BR29" s="12">
         <v>78</v>
       </c>
+      <c r="BS29" s="12">
+        <v>78</v>
+      </c>
     </row>
-    <row r="30" spans="1:70">
+    <row r="30" spans="1:71">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
@@ -10493,11 +10711,14 @@
       <c r="BQ30" s="12">
         <v>51</v>
       </c>
-      <c r="BR30">
+      <c r="BR30" s="12">
         <v>56</v>
       </c>
+      <c r="BS30" s="12">
+        <v>51</v>
+      </c>
     </row>
-    <row r="31" spans="1:70">
+    <row r="31" spans="1:71">
       <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
@@ -10665,11 +10886,14 @@
       <c r="BQ31" s="12">
         <v>89</v>
       </c>
-      <c r="BR31">
+      <c r="BR31" s="12">
         <v>91</v>
       </c>
+      <c r="BS31" s="12">
+        <v>87</v>
+      </c>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:71">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
@@ -10837,11 +11061,14 @@
       <c r="BQ32" s="12">
         <v>1007</v>
       </c>
-      <c r="BR32">
+      <c r="BR32" s="12">
         <v>1036</v>
       </c>
+      <c r="BS32" s="12">
+        <v>1052</v>
+      </c>
     </row>
-    <row r="33" spans="1:70">
+    <row r="33" spans="1:71">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="12"/>
@@ -10911,8 +11138,10 @@
       <c r="BO33" s="12"/>
       <c r="BP33" s="12"/>
       <c r="BQ33" s="12"/>
+      <c r="BR33" s="12"/>
+      <c r="BS33" s="12"/>
     </row>
-    <row r="34" spans="1:70">
+    <row r="34" spans="1:71">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>60</v>
@@ -10984,8 +11213,10 @@
       <c r="BO34" s="12"/>
       <c r="BP34" s="12"/>
       <c r="BQ34" s="12"/>
+      <c r="BR34" s="12"/>
+      <c r="BS34" s="12"/>
     </row>
-    <row r="35" spans="1:70">
+    <row r="35" spans="1:71">
       <c r="A35" s="6" t="s">
         <v>61</v>
       </c>
@@ -11151,11 +11382,14 @@
       <c r="BQ35" s="12">
         <v>75</v>
       </c>
-      <c r="BR35">
+      <c r="BR35" s="12">
         <v>76</v>
       </c>
+      <c r="BS35" s="12">
+        <v>76</v>
+      </c>
     </row>
-    <row r="36" spans="1:70">
+    <row r="36" spans="1:71">
       <c r="A36" s="6" t="s">
         <v>61</v>
       </c>
@@ -11289,11 +11523,14 @@
       <c r="BQ36" s="12">
         <v>30</v>
       </c>
-      <c r="BR36">
+      <c r="BR36" s="12">
         <v>26</v>
       </c>
+      <c r="BS36" s="12">
+        <v>20</v>
+      </c>
     </row>
-    <row r="37" spans="1:70">
+    <row r="37" spans="1:71">
       <c r="A37" s="6" t="s">
         <v>61</v>
       </c>
@@ -11427,11 +11664,14 @@
       <c r="BQ37" s="12">
         <v>44</v>
       </c>
-      <c r="BR37">
+      <c r="BR37" s="12">
         <v>49</v>
       </c>
+      <c r="BS37" s="12">
+        <v>55</v>
+      </c>
     </row>
-    <row r="38" spans="1:70">
+    <row r="38" spans="1:71">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -11595,11 +11835,14 @@
       <c r="BQ38" s="12">
         <v>12</v>
       </c>
-      <c r="BR38">
+      <c r="BR38" s="12">
         <v>12</v>
       </c>
+      <c r="BS38" s="12">
+        <v>9</v>
+      </c>
     </row>
-    <row r="39" spans="1:70">
+    <row r="39" spans="1:71">
       <c r="A39" s="6" t="s">
         <v>61</v>
       </c>
@@ -11761,11 +12004,14 @@
       <c r="BQ39" s="12">
         <v>42</v>
       </c>
-      <c r="BR39">
+      <c r="BR39" s="12">
         <v>38</v>
       </c>
+      <c r="BS39" s="12">
+        <v>29</v>
+      </c>
     </row>
-    <row r="40" spans="1:70">
+    <row r="40" spans="1:71">
       <c r="A40" s="6" t="s">
         <v>61</v>
       </c>
@@ -11931,11 +12177,14 @@
       <c r="BQ40" s="12">
         <v>240</v>
       </c>
-      <c r="BR40">
+      <c r="BR40" s="12">
         <v>245</v>
       </c>
+      <c r="BS40" s="12">
+        <v>255</v>
+      </c>
     </row>
-    <row r="41" spans="1:70">
+    <row r="41" spans="1:71">
       <c r="A41" s="6" t="s">
         <v>61</v>
       </c>
@@ -12057,11 +12306,14 @@
       <c r="BQ41" s="12">
         <v>1</v>
       </c>
-      <c r="BR41">
+      <c r="BR41" s="12">
         <v>1</v>
       </c>
+      <c r="BS41" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:70">
+    <row r="42" spans="1:71">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="12"/>
@@ -12131,8 +12383,10 @@
       <c r="BO42" s="12"/>
       <c r="BP42" s="12"/>
       <c r="BQ42" s="12"/>
+      <c r="BR42" s="12"/>
+      <c r="BS42" s="12"/>
     </row>
-    <row r="43" spans="1:70">
+    <row r="43" spans="1:71">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
         <v>60</v>
@@ -12204,8 +12458,10 @@
       <c r="BO43" s="12"/>
       <c r="BP43" s="12"/>
       <c r="BQ43" s="12"/>
+      <c r="BR43" s="12"/>
+      <c r="BS43" s="12"/>
     </row>
-    <row r="44" spans="1:70">
+    <row r="44" spans="1:71">
       <c r="A44" s="6" t="s">
         <v>65</v>
       </c>
@@ -12375,11 +12631,14 @@
       <c r="BQ44" s="12">
         <v>179</v>
       </c>
-      <c r="BR44">
+      <c r="BR44" s="12">
         <v>182</v>
       </c>
+      <c r="BS44" s="12">
+        <v>180</v>
+      </c>
     </row>
-    <row r="45" spans="1:70">
+    <row r="45" spans="1:71">
       <c r="A45" s="6" t="s">
         <v>65</v>
       </c>
@@ -12517,11 +12776,14 @@
       <c r="BQ45" s="12">
         <v>40</v>
       </c>
-      <c r="BR45">
+      <c r="BR45" s="12">
         <v>38</v>
       </c>
+      <c r="BS45" s="12">
+        <v>32</v>
+      </c>
     </row>
-    <row r="46" spans="1:70">
+    <row r="46" spans="1:71">
       <c r="A46" s="6" t="s">
         <v>65</v>
       </c>
@@ -12659,11 +12921,14 @@
       <c r="BQ46" s="12">
         <v>134</v>
       </c>
-      <c r="BR46">
+      <c r="BR46" s="12">
         <v>138</v>
       </c>
+      <c r="BS46" s="12">
+        <v>142</v>
+      </c>
     </row>
-    <row r="47" spans="1:70">
+    <row r="47" spans="1:71">
       <c r="A47" s="6" t="s">
         <v>65</v>
       </c>
@@ -12831,11 +13096,14 @@
       <c r="BQ47" s="12">
         <v>828</v>
       </c>
-      <c r="BR47">
+      <c r="BR47" s="12">
         <v>755</v>
       </c>
+      <c r="BS47" s="12">
+        <v>756</v>
+      </c>
     </row>
-    <row r="48" spans="1:70">
+    <row r="48" spans="1:71">
       <c r="A48" s="6" t="s">
         <v>65</v>
       </c>
@@ -12973,11 +13241,14 @@
       <c r="BQ48" s="12">
         <v>868</v>
       </c>
-      <c r="BR48">
+      <c r="BR48" s="12">
         <v>793</v>
       </c>
+      <c r="BS48" s="12">
+        <v>788</v>
+      </c>
     </row>
-    <row r="49" spans="1:70">
+    <row r="49" spans="1:71">
       <c r="A49" s="6" t="s">
         <v>65</v>
       </c>
@@ -13113,11 +13384,14 @@
       <c r="BQ49" s="12">
         <v>481</v>
       </c>
-      <c r="BR49">
+      <c r="BR49" s="12">
         <v>534</v>
       </c>
+      <c r="BS49" s="12">
+        <v>538</v>
+      </c>
     </row>
-    <row r="50" spans="1:70">
+    <row r="50" spans="1:71">
       <c r="A50" s="6" t="s">
         <v>65</v>
       </c>
@@ -13249,11 +13523,14 @@
       <c r="BQ50" s="12">
         <v>1</v>
       </c>
-      <c r="BR50">
+      <c r="BR50" s="12">
         <v>1</v>
       </c>
+      <c r="BS50" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:70">
+    <row r="51" spans="1:71">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="12"/>
@@ -13323,8 +13600,10 @@
       <c r="BO51" s="12"/>
       <c r="BP51" s="12"/>
       <c r="BQ51" s="12"/>
+      <c r="BR51" s="12"/>
+      <c r="BS51" s="12"/>
     </row>
-    <row r="52" spans="1:70">
+    <row r="52" spans="1:71">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
         <v>73</v>
@@ -13396,8 +13675,10 @@
       <c r="BO52" s="12"/>
       <c r="BP52" s="12"/>
       <c r="BQ52" s="12"/>
+      <c r="BR52" s="12"/>
+      <c r="BS52" s="12"/>
     </row>
-    <row r="53" spans="1:70">
+    <row r="53" spans="1:71">
       <c r="A53" s="6" t="s">
         <v>74</v>
       </c>
@@ -13557,11 +13838,14 @@
       <c r="BQ53" s="12">
         <v>27</v>
       </c>
-      <c r="BR53">
+      <c r="BR53" s="12">
         <v>27</v>
       </c>
+      <c r="BS53" s="12">
+        <v>27</v>
+      </c>
     </row>
-    <row r="54" spans="1:70">
+    <row r="54" spans="1:71">
       <c r="A54" s="6" t="s">
         <v>74</v>
       </c>
@@ -13697,11 +13981,14 @@
       <c r="BQ54" s="12">
         <v>14</v>
       </c>
-      <c r="BR54">
+      <c r="BR54" s="12">
         <v>14</v>
       </c>
+      <c r="BS54" s="12">
+        <v>13</v>
+      </c>
     </row>
-    <row r="55" spans="1:70">
+    <row r="55" spans="1:71">
       <c r="A55" s="6" t="s">
         <v>74</v>
       </c>
@@ -13837,11 +14124,14 @@
       <c r="BQ55" s="12">
         <v>12</v>
       </c>
-      <c r="BR55">
+      <c r="BR55" s="12">
         <v>12</v>
       </c>
+      <c r="BS55" s="12">
+        <v>13</v>
+      </c>
     </row>
-    <row r="56" spans="1:70">
+    <row r="56" spans="1:71">
       <c r="A56" s="6" t="s">
         <v>74</v>
       </c>
@@ -14001,11 +14291,14 @@
       <c r="BQ56" s="12">
         <v>19</v>
       </c>
-      <c r="BR56">
+      <c r="BR56" s="12">
         <v>17</v>
       </c>
+      <c r="BS56" s="12">
+        <v>18</v>
+      </c>
     </row>
-    <row r="57" spans="1:70">
+    <row r="57" spans="1:71">
       <c r="A57" s="6" t="s">
         <v>74</v>
       </c>
@@ -14165,11 +14458,14 @@
       <c r="BQ57" s="12">
         <v>33</v>
       </c>
-      <c r="BR57">
+      <c r="BR57" s="12">
         <v>31</v>
       </c>
+      <c r="BS57" s="12">
+        <v>31</v>
+      </c>
     </row>
-    <row r="58" spans="1:70">
+    <row r="58" spans="1:71">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
@@ -14329,11 +14625,14 @@
       <c r="BQ58" s="12">
         <v>121</v>
       </c>
-      <c r="BR58">
+      <c r="BR58" s="12">
         <v>122</v>
       </c>
+      <c r="BS58" s="12">
+        <v>125</v>
+      </c>
     </row>
-    <row r="59" spans="1:70">
+    <row r="59" spans="1:71">
       <c r="A59" s="6" t="s">
         <v>74</v>
       </c>
@@ -14465,11 +14764,14 @@
       <c r="BQ59" s="12">
         <v>1</v>
       </c>
-      <c r="BR59">
+      <c r="BR59" s="12">
         <v>1</v>
       </c>
+      <c r="BS59" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:70">
+    <row r="60" spans="1:71">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="12"/>
@@ -14539,8 +14841,10 @@
       <c r="BO60" s="12"/>
       <c r="BP60" s="12"/>
       <c r="BQ60" s="12"/>
+      <c r="BR60" s="12"/>
+      <c r="BS60" s="12"/>
     </row>
-    <row r="61" spans="1:70">
+    <row r="61" spans="1:71">
       <c r="A61" s="6" t="s">
         <v>76</v>
       </c>
@@ -14700,11 +15004,14 @@
       <c r="BQ61" s="12">
         <v>10</v>
       </c>
-      <c r="BR61">
+      <c r="BR61" s="12">
         <v>10</v>
       </c>
+      <c r="BS61" s="12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="62" spans="1:70">
+    <row r="62" spans="1:71">
       <c r="A62" s="6" t="s">
         <v>76</v>
       </c>
@@ -14840,11 +15147,14 @@
       <c r="BQ62" s="12">
         <v>4</v>
       </c>
-      <c r="BR62">
+      <c r="BR62" s="12">
         <v>4</v>
       </c>
+      <c r="BS62" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="63" spans="1:70">
+    <row r="63" spans="1:71">
       <c r="A63" s="6" t="s">
         <v>76</v>
       </c>
@@ -14980,11 +15290,14 @@
       <c r="BQ63" s="12">
         <v>6</v>
       </c>
-      <c r="BR63">
+      <c r="BR63" s="12">
         <v>6</v>
       </c>
+      <c r="BS63" s="12">
+        <v>6</v>
+      </c>
     </row>
-    <row r="64" spans="1:70">
+    <row r="64" spans="1:71">
       <c r="A64" s="6" t="s">
         <v>76</v>
       </c>
@@ -15144,11 +15457,14 @@
       <c r="BQ64" s="12">
         <v>44</v>
       </c>
-      <c r="BR64">
+      <c r="BR64" s="12">
         <v>45</v>
       </c>
+      <c r="BS64" s="12">
+        <v>43</v>
+      </c>
     </row>
-    <row r="65" spans="1:70">
+    <row r="65" spans="1:71">
       <c r="A65" s="6" t="s">
         <v>76</v>
       </c>
@@ -15308,11 +15624,14 @@
       <c r="BQ65" s="12">
         <v>48</v>
       </c>
-      <c r="BR65">
+      <c r="BR65" s="12">
         <v>49</v>
       </c>
+      <c r="BS65" s="12">
+        <v>47</v>
+      </c>
     </row>
-    <row r="66" spans="1:70">
+    <row r="66" spans="1:71">
       <c r="A66" s="6" t="s">
         <v>76</v>
       </c>
@@ -15470,11 +15789,14 @@
       <c r="BQ66" s="12">
         <v>0</v>
       </c>
-      <c r="BR66">
+      <c r="BR66" s="12">
         <v>0</v>
       </c>
+      <c r="BS66" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:70">
+    <row r="67" spans="1:71">
       <c r="A67" s="6" t="s">
         <v>76</v>
       </c>
@@ -15610,11 +15932,14 @@
       <c r="BQ67" s="12">
         <v>0</v>
       </c>
-      <c r="BR67">
+      <c r="BR67" s="12">
         <v>0</v>
       </c>
+      <c r="BS67" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:70">
+    <row r="68" spans="1:71">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="12"/>
@@ -15684,8 +16009,10 @@
       <c r="BO68" s="12"/>
       <c r="BP68" s="12"/>
       <c r="BQ68" s="12"/>
+      <c r="BR68" s="12"/>
+      <c r="BS68" s="12"/>
     </row>
-    <row r="69" spans="1:70">
+    <row r="69" spans="1:71">
       <c r="A69" s="7"/>
       <c r="B69" s="6" t="s">
         <v>83</v>
@@ -15757,8 +16084,10 @@
       <c r="BO69" s="12"/>
       <c r="BP69" s="12"/>
       <c r="BQ69" s="12"/>
+      <c r="BR69" s="12"/>
+      <c r="BS69" s="12"/>
     </row>
-    <row r="70" spans="1:70">
+    <row r="70" spans="1:71">
       <c r="A70" s="6" t="s">
         <v>84</v>
       </c>
@@ -15918,11 +16247,14 @@
       <c r="BQ70" s="12">
         <v>267</v>
       </c>
-      <c r="BR70">
+      <c r="BR70" s="12">
         <v>269</v>
       </c>
+      <c r="BS70" s="12">
+        <v>272</v>
+      </c>
     </row>
-    <row r="71" spans="1:70">
+    <row r="71" spans="1:71">
       <c r="A71" s="6" t="s">
         <v>84</v>
       </c>
@@ -16082,11 +16414,14 @@
       <c r="BQ71" s="12">
         <v>323</v>
       </c>
-      <c r="BR71">
+      <c r="BR71" s="12">
         <v>330</v>
       </c>
+      <c r="BS71" s="12">
+        <v>327</v>
+      </c>
     </row>
-    <row r="72" spans="1:70">
+    <row r="72" spans="1:71">
       <c r="A72" s="6" t="s">
         <v>84</v>
       </c>
@@ -16246,11 +16581,14 @@
       <c r="BQ72" s="12">
         <v>319</v>
       </c>
-      <c r="BR72">
+      <c r="BR72" s="12">
         <v>312</v>
       </c>
+      <c r="BS72" s="12">
+        <v>326</v>
+      </c>
     </row>
-    <row r="73" spans="1:70">
+    <row r="73" spans="1:71">
       <c r="A73" s="6" t="s">
         <v>84</v>
       </c>
@@ -16382,11 +16720,14 @@
       <c r="BQ73" s="12">
         <v>15</v>
       </c>
-      <c r="BR73">
+      <c r="BR73" s="12">
         <v>15</v>
       </c>
+      <c r="BS73" s="12">
+        <v>15</v>
+      </c>
     </row>
-    <row r="74" spans="1:70">
+    <row r="74" spans="1:71">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="12"/>
@@ -16456,8 +16797,10 @@
       <c r="BO74" s="12"/>
       <c r="BP74" s="12"/>
       <c r="BQ74" s="12"/>
+      <c r="BR74" s="12"/>
+      <c r="BS74" s="12"/>
     </row>
-    <row r="75" spans="1:70">
+    <row r="75" spans="1:71">
       <c r="A75" s="6" t="s">
         <v>89</v>
       </c>
@@ -16617,11 +16960,14 @@
       <c r="BQ75" s="12">
         <v>84</v>
       </c>
-      <c r="BR75">
+      <c r="BR75" s="12">
         <v>84</v>
       </c>
+      <c r="BS75" s="12">
+        <v>87</v>
+      </c>
     </row>
-    <row r="76" spans="1:70">
+    <row r="76" spans="1:71">
       <c r="A76" s="6" t="s">
         <v>89</v>
       </c>
@@ -16781,11 +17127,14 @@
       <c r="BQ76" s="12">
         <v>19</v>
       </c>
-      <c r="BR76">
+      <c r="BR76" s="12">
         <v>19</v>
       </c>
+      <c r="BS76" s="12">
+        <v>13</v>
+      </c>
     </row>
-    <row r="77" spans="1:70">
+    <row r="77" spans="1:71">
       <c r="A77" s="6" t="s">
         <v>89</v>
       </c>
@@ -16945,11 +17294,14 @@
       <c r="BQ77" s="12">
         <v>103</v>
       </c>
-      <c r="BR77">
+      <c r="BR77" s="12">
         <v>103</v>
       </c>
+      <c r="BS77" s="12">
+        <v>100</v>
+      </c>
     </row>
-    <row r="78" spans="1:70">
+    <row r="78" spans="1:71">
       <c r="A78" s="6" t="s">
         <v>89</v>
       </c>
@@ -17101,11 +17453,14 @@
       <c r="BQ78" s="12">
         <v>157</v>
       </c>
-      <c r="BR78">
+      <c r="BR78" s="12">
         <v>157</v>
       </c>
+      <c r="BS78" s="12">
+        <v>163</v>
+      </c>
     </row>
-    <row r="79" spans="1:70">
+    <row r="79" spans="1:71">
       <c r="A79" s="6" t="s">
         <v>89</v>
       </c>
@@ -17181,11 +17536,14 @@
       <c r="BQ79" s="12">
         <v>1</v>
       </c>
-      <c r="BR79">
+      <c r="BR79" s="12">
         <v>1</v>
       </c>
+      <c r="BS79" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:70">
+    <row r="80" spans="1:71">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="12"/>
@@ -17255,7 +17613,7 @@
       <c r="BO80" s="12"/>
       <c r="BP80" s="12"/>
     </row>
-    <row r="81" spans="1:70">
+    <row r="81" spans="1:71">
       <c r="A81" s="6" t="s">
         <v>91</v>
       </c>
@@ -17415,11 +17773,14 @@
       <c r="BQ81" s="12">
         <v>79</v>
       </c>
-      <c r="BR81">
+      <c r="BR81" s="12">
         <v>79</v>
       </c>
+      <c r="BS81" s="12">
+        <v>79</v>
+      </c>
     </row>
-    <row r="82" spans="1:70">
+    <row r="82" spans="1:71">
       <c r="A82" s="6" t="s">
         <v>91</v>
       </c>
@@ -17579,11 +17940,14 @@
       <c r="BQ82" s="12">
         <v>56</v>
       </c>
-      <c r="BR82">
+      <c r="BR82" s="12">
         <v>56</v>
       </c>
+      <c r="BS82" s="12">
+        <v>56</v>
+      </c>
     </row>
-    <row r="83" spans="1:70">
+    <row r="83" spans="1:71">
       <c r="A83" s="6" t="s">
         <v>91</v>
       </c>
@@ -17721,11 +18085,14 @@
       <c r="BQ83" s="12">
         <v>142</v>
       </c>
-      <c r="BR83">
+      <c r="BR83" s="12">
         <v>142</v>
       </c>
+      <c r="BS83" s="12">
+        <v>142</v>
+      </c>
     </row>
-    <row r="84" spans="1:70">
+    <row r="84" spans="1:71">
       <c r="A84" s="6" t="s">
         <v>91</v>
       </c>
@@ -17859,11 +18226,14 @@
       <c r="BQ84" s="12">
         <v>5</v>
       </c>
-      <c r="BR84">
+      <c r="BR84" s="12">
         <v>5</v>
       </c>
+      <c r="BS84" s="12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="85" spans="1:70">
+    <row r="85" spans="1:71">
       <c r="A85" s="6" t="s">
         <v>91</v>
       </c>
@@ -18021,11 +18391,14 @@
       <c r="BQ85" s="12">
         <v>13</v>
       </c>
-      <c r="BR85">
+      <c r="BR85" s="12">
         <v>13</v>
       </c>
+      <c r="BS85" s="12">
+        <v>13</v>
+      </c>
     </row>
-    <row r="86" spans="1:70">
+    <row r="86" spans="1:71">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="12"/>
@@ -18095,8 +18468,10 @@
       <c r="BO86" s="12"/>
       <c r="BP86" s="12"/>
       <c r="BQ86" s="12"/>
+      <c r="BR86" s="12"/>
+      <c r="BS86" s="12"/>
     </row>
-    <row r="87" spans="1:70">
+    <row r="87" spans="1:71">
       <c r="A87" s="6" t="s">
         <v>98</v>
       </c>
@@ -18202,11 +18577,14 @@
       <c r="BQ87" s="12">
         <v>156</v>
       </c>
-      <c r="BR87">
+      <c r="BR87" s="12">
         <v>158</v>
       </c>
+      <c r="BS87" s="12">
+        <v>158</v>
+      </c>
     </row>
-    <row r="88" spans="1:70">
+    <row r="88" spans="1:71">
       <c r="A88" s="6" t="s">
         <v>98</v>
       </c>
@@ -18312,11 +18690,14 @@
       <c r="BQ88" s="12">
         <v>27</v>
       </c>
-      <c r="BR88">
+      <c r="BR88" s="12">
         <v>27</v>
       </c>
+      <c r="BS88" s="12">
+        <v>38</v>
+      </c>
     </row>
-    <row r="89" spans="1:70">
+    <row r="89" spans="1:71">
       <c r="A89" s="6" t="s">
         <v>98</v>
       </c>
@@ -18422,11 +18803,14 @@
       <c r="BQ89" s="12">
         <v>21</v>
       </c>
-      <c r="BR89">
+      <c r="BR89" s="12">
         <v>22</v>
       </c>
+      <c r="BS89" s="12">
+        <v>23</v>
+      </c>
     </row>
-    <row r="90" spans="1:70">
+    <row r="90" spans="1:71">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="12"/>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE5E46C-5875-DB4B-95CF-4C48FBF8A101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA15D384-6964-794A-BBC6-CBFC38C05A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54520" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -851,21 +851,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW26" sqref="AW26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU1" sqref="AU1:AU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="42" max="46" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="47" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:47">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -912,8 +912,9 @@
       <c r="AR1" s="5"/>
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
     </row>
-    <row r="2" spans="1:46" s="1" customFormat="1">
+    <row r="2" spans="1:47" s="1" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1052,8 +1053,11 @@
       <c r="AT2" s="5">
         <v>43965</v>
       </c>
+      <c r="AU2" s="5">
+        <v>43966</v>
+      </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:47">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1192,8 +1196,11 @@
       <c r="AT3" s="8">
         <v>924</v>
       </c>
+      <c r="AU3" s="8">
+        <v>951</v>
+      </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:47">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1332,8 +1339,11 @@
       <c r="AT4" s="8">
         <v>408</v>
       </c>
+      <c r="AU4" s="8">
+        <v>415</v>
+      </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:47">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1472,8 +1482,11 @@
       <c r="AT5" s="8">
         <v>364</v>
       </c>
+      <c r="AU5" s="8">
+        <v>368</v>
+      </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:47">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1612,8 +1625,11 @@
       <c r="AT6" s="8">
         <v>1409</v>
       </c>
+      <c r="AU6" s="8">
+        <v>1450</v>
+      </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:47">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1752,8 +1768,11 @@
       <c r="AT7" s="8">
         <v>1070</v>
       </c>
+      <c r="AU7" s="8">
+        <v>1087</v>
+      </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:47">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1892,8 +1911,11 @@
       <c r="AT8" s="8">
         <v>635</v>
       </c>
+      <c r="AU8" s="8">
+        <v>644</v>
+      </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:47">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2032,8 +2054,11 @@
       <c r="AT9" s="8">
         <v>989</v>
       </c>
+      <c r="AU9" s="8">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:47">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2172,8 +2197,11 @@
       <c r="AT10" s="8">
         <v>977</v>
       </c>
+      <c r="AU10" s="8">
+        <v>1010</v>
+      </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:47">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -2311,6 +2339,9 @@
       </c>
       <c r="AT11" s="8">
         <v>95</v>
+      </c>
+      <c r="AU11" s="8">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2355,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2359,16 +2390,16 @@
         <v>9</v>
       </c>
       <c r="B2" s="13">
-        <v>6871</v>
+        <v>7042</v>
       </c>
       <c r="C2" s="13">
-        <v>3366</v>
+        <v>3442</v>
       </c>
       <c r="D2" s="13">
-        <v>3488</v>
+        <v>3582</v>
       </c>
       <c r="E2" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="14">
         <v>2</v>
@@ -2399,13 +2430,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="13">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C4" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D4" s="8">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E4" s="12">
         <v>5</v>
@@ -2419,13 +2450,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="13">
-        <v>1131</v>
+        <v>1161</v>
       </c>
       <c r="C5" s="8">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="D5" s="8">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="E5" s="12">
         <v>4</v>
@@ -2439,16 +2470,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="13">
-        <v>1316</v>
+        <v>1341</v>
       </c>
       <c r="C6" s="8">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="D6" s="8">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="E6" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="12">
         <v>0</v>
@@ -2459,13 +2490,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="13">
-        <v>1077</v>
+        <v>1104</v>
       </c>
       <c r="C7" s="8">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="D7" s="8">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -2479,13 +2510,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="13">
-        <v>1154</v>
+        <v>1178</v>
       </c>
       <c r="C8" s="8">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="D8" s="8">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
@@ -2499,13 +2530,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="13">
-        <v>1001</v>
+        <v>1030</v>
       </c>
       <c r="C9" s="8">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D9" s="8">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -2519,13 +2550,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="13">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="C10" s="8">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D10" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
@@ -2539,13 +2570,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="13">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C11" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D11" s="8">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -2565,13 +2596,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AP19"/>
+  <dimension ref="A1:AQ19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO1" sqref="AO1:AP1048576"/>
+      <selection pane="bottomRight" activeCell="AT40" sqref="AT40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2583,7 +2614,7 @@
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -2710,8 +2741,11 @@
       <c r="AP1" s="5">
         <v>43965</v>
       </c>
+      <c r="AQ1" s="5">
+        <v>43966</v>
+      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
@@ -2838,8 +2872,11 @@
       <c r="AP2" s="8">
         <v>807</v>
       </c>
+      <c r="AQ2" s="8">
+        <v>838</v>
+      </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
@@ -2966,8 +3003,11 @@
       <c r="AP3" s="8">
         <v>1097</v>
       </c>
+      <c r="AQ3" s="8">
+        <v>1105</v>
+      </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:43">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -3094,8 +3134,11 @@
       <c r="AP4" s="8">
         <v>3258</v>
       </c>
+      <c r="AQ4" s="8">
+        <v>3325</v>
+      </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:43">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -3222,8 +3265,11 @@
       <c r="AP5" s="8">
         <v>95</v>
       </c>
+      <c r="AQ5" s="8">
+        <v>96</v>
+      </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:43">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -3350,8 +3396,11 @@
       <c r="AP6" s="8">
         <v>19</v>
       </c>
+      <c r="AQ6" s="8">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:43">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
@@ -3474,8 +3523,11 @@
       <c r="AP7" s="8">
         <v>15</v>
       </c>
+      <c r="AQ7" s="8">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:43">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -3602,8 +3654,11 @@
       <c r="AP8" s="8">
         <v>1538</v>
       </c>
+      <c r="AQ8" s="8">
+        <v>1602</v>
+      </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:43">
       <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
@@ -3730,8 +3785,11 @@
       <c r="AP9" s="8">
         <v>42</v>
       </c>
+      <c r="AQ9" s="8">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:43">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -3858,8 +3916,11 @@
       <c r="AP10" s="8">
         <v>1286</v>
       </c>
+      <c r="AQ10" s="8">
+        <v>1363</v>
+      </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:43">
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
@@ -3986,8 +4047,11 @@
       <c r="AP11" s="8">
         <v>1624</v>
       </c>
+      <c r="AQ11" s="8">
+        <v>1659</v>
+      </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:43">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
@@ -4114,8 +4178,11 @@
       <c r="AP12" s="8">
         <v>3938</v>
       </c>
+      <c r="AQ12" s="8">
+        <v>3997</v>
+      </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:43">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -4242,8 +4309,11 @@
       <c r="AP13" s="8">
         <v>23</v>
       </c>
+      <c r="AQ13" s="8">
+        <v>23</v>
+      </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:43">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -4286,8 +4356,9 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:43">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -4330,8 +4401,9 @@
       <c r="AN15" s="8"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:43">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -4374,6 +4446,7 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="11"/>
@@ -4392,11 +4465,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG29" sqref="AG29"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL39" sqref="AL39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4404,7 +4477,7 @@
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -4486,8 +4559,11 @@
       <c r="AA1" s="5">
         <v>43965</v>
       </c>
+      <c r="AB1" s="5">
+        <v>43966</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -4570,8 +4646,11 @@
       <c r="AA2" s="19">
         <v>368</v>
       </c>
+      <c r="AB2" s="19">
+        <v>375</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4653,8 +4732,11 @@
       <c r="AA3" s="8">
         <v>33</v>
       </c>
+      <c r="AB3" s="8">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4736,8 +4818,11 @@
       <c r="AA4" s="8">
         <v>20</v>
       </c>
+      <c r="AB4" s="8">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4819,8 +4904,11 @@
       <c r="AA5" s="8">
         <v>24</v>
       </c>
+      <c r="AB5" s="8">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4902,8 +4990,11 @@
       <c r="AA6" s="8">
         <v>49</v>
       </c>
+      <c r="AB6" s="8">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4985,8 +5076,11 @@
       <c r="AA7" s="8">
         <v>57</v>
       </c>
+      <c r="AB7" s="8">
+        <v>57</v>
+      </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -5068,8 +5162,11 @@
       <c r="AA8" s="8">
         <v>39</v>
       </c>
+      <c r="AB8" s="8">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -5151,8 +5248,11 @@
       <c r="AA9" s="8">
         <v>49</v>
       </c>
+      <c r="AB9" s="8">
+        <v>49</v>
+      </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -5234,8 +5334,11 @@
       <c r="AA10" s="8">
         <v>82</v>
       </c>
+      <c r="AB10" s="8">
+        <v>83</v>
+      </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
@@ -5317,8 +5420,11 @@
       <c r="AA11" s="8">
         <v>15</v>
       </c>
+      <c r="AB11" s="8">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:28">
       <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
@@ -5400,17 +5506,20 @@
       <c r="AA12" s="8">
         <v>0</v>
       </c>
+      <c r="AB12" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:28">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:28">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:28">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1">
@@ -5436,11 +5545,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AP21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT26" sqref="AT26"/>
+      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP1" sqref="AP1:AP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5448,7 +5557,7 @@
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:42">
       <c r="A1" s="9"/>
       <c r="B1" s="5">
         <v>43926</v>
@@ -5570,8 +5679,11 @@
       <c r="AO1" s="5">
         <v>43965</v>
       </c>
+      <c r="AP1" s="5">
+        <v>43966</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:42">
       <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
@@ -5615,8 +5727,9 @@
       <c r="AM2" s="4"/>
       <c r="AN2" s="4"/>
       <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:42">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -5740,8 +5853,11 @@
       <c r="AO3" s="8">
         <v>6</v>
       </c>
+      <c r="AP3" s="8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:42">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -5865,8 +5981,11 @@
       <c r="AO4" s="8">
         <v>283</v>
       </c>
+      <c r="AP4" s="8">
+        <v>288</v>
+      </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:42">
       <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
@@ -5990,8 +6109,11 @@
       <c r="AO5" s="8">
         <v>37</v>
       </c>
+      <c r="AP5" s="8">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:42">
       <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
@@ -6115,8 +6237,11 @@
       <c r="AO6" s="8">
         <v>40</v>
       </c>
+      <c r="AP6" s="8">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -6238,8 +6363,11 @@
       <c r="AO7" s="8">
         <v>2</v>
       </c>
+      <c r="AP7" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:42">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -6281,8 +6409,9 @@
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:42">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -6324,8 +6453,9 @@
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:42">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -6367,8 +6497,9 @@
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -6410,20 +6541,21 @@
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
       <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:42">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:42">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:42">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:42">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:42">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1">
@@ -6449,11 +6581,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS90"/>
+  <dimension ref="A1:BT90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BW23" sqref="BW23"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BV13" sqref="BV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6463,10 +6595,10 @@
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="71" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="72" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:72">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -6676,8 +6808,11 @@
       <c r="BS1" s="5">
         <v>43965</v>
       </c>
+      <c r="BT1" s="5">
+        <v>43966</v>
+      </c>
     </row>
-    <row r="2" spans="1:71">
+    <row r="2" spans="1:72">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -6751,8 +6886,9 @@
       <c r="BQ2" s="4"/>
       <c r="BR2" s="4"/>
       <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
     </row>
-    <row r="3" spans="1:71">
+    <row r="3" spans="1:72">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -6954,8 +7090,11 @@
       <c r="BS3" s="12">
         <v>34339</v>
       </c>
+      <c r="BT3" s="12">
+        <v>35532</v>
+      </c>
     </row>
-    <row r="4" spans="1:71">
+    <row r="4" spans="1:72">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -7169,8 +7308,11 @@
       <c r="BS4" s="12">
         <v>6871</v>
       </c>
+      <c r="BT4" s="12">
+        <v>7042</v>
+      </c>
     </row>
-    <row r="5" spans="1:71">
+    <row r="5" spans="1:72">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -7372,8 +7514,11 @@
       <c r="BS5" s="12">
         <v>368</v>
       </c>
+      <c r="BT5" s="12">
+        <v>375</v>
+      </c>
     </row>
-    <row r="6" spans="1:71">
+    <row r="6" spans="1:72">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -7555,8 +7700,11 @@
       <c r="BS6" s="12">
         <v>975</v>
       </c>
+      <c r="BT6" s="12">
+        <v>998</v>
+      </c>
     </row>
-    <row r="7" spans="1:71">
+    <row r="7" spans="1:72">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -7628,8 +7776,9 @@
       <c r="BQ7" s="12"/>
       <c r="BR7" s="12"/>
       <c r="BS7" s="12"/>
+      <c r="BT7" s="12"/>
     </row>
-    <row r="8" spans="1:71">
+    <row r="8" spans="1:72">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -7739,8 +7888,11 @@
       <c r="BS8" s="12">
         <v>345</v>
       </c>
+      <c r="BT8" s="12">
+        <v>345</v>
+      </c>
     </row>
-    <row r="9" spans="1:71">
+    <row r="9" spans="1:72">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -7918,8 +8070,11 @@
       <c r="BS9" s="12">
         <v>88</v>
       </c>
+      <c r="BT9" s="12">
+        <v>86</v>
+      </c>
     </row>
-    <row r="10" spans="1:71">
+    <row r="10" spans="1:72">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -8097,8 +8252,11 @@
       <c r="BS10" s="12">
         <v>440</v>
       </c>
+      <c r="BT10" s="12">
+        <v>440</v>
+      </c>
     </row>
-    <row r="11" spans="1:71">
+    <row r="11" spans="1:72">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
@@ -8276,8 +8434,11 @@
       <c r="BS11" s="12">
         <v>249</v>
       </c>
+      <c r="BT11" s="12">
+        <v>251</v>
+      </c>
     </row>
-    <row r="12" spans="1:71">
+    <row r="12" spans="1:72">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -8455,8 +8616,11 @@
       <c r="BS12" s="12">
         <v>191</v>
       </c>
+      <c r="BT12" s="12">
+        <v>189</v>
+      </c>
     </row>
-    <row r="13" spans="1:71">
+    <row r="13" spans="1:72">
       <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
@@ -8542,8 +8706,11 @@
       <c r="BS13" s="12">
         <v>393</v>
       </c>
+      <c r="BT13" s="12">
+        <v>382</v>
+      </c>
     </row>
-    <row r="14" spans="1:71">
+    <row r="14" spans="1:72">
       <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
@@ -8629,8 +8796,11 @@
       <c r="BS14" s="12">
         <v>1874</v>
       </c>
+      <c r="BT14" s="12">
+        <v>1862</v>
+      </c>
     </row>
-    <row r="15" spans="1:71">
+    <row r="15" spans="1:72">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="12"/>
@@ -8702,8 +8872,9 @@
       <c r="BQ15" s="12"/>
       <c r="BR15" s="12"/>
       <c r="BS15" s="12"/>
+      <c r="BT15" s="12"/>
     </row>
-    <row r="16" spans="1:71">
+    <row r="16" spans="1:72">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="12"/>
@@ -8775,8 +8946,9 @@
       <c r="BQ16" s="12"/>
       <c r="BR16" s="12"/>
       <c r="BS16" s="12"/>
+      <c r="BT16" s="12"/>
     </row>
-    <row r="17" spans="1:71">
+    <row r="17" spans="1:72">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
         <v>46</v>
@@ -8850,8 +9022,9 @@
       <c r="BQ17" s="12"/>
       <c r="BR17" s="12"/>
       <c r="BS17" s="12"/>
+      <c r="BT17" s="12"/>
     </row>
-    <row r="18" spans="1:71">
+    <row r="18" spans="1:72">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -8927,8 +9100,9 @@
       <c r="BQ18" s="12"/>
       <c r="BR18" s="12"/>
       <c r="BS18" s="12"/>
+      <c r="BT18" s="12"/>
     </row>
-    <row r="19" spans="1:71">
+    <row r="19" spans="1:72">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -9108,8 +9282,11 @@
       <c r="BS19" s="12">
         <v>104</v>
       </c>
+      <c r="BT19" s="12">
+        <v>104</v>
+      </c>
     </row>
-    <row r="20" spans="1:71">
+    <row r="20" spans="1:72">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
@@ -9253,8 +9430,11 @@
       <c r="BS20" s="12">
         <v>32</v>
       </c>
+      <c r="BT20" s="12">
+        <v>32</v>
+      </c>
     </row>
-    <row r="21" spans="1:71">
+    <row r="21" spans="1:72">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -9398,8 +9578,11 @@
       <c r="BS21" s="12">
         <v>72</v>
       </c>
+      <c r="BT21" s="12">
+        <v>72</v>
+      </c>
     </row>
-    <row r="22" spans="1:71">
+    <row r="22" spans="1:72">
       <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
@@ -9573,8 +9756,11 @@
       <c r="BS22" s="12">
         <v>100</v>
       </c>
+      <c r="BT22" s="12">
+        <v>88</v>
+      </c>
     </row>
-    <row r="23" spans="1:71">
+    <row r="23" spans="1:72">
       <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
@@ -9748,8 +9934,11 @@
       <c r="BS23" s="12">
         <v>132</v>
       </c>
+      <c r="BT23" s="12">
+        <v>120</v>
+      </c>
     </row>
-    <row r="24" spans="1:71">
+    <row r="24" spans="1:72">
       <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
@@ -9923,8 +10112,11 @@
       <c r="BS24" s="12">
         <v>1102</v>
       </c>
+      <c r="BT24" s="12">
+        <v>1125</v>
+      </c>
     </row>
-    <row r="25" spans="1:71">
+    <row r="25" spans="1:72">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="12"/>
@@ -9996,8 +10188,9 @@
       <c r="BQ25" s="12"/>
       <c r="BR25" s="12"/>
       <c r="BS25" s="12"/>
+      <c r="BT25" s="12"/>
     </row>
-    <row r="26" spans="1:71">
+    <row r="26" spans="1:72">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>55</v>
@@ -10071,8 +10264,9 @@
       <c r="BQ26" s="12"/>
       <c r="BR26" s="12"/>
       <c r="BS26" s="12"/>
+      <c r="BT26" s="12"/>
     </row>
-    <row r="27" spans="1:71">
+    <row r="27" spans="1:72">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -10252,8 +10446,11 @@
       <c r="BS27" s="12">
         <v>114</v>
       </c>
+      <c r="BT27" s="12">
+        <v>116</v>
+      </c>
     </row>
-    <row r="28" spans="1:71">
+    <row r="28" spans="1:72">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
@@ -10397,8 +10594,11 @@
       <c r="BS28" s="12">
         <v>36</v>
       </c>
+      <c r="BT28" s="12">
+        <v>38</v>
+      </c>
     </row>
-    <row r="29" spans="1:71">
+    <row r="29" spans="1:72">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -10542,8 +10742,11 @@
       <c r="BS29" s="12">
         <v>78</v>
       </c>
+      <c r="BT29" s="12">
+        <v>78</v>
+      </c>
     </row>
-    <row r="30" spans="1:71">
+    <row r="30" spans="1:72">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
@@ -10717,8 +10920,11 @@
       <c r="BS30" s="12">
         <v>51</v>
       </c>
+      <c r="BT30" s="12">
+        <v>43</v>
+      </c>
     </row>
-    <row r="31" spans="1:71">
+    <row r="31" spans="1:72">
       <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
@@ -10892,8 +11098,11 @@
       <c r="BS31" s="12">
         <v>87</v>
       </c>
+      <c r="BT31" s="12">
+        <v>81</v>
+      </c>
     </row>
-    <row r="32" spans="1:71">
+    <row r="32" spans="1:72">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
@@ -11067,8 +11276,11 @@
       <c r="BS32" s="12">
         <v>1052</v>
       </c>
+      <c r="BT32" s="12">
+        <v>1068</v>
+      </c>
     </row>
-    <row r="33" spans="1:71">
+    <row r="33" spans="1:72">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="12"/>
@@ -11140,8 +11352,9 @@
       <c r="BQ33" s="12"/>
       <c r="BR33" s="12"/>
       <c r="BS33" s="12"/>
+      <c r="BT33" s="12"/>
     </row>
-    <row r="34" spans="1:71">
+    <row r="34" spans="1:72">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>60</v>
@@ -11215,8 +11428,9 @@
       <c r="BQ34" s="12"/>
       <c r="BR34" s="12"/>
       <c r="BS34" s="12"/>
+      <c r="BT34" s="12"/>
     </row>
-    <row r="35" spans="1:71">
+    <row r="35" spans="1:72">
       <c r="A35" s="6" t="s">
         <v>61</v>
       </c>
@@ -11388,8 +11602,11 @@
       <c r="BS35" s="12">
         <v>76</v>
       </c>
+      <c r="BT35" s="12">
+        <v>76</v>
+      </c>
     </row>
-    <row r="36" spans="1:71">
+    <row r="36" spans="1:72">
       <c r="A36" s="6" t="s">
         <v>61</v>
       </c>
@@ -11529,8 +11746,11 @@
       <c r="BS36" s="12">
         <v>20</v>
       </c>
+      <c r="BT36" s="12">
+        <v>20</v>
+      </c>
     </row>
-    <row r="37" spans="1:71">
+    <row r="37" spans="1:72">
       <c r="A37" s="6" t="s">
         <v>61</v>
       </c>
@@ -11670,8 +11890,11 @@
       <c r="BS37" s="12">
         <v>55</v>
       </c>
+      <c r="BT37" s="12">
+        <v>55</v>
+      </c>
     </row>
-    <row r="38" spans="1:71">
+    <row r="38" spans="1:72">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -11841,8 +12064,11 @@
       <c r="BS38" s="12">
         <v>9</v>
       </c>
+      <c r="BT38" s="12">
+        <v>6</v>
+      </c>
     </row>
-    <row r="39" spans="1:71">
+    <row r="39" spans="1:72">
       <c r="A39" s="6" t="s">
         <v>61</v>
       </c>
@@ -12010,8 +12236,11 @@
       <c r="BS39" s="12">
         <v>29</v>
       </c>
+      <c r="BT39" s="12">
+        <v>26</v>
+      </c>
     </row>
-    <row r="40" spans="1:71">
+    <row r="40" spans="1:72">
       <c r="A40" s="6" t="s">
         <v>61</v>
       </c>
@@ -12183,8 +12412,11 @@
       <c r="BS40" s="12">
         <v>255</v>
       </c>
+      <c r="BT40" s="12">
+        <v>258</v>
+      </c>
     </row>
-    <row r="41" spans="1:71">
+    <row r="41" spans="1:72">
       <c r="A41" s="6" t="s">
         <v>61</v>
       </c>
@@ -12312,8 +12544,11 @@
       <c r="BS41" s="12">
         <v>1</v>
       </c>
+      <c r="BT41" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:71">
+    <row r="42" spans="1:72">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="12"/>
@@ -12385,8 +12620,9 @@
       <c r="BQ42" s="12"/>
       <c r="BR42" s="12"/>
       <c r="BS42" s="12"/>
+      <c r="BT42" s="12"/>
     </row>
-    <row r="43" spans="1:71">
+    <row r="43" spans="1:72">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
         <v>60</v>
@@ -12460,8 +12696,9 @@
       <c r="BQ43" s="12"/>
       <c r="BR43" s="12"/>
       <c r="BS43" s="12"/>
+      <c r="BT43" s="12"/>
     </row>
-    <row r="44" spans="1:71">
+    <row r="44" spans="1:72">
       <c r="A44" s="6" t="s">
         <v>65</v>
       </c>
@@ -12637,8 +12874,11 @@
       <c r="BS44" s="12">
         <v>180</v>
       </c>
+      <c r="BT44" s="12">
+        <v>184</v>
+      </c>
     </row>
-    <row r="45" spans="1:71">
+    <row r="45" spans="1:72">
       <c r="A45" s="6" t="s">
         <v>65</v>
       </c>
@@ -12782,8 +13022,11 @@
       <c r="BS45" s="12">
         <v>32</v>
       </c>
+      <c r="BT45" s="12">
+        <v>31</v>
+      </c>
     </row>
-    <row r="46" spans="1:71">
+    <row r="46" spans="1:72">
       <c r="A46" s="6" t="s">
         <v>65</v>
       </c>
@@ -12927,8 +13170,11 @@
       <c r="BS46" s="12">
         <v>142</v>
       </c>
+      <c r="BT46" s="12">
+        <v>147</v>
+      </c>
     </row>
-    <row r="47" spans="1:71">
+    <row r="47" spans="1:72">
       <c r="A47" s="6" t="s">
         <v>65</v>
       </c>
@@ -13102,8 +13348,11 @@
       <c r="BS47" s="12">
         <v>756</v>
       </c>
+      <c r="BT47" s="12">
+        <v>761</v>
+      </c>
     </row>
-    <row r="48" spans="1:71">
+    <row r="48" spans="1:72">
       <c r="A48" s="6" t="s">
         <v>65</v>
       </c>
@@ -13247,8 +13496,11 @@
       <c r="BS48" s="12">
         <v>788</v>
       </c>
+      <c r="BT48" s="12">
+        <v>792</v>
+      </c>
     </row>
-    <row r="49" spans="1:71">
+    <row r="49" spans="1:72">
       <c r="A49" s="6" t="s">
         <v>65</v>
       </c>
@@ -13390,8 +13642,11 @@
       <c r="BS49" s="12">
         <v>538</v>
       </c>
+      <c r="BT49" s="12">
+        <v>535</v>
+      </c>
     </row>
-    <row r="50" spans="1:71">
+    <row r="50" spans="1:72">
       <c r="A50" s="6" t="s">
         <v>65</v>
       </c>
@@ -13529,8 +13784,11 @@
       <c r="BS50" s="12">
         <v>1</v>
       </c>
+      <c r="BT50" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:71">
+    <row r="51" spans="1:72">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="12"/>
@@ -13602,8 +13860,9 @@
       <c r="BQ51" s="12"/>
       <c r="BR51" s="12"/>
       <c r="BS51" s="12"/>
+      <c r="BT51" s="12"/>
     </row>
-    <row r="52" spans="1:71">
+    <row r="52" spans="1:72">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
         <v>73</v>
@@ -13677,8 +13936,9 @@
       <c r="BQ52" s="12"/>
       <c r="BR52" s="12"/>
       <c r="BS52" s="12"/>
+      <c r="BT52" s="12"/>
     </row>
-    <row r="53" spans="1:71">
+    <row r="53" spans="1:72">
       <c r="A53" s="6" t="s">
         <v>74</v>
       </c>
@@ -13844,8 +14104,11 @@
       <c r="BS53" s="12">
         <v>27</v>
       </c>
+      <c r="BT53" s="12">
+        <v>27</v>
+      </c>
     </row>
-    <row r="54" spans="1:71">
+    <row r="54" spans="1:72">
       <c r="A54" s="6" t="s">
         <v>74</v>
       </c>
@@ -13987,8 +14250,11 @@
       <c r="BS54" s="12">
         <v>13</v>
       </c>
+      <c r="BT54" s="12">
+        <v>13</v>
+      </c>
     </row>
-    <row r="55" spans="1:71">
+    <row r="55" spans="1:72">
       <c r="A55" s="6" t="s">
         <v>74</v>
       </c>
@@ -14130,8 +14396,11 @@
       <c r="BS55" s="12">
         <v>13</v>
       </c>
+      <c r="BT55" s="12">
+        <v>13</v>
+      </c>
     </row>
-    <row r="56" spans="1:71">
+    <row r="56" spans="1:72">
       <c r="A56" s="6" t="s">
         <v>74</v>
       </c>
@@ -14297,8 +14566,11 @@
       <c r="BS56" s="12">
         <v>18</v>
       </c>
+      <c r="BT56" s="12">
+        <v>18</v>
+      </c>
     </row>
-    <row r="57" spans="1:71">
+    <row r="57" spans="1:72">
       <c r="A57" s="6" t="s">
         <v>74</v>
       </c>
@@ -14464,8 +14736,11 @@
       <c r="BS57" s="12">
         <v>31</v>
       </c>
+      <c r="BT57" s="12">
+        <v>31</v>
+      </c>
     </row>
-    <row r="58" spans="1:71">
+    <row r="58" spans="1:72">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
@@ -14631,8 +14906,11 @@
       <c r="BS58" s="12">
         <v>125</v>
       </c>
+      <c r="BT58" s="12">
+        <v>125</v>
+      </c>
     </row>
-    <row r="59" spans="1:71">
+    <row r="59" spans="1:72">
       <c r="A59" s="6" t="s">
         <v>74</v>
       </c>
@@ -14770,8 +15048,11 @@
       <c r="BS59" s="12">
         <v>1</v>
       </c>
+      <c r="BT59" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:71">
+    <row r="60" spans="1:72">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="12"/>
@@ -14843,8 +15124,9 @@
       <c r="BQ60" s="12"/>
       <c r="BR60" s="12"/>
       <c r="BS60" s="12"/>
+      <c r="BT60" s="12"/>
     </row>
-    <row r="61" spans="1:71">
+    <row r="61" spans="1:72">
       <c r="A61" s="6" t="s">
         <v>76</v>
       </c>
@@ -15010,8 +15292,11 @@
       <c r="BS61" s="12">
         <v>10</v>
       </c>
+      <c r="BT61" s="12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="62" spans="1:71">
+    <row r="62" spans="1:72">
       <c r="A62" s="6" t="s">
         <v>76</v>
       </c>
@@ -15153,8 +15438,11 @@
       <c r="BS62" s="12">
         <v>4</v>
       </c>
+      <c r="BT62" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="63" spans="1:71">
+    <row r="63" spans="1:72">
       <c r="A63" s="6" t="s">
         <v>76</v>
       </c>
@@ -15296,8 +15584,11 @@
       <c r="BS63" s="12">
         <v>6</v>
       </c>
+      <c r="BT63" s="12">
+        <v>6</v>
+      </c>
     </row>
-    <row r="64" spans="1:71">
+    <row r="64" spans="1:72">
       <c r="A64" s="6" t="s">
         <v>76</v>
       </c>
@@ -15463,8 +15754,11 @@
       <c r="BS64" s="12">
         <v>43</v>
       </c>
+      <c r="BT64" s="12">
+        <v>42</v>
+      </c>
     </row>
-    <row r="65" spans="1:71">
+    <row r="65" spans="1:72">
       <c r="A65" s="6" t="s">
         <v>76</v>
       </c>
@@ -15630,8 +15924,11 @@
       <c r="BS65" s="12">
         <v>47</v>
       </c>
+      <c r="BT65" s="12">
+        <v>46</v>
+      </c>
     </row>
-    <row r="66" spans="1:71">
+    <row r="66" spans="1:72">
       <c r="A66" s="6" t="s">
         <v>76</v>
       </c>
@@ -15795,8 +16092,11 @@
       <c r="BS66" s="12">
         <v>0</v>
       </c>
+      <c r="BT66" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:71">
+    <row r="67" spans="1:72">
       <c r="A67" s="6" t="s">
         <v>76</v>
       </c>
@@ -15938,8 +16238,11 @@
       <c r="BS67" s="12">
         <v>0</v>
       </c>
+      <c r="BT67" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:71">
+    <row r="68" spans="1:72">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="12"/>
@@ -16011,8 +16314,9 @@
       <c r="BQ68" s="12"/>
       <c r="BR68" s="12"/>
       <c r="BS68" s="12"/>
+      <c r="BT68" s="12"/>
     </row>
-    <row r="69" spans="1:71">
+    <row r="69" spans="1:72">
       <c r="A69" s="7"/>
       <c r="B69" s="6" t="s">
         <v>83</v>
@@ -16086,8 +16390,9 @@
       <c r="BQ69" s="12"/>
       <c r="BR69" s="12"/>
       <c r="BS69" s="12"/>
+      <c r="BT69" s="12"/>
     </row>
-    <row r="70" spans="1:71">
+    <row r="70" spans="1:72">
       <c r="A70" s="6" t="s">
         <v>84</v>
       </c>
@@ -16253,8 +16558,11 @@
       <c r="BS70" s="12">
         <v>272</v>
       </c>
+      <c r="BT70" s="12">
+        <v>277</v>
+      </c>
     </row>
-    <row r="71" spans="1:71">
+    <row r="71" spans="1:72">
       <c r="A71" s="6" t="s">
         <v>84</v>
       </c>
@@ -16420,8 +16728,11 @@
       <c r="BS71" s="12">
         <v>327</v>
       </c>
+      <c r="BT71" s="12">
+        <v>321</v>
+      </c>
     </row>
-    <row r="72" spans="1:71">
+    <row r="72" spans="1:72">
       <c r="A72" s="6" t="s">
         <v>84</v>
       </c>
@@ -16587,8 +16898,11 @@
       <c r="BS72" s="12">
         <v>326</v>
       </c>
+      <c r="BT72" s="12">
+        <v>312</v>
+      </c>
     </row>
-    <row r="73" spans="1:71">
+    <row r="73" spans="1:72">
       <c r="A73" s="6" t="s">
         <v>84</v>
       </c>
@@ -16726,8 +17040,11 @@
       <c r="BS73" s="12">
         <v>15</v>
       </c>
+      <c r="BT73" s="12">
+        <v>15</v>
+      </c>
     </row>
-    <row r="74" spans="1:71">
+    <row r="74" spans="1:72">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="12"/>
@@ -16799,8 +17116,9 @@
       <c r="BQ74" s="12"/>
       <c r="BR74" s="12"/>
       <c r="BS74" s="12"/>
+      <c r="BT74" s="12"/>
     </row>
-    <row r="75" spans="1:71">
+    <row r="75" spans="1:72">
       <c r="A75" s="6" t="s">
         <v>89</v>
       </c>
@@ -16966,8 +17284,11 @@
       <c r="BS75" s="12">
         <v>87</v>
       </c>
+      <c r="BT75" s="12">
+        <v>95</v>
+      </c>
     </row>
-    <row r="76" spans="1:71">
+    <row r="76" spans="1:72">
       <c r="A76" s="6" t="s">
         <v>89</v>
       </c>
@@ -17133,8 +17454,11 @@
       <c r="BS76" s="12">
         <v>13</v>
       </c>
+      <c r="BT76" s="12">
+        <v>15</v>
+      </c>
     </row>
-    <row r="77" spans="1:71">
+    <row r="77" spans="1:72">
       <c r="A77" s="6" t="s">
         <v>89</v>
       </c>
@@ -17300,8 +17624,11 @@
       <c r="BS77" s="12">
         <v>100</v>
       </c>
+      <c r="BT77" s="12">
+        <v>108</v>
+      </c>
     </row>
-    <row r="78" spans="1:71">
+    <row r="78" spans="1:72">
       <c r="A78" s="6" t="s">
         <v>89</v>
       </c>
@@ -17459,8 +17786,11 @@
       <c r="BS78" s="12">
         <v>163</v>
       </c>
+      <c r="BT78" s="12">
+        <v>163</v>
+      </c>
     </row>
-    <row r="79" spans="1:71">
+    <row r="79" spans="1:72">
       <c r="A79" s="6" t="s">
         <v>89</v>
       </c>
@@ -17542,8 +17872,11 @@
       <c r="BS79" s="12">
         <v>1</v>
       </c>
+      <c r="BT79" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:71">
+    <row r="80" spans="1:72">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="12"/>
@@ -17613,7 +17946,7 @@
       <c r="BO80" s="12"/>
       <c r="BP80" s="12"/>
     </row>
-    <row r="81" spans="1:71">
+    <row r="81" spans="1:72">
       <c r="A81" s="6" t="s">
         <v>91</v>
       </c>
@@ -17779,8 +18112,11 @@
       <c r="BS81" s="12">
         <v>79</v>
       </c>
+      <c r="BT81" s="12">
+        <v>79</v>
+      </c>
     </row>
-    <row r="82" spans="1:71">
+    <row r="82" spans="1:72">
       <c r="A82" s="6" t="s">
         <v>91</v>
       </c>
@@ -17946,8 +18282,11 @@
       <c r="BS82" s="12">
         <v>56</v>
       </c>
+      <c r="BT82" s="12">
+        <v>56</v>
+      </c>
     </row>
-    <row r="83" spans="1:71">
+    <row r="83" spans="1:72">
       <c r="A83" s="6" t="s">
         <v>91</v>
       </c>
@@ -18091,8 +18430,11 @@
       <c r="BS83" s="12">
         <v>142</v>
       </c>
+      <c r="BT83" s="12">
+        <v>142</v>
+      </c>
     </row>
-    <row r="84" spans="1:71">
+    <row r="84" spans="1:72">
       <c r="A84" s="6" t="s">
         <v>91</v>
       </c>
@@ -18232,8 +18574,11 @@
       <c r="BS84" s="12">
         <v>5</v>
       </c>
+      <c r="BT84" s="12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="85" spans="1:71">
+    <row r="85" spans="1:72">
       <c r="A85" s="6" t="s">
         <v>91</v>
       </c>
@@ -18397,8 +18742,11 @@
       <c r="BS85" s="12">
         <v>13</v>
       </c>
+      <c r="BT85" s="12">
+        <v>13</v>
+      </c>
     </row>
-    <row r="86" spans="1:71">
+    <row r="86" spans="1:72">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="12"/>
@@ -18470,8 +18818,9 @@
       <c r="BQ86" s="12"/>
       <c r="BR86" s="12"/>
       <c r="BS86" s="12"/>
+      <c r="BT86" s="12"/>
     </row>
-    <row r="87" spans="1:71">
+    <row r="87" spans="1:72">
       <c r="A87" s="6" t="s">
         <v>98</v>
       </c>
@@ -18583,8 +18932,11 @@
       <c r="BS87" s="12">
         <v>158</v>
       </c>
+      <c r="BT87" s="12">
+        <v>168</v>
+      </c>
     </row>
-    <row r="88" spans="1:71">
+    <row r="88" spans="1:72">
       <c r="A88" s="6" t="s">
         <v>98</v>
       </c>
@@ -18696,8 +19048,11 @@
       <c r="BS88" s="12">
         <v>38</v>
       </c>
+      <c r="BT88" s="12">
+        <v>38</v>
+      </c>
     </row>
-    <row r="89" spans="1:71">
+    <row r="89" spans="1:72">
       <c r="A89" s="6" t="s">
         <v>98</v>
       </c>
@@ -18809,8 +19164,11 @@
       <c r="BS89" s="12">
         <v>23</v>
       </c>
+      <c r="BT89" s="12">
+        <v>24</v>
+      </c>
     </row>
-    <row r="90" spans="1:71">
+    <row r="90" spans="1:72">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="12"/>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,18 +10,18 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA15D384-6964-794A-BBC6-CBFC38C05A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
     <sheet name="Total Cases by Ward" sheetId="2" r:id="rId2"/>
     <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId3"/>
-    <sheet name="Total Cases by Race" sheetId="3" r:id="rId4"/>
-    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId5"/>
-    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId6"/>
+    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId4"/>
+    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId5"/>
+    <sheet name="Total Cases by Race" sheetId="3" r:id="rId6"/>
     <sheet name="Overall Stats" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,22 +95,31 @@
     <t>81+</t>
   </si>
   <si>
+    <t>Homeless</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Hispanic/Latinx</t>
+  </si>
+  <si>
+    <t>Non-Hispanic White</t>
+  </si>
+  <si>
     <t>Race/Ethnicity Category</t>
   </si>
   <si>
     <t>Race/Ethnicity Values</t>
   </si>
   <si>
-    <t>Race</t>
-  </si>
-  <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Asian</t>
   </si>
   <si>
     <t>American Indian</t>
@@ -132,15 +141,6 @@
   </si>
   <si>
     <t>NOT Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>Homeless</t>
-  </si>
-  <si>
-    <t>Hispanic/Latinx</t>
-  </si>
-  <si>
-    <t>Non-Hispanic White</t>
   </si>
   <si>
     <t>Testing</t>
@@ -480,7 +480,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -509,6 +509,8 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -832,14 +834,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="19">
+    <row r="1" spans="1:1" ht="18.95">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19">
+    <row r="2" spans="1:1" ht="18.95">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -851,21 +853,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AU11"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU1" sqref="AU1:AU1048576"/>
+      <selection pane="topRight" activeCell="AV3" sqref="AV3:AV11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="42" max="47" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="42" max="47" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:48">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -914,7 +916,7 @@
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1">
+    <row r="2" spans="1:48" s="1" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1056,8 +1058,11 @@
       <c r="AU2" s="5">
         <v>43966</v>
       </c>
+      <c r="AV2" s="20">
+        <v>43967</v>
+      </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:48">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1199,8 +1204,11 @@
       <c r="AU3" s="8">
         <v>951</v>
       </c>
+      <c r="AV3">
+        <v>962</v>
+      </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:48">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1342,8 +1350,11 @@
       <c r="AU4" s="8">
         <v>415</v>
       </c>
+      <c r="AV4">
+        <v>419</v>
+      </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:48">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1485,8 +1496,11 @@
       <c r="AU5" s="8">
         <v>368</v>
       </c>
+      <c r="AV5">
+        <v>374</v>
+      </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:48">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1628,8 +1642,11 @@
       <c r="AU6" s="8">
         <v>1450</v>
       </c>
+      <c r="AV6">
+        <v>1463</v>
+      </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:48">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1771,8 +1788,11 @@
       <c r="AU7" s="8">
         <v>1087</v>
       </c>
+      <c r="AV7">
+        <v>1111</v>
+      </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:48">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1914,8 +1934,11 @@
       <c r="AU8" s="8">
         <v>644</v>
       </c>
+      <c r="AV8">
+        <v>646</v>
+      </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:48">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2057,8 +2080,11 @@
       <c r="AU9" s="8">
         <v>1016</v>
       </c>
+      <c r="AV9">
+        <v>1030</v>
+      </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:48">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2200,8 +2226,11 @@
       <c r="AU10" s="8">
         <v>1010</v>
       </c>
+      <c r="AV10">
+        <v>1015</v>
+      </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:48">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -2342,6 +2371,9 @@
       </c>
       <c r="AU11" s="8">
         <v>101</v>
+      </c>
+      <c r="AV11">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2355,13 +2387,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -2390,16 +2422,16 @@
         <v>9</v>
       </c>
       <c r="B2" s="13">
-        <v>7042</v>
+        <v>7123</v>
       </c>
       <c r="C2" s="13">
-        <v>3442</v>
+        <v>3478</v>
       </c>
       <c r="D2" s="13">
-        <v>3582</v>
+        <v>3625</v>
       </c>
       <c r="E2" s="14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="14">
         <v>2</v>
@@ -2430,10 +2462,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="13">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C4" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D4" s="8">
         <v>127</v>
@@ -2450,13 +2482,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="13">
-        <v>1161</v>
+        <v>1173</v>
       </c>
       <c r="C5" s="8">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D5" s="8">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="E5" s="12">
         <v>4</v>
@@ -2470,16 +2502,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="13">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="C6" s="8">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="D6" s="8">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="E6" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="12">
         <v>0</v>
@@ -2490,13 +2522,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="13">
-        <v>1104</v>
+        <v>1113</v>
       </c>
       <c r="C7" s="8">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D7" s="8">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -2510,13 +2542,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="13">
-        <v>1178</v>
+        <v>1191</v>
       </c>
       <c r="C8" s="8">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="D8" s="8">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
@@ -2530,16 +2562,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="13">
-        <v>1030</v>
+        <v>1044</v>
       </c>
       <c r="C9" s="8">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D9" s="8">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="E9" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="12">
         <v>0</v>
@@ -2550,13 +2582,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="13">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C10" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D10" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
@@ -2570,13 +2602,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="13">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C11" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D11" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -2595,701 +2627,1724 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AQ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT40" sqref="AT40"/>
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43945</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43946</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43947</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43948</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43949</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43950</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43951</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43952</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43953</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43954</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>43955</v>
+      </c>
+      <c r="R1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="S1" s="5">
+        <v>43957</v>
+      </c>
+      <c r="T1" s="5">
+        <v>43958</v>
+      </c>
+      <c r="U1" s="5">
+        <v>43959</v>
+      </c>
+      <c r="V1" s="5">
+        <v>43960</v>
+      </c>
+      <c r="W1" s="5">
+        <v>43961</v>
+      </c>
+      <c r="X1" s="5">
+        <v>43962</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>43963</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>43964</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>43965</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>43966</v>
+      </c>
+      <c r="AC1" s="21">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="19">
+        <f>SUM(B3:B12)</f>
+        <v>105</v>
+      </c>
+      <c r="C2" s="19">
+        <v>112</v>
+      </c>
+      <c r="D2" s="19">
+        <v>127</v>
+      </c>
+      <c r="E2" s="19">
+        <v>139</v>
+      </c>
+      <c r="F2" s="19">
+        <v>153</v>
+      </c>
+      <c r="G2" s="19">
+        <v>165</v>
+      </c>
+      <c r="H2" s="19">
+        <v>178</v>
+      </c>
+      <c r="I2" s="19">
+        <v>185</v>
+      </c>
+      <c r="J2" s="19">
+        <v>190</v>
+      </c>
+      <c r="K2" s="19">
+        <v>205</v>
+      </c>
+      <c r="L2" s="19">
+        <v>224</v>
+      </c>
+      <c r="M2" s="19">
+        <v>231</v>
+      </c>
+      <c r="N2" s="19">
+        <v>240</v>
+      </c>
+      <c r="O2" s="19">
+        <v>251</v>
+      </c>
+      <c r="P2" s="19">
+        <v>258</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>264</v>
+      </c>
+      <c r="R2" s="19">
+        <v>277</v>
+      </c>
+      <c r="S2" s="19">
+        <v>285</v>
+      </c>
+      <c r="T2" s="19">
+        <v>304</v>
+      </c>
+      <c r="U2" s="19">
+        <v>311</v>
+      </c>
+      <c r="V2" s="19">
+        <v>323</v>
+      </c>
+      <c r="W2" s="19">
+        <v>328</v>
+      </c>
+      <c r="X2" s="19">
+        <v>336</v>
+      </c>
+      <c r="Y2" s="19">
+        <v>350</v>
+      </c>
+      <c r="Z2" s="19">
+        <v>358</v>
+      </c>
+      <c r="AA2" s="19">
+        <v>368</v>
+      </c>
+      <c r="AB2" s="19">
+        <v>375</v>
+      </c>
+      <c r="AC2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8">
+        <v>11</v>
+      </c>
+      <c r="I3" s="8">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8">
+        <v>17</v>
+      </c>
+      <c r="L3" s="8">
+        <v>21</v>
+      </c>
+      <c r="M3" s="8">
+        <v>21</v>
+      </c>
+      <c r="N3" s="8">
+        <v>21</v>
+      </c>
+      <c r="O3" s="8">
+        <v>21</v>
+      </c>
+      <c r="P3" s="8">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>22</v>
+      </c>
+      <c r="R3" s="8">
+        <v>24</v>
+      </c>
+      <c r="S3" s="8">
+        <v>25</v>
+      </c>
+      <c r="T3" s="8">
+        <v>25</v>
+      </c>
+      <c r="U3" s="8">
+        <v>28</v>
+      </c>
+      <c r="V3" s="8">
+        <v>32</v>
+      </c>
+      <c r="W3" s="8">
+        <v>29</v>
+      </c>
+      <c r="X3" s="8">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>35</v>
+      </c>
+      <c r="AC3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6</v>
+      </c>
+      <c r="I4" s="8">
+        <v>7</v>
+      </c>
+      <c r="J4" s="8">
+        <v>8</v>
+      </c>
+      <c r="K4" s="8">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8">
+        <v>10</v>
+      </c>
+      <c r="M4" s="8">
+        <v>13</v>
+      </c>
+      <c r="N4" s="8">
+        <v>14</v>
+      </c>
+      <c r="O4" s="8">
+        <v>14</v>
+      </c>
+      <c r="P4" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>14</v>
+      </c>
+      <c r="R4" s="8">
+        <v>15</v>
+      </c>
+      <c r="S4" s="8">
+        <v>15</v>
+      </c>
+      <c r="T4" s="8">
+        <v>16</v>
+      </c>
+      <c r="U4" s="8">
+        <v>17</v>
+      </c>
+      <c r="V4" s="8">
+        <v>18</v>
+      </c>
+      <c r="W4" s="8">
+        <v>16</v>
+      </c>
+      <c r="X4" s="8">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>22</v>
+      </c>
+      <c r="AC4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8">
+        <v>14</v>
+      </c>
+      <c r="K5" s="8">
+        <v>14</v>
+      </c>
+      <c r="L5" s="8">
+        <v>14</v>
+      </c>
+      <c r="M5" s="8">
+        <v>14</v>
+      </c>
+      <c r="N5" s="8">
+        <v>15</v>
+      </c>
+      <c r="O5" s="8">
+        <v>15</v>
+      </c>
+      <c r="P5" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>15</v>
+      </c>
+      <c r="R5" s="8">
+        <v>18</v>
+      </c>
+      <c r="S5" s="8">
+        <v>18</v>
+      </c>
+      <c r="T5" s="8">
+        <v>19</v>
+      </c>
+      <c r="U5" s="8">
+        <v>19</v>
+      </c>
+      <c r="V5" s="8">
+        <v>21</v>
+      </c>
+      <c r="W5" s="8">
+        <v>21</v>
+      </c>
+      <c r="X5" s="8">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>24</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>24</v>
+      </c>
+      <c r="AC5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8">
+        <v>22</v>
+      </c>
+      <c r="I6" s="8">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8">
+        <v>23</v>
+      </c>
+      <c r="K6" s="8">
+        <v>26</v>
+      </c>
+      <c r="L6" s="8">
+        <v>30</v>
+      </c>
+      <c r="M6" s="8">
+        <v>30</v>
+      </c>
+      <c r="N6" s="8">
+        <v>30</v>
+      </c>
+      <c r="O6" s="8">
+        <v>35</v>
+      </c>
+      <c r="P6" s="8">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>36</v>
+      </c>
+      <c r="R6" s="8">
+        <v>38</v>
+      </c>
+      <c r="S6" s="8">
+        <v>40</v>
+      </c>
+      <c r="T6" s="8">
+        <v>42</v>
+      </c>
+      <c r="U6" s="8">
+        <v>42</v>
+      </c>
+      <c r="V6" s="8">
+        <v>44</v>
+      </c>
+      <c r="W6" s="8">
+        <v>42</v>
+      </c>
+      <c r="X6" s="8">
+        <v>43</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>47</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>48</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>49</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>50</v>
+      </c>
+      <c r="AC6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8">
+        <v>25</v>
+      </c>
+      <c r="I7" s="8">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8">
+        <v>28</v>
+      </c>
+      <c r="K7" s="8">
+        <v>30</v>
+      </c>
+      <c r="L7" s="8">
+        <v>34</v>
+      </c>
+      <c r="M7" s="8">
+        <v>35</v>
+      </c>
+      <c r="N7" s="8">
+        <v>38</v>
+      </c>
+      <c r="O7" s="8">
+        <v>39</v>
+      </c>
+      <c r="P7" s="8">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>42</v>
+      </c>
+      <c r="R7" s="8">
+        <v>45</v>
+      </c>
+      <c r="S7" s="8">
+        <v>46</v>
+      </c>
+      <c r="T7" s="8">
+        <v>50</v>
+      </c>
+      <c r="U7" s="8">
+        <v>50</v>
+      </c>
+      <c r="V7" s="8">
+        <v>51</v>
+      </c>
+      <c r="W7" s="8">
+        <v>52</v>
+      </c>
+      <c r="X7" s="8">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>55</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>56</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>57</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>57</v>
+      </c>
+      <c r="AC7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>26</v>
+      </c>
+      <c r="H8" s="8">
+        <v>27</v>
+      </c>
+      <c r="I8" s="8">
+        <v>28</v>
+      </c>
+      <c r="J8" s="8">
+        <v>28</v>
+      </c>
+      <c r="K8" s="8">
+        <v>28</v>
+      </c>
+      <c r="L8" s="8">
+        <v>28</v>
+      </c>
+      <c r="M8" s="8">
+        <v>28</v>
+      </c>
+      <c r="N8" s="8">
+        <v>29</v>
+      </c>
+      <c r="O8" s="8">
+        <v>30</v>
+      </c>
+      <c r="P8" s="8">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>30</v>
+      </c>
+      <c r="R8" s="8">
+        <v>30</v>
+      </c>
+      <c r="S8" s="8">
+        <v>31</v>
+      </c>
+      <c r="T8" s="8">
+        <v>33</v>
+      </c>
+      <c r="U8" s="8">
+        <v>33</v>
+      </c>
+      <c r="V8" s="8">
+        <v>33</v>
+      </c>
+      <c r="W8" s="8">
+        <v>36</v>
+      </c>
+      <c r="X8" s="8">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>38</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>38</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>39</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>40</v>
+      </c>
+      <c r="AC8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8">
+        <v>23</v>
+      </c>
+      <c r="G9" s="8">
+        <v>23</v>
+      </c>
+      <c r="H9" s="8">
+        <v>25</v>
+      </c>
+      <c r="I9" s="8">
+        <v>25</v>
+      </c>
+      <c r="J9" s="8">
+        <v>25</v>
+      </c>
+      <c r="K9" s="8">
+        <v>27</v>
+      </c>
+      <c r="L9" s="8">
+        <v>29</v>
+      </c>
+      <c r="M9" s="8">
+        <v>30</v>
+      </c>
+      <c r="N9" s="8">
+        <v>32</v>
+      </c>
+      <c r="O9" s="8">
+        <v>34</v>
+      </c>
+      <c r="P9" s="8">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>37</v>
+      </c>
+      <c r="R9" s="8">
+        <v>37</v>
+      </c>
+      <c r="S9" s="8">
+        <v>39</v>
+      </c>
+      <c r="T9" s="8">
+        <v>42</v>
+      </c>
+      <c r="U9" s="8">
+        <v>43</v>
+      </c>
+      <c r="V9" s="8">
+        <v>44</v>
+      </c>
+      <c r="W9" s="8">
+        <v>43</v>
+      </c>
+      <c r="X9" s="8">
+        <v>43</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>44</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>47</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>49</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>49</v>
+      </c>
+      <c r="AC9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8">
+        <v>33</v>
+      </c>
+      <c r="G10" s="8">
+        <v>36</v>
+      </c>
+      <c r="H10" s="8">
+        <v>41</v>
+      </c>
+      <c r="I10" s="8">
+        <v>42</v>
+      </c>
+      <c r="J10" s="8">
+        <v>43</v>
+      </c>
+      <c r="K10" s="8">
+        <v>45</v>
+      </c>
+      <c r="L10" s="8">
+        <v>49</v>
+      </c>
+      <c r="M10" s="8">
+        <v>51</v>
+      </c>
+      <c r="N10" s="8">
+        <v>52</v>
+      </c>
+      <c r="O10" s="8">
+        <v>54</v>
+      </c>
+      <c r="P10" s="8">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>59</v>
+      </c>
+      <c r="R10" s="8">
+        <v>60</v>
+      </c>
+      <c r="S10" s="8">
+        <v>61</v>
+      </c>
+      <c r="T10" s="8">
+        <v>67</v>
+      </c>
+      <c r="U10" s="8">
+        <v>68</v>
+      </c>
+      <c r="V10" s="8">
+        <v>69</v>
+      </c>
+      <c r="W10" s="8">
+        <v>74</v>
+      </c>
+      <c r="X10" s="8">
+        <v>74</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>78</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>80</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>82</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>83</v>
+      </c>
+      <c r="AC10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8">
+        <v>9</v>
+      </c>
+      <c r="H11" s="8">
+        <v>9</v>
+      </c>
+      <c r="I11" s="8">
+        <v>9</v>
+      </c>
+      <c r="J11" s="8">
+        <v>9</v>
+      </c>
+      <c r="K11" s="8">
+        <v>9</v>
+      </c>
+      <c r="L11" s="8">
+        <v>9</v>
+      </c>
+      <c r="M11" s="8">
+        <v>9</v>
+      </c>
+      <c r="N11" s="8">
+        <v>9</v>
+      </c>
+      <c r="O11" s="8">
+        <v>9</v>
+      </c>
+      <c r="P11" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>9</v>
+      </c>
+      <c r="R11" s="8">
+        <v>10</v>
+      </c>
+      <c r="S11" s="8">
+        <v>10</v>
+      </c>
+      <c r="T11" s="8">
+        <v>10</v>
+      </c>
+      <c r="U11" s="8">
+        <v>11</v>
+      </c>
+      <c r="V11" s="8">
+        <v>11</v>
+      </c>
+      <c r="W11" s="8">
+        <v>15</v>
+      </c>
+      <c r="X11" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>15</v>
+      </c>
+      <c r="AC11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AQ21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ2" sqref="AQ2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
+      <c r="A1" s="9"/>
+      <c r="B1" s="5">
+        <v>43926</v>
       </c>
       <c r="C1" s="5">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="D1" s="5">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="E1" s="5">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="F1" s="5">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="G1" s="5">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="H1" s="5">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="I1" s="5">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="J1" s="5">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="K1" s="5">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L1" s="5">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="M1" s="5">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="N1" s="5">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="O1" s="5">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="P1" s="5">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="Q1" s="5">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="R1" s="5">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="S1" s="5">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="T1" s="5">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="U1" s="5">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="V1" s="5">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="W1" s="5">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="X1" s="5">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="Y1" s="5">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="Z1" s="5">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="AA1" s="5">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="AB1" s="5">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="AC1" s="5">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="AD1" s="5">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="AE1" s="5">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="AF1" s="5">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="AG1" s="5">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="AH1" s="5">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="AI1" s="5">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="AJ1" s="5">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="AK1" s="5">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="AL1" s="5">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="AM1" s="5">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="AN1" s="5">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="AO1" s="5">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="AP1" s="5">
-        <v>43965</v>
-      </c>
-      <c r="AQ1" s="5">
         <v>43966</v>
+      </c>
+      <c r="AQ1" s="21">
+        <v>43967</v>
       </c>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8">
-        <v>349</v>
-      </c>
-      <c r="D2" s="8">
-        <v>596</v>
-      </c>
-      <c r="E2" s="8">
-        <v>604</v>
-      </c>
-      <c r="F2" s="8">
-        <v>536</v>
-      </c>
-      <c r="G2" s="8">
-        <v>516</v>
-      </c>
-      <c r="H2" s="8">
-        <v>355</v>
-      </c>
-      <c r="I2" s="8">
-        <v>379</v>
-      </c>
-      <c r="J2" s="8">
-        <v>391</v>
-      </c>
-      <c r="K2" s="8">
-        <v>400</v>
-      </c>
-      <c r="L2" s="8">
-        <v>410</v>
-      </c>
-      <c r="M2" s="8">
-        <v>404</v>
-      </c>
-      <c r="N2" s="8">
-        <v>383</v>
-      </c>
-      <c r="O2" s="8">
-        <v>413</v>
-      </c>
-      <c r="P2" s="8">
-        <v>358</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>406</v>
-      </c>
-      <c r="R2" s="8">
-        <v>470</v>
-      </c>
-      <c r="S2" s="8">
-        <v>443</v>
-      </c>
-      <c r="T2" s="8">
-        <v>479</v>
-      </c>
-      <c r="U2" s="8">
-        <v>490</v>
-      </c>
-      <c r="V2" s="8">
-        <v>494</v>
-      </c>
-      <c r="W2" s="8">
-        <v>527</v>
-      </c>
-      <c r="X2" s="8">
-        <v>517</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>503</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>487</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>534</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>666</v>
-      </c>
-      <c r="AC2" s="8">
-        <v>726</v>
-      </c>
-      <c r="AD2" s="8">
-        <v>769</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>789</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>817</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>810</v>
-      </c>
-      <c r="AH2" s="8">
-        <v>734</v>
-      </c>
-      <c r="AI2" s="8">
-        <v>799</v>
-      </c>
-      <c r="AJ2" s="8">
-        <v>857</v>
-      </c>
-      <c r="AK2" s="8">
-        <v>891</v>
-      </c>
-      <c r="AL2" s="8">
-        <v>899</v>
-      </c>
-      <c r="AM2" s="8">
-        <v>905</v>
-      </c>
-      <c r="AN2" s="8">
-        <v>882</v>
-      </c>
-      <c r="AO2" s="8">
-        <v>795</v>
-      </c>
-      <c r="AP2" s="8">
-        <v>807</v>
-      </c>
-      <c r="AQ2" s="8">
-        <v>838</v>
-      </c>
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
+      <c r="B3" s="7">
+        <v>2</v>
       </c>
       <c r="C3" s="8">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="D3" s="8">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="E3" s="8">
-        <v>218</v>
+        <v>2</v>
       </c>
       <c r="F3" s="8">
-        <v>253</v>
+        <v>2</v>
       </c>
       <c r="G3" s="8">
-        <v>281</v>
+        <v>2</v>
       </c>
       <c r="H3" s="8">
-        <v>339</v>
+        <v>2</v>
       </c>
       <c r="I3" s="8">
-        <v>354</v>
+        <v>2</v>
       </c>
       <c r="J3" s="8">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="K3" s="8">
-        <v>388</v>
+        <v>2</v>
       </c>
       <c r="L3" s="8">
-        <v>411</v>
+        <v>2</v>
       </c>
       <c r="M3" s="8">
-        <v>439</v>
+        <v>2</v>
       </c>
       <c r="N3" s="8">
-        <v>461</v>
+        <v>2</v>
       </c>
       <c r="O3" s="8">
-        <v>473</v>
+        <v>2</v>
       </c>
       <c r="P3" s="8">
-        <v>548</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="8">
-        <v>553</v>
+        <v>2</v>
       </c>
       <c r="R3" s="8">
-        <v>565</v>
+        <v>3</v>
       </c>
       <c r="S3" s="8">
-        <v>587</v>
+        <v>3</v>
       </c>
       <c r="T3" s="8">
-        <v>603</v>
+        <v>3</v>
       </c>
       <c r="U3" s="8">
-        <v>635</v>
+        <v>4</v>
       </c>
       <c r="V3" s="8">
-        <v>653</v>
+        <v>4</v>
       </c>
       <c r="W3" s="8">
-        <v>665</v>
+        <v>4</v>
       </c>
       <c r="X3" s="8">
-        <v>670</v>
+        <v>4</v>
       </c>
       <c r="Y3" s="8">
-        <v>690</v>
+        <v>4</v>
       </c>
       <c r="Z3" s="8">
-        <v>703</v>
+        <v>4</v>
       </c>
       <c r="AA3" s="8">
-        <v>743</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="8">
-        <v>765</v>
+        <v>4</v>
       </c>
       <c r="AC3" s="8">
-        <v>773</v>
+        <v>5</v>
       </c>
       <c r="AD3" s="8">
-        <v>789</v>
+        <v>5</v>
       </c>
       <c r="AE3" s="8">
-        <v>810</v>
+        <v>5</v>
       </c>
       <c r="AF3" s="8">
-        <v>826</v>
+        <v>5</v>
       </c>
       <c r="AG3" s="8">
-        <v>847</v>
+        <v>5</v>
       </c>
       <c r="AH3" s="8">
-        <v>900</v>
+        <v>5</v>
       </c>
       <c r="AI3" s="8">
-        <v>927</v>
+        <v>5</v>
       </c>
       <c r="AJ3" s="8">
-        <v>944</v>
+        <v>5</v>
       </c>
       <c r="AK3" s="8">
-        <v>970</v>
+        <v>5</v>
       </c>
       <c r="AL3" s="8">
-        <v>977</v>
+        <v>5</v>
       </c>
       <c r="AM3" s="8">
-        <v>988</v>
+        <v>5</v>
       </c>
       <c r="AN3" s="8">
-        <v>1013</v>
+        <v>5</v>
       </c>
       <c r="AO3" s="8">
-        <v>1076</v>
+        <v>6</v>
       </c>
       <c r="AP3" s="8">
-        <v>1097</v>
-      </c>
-      <c r="AQ3" s="8">
-        <v>1105</v>
+        <v>7</v>
+      </c>
+      <c r="AQ3">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="8">
-        <v>303</v>
-      </c>
-      <c r="D4" s="8">
-        <v>353</v>
-      </c>
-      <c r="E4" s="8">
-        <v>460</v>
-      </c>
       <c r="F4" s="8">
-        <v>542</v>
+        <v>25</v>
       </c>
       <c r="G4" s="8">
-        <v>642</v>
+        <v>34</v>
       </c>
       <c r="H4" s="8">
-        <v>812</v>
+        <v>36</v>
       </c>
       <c r="I4" s="8">
-        <v>852</v>
+        <v>38</v>
       </c>
       <c r="J4" s="8">
-        <v>884</v>
+        <v>51</v>
       </c>
       <c r="K4" s="8">
-        <v>932</v>
+        <v>54</v>
       </c>
       <c r="L4" s="8">
-        <v>1009</v>
+        <v>61</v>
       </c>
       <c r="M4" s="8">
-        <v>1089</v>
+        <v>66</v>
       </c>
       <c r="N4" s="8">
-        <v>1171</v>
+        <v>71</v>
       </c>
       <c r="O4" s="8">
-        <v>1271</v>
+        <v>75</v>
       </c>
       <c r="P4" s="8">
-        <v>1403</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="8">
-        <v>1458</v>
+        <v>90</v>
       </c>
       <c r="R4" s="8">
-        <v>1517</v>
+        <v>102</v>
       </c>
       <c r="S4" s="8">
-        <v>1595</v>
+        <v>112</v>
       </c>
       <c r="T4" s="8">
-        <v>1670</v>
+        <v>124</v>
       </c>
       <c r="U4" s="8">
-        <v>1762</v>
+        <v>131</v>
       </c>
       <c r="V4" s="8">
-        <v>1846</v>
+        <v>142</v>
       </c>
       <c r="W4" s="8">
-        <v>1891</v>
+        <v>147</v>
       </c>
       <c r="X4" s="8">
-        <v>1919</v>
+        <v>150</v>
       </c>
       <c r="Y4" s="8">
-        <v>1978</v>
+        <v>163</v>
       </c>
       <c r="Z4" s="8">
-        <v>2037</v>
+        <v>177</v>
       </c>
       <c r="AA4" s="8">
-        <v>2138</v>
+        <v>183</v>
       </c>
       <c r="AB4" s="8">
-        <v>2247</v>
+        <v>190</v>
       </c>
       <c r="AC4" s="8">
-        <v>2287</v>
+        <v>198</v>
       </c>
       <c r="AD4" s="8">
-        <v>2341</v>
+        <v>205</v>
       </c>
       <c r="AE4" s="8">
-        <v>2426</v>
+        <v>210</v>
       </c>
       <c r="AF4" s="8">
-        <v>2471</v>
+        <v>220</v>
       </c>
       <c r="AG4" s="8">
-        <v>2550</v>
+        <v>226</v>
       </c>
       <c r="AH4" s="8">
-        <v>2710</v>
+        <v>241</v>
       </c>
       <c r="AI4" s="8">
-        <v>2793</v>
+        <v>247</v>
       </c>
       <c r="AJ4" s="8">
-        <v>2865</v>
+        <v>252</v>
       </c>
       <c r="AK4" s="8">
-        <v>2919</v>
+        <v>254</v>
       </c>
       <c r="AL4" s="8">
-        <v>2977</v>
+        <v>259</v>
       </c>
       <c r="AM4" s="8">
-        <v>3022</v>
+        <v>271</v>
       </c>
       <c r="AN4" s="8">
-        <v>3071</v>
+        <v>277</v>
       </c>
       <c r="AO4" s="8">
-        <v>3179</v>
+        <v>283</v>
       </c>
       <c r="AP4" s="8">
-        <v>3258</v>
-      </c>
-      <c r="AQ4" s="8">
-        <v>3325</v>
+        <v>288</v>
+      </c>
+      <c r="AQ4">
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8">
+        <v>6</v>
+      </c>
+      <c r="I5" s="8">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8">
+        <v>7</v>
+      </c>
+      <c r="K5" s="8">
+        <v>8</v>
+      </c>
+      <c r="L5" s="8">
+        <v>9</v>
+      </c>
+      <c r="M5" s="8">
+        <v>8</v>
+      </c>
+      <c r="N5" s="8">
+        <v>8</v>
+      </c>
+      <c r="O5" s="8">
+        <v>8</v>
+      </c>
+      <c r="P5" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>8</v>
+      </c>
+      <c r="R5" s="8">
+        <v>8</v>
+      </c>
+      <c r="S5" s="8">
+        <v>9</v>
+      </c>
+      <c r="T5" s="8">
+        <v>9</v>
+      </c>
+      <c r="U5" s="8">
+        <v>10</v>
+      </c>
+      <c r="V5" s="8">
+        <v>11</v>
+      </c>
+      <c r="W5" s="8">
+        <v>11</v>
+      </c>
+      <c r="X5" s="8">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>17</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>19</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>19</v>
+      </c>
+      <c r="AE5" s="8">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="AF5" s="8">
+        <v>21</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>22</v>
+      </c>
+      <c r="AH5" s="8">
         <v>23</v>
       </c>
-      <c r="C5" s="8">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8">
-        <v>20</v>
-      </c>
-      <c r="G5" s="8">
-        <v>21</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="AI5" s="8">
         <v>24</v>
       </c>
-      <c r="I5" s="8">
-        <v>26</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="AJ5" s="8">
         <v>29</v>
       </c>
-      <c r="K5" s="8">
+      <c r="AK5" s="8">
         <v>30</v>
       </c>
-      <c r="L5" s="8">
-        <v>31</v>
-      </c>
-      <c r="M5" s="8">
-        <v>35</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="AL5" s="8">
+        <v>32</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>38</v>
+      </c>
+      <c r="AN5" s="8">
         <v>36</v>
       </c>
-      <c r="O5" s="8">
-        <v>38</v>
-      </c>
-      <c r="P5" s="8">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>52</v>
-      </c>
-      <c r="R5" s="8">
-        <v>54</v>
-      </c>
-      <c r="S5" s="8">
-        <v>57</v>
-      </c>
-      <c r="T5" s="8">
-        <v>58</v>
-      </c>
-      <c r="U5" s="8">
-        <v>60</v>
-      </c>
-      <c r="V5" s="8">
-        <v>63</v>
-      </c>
-      <c r="W5" s="8">
-        <v>63</v>
-      </c>
-      <c r="X5" s="8">
-        <v>62</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>62</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>64</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>65</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>66</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>66</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>72</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>74</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>73</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>73</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>75</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>79</v>
-      </c>
-      <c r="AJ5" s="8">
-        <v>80</v>
-      </c>
-      <c r="AK5" s="8">
-        <v>83</v>
-      </c>
-      <c r="AL5" s="8">
-        <v>84</v>
-      </c>
-      <c r="AM5" s="8">
-        <v>85</v>
-      </c>
-      <c r="AN5" s="8">
-        <v>88</v>
-      </c>
       <c r="AO5" s="8">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="AP5" s="8">
-        <v>95</v>
-      </c>
-      <c r="AQ5" s="8">
-        <v>96</v>
+        <v>37</v>
+      </c>
+      <c r="AQ5">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
       </c>
       <c r="C6" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="8">
         <v>5</v>
       </c>
       <c r="F6" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="8">
         <v>6</v>
@@ -3298,22 +4353,22 @@
         <v>6</v>
       </c>
       <c r="J6" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L6" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N6" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O6" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P6" s="8">
         <v>12</v>
@@ -3322,90 +4377,1255 @@
         <v>12</v>
       </c>
       <c r="R6" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S6" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T6" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="U6" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="V6" s="8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="W6" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="X6" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y6" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Z6" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AA6" s="8">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AB6" s="8">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AC6" s="8">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AD6" s="8">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AE6" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AF6" s="8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AG6" s="8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AH6" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="AI6" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="AJ6" s="8">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="AK6" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="AL6" s="8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="AM6" s="8">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AN6" s="8">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AO6" s="8">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AP6" s="8">
-        <v>19</v>
-      </c>
-      <c r="AQ6" s="8">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="AQ6">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:43">
       <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8">
+        <v>1</v>
+      </c>
+      <c r="V7" s="8">
+        <v>1</v>
+      </c>
+      <c r="W7" s="8">
+        <v>2</v>
+      </c>
+      <c r="X7" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AQ7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AR19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="AR14" sqref="AR14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44">
+      <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43926</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43927</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43928</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43929</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43930</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43931</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43932</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43933</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43934</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43935</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43936</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43937</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43938</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43939</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="R1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="S1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="T1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="U1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="V1" s="5">
+        <v>43945</v>
+      </c>
+      <c r="W1" s="5">
+        <v>43946</v>
+      </c>
+      <c r="X1" s="5">
+        <v>43947</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>43948</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>43949</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>43950</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>43951</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>43952</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>43953</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>43954</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>43955</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>43957</v>
+      </c>
+      <c r="AI1" s="5">
+        <v>43958</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>43959</v>
+      </c>
+      <c r="AK1" s="5">
+        <v>43960</v>
+      </c>
+      <c r="AL1" s="5">
+        <v>43961</v>
+      </c>
+      <c r="AM1" s="5">
+        <v>43962</v>
+      </c>
+      <c r="AN1" s="5">
+        <v>43963</v>
+      </c>
+      <c r="AO1" s="5">
+        <v>43964</v>
+      </c>
+      <c r="AP1" s="5">
+        <v>43965</v>
+      </c>
+      <c r="AQ1" s="5">
+        <v>43966</v>
+      </c>
+      <c r="AR1" s="21">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
+      <c r="A2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>349</v>
+      </c>
+      <c r="D2" s="8">
+        <v>596</v>
+      </c>
+      <c r="E2" s="8">
+        <v>604</v>
+      </c>
+      <c r="F2" s="8">
+        <v>536</v>
+      </c>
+      <c r="G2" s="8">
+        <v>516</v>
+      </c>
+      <c r="H2" s="8">
+        <v>355</v>
+      </c>
+      <c r="I2" s="8">
+        <v>379</v>
+      </c>
+      <c r="J2" s="8">
+        <v>391</v>
+      </c>
+      <c r="K2" s="8">
+        <v>400</v>
+      </c>
+      <c r="L2" s="8">
+        <v>410</v>
+      </c>
+      <c r="M2" s="8">
+        <v>404</v>
+      </c>
+      <c r="N2" s="8">
+        <v>383</v>
+      </c>
+      <c r="O2" s="8">
+        <v>413</v>
+      </c>
+      <c r="P2" s="8">
+        <v>358</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>406</v>
+      </c>
+      <c r="R2" s="8">
+        <v>470</v>
+      </c>
+      <c r="S2" s="8">
+        <v>443</v>
+      </c>
+      <c r="T2" s="8">
+        <v>479</v>
+      </c>
+      <c r="U2" s="8">
+        <v>490</v>
+      </c>
+      <c r="V2" s="8">
+        <v>494</v>
+      </c>
+      <c r="W2" s="8">
+        <v>527</v>
+      </c>
+      <c r="X2" s="8">
+        <v>517</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>503</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>487</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>534</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>666</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>726</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>769</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>789</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>817</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>810</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>734</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>799</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>857</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>891</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>899</v>
+      </c>
+      <c r="AM2" s="8">
+        <v>905</v>
+      </c>
+      <c r="AN2" s="8">
+        <v>882</v>
+      </c>
+      <c r="AO2" s="8">
+        <v>795</v>
+      </c>
+      <c r="AP2" s="8">
+        <v>807</v>
+      </c>
+      <c r="AQ2" s="8">
+        <v>838</v>
+      </c>
+      <c r="AR2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8">
+        <v>135</v>
+      </c>
+      <c r="D3" s="8">
+        <v>154</v>
+      </c>
+      <c r="E3" s="8">
+        <v>218</v>
+      </c>
+      <c r="F3" s="8">
+        <v>253</v>
+      </c>
+      <c r="G3" s="8">
+        <v>281</v>
+      </c>
+      <c r="H3" s="8">
+        <v>339</v>
+      </c>
+      <c r="I3" s="8">
+        <v>354</v>
+      </c>
+      <c r="J3" s="8">
+        <v>365</v>
+      </c>
+      <c r="K3" s="8">
+        <v>388</v>
+      </c>
+      <c r="L3" s="8">
+        <v>411</v>
+      </c>
+      <c r="M3" s="8">
+        <v>439</v>
+      </c>
+      <c r="N3" s="8">
+        <v>461</v>
+      </c>
+      <c r="O3" s="8">
+        <v>473</v>
+      </c>
+      <c r="P3" s="8">
+        <v>548</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>553</v>
+      </c>
+      <c r="R3" s="8">
+        <v>565</v>
+      </c>
+      <c r="S3" s="8">
+        <v>587</v>
+      </c>
+      <c r="T3" s="8">
+        <v>603</v>
+      </c>
+      <c r="U3" s="8">
+        <v>635</v>
+      </c>
+      <c r="V3" s="8">
+        <v>653</v>
+      </c>
+      <c r="W3" s="8">
+        <v>665</v>
+      </c>
+      <c r="X3" s="8">
+        <v>670</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>690</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>703</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>743</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>765</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>773</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>789</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>810</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>826</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>847</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>900</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>927</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>944</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>970</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>977</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>988</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>1013</v>
+      </c>
+      <c r="AO3" s="8">
+        <v>1076</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>1097</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>1105</v>
+      </c>
+      <c r="AR3">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8">
+        <v>303</v>
+      </c>
+      <c r="D4" s="8">
+        <v>353</v>
+      </c>
+      <c r="E4" s="8">
+        <v>460</v>
+      </c>
+      <c r="F4" s="8">
+        <v>542</v>
+      </c>
+      <c r="G4" s="8">
+        <v>642</v>
+      </c>
+      <c r="H4" s="8">
+        <v>812</v>
+      </c>
+      <c r="I4" s="8">
+        <v>852</v>
+      </c>
+      <c r="J4" s="8">
+        <v>884</v>
+      </c>
+      <c r="K4" s="8">
+        <v>932</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1009</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1089</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1171</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1271</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1403</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1458</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1517</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1595</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1670</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1762</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1846</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1891</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1919</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>1978</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>2037</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>2138</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>2247</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>2287</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>2341</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>2426</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>2471</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>2550</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>2710</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>2793</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>2865</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>2919</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>2977</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>3022</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>3071</v>
+      </c>
+      <c r="AO4" s="8">
+        <v>3179</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>3258</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>3325</v>
+      </c>
+      <c r="AR4">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="C5" s="8">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8">
+        <v>26</v>
+      </c>
+      <c r="J5" s="8">
+        <v>29</v>
+      </c>
+      <c r="K5" s="8">
+        <v>30</v>
+      </c>
+      <c r="L5" s="8">
+        <v>31</v>
+      </c>
+      <c r="M5" s="8">
+        <v>35</v>
+      </c>
+      <c r="N5" s="8">
+        <v>36</v>
+      </c>
+      <c r="O5" s="8">
+        <v>38</v>
+      </c>
+      <c r="P5" s="8">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>52</v>
+      </c>
+      <c r="R5" s="8">
+        <v>54</v>
+      </c>
+      <c r="S5" s="8">
+        <v>57</v>
+      </c>
+      <c r="T5" s="8">
+        <v>58</v>
+      </c>
+      <c r="U5" s="8">
+        <v>60</v>
+      </c>
+      <c r="V5" s="8">
+        <v>63</v>
+      </c>
+      <c r="W5" s="8">
+        <v>63</v>
+      </c>
+      <c r="X5" s="8">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>62</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>65</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>66</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>66</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>72</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>74</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>73</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>73</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>75</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>79</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>80</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>83</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>84</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>85</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>88</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>93</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>95</v>
+      </c>
+      <c r="AQ5" s="8">
+        <v>96</v>
+      </c>
+      <c r="AR5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8">
+        <v>6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>6</v>
+      </c>
+      <c r="K6" s="8">
+        <v>6</v>
+      </c>
+      <c r="L6" s="8">
+        <v>7</v>
+      </c>
+      <c r="M6" s="8">
+        <v>7</v>
+      </c>
+      <c r="N6" s="8">
+        <v>7</v>
+      </c>
+      <c r="O6" s="8">
+        <v>8</v>
+      </c>
+      <c r="P6" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>12</v>
+      </c>
+      <c r="R6" s="8">
+        <v>12</v>
+      </c>
+      <c r="S6" s="8">
+        <v>11</v>
+      </c>
+      <c r="T6" s="8">
+        <v>12</v>
+      </c>
+      <c r="U6" s="8">
+        <v>12</v>
+      </c>
+      <c r="V6" s="8">
+        <v>12</v>
+      </c>
+      <c r="W6" s="8">
+        <v>11</v>
+      </c>
+      <c r="X6" s="8">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>14</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>15</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>18</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>19</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>19</v>
+      </c>
+      <c r="AR6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -3526,13 +5746,16 @@
       <c r="AQ7" s="8">
         <v>15</v>
       </c>
+      <c r="AR7">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:44">
       <c r="A8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8">
         <v>78</v>
@@ -3657,13 +5880,16 @@
       <c r="AQ8" s="8">
         <v>1602</v>
       </c>
+      <c r="AR8">
+        <v>1637</v>
+      </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:44">
       <c r="A9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8">
         <v>9</v>
@@ -3788,10 +6014,13 @@
       <c r="AQ9" s="8">
         <v>42</v>
       </c>
+      <c r="AR9">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:44">
       <c r="A10" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -3919,13 +6148,16 @@
       <c r="AQ10" s="8">
         <v>1363</v>
       </c>
+      <c r="AR10">
+        <v>1346</v>
+      </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:44">
       <c r="A11" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8">
         <v>98</v>
@@ -4050,13 +6282,16 @@
       <c r="AQ11" s="8">
         <v>1659</v>
       </c>
+      <c r="AR11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:44">
       <c r="A12" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" s="8">
         <v>517</v>
@@ -4181,13 +6416,16 @@
       <c r="AQ12" s="8">
         <v>3997</v>
       </c>
+      <c r="AR12">
+        <v>4054</v>
+      </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:44">
       <c r="A13" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
@@ -4312,8 +6550,11 @@
       <c r="AQ13" s="8">
         <v>23</v>
       </c>
+      <c r="AR13">
+        <v>23</v>
+      </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:44">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -4358,7 +6599,7 @@
       <c r="AP14" s="8"/>
       <c r="AQ14" s="8"/>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:44">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -4403,7 +6644,7 @@
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:44">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -4463,2142 +6704,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:AB21"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BU90"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL39" sqref="AL39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BV3" sqref="BV3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="72" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43943</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43944</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43945</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43946</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43947</v>
-      </c>
-      <c r="J1" s="5">
-        <v>43948</v>
-      </c>
-      <c r="K1" s="5">
-        <v>43949</v>
-      </c>
-      <c r="L1" s="5">
-        <v>43950</v>
-      </c>
-      <c r="M1" s="5">
-        <v>43951</v>
-      </c>
-      <c r="N1" s="5">
-        <v>43952</v>
-      </c>
-      <c r="O1" s="5">
-        <v>43953</v>
-      </c>
-      <c r="P1" s="5">
-        <v>43954</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>43955</v>
-      </c>
-      <c r="R1" s="5">
-        <v>43956</v>
-      </c>
-      <c r="S1" s="5">
-        <v>43957</v>
-      </c>
-      <c r="T1" s="5">
-        <v>43958</v>
-      </c>
-      <c r="U1" s="5">
-        <v>43959</v>
-      </c>
-      <c r="V1" s="5">
-        <v>43960</v>
-      </c>
-      <c r="W1" s="5">
-        <v>43961</v>
-      </c>
-      <c r="X1" s="5">
-        <v>43962</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>43963</v>
-      </c>
-      <c r="Z1" s="5">
-        <v>43964</v>
-      </c>
-      <c r="AA1" s="5">
-        <v>43965</v>
-      </c>
-      <c r="AB1" s="5">
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="19">
-        <f>SUM(B3:B12)</f>
-        <v>105</v>
-      </c>
-      <c r="C2" s="19">
-        <v>112</v>
-      </c>
-      <c r="D2" s="19">
-        <v>127</v>
-      </c>
-      <c r="E2" s="19">
-        <v>139</v>
-      </c>
-      <c r="F2" s="19">
-        <v>153</v>
-      </c>
-      <c r="G2" s="19">
-        <v>165</v>
-      </c>
-      <c r="H2" s="19">
-        <v>178</v>
-      </c>
-      <c r="I2" s="19">
-        <v>185</v>
-      </c>
-      <c r="J2" s="19">
-        <v>190</v>
-      </c>
-      <c r="K2" s="19">
-        <v>205</v>
-      </c>
-      <c r="L2" s="19">
-        <v>224</v>
-      </c>
-      <c r="M2" s="19">
-        <v>231</v>
-      </c>
-      <c r="N2" s="19">
-        <v>240</v>
-      </c>
-      <c r="O2" s="19">
-        <v>251</v>
-      </c>
-      <c r="P2" s="19">
-        <v>258</v>
-      </c>
-      <c r="Q2" s="19">
-        <v>264</v>
-      </c>
-      <c r="R2" s="19">
-        <v>277</v>
-      </c>
-      <c r="S2" s="19">
-        <v>285</v>
-      </c>
-      <c r="T2" s="19">
-        <v>304</v>
-      </c>
-      <c r="U2" s="19">
-        <v>311</v>
-      </c>
-      <c r="V2" s="19">
-        <v>323</v>
-      </c>
-      <c r="W2" s="19">
-        <v>328</v>
-      </c>
-      <c r="X2" s="19">
-        <v>336</v>
-      </c>
-      <c r="Y2" s="19">
-        <v>350</v>
-      </c>
-      <c r="Z2" s="19">
-        <v>358</v>
-      </c>
-      <c r="AA2" s="19">
-        <v>368</v>
-      </c>
-      <c r="AB2" s="19">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8">
-        <v>11</v>
-      </c>
-      <c r="H3" s="8">
-        <v>11</v>
-      </c>
-      <c r="I3" s="8">
-        <v>11</v>
-      </c>
-      <c r="J3" s="8">
-        <v>12</v>
-      </c>
-      <c r="K3" s="8">
-        <v>17</v>
-      </c>
-      <c r="L3" s="8">
-        <v>21</v>
-      </c>
-      <c r="M3" s="8">
-        <v>21</v>
-      </c>
-      <c r="N3" s="8">
-        <v>21</v>
-      </c>
-      <c r="O3" s="8">
-        <v>21</v>
-      </c>
-      <c r="P3" s="8">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>22</v>
-      </c>
-      <c r="R3" s="8">
-        <v>24</v>
-      </c>
-      <c r="S3" s="8">
-        <v>25</v>
-      </c>
-      <c r="T3" s="8">
-        <v>25</v>
-      </c>
-      <c r="U3" s="8">
-        <v>28</v>
-      </c>
-      <c r="V3" s="8">
-        <v>32</v>
-      </c>
-      <c r="W3" s="8">
-        <v>29</v>
-      </c>
-      <c r="X3" s="8">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8">
-        <v>6</v>
-      </c>
-      <c r="I4" s="8">
-        <v>7</v>
-      </c>
-      <c r="J4" s="8">
-        <v>8</v>
-      </c>
-      <c r="K4" s="8">
-        <v>9</v>
-      </c>
-      <c r="L4" s="8">
-        <v>10</v>
-      </c>
-      <c r="M4" s="8">
-        <v>13</v>
-      </c>
-      <c r="N4" s="8">
-        <v>14</v>
-      </c>
-      <c r="O4" s="8">
-        <v>14</v>
-      </c>
-      <c r="P4" s="8">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>14</v>
-      </c>
-      <c r="R4" s="8">
-        <v>15</v>
-      </c>
-      <c r="S4" s="8">
-        <v>15</v>
-      </c>
-      <c r="T4" s="8">
-        <v>16</v>
-      </c>
-      <c r="U4" s="8">
-        <v>17</v>
-      </c>
-      <c r="V4" s="8">
-        <v>18</v>
-      </c>
-      <c r="W4" s="8">
-        <v>16</v>
-      </c>
-      <c r="X4" s="8">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>18</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8">
-        <v>12</v>
-      </c>
-      <c r="H5" s="8">
-        <v>12</v>
-      </c>
-      <c r="I5" s="8">
-        <v>13</v>
-      </c>
-      <c r="J5" s="8">
-        <v>14</v>
-      </c>
-      <c r="K5" s="8">
-        <v>14</v>
-      </c>
-      <c r="L5" s="8">
-        <v>14</v>
-      </c>
-      <c r="M5" s="8">
-        <v>14</v>
-      </c>
-      <c r="N5" s="8">
-        <v>15</v>
-      </c>
-      <c r="O5" s="8">
-        <v>15</v>
-      </c>
-      <c r="P5" s="8">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>15</v>
-      </c>
-      <c r="R5" s="8">
-        <v>18</v>
-      </c>
-      <c r="S5" s="8">
-        <v>18</v>
-      </c>
-      <c r="T5" s="8">
-        <v>19</v>
-      </c>
-      <c r="U5" s="8">
-        <v>19</v>
-      </c>
-      <c r="V5" s="8">
-        <v>21</v>
-      </c>
-      <c r="W5" s="8">
-        <v>21</v>
-      </c>
-      <c r="X5" s="8">
-        <v>22</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>23</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>24</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8">
-        <v>20</v>
-      </c>
-      <c r="H6" s="8">
-        <v>22</v>
-      </c>
-      <c r="I6" s="8">
-        <v>23</v>
-      </c>
-      <c r="J6" s="8">
-        <v>23</v>
-      </c>
-      <c r="K6" s="8">
-        <v>26</v>
-      </c>
-      <c r="L6" s="8">
-        <v>30</v>
-      </c>
-      <c r="M6" s="8">
-        <v>30</v>
-      </c>
-      <c r="N6" s="8">
-        <v>30</v>
-      </c>
-      <c r="O6" s="8">
-        <v>35</v>
-      </c>
-      <c r="P6" s="8">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>36</v>
-      </c>
-      <c r="R6" s="8">
-        <v>38</v>
-      </c>
-      <c r="S6" s="8">
-        <v>40</v>
-      </c>
-      <c r="T6" s="8">
-        <v>42</v>
-      </c>
-      <c r="U6" s="8">
-        <v>42</v>
-      </c>
-      <c r="V6" s="8">
-        <v>44</v>
-      </c>
-      <c r="W6" s="8">
-        <v>42</v>
-      </c>
-      <c r="X6" s="8">
-        <v>43</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>47</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>48</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>49</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8">
-        <v>21</v>
-      </c>
-      <c r="G7" s="8">
-        <v>23</v>
-      </c>
-      <c r="H7" s="8">
-        <v>25</v>
-      </c>
-      <c r="I7" s="8">
-        <v>27</v>
-      </c>
-      <c r="J7" s="8">
-        <v>28</v>
-      </c>
-      <c r="K7" s="8">
-        <v>30</v>
-      </c>
-      <c r="L7" s="8">
-        <v>34</v>
-      </c>
-      <c r="M7" s="8">
-        <v>35</v>
-      </c>
-      <c r="N7" s="8">
-        <v>38</v>
-      </c>
-      <c r="O7" s="8">
-        <v>39</v>
-      </c>
-      <c r="P7" s="8">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>42</v>
-      </c>
-      <c r="R7" s="8">
-        <v>45</v>
-      </c>
-      <c r="S7" s="8">
-        <v>46</v>
-      </c>
-      <c r="T7" s="8">
-        <v>50</v>
-      </c>
-      <c r="U7" s="8">
-        <v>50</v>
-      </c>
-      <c r="V7" s="8">
-        <v>51</v>
-      </c>
-      <c r="W7" s="8">
-        <v>52</v>
-      </c>
-      <c r="X7" s="8">
-        <v>53</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>55</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>56</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>57</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8">
-        <v>25</v>
-      </c>
-      <c r="G8" s="8">
-        <v>26</v>
-      </c>
-      <c r="H8" s="8">
-        <v>27</v>
-      </c>
-      <c r="I8" s="8">
-        <v>28</v>
-      </c>
-      <c r="J8" s="8">
-        <v>28</v>
-      </c>
-      <c r="K8" s="8">
-        <v>28</v>
-      </c>
-      <c r="L8" s="8">
-        <v>28</v>
-      </c>
-      <c r="M8" s="8">
-        <v>28</v>
-      </c>
-      <c r="N8" s="8">
-        <v>29</v>
-      </c>
-      <c r="O8" s="8">
-        <v>30</v>
-      </c>
-      <c r="P8" s="8">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>30</v>
-      </c>
-      <c r="R8" s="8">
-        <v>30</v>
-      </c>
-      <c r="S8" s="8">
-        <v>31</v>
-      </c>
-      <c r="T8" s="8">
-        <v>33</v>
-      </c>
-      <c r="U8" s="8">
-        <v>33</v>
-      </c>
-      <c r="V8" s="8">
-        <v>33</v>
-      </c>
-      <c r="W8" s="8">
-        <v>36</v>
-      </c>
-      <c r="X8" s="8">
-        <v>38</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>38</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>38</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>39</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8">
-        <v>17</v>
-      </c>
-      <c r="E9" s="8">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8">
-        <v>23</v>
-      </c>
-      <c r="G9" s="8">
-        <v>23</v>
-      </c>
-      <c r="H9" s="8">
-        <v>25</v>
-      </c>
-      <c r="I9" s="8">
-        <v>25</v>
-      </c>
-      <c r="J9" s="8">
-        <v>25</v>
-      </c>
-      <c r="K9" s="8">
-        <v>27</v>
-      </c>
-      <c r="L9" s="8">
-        <v>29</v>
-      </c>
-      <c r="M9" s="8">
-        <v>30</v>
-      </c>
-      <c r="N9" s="8">
-        <v>32</v>
-      </c>
-      <c r="O9" s="8">
-        <v>34</v>
-      </c>
-      <c r="P9" s="8">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>37</v>
-      </c>
-      <c r="R9" s="8">
-        <v>37</v>
-      </c>
-      <c r="S9" s="8">
-        <v>39</v>
-      </c>
-      <c r="T9" s="8">
-        <v>42</v>
-      </c>
-      <c r="U9" s="8">
-        <v>43</v>
-      </c>
-      <c r="V9" s="8">
-        <v>44</v>
-      </c>
-      <c r="W9" s="8">
-        <v>43</v>
-      </c>
-      <c r="X9" s="8">
-        <v>43</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>44</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>47</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>49</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8">
-        <v>33</v>
-      </c>
-      <c r="G10" s="8">
-        <v>36</v>
-      </c>
-      <c r="H10" s="8">
-        <v>41</v>
-      </c>
-      <c r="I10" s="8">
-        <v>42</v>
-      </c>
-      <c r="J10" s="8">
-        <v>43</v>
-      </c>
-      <c r="K10" s="8">
-        <v>45</v>
-      </c>
-      <c r="L10" s="8">
-        <v>49</v>
-      </c>
-      <c r="M10" s="8">
-        <v>51</v>
-      </c>
-      <c r="N10" s="8">
-        <v>52</v>
-      </c>
-      <c r="O10" s="8">
-        <v>54</v>
-      </c>
-      <c r="P10" s="8">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>59</v>
-      </c>
-      <c r="R10" s="8">
-        <v>60</v>
-      </c>
-      <c r="S10" s="8">
-        <v>61</v>
-      </c>
-      <c r="T10" s="8">
-        <v>67</v>
-      </c>
-      <c r="U10" s="8">
-        <v>68</v>
-      </c>
-      <c r="V10" s="8">
-        <v>69</v>
-      </c>
-      <c r="W10" s="8">
-        <v>74</v>
-      </c>
-      <c r="X10" s="8">
-        <v>74</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>78</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>80</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>82</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="8">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8">
-        <v>9</v>
-      </c>
-      <c r="G11" s="8">
-        <v>9</v>
-      </c>
-      <c r="H11" s="8">
-        <v>9</v>
-      </c>
-      <c r="I11" s="8">
-        <v>9</v>
-      </c>
-      <c r="J11" s="8">
-        <v>9</v>
-      </c>
-      <c r="K11" s="8">
-        <v>9</v>
-      </c>
-      <c r="L11" s="8">
-        <v>9</v>
-      </c>
-      <c r="M11" s="8">
-        <v>9</v>
-      </c>
-      <c r="N11" s="8">
-        <v>9</v>
-      </c>
-      <c r="O11" s="8">
-        <v>9</v>
-      </c>
-      <c r="P11" s="8">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>9</v>
-      </c>
-      <c r="R11" s="8">
-        <v>10</v>
-      </c>
-      <c r="S11" s="8">
-        <v>10</v>
-      </c>
-      <c r="T11" s="8">
-        <v>10</v>
-      </c>
-      <c r="U11" s="8">
-        <v>11</v>
-      </c>
-      <c r="V11" s="8">
-        <v>11</v>
-      </c>
-      <c r="W11" s="8">
-        <v>15</v>
-      </c>
-      <c r="X11" s="8">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>15</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>15</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8">
-        <v>0</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AP21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP1" sqref="AP1:AP1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:42">
-      <c r="A1" s="9"/>
-      <c r="B1" s="5">
-        <v>43926</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43927</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43928</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43929</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43930</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43931</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43932</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43933</v>
-      </c>
-      <c r="J1" s="5">
-        <v>43934</v>
-      </c>
-      <c r="K1" s="5">
-        <v>43935</v>
-      </c>
-      <c r="L1" s="5">
-        <v>43936</v>
-      </c>
-      <c r="M1" s="5">
-        <v>43937</v>
-      </c>
-      <c r="N1" s="5">
-        <v>43938</v>
-      </c>
-      <c r="O1" s="5">
-        <v>43939</v>
-      </c>
-      <c r="P1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="R1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="S1" s="5">
-        <v>43943</v>
-      </c>
-      <c r="T1" s="5">
-        <v>43944</v>
-      </c>
-      <c r="U1" s="5">
-        <v>43945</v>
-      </c>
-      <c r="V1" s="5">
-        <v>43946</v>
-      </c>
-      <c r="W1" s="5">
-        <v>43947</v>
-      </c>
-      <c r="X1" s="5">
-        <v>43948</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>43949</v>
-      </c>
-      <c r="Z1" s="5">
-        <v>43950</v>
-      </c>
-      <c r="AA1" s="5">
-        <v>43951</v>
-      </c>
-      <c r="AB1" s="5">
-        <v>43952</v>
-      </c>
-      <c r="AC1" s="5">
-        <v>43953</v>
-      </c>
-      <c r="AD1" s="5">
-        <v>43954</v>
-      </c>
-      <c r="AE1" s="5">
-        <v>43955</v>
-      </c>
-      <c r="AF1" s="5">
-        <v>43956</v>
-      </c>
-      <c r="AG1" s="5">
-        <v>43957</v>
-      </c>
-      <c r="AH1" s="5">
-        <v>43958</v>
-      </c>
-      <c r="AI1" s="5">
-        <v>43959</v>
-      </c>
-      <c r="AJ1" s="5">
-        <v>43960</v>
-      </c>
-      <c r="AK1" s="5">
-        <v>43961</v>
-      </c>
-      <c r="AL1" s="5">
-        <v>43962</v>
-      </c>
-      <c r="AM1" s="5">
-        <v>43963</v>
-      </c>
-      <c r="AN1" s="5">
-        <v>43964</v>
-      </c>
-      <c r="AO1" s="5">
-        <v>43965</v>
-      </c>
-      <c r="AP1" s="5">
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42">
-      <c r="A2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-    </row>
-    <row r="3" spans="1:42">
-      <c r="A3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>2</v>
-      </c>
-      <c r="I3" s="8">
-        <v>2</v>
-      </c>
-      <c r="J3" s="8">
-        <v>2</v>
-      </c>
-      <c r="K3" s="8">
-        <v>2</v>
-      </c>
-      <c r="L3" s="8">
-        <v>2</v>
-      </c>
-      <c r="M3" s="8">
-        <v>2</v>
-      </c>
-      <c r="N3" s="8">
-        <v>2</v>
-      </c>
-      <c r="O3" s="8">
-        <v>2</v>
-      </c>
-      <c r="P3" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>2</v>
-      </c>
-      <c r="R3" s="8">
-        <v>3</v>
-      </c>
-      <c r="S3" s="8">
-        <v>3</v>
-      </c>
-      <c r="T3" s="8">
-        <v>3</v>
-      </c>
-      <c r="U3" s="8">
-        <v>4</v>
-      </c>
-      <c r="V3" s="8">
-        <v>4</v>
-      </c>
-      <c r="W3" s="8">
-        <v>4</v>
-      </c>
-      <c r="X3" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AE3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AH3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AI3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AK3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AL3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AM3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AN3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AO3" s="8">
-        <v>6</v>
-      </c>
-      <c r="AP3" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
-      <c r="A4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8">
-        <v>15</v>
-      </c>
-      <c r="E4" s="8">
-        <v>20</v>
-      </c>
-      <c r="F4" s="8">
-        <v>25</v>
-      </c>
-      <c r="G4" s="8">
-        <v>34</v>
-      </c>
-      <c r="H4" s="8">
-        <v>36</v>
-      </c>
-      <c r="I4" s="8">
-        <v>38</v>
-      </c>
-      <c r="J4" s="8">
-        <v>51</v>
-      </c>
-      <c r="K4" s="8">
-        <v>54</v>
-      </c>
-      <c r="L4" s="8">
-        <v>61</v>
-      </c>
-      <c r="M4" s="8">
-        <v>66</v>
-      </c>
-      <c r="N4" s="8">
-        <v>71</v>
-      </c>
-      <c r="O4" s="8">
-        <v>75</v>
-      </c>
-      <c r="P4" s="8">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>90</v>
-      </c>
-      <c r="R4" s="8">
-        <v>102</v>
-      </c>
-      <c r="S4" s="8">
-        <v>112</v>
-      </c>
-      <c r="T4" s="8">
-        <v>124</v>
-      </c>
-      <c r="U4" s="8">
-        <v>131</v>
-      </c>
-      <c r="V4" s="8">
-        <v>142</v>
-      </c>
-      <c r="W4" s="8">
-        <v>147</v>
-      </c>
-      <c r="X4" s="8">
-        <v>150</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>163</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>177</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>183</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>190</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>198</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>205</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>210</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>220</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>226</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>241</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>247</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>252</v>
-      </c>
-      <c r="AK4" s="8">
-        <v>254</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>259</v>
-      </c>
-      <c r="AM4" s="8">
-        <v>271</v>
-      </c>
-      <c r="AN4" s="8">
-        <v>277</v>
-      </c>
-      <c r="AO4" s="8">
-        <v>283</v>
-      </c>
-      <c r="AP4" s="8">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42">
-      <c r="A5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8">
-        <v>6</v>
-      </c>
-      <c r="H5" s="8">
-        <v>6</v>
-      </c>
-      <c r="I5" s="8">
-        <v>6</v>
-      </c>
-      <c r="J5" s="8">
-        <v>7</v>
-      </c>
-      <c r="K5" s="8">
-        <v>8</v>
-      </c>
-      <c r="L5" s="8">
-        <v>9</v>
-      </c>
-      <c r="M5" s="8">
-        <v>8</v>
-      </c>
-      <c r="N5" s="8">
-        <v>8</v>
-      </c>
-      <c r="O5" s="8">
-        <v>8</v>
-      </c>
-      <c r="P5" s="8">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>8</v>
-      </c>
-      <c r="R5" s="8">
-        <v>8</v>
-      </c>
-      <c r="S5" s="8">
-        <v>9</v>
-      </c>
-      <c r="T5" s="8">
-        <v>9</v>
-      </c>
-      <c r="U5" s="8">
-        <v>10</v>
-      </c>
-      <c r="V5" s="8">
-        <v>11</v>
-      </c>
-      <c r="W5" s="8">
-        <v>11</v>
-      </c>
-      <c r="X5" s="8">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>16</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>17</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>17</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>19</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>19</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>20</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>21</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>22</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>23</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>24</v>
-      </c>
-      <c r="AJ5" s="8">
-        <v>29</v>
-      </c>
-      <c r="AK5" s="8">
-        <v>30</v>
-      </c>
-      <c r="AL5" s="8">
-        <v>32</v>
-      </c>
-      <c r="AM5" s="8">
-        <v>38</v>
-      </c>
-      <c r="AN5" s="8">
-        <v>36</v>
-      </c>
-      <c r="AO5" s="8">
-        <v>37</v>
-      </c>
-      <c r="AP5" s="8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42">
-      <c r="A6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>5</v>
-      </c>
-      <c r="G6" s="8">
-        <v>5</v>
-      </c>
-      <c r="H6" s="8">
-        <v>6</v>
-      </c>
-      <c r="I6" s="8">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8">
-        <v>7</v>
-      </c>
-      <c r="K6" s="8">
-        <v>8</v>
-      </c>
-      <c r="L6" s="8">
-        <v>8</v>
-      </c>
-      <c r="M6" s="8">
-        <v>10</v>
-      </c>
-      <c r="N6" s="8">
-        <v>10</v>
-      </c>
-      <c r="O6" s="8">
-        <v>11</v>
-      </c>
-      <c r="P6" s="8">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>12</v>
-      </c>
-      <c r="R6" s="8">
-        <v>14</v>
-      </c>
-      <c r="S6" s="8">
-        <v>15</v>
-      </c>
-      <c r="T6" s="8">
-        <v>16</v>
-      </c>
-      <c r="U6" s="8">
-        <v>19</v>
-      </c>
-      <c r="V6" s="8">
-        <v>20</v>
-      </c>
-      <c r="W6" s="8">
-        <v>21</v>
-      </c>
-      <c r="X6" s="8">
-        <v>22</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>25</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>25</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>27</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>27</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>27</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>27</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>29</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>30</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>33</v>
-      </c>
-      <c r="AI6" s="8">
-        <v>33</v>
-      </c>
-      <c r="AJ6" s="8">
-        <v>35</v>
-      </c>
-      <c r="AK6" s="8">
-        <v>37</v>
-      </c>
-      <c r="AL6" s="8">
-        <v>38</v>
-      </c>
-      <c r="AM6" s="8">
-        <v>34</v>
-      </c>
-      <c r="AN6" s="8">
-        <v>38</v>
-      </c>
-      <c r="AO6" s="8">
-        <v>40</v>
-      </c>
-      <c r="AP6" s="8">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42">
-      <c r="A7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
-        <v>1</v>
-      </c>
-      <c r="U7" s="8">
-        <v>1</v>
-      </c>
-      <c r="V7" s="8">
-        <v>1</v>
-      </c>
-      <c r="W7" s="8">
-        <v>2</v>
-      </c>
-      <c r="X7" s="8">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AI7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AJ7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AK7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AL7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AM7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AN7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AO7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AP7" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-    </row>
-    <row r="9" spans="1:42">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-    </row>
-    <row r="10" spans="1:42">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
-    </row>
-    <row r="11" spans="1:42">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
-    </row>
-    <row r="12" spans="1:42">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:42">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:42">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:42">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:42">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT90"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BV13" sqref="BV13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="72" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:72">
+    <row r="1" spans="1:73">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -6811,8 +6936,11 @@
       <c r="BT1" s="5">
         <v>43966</v>
       </c>
+      <c r="BU1" s="21">
+        <v>43967</v>
+      </c>
     </row>
-    <row r="2" spans="1:72">
+    <row r="2" spans="1:73">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -6888,7 +7016,7 @@
       <c r="BS2" s="4"/>
       <c r="BT2" s="4"/>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:73">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -7093,8 +7221,11 @@
       <c r="BT3" s="12">
         <v>35532</v>
       </c>
+      <c r="BU3">
+        <v>36526</v>
+      </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:73">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -7311,8 +7442,11 @@
       <c r="BT4" s="12">
         <v>7042</v>
       </c>
+      <c r="BU4">
+        <v>7123</v>
+      </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:73">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -7517,8 +7651,11 @@
       <c r="BT5" s="12">
         <v>375</v>
       </c>
+      <c r="BU5">
+        <v>383</v>
+      </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:73">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -7703,8 +7840,11 @@
       <c r="BT6" s="12">
         <v>998</v>
       </c>
+      <c r="BU6">
+        <v>1023</v>
+      </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:73">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -7778,7 +7918,7 @@
       <c r="BS7" s="12"/>
       <c r="BT7" s="12"/>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:73">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -7891,8 +8031,11 @@
       <c r="BT8" s="12">
         <v>345</v>
       </c>
+      <c r="BU8">
+        <v>345</v>
+      </c>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:73">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -8073,8 +8216,11 @@
       <c r="BT9" s="12">
         <v>86</v>
       </c>
+      <c r="BU9">
+        <v>83</v>
+      </c>
     </row>
-    <row r="10" spans="1:72">
+    <row r="10" spans="1:73">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -8255,8 +8401,11 @@
       <c r="BT10" s="12">
         <v>440</v>
       </c>
+      <c r="BU10">
+        <v>440</v>
+      </c>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:73">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
@@ -8437,8 +8586,11 @@
       <c r="BT11" s="12">
         <v>251</v>
       </c>
+      <c r="BU11">
+        <v>232</v>
+      </c>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:73">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -8619,8 +8771,11 @@
       <c r="BT12" s="12">
         <v>189</v>
       </c>
+      <c r="BU12">
+        <v>208</v>
+      </c>
     </row>
-    <row r="13" spans="1:72">
+    <row r="13" spans="1:73">
       <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
@@ -8709,8 +8864,11 @@
       <c r="BT13" s="12">
         <v>382</v>
       </c>
+      <c r="BU13">
+        <v>369</v>
+      </c>
     </row>
-    <row r="14" spans="1:72">
+    <row r="14" spans="1:73">
       <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
@@ -8799,8 +8957,11 @@
       <c r="BT14" s="12">
         <v>1862</v>
       </c>
+      <c r="BU14">
+        <v>1813</v>
+      </c>
     </row>
-    <row r="15" spans="1:72">
+    <row r="15" spans="1:73">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="12"/>
@@ -8874,7 +9035,7 @@
       <c r="BS15" s="12"/>
       <c r="BT15" s="12"/>
     </row>
-    <row r="16" spans="1:72">
+    <row r="16" spans="1:73">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="12"/>
@@ -8948,7 +9109,7 @@
       <c r="BS16" s="12"/>
       <c r="BT16" s="12"/>
     </row>
-    <row r="17" spans="1:72">
+    <row r="17" spans="1:73">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
         <v>46</v>
@@ -9024,7 +9185,7 @@
       <c r="BS17" s="12"/>
       <c r="BT17" s="12"/>
     </row>
-    <row r="18" spans="1:72">
+    <row r="18" spans="1:73">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -9102,7 +9263,7 @@
       <c r="BS18" s="12"/>
       <c r="BT18" s="12"/>
     </row>
-    <row r="19" spans="1:72">
+    <row r="19" spans="1:73">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -9285,8 +9446,11 @@
       <c r="BT19" s="12">
         <v>104</v>
       </c>
+      <c r="BU19">
+        <v>105</v>
+      </c>
     </row>
-    <row r="20" spans="1:72">
+    <row r="20" spans="1:73">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
@@ -9433,8 +9597,11 @@
       <c r="BT20" s="12">
         <v>32</v>
       </c>
+      <c r="BU20">
+        <v>32</v>
+      </c>
     </row>
-    <row r="21" spans="1:72">
+    <row r="21" spans="1:73">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -9581,8 +9748,11 @@
       <c r="BT21" s="12">
         <v>72</v>
       </c>
+      <c r="BU21">
+        <v>73</v>
+      </c>
     </row>
-    <row r="22" spans="1:72">
+    <row r="22" spans="1:73">
       <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
@@ -9759,8 +9929,11 @@
       <c r="BT22" s="12">
         <v>88</v>
       </c>
+      <c r="BU22">
+        <v>88</v>
+      </c>
     </row>
-    <row r="23" spans="1:72">
+    <row r="23" spans="1:73">
       <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
@@ -9937,8 +10110,11 @@
       <c r="BT23" s="12">
         <v>120</v>
       </c>
+      <c r="BU23">
+        <v>120</v>
+      </c>
     </row>
-    <row r="24" spans="1:72">
+    <row r="24" spans="1:73">
       <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
@@ -10115,8 +10291,11 @@
       <c r="BT24" s="12">
         <v>1125</v>
       </c>
+      <c r="BU24">
+        <v>1147</v>
+      </c>
     </row>
-    <row r="25" spans="1:72">
+    <row r="25" spans="1:73">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="12"/>
@@ -10190,7 +10369,7 @@
       <c r="BS25" s="12"/>
       <c r="BT25" s="12"/>
     </row>
-    <row r="26" spans="1:72">
+    <row r="26" spans="1:73">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>55</v>
@@ -10266,7 +10445,7 @@
       <c r="BS26" s="12"/>
       <c r="BT26" s="12"/>
     </row>
-    <row r="27" spans="1:72">
+    <row r="27" spans="1:73">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -10449,8 +10628,11 @@
       <c r="BT27" s="12">
         <v>116</v>
       </c>
+      <c r="BU27">
+        <v>117</v>
+      </c>
     </row>
-    <row r="28" spans="1:72">
+    <row r="28" spans="1:73">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
@@ -10597,8 +10779,11 @@
       <c r="BT28" s="12">
         <v>38</v>
       </c>
+      <c r="BU28">
+        <v>39</v>
+      </c>
     </row>
-    <row r="29" spans="1:72">
+    <row r="29" spans="1:73">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -10745,8 +10930,11 @@
       <c r="BT29" s="12">
         <v>78</v>
       </c>
+      <c r="BU29">
+        <v>78</v>
+      </c>
     </row>
-    <row r="30" spans="1:72">
+    <row r="30" spans="1:73">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
@@ -10923,8 +11111,11 @@
       <c r="BT30" s="12">
         <v>43</v>
       </c>
+      <c r="BU30">
+        <v>44</v>
+      </c>
     </row>
-    <row r="31" spans="1:72">
+    <row r="31" spans="1:73">
       <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
@@ -11101,8 +11292,11 @@
       <c r="BT31" s="12">
         <v>81</v>
       </c>
+      <c r="BU31">
+        <v>83</v>
+      </c>
     </row>
-    <row r="32" spans="1:72">
+    <row r="32" spans="1:73">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
@@ -11279,8 +11473,11 @@
       <c r="BT32" s="12">
         <v>1068</v>
       </c>
+      <c r="BU32">
+        <v>1067</v>
+      </c>
     </row>
-    <row r="33" spans="1:72">
+    <row r="33" spans="1:73">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="12"/>
@@ -11354,7 +11551,7 @@
       <c r="BS33" s="12"/>
       <c r="BT33" s="12"/>
     </row>
-    <row r="34" spans="1:72">
+    <row r="34" spans="1:73">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>60</v>
@@ -11430,7 +11627,7 @@
       <c r="BS34" s="12"/>
       <c r="BT34" s="12"/>
     </row>
-    <row r="35" spans="1:72">
+    <row r="35" spans="1:73">
       <c r="A35" s="6" t="s">
         <v>61</v>
       </c>
@@ -11605,8 +11802,11 @@
       <c r="BT35" s="12">
         <v>76</v>
       </c>
+      <c r="BU35">
+        <v>76</v>
+      </c>
     </row>
-    <row r="36" spans="1:72">
+    <row r="36" spans="1:73">
       <c r="A36" s="6" t="s">
         <v>61</v>
       </c>
@@ -11749,8 +11949,11 @@
       <c r="BT36" s="12">
         <v>20</v>
       </c>
+      <c r="BU36">
+        <v>20</v>
+      </c>
     </row>
-    <row r="37" spans="1:72">
+    <row r="37" spans="1:73">
       <c r="A37" s="6" t="s">
         <v>61</v>
       </c>
@@ -11893,8 +12096,11 @@
       <c r="BT37" s="12">
         <v>55</v>
       </c>
+      <c r="BU37">
+        <v>55</v>
+      </c>
     </row>
-    <row r="38" spans="1:72">
+    <row r="38" spans="1:73">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -12067,8 +12273,11 @@
       <c r="BT38" s="12">
         <v>6</v>
       </c>
+      <c r="BU38">
+        <v>88</v>
+      </c>
     </row>
-    <row r="39" spans="1:72">
+    <row r="39" spans="1:73">
       <c r="A39" s="6" t="s">
         <v>61</v>
       </c>
@@ -12239,8 +12448,11 @@
       <c r="BT39" s="12">
         <v>26</v>
       </c>
+      <c r="BU39">
+        <v>208</v>
+      </c>
     </row>
-    <row r="40" spans="1:72">
+    <row r="40" spans="1:73">
       <c r="A40" s="6" t="s">
         <v>61</v>
       </c>
@@ -12415,8 +12627,11 @@
       <c r="BT40" s="12">
         <v>258</v>
       </c>
+      <c r="BU40">
+        <v>258</v>
+      </c>
     </row>
-    <row r="41" spans="1:72">
+    <row r="41" spans="1:73">
       <c r="A41" s="6" t="s">
         <v>61</v>
       </c>
@@ -12547,8 +12762,11 @@
       <c r="BT41" s="12">
         <v>1</v>
       </c>
+      <c r="BU41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:72">
+    <row r="42" spans="1:73">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="12"/>
@@ -12622,7 +12840,7 @@
       <c r="BS42" s="12"/>
       <c r="BT42" s="12"/>
     </row>
-    <row r="43" spans="1:72">
+    <row r="43" spans="1:73">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
         <v>60</v>
@@ -12698,7 +12916,7 @@
       <c r="BS43" s="12"/>
       <c r="BT43" s="12"/>
     </row>
-    <row r="44" spans="1:72">
+    <row r="44" spans="1:73">
       <c r="A44" s="6" t="s">
         <v>65</v>
       </c>
@@ -12877,8 +13095,11 @@
       <c r="BT44" s="12">
         <v>184</v>
       </c>
+      <c r="BU44">
+        <v>186</v>
+      </c>
     </row>
-    <row r="45" spans="1:72">
+    <row r="45" spans="1:73">
       <c r="A45" s="6" t="s">
         <v>65</v>
       </c>
@@ -13025,8 +13246,11 @@
       <c r="BT45" s="12">
         <v>31</v>
       </c>
+      <c r="BU45">
+        <v>32</v>
+      </c>
     </row>
-    <row r="46" spans="1:72">
+    <row r="46" spans="1:73">
       <c r="A46" s="6" t="s">
         <v>65</v>
       </c>
@@ -13173,8 +13397,11 @@
       <c r="BT46" s="12">
         <v>147</v>
       </c>
+      <c r="BU46">
+        <v>148</v>
+      </c>
     </row>
-    <row r="47" spans="1:72">
+    <row r="47" spans="1:73">
       <c r="A47" s="6" t="s">
         <v>65</v>
       </c>
@@ -13351,8 +13578,11 @@
       <c r="BT47" s="12">
         <v>761</v>
       </c>
+      <c r="BU47">
+        <v>768</v>
+      </c>
     </row>
-    <row r="48" spans="1:72">
+    <row r="48" spans="1:73">
       <c r="A48" s="6" t="s">
         <v>65</v>
       </c>
@@ -13499,8 +13729,11 @@
       <c r="BT48" s="12">
         <v>792</v>
       </c>
+      <c r="BU48">
+        <v>800</v>
+      </c>
     </row>
-    <row r="49" spans="1:72">
+    <row r="49" spans="1:73">
       <c r="A49" s="6" t="s">
         <v>65</v>
       </c>
@@ -13645,8 +13878,11 @@
       <c r="BT49" s="12">
         <v>535</v>
       </c>
+      <c r="BU49">
+        <v>527</v>
+      </c>
     </row>
-    <row r="50" spans="1:72">
+    <row r="50" spans="1:73">
       <c r="A50" s="6" t="s">
         <v>65</v>
       </c>
@@ -13787,8 +14023,11 @@
       <c r="BT50" s="12">
         <v>1</v>
       </c>
+      <c r="BU50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:72">
+    <row r="51" spans="1:73">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="12"/>
@@ -13862,7 +14101,7 @@
       <c r="BS51" s="12"/>
       <c r="BT51" s="12"/>
     </row>
-    <row r="52" spans="1:72">
+    <row r="52" spans="1:73">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
         <v>73</v>
@@ -13938,7 +14177,7 @@
       <c r="BS52" s="12"/>
       <c r="BT52" s="12"/>
     </row>
-    <row r="53" spans="1:72">
+    <row r="53" spans="1:73">
       <c r="A53" s="6" t="s">
         <v>74</v>
       </c>
@@ -14107,8 +14346,11 @@
       <c r="BT53" s="12">
         <v>27</v>
       </c>
+      <c r="BU53">
+        <v>27</v>
+      </c>
     </row>
-    <row r="54" spans="1:72">
+    <row r="54" spans="1:73">
       <c r="A54" s="6" t="s">
         <v>74</v>
       </c>
@@ -14253,8 +14495,11 @@
       <c r="BT54" s="12">
         <v>13</v>
       </c>
+      <c r="BU54">
+        <v>13</v>
+      </c>
     </row>
-    <row r="55" spans="1:72">
+    <row r="55" spans="1:73">
       <c r="A55" s="6" t="s">
         <v>74</v>
       </c>
@@ -14399,8 +14644,11 @@
       <c r="BT55" s="12">
         <v>13</v>
       </c>
+      <c r="BU55">
+        <v>13</v>
+      </c>
     </row>
-    <row r="56" spans="1:72">
+    <row r="56" spans="1:73">
       <c r="A56" s="6" t="s">
         <v>74</v>
       </c>
@@ -14569,8 +14817,11 @@
       <c r="BT56" s="12">
         <v>18</v>
       </c>
+      <c r="BU56">
+        <v>18</v>
+      </c>
     </row>
-    <row r="57" spans="1:72">
+    <row r="57" spans="1:73">
       <c r="A57" s="6" t="s">
         <v>74</v>
       </c>
@@ -14739,8 +14990,11 @@
       <c r="BT57" s="12">
         <v>31</v>
       </c>
+      <c r="BU57">
+        <v>31</v>
+      </c>
     </row>
-    <row r="58" spans="1:72">
+    <row r="58" spans="1:73">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
@@ -14909,8 +15163,11 @@
       <c r="BT58" s="12">
         <v>125</v>
       </c>
+      <c r="BU58">
+        <v>125</v>
+      </c>
     </row>
-    <row r="59" spans="1:72">
+    <row r="59" spans="1:73">
       <c r="A59" s="6" t="s">
         <v>74</v>
       </c>
@@ -15051,8 +15308,11 @@
       <c r="BT59" s="12">
         <v>1</v>
       </c>
+      <c r="BU59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:72">
+    <row r="60" spans="1:73">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="12"/>
@@ -15126,7 +15386,7 @@
       <c r="BS60" s="12"/>
       <c r="BT60" s="12"/>
     </row>
-    <row r="61" spans="1:72">
+    <row r="61" spans="1:73">
       <c r="A61" s="6" t="s">
         <v>76</v>
       </c>
@@ -15295,8 +15555,11 @@
       <c r="BT61" s="12">
         <v>10</v>
       </c>
+      <c r="BU61">
+        <v>10</v>
+      </c>
     </row>
-    <row r="62" spans="1:72">
+    <row r="62" spans="1:73">
       <c r="A62" s="6" t="s">
         <v>76</v>
       </c>
@@ -15441,8 +15704,11 @@
       <c r="BT62" s="12">
         <v>4</v>
       </c>
+      <c r="BU62">
+        <v>4</v>
+      </c>
     </row>
-    <row r="63" spans="1:72">
+    <row r="63" spans="1:73">
       <c r="A63" s="6" t="s">
         <v>76</v>
       </c>
@@ -15587,8 +15853,11 @@
       <c r="BT63" s="12">
         <v>6</v>
       </c>
+      <c r="BU63">
+        <v>6</v>
+      </c>
     </row>
-    <row r="64" spans="1:72">
+    <row r="64" spans="1:73">
       <c r="A64" s="6" t="s">
         <v>76</v>
       </c>
@@ -15757,8 +16026,11 @@
       <c r="BT64" s="12">
         <v>42</v>
       </c>
+      <c r="BU64">
+        <v>44</v>
+      </c>
     </row>
-    <row r="65" spans="1:72">
+    <row r="65" spans="1:73">
       <c r="A65" s="6" t="s">
         <v>76</v>
       </c>
@@ -15927,8 +16199,11 @@
       <c r="BT65" s="12">
         <v>46</v>
       </c>
+      <c r="BU65">
+        <v>48</v>
+      </c>
     </row>
-    <row r="66" spans="1:72">
+    <row r="66" spans="1:73">
       <c r="A66" s="6" t="s">
         <v>76</v>
       </c>
@@ -16095,8 +16370,11 @@
       <c r="BT66" s="12">
         <v>0</v>
       </c>
+      <c r="BU66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:72">
+    <row r="67" spans="1:73">
       <c r="A67" s="6" t="s">
         <v>76</v>
       </c>
@@ -16241,8 +16519,11 @@
       <c r="BT67" s="12">
         <v>0</v>
       </c>
+      <c r="BU67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:72">
+    <row r="68" spans="1:73">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="12"/>
@@ -16316,7 +16597,7 @@
       <c r="BS68" s="12"/>
       <c r="BT68" s="12"/>
     </row>
-    <row r="69" spans="1:72">
+    <row r="69" spans="1:73">
       <c r="A69" s="7"/>
       <c r="B69" s="6" t="s">
         <v>83</v>
@@ -16392,7 +16673,7 @@
       <c r="BS69" s="12"/>
       <c r="BT69" s="12"/>
     </row>
-    <row r="70" spans="1:72">
+    <row r="70" spans="1:73">
       <c r="A70" s="6" t="s">
         <v>84</v>
       </c>
@@ -16561,8 +16842,11 @@
       <c r="BT70" s="12">
         <v>277</v>
       </c>
+      <c r="BU70">
+        <v>277</v>
+      </c>
     </row>
-    <row r="71" spans="1:72">
+    <row r="71" spans="1:73">
       <c r="A71" s="6" t="s">
         <v>84</v>
       </c>
@@ -16731,8 +17015,11 @@
       <c r="BT71" s="12">
         <v>321</v>
       </c>
+      <c r="BU71">
+        <v>326</v>
+      </c>
     </row>
-    <row r="72" spans="1:72">
+    <row r="72" spans="1:73">
       <c r="A72" s="6" t="s">
         <v>84</v>
       </c>
@@ -16901,8 +17188,11 @@
       <c r="BT72" s="12">
         <v>312</v>
       </c>
+      <c r="BU72">
+        <v>312</v>
+      </c>
     </row>
-    <row r="73" spans="1:72">
+    <row r="73" spans="1:73">
       <c r="A73" s="6" t="s">
         <v>84</v>
       </c>
@@ -17043,8 +17333,11 @@
       <c r="BT73" s="12">
         <v>15</v>
       </c>
+      <c r="BU73">
+        <v>15</v>
+      </c>
     </row>
-    <row r="74" spans="1:72">
+    <row r="74" spans="1:73">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="12"/>
@@ -17118,7 +17411,7 @@
       <c r="BS74" s="12"/>
       <c r="BT74" s="12"/>
     </row>
-    <row r="75" spans="1:72">
+    <row r="75" spans="1:73">
       <c r="A75" s="6" t="s">
         <v>89</v>
       </c>
@@ -17287,8 +17580,11 @@
       <c r="BT75" s="12">
         <v>95</v>
       </c>
+      <c r="BU75">
+        <v>102</v>
+      </c>
     </row>
-    <row r="76" spans="1:72">
+    <row r="76" spans="1:73">
       <c r="A76" s="6" t="s">
         <v>89</v>
       </c>
@@ -17457,8 +17753,11 @@
       <c r="BT76" s="12">
         <v>15</v>
       </c>
+      <c r="BU76">
+        <v>11</v>
+      </c>
     </row>
-    <row r="77" spans="1:72">
+    <row r="77" spans="1:73">
       <c r="A77" s="6" t="s">
         <v>89</v>
       </c>
@@ -17627,8 +17926,11 @@
       <c r="BT77" s="12">
         <v>108</v>
       </c>
+      <c r="BU77">
+        <v>113</v>
+      </c>
     </row>
-    <row r="78" spans="1:72">
+    <row r="78" spans="1:73">
       <c r="A78" s="6" t="s">
         <v>89</v>
       </c>
@@ -17789,8 +18091,11 @@
       <c r="BT78" s="12">
         <v>163</v>
       </c>
+      <c r="BU78">
+        <v>163</v>
+      </c>
     </row>
-    <row r="79" spans="1:72">
+    <row r="79" spans="1:73">
       <c r="A79" s="6" t="s">
         <v>89</v>
       </c>
@@ -17875,8 +18180,11 @@
       <c r="BT79" s="12">
         <v>1</v>
       </c>
+      <c r="BU79">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:72">
+    <row r="80" spans="1:73">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="12"/>
@@ -17946,7 +18254,7 @@
       <c r="BO80" s="12"/>
       <c r="BP80" s="12"/>
     </row>
-    <row r="81" spans="1:72">
+    <row r="81" spans="1:73">
       <c r="A81" s="6" t="s">
         <v>91</v>
       </c>
@@ -18115,8 +18423,11 @@
       <c r="BT81" s="12">
         <v>79</v>
       </c>
+      <c r="BU81">
+        <v>79</v>
+      </c>
     </row>
-    <row r="82" spans="1:72">
+    <row r="82" spans="1:73">
       <c r="A82" s="6" t="s">
         <v>91</v>
       </c>
@@ -18285,8 +18596,11 @@
       <c r="BT82" s="12">
         <v>56</v>
       </c>
+      <c r="BU82">
+        <v>56</v>
+      </c>
     </row>
-    <row r="83" spans="1:72">
+    <row r="83" spans="1:73">
       <c r="A83" s="6" t="s">
         <v>91</v>
       </c>
@@ -18433,8 +18747,11 @@
       <c r="BT83" s="12">
         <v>142</v>
       </c>
+      <c r="BU83">
+        <v>142</v>
+      </c>
     </row>
-    <row r="84" spans="1:72">
+    <row r="84" spans="1:73">
       <c r="A84" s="6" t="s">
         <v>91</v>
       </c>
@@ -18577,8 +18894,11 @@
       <c r="BT84" s="12">
         <v>5</v>
       </c>
+      <c r="BU84">
+        <v>5</v>
+      </c>
     </row>
-    <row r="85" spans="1:72">
+    <row r="85" spans="1:73">
       <c r="A85" s="6" t="s">
         <v>91</v>
       </c>
@@ -18745,8 +19065,11 @@
       <c r="BT85" s="12">
         <v>13</v>
       </c>
+      <c r="BU85">
+        <v>13</v>
+      </c>
     </row>
-    <row r="86" spans="1:72">
+    <row r="86" spans="1:73">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="12"/>
@@ -18820,7 +19143,7 @@
       <c r="BS86" s="12"/>
       <c r="BT86" s="12"/>
     </row>
-    <row r="87" spans="1:72">
+    <row r="87" spans="1:73">
       <c r="A87" s="6" t="s">
         <v>98</v>
       </c>
@@ -18935,8 +19258,11 @@
       <c r="BT87" s="12">
         <v>168</v>
       </c>
+      <c r="BU87">
+        <v>169</v>
+      </c>
     </row>
-    <row r="88" spans="1:72">
+    <row r="88" spans="1:73">
       <c r="A88" s="6" t="s">
         <v>98</v>
       </c>
@@ -19051,8 +19377,11 @@
       <c r="BT88" s="12">
         <v>38</v>
       </c>
+      <c r="BU88">
+        <v>40</v>
+      </c>
     </row>
-    <row r="89" spans="1:72">
+    <row r="89" spans="1:73">
       <c r="A89" s="6" t="s">
         <v>98</v>
       </c>
@@ -19167,8 +19496,11 @@
       <c r="BT89" s="12">
         <v>24</v>
       </c>
+      <c r="BU89">
+        <v>24</v>
+      </c>
     </row>
-    <row r="90" spans="1:72">
+    <row r="90" spans="1:73">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="12"/>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F532C53C-D639-7542-8135-4D56B1E576ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Total Cases by Race" sheetId="3" r:id="rId6"/>
     <sheet name="Overall Stats" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -832,14 +832,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="19">
+    <row r="1" spans="1:1" ht="18.95">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19">
+    <row r="2" spans="1:1" ht="18.95">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -854,15 +854,15 @@
   <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA20" sqref="BA20"/>
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BA24" sqref="BA24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="42" max="90" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="42" max="90" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90">
@@ -1105,7 +1105,9 @@
       <c r="AW2" s="5">
         <v>43968</v>
       </c>
-      <c r="AX2" s="5"/>
+      <c r="AX2" s="5">
+        <v>43969</v>
+      </c>
       <c r="AY2" s="5"/>
       <c r="AZ2" s="5"/>
       <c r="BA2" s="5"/>
@@ -1295,7 +1297,9 @@
       <c r="AW3" s="8">
         <v>985</v>
       </c>
-      <c r="AX3" s="8"/>
+      <c r="AX3" s="8">
+        <v>1023</v>
+      </c>
       <c r="AY3" s="8"/>
       <c r="AZ3" s="8"/>
       <c r="BA3" s="8"/>
@@ -1485,7 +1489,9 @@
       <c r="AW4" s="8">
         <v>426</v>
       </c>
-      <c r="AX4" s="8"/>
+      <c r="AX4" s="8">
+        <v>439</v>
+      </c>
       <c r="AY4" s="8"/>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
@@ -1675,7 +1681,9 @@
       <c r="AW5" s="8">
         <v>377</v>
       </c>
-      <c r="AX5" s="8"/>
+      <c r="AX5" s="8">
+        <v>380</v>
+      </c>
       <c r="AY5" s="8"/>
       <c r="AZ5" s="8"/>
       <c r="BA5" s="8"/>
@@ -1865,7 +1873,9 @@
       <c r="AW6" s="8">
         <v>1497</v>
       </c>
-      <c r="AX6" s="8"/>
+      <c r="AX6" s="8">
+        <v>1528</v>
+      </c>
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
       <c r="BA6" s="8"/>
@@ -2055,7 +2065,9 @@
       <c r="AW7" s="8">
         <v>1133</v>
       </c>
-      <c r="AX7" s="8"/>
+      <c r="AX7" s="8">
+        <v>1157</v>
+      </c>
       <c r="AY7" s="8"/>
       <c r="AZ7" s="8"/>
       <c r="BA7" s="8"/>
@@ -2245,7 +2257,9 @@
       <c r="AW8" s="8">
         <v>652</v>
       </c>
-      <c r="AX8" s="8"/>
+      <c r="AX8" s="8">
+        <v>657</v>
+      </c>
       <c r="AY8" s="8"/>
       <c r="AZ8" s="8"/>
       <c r="BA8" s="8"/>
@@ -2435,7 +2449,9 @@
       <c r="AW9" s="8">
         <v>1058</v>
       </c>
-      <c r="AX9" s="8"/>
+      <c r="AX9" s="8">
+        <v>1080</v>
+      </c>
       <c r="AY9" s="8"/>
       <c r="AZ9" s="8"/>
       <c r="BA9" s="8"/>
@@ -2625,7 +2641,9 @@
       <c r="AW10" s="8">
         <v>1040</v>
       </c>
-      <c r="AX10" s="8"/>
+      <c r="AX10" s="8">
+        <v>1054</v>
+      </c>
       <c r="AY10" s="8"/>
       <c r="AZ10" s="8"/>
       <c r="BA10" s="8"/>
@@ -2815,7 +2833,9 @@
       <c r="AW11" s="8">
         <v>102</v>
       </c>
-      <c r="AX11" s="8"/>
+      <c r="AX11" s="8">
+        <v>116</v>
+      </c>
       <c r="AY11" s="8"/>
       <c r="AZ11" s="8"/>
       <c r="BA11" s="8"/>
@@ -2868,13 +2888,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -2903,16 +2923,16 @@
         <v>9</v>
       </c>
       <c r="B2" s="13">
-        <v>7270</v>
+        <v>7434</v>
       </c>
       <c r="C2" s="13">
-        <v>3565</v>
+        <v>3665</v>
       </c>
       <c r="D2" s="13">
-        <v>3685</v>
+        <v>3751</v>
       </c>
       <c r="E2" s="14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="14">
         <v>2</v>
@@ -2943,16 +2963,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="13">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C4" s="8">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D4" s="8">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E4" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
@@ -2963,13 +2983,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="13">
-        <v>1208</v>
+        <v>1233</v>
       </c>
       <c r="C5" s="8">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="D5" s="8">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="E5" s="12">
         <v>4</v>
@@ -2983,13 +3003,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="13">
-        <v>1381</v>
+        <v>1411</v>
       </c>
       <c r="C6" s="8">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="D6" s="8">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="E6" s="12">
         <v>3</v>
@@ -3003,13 +3023,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="13">
-        <v>1140</v>
+        <v>1171</v>
       </c>
       <c r="C7" s="8">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="D7" s="8">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -3023,13 +3043,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="13">
-        <v>1211</v>
+        <v>1239</v>
       </c>
       <c r="C8" s="8">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="D8" s="8">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="E8" s="12">
         <v>2</v>
@@ -3043,16 +3063,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="13">
-        <v>1063</v>
+        <v>1077</v>
       </c>
       <c r="C9" s="8">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D9" s="8">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="E9" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="12">
         <v>0</v>
@@ -3063,13 +3083,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="13">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C10" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D10" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
@@ -3083,13 +3103,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="13">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C11" s="8">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D11" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -3112,13 +3132,14 @@
   <dimension ref="A1:BQ21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD22" sqref="AD22"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
@@ -3212,7 +3233,9 @@
       <c r="AD1" s="5">
         <v>43968</v>
       </c>
-      <c r="AE1" s="5"/>
+      <c r="AE1" s="5">
+        <v>43969</v>
+      </c>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
@@ -3344,7 +3367,9 @@
       <c r="AD2" s="19">
         <v>392</v>
       </c>
-      <c r="AE2" s="19"/>
+      <c r="AE2" s="19">
+        <v>400</v>
+      </c>
       <c r="AF2" s="19"/>
       <c r="AG2" s="19"/>
       <c r="AH2" s="19"/>
@@ -3475,7 +3500,9 @@
       <c r="AD3" s="8">
         <v>36</v>
       </c>
-      <c r="AE3" s="8"/>
+      <c r="AE3" s="8">
+        <v>36</v>
+      </c>
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
@@ -3606,7 +3633,9 @@
       <c r="AD4" s="8">
         <v>24</v>
       </c>
-      <c r="AE4" s="8"/>
+      <c r="AE4" s="8">
+        <v>25</v>
+      </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
@@ -3737,7 +3766,9 @@
       <c r="AD5" s="8">
         <v>25</v>
       </c>
-      <c r="AE5" s="8"/>
+      <c r="AE5" s="8">
+        <v>25</v>
+      </c>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
@@ -3868,7 +3899,9 @@
       <c r="AD6" s="8">
         <v>52</v>
       </c>
-      <c r="AE6" s="8"/>
+      <c r="AE6" s="8">
+        <v>54</v>
+      </c>
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
@@ -3999,7 +4032,9 @@
       <c r="AD7" s="8">
         <v>62</v>
       </c>
-      <c r="AE7" s="8"/>
+      <c r="AE7" s="8">
+        <v>63</v>
+      </c>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
@@ -4130,7 +4165,9 @@
       <c r="AD8" s="8">
         <v>40</v>
       </c>
-      <c r="AE8" s="8"/>
+      <c r="AE8" s="8">
+        <v>40</v>
+      </c>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
@@ -4261,7 +4298,9 @@
       <c r="AD9" s="8">
         <v>54</v>
       </c>
-      <c r="AE9" s="8"/>
+      <c r="AE9" s="8">
+        <v>56</v>
+      </c>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
@@ -4392,7 +4431,9 @@
       <c r="AD10" s="8">
         <v>84</v>
       </c>
-      <c r="AE10" s="8"/>
+      <c r="AE10" s="8">
+        <v>86</v>
+      </c>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
@@ -4523,7 +4564,9 @@
       <c r="AD11" s="8">
         <v>15</v>
       </c>
-      <c r="AE11" s="8"/>
+      <c r="AE11" s="8">
+        <v>15</v>
+      </c>
       <c r="AF11" s="8"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
@@ -4654,7 +4697,9 @@
       <c r="AD12" s="8">
         <v>0</v>
       </c>
-      <c r="AE12" s="8"/>
+      <c r="AE12" s="8">
+        <v>0</v>
+      </c>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
@@ -4732,13 +4777,14 @@
   <dimension ref="A1:CH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT19" sqref="AT19"/>
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS2" sqref="AS2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="45" max="45" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86">
@@ -4872,7 +4918,9 @@
       <c r="AR1" s="5">
         <v>43968</v>
       </c>
-      <c r="AS1" s="5"/>
+      <c r="AS1" s="5">
+        <v>43969</v>
+      </c>
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
       <c r="AV1" s="5"/>
@@ -5138,7 +5186,9 @@
       <c r="AR3" s="8">
         <v>7</v>
       </c>
-      <c r="AS3" s="8"/>
+      <c r="AS3" s="8">
+        <v>7</v>
+      </c>
       <c r="AT3" s="8"/>
       <c r="AU3" s="8"/>
       <c r="AV3" s="8"/>
@@ -5314,7 +5364,9 @@
       <c r="AR4" s="8">
         <v>301</v>
       </c>
-      <c r="AS4" s="8"/>
+      <c r="AS4" s="8">
+        <v>309</v>
+      </c>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
       <c r="AV4" s="8"/>
@@ -5490,7 +5542,9 @@
       <c r="AR5" s="8">
         <v>38</v>
       </c>
-      <c r="AS5" s="8"/>
+      <c r="AS5" s="8">
+        <v>38</v>
+      </c>
       <c r="AT5" s="8"/>
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
@@ -5666,7 +5720,9 @@
       <c r="AR6" s="8">
         <v>44</v>
       </c>
-      <c r="AS6" s="8"/>
+      <c r="AS6" s="8">
+        <v>44</v>
+      </c>
       <c r="AT6" s="8"/>
       <c r="AU6" s="8"/>
       <c r="AV6" s="8"/>
@@ -5840,7 +5896,9 @@
       <c r="AR7" s="8">
         <v>2</v>
       </c>
-      <c r="AS7" s="8"/>
+      <c r="AS7" s="8">
+        <v>2</v>
+      </c>
       <c r="AT7" s="8"/>
       <c r="AU7" s="8"/>
       <c r="AV7" s="8"/>
@@ -6275,20 +6333,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CE19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="AU38" sqref="AU38"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW26" sqref="AW26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83">
@@ -6427,7 +6486,9 @@
       <c r="AS1" s="5">
         <v>43968</v>
       </c>
-      <c r="AT1" s="5"/>
+      <c r="AT1" s="5">
+        <v>43969</v>
+      </c>
       <c r="AU1" s="5"/>
       <c r="AV1" s="5"/>
       <c r="AW1" s="5"/>
@@ -6602,7 +6663,9 @@
       <c r="AS2" s="8">
         <v>902</v>
       </c>
-      <c r="AT2" s="8"/>
+      <c r="AT2" s="8">
+        <v>964</v>
+      </c>
       <c r="AU2" s="8"/>
       <c r="AV2" s="8"/>
       <c r="AW2" s="8"/>
@@ -6777,7 +6840,9 @@
       <c r="AS3" s="8">
         <v>1132</v>
       </c>
-      <c r="AT3" s="8"/>
+      <c r="AT3" s="8">
+        <v>1145</v>
+      </c>
       <c r="AU3" s="8"/>
       <c r="AV3" s="8"/>
       <c r="AW3" s="8"/>
@@ -6952,7 +7017,9 @@
       <c r="AS4" s="8">
         <v>3412</v>
       </c>
-      <c r="AT4" s="8"/>
+      <c r="AT4" s="8">
+        <v>3470</v>
+      </c>
       <c r="AU4" s="8"/>
       <c r="AV4" s="8"/>
       <c r="AW4" s="8"/>
@@ -7127,7 +7194,9 @@
       <c r="AS5" s="8">
         <v>97</v>
       </c>
-      <c r="AT5" s="8"/>
+      <c r="AT5" s="8">
+        <v>97</v>
+      </c>
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
       <c r="AW5" s="8"/>
@@ -7302,7 +7371,9 @@
       <c r="AS6" s="8">
         <v>20</v>
       </c>
-      <c r="AT6" s="8"/>
+      <c r="AT6" s="8">
+        <v>19</v>
+      </c>
       <c r="AU6" s="8"/>
       <c r="AV6" s="8"/>
       <c r="AW6" s="8"/>
@@ -7473,7 +7544,9 @@
       <c r="AS7" s="8">
         <v>16</v>
       </c>
-      <c r="AT7" s="8"/>
+      <c r="AT7" s="8">
+        <v>16</v>
+      </c>
       <c r="AU7" s="8"/>
       <c r="AV7" s="8"/>
       <c r="AW7" s="8"/>
@@ -7648,7 +7721,9 @@
       <c r="AS8" s="8">
         <v>1649</v>
       </c>
-      <c r="AT8" s="8"/>
+      <c r="AT8" s="8">
+        <v>1681</v>
+      </c>
       <c r="AU8" s="8"/>
       <c r="AV8" s="8"/>
       <c r="AW8" s="8"/>
@@ -7823,7 +7898,9 @@
       <c r="AS9" s="8">
         <v>42</v>
       </c>
-      <c r="AT9" s="8"/>
+      <c r="AT9" s="8">
+        <v>42</v>
+      </c>
       <c r="AU9" s="8"/>
       <c r="AV9" s="8"/>
       <c r="AW9" s="8"/>
@@ -7998,7 +8075,9 @@
       <c r="AS10" s="8">
         <v>1423</v>
       </c>
-      <c r="AT10" s="8"/>
+      <c r="AT10" s="8">
+        <v>1495</v>
+      </c>
       <c r="AU10" s="8"/>
       <c r="AV10" s="8"/>
       <c r="AW10" s="8"/>
@@ -8173,7 +8252,9 @@
       <c r="AS11" s="8">
         <v>1728</v>
       </c>
-      <c r="AT11" s="8"/>
+      <c r="AT11" s="8">
+        <v>1758</v>
+      </c>
       <c r="AU11" s="8"/>
       <c r="AV11" s="8"/>
       <c r="AW11" s="8"/>
@@ -8348,7 +8429,9 @@
       <c r="AS12" s="8">
         <v>4096</v>
       </c>
-      <c r="AT12" s="8"/>
+      <c r="AT12" s="8">
+        <v>4158</v>
+      </c>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8"/>
       <c r="AW12" s="8"/>
@@ -8523,7 +8606,9 @@
       <c r="AS13" s="8">
         <v>23</v>
       </c>
-      <c r="AT13" s="8"/>
+      <c r="AT13" s="8">
+        <v>23</v>
+      </c>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8"/>
       <c r="AW13" s="8"/>
@@ -8836,19 +8921,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DF90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CD25" sqref="CD25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BW19" sqref="BW19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="110" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="110" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:110">
@@ -9070,7 +9155,9 @@
       <c r="BV1" s="5">
         <v>43968</v>
       </c>
-      <c r="BW1" s="5"/>
+      <c r="BW1" s="5">
+        <v>43969</v>
+      </c>
       <c r="BX1" s="5"/>
       <c r="BY1" s="5"/>
       <c r="BZ1" s="5"/>
@@ -9432,7 +9519,9 @@
       <c r="BV3" s="12">
         <v>37825</v>
       </c>
-      <c r="BW3" s="12"/>
+      <c r="BW3" s="12">
+        <v>39374</v>
+      </c>
       <c r="BX3" s="12"/>
       <c r="BY3" s="12"/>
       <c r="BZ3" s="12"/>
@@ -9692,7 +9781,9 @@
       <c r="BV4" s="12">
         <v>7270</v>
       </c>
-      <c r="BW4" s="12"/>
+      <c r="BW4" s="12">
+        <v>7434</v>
+      </c>
       <c r="BX4" s="12"/>
       <c r="BY4" s="12"/>
       <c r="BZ4" s="12"/>
@@ -9940,7 +10031,9 @@
       <c r="BV5" s="12">
         <v>392</v>
       </c>
-      <c r="BW5" s="12"/>
+      <c r="BW5" s="12">
+        <v>400</v>
+      </c>
       <c r="BX5" s="12"/>
       <c r="BY5" s="12"/>
       <c r="BZ5" s="12"/>
@@ -10168,7 +10261,9 @@
       <c r="BV6" s="12">
         <v>1028</v>
       </c>
-      <c r="BW6" s="12"/>
+      <c r="BW6" s="12">
+        <v>1040</v>
+      </c>
       <c r="BX6" s="12"/>
       <c r="BY6" s="12"/>
       <c r="BZ6" s="12"/>
@@ -10436,7 +10531,9 @@
       <c r="BV8" s="12">
         <v>345</v>
       </c>
-      <c r="BW8" s="12"/>
+      <c r="BW8" s="12">
+        <v>345</v>
+      </c>
       <c r="BX8" s="12"/>
       <c r="BY8" s="12"/>
       <c r="BZ8" s="12"/>
@@ -10660,7 +10757,9 @@
       <c r="BV9" s="12">
         <v>104</v>
       </c>
-      <c r="BW9" s="12"/>
+      <c r="BW9" s="12">
+        <v>74</v>
+      </c>
       <c r="BX9" s="12"/>
       <c r="BY9" s="12"/>
       <c r="BZ9" s="12"/>
@@ -10884,7 +10983,9 @@
       <c r="BV10" s="12">
         <v>440</v>
       </c>
-      <c r="BW10" s="12"/>
+      <c r="BW10" s="12">
+        <v>440</v>
+      </c>
       <c r="BX10" s="12"/>
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
@@ -11108,7 +11209,9 @@
       <c r="BV11" s="12">
         <v>228</v>
       </c>
-      <c r="BW11" s="12"/>
+      <c r="BW11" s="12">
+        <v>232</v>
+      </c>
       <c r="BX11" s="12"/>
       <c r="BY11" s="12"/>
       <c r="BZ11" s="12"/>
@@ -11332,7 +11435,9 @@
       <c r="BV12" s="12">
         <v>212</v>
       </c>
-      <c r="BW12" s="12"/>
+      <c r="BW12" s="12">
+        <v>208</v>
+      </c>
       <c r="BX12" s="12"/>
       <c r="BY12" s="12"/>
       <c r="BZ12" s="12"/>
@@ -11464,7 +11569,9 @@
       <c r="BV13" s="12">
         <v>374</v>
       </c>
-      <c r="BW13" s="12"/>
+      <c r="BW13" s="12">
+        <v>375</v>
+      </c>
       <c r="BX13" s="12"/>
       <c r="BY13" s="12"/>
       <c r="BZ13" s="12"/>
@@ -11596,7 +11703,9 @@
       <c r="BV14" s="12">
         <v>1803</v>
       </c>
-      <c r="BW14" s="12"/>
+      <c r="BW14" s="12">
+        <v>1803</v>
+      </c>
       <c r="BX14" s="12"/>
       <c r="BY14" s="12"/>
       <c r="BZ14" s="12"/>
@@ -12276,7 +12385,9 @@
       <c r="BV19" s="12">
         <v>105</v>
       </c>
-      <c r="BW19" s="12"/>
+      <c r="BW19" s="12">
+        <v>105</v>
+      </c>
       <c r="BX19" s="12"/>
       <c r="BY19" s="12"/>
       <c r="BZ19" s="12"/>
@@ -12466,7 +12577,9 @@
       <c r="BV20" s="12">
         <v>25</v>
       </c>
-      <c r="BW20" s="12"/>
+      <c r="BW20" s="12">
+        <v>25</v>
+      </c>
       <c r="BX20" s="12"/>
       <c r="BY20" s="12"/>
       <c r="BZ20" s="12"/>
@@ -12656,7 +12769,9 @@
       <c r="BV21" s="12">
         <v>80</v>
       </c>
-      <c r="BW21" s="12"/>
+      <c r="BW21" s="12">
+        <v>80</v>
+      </c>
       <c r="BX21" s="12"/>
       <c r="BY21" s="12"/>
       <c r="BZ21" s="12"/>
@@ -12876,7 +12991,9 @@
       <c r="BV22" s="12">
         <v>100</v>
       </c>
-      <c r="BW22" s="12"/>
+      <c r="BW22" s="12">
+        <v>84</v>
+      </c>
       <c r="BX22" s="12"/>
       <c r="BY22" s="12"/>
       <c r="BZ22" s="12"/>
@@ -13096,7 +13213,9 @@
       <c r="BV23" s="12">
         <v>125</v>
       </c>
-      <c r="BW23" s="12"/>
+      <c r="BW23" s="12">
+        <v>109</v>
+      </c>
       <c r="BX23" s="12"/>
       <c r="BY23" s="12"/>
       <c r="BZ23" s="12"/>
@@ -13316,7 +13435,9 @@
       <c r="BV24" s="12">
         <v>1163</v>
       </c>
-      <c r="BW24" s="12"/>
+      <c r="BW24" s="12">
+        <v>1175</v>
+      </c>
       <c r="BX24" s="12"/>
       <c r="BY24" s="12"/>
       <c r="BZ24" s="12"/>
@@ -13768,7 +13889,9 @@
       <c r="BV27" s="12">
         <v>117</v>
       </c>
-      <c r="BW27" s="12"/>
+      <c r="BW27" s="12">
+        <v>120</v>
+      </c>
       <c r="BX27" s="12"/>
       <c r="BY27" s="12"/>
       <c r="BZ27" s="12"/>
@@ -13958,7 +14081,9 @@
       <c r="BV28" s="12">
         <v>39</v>
       </c>
-      <c r="BW28" s="12"/>
+      <c r="BW28" s="12">
+        <v>38</v>
+      </c>
       <c r="BX28" s="12"/>
       <c r="BY28" s="12"/>
       <c r="BZ28" s="12"/>
@@ -14148,7 +14273,9 @@
       <c r="BV29" s="12">
         <v>78</v>
       </c>
-      <c r="BW29" s="12"/>
+      <c r="BW29" s="12">
+        <v>82</v>
+      </c>
       <c r="BX29" s="12"/>
       <c r="BY29" s="12"/>
       <c r="BZ29" s="12"/>
@@ -14368,7 +14495,9 @@
       <c r="BV30" s="12">
         <v>44</v>
       </c>
-      <c r="BW30" s="12"/>
+      <c r="BW30" s="12">
+        <v>47</v>
+      </c>
       <c r="BX30" s="12"/>
       <c r="BY30" s="12"/>
       <c r="BZ30" s="12"/>
@@ -14588,7 +14717,9 @@
       <c r="BV31" s="12">
         <v>83</v>
       </c>
-      <c r="BW31" s="12"/>
+      <c r="BW31" s="12">
+        <v>85</v>
+      </c>
       <c r="BX31" s="12"/>
       <c r="BY31" s="12"/>
       <c r="BZ31" s="12"/>
@@ -14808,7 +14939,9 @@
       <c r="BV32" s="12">
         <v>1067</v>
       </c>
-      <c r="BW32" s="12"/>
+      <c r="BW32" s="12">
+        <v>1082</v>
+      </c>
       <c r="BX32" s="12"/>
       <c r="BY32" s="12"/>
       <c r="BZ32" s="12"/>
@@ -15252,7 +15385,9 @@
       <c r="BV35" s="12">
         <v>76</v>
       </c>
-      <c r="BW35" s="12"/>
+      <c r="BW35" s="12">
+        <v>76</v>
+      </c>
       <c r="BX35" s="12"/>
       <c r="BY35" s="12"/>
       <c r="BZ35" s="12"/>
@@ -15438,7 +15573,9 @@
       <c r="BV36" s="12">
         <v>20</v>
       </c>
-      <c r="BW36" s="12"/>
+      <c r="BW36" s="12">
+        <v>20</v>
+      </c>
       <c r="BX36" s="12"/>
       <c r="BY36" s="12"/>
       <c r="BZ36" s="12"/>
@@ -15624,7 +15761,9 @@
       <c r="BV37" s="12">
         <v>55</v>
       </c>
-      <c r="BW37" s="12"/>
+      <c r="BW37" s="12">
+        <v>55</v>
+      </c>
       <c r="BX37" s="12"/>
       <c r="BY37" s="12"/>
       <c r="BZ37" s="12"/>
@@ -15840,7 +15979,9 @@
       <c r="BV38" s="12">
         <v>6</v>
       </c>
-      <c r="BW38" s="12"/>
+      <c r="BW38" s="12">
+        <v>5</v>
+      </c>
       <c r="BX38" s="12"/>
       <c r="BY38" s="12"/>
       <c r="BZ38" s="12"/>
@@ -16054,7 +16195,9 @@
       <c r="BV39" s="12">
         <v>26</v>
       </c>
-      <c r="BW39" s="12"/>
+      <c r="BW39" s="12">
+        <v>25</v>
+      </c>
       <c r="BX39" s="12"/>
       <c r="BY39" s="12"/>
       <c r="BZ39" s="12"/>
@@ -16272,7 +16415,9 @@
       <c r="BV40" s="12">
         <v>258</v>
       </c>
-      <c r="BW40" s="12"/>
+      <c r="BW40" s="12">
+        <v>259</v>
+      </c>
       <c r="BX40" s="12"/>
       <c r="BY40" s="12"/>
       <c r="BZ40" s="12"/>
@@ -16446,7 +16591,9 @@
       <c r="BV41" s="12">
         <v>1</v>
       </c>
-      <c r="BW41" s="12"/>
+      <c r="BW41" s="12">
+        <v>1</v>
+      </c>
       <c r="BX41" s="12"/>
       <c r="BY41" s="12"/>
       <c r="BZ41" s="12"/>
@@ -16894,7 +17041,9 @@
       <c r="BV44" s="12">
         <v>186</v>
       </c>
-      <c r="BW44" s="12"/>
+      <c r="BW44" s="12">
+        <v>186</v>
+      </c>
       <c r="BX44" s="12"/>
       <c r="BY44" s="12"/>
       <c r="BZ44" s="12"/>
@@ -17084,7 +17233,9 @@
       <c r="BV45" s="12">
         <v>30</v>
       </c>
-      <c r="BW45" s="12"/>
+      <c r="BW45" s="12">
+        <v>30</v>
+      </c>
       <c r="BX45" s="12"/>
       <c r="BY45" s="12"/>
       <c r="BZ45" s="12"/>
@@ -17274,7 +17425,9 @@
       <c r="BV46" s="12">
         <v>150</v>
       </c>
-      <c r="BW46" s="12"/>
+      <c r="BW46" s="12">
+        <v>150</v>
+      </c>
       <c r="BX46" s="12"/>
       <c r="BY46" s="12"/>
       <c r="BZ46" s="12"/>
@@ -17494,7 +17647,9 @@
       <c r="BV47" s="12">
         <v>791</v>
       </c>
-      <c r="BW47" s="12"/>
+      <c r="BW47" s="12">
+        <v>802</v>
+      </c>
       <c r="BX47" s="12"/>
       <c r="BY47" s="12"/>
       <c r="BZ47" s="12"/>
@@ -17684,7 +17839,9 @@
       <c r="BV48" s="12">
         <v>821</v>
       </c>
-      <c r="BW48" s="12"/>
+      <c r="BW48" s="12">
+        <v>832</v>
+      </c>
       <c r="BX48" s="12"/>
       <c r="BY48" s="12"/>
       <c r="BZ48" s="12"/>
@@ -17872,7 +18029,9 @@
       <c r="BV49" s="12">
         <v>509</v>
       </c>
-      <c r="BW49" s="12"/>
+      <c r="BW49" s="12">
+        <v>498</v>
+      </c>
       <c r="BX49" s="12"/>
       <c r="BY49" s="12"/>
       <c r="BZ49" s="12"/>
@@ -18056,7 +18215,9 @@
       <c r="BV50" s="12">
         <v>1</v>
       </c>
-      <c r="BW50" s="12"/>
+      <c r="BW50" s="12">
+        <v>1</v>
+      </c>
       <c r="BX50" s="12"/>
       <c r="BY50" s="12"/>
       <c r="BZ50" s="12"/>
@@ -18494,7 +18655,9 @@
       <c r="BV53" s="12">
         <v>27</v>
       </c>
-      <c r="BW53" s="12"/>
+      <c r="BW53" s="12">
+        <v>27</v>
+      </c>
       <c r="BX53" s="12"/>
       <c r="BY53" s="12"/>
       <c r="BZ53" s="12"/>
@@ -18682,7 +18845,9 @@
       <c r="BV54" s="12">
         <v>13</v>
       </c>
-      <c r="BW54" s="12"/>
+      <c r="BW54" s="12">
+        <v>11</v>
+      </c>
       <c r="BX54" s="12"/>
       <c r="BY54" s="12"/>
       <c r="BZ54" s="12"/>
@@ -18870,7 +19035,9 @@
       <c r="BV55" s="12">
         <v>13</v>
       </c>
-      <c r="BW55" s="12"/>
+      <c r="BW55" s="12">
+        <v>15</v>
+      </c>
       <c r="BX55" s="12"/>
       <c r="BY55" s="12"/>
       <c r="BZ55" s="12"/>
@@ -19082,7 +19249,9 @@
       <c r="BV56" s="12">
         <v>18</v>
       </c>
-      <c r="BW56" s="12"/>
+      <c r="BW56" s="12">
+        <v>16</v>
+      </c>
       <c r="BX56" s="12"/>
       <c r="BY56" s="12"/>
       <c r="BZ56" s="12"/>
@@ -19294,7 +19463,9 @@
       <c r="BV57" s="12">
         <v>31</v>
       </c>
-      <c r="BW57" s="12"/>
+      <c r="BW57" s="12">
+        <v>27</v>
+      </c>
       <c r="BX57" s="12"/>
       <c r="BY57" s="12"/>
       <c r="BZ57" s="12"/>
@@ -19506,7 +19677,9 @@
       <c r="BV58" s="12">
         <v>125</v>
       </c>
-      <c r="BW58" s="12"/>
+      <c r="BW58" s="12">
+        <v>130</v>
+      </c>
       <c r="BX58" s="12"/>
       <c r="BY58" s="12"/>
       <c r="BZ58" s="12"/>
@@ -19690,7 +19863,9 @@
       <c r="BV59" s="12">
         <v>1</v>
       </c>
-      <c r="BW59" s="12"/>
+      <c r="BW59" s="12">
+        <v>1</v>
+      </c>
       <c r="BX59" s="12"/>
       <c r="BY59" s="12"/>
       <c r="BZ59" s="12"/>
@@ -20014,7 +20189,9 @@
       <c r="BV61" s="12">
         <v>10</v>
       </c>
-      <c r="BW61" s="12"/>
+      <c r="BW61" s="12">
+        <v>10</v>
+      </c>
       <c r="BX61" s="12"/>
       <c r="BY61" s="12"/>
       <c r="BZ61" s="12"/>
@@ -20202,7 +20379,9 @@
       <c r="BV62" s="12">
         <v>4</v>
       </c>
-      <c r="BW62" s="12"/>
+      <c r="BW62" s="12">
+        <v>3</v>
+      </c>
       <c r="BX62" s="12"/>
       <c r="BY62" s="12"/>
       <c r="BZ62" s="12"/>
@@ -20390,7 +20569,9 @@
       <c r="BV63" s="12">
         <v>6</v>
       </c>
-      <c r="BW63" s="12"/>
+      <c r="BW63" s="12">
+        <v>7</v>
+      </c>
       <c r="BX63" s="12"/>
       <c r="BY63" s="12"/>
       <c r="BZ63" s="12"/>
@@ -20602,7 +20783,9 @@
       <c r="BV64" s="12">
         <v>44</v>
       </c>
-      <c r="BW64" s="12"/>
+      <c r="BW64" s="12">
+        <v>45</v>
+      </c>
       <c r="BX64" s="12"/>
       <c r="BY64" s="12"/>
       <c r="BZ64" s="12"/>
@@ -20814,7 +20997,9 @@
       <c r="BV65" s="12">
         <v>48</v>
       </c>
-      <c r="BW65" s="12"/>
+      <c r="BW65" s="12">
+        <v>48</v>
+      </c>
       <c r="BX65" s="12"/>
       <c r="BY65" s="12"/>
       <c r="BZ65" s="12"/>
@@ -21024,7 +21209,9 @@
       <c r="BV66" s="12">
         <v>0</v>
       </c>
-      <c r="BW66" s="12"/>
+      <c r="BW66" s="12">
+        <v>0</v>
+      </c>
       <c r="BX66" s="12"/>
       <c r="BY66" s="12"/>
       <c r="BZ66" s="12"/>
@@ -21212,7 +21399,9 @@
       <c r="BV67" s="12">
         <v>0</v>
       </c>
-      <c r="BW67" s="12"/>
+      <c r="BW67" s="12">
+        <v>0</v>
+      </c>
       <c r="BX67" s="12"/>
       <c r="BY67" s="12"/>
       <c r="BZ67" s="12"/>
@@ -21650,7 +21839,9 @@
       <c r="BV70" s="12">
         <v>283</v>
       </c>
-      <c r="BW70" s="12"/>
+      <c r="BW70" s="12">
+        <v>285</v>
+      </c>
       <c r="BX70" s="12"/>
       <c r="BY70" s="12"/>
       <c r="BZ70" s="12"/>
@@ -21862,7 +22053,9 @@
       <c r="BV71" s="12">
         <v>312</v>
       </c>
-      <c r="BW71" s="12"/>
+      <c r="BW71" s="12">
+        <v>306</v>
+      </c>
       <c r="BX71" s="12"/>
       <c r="BY71" s="12"/>
       <c r="BZ71" s="12"/>
@@ -22074,7 +22267,9 @@
       <c r="BV72" s="12">
         <v>275</v>
       </c>
-      <c r="BW72" s="12"/>
+      <c r="BW72" s="12">
+        <v>268</v>
+      </c>
       <c r="BX72" s="12"/>
       <c r="BY72" s="12"/>
       <c r="BZ72" s="12"/>
@@ -22258,7 +22453,9 @@
       <c r="BV73" s="12">
         <v>15</v>
       </c>
-      <c r="BW73" s="12"/>
+      <c r="BW73" s="12">
+        <v>15</v>
+      </c>
       <c r="BX73" s="12"/>
       <c r="BY73" s="12"/>
       <c r="BZ73" s="12"/>
@@ -22582,7 +22779,9 @@
       <c r="BV75" s="12">
         <v>108</v>
       </c>
-      <c r="BW75" s="12"/>
+      <c r="BW75" s="12">
+        <v>108</v>
+      </c>
       <c r="BX75" s="12"/>
       <c r="BY75" s="12"/>
       <c r="BZ75" s="12"/>
@@ -22794,7 +22993,9 @@
       <c r="BV76" s="12">
         <v>13</v>
       </c>
-      <c r="BW76" s="12"/>
+      <c r="BW76" s="12">
+        <v>11</v>
+      </c>
       <c r="BX76" s="12"/>
       <c r="BY76" s="12"/>
       <c r="BZ76" s="12"/>
@@ -23006,7 +23207,9 @@
       <c r="BV77" s="12">
         <v>121</v>
       </c>
-      <c r="BW77" s="12"/>
+      <c r="BW77" s="12">
+        <v>108</v>
+      </c>
       <c r="BX77" s="12"/>
       <c r="BY77" s="12"/>
       <c r="BZ77" s="12"/>
@@ -23210,7 +23413,9 @@
       <c r="BV78" s="12">
         <v>168</v>
       </c>
-      <c r="BW78" s="12"/>
+      <c r="BW78" s="12">
+        <v>170</v>
+      </c>
       <c r="BX78" s="12"/>
       <c r="BY78" s="12"/>
       <c r="BZ78" s="12"/>
@@ -23338,7 +23543,9 @@
       <c r="BV79" s="12">
         <v>1</v>
       </c>
-      <c r="BW79" s="12"/>
+      <c r="BW79" s="12">
+        <v>1</v>
+      </c>
       <c r="BX79" s="12"/>
       <c r="BY79" s="12"/>
       <c r="BZ79" s="12"/>
@@ -23620,7 +23827,9 @@
       <c r="BV81" s="12">
         <v>79</v>
       </c>
-      <c r="BW81" s="12"/>
+      <c r="BW81" s="12">
+        <v>79</v>
+      </c>
       <c r="BX81" s="12"/>
       <c r="BY81" s="12"/>
       <c r="BZ81" s="12"/>
@@ -23832,7 +24041,9 @@
       <c r="BV82" s="12">
         <v>56</v>
       </c>
-      <c r="BW82" s="12"/>
+      <c r="BW82" s="12">
+        <v>56</v>
+      </c>
       <c r="BX82" s="12"/>
       <c r="BY82" s="12"/>
       <c r="BZ82" s="12"/>
@@ -24022,7 +24233,9 @@
       <c r="BV83" s="12">
         <v>142</v>
       </c>
-      <c r="BW83" s="12"/>
+      <c r="BW83" s="12">
+        <v>142</v>
+      </c>
       <c r="BX83" s="12"/>
       <c r="BY83" s="12"/>
       <c r="BZ83" s="12"/>
@@ -24208,7 +24421,9 @@
       <c r="BV84" s="12">
         <v>5</v>
       </c>
-      <c r="BW84" s="12"/>
+      <c r="BW84" s="12">
+        <v>5</v>
+      </c>
       <c r="BX84" s="12"/>
       <c r="BY84" s="12"/>
       <c r="BZ84" s="12"/>
@@ -24418,7 +24633,9 @@
       <c r="BV85" s="12">
         <v>13</v>
       </c>
-      <c r="BW85" s="12"/>
+      <c r="BW85" s="12">
+        <v>13</v>
+      </c>
       <c r="BX85" s="12"/>
       <c r="BY85" s="12"/>
       <c r="BZ85" s="12"/>
@@ -24688,7 +24905,9 @@
       <c r="BV87" s="12">
         <v>169</v>
       </c>
-      <c r="BW87" s="12"/>
+      <c r="BW87" s="12">
+        <v>172</v>
+      </c>
       <c r="BX87" s="12"/>
       <c r="BY87" s="12"/>
       <c r="BZ87" s="12"/>
@@ -24846,7 +25065,9 @@
       <c r="BV88" s="12">
         <v>40</v>
       </c>
-      <c r="BW88" s="12"/>
+      <c r="BW88" s="12">
+        <v>40</v>
+      </c>
       <c r="BX88" s="12"/>
       <c r="BY88" s="12"/>
       <c r="BZ88" s="12"/>
@@ -25004,7 +25225,9 @@
       <c r="BV89" s="12">
         <v>24</v>
       </c>
-      <c r="BW89" s="12"/>
+      <c r="BW89" s="12">
+        <v>24</v>
+      </c>
       <c r="BX89" s="12"/>
       <c r="BY89" s="12"/>
       <c r="BZ89" s="12"/>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22918"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A57EBE-A678-D64F-ABFF-6473C72888FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84AD928-0469-804F-B7FB-A1EAC97BE609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52660" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -25,8 +25,9 @@
     <sheet name="Total Tests by Neighborhood" sheetId="10" r:id="rId10"/>
     <sheet name="Age-Adjusted Rate by Ward" sheetId="11" r:id="rId11"/>
     <sheet name="Hospital Data" sheetId="12" r:id="rId12"/>
+    <sheet name="Rates by Age Categories" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="201">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -605,6 +606,51 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>Age Categories (years)</t>
+  </si>
+  <si>
+    <t>Total Number</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Rate (per 100,000)</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>75+</t>
+  </si>
+  <si>
+    <t>5-14</t>
+  </si>
+  <si>
+    <t>Age Sort</t>
+  </si>
 </sst>
 </file>
 
@@ -797,7 +843,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -845,10 +891,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -857,6 +909,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1181,14 +1236,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.95">
+    <row r="1" spans="1:1" ht="19">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.95">
+    <row r="2" spans="1:1" ht="19">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1203,15 +1258,15 @@
   <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2951,15 +3006,15 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.95">
+    <row r="1" spans="1:2" ht="31">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -2972,7 +3027,7 @@
         <v>163</v>
       </c>
       <c r="B2" s="18">
-        <v>1395.2</v>
+        <v>1407.8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2980,7 +3035,7 @@
         <v>164</v>
       </c>
       <c r="B3" s="18">
-        <v>631.9</v>
+        <v>648.29999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2988,7 +3043,7 @@
         <v>165</v>
       </c>
       <c r="B4" s="18">
-        <v>418.7</v>
+        <v>422.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2996,7 +3051,7 @@
         <v>166</v>
       </c>
       <c r="B5" s="18">
-        <v>1849.5</v>
+        <v>1858.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3004,7 +3059,7 @@
         <v>167</v>
       </c>
       <c r="B6" s="18">
-        <v>1300.5</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3012,7 +3067,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="18">
-        <v>744.3</v>
+        <v>748.9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3020,7 +3075,7 @@
         <v>169</v>
       </c>
       <c r="B8" s="18">
-        <v>1391.4</v>
+        <v>1405.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3028,22 +3083,22 @@
         <v>170</v>
       </c>
       <c r="B9" s="23">
-        <v>1470.1</v>
+        <v>1481.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="34"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3055,42 +3110,42 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7943BA5F-E71E-CD41-AA11-6C89A2B51AB2}">
-  <dimension ref="A1:G367"/>
+  <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="24"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="24"/>
+    <col min="2" max="2" width="21.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="31" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="105">
       <c r="A1" s="25"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="29" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3098,22 +3153,22 @@
       <c r="A2" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="30" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3121,22 +3176,22 @@
       <c r="A3" s="26">
         <v>43922</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="28">
         <v>1640</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="28">
         <v>0</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="28">
         <v>147</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="28">
         <v>183</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="28">
         <v>0</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="28">
         <v>39</v>
       </c>
     </row>
@@ -3144,22 +3199,22 @@
       <c r="A4" s="26">
         <v>43923</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="28">
         <v>1621</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="28">
         <v>1</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="28">
         <v>167</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="28">
         <v>223</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="28">
         <v>0</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="28">
         <v>30</v>
       </c>
     </row>
@@ -3167,22 +3222,22 @@
       <c r="A5" s="26">
         <v>43924</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="28">
         <v>1605</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="28">
         <v>0</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="28">
         <v>178</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="28">
         <v>198</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="28">
         <v>0</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="28">
         <v>38</v>
       </c>
     </row>
@@ -3190,22 +3245,22 @@
       <c r="A6" s="26">
         <v>43925</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="28">
         <v>1520</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="28">
         <v>0</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="28">
         <v>188</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="28">
         <v>178</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="28">
         <v>0</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="28">
         <v>42</v>
       </c>
     </row>
@@ -3213,22 +3268,22 @@
       <c r="A7" s="26">
         <v>43926</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="28">
         <v>1484</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="28">
         <v>1</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="28">
         <v>189</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="28">
         <v>177</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="28">
         <v>0</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="28">
         <v>40</v>
       </c>
     </row>
@@ -3236,22 +3291,22 @@
       <c r="A8" s="26">
         <v>43927</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="28">
         <v>1515</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="28">
         <v>0</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="28">
         <v>195</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="28">
         <v>177</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="28">
         <v>1</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="28">
         <v>43</v>
       </c>
     </row>
@@ -3259,22 +3314,22 @@
       <c r="A9" s="26">
         <v>43928</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="28">
         <v>1578</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="28">
         <v>0</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="28">
         <v>226</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="28">
         <v>200</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="28">
         <v>0</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="28">
         <v>51</v>
       </c>
     </row>
@@ -3282,22 +3337,22 @@
       <c r="A10" s="26">
         <v>43929</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="28">
         <v>1608</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="28">
         <v>1</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="28">
         <v>262</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="28">
         <v>206</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="28">
         <v>0</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="28">
         <v>59</v>
       </c>
     </row>
@@ -3305,22 +3360,22 @@
       <c r="A11" s="26">
         <v>43930</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="28">
         <v>1653</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="28">
         <v>0</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="28">
         <v>291</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="28">
         <v>208</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="28">
         <v>1</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="28">
         <v>66</v>
       </c>
     </row>
@@ -3328,22 +3383,22 @@
       <c r="A12" s="26">
         <v>43931</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="28">
         <v>1636</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="28">
         <v>0</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="28">
         <v>289</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="28">
         <v>210</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="28">
         <v>1</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="28">
         <v>63</v>
       </c>
     </row>
@@ -3351,22 +3406,22 @@
       <c r="A13" s="26">
         <v>43932</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="28">
         <v>1618</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="28">
         <v>0</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="28">
         <v>284</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="28">
         <v>215</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="28">
         <v>0</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="28">
         <v>60</v>
       </c>
     </row>
@@ -3374,22 +3429,22 @@
       <c r="A14" s="26">
         <v>43933</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="28">
         <v>1589</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="28">
         <v>0</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="28">
         <v>287</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="28">
         <v>218</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="28">
         <v>0</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="28" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3397,22 +3452,22 @@
       <c r="A15" s="26">
         <v>43934</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="28">
         <v>1618</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="28">
         <v>0</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="28">
         <v>291</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="28">
         <v>212</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="28">
         <v>0</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="28">
         <v>61</v>
       </c>
     </row>
@@ -3420,22 +3475,22 @@
       <c r="A16" s="26">
         <v>43935</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="28">
         <v>1638</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="28">
         <v>0</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="28">
         <v>305</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="28">
         <v>212</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="28">
         <v>0</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="28">
         <v>73</v>
       </c>
     </row>
@@ -3443,22 +3498,22 @@
       <c r="A17" s="26">
         <v>43936</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="28">
         <v>1681</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="28">
         <v>0</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="28">
         <v>333</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="28">
         <v>203</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="28">
         <v>0</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="28">
         <v>66</v>
       </c>
     </row>
@@ -3466,22 +3521,22 @@
       <c r="A18" s="26">
         <v>43937</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="28">
         <v>1727</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="28">
         <v>0</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="28">
         <v>354</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="28">
         <v>204</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="28">
         <v>0</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="28">
         <v>69</v>
       </c>
     </row>
@@ -3489,22 +3544,22 @@
       <c r="A19" s="26">
         <v>43938</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="28">
         <v>1721</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="28">
         <v>0</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="28">
         <v>358</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="28">
         <v>205</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="28">
         <v>0</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="28">
         <v>69</v>
       </c>
     </row>
@@ -3512,22 +3567,22 @@
       <c r="A20" s="26">
         <v>43939</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="28">
         <v>1721</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="28">
         <v>0</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="28">
         <v>380</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="28">
         <v>203</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="28">
         <v>0</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="28">
         <v>71</v>
       </c>
     </row>
@@ -3535,22 +3590,22 @@
       <c r="A21" s="26">
         <v>43940</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="28">
         <v>1706</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="28">
         <v>1</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="28">
         <v>402</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="28">
         <v>198</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="28">
         <v>0</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="28">
         <v>66</v>
       </c>
     </row>
@@ -3558,22 +3613,22 @@
       <c r="A22" s="26">
         <v>43941</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="28">
         <v>1726</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="28">
         <v>0</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="28">
         <v>429</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="28">
         <v>198</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="28">
         <v>1</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="28">
         <v>75</v>
       </c>
     </row>
@@ -3581,22 +3636,22 @@
       <c r="A23" s="26">
         <v>43942</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="28">
         <v>1798</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="28">
         <v>0</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="28">
         <v>432</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="28">
         <v>200</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="28">
         <v>1</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="28">
         <v>76</v>
       </c>
     </row>
@@ -3604,22 +3659,22 @@
       <c r="A24" s="26">
         <v>43943</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="28">
         <v>1834</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="28">
         <v>0</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="28">
         <v>446</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="28">
         <v>200</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="28">
         <v>1</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="28">
         <v>74</v>
       </c>
     </row>
@@ -3627,22 +3682,22 @@
       <c r="A25" s="26">
         <v>43944</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="28">
         <v>1807</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="28">
         <v>0</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="28">
         <v>437</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="28">
         <v>248</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="28">
         <v>1</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="28">
         <v>79</v>
       </c>
     </row>
@@ -3650,22 +3705,22 @@
       <c r="A26" s="26">
         <v>43945</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="28">
         <v>1831</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="28">
         <v>0</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="28">
         <v>434</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="28">
         <v>201</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="28">
         <v>1</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="28">
         <v>88</v>
       </c>
     </row>
@@ -3673,22 +3728,22 @@
       <c r="A27" s="26">
         <v>43946</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="28">
         <v>1760</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="28">
         <v>1</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="28">
         <v>411</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="28">
         <v>201</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="28">
         <v>1</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="28">
         <v>86</v>
       </c>
     </row>
@@ -3696,22 +3751,22 @@
       <c r="A28" s="26">
         <v>43947</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="28">
         <v>1836</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="28">
         <v>1</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="28">
         <v>435</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="28">
         <v>204</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="28">
         <v>1</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="28">
         <v>81</v>
       </c>
     </row>
@@ -3719,22 +3774,22 @@
       <c r="A29" s="26">
         <v>43948</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="28">
         <v>1809</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="28">
         <v>0</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="28">
         <v>464</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="28">
         <v>206</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="28">
         <v>1</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="28">
         <v>85</v>
       </c>
     </row>
@@ -3742,22 +3797,22 @@
       <c r="A30" s="26">
         <v>43949</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="28">
         <v>1878</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="28">
         <v>1</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="28">
         <v>477</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="28">
         <v>243</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="28">
         <v>0</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="28">
         <v>82</v>
       </c>
     </row>
@@ -3765,22 +3820,22 @@
       <c r="A31" s="26">
         <v>43950</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="28">
         <v>1897</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="28">
         <v>0</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="28">
         <v>462</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="28">
         <v>245</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="28">
         <v>1</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="28">
         <v>92</v>
       </c>
     </row>
@@ -3788,22 +3843,22 @@
       <c r="A32" s="26">
         <v>43951</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="28">
         <v>1903</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="28">
         <v>0</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="28">
         <v>437</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="28">
         <v>242</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="28">
         <v>0</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="28">
         <v>85</v>
       </c>
     </row>
@@ -3811,22 +3866,22 @@
       <c r="A33" s="26">
         <v>43952</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="28">
         <v>1915</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="28">
         <v>0</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="28">
         <v>432</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="28">
         <v>241</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="28">
         <v>0</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="28">
         <v>73</v>
       </c>
     </row>
@@ -3834,22 +3889,22 @@
       <c r="A34" s="26">
         <v>43953</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="28">
         <v>1936</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="28">
         <v>1</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="28">
         <v>422</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="28">
         <v>243</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="28">
         <v>1</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="28">
         <v>85</v>
       </c>
     </row>
@@ -3857,22 +3912,22 @@
       <c r="A35" s="26">
         <v>43954</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="28">
         <v>1946</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="28">
         <v>1</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="28">
         <v>447</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="28">
         <v>244</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="28">
         <v>1</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="28">
         <v>86</v>
       </c>
     </row>
@@ -3880,22 +3935,22 @@
       <c r="A36" s="26">
         <v>43955</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="28">
         <v>1908</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="28">
         <v>0</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="28">
         <v>448</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="28">
         <v>246</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="28">
         <v>1</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="28">
         <v>92</v>
       </c>
     </row>
@@ -3903,22 +3958,22 @@
       <c r="A37" s="26">
         <v>43956</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="28">
         <v>1915</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="28">
         <v>0</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="28">
         <v>435</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="28">
         <v>241</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="28">
         <v>0</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="28">
         <v>96</v>
       </c>
     </row>
@@ -3926,22 +3981,22 @@
       <c r="A38" s="26">
         <v>43957</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="28">
         <v>1900</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="28">
         <v>0</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="28">
         <v>432</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="28">
         <v>259</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="28">
         <v>0</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="28">
         <v>92</v>
       </c>
     </row>
@@ -3949,22 +4004,22 @@
       <c r="A39" s="26">
         <v>43958</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="28">
         <v>1856</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="28">
         <v>0</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="28">
         <v>415</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="28">
         <v>261</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="28">
         <v>0</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="28">
         <v>91</v>
       </c>
     </row>
@@ -3972,22 +4027,22 @@
       <c r="A40" s="26">
         <v>43959</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="28">
         <v>1829</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="28">
         <v>0</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="28">
         <v>396</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="28">
         <v>262</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="28">
         <v>0</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="28">
         <v>90</v>
       </c>
     </row>
@@ -3995,22 +4050,22 @@
       <c r="A41" s="26">
         <v>43960</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="28">
         <v>1798</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="28">
         <v>0</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="28">
         <v>399</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="28">
         <v>244</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="28">
         <v>0</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="28">
         <v>75</v>
       </c>
     </row>
@@ -4018,22 +4073,22 @@
       <c r="A42" s="26">
         <v>43961</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="28">
         <v>1775</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="28">
         <v>0</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="28">
         <v>416</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="28">
         <v>241</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="28">
         <v>0</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="28">
         <v>79</v>
       </c>
     </row>
@@ -4041,22 +4096,22 @@
       <c r="A43" s="26">
         <v>43962</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="28">
         <v>1805</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="28">
         <v>0</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="28">
         <v>435</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="28">
         <v>243</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="28">
         <v>0</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="28">
         <v>79</v>
       </c>
     </row>
@@ -4064,22 +4119,22 @@
       <c r="A44" s="26">
         <v>43963</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="28">
         <v>1887</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="28">
         <v>0</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="28">
         <v>423</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="28">
         <v>250</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="28">
         <v>0</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="28">
         <v>87</v>
       </c>
     </row>
@@ -4087,22 +4142,22 @@
       <c r="A45" s="26">
         <v>43964</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="28">
         <v>1895</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="28">
         <v>0</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="28">
         <v>397</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="28">
         <v>264</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="28">
         <v>0</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="28">
         <v>90</v>
       </c>
     </row>
@@ -4110,22 +4165,22 @@
       <c r="A46" s="26">
         <v>43965</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="28">
         <v>1874</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="28">
         <v>0</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="28">
         <v>393</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="28">
         <v>249</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="28">
         <v>0</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="28">
         <v>83</v>
       </c>
     </row>
@@ -4133,22 +4188,22 @@
       <c r="A47" s="26">
         <v>43966</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="28">
         <v>1862</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="28">
         <v>0</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="28">
         <v>382</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="28">
         <v>251</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="28">
         <v>0</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="28">
         <v>79</v>
       </c>
     </row>
@@ -4156,22 +4211,22 @@
       <c r="A48" s="26">
         <v>43967</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="28">
         <v>1813</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="28">
         <v>1</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="28">
         <v>369</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="28">
         <v>232</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="28">
         <v>0</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="28">
         <v>74</v>
       </c>
     </row>
@@ -4179,22 +4234,22 @@
       <c r="A49" s="26">
         <v>43968</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="28">
         <v>1803</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="28">
         <v>0</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="28">
         <v>374</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="28">
         <v>228</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="28">
         <v>0</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="28">
         <v>70</v>
       </c>
     </row>
@@ -4202,22 +4257,22 @@
       <c r="A50" s="26">
         <v>43969</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="28">
         <v>1820</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="28">
         <v>0</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="28">
         <v>375</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="28">
         <v>232</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="28">
         <v>0</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="28">
         <v>77</v>
       </c>
     </row>
@@ -4225,2868 +4280,3135 @@
       <c r="A51" s="26">
         <v>43970</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="28">
         <v>1900</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="28">
         <v>0</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="28">
         <v>336</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="28">
         <v>219</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="28">
         <v>0</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="28">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
+      <c r="A52" s="26">
+        <v>43971</v>
+      </c>
+      <c r="B52" s="28">
+        <v>1926</v>
+      </c>
+      <c r="C52" s="28">
+        <v>0</v>
+      </c>
+      <c r="D52" s="28">
+        <v>342</v>
+      </c>
+      <c r="E52" s="28">
+        <v>221</v>
+      </c>
+      <c r="F52" s="32">
+        <v>0</v>
+      </c>
+      <c r="G52" s="28">
+        <v>71</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
+      <c r="A53" s="26">
+        <v>43972</v>
+      </c>
+      <c r="B53" s="28">
+        <v>1896</v>
+      </c>
+      <c r="C53" s="28">
+        <v>0</v>
+      </c>
+      <c r="D53" s="28">
+        <v>342</v>
+      </c>
+      <c r="E53" s="28">
+        <v>228</v>
+      </c>
+      <c r="F53" s="32">
+        <v>0</v>
+      </c>
+      <c r="G53" s="28">
+        <v>73</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
+      <c r="A54" s="26">
+        <v>43973</v>
+      </c>
+      <c r="B54" s="28">
+        <v>1883</v>
+      </c>
+      <c r="C54" s="28">
+        <v>0</v>
+      </c>
+      <c r="D54" s="28">
+        <v>324</v>
+      </c>
+      <c r="E54" s="28">
+        <v>218</v>
+      </c>
+      <c r="F54" s="31">
+        <v>0</v>
+      </c>
+      <c r="G54" s="28">
+        <v>73</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="26"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="26"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="26"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="26"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="26"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="26"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="26"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="26"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="26"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="26"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="26"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="26"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="26"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="26"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="26"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="26"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="26"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="26"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="26"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="26"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="26"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="26"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="26"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="26"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="26"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="26"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="26"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="26"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="26"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="26"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="26"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="26"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="26"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="26"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="26"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="26"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="26"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="26"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="26"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="26"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="26"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="26"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="26"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="26"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="26"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="26"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="26"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="26"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="26"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="28"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="26"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="26"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="26"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="26"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="26"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="26"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="28"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="26"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="26"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="28"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="26"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="26"/>
-      <c r="F147" s="26"/>
-      <c r="G147" s="26"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="28"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="26"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="26"/>
-      <c r="F148" s="26"/>
-      <c r="G148" s="26"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="28"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
-      <c r="F149" s="26"/>
-      <c r="G149" s="26"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="28"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="26"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="26"/>
-      <c r="G150" s="26"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="26"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="26"/>
-      <c r="G151" s="26"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="26"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="26"/>
-      <c r="G152" s="26"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="26"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
-      <c r="F153" s="26"/>
-      <c r="G153" s="26"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="26"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
-      <c r="F154" s="26"/>
-      <c r="G154" s="26"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="26"/>
-      <c r="B155" s="26"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="26"/>
-      <c r="G155" s="26"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="28"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="26"/>
-      <c r="B156" s="26"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="26"/>
-      <c r="G156" s="26"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="28"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="26"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="26"/>
-      <c r="G157" s="26"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="28"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="26"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="26"/>
-      <c r="G158" s="26"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="28"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="26"/>
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
-      <c r="F159" s="26"/>
-      <c r="G159" s="26"/>
+      <c r="B159" s="28"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="28"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="26"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-      <c r="F160" s="26"/>
-      <c r="G160" s="26"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="28"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="26"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
-      <c r="F161" s="26"/>
-      <c r="G161" s="26"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="28"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="28"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="26"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
-      <c r="F162" s="26"/>
-      <c r="G162" s="26"/>
+      <c r="B162" s="28"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="28"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="26"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
-      <c r="F163" s="26"/>
-      <c r="G163" s="26"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="28"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="26"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
-      <c r="F164" s="26"/>
-      <c r="G164" s="26"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="28"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="26"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
-      <c r="F165" s="26"/>
-      <c r="G165" s="26"/>
+      <c r="B165" s="28"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="28"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="28"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="26"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26"/>
-      <c r="F166" s="26"/>
-      <c r="G166" s="26"/>
+      <c r="B166" s="28"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="28"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="28"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="26"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26"/>
-      <c r="F167" s="26"/>
-      <c r="G167" s="26"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="28"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="28"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="26"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
-      <c r="F168" s="26"/>
-      <c r="G168" s="26"/>
+      <c r="B168" s="28"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="28"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="26"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
-      <c r="F169" s="26"/>
-      <c r="G169" s="26"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="28"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="26"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="26"/>
-      <c r="G170" s="26"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="28"/>
+      <c r="G170" s="28"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="26"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="26"/>
-      <c r="G171" s="26"/>
+      <c r="B171" s="28"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="28"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="26"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
-      <c r="F172" s="26"/>
-      <c r="G172" s="26"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="26"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="26"/>
-      <c r="F173" s="26"/>
-      <c r="G173" s="26"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="28"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="26"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
-      <c r="F174" s="26"/>
-      <c r="G174" s="26"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="28"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="26"/>
-      <c r="B175" s="26"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
-      <c r="F175" s="26"/>
-      <c r="G175" s="26"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="28"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="26"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
-      <c r="F176" s="26"/>
-      <c r="G176" s="26"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="28"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="26"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="26"/>
-      <c r="G177" s="26"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="28"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="26"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="26"/>
-      <c r="G178" s="26"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="28"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="26"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="26"/>
-      <c r="G179" s="26"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="28"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="26"/>
-      <c r="B180" s="26"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-      <c r="F180" s="26"/>
-      <c r="G180" s="26"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28"/>
+      <c r="F180" s="28"/>
+      <c r="G180" s="28"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="26"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="26"/>
-      <c r="F181" s="26"/>
-      <c r="G181" s="26"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="28"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="26"/>
-      <c r="B182" s="26"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="26"/>
-      <c r="E182" s="26"/>
-      <c r="F182" s="26"/>
-      <c r="G182" s="26"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="28"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="28"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="26"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
-      <c r="F183" s="26"/>
-      <c r="G183" s="26"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="28"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="26"/>
-      <c r="B184" s="26"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="26"/>
-      <c r="F184" s="26"/>
-      <c r="G184" s="26"/>
+      <c r="B184" s="28"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="28"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="26"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26"/>
-      <c r="F185" s="26"/>
-      <c r="G185" s="26"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="28"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="26"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
-      <c r="F186" s="26"/>
-      <c r="G186" s="26"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="28"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="28"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="28"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="26"/>
-      <c r="B187" s="26"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
-      <c r="F187" s="26"/>
-      <c r="G187" s="26"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="28"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="26"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
-      <c r="F188" s="26"/>
-      <c r="G188" s="26"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="28"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="28"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="26"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
-      <c r="F189" s="26"/>
-      <c r="G189" s="26"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="28"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="26"/>
-      <c r="B190" s="26"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
-      <c r="F190" s="26"/>
-      <c r="G190" s="26"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="26"/>
-      <c r="B191" s="26"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
-      <c r="F191" s="26"/>
-      <c r="G191" s="26"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="28"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="26"/>
-      <c r="B192" s="26"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
-      <c r="F192" s="26"/>
-      <c r="G192" s="26"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="28"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="26"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
-      <c r="F193" s="26"/>
-      <c r="G193" s="26"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="26"/>
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
-      <c r="F194" s="26"/>
-      <c r="G194" s="26"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="28"/>
+      <c r="E194" s="28"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="28"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="26"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-      <c r="F195" s="26"/>
-      <c r="G195" s="26"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="28"/>
+      <c r="D195" s="28"/>
+      <c r="E195" s="28"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="28"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="26"/>
-      <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
-      <c r="F196" s="26"/>
-      <c r="G196" s="26"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="28"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="28"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="26"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="26"/>
-      <c r="E197" s="26"/>
-      <c r="F197" s="26"/>
-      <c r="G197" s="26"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="28"/>
+      <c r="G197" s="28"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="26"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="26"/>
-      <c r="E198" s="26"/>
-      <c r="F198" s="26"/>
-      <c r="G198" s="26"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="28"/>
+      <c r="E198" s="28"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="28"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="26"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="26"/>
-      <c r="E199" s="26"/>
-      <c r="F199" s="26"/>
-      <c r="G199" s="26"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="28"/>
+      <c r="D199" s="28"/>
+      <c r="E199" s="28"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="28"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="26"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
-      <c r="F200" s="26"/>
-      <c r="G200" s="26"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="28"/>
+      <c r="E200" s="28"/>
+      <c r="F200" s="28"/>
+      <c r="G200" s="28"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="26"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
-      <c r="F201" s="26"/>
-      <c r="G201" s="26"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="28"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="28"/>
+      <c r="F201" s="28"/>
+      <c r="G201" s="28"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="26"/>
-      <c r="B202" s="26"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
-      <c r="F202" s="26"/>
-      <c r="G202" s="26"/>
+      <c r="B202" s="28"/>
+      <c r="C202" s="28"/>
+      <c r="D202" s="28"/>
+      <c r="E202" s="28"/>
+      <c r="F202" s="28"/>
+      <c r="G202" s="28"/>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="26"/>
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="26"/>
-      <c r="E203" s="26"/>
-      <c r="F203" s="26"/>
-      <c r="G203" s="26"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="28"/>
+      <c r="F203" s="28"/>
+      <c r="G203" s="28"/>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="26"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
-      <c r="F204" s="26"/>
-      <c r="G204" s="26"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="28"/>
+      <c r="F204" s="28"/>
+      <c r="G204" s="28"/>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="26"/>
-      <c r="B205" s="26"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="26"/>
-      <c r="E205" s="26"/>
-      <c r="F205" s="26"/>
-      <c r="G205" s="26"/>
+      <c r="B205" s="28"/>
+      <c r="C205" s="28"/>
+      <c r="D205" s="28"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="28"/>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="26"/>
-      <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
-      <c r="F206" s="26"/>
-      <c r="G206" s="26"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="28"/>
+      <c r="D206" s="28"/>
+      <c r="E206" s="28"/>
+      <c r="F206" s="28"/>
+      <c r="G206" s="28"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="26"/>
-      <c r="B207" s="26"/>
-      <c r="C207" s="26"/>
-      <c r="D207" s="26"/>
-      <c r="E207" s="26"/>
-      <c r="F207" s="26"/>
-      <c r="G207" s="26"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="28"/>
+      <c r="D207" s="28"/>
+      <c r="E207" s="28"/>
+      <c r="F207" s="28"/>
+      <c r="G207" s="28"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="26"/>
-      <c r="B208" s="26"/>
-      <c r="C208" s="26"/>
-      <c r="D208" s="26"/>
-      <c r="E208" s="26"/>
-      <c r="F208" s="26"/>
-      <c r="G208" s="26"/>
+      <c r="B208" s="28"/>
+      <c r="C208" s="28"/>
+      <c r="D208" s="28"/>
+      <c r="E208" s="28"/>
+      <c r="F208" s="28"/>
+      <c r="G208" s="28"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="26"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="26"/>
-      <c r="D209" s="26"/>
-      <c r="E209" s="26"/>
-      <c r="F209" s="26"/>
-      <c r="G209" s="26"/>
+      <c r="B209" s="28"/>
+      <c r="C209" s="28"/>
+      <c r="D209" s="28"/>
+      <c r="E209" s="28"/>
+      <c r="F209" s="28"/>
+      <c r="G209" s="28"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="26"/>
-      <c r="B210" s="26"/>
-      <c r="C210" s="26"/>
-      <c r="D210" s="26"/>
-      <c r="E210" s="26"/>
-      <c r="F210" s="26"/>
-      <c r="G210" s="26"/>
+      <c r="B210" s="28"/>
+      <c r="C210" s="28"/>
+      <c r="D210" s="28"/>
+      <c r="E210" s="28"/>
+      <c r="F210" s="28"/>
+      <c r="G210" s="28"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="26"/>
-      <c r="B211" s="26"/>
-      <c r="C211" s="26"/>
-      <c r="D211" s="26"/>
-      <c r="E211" s="26"/>
-      <c r="F211" s="26"/>
-      <c r="G211" s="26"/>
+      <c r="B211" s="28"/>
+      <c r="C211" s="28"/>
+      <c r="D211" s="28"/>
+      <c r="E211" s="28"/>
+      <c r="F211" s="28"/>
+      <c r="G211" s="28"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="26"/>
-      <c r="B212" s="26"/>
-      <c r="C212" s="26"/>
-      <c r="D212" s="26"/>
-      <c r="E212" s="26"/>
-      <c r="F212" s="26"/>
-      <c r="G212" s="26"/>
+      <c r="B212" s="28"/>
+      <c r="C212" s="28"/>
+      <c r="D212" s="28"/>
+      <c r="E212" s="28"/>
+      <c r="F212" s="28"/>
+      <c r="G212" s="28"/>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="26"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="26"/>
-      <c r="D213" s="26"/>
-      <c r="E213" s="26"/>
-      <c r="F213" s="26"/>
-      <c r="G213" s="26"/>
+      <c r="B213" s="28"/>
+      <c r="C213" s="28"/>
+      <c r="D213" s="28"/>
+      <c r="E213" s="28"/>
+      <c r="F213" s="28"/>
+      <c r="G213" s="28"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="26"/>
-      <c r="B214" s="26"/>
-      <c r="C214" s="26"/>
-      <c r="D214" s="26"/>
-      <c r="E214" s="26"/>
-      <c r="F214" s="26"/>
-      <c r="G214" s="26"/>
+      <c r="B214" s="28"/>
+      <c r="C214" s="28"/>
+      <c r="D214" s="28"/>
+      <c r="E214" s="28"/>
+      <c r="F214" s="28"/>
+      <c r="G214" s="28"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="26"/>
-      <c r="B215" s="26"/>
-      <c r="C215" s="26"/>
-      <c r="D215" s="26"/>
-      <c r="E215" s="26"/>
-      <c r="F215" s="26"/>
-      <c r="G215" s="26"/>
+      <c r="B215" s="28"/>
+      <c r="C215" s="28"/>
+      <c r="D215" s="28"/>
+      <c r="E215" s="28"/>
+      <c r="F215" s="28"/>
+      <c r="G215" s="28"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="26"/>
-      <c r="B216" s="26"/>
-      <c r="C216" s="26"/>
-      <c r="D216" s="26"/>
-      <c r="E216" s="26"/>
-      <c r="F216" s="26"/>
-      <c r="G216" s="26"/>
+      <c r="B216" s="28"/>
+      <c r="C216" s="28"/>
+      <c r="D216" s="28"/>
+      <c r="E216" s="28"/>
+      <c r="F216" s="28"/>
+      <c r="G216" s="28"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="26"/>
-      <c r="B217" s="26"/>
-      <c r="C217" s="26"/>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
-      <c r="F217" s="26"/>
-      <c r="G217" s="26"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="28"/>
+      <c r="D217" s="28"/>
+      <c r="E217" s="28"/>
+      <c r="F217" s="28"/>
+      <c r="G217" s="28"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="26"/>
-      <c r="B218" s="26"/>
-      <c r="C218" s="26"/>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
-      <c r="F218" s="26"/>
-      <c r="G218" s="26"/>
+      <c r="B218" s="28"/>
+      <c r="C218" s="28"/>
+      <c r="D218" s="28"/>
+      <c r="E218" s="28"/>
+      <c r="F218" s="28"/>
+      <c r="G218" s="28"/>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="26"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
-      <c r="F219" s="26"/>
-      <c r="G219" s="26"/>
+      <c r="B219" s="28"/>
+      <c r="C219" s="28"/>
+      <c r="D219" s="28"/>
+      <c r="E219" s="28"/>
+      <c r="F219" s="28"/>
+      <c r="G219" s="28"/>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="26"/>
-      <c r="B220" s="26"/>
-      <c r="C220" s="26"/>
-      <c r="D220" s="26"/>
-      <c r="E220" s="26"/>
-      <c r="F220" s="26"/>
-      <c r="G220" s="26"/>
+      <c r="B220" s="28"/>
+      <c r="C220" s="28"/>
+      <c r="D220" s="28"/>
+      <c r="E220" s="28"/>
+      <c r="F220" s="28"/>
+      <c r="G220" s="28"/>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="26"/>
-      <c r="B221" s="26"/>
-      <c r="C221" s="26"/>
-      <c r="D221" s="26"/>
-      <c r="E221" s="26"/>
-      <c r="F221" s="26"/>
-      <c r="G221" s="26"/>
+      <c r="B221" s="28"/>
+      <c r="C221" s="28"/>
+      <c r="D221" s="28"/>
+      <c r="E221" s="28"/>
+      <c r="F221" s="28"/>
+      <c r="G221" s="28"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="26"/>
-      <c r="B222" s="26"/>
-      <c r="C222" s="26"/>
-      <c r="D222" s="26"/>
-      <c r="E222" s="26"/>
-      <c r="F222" s="26"/>
-      <c r="G222" s="26"/>
+      <c r="B222" s="28"/>
+      <c r="C222" s="28"/>
+      <c r="D222" s="28"/>
+      <c r="E222" s="28"/>
+      <c r="F222" s="28"/>
+      <c r="G222" s="28"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="26"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="26"/>
-      <c r="D223" s="26"/>
-      <c r="E223" s="26"/>
-      <c r="F223" s="26"/>
-      <c r="G223" s="26"/>
+      <c r="B223" s="28"/>
+      <c r="C223" s="28"/>
+      <c r="D223" s="28"/>
+      <c r="E223" s="28"/>
+      <c r="F223" s="28"/>
+      <c r="G223" s="28"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="26"/>
-      <c r="B224" s="26"/>
-      <c r="C224" s="26"/>
-      <c r="D224" s="26"/>
-      <c r="E224" s="26"/>
-      <c r="F224" s="26"/>
-      <c r="G224" s="26"/>
+      <c r="B224" s="28"/>
+      <c r="C224" s="28"/>
+      <c r="D224" s="28"/>
+      <c r="E224" s="28"/>
+      <c r="F224" s="28"/>
+      <c r="G224" s="28"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="26"/>
-      <c r="B225" s="26"/>
-      <c r="C225" s="26"/>
-      <c r="D225" s="26"/>
-      <c r="E225" s="26"/>
-      <c r="F225" s="26"/>
-      <c r="G225" s="26"/>
+      <c r="B225" s="28"/>
+      <c r="C225" s="28"/>
+      <c r="D225" s="28"/>
+      <c r="E225" s="28"/>
+      <c r="F225" s="28"/>
+      <c r="G225" s="28"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="26"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="26"/>
-      <c r="E226" s="26"/>
-      <c r="F226" s="26"/>
-      <c r="G226" s="26"/>
+      <c r="B226" s="28"/>
+      <c r="C226" s="28"/>
+      <c r="D226" s="28"/>
+      <c r="E226" s="28"/>
+      <c r="F226" s="28"/>
+      <c r="G226" s="28"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="26"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="26"/>
-      <c r="E227" s="26"/>
-      <c r="F227" s="26"/>
-      <c r="G227" s="26"/>
+      <c r="B227" s="28"/>
+      <c r="C227" s="28"/>
+      <c r="D227" s="28"/>
+      <c r="E227" s="28"/>
+      <c r="F227" s="28"/>
+      <c r="G227" s="28"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="26"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
-      <c r="F228" s="26"/>
-      <c r="G228" s="26"/>
+      <c r="B228" s="28"/>
+      <c r="C228" s="28"/>
+      <c r="D228" s="28"/>
+      <c r="E228" s="28"/>
+      <c r="F228" s="28"/>
+      <c r="G228" s="28"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="26"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="26"/>
-      <c r="D229" s="26"/>
-      <c r="E229" s="26"/>
-      <c r="F229" s="26"/>
-      <c r="G229" s="26"/>
+      <c r="B229" s="28"/>
+      <c r="C229" s="28"/>
+      <c r="D229" s="28"/>
+      <c r="E229" s="28"/>
+      <c r="F229" s="28"/>
+      <c r="G229" s="28"/>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="26"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="26"/>
-      <c r="D230" s="26"/>
-      <c r="E230" s="26"/>
-      <c r="F230" s="26"/>
-      <c r="G230" s="26"/>
+      <c r="B230" s="28"/>
+      <c r="C230" s="28"/>
+      <c r="D230" s="28"/>
+      <c r="E230" s="28"/>
+      <c r="F230" s="28"/>
+      <c r="G230" s="28"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="26"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="26"/>
-      <c r="D231" s="26"/>
-      <c r="E231" s="26"/>
-      <c r="F231" s="26"/>
-      <c r="G231" s="26"/>
+      <c r="B231" s="28"/>
+      <c r="C231" s="28"/>
+      <c r="D231" s="28"/>
+      <c r="E231" s="28"/>
+      <c r="F231" s="28"/>
+      <c r="G231" s="28"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="26"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
-      <c r="D232" s="26"/>
-      <c r="E232" s="26"/>
-      <c r="F232" s="26"/>
-      <c r="G232" s="26"/>
+      <c r="B232" s="28"/>
+      <c r="C232" s="28"/>
+      <c r="D232" s="28"/>
+      <c r="E232" s="28"/>
+      <c r="F232" s="28"/>
+      <c r="G232" s="28"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="26"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="26"/>
-      <c r="E233" s="26"/>
-      <c r="F233" s="26"/>
-      <c r="G233" s="26"/>
+      <c r="B233" s="28"/>
+      <c r="C233" s="28"/>
+      <c r="D233" s="28"/>
+      <c r="E233" s="28"/>
+      <c r="F233" s="28"/>
+      <c r="G233" s="28"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="26"/>
-      <c r="B234" s="26"/>
-      <c r="C234" s="26"/>
-      <c r="D234" s="26"/>
-      <c r="E234" s="26"/>
-      <c r="F234" s="26"/>
-      <c r="G234" s="26"/>
+      <c r="B234" s="28"/>
+      <c r="C234" s="28"/>
+      <c r="D234" s="28"/>
+      <c r="E234" s="28"/>
+      <c r="F234" s="28"/>
+      <c r="G234" s="28"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="26"/>
-      <c r="B235" s="26"/>
-      <c r="C235" s="26"/>
-      <c r="D235" s="26"/>
-      <c r="E235" s="26"/>
-      <c r="F235" s="26"/>
-      <c r="G235" s="26"/>
+      <c r="B235" s="28"/>
+      <c r="C235" s="28"/>
+      <c r="D235" s="28"/>
+      <c r="E235" s="28"/>
+      <c r="F235" s="28"/>
+      <c r="G235" s="28"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="26"/>
-      <c r="B236" s="26"/>
-      <c r="C236" s="26"/>
-      <c r="D236" s="26"/>
-      <c r="E236" s="26"/>
-      <c r="F236" s="26"/>
-      <c r="G236" s="26"/>
+      <c r="B236" s="28"/>
+      <c r="C236" s="28"/>
+      <c r="D236" s="28"/>
+      <c r="E236" s="28"/>
+      <c r="F236" s="28"/>
+      <c r="G236" s="28"/>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="26"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="26"/>
-      <c r="D237" s="26"/>
-      <c r="E237" s="26"/>
-      <c r="F237" s="26"/>
-      <c r="G237" s="26"/>
+      <c r="B237" s="28"/>
+      <c r="C237" s="28"/>
+      <c r="D237" s="28"/>
+      <c r="E237" s="28"/>
+      <c r="F237" s="28"/>
+      <c r="G237" s="28"/>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="26"/>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
-      <c r="D238" s="26"/>
-      <c r="E238" s="26"/>
-      <c r="F238" s="26"/>
-      <c r="G238" s="26"/>
+      <c r="B238" s="28"/>
+      <c r="C238" s="28"/>
+      <c r="D238" s="28"/>
+      <c r="E238" s="28"/>
+      <c r="F238" s="28"/>
+      <c r="G238" s="28"/>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="26"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="26"/>
-      <c r="D239" s="26"/>
-      <c r="E239" s="26"/>
-      <c r="F239" s="26"/>
-      <c r="G239" s="26"/>
+      <c r="B239" s="28"/>
+      <c r="C239" s="28"/>
+      <c r="D239" s="28"/>
+      <c r="E239" s="28"/>
+      <c r="F239" s="28"/>
+      <c r="G239" s="28"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="26"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="26"/>
-      <c r="E240" s="26"/>
-      <c r="F240" s="26"/>
-      <c r="G240" s="26"/>
+      <c r="B240" s="28"/>
+      <c r="C240" s="28"/>
+      <c r="D240" s="28"/>
+      <c r="E240" s="28"/>
+      <c r="F240" s="28"/>
+      <c r="G240" s="28"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="26"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="26"/>
-      <c r="D241" s="26"/>
-      <c r="E241" s="26"/>
-      <c r="F241" s="26"/>
-      <c r="G241" s="26"/>
+      <c r="B241" s="28"/>
+      <c r="C241" s="28"/>
+      <c r="D241" s="28"/>
+      <c r="E241" s="28"/>
+      <c r="F241" s="28"/>
+      <c r="G241" s="28"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="26"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="26"/>
-      <c r="D242" s="26"/>
-      <c r="E242" s="26"/>
-      <c r="F242" s="26"/>
-      <c r="G242" s="26"/>
+      <c r="B242" s="28"/>
+      <c r="C242" s="28"/>
+      <c r="D242" s="28"/>
+      <c r="E242" s="28"/>
+      <c r="F242" s="28"/>
+      <c r="G242" s="28"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="26"/>
-      <c r="B243" s="26"/>
-      <c r="C243" s="26"/>
-      <c r="D243" s="26"/>
-      <c r="E243" s="26"/>
-      <c r="F243" s="26"/>
-      <c r="G243" s="26"/>
+      <c r="B243" s="28"/>
+      <c r="C243" s="28"/>
+      <c r="D243" s="28"/>
+      <c r="E243" s="28"/>
+      <c r="F243" s="28"/>
+      <c r="G243" s="28"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="26"/>
-      <c r="B244" s="26"/>
-      <c r="C244" s="26"/>
-      <c r="D244" s="26"/>
-      <c r="E244" s="26"/>
-      <c r="F244" s="26"/>
-      <c r="G244" s="26"/>
+      <c r="B244" s="28"/>
+      <c r="C244" s="28"/>
+      <c r="D244" s="28"/>
+      <c r="E244" s="28"/>
+      <c r="F244" s="28"/>
+      <c r="G244" s="28"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="26"/>
-      <c r="B245" s="26"/>
-      <c r="C245" s="26"/>
-      <c r="D245" s="26"/>
-      <c r="E245" s="26"/>
-      <c r="F245" s="26"/>
-      <c r="G245" s="26"/>
+      <c r="B245" s="28"/>
+      <c r="C245" s="28"/>
+      <c r="D245" s="28"/>
+      <c r="E245" s="28"/>
+      <c r="F245" s="28"/>
+      <c r="G245" s="28"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="26"/>
-      <c r="B246" s="26"/>
-      <c r="C246" s="26"/>
-      <c r="D246" s="26"/>
-      <c r="E246" s="26"/>
-      <c r="F246" s="26"/>
-      <c r="G246" s="26"/>
+      <c r="B246" s="28"/>
+      <c r="C246" s="28"/>
+      <c r="D246" s="28"/>
+      <c r="E246" s="28"/>
+      <c r="F246" s="28"/>
+      <c r="G246" s="28"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="26"/>
-      <c r="B247" s="26"/>
-      <c r="C247" s="26"/>
-      <c r="D247" s="26"/>
-      <c r="E247" s="26"/>
-      <c r="F247" s="26"/>
-      <c r="G247" s="26"/>
+      <c r="B247" s="28"/>
+      <c r="C247" s="28"/>
+      <c r="D247" s="28"/>
+      <c r="E247" s="28"/>
+      <c r="F247" s="28"/>
+      <c r="G247" s="28"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="26"/>
-      <c r="B248" s="26"/>
-      <c r="C248" s="26"/>
-      <c r="D248" s="26"/>
-      <c r="E248" s="26"/>
-      <c r="F248" s="26"/>
-      <c r="G248" s="26"/>
+      <c r="B248" s="28"/>
+      <c r="C248" s="28"/>
+      <c r="D248" s="28"/>
+      <c r="E248" s="28"/>
+      <c r="F248" s="28"/>
+      <c r="G248" s="28"/>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="26"/>
-      <c r="B249" s="26"/>
-      <c r="C249" s="26"/>
-      <c r="D249" s="26"/>
-      <c r="E249" s="26"/>
-      <c r="F249" s="26"/>
-      <c r="G249" s="26"/>
+      <c r="B249" s="28"/>
+      <c r="C249" s="28"/>
+      <c r="D249" s="28"/>
+      <c r="E249" s="28"/>
+      <c r="F249" s="28"/>
+      <c r="G249" s="28"/>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="26"/>
-      <c r="B250" s="26"/>
-      <c r="C250" s="26"/>
-      <c r="D250" s="26"/>
-      <c r="E250" s="26"/>
-      <c r="F250" s="26"/>
-      <c r="G250" s="26"/>
+      <c r="B250" s="28"/>
+      <c r="C250" s="28"/>
+      <c r="D250" s="28"/>
+      <c r="E250" s="28"/>
+      <c r="F250" s="28"/>
+      <c r="G250" s="28"/>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="26"/>
-      <c r="B251" s="26"/>
-      <c r="C251" s="26"/>
-      <c r="D251" s="26"/>
-      <c r="E251" s="26"/>
-      <c r="F251" s="26"/>
-      <c r="G251" s="26"/>
+      <c r="B251" s="28"/>
+      <c r="C251" s="28"/>
+      <c r="D251" s="28"/>
+      <c r="E251" s="28"/>
+      <c r="F251" s="28"/>
+      <c r="G251" s="28"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="26"/>
-      <c r="B252" s="26"/>
-      <c r="C252" s="26"/>
-      <c r="D252" s="26"/>
-      <c r="E252" s="26"/>
-      <c r="F252" s="26"/>
-      <c r="G252" s="26"/>
+      <c r="B252" s="28"/>
+      <c r="C252" s="28"/>
+      <c r="D252" s="28"/>
+      <c r="E252" s="28"/>
+      <c r="F252" s="28"/>
+      <c r="G252" s="28"/>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="26"/>
-      <c r="B253" s="26"/>
-      <c r="C253" s="26"/>
-      <c r="D253" s="26"/>
-      <c r="E253" s="26"/>
-      <c r="F253" s="26"/>
-      <c r="G253" s="26"/>
+      <c r="B253" s="28"/>
+      <c r="C253" s="28"/>
+      <c r="D253" s="28"/>
+      <c r="E253" s="28"/>
+      <c r="F253" s="28"/>
+      <c r="G253" s="28"/>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="26"/>
-      <c r="B254" s="26"/>
-      <c r="C254" s="26"/>
-      <c r="D254" s="26"/>
-      <c r="E254" s="26"/>
-      <c r="F254" s="26"/>
-      <c r="G254" s="26"/>
+      <c r="B254" s="28"/>
+      <c r="C254" s="28"/>
+      <c r="D254" s="28"/>
+      <c r="E254" s="28"/>
+      <c r="F254" s="28"/>
+      <c r="G254" s="28"/>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="26"/>
-      <c r="B255" s="26"/>
-      <c r="C255" s="26"/>
-      <c r="D255" s="26"/>
-      <c r="E255" s="26"/>
-      <c r="F255" s="26"/>
-      <c r="G255" s="26"/>
+      <c r="B255" s="28"/>
+      <c r="C255" s="28"/>
+      <c r="D255" s="28"/>
+      <c r="E255" s="28"/>
+      <c r="F255" s="28"/>
+      <c r="G255" s="28"/>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="26"/>
-      <c r="B256" s="26"/>
-      <c r="C256" s="26"/>
-      <c r="D256" s="26"/>
-      <c r="E256" s="26"/>
-      <c r="F256" s="26"/>
-      <c r="G256" s="26"/>
+      <c r="B256" s="28"/>
+      <c r="C256" s="28"/>
+      <c r="D256" s="28"/>
+      <c r="E256" s="28"/>
+      <c r="F256" s="28"/>
+      <c r="G256" s="28"/>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="26"/>
-      <c r="B257" s="26"/>
-      <c r="C257" s="26"/>
-      <c r="D257" s="26"/>
-      <c r="E257" s="26"/>
-      <c r="F257" s="26"/>
-      <c r="G257" s="26"/>
+      <c r="B257" s="28"/>
+      <c r="C257" s="28"/>
+      <c r="D257" s="28"/>
+      <c r="E257" s="28"/>
+      <c r="F257" s="28"/>
+      <c r="G257" s="28"/>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="26"/>
-      <c r="B258" s="26"/>
-      <c r="C258" s="26"/>
-      <c r="D258" s="26"/>
-      <c r="E258" s="26"/>
-      <c r="F258" s="26"/>
-      <c r="G258" s="26"/>
+      <c r="B258" s="28"/>
+      <c r="C258" s="28"/>
+      <c r="D258" s="28"/>
+      <c r="E258" s="28"/>
+      <c r="F258" s="28"/>
+      <c r="G258" s="28"/>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="26"/>
-      <c r="B259" s="26"/>
-      <c r="C259" s="26"/>
-      <c r="D259" s="26"/>
-      <c r="E259" s="26"/>
-      <c r="F259" s="26"/>
-      <c r="G259" s="26"/>
+      <c r="B259" s="28"/>
+      <c r="C259" s="28"/>
+      <c r="D259" s="28"/>
+      <c r="E259" s="28"/>
+      <c r="F259" s="28"/>
+      <c r="G259" s="28"/>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="26"/>
-      <c r="B260" s="26"/>
-      <c r="C260" s="26"/>
-      <c r="D260" s="26"/>
-      <c r="E260" s="26"/>
-      <c r="F260" s="26"/>
-      <c r="G260" s="26"/>
+      <c r="B260" s="28"/>
+      <c r="C260" s="28"/>
+      <c r="D260" s="28"/>
+      <c r="E260" s="28"/>
+      <c r="F260" s="28"/>
+      <c r="G260" s="28"/>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="26"/>
-      <c r="B261" s="26"/>
-      <c r="C261" s="26"/>
-      <c r="D261" s="26"/>
-      <c r="E261" s="26"/>
-      <c r="F261" s="26"/>
-      <c r="G261" s="26"/>
+      <c r="B261" s="28"/>
+      <c r="C261" s="28"/>
+      <c r="D261" s="28"/>
+      <c r="E261" s="28"/>
+      <c r="F261" s="28"/>
+      <c r="G261" s="28"/>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="26"/>
-      <c r="B262" s="26"/>
-      <c r="C262" s="26"/>
-      <c r="D262" s="26"/>
-      <c r="E262" s="26"/>
-      <c r="F262" s="26"/>
-      <c r="G262" s="26"/>
+      <c r="B262" s="28"/>
+      <c r="C262" s="28"/>
+      <c r="D262" s="28"/>
+      <c r="E262" s="28"/>
+      <c r="F262" s="28"/>
+      <c r="G262" s="28"/>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="26"/>
-      <c r="B263" s="26"/>
-      <c r="C263" s="26"/>
-      <c r="D263" s="26"/>
-      <c r="E263" s="26"/>
-      <c r="F263" s="26"/>
-      <c r="G263" s="26"/>
+      <c r="B263" s="28"/>
+      <c r="C263" s="28"/>
+      <c r="D263" s="28"/>
+      <c r="E263" s="28"/>
+      <c r="F263" s="28"/>
+      <c r="G263" s="28"/>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="26"/>
-      <c r="B264" s="26"/>
-      <c r="C264" s="26"/>
-      <c r="D264" s="26"/>
-      <c r="E264" s="26"/>
-      <c r="F264" s="26"/>
-      <c r="G264" s="26"/>
+      <c r="B264" s="28"/>
+      <c r="C264" s="28"/>
+      <c r="D264" s="28"/>
+      <c r="E264" s="28"/>
+      <c r="F264" s="28"/>
+      <c r="G264" s="28"/>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="26"/>
-      <c r="B265" s="26"/>
-      <c r="C265" s="26"/>
-      <c r="D265" s="26"/>
-      <c r="E265" s="26"/>
-      <c r="F265" s="26"/>
-      <c r="G265" s="26"/>
+      <c r="B265" s="28"/>
+      <c r="C265" s="28"/>
+      <c r="D265" s="28"/>
+      <c r="E265" s="28"/>
+      <c r="F265" s="28"/>
+      <c r="G265" s="28"/>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="26"/>
-      <c r="B266" s="26"/>
-      <c r="C266" s="26"/>
-      <c r="D266" s="26"/>
-      <c r="E266" s="26"/>
-      <c r="F266" s="26"/>
-      <c r="G266" s="26"/>
+      <c r="B266" s="28"/>
+      <c r="C266" s="28"/>
+      <c r="D266" s="28"/>
+      <c r="E266" s="28"/>
+      <c r="F266" s="28"/>
+      <c r="G266" s="28"/>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="26"/>
-      <c r="B267" s="26"/>
-      <c r="C267" s="26"/>
-      <c r="D267" s="26"/>
-      <c r="E267" s="26"/>
-      <c r="F267" s="26"/>
-      <c r="G267" s="26"/>
+      <c r="B267" s="28"/>
+      <c r="C267" s="28"/>
+      <c r="D267" s="28"/>
+      <c r="E267" s="28"/>
+      <c r="F267" s="28"/>
+      <c r="G267" s="28"/>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="26"/>
-      <c r="B268" s="26"/>
-      <c r="C268" s="26"/>
-      <c r="D268" s="26"/>
-      <c r="E268" s="26"/>
-      <c r="F268" s="26"/>
-      <c r="G268" s="26"/>
+      <c r="B268" s="28"/>
+      <c r="C268" s="28"/>
+      <c r="D268" s="28"/>
+      <c r="E268" s="28"/>
+      <c r="F268" s="28"/>
+      <c r="G268" s="28"/>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="26"/>
-      <c r="B269" s="26"/>
-      <c r="C269" s="26"/>
-      <c r="D269" s="26"/>
-      <c r="E269" s="26"/>
-      <c r="F269" s="26"/>
-      <c r="G269" s="26"/>
+      <c r="B269" s="28"/>
+      <c r="C269" s="28"/>
+      <c r="D269" s="28"/>
+      <c r="E269" s="28"/>
+      <c r="F269" s="28"/>
+      <c r="G269" s="28"/>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="26"/>
-      <c r="B270" s="26"/>
-      <c r="C270" s="26"/>
-      <c r="D270" s="26"/>
-      <c r="E270" s="26"/>
-      <c r="F270" s="26"/>
-      <c r="G270" s="26"/>
+      <c r="B270" s="28"/>
+      <c r="C270" s="28"/>
+      <c r="D270" s="28"/>
+      <c r="E270" s="28"/>
+      <c r="F270" s="28"/>
+      <c r="G270" s="28"/>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="26"/>
-      <c r="B271" s="26"/>
-      <c r="C271" s="26"/>
-      <c r="D271" s="26"/>
-      <c r="E271" s="26"/>
-      <c r="F271" s="26"/>
-      <c r="G271" s="26"/>
+      <c r="B271" s="28"/>
+      <c r="C271" s="28"/>
+      <c r="D271" s="28"/>
+      <c r="E271" s="28"/>
+      <c r="F271" s="28"/>
+      <c r="G271" s="28"/>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="26"/>
-      <c r="B272" s="26"/>
-      <c r="C272" s="26"/>
-      <c r="D272" s="26"/>
-      <c r="E272" s="26"/>
-      <c r="F272" s="26"/>
-      <c r="G272" s="26"/>
+      <c r="B272" s="28"/>
+      <c r="C272" s="28"/>
+      <c r="D272" s="28"/>
+      <c r="E272" s="28"/>
+      <c r="F272" s="28"/>
+      <c r="G272" s="28"/>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="26"/>
-      <c r="B273" s="26"/>
-      <c r="C273" s="26"/>
-      <c r="D273" s="26"/>
-      <c r="E273" s="26"/>
-      <c r="F273" s="26"/>
-      <c r="G273" s="26"/>
+      <c r="B273" s="28"/>
+      <c r="C273" s="28"/>
+      <c r="D273" s="28"/>
+      <c r="E273" s="28"/>
+      <c r="F273" s="28"/>
+      <c r="G273" s="28"/>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="26"/>
-      <c r="B274" s="26"/>
-      <c r="C274" s="26"/>
-      <c r="D274" s="26"/>
-      <c r="E274" s="26"/>
-      <c r="F274" s="26"/>
-      <c r="G274" s="26"/>
+      <c r="B274" s="28"/>
+      <c r="C274" s="28"/>
+      <c r="D274" s="28"/>
+      <c r="E274" s="28"/>
+      <c r="F274" s="28"/>
+      <c r="G274" s="28"/>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="26"/>
-      <c r="B275" s="26"/>
-      <c r="C275" s="26"/>
-      <c r="D275" s="26"/>
-      <c r="E275" s="26"/>
-      <c r="F275" s="26"/>
-      <c r="G275" s="26"/>
+      <c r="B275" s="28"/>
+      <c r="C275" s="28"/>
+      <c r="D275" s="28"/>
+      <c r="E275" s="28"/>
+      <c r="F275" s="28"/>
+      <c r="G275" s="28"/>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="26"/>
-      <c r="B276" s="26"/>
-      <c r="C276" s="26"/>
-      <c r="D276" s="26"/>
-      <c r="E276" s="26"/>
-      <c r="F276" s="26"/>
-      <c r="G276" s="26"/>
+      <c r="B276" s="28"/>
+      <c r="C276" s="28"/>
+      <c r="D276" s="28"/>
+      <c r="E276" s="28"/>
+      <c r="F276" s="28"/>
+      <c r="G276" s="28"/>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="26"/>
-      <c r="B277" s="26"/>
-      <c r="C277" s="26"/>
-      <c r="D277" s="26"/>
-      <c r="E277" s="26"/>
-      <c r="F277" s="26"/>
-      <c r="G277" s="26"/>
+      <c r="B277" s="28"/>
+      <c r="C277" s="28"/>
+      <c r="D277" s="28"/>
+      <c r="E277" s="28"/>
+      <c r="F277" s="28"/>
+      <c r="G277" s="28"/>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="26"/>
-      <c r="B278" s="26"/>
-      <c r="C278" s="26"/>
-      <c r="D278" s="26"/>
-      <c r="E278" s="26"/>
-      <c r="F278" s="26"/>
-      <c r="G278" s="26"/>
+      <c r="B278" s="28"/>
+      <c r="C278" s="28"/>
+      <c r="D278" s="28"/>
+      <c r="E278" s="28"/>
+      <c r="F278" s="28"/>
+      <c r="G278" s="28"/>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="26"/>
-      <c r="B279" s="26"/>
-      <c r="C279" s="26"/>
-      <c r="D279" s="26"/>
-      <c r="E279" s="26"/>
-      <c r="F279" s="26"/>
-      <c r="G279" s="26"/>
+      <c r="B279" s="28"/>
+      <c r="C279" s="28"/>
+      <c r="D279" s="28"/>
+      <c r="E279" s="28"/>
+      <c r="F279" s="28"/>
+      <c r="G279" s="28"/>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="26"/>
-      <c r="B280" s="26"/>
-      <c r="C280" s="26"/>
-      <c r="D280" s="26"/>
-      <c r="E280" s="26"/>
-      <c r="F280" s="26"/>
-      <c r="G280" s="26"/>
+      <c r="B280" s="28"/>
+      <c r="C280" s="28"/>
+      <c r="D280" s="28"/>
+      <c r="E280" s="28"/>
+      <c r="F280" s="28"/>
+      <c r="G280" s="28"/>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="26"/>
-      <c r="B281" s="26"/>
-      <c r="C281" s="26"/>
-      <c r="D281" s="26"/>
-      <c r="E281" s="26"/>
-      <c r="F281" s="26"/>
-      <c r="G281" s="26"/>
+      <c r="B281" s="28"/>
+      <c r="C281" s="28"/>
+      <c r="D281" s="28"/>
+      <c r="E281" s="28"/>
+      <c r="F281" s="28"/>
+      <c r="G281" s="28"/>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="26"/>
-      <c r="B282" s="26"/>
-      <c r="C282" s="26"/>
-      <c r="D282" s="26"/>
-      <c r="E282" s="26"/>
-      <c r="F282" s="26"/>
-      <c r="G282" s="26"/>
+      <c r="B282" s="28"/>
+      <c r="C282" s="28"/>
+      <c r="D282" s="28"/>
+      <c r="E282" s="28"/>
+      <c r="F282" s="28"/>
+      <c r="G282" s="28"/>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="26"/>
-      <c r="B283" s="26"/>
-      <c r="C283" s="26"/>
-      <c r="D283" s="26"/>
-      <c r="E283" s="26"/>
-      <c r="F283" s="26"/>
-      <c r="G283" s="26"/>
+      <c r="B283" s="28"/>
+      <c r="C283" s="28"/>
+      <c r="D283" s="28"/>
+      <c r="E283" s="28"/>
+      <c r="F283" s="28"/>
+      <c r="G283" s="28"/>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="26"/>
-      <c r="B284" s="26"/>
-      <c r="C284" s="26"/>
-      <c r="D284" s="26"/>
-      <c r="E284" s="26"/>
-      <c r="F284" s="26"/>
-      <c r="G284" s="26"/>
+      <c r="B284" s="28"/>
+      <c r="C284" s="28"/>
+      <c r="D284" s="28"/>
+      <c r="E284" s="28"/>
+      <c r="F284" s="28"/>
+      <c r="G284" s="28"/>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="26"/>
-      <c r="B285" s="26"/>
-      <c r="C285" s="26"/>
-      <c r="D285" s="26"/>
-      <c r="E285" s="26"/>
-      <c r="F285" s="26"/>
-      <c r="G285" s="26"/>
+      <c r="B285" s="28"/>
+      <c r="C285" s="28"/>
+      <c r="D285" s="28"/>
+      <c r="E285" s="28"/>
+      <c r="F285" s="28"/>
+      <c r="G285" s="28"/>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="26"/>
-      <c r="B286" s="26"/>
-      <c r="C286" s="26"/>
-      <c r="D286" s="26"/>
-      <c r="E286" s="26"/>
-      <c r="F286" s="26"/>
-      <c r="G286" s="26"/>
+      <c r="B286" s="28"/>
+      <c r="C286" s="28"/>
+      <c r="D286" s="28"/>
+      <c r="E286" s="28"/>
+      <c r="F286" s="28"/>
+      <c r="G286" s="28"/>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="26"/>
-      <c r="B287" s="26"/>
-      <c r="C287" s="26"/>
-      <c r="D287" s="26"/>
-      <c r="E287" s="26"/>
-      <c r="F287" s="26"/>
-      <c r="G287" s="26"/>
+      <c r="B287" s="28"/>
+      <c r="C287" s="28"/>
+      <c r="D287" s="28"/>
+      <c r="E287" s="28"/>
+      <c r="F287" s="28"/>
+      <c r="G287" s="28"/>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="26"/>
-      <c r="B288" s="26"/>
-      <c r="C288" s="26"/>
-      <c r="D288" s="26"/>
-      <c r="E288" s="26"/>
-      <c r="F288" s="26"/>
-      <c r="G288" s="26"/>
+      <c r="B288" s="28"/>
+      <c r="C288" s="28"/>
+      <c r="D288" s="28"/>
+      <c r="E288" s="28"/>
+      <c r="F288" s="28"/>
+      <c r="G288" s="28"/>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="26"/>
-      <c r="B289" s="26"/>
-      <c r="C289" s="26"/>
-      <c r="D289" s="26"/>
-      <c r="E289" s="26"/>
-      <c r="F289" s="26"/>
-      <c r="G289" s="26"/>
+      <c r="B289" s="28"/>
+      <c r="C289" s="28"/>
+      <c r="D289" s="28"/>
+      <c r="E289" s="28"/>
+      <c r="F289" s="28"/>
+      <c r="G289" s="28"/>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="26"/>
-      <c r="B290" s="26"/>
-      <c r="C290" s="26"/>
-      <c r="D290" s="26"/>
-      <c r="E290" s="26"/>
-      <c r="F290" s="26"/>
-      <c r="G290" s="26"/>
+      <c r="B290" s="28"/>
+      <c r="C290" s="28"/>
+      <c r="D290" s="28"/>
+      <c r="E290" s="28"/>
+      <c r="F290" s="28"/>
+      <c r="G290" s="28"/>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="26"/>
-      <c r="B291" s="26"/>
-      <c r="C291" s="26"/>
-      <c r="D291" s="26"/>
-      <c r="E291" s="26"/>
-      <c r="F291" s="26"/>
-      <c r="G291" s="26"/>
+      <c r="B291" s="28"/>
+      <c r="C291" s="28"/>
+      <c r="D291" s="28"/>
+      <c r="E291" s="28"/>
+      <c r="F291" s="28"/>
+      <c r="G291" s="28"/>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="26"/>
-      <c r="B292" s="26"/>
-      <c r="C292" s="26"/>
-      <c r="D292" s="26"/>
-      <c r="E292" s="26"/>
-      <c r="F292" s="26"/>
-      <c r="G292" s="26"/>
+      <c r="B292" s="28"/>
+      <c r="C292" s="28"/>
+      <c r="D292" s="28"/>
+      <c r="E292" s="28"/>
+      <c r="F292" s="28"/>
+      <c r="G292" s="28"/>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="26"/>
-      <c r="B293" s="26"/>
-      <c r="C293" s="26"/>
-      <c r="D293" s="26"/>
-      <c r="E293" s="26"/>
-      <c r="F293" s="26"/>
-      <c r="G293" s="26"/>
+      <c r="B293" s="28"/>
+      <c r="C293" s="28"/>
+      <c r="D293" s="28"/>
+      <c r="E293" s="28"/>
+      <c r="F293" s="28"/>
+      <c r="G293" s="28"/>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="26"/>
-      <c r="B294" s="26"/>
-      <c r="C294" s="26"/>
-      <c r="D294" s="26"/>
-      <c r="E294" s="26"/>
-      <c r="F294" s="26"/>
-      <c r="G294" s="26"/>
+      <c r="B294" s="28"/>
+      <c r="C294" s="28"/>
+      <c r="D294" s="28"/>
+      <c r="E294" s="28"/>
+      <c r="F294" s="28"/>
+      <c r="G294" s="28"/>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="26"/>
-      <c r="B295" s="26"/>
-      <c r="C295" s="26"/>
-      <c r="D295" s="26"/>
-      <c r="E295" s="26"/>
-      <c r="F295" s="26"/>
-      <c r="G295" s="26"/>
+      <c r="B295" s="28"/>
+      <c r="C295" s="28"/>
+      <c r="D295" s="28"/>
+      <c r="E295" s="28"/>
+      <c r="F295" s="28"/>
+      <c r="G295" s="28"/>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="26"/>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
-      <c r="D296" s="26"/>
-      <c r="E296" s="26"/>
-      <c r="F296" s="26"/>
-      <c r="G296" s="26"/>
+      <c r="B296" s="28"/>
+      <c r="C296" s="28"/>
+      <c r="D296" s="28"/>
+      <c r="E296" s="28"/>
+      <c r="F296" s="28"/>
+      <c r="G296" s="28"/>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="26"/>
-      <c r="B297" s="26"/>
-      <c r="C297" s="26"/>
-      <c r="D297" s="26"/>
-      <c r="E297" s="26"/>
-      <c r="F297" s="26"/>
-      <c r="G297" s="26"/>
+      <c r="B297" s="28"/>
+      <c r="C297" s="28"/>
+      <c r="D297" s="28"/>
+      <c r="E297" s="28"/>
+      <c r="F297" s="28"/>
+      <c r="G297" s="28"/>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="26"/>
-      <c r="B298" s="26"/>
-      <c r="C298" s="26"/>
-      <c r="D298" s="26"/>
-      <c r="E298" s="26"/>
-      <c r="F298" s="26"/>
-      <c r="G298" s="26"/>
+      <c r="B298" s="28"/>
+      <c r="C298" s="28"/>
+      <c r="D298" s="28"/>
+      <c r="E298" s="28"/>
+      <c r="F298" s="28"/>
+      <c r="G298" s="28"/>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="26"/>
-      <c r="B299" s="26"/>
-      <c r="C299" s="26"/>
-      <c r="D299" s="26"/>
-      <c r="E299" s="26"/>
-      <c r="F299" s="26"/>
-      <c r="G299" s="26"/>
+      <c r="B299" s="28"/>
+      <c r="C299" s="28"/>
+      <c r="D299" s="28"/>
+      <c r="E299" s="28"/>
+      <c r="F299" s="28"/>
+      <c r="G299" s="28"/>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="26"/>
-      <c r="B300" s="26"/>
-      <c r="C300" s="26"/>
-      <c r="D300" s="26"/>
-      <c r="E300" s="26"/>
-      <c r="F300" s="26"/>
-      <c r="G300" s="26"/>
+      <c r="B300" s="28"/>
+      <c r="C300" s="28"/>
+      <c r="D300" s="28"/>
+      <c r="E300" s="28"/>
+      <c r="F300" s="28"/>
+      <c r="G300" s="28"/>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="26"/>
-      <c r="B301" s="26"/>
-      <c r="C301" s="26"/>
-      <c r="D301" s="26"/>
-      <c r="E301" s="26"/>
-      <c r="F301" s="26"/>
-      <c r="G301" s="26"/>
+      <c r="B301" s="28"/>
+      <c r="C301" s="28"/>
+      <c r="D301" s="28"/>
+      <c r="E301" s="28"/>
+      <c r="F301" s="28"/>
+      <c r="G301" s="28"/>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="26"/>
-      <c r="B302" s="26"/>
-      <c r="C302" s="26"/>
-      <c r="D302" s="26"/>
-      <c r="E302" s="26"/>
-      <c r="F302" s="26"/>
-      <c r="G302" s="26"/>
+      <c r="B302" s="28"/>
+      <c r="C302" s="28"/>
+      <c r="D302" s="28"/>
+      <c r="E302" s="28"/>
+      <c r="F302" s="28"/>
+      <c r="G302" s="28"/>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="26"/>
-      <c r="B303" s="26"/>
-      <c r="C303" s="26"/>
-      <c r="D303" s="26"/>
-      <c r="E303" s="26"/>
-      <c r="F303" s="26"/>
-      <c r="G303" s="26"/>
+      <c r="B303" s="28"/>
+      <c r="C303" s="28"/>
+      <c r="D303" s="28"/>
+      <c r="E303" s="28"/>
+      <c r="F303" s="28"/>
+      <c r="G303" s="28"/>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="26"/>
-      <c r="B304" s="26"/>
-      <c r="C304" s="26"/>
-      <c r="D304" s="26"/>
-      <c r="E304" s="26"/>
-      <c r="F304" s="26"/>
-      <c r="G304" s="26"/>
+      <c r="B304" s="28"/>
+      <c r="C304" s="28"/>
+      <c r="D304" s="28"/>
+      <c r="E304" s="28"/>
+      <c r="F304" s="28"/>
+      <c r="G304" s="28"/>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="26"/>
-      <c r="B305" s="26"/>
-      <c r="C305" s="26"/>
-      <c r="D305" s="26"/>
-      <c r="E305" s="26"/>
-      <c r="F305" s="26"/>
-      <c r="G305" s="26"/>
+      <c r="B305" s="28"/>
+      <c r="C305" s="28"/>
+      <c r="D305" s="28"/>
+      <c r="E305" s="28"/>
+      <c r="F305" s="28"/>
+      <c r="G305" s="28"/>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="26"/>
-      <c r="B306" s="26"/>
-      <c r="C306" s="26"/>
-      <c r="D306" s="26"/>
-      <c r="E306" s="26"/>
-      <c r="F306" s="26"/>
-      <c r="G306" s="26"/>
+      <c r="B306" s="28"/>
+      <c r="C306" s="28"/>
+      <c r="D306" s="28"/>
+      <c r="E306" s="28"/>
+      <c r="F306" s="28"/>
+      <c r="G306" s="28"/>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="26"/>
-      <c r="B307" s="26"/>
-      <c r="C307" s="26"/>
-      <c r="D307" s="26"/>
-      <c r="E307" s="26"/>
-      <c r="F307" s="26"/>
-      <c r="G307" s="26"/>
+      <c r="B307" s="28"/>
+      <c r="C307" s="28"/>
+      <c r="D307" s="28"/>
+      <c r="E307" s="28"/>
+      <c r="F307" s="28"/>
+      <c r="G307" s="28"/>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="26"/>
-      <c r="B308" s="26"/>
-      <c r="C308" s="26"/>
-      <c r="D308" s="26"/>
-      <c r="E308" s="26"/>
-      <c r="F308" s="26"/>
-      <c r="G308" s="26"/>
+      <c r="B308" s="28"/>
+      <c r="C308" s="28"/>
+      <c r="D308" s="28"/>
+      <c r="E308" s="28"/>
+      <c r="F308" s="28"/>
+      <c r="G308" s="28"/>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="26"/>
-      <c r="B309" s="26"/>
-      <c r="C309" s="26"/>
-      <c r="D309" s="26"/>
-      <c r="E309" s="26"/>
-      <c r="F309" s="26"/>
-      <c r="G309" s="26"/>
+      <c r="B309" s="28"/>
+      <c r="C309" s="28"/>
+      <c r="D309" s="28"/>
+      <c r="E309" s="28"/>
+      <c r="F309" s="28"/>
+      <c r="G309" s="28"/>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="26"/>
-      <c r="B310" s="26"/>
-      <c r="C310" s="26"/>
-      <c r="D310" s="26"/>
-      <c r="E310" s="26"/>
-      <c r="F310" s="26"/>
-      <c r="G310" s="26"/>
+      <c r="B310" s="28"/>
+      <c r="C310" s="28"/>
+      <c r="D310" s="28"/>
+      <c r="E310" s="28"/>
+      <c r="F310" s="28"/>
+      <c r="G310" s="28"/>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="26"/>
-      <c r="B311" s="26"/>
-      <c r="C311" s="26"/>
-      <c r="D311" s="26"/>
-      <c r="E311" s="26"/>
-      <c r="F311" s="26"/>
-      <c r="G311" s="26"/>
+      <c r="B311" s="28"/>
+      <c r="C311" s="28"/>
+      <c r="D311" s="28"/>
+      <c r="E311" s="28"/>
+      <c r="F311" s="28"/>
+      <c r="G311" s="28"/>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="26"/>
-      <c r="B312" s="26"/>
-      <c r="C312" s="26"/>
-      <c r="D312" s="26"/>
-      <c r="E312" s="26"/>
-      <c r="F312" s="26"/>
-      <c r="G312" s="26"/>
+      <c r="B312" s="28"/>
+      <c r="C312" s="28"/>
+      <c r="D312" s="28"/>
+      <c r="E312" s="28"/>
+      <c r="F312" s="28"/>
+      <c r="G312" s="28"/>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="26"/>
-      <c r="B313" s="26"/>
-      <c r="C313" s="26"/>
-      <c r="D313" s="26"/>
-      <c r="E313" s="26"/>
-      <c r="F313" s="26"/>
-      <c r="G313" s="26"/>
+      <c r="B313" s="28"/>
+      <c r="C313" s="28"/>
+      <c r="D313" s="28"/>
+      <c r="E313" s="28"/>
+      <c r="F313" s="28"/>
+      <c r="G313" s="28"/>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="26"/>
-      <c r="B314" s="26"/>
-      <c r="C314" s="26"/>
-      <c r="D314" s="26"/>
-      <c r="E314" s="26"/>
-      <c r="F314" s="26"/>
-      <c r="G314" s="26"/>
+      <c r="B314" s="28"/>
+      <c r="C314" s="28"/>
+      <c r="D314" s="28"/>
+      <c r="E314" s="28"/>
+      <c r="F314" s="28"/>
+      <c r="G314" s="28"/>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="26"/>
-      <c r="B315" s="26"/>
-      <c r="C315" s="26"/>
-      <c r="D315" s="26"/>
-      <c r="E315" s="26"/>
-      <c r="F315" s="26"/>
-      <c r="G315" s="26"/>
+      <c r="B315" s="28"/>
+      <c r="C315" s="28"/>
+      <c r="D315" s="28"/>
+      <c r="E315" s="28"/>
+      <c r="F315" s="28"/>
+      <c r="G315" s="28"/>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="26"/>
-      <c r="B316" s="26"/>
-      <c r="C316" s="26"/>
-      <c r="D316" s="26"/>
-      <c r="E316" s="26"/>
-      <c r="F316" s="26"/>
-      <c r="G316" s="26"/>
+      <c r="B316" s="28"/>
+      <c r="C316" s="28"/>
+      <c r="D316" s="28"/>
+      <c r="E316" s="28"/>
+      <c r="F316" s="28"/>
+      <c r="G316" s="28"/>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="26"/>
-      <c r="B317" s="26"/>
-      <c r="C317" s="26"/>
-      <c r="D317" s="26"/>
-      <c r="E317" s="26"/>
-      <c r="F317" s="26"/>
-      <c r="G317" s="26"/>
+      <c r="B317" s="28"/>
+      <c r="C317" s="28"/>
+      <c r="D317" s="28"/>
+      <c r="E317" s="28"/>
+      <c r="F317" s="28"/>
+      <c r="G317" s="28"/>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="26"/>
-      <c r="B318" s="26"/>
-      <c r="C318" s="26"/>
-      <c r="D318" s="26"/>
-      <c r="E318" s="26"/>
-      <c r="F318" s="26"/>
-      <c r="G318" s="26"/>
+      <c r="B318" s="28"/>
+      <c r="C318" s="28"/>
+      <c r="D318" s="28"/>
+      <c r="E318" s="28"/>
+      <c r="F318" s="28"/>
+      <c r="G318" s="28"/>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="26"/>
-      <c r="B319" s="26"/>
-      <c r="C319" s="26"/>
-      <c r="D319" s="26"/>
-      <c r="E319" s="26"/>
-      <c r="F319" s="26"/>
-      <c r="G319" s="26"/>
+      <c r="B319" s="28"/>
+      <c r="C319" s="28"/>
+      <c r="D319" s="28"/>
+      <c r="E319" s="28"/>
+      <c r="F319" s="28"/>
+      <c r="G319" s="28"/>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="26"/>
-      <c r="B320" s="26"/>
-      <c r="C320" s="26"/>
-      <c r="D320" s="26"/>
-      <c r="E320" s="26"/>
-      <c r="F320" s="26"/>
-      <c r="G320" s="26"/>
+      <c r="B320" s="28"/>
+      <c r="C320" s="28"/>
+      <c r="D320" s="28"/>
+      <c r="E320" s="28"/>
+      <c r="F320" s="28"/>
+      <c r="G320" s="28"/>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="26"/>
-      <c r="B321" s="26"/>
-      <c r="C321" s="26"/>
-      <c r="D321" s="26"/>
-      <c r="E321" s="26"/>
-      <c r="F321" s="26"/>
-      <c r="G321" s="26"/>
+      <c r="B321" s="28"/>
+      <c r="C321" s="28"/>
+      <c r="D321" s="28"/>
+      <c r="E321" s="28"/>
+      <c r="F321" s="28"/>
+      <c r="G321" s="28"/>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="26"/>
-      <c r="B322" s="26"/>
-      <c r="C322" s="26"/>
-      <c r="D322" s="26"/>
-      <c r="E322" s="26"/>
-      <c r="F322" s="26"/>
-      <c r="G322" s="26"/>
+      <c r="B322" s="28"/>
+      <c r="C322" s="28"/>
+      <c r="D322" s="28"/>
+      <c r="E322" s="28"/>
+      <c r="F322" s="28"/>
+      <c r="G322" s="28"/>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="26"/>
-      <c r="B323" s="26"/>
-      <c r="C323" s="26"/>
-      <c r="D323" s="26"/>
-      <c r="E323" s="26"/>
-      <c r="F323" s="26"/>
-      <c r="G323" s="26"/>
+      <c r="B323" s="28"/>
+      <c r="C323" s="28"/>
+      <c r="D323" s="28"/>
+      <c r="E323" s="28"/>
+      <c r="F323" s="28"/>
+      <c r="G323" s="28"/>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="26"/>
-      <c r="B324" s="26"/>
-      <c r="C324" s="26"/>
-      <c r="D324" s="26"/>
-      <c r="E324" s="26"/>
-      <c r="F324" s="26"/>
-      <c r="G324" s="26"/>
+      <c r="B324" s="28"/>
+      <c r="C324" s="28"/>
+      <c r="D324" s="28"/>
+      <c r="E324" s="28"/>
+      <c r="F324" s="28"/>
+      <c r="G324" s="28"/>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="26"/>
-      <c r="B325" s="26"/>
-      <c r="C325" s="26"/>
-      <c r="D325" s="26"/>
-      <c r="E325" s="26"/>
-      <c r="F325" s="26"/>
-      <c r="G325" s="26"/>
+      <c r="B325" s="28"/>
+      <c r="C325" s="28"/>
+      <c r="D325" s="28"/>
+      <c r="E325" s="28"/>
+      <c r="F325" s="28"/>
+      <c r="G325" s="28"/>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="26"/>
-      <c r="B326" s="26"/>
-      <c r="C326" s="26"/>
-      <c r="D326" s="26"/>
-      <c r="E326" s="26"/>
-      <c r="F326" s="26"/>
-      <c r="G326" s="26"/>
+      <c r="B326" s="28"/>
+      <c r="C326" s="28"/>
+      <c r="D326" s="28"/>
+      <c r="E326" s="28"/>
+      <c r="F326" s="28"/>
+      <c r="G326" s="28"/>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="26"/>
-      <c r="B327" s="26"/>
-      <c r="C327" s="26"/>
-      <c r="D327" s="26"/>
-      <c r="E327" s="26"/>
-      <c r="F327" s="26"/>
-      <c r="G327" s="26"/>
+      <c r="B327" s="28"/>
+      <c r="C327" s="28"/>
+      <c r="D327" s="28"/>
+      <c r="E327" s="28"/>
+      <c r="F327" s="28"/>
+      <c r="G327" s="28"/>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="26"/>
-      <c r="B328" s="26"/>
-      <c r="C328" s="26"/>
-      <c r="D328" s="26"/>
-      <c r="E328" s="26"/>
-      <c r="F328" s="26"/>
-      <c r="G328" s="26"/>
+      <c r="B328" s="28"/>
+      <c r="C328" s="28"/>
+      <c r="D328" s="28"/>
+      <c r="E328" s="28"/>
+      <c r="F328" s="28"/>
+      <c r="G328" s="28"/>
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="26"/>
-      <c r="B329" s="26"/>
-      <c r="C329" s="26"/>
-      <c r="D329" s="26"/>
-      <c r="E329" s="26"/>
-      <c r="F329" s="26"/>
-      <c r="G329" s="26"/>
+      <c r="B329" s="28"/>
+      <c r="C329" s="28"/>
+      <c r="D329" s="28"/>
+      <c r="E329" s="28"/>
+      <c r="F329" s="28"/>
+      <c r="G329" s="28"/>
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="26"/>
-      <c r="B330" s="26"/>
-      <c r="C330" s="26"/>
-      <c r="D330" s="26"/>
-      <c r="E330" s="26"/>
-      <c r="F330" s="26"/>
-      <c r="G330" s="26"/>
+      <c r="B330" s="28"/>
+      <c r="C330" s="28"/>
+      <c r="D330" s="28"/>
+      <c r="E330" s="28"/>
+      <c r="F330" s="28"/>
+      <c r="G330" s="28"/>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="26"/>
-      <c r="B331" s="26"/>
-      <c r="C331" s="26"/>
-      <c r="D331" s="26"/>
-      <c r="E331" s="26"/>
-      <c r="F331" s="26"/>
-      <c r="G331" s="26"/>
+      <c r="B331" s="28"/>
+      <c r="C331" s="28"/>
+      <c r="D331" s="28"/>
+      <c r="E331" s="28"/>
+      <c r="F331" s="28"/>
+      <c r="G331" s="28"/>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="26"/>
-      <c r="B332" s="26"/>
-      <c r="C332" s="26"/>
-      <c r="D332" s="26"/>
-      <c r="E332" s="26"/>
-      <c r="F332" s="26"/>
-      <c r="G332" s="26"/>
+      <c r="B332" s="28"/>
+      <c r="C332" s="28"/>
+      <c r="D332" s="28"/>
+      <c r="E332" s="28"/>
+      <c r="F332" s="28"/>
+      <c r="G332" s="28"/>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="26"/>
-      <c r="B333" s="26"/>
-      <c r="C333" s="26"/>
-      <c r="D333" s="26"/>
-      <c r="E333" s="26"/>
-      <c r="F333" s="26"/>
-      <c r="G333" s="26"/>
+      <c r="B333" s="28"/>
+      <c r="C333" s="28"/>
+      <c r="D333" s="28"/>
+      <c r="E333" s="28"/>
+      <c r="F333" s="28"/>
+      <c r="G333" s="28"/>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="26"/>
-      <c r="B334" s="26"/>
-      <c r="C334" s="26"/>
-      <c r="D334" s="26"/>
-      <c r="E334" s="26"/>
-      <c r="F334" s="26"/>
-      <c r="G334" s="26"/>
+      <c r="B334" s="28"/>
+      <c r="C334" s="28"/>
+      <c r="D334" s="28"/>
+      <c r="E334" s="28"/>
+      <c r="F334" s="28"/>
+      <c r="G334" s="28"/>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="26"/>
-      <c r="B335" s="26"/>
-      <c r="C335" s="26"/>
-      <c r="D335" s="26"/>
-      <c r="E335" s="26"/>
-      <c r="F335" s="26"/>
-      <c r="G335" s="26"/>
+      <c r="B335" s="28"/>
+      <c r="C335" s="28"/>
+      <c r="D335" s="28"/>
+      <c r="E335" s="28"/>
+      <c r="F335" s="28"/>
+      <c r="G335" s="28"/>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="26"/>
-      <c r="B336" s="26"/>
-      <c r="C336" s="26"/>
-      <c r="D336" s="26"/>
-      <c r="E336" s="26"/>
-      <c r="F336" s="26"/>
-      <c r="G336" s="26"/>
+      <c r="B336" s="28"/>
+      <c r="C336" s="28"/>
+      <c r="D336" s="28"/>
+      <c r="E336" s="28"/>
+      <c r="F336" s="28"/>
+      <c r="G336" s="28"/>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="26"/>
-      <c r="B337" s="26"/>
-      <c r="C337" s="26"/>
-      <c r="D337" s="26"/>
-      <c r="E337" s="26"/>
-      <c r="F337" s="26"/>
-      <c r="G337" s="26"/>
+      <c r="B337" s="28"/>
+      <c r="C337" s="28"/>
+      <c r="D337" s="28"/>
+      <c r="E337" s="28"/>
+      <c r="F337" s="28"/>
+      <c r="G337" s="28"/>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="26"/>
-      <c r="B338" s="26"/>
-      <c r="C338" s="26"/>
-      <c r="D338" s="26"/>
-      <c r="E338" s="26"/>
-      <c r="F338" s="26"/>
-      <c r="G338" s="26"/>
+      <c r="B338" s="28"/>
+      <c r="C338" s="28"/>
+      <c r="D338" s="28"/>
+      <c r="E338" s="28"/>
+      <c r="F338" s="28"/>
+      <c r="G338" s="28"/>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="26"/>
-      <c r="B339" s="26"/>
-      <c r="C339" s="26"/>
-      <c r="D339" s="26"/>
-      <c r="E339" s="26"/>
-      <c r="F339" s="26"/>
-      <c r="G339" s="26"/>
+      <c r="B339" s="28"/>
+      <c r="C339" s="28"/>
+      <c r="D339" s="28"/>
+      <c r="E339" s="28"/>
+      <c r="F339" s="28"/>
+      <c r="G339" s="28"/>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="26"/>
-      <c r="B340" s="26"/>
-      <c r="C340" s="26"/>
-      <c r="D340" s="26"/>
-      <c r="E340" s="26"/>
-      <c r="F340" s="26"/>
-      <c r="G340" s="26"/>
+      <c r="B340" s="28"/>
+      <c r="C340" s="28"/>
+      <c r="D340" s="28"/>
+      <c r="E340" s="28"/>
+      <c r="F340" s="28"/>
+      <c r="G340" s="28"/>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="26"/>
-      <c r="B341" s="26"/>
-      <c r="C341" s="26"/>
-      <c r="D341" s="26"/>
-      <c r="E341" s="26"/>
-      <c r="F341" s="26"/>
-      <c r="G341" s="26"/>
+      <c r="B341" s="28"/>
+      <c r="C341" s="28"/>
+      <c r="D341" s="28"/>
+      <c r="E341" s="28"/>
+      <c r="F341" s="28"/>
+      <c r="G341" s="28"/>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="26"/>
-      <c r="B342" s="26"/>
-      <c r="C342" s="26"/>
-      <c r="D342" s="26"/>
-      <c r="E342" s="26"/>
-      <c r="F342" s="26"/>
-      <c r="G342" s="26"/>
+      <c r="B342" s="28"/>
+      <c r="C342" s="28"/>
+      <c r="D342" s="28"/>
+      <c r="E342" s="28"/>
+      <c r="F342" s="28"/>
+      <c r="G342" s="28"/>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="26"/>
-      <c r="B343" s="26"/>
-      <c r="C343" s="26"/>
-      <c r="D343" s="26"/>
-      <c r="E343" s="26"/>
-      <c r="F343" s="26"/>
-      <c r="G343" s="26"/>
+      <c r="B343" s="28"/>
+      <c r="C343" s="28"/>
+      <c r="D343" s="28"/>
+      <c r="E343" s="28"/>
+      <c r="F343" s="28"/>
+      <c r="G343" s="28"/>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="26"/>
-      <c r="B344" s="26"/>
-      <c r="C344" s="26"/>
-      <c r="D344" s="26"/>
-      <c r="E344" s="26"/>
-      <c r="F344" s="26"/>
-      <c r="G344" s="26"/>
+      <c r="B344" s="28"/>
+      <c r="C344" s="28"/>
+      <c r="D344" s="28"/>
+      <c r="E344" s="28"/>
+      <c r="F344" s="28"/>
+      <c r="G344" s="28"/>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="26"/>
-      <c r="B345" s="26"/>
-      <c r="C345" s="26"/>
-      <c r="D345" s="26"/>
-      <c r="E345" s="26"/>
-      <c r="F345" s="26"/>
-      <c r="G345" s="26"/>
+      <c r="B345" s="28"/>
+      <c r="C345" s="28"/>
+      <c r="D345" s="28"/>
+      <c r="E345" s="28"/>
+      <c r="F345" s="28"/>
+      <c r="G345" s="28"/>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="26"/>
-      <c r="B346" s="26"/>
-      <c r="C346" s="26"/>
-      <c r="D346" s="26"/>
-      <c r="E346" s="26"/>
-      <c r="F346" s="26"/>
-      <c r="G346" s="26"/>
+      <c r="B346" s="28"/>
+      <c r="C346" s="28"/>
+      <c r="D346" s="28"/>
+      <c r="E346" s="28"/>
+      <c r="F346" s="28"/>
+      <c r="G346" s="28"/>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="26"/>
-      <c r="B347" s="26"/>
-      <c r="C347" s="26"/>
-      <c r="D347" s="26"/>
-      <c r="E347" s="26"/>
-      <c r="F347" s="26"/>
-      <c r="G347" s="26"/>
+      <c r="B347" s="28"/>
+      <c r="C347" s="28"/>
+      <c r="D347" s="28"/>
+      <c r="E347" s="28"/>
+      <c r="F347" s="28"/>
+      <c r="G347" s="28"/>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="26"/>
-      <c r="B348" s="26"/>
-      <c r="C348" s="26"/>
-      <c r="D348" s="26"/>
-      <c r="E348" s="26"/>
-      <c r="F348" s="26"/>
-      <c r="G348" s="26"/>
+      <c r="B348" s="28"/>
+      <c r="C348" s="28"/>
+      <c r="D348" s="28"/>
+      <c r="E348" s="28"/>
+      <c r="F348" s="28"/>
+      <c r="G348" s="28"/>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="26"/>
-      <c r="B349" s="26"/>
-      <c r="C349" s="26"/>
-      <c r="D349" s="26"/>
-      <c r="E349" s="26"/>
-      <c r="F349" s="26"/>
-      <c r="G349" s="26"/>
+      <c r="B349" s="28"/>
+      <c r="C349" s="28"/>
+      <c r="D349" s="28"/>
+      <c r="E349" s="28"/>
+      <c r="F349" s="28"/>
+      <c r="G349" s="28"/>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="26"/>
-      <c r="B350" s="26"/>
-      <c r="C350" s="26"/>
-      <c r="D350" s="26"/>
-      <c r="E350" s="26"/>
-      <c r="F350" s="26"/>
-      <c r="G350" s="26"/>
+      <c r="B350" s="28"/>
+      <c r="C350" s="28"/>
+      <c r="D350" s="28"/>
+      <c r="E350" s="28"/>
+      <c r="F350" s="28"/>
+      <c r="G350" s="28"/>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="26"/>
-      <c r="B351" s="26"/>
-      <c r="C351" s="26"/>
-      <c r="D351" s="26"/>
-      <c r="E351" s="26"/>
-      <c r="F351" s="26"/>
-      <c r="G351" s="26"/>
+      <c r="B351" s="28"/>
+      <c r="C351" s="28"/>
+      <c r="D351" s="28"/>
+      <c r="E351" s="28"/>
+      <c r="F351" s="28"/>
+      <c r="G351" s="28"/>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="26"/>
-      <c r="B352" s="26"/>
-      <c r="C352" s="26"/>
-      <c r="D352" s="26"/>
-      <c r="E352" s="26"/>
-      <c r="F352" s="26"/>
-      <c r="G352" s="26"/>
+      <c r="B352" s="28"/>
+      <c r="C352" s="28"/>
+      <c r="D352" s="28"/>
+      <c r="E352" s="28"/>
+      <c r="F352" s="28"/>
+      <c r="G352" s="28"/>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="26"/>
-      <c r="B353" s="26"/>
-      <c r="C353" s="26"/>
-      <c r="D353" s="26"/>
-      <c r="E353" s="26"/>
-      <c r="F353" s="26"/>
-      <c r="G353" s="26"/>
+      <c r="B353" s="28"/>
+      <c r="C353" s="28"/>
+      <c r="D353" s="28"/>
+      <c r="E353" s="28"/>
+      <c r="F353" s="28"/>
+      <c r="G353" s="28"/>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="26"/>
-      <c r="B354" s="26"/>
-      <c r="C354" s="26"/>
-      <c r="D354" s="26"/>
-      <c r="E354" s="26"/>
-      <c r="F354" s="26"/>
-      <c r="G354" s="26"/>
+      <c r="B354" s="28"/>
+      <c r="C354" s="28"/>
+      <c r="D354" s="28"/>
+      <c r="E354" s="28"/>
+      <c r="F354" s="28"/>
+      <c r="G354" s="28"/>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="26"/>
-      <c r="B355" s="26"/>
-      <c r="C355" s="26"/>
-      <c r="D355" s="26"/>
-      <c r="E355" s="26"/>
-      <c r="F355" s="26"/>
-      <c r="G355" s="26"/>
+      <c r="B355" s="28"/>
+      <c r="C355" s="28"/>
+      <c r="D355" s="28"/>
+      <c r="E355" s="28"/>
+      <c r="F355" s="28"/>
+      <c r="G355" s="28"/>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="26"/>
-      <c r="B356" s="26"/>
-      <c r="C356" s="26"/>
-      <c r="D356" s="26"/>
-      <c r="E356" s="26"/>
-      <c r="F356" s="26"/>
-      <c r="G356" s="26"/>
+      <c r="B356" s="28"/>
+      <c r="C356" s="28"/>
+      <c r="D356" s="28"/>
+      <c r="E356" s="28"/>
+      <c r="F356" s="28"/>
+      <c r="G356" s="28"/>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="26"/>
-      <c r="B357" s="26"/>
-      <c r="C357" s="26"/>
-      <c r="D357" s="26"/>
-      <c r="E357" s="26"/>
-      <c r="F357" s="26"/>
-      <c r="G357" s="26"/>
+      <c r="B357" s="28"/>
+      <c r="C357" s="28"/>
+      <c r="D357" s="28"/>
+      <c r="E357" s="28"/>
+      <c r="F357" s="28"/>
+      <c r="G357" s="28"/>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="26"/>
-      <c r="B358" s="26"/>
-      <c r="C358" s="26"/>
-      <c r="D358" s="26"/>
-      <c r="E358" s="26"/>
-      <c r="F358" s="26"/>
-      <c r="G358" s="26"/>
+      <c r="B358" s="28"/>
+      <c r="C358" s="28"/>
+      <c r="D358" s="28"/>
+      <c r="E358" s="28"/>
+      <c r="F358" s="28"/>
+      <c r="G358" s="28"/>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="26"/>
-      <c r="B359" s="26"/>
-      <c r="C359" s="26"/>
-      <c r="D359" s="26"/>
-      <c r="E359" s="26"/>
-      <c r="F359" s="26"/>
-      <c r="G359" s="26"/>
+      <c r="B359" s="28"/>
+      <c r="C359" s="28"/>
+      <c r="D359" s="28"/>
+      <c r="E359" s="28"/>
+      <c r="F359" s="28"/>
+      <c r="G359" s="28"/>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="26"/>
-      <c r="B360" s="26"/>
-      <c r="C360" s="26"/>
-      <c r="D360" s="26"/>
-      <c r="E360" s="26"/>
-      <c r="F360" s="26"/>
-      <c r="G360" s="26"/>
+      <c r="B360" s="28"/>
+      <c r="C360" s="28"/>
+      <c r="D360" s="28"/>
+      <c r="E360" s="28"/>
+      <c r="F360" s="28"/>
+      <c r="G360" s="28"/>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="26"/>
-      <c r="B361" s="26"/>
-      <c r="C361" s="26"/>
-      <c r="D361" s="26"/>
-      <c r="E361" s="26"/>
-      <c r="F361" s="26"/>
-      <c r="G361" s="26"/>
+      <c r="B361" s="28"/>
+      <c r="C361" s="28"/>
+      <c r="D361" s="28"/>
+      <c r="E361" s="28"/>
+      <c r="F361" s="28"/>
+      <c r="G361" s="28"/>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="26"/>
-      <c r="B362" s="26"/>
-      <c r="C362" s="26"/>
-      <c r="D362" s="26"/>
-      <c r="E362" s="26"/>
-      <c r="F362" s="26"/>
-      <c r="G362" s="26"/>
+      <c r="B362" s="28"/>
+      <c r="C362" s="28"/>
+      <c r="D362" s="28"/>
+      <c r="E362" s="28"/>
+      <c r="F362" s="28"/>
+      <c r="G362" s="28"/>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="26"/>
-      <c r="B363" s="26"/>
-      <c r="C363" s="26"/>
-      <c r="D363" s="26"/>
-      <c r="E363" s="26"/>
-      <c r="F363" s="26"/>
-      <c r="G363" s="26"/>
+      <c r="B363" s="28"/>
+      <c r="C363" s="28"/>
+      <c r="D363" s="28"/>
+      <c r="E363" s="28"/>
+      <c r="F363" s="28"/>
+      <c r="G363" s="28"/>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="26"/>
-      <c r="B364" s="26"/>
-      <c r="C364" s="26"/>
-      <c r="D364" s="26"/>
-      <c r="E364" s="26"/>
-      <c r="F364" s="26"/>
-      <c r="G364" s="26"/>
+      <c r="B364" s="28"/>
+      <c r="C364" s="28"/>
+      <c r="D364" s="28"/>
+      <c r="E364" s="28"/>
+      <c r="F364" s="28"/>
+      <c r="G364" s="28"/>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="26"/>
-      <c r="B365" s="26"/>
-      <c r="C365" s="26"/>
-      <c r="D365" s="26"/>
-      <c r="E365" s="26"/>
-      <c r="F365" s="26"/>
-      <c r="G365" s="26"/>
+      <c r="B365" s="28"/>
+      <c r="C365" s="28"/>
+      <c r="D365" s="28"/>
+      <c r="E365" s="28"/>
+      <c r="F365" s="28"/>
+      <c r="G365" s="28"/>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="26"/>
-      <c r="B366" s="26"/>
-      <c r="C366" s="26"/>
-      <c r="D366" s="26"/>
-      <c r="E366" s="26"/>
-      <c r="F366" s="26"/>
-      <c r="G366" s="26"/>
+      <c r="B366" s="28"/>
+      <c r="C366" s="28"/>
+      <c r="D366" s="28"/>
+      <c r="E366" s="28"/>
+      <c r="F366" s="28"/>
+      <c r="G366" s="28"/>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="26"/>
-      <c r="B367" s="26"/>
-      <c r="C367" s="26"/>
-      <c r="D367" s="26"/>
-      <c r="E367" s="26"/>
-      <c r="F367" s="26"/>
-      <c r="G367" s="26"/>
+      <c r="B367" s="28"/>
+      <c r="C367" s="28"/>
+      <c r="D367" s="28"/>
+      <c r="E367" s="28"/>
+      <c r="F367" s="28"/>
+      <c r="G367" s="28"/>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="26"/>
+      <c r="B368" s="28"/>
+      <c r="C368" s="28"/>
+      <c r="D368" s="28"/>
+      <c r="E368" s="28"/>
+      <c r="F368" s="28"/>
+      <c r="G368" s="28"/>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="26"/>
+      <c r="B369" s="28"/>
+      <c r="C369" s="28"/>
+      <c r="D369" s="28"/>
+      <c r="E369" s="28"/>
+      <c r="F369" s="28"/>
+      <c r="G369" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC5DB9-885C-0D44-A0ED-5EB8D004D1EE}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="31">
+      <c r="A1" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="18">
+        <v>87</v>
+      </c>
+      <c r="D2" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2" s="18">
+        <v>191.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="18">
+        <v>149</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1.9</v>
+      </c>
+      <c r="E3" s="18">
+        <v>224.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="18">
+        <v>158</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>473.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="18">
+        <v>427</v>
+      </c>
+      <c r="D5" s="18">
+        <v>5.4</v>
+      </c>
+      <c r="E5" s="18">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1476</v>
+      </c>
+      <c r="D6" s="18">
+        <v>18.5</v>
+      </c>
+      <c r="E6" s="18">
+        <v>902.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1430</v>
+      </c>
+      <c r="D7" s="18">
+        <v>18</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1256</v>
+      </c>
+      <c r="D8" s="18">
+        <v>15.8</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1339</v>
+      </c>
+      <c r="D9" s="18">
+        <v>16.8</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1912.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="18">
+        <v>864</v>
+      </c>
+      <c r="D10" s="18">
+        <v>10.9</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1769.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="18">
+        <v>774</v>
+      </c>
+      <c r="D11" s="18">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2103.6999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7098,14 +7420,14 @@
   <dimension ref="A1:BQ21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ6" sqref="AJ6"/>
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="31" max="34" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="31" max="35" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
@@ -7211,7 +7533,9 @@
       <c r="AH1" s="4">
         <v>43972</v>
       </c>
-      <c r="AI1" s="4"/>
+      <c r="AI1" s="4">
+        <v>43973</v>
+      </c>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
@@ -7351,7 +7675,9 @@
       <c r="AH2" s="14">
         <v>418</v>
       </c>
-      <c r="AI2" s="14"/>
+      <c r="AI2" s="14">
+        <v>427</v>
+      </c>
       <c r="AJ2" s="14"/>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
@@ -7490,7 +7816,9 @@
       <c r="AH3" s="7">
         <v>37</v>
       </c>
-      <c r="AI3" s="7"/>
+      <c r="AI3" s="7">
+        <v>40</v>
+      </c>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -7629,7 +7957,9 @@
       <c r="AH4" s="7">
         <v>26</v>
       </c>
-      <c r="AI4" s="7"/>
+      <c r="AI4" s="7">
+        <v>26</v>
+      </c>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
       <c r="AL4" s="7"/>
@@ -7768,7 +8098,9 @@
       <c r="AH5" s="7">
         <v>27</v>
       </c>
-      <c r="AI5" s="7"/>
+      <c r="AI5" s="7">
+        <v>28</v>
+      </c>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
       <c r="AL5" s="7"/>
@@ -7907,7 +8239,9 @@
       <c r="AH6" s="7">
         <v>58</v>
       </c>
-      <c r="AI6" s="7"/>
+      <c r="AI6" s="7">
+        <v>60</v>
+      </c>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
@@ -8046,7 +8380,9 @@
       <c r="AH7" s="7">
         <v>65</v>
       </c>
-      <c r="AI7" s="7"/>
+      <c r="AI7" s="7">
+        <v>65</v>
+      </c>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
@@ -8185,7 +8521,9 @@
       <c r="AH8" s="7">
         <v>41</v>
       </c>
-      <c r="AI8" s="7"/>
+      <c r="AI8" s="7">
+        <v>41</v>
+      </c>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
@@ -8324,7 +8662,9 @@
       <c r="AH9" s="7">
         <v>60</v>
       </c>
-      <c r="AI9" s="7"/>
+      <c r="AI9" s="7">
+        <v>61</v>
+      </c>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
@@ -8463,7 +8803,9 @@
       <c r="AH10" s="7">
         <v>89</v>
       </c>
-      <c r="AI10" s="7"/>
+      <c r="AI10" s="7">
+        <v>91</v>
+      </c>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
@@ -8602,7 +8944,9 @@
       <c r="AH11" s="7">
         <v>15</v>
       </c>
-      <c r="AI11" s="7"/>
+      <c r="AI11" s="7">
+        <v>15</v>
+      </c>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
@@ -8741,7 +9085,9 @@
       <c r="AH12" s="7">
         <v>0</v>
       </c>
-      <c r="AI12" s="7"/>
+      <c r="AI12" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
@@ -8815,15 +9161,15 @@
   <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AV2" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB2" sqref="BB2"/>
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB3" sqref="BB3:BB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="42" max="90" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="42" max="90" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90">
@@ -9078,7 +9424,9 @@
       <c r="BA2" s="4">
         <v>43972</v>
       </c>
-      <c r="BB2" s="4"/>
+      <c r="BB2" s="4">
+        <v>43973</v>
+      </c>
       <c r="BC2" s="4"/>
       <c r="BD2" s="4"/>
       <c r="BE2" s="4"/>
@@ -9276,7 +9624,9 @@
       <c r="BA3" s="7">
         <v>1095</v>
       </c>
-      <c r="BB3" s="7"/>
+      <c r="BB3" s="7">
+        <v>1105</v>
+      </c>
       <c r="BC3" s="7"/>
       <c r="BD3" s="7"/>
       <c r="BE3" s="7"/>
@@ -9474,7 +9824,9 @@
       <c r="BA4" s="7">
         <v>460</v>
       </c>
-      <c r="BB4" s="7"/>
+      <c r="BB4" s="7">
+        <v>468</v>
+      </c>
       <c r="BC4" s="7"/>
       <c r="BD4" s="7"/>
       <c r="BE4" s="7"/>
@@ -9672,7 +10024,9 @@
       <c r="BA5" s="7">
         <v>393</v>
       </c>
-      <c r="BB5" s="7"/>
+      <c r="BB5" s="7">
+        <v>396</v>
+      </c>
       <c r="BC5" s="7"/>
       <c r="BD5" s="7"/>
       <c r="BE5" s="7"/>
@@ -9870,7 +10224,9 @@
       <c r="BA6" s="7">
         <v>1657</v>
       </c>
-      <c r="BB6" s="7"/>
+      <c r="BB6" s="7">
+        <v>1666</v>
+      </c>
       <c r="BC6" s="7"/>
       <c r="BD6" s="7"/>
       <c r="BE6" s="7"/>
@@ -10068,7 +10424,9 @@
       <c r="BA7" s="7">
         <v>1225</v>
       </c>
-      <c r="BB7" s="7"/>
+      <c r="BB7" s="7">
+        <v>1242</v>
+      </c>
       <c r="BC7" s="7"/>
       <c r="BD7" s="7"/>
       <c r="BE7" s="7"/>
@@ -10266,7 +10624,9 @@
       <c r="BA8" s="7">
         <v>682</v>
       </c>
-      <c r="BB8" s="7"/>
+      <c r="BB8" s="7">
+        <v>687</v>
+      </c>
       <c r="BC8" s="7"/>
       <c r="BD8" s="7"/>
       <c r="BE8" s="7"/>
@@ -10464,7 +10824,9 @@
       <c r="BA9" s="7">
         <v>1147</v>
       </c>
-      <c r="BB9" s="7"/>
+      <c r="BB9" s="7">
+        <v>1159</v>
+      </c>
       <c r="BC9" s="7"/>
       <c r="BD9" s="7"/>
       <c r="BE9" s="7"/>
@@ -10662,7 +11024,9 @@
       <c r="BA10" s="7">
         <v>1112</v>
       </c>
-      <c r="BB10" s="7"/>
+      <c r="BB10" s="7">
+        <v>1120</v>
+      </c>
       <c r="BC10" s="7"/>
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
@@ -10860,7 +11224,9 @@
       <c r="BA11" s="7">
         <v>122</v>
       </c>
-      <c r="BB11" s="7"/>
+      <c r="BB11" s="7">
+        <v>123</v>
+      </c>
       <c r="BC11" s="7"/>
       <c r="BD11" s="7"/>
       <c r="BE11" s="7"/>
@@ -10909,15 +11275,15 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
     <col min="3" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -10942,19 +11308,18 @@
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <f>SUM(B3:B13)</f>
-        <v>7551</v>
-      </c>
-      <c r="C2" s="28">
-        <f>SUM(C3:C13)</f>
-        <v>3723</v>
-      </c>
-      <c r="D2" s="28">
+        <v>7966</v>
+      </c>
+      <c r="C2" s="27">
+        <v>3945</v>
+      </c>
+      <c r="D2" s="27">
         <f>SUM(D3:D13)</f>
-        <v>3811</v>
-      </c>
-      <c r="E2" s="28">
+        <v>4004</v>
+      </c>
+      <c r="E2" s="27">
         <f>SUM(E3:E13)</f>
         <v>17</v>
       </c>
@@ -10963,8 +11328,8 @@
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28">
-        <f t="shared" ref="B3:B13" si="0">C3+D3+E3</f>
+      <c r="B3" s="27">
+        <f t="shared" ref="B3" si="0">C3+D3+E3</f>
         <v>6</v>
       </c>
       <c r="C3" s="7">
@@ -10981,15 +11346,14 @@
       <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28">
-        <f t="shared" si="0"/>
-        <v>81</v>
+      <c r="B4" s="27">
+        <v>87</v>
       </c>
       <c r="C4" s="7">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
@@ -10999,15 +11363,14 @@
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="28">
-        <f t="shared" si="0"/>
-        <v>138</v>
+      <c r="B5" s="27">
+        <v>149</v>
       </c>
       <c r="C5" s="7">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D5" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -11017,15 +11380,14 @@
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="28">
-        <f t="shared" si="0"/>
-        <v>149</v>
+      <c r="B6" s="27">
+        <v>158</v>
       </c>
       <c r="C6" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -11035,15 +11397,14 @@
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="28">
-        <f t="shared" si="0"/>
-        <v>398</v>
+      <c r="B7" s="27">
+        <v>427</v>
       </c>
       <c r="C7" s="7">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="D7" s="7">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -11053,15 +11414,14 @@
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28">
-        <f t="shared" si="0"/>
-        <v>1400</v>
+      <c r="B8" s="27">
+        <v>1476</v>
       </c>
       <c r="C8" s="7">
-        <v>713</v>
+        <v>752</v>
       </c>
       <c r="D8" s="7">
-        <v>684</v>
+        <v>721</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -11071,15 +11431,14 @@
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="28">
-        <f t="shared" si="0"/>
-        <v>1354</v>
+      <c r="B9" s="27">
+        <v>1430</v>
       </c>
       <c r="C9" s="7">
-        <v>649</v>
+        <v>682</v>
       </c>
       <c r="D9" s="7">
-        <v>703</v>
+        <v>746</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -11089,15 +11448,14 @@
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="28">
-        <f t="shared" si="0"/>
-        <v>1183</v>
+      <c r="B10" s="27">
+        <v>1256</v>
       </c>
       <c r="C10" s="7">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="D10" s="7">
-        <v>621</v>
+        <v>656</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -11107,15 +11465,14 @@
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="28">
-        <f t="shared" si="0"/>
-        <v>1270</v>
+      <c r="B11" s="27">
+        <v>1339</v>
       </c>
       <c r="C11" s="7">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="D11" s="7">
-        <v>704</v>
+        <v>736</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -11125,15 +11482,14 @@
       <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="28">
-        <f t="shared" si="0"/>
-        <v>838</v>
+      <c r="B12" s="27">
+        <v>864</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="D12" s="7">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
@@ -11143,27 +11499,26 @@
       <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="28">
-        <f t="shared" si="0"/>
-        <v>734</v>
+      <c r="B13" s="27">
+        <v>774</v>
       </c>
       <c r="C13" s="7">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D13" s="7">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57.95" customHeight="1">
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="1:5" ht="58" customHeight="1">
+      <c r="B14" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11179,17 +11534,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BZ70" sqref="BZ70"/>
+      <selection pane="topRight" activeCell="CA6" sqref="CA6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="110" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="110" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:110">
@@ -11423,7 +11778,9 @@
       <c r="BZ1" s="4">
         <v>43972</v>
       </c>
-      <c r="CA1" s="4"/>
+      <c r="CA1" s="4">
+        <v>43973</v>
+      </c>
       <c r="CB1" s="4"/>
       <c r="CC1" s="4"/>
       <c r="CD1" s="4"/>
@@ -11793,7 +12150,9 @@
       <c r="BZ3" s="11">
         <v>42993</v>
       </c>
-      <c r="CA3" s="11"/>
+      <c r="CA3" s="11">
+        <v>51991</v>
+      </c>
       <c r="CB3" s="11"/>
       <c r="CC3" s="11"/>
       <c r="CD3" s="11"/>
@@ -12061,7 +12420,9 @@
       <c r="BZ4" s="11">
         <v>7893</v>
       </c>
-      <c r="CA4" s="11"/>
+      <c r="CA4" s="11">
+        <v>7966</v>
+      </c>
       <c r="CB4" s="11"/>
       <c r="CC4" s="11"/>
       <c r="CD4" s="11"/>
@@ -12317,7 +12678,9 @@
       <c r="BZ5" s="11">
         <v>418</v>
       </c>
-      <c r="CA5" s="11"/>
+      <c r="CA5" s="11">
+        <v>427</v>
+      </c>
       <c r="CB5" s="11"/>
       <c r="CC5" s="11"/>
       <c r="CD5" s="11"/>
@@ -12553,7 +12916,9 @@
       <c r="BZ6" s="11">
         <v>1069</v>
       </c>
-      <c r="CA6" s="11"/>
+      <c r="CA6" s="11">
+        <v>1075</v>
+      </c>
       <c r="CB6" s="11"/>
       <c r="CC6" s="11"/>
       <c r="CD6" s="11"/>
@@ -12829,7 +13194,9 @@
       <c r="BZ8" s="11">
         <v>345</v>
       </c>
-      <c r="CA8" s="11"/>
+      <c r="CA8" s="11">
+        <v>345</v>
+      </c>
       <c r="CB8" s="11"/>
       <c r="CC8" s="11"/>
       <c r="CD8" s="11"/>
@@ -13061,7 +13428,9 @@
       <c r="BZ9" s="11">
         <v>46</v>
       </c>
-      <c r="CA9" s="11"/>
+      <c r="CA9" s="11">
+        <v>75</v>
+      </c>
       <c r="CB9" s="11"/>
       <c r="CC9" s="11"/>
       <c r="CD9" s="11"/>
@@ -13293,7 +13662,9 @@
       <c r="BZ10" s="11">
         <v>440</v>
       </c>
-      <c r="CA10" s="11"/>
+      <c r="CA10" s="11">
+        <v>440</v>
+      </c>
       <c r="CB10" s="11"/>
       <c r="CC10" s="11"/>
       <c r="CD10" s="11"/>
@@ -13525,7 +13896,9 @@
       <c r="BZ11" s="11">
         <v>228</v>
       </c>
-      <c r="CA11" s="11"/>
+      <c r="CA11" s="11">
+        <v>218</v>
+      </c>
       <c r="CB11" s="11"/>
       <c r="CC11" s="11"/>
       <c r="CD11" s="11"/>
@@ -13757,7 +14130,9 @@
       <c r="BZ12" s="11">
         <v>212</v>
       </c>
-      <c r="CA12" s="11"/>
+      <c r="CA12" s="11">
+        <v>222</v>
+      </c>
       <c r="CB12" s="11"/>
       <c r="CC12" s="11"/>
       <c r="CD12" s="11"/>
@@ -13897,7 +14272,9 @@
       <c r="BZ13" s="11">
         <v>342</v>
       </c>
-      <c r="CA13" s="11"/>
+      <c r="CA13" s="11">
+        <v>324</v>
+      </c>
       <c r="CB13" s="11"/>
       <c r="CC13" s="11"/>
       <c r="CD13" s="11"/>
@@ -14017,7 +14394,9 @@
       <c r="BZ14" s="11">
         <v>112</v>
       </c>
-      <c r="CA14" s="11"/>
+      <c r="CA14" s="11">
+        <v>110</v>
+      </c>
       <c r="CB14" s="11"/>
       <c r="CC14" s="11"/>
       <c r="CD14" s="11"/>
@@ -14157,7 +14536,9 @@
       <c r="BZ15" s="11">
         <v>1896</v>
       </c>
-      <c r="CA15" s="11"/>
+      <c r="CA15" s="11">
+        <v>1883</v>
+      </c>
       <c r="CB15" s="11"/>
       <c r="CC15" s="11"/>
       <c r="CD15" s="11"/>
@@ -14845,7 +15226,9 @@
       <c r="BZ20" s="11">
         <v>105</v>
       </c>
-      <c r="CA20" s="11"/>
+      <c r="CA20" s="11">
+        <v>106</v>
+      </c>
       <c r="CB20" s="11"/>
       <c r="CC20" s="11"/>
       <c r="CD20" s="11"/>
@@ -15043,7 +15426,9 @@
       <c r="BZ21" s="11">
         <v>25</v>
       </c>
-      <c r="CA21" s="11"/>
+      <c r="CA21" s="11">
+        <v>26</v>
+      </c>
       <c r="CB21" s="11"/>
       <c r="CC21" s="11"/>
       <c r="CD21" s="11"/>
@@ -15241,7 +15626,9 @@
       <c r="BZ22" s="11">
         <v>80</v>
       </c>
-      <c r="CA22" s="11"/>
+      <c r="CA22" s="11">
+        <v>80</v>
+      </c>
       <c r="CB22" s="11"/>
       <c r="CC22" s="11"/>
       <c r="CD22" s="11"/>
@@ -15469,7 +15856,9 @@
       <c r="BZ23" s="11">
         <v>70</v>
       </c>
-      <c r="CA23" s="11"/>
+      <c r="CA23" s="11">
+        <v>99</v>
+      </c>
       <c r="CB23" s="11"/>
       <c r="CC23" s="11"/>
       <c r="CD23" s="11"/>
@@ -15697,7 +16086,9 @@
       <c r="BZ24" s="11">
         <v>95</v>
       </c>
-      <c r="CA24" s="11"/>
+      <c r="CA24" s="11">
+        <v>125</v>
+      </c>
       <c r="CB24" s="11"/>
       <c r="CC24" s="11"/>
       <c r="CD24" s="11"/>
@@ -15925,7 +16316,9 @@
       <c r="BZ25" s="11">
         <v>1237</v>
       </c>
-      <c r="CA25" s="11"/>
+      <c r="CA25" s="11">
+        <v>1248</v>
+      </c>
       <c r="CB25" s="11"/>
       <c r="CC25" s="11"/>
       <c r="CD25" s="11"/>
@@ -16385,7 +16778,9 @@
       <c r="BZ28" s="11">
         <v>126</v>
       </c>
-      <c r="CA28" s="11"/>
+      <c r="CA28" s="11">
+        <v>128</v>
+      </c>
       <c r="CB28" s="11"/>
       <c r="CC28" s="11"/>
       <c r="CD28" s="11"/>
@@ -16583,7 +16978,9 @@
       <c r="BZ29" s="11">
         <v>40</v>
       </c>
-      <c r="CA29" s="11"/>
+      <c r="CA29" s="11">
+        <v>30</v>
+      </c>
       <c r="CB29" s="11"/>
       <c r="CC29" s="11"/>
       <c r="CD29" s="11"/>
@@ -16781,7 +17178,9 @@
       <c r="BZ30" s="11">
         <v>86</v>
       </c>
-      <c r="CA30" s="11"/>
+      <c r="CA30" s="11">
+        <v>98</v>
+      </c>
       <c r="CB30" s="11"/>
       <c r="CC30" s="11"/>
       <c r="CD30" s="11"/>
@@ -17009,7 +17408,9 @@
       <c r="BZ31" s="11">
         <v>56</v>
       </c>
-      <c r="CA31" s="11"/>
+      <c r="CA31" s="11">
+        <v>67</v>
+      </c>
       <c r="CB31" s="11"/>
       <c r="CC31" s="11"/>
       <c r="CD31" s="11"/>
@@ -17237,7 +17638,9 @@
       <c r="BZ32" s="11">
         <v>96</v>
       </c>
-      <c r="CA32" s="11"/>
+      <c r="CA32" s="11">
+        <v>97</v>
+      </c>
       <c r="CB32" s="11"/>
       <c r="CC32" s="11"/>
       <c r="CD32" s="11"/>
@@ -17465,7 +17868,9 @@
       <c r="BZ33" s="11">
         <v>1116</v>
       </c>
-      <c r="CA33" s="11"/>
+      <c r="CA33" s="11">
+        <v>1127</v>
+      </c>
       <c r="CB33" s="11"/>
       <c r="CC33" s="11"/>
       <c r="CD33" s="11"/>
@@ -17917,7 +18322,9 @@
       <c r="BZ36" s="11">
         <v>78</v>
       </c>
-      <c r="CA36" s="11"/>
+      <c r="CA36" s="11">
+        <v>78</v>
+      </c>
       <c r="CB36" s="11"/>
       <c r="CC36" s="11"/>
       <c r="CD36" s="11"/>
@@ -18111,7 +18518,9 @@
       <c r="BZ37" s="11">
         <v>19</v>
       </c>
-      <c r="CA37" s="11"/>
+      <c r="CA37" s="11">
+        <v>20</v>
+      </c>
       <c r="CB37" s="11"/>
       <c r="CC37" s="11"/>
       <c r="CD37" s="11"/>
@@ -18305,7 +18714,9 @@
       <c r="BZ38" s="11">
         <v>58</v>
       </c>
-      <c r="CA38" s="11"/>
+      <c r="CA38" s="11">
+        <v>58</v>
+      </c>
       <c r="CB38" s="11"/>
       <c r="CC38" s="11"/>
       <c r="CD38" s="11"/>
@@ -18529,7 +18940,9 @@
       <c r="BZ39" s="11">
         <v>4</v>
       </c>
-      <c r="CA39" s="11"/>
+      <c r="CA39" s="11">
+        <v>2</v>
+      </c>
       <c r="CB39" s="11"/>
       <c r="CC39" s="11"/>
       <c r="CD39" s="11"/>
@@ -18751,7 +19164,9 @@
       <c r="BZ40" s="11">
         <v>23</v>
       </c>
-      <c r="CA40" s="11"/>
+      <c r="CA40" s="11">
+        <v>22</v>
+      </c>
       <c r="CB40" s="11"/>
       <c r="CC40" s="11"/>
       <c r="CD40" s="11"/>
@@ -18977,7 +19392,9 @@
       <c r="BZ41" s="11">
         <v>263</v>
       </c>
-      <c r="CA41" s="11"/>
+      <c r="CA41" s="11">
+        <v>265</v>
+      </c>
       <c r="CB41" s="11"/>
       <c r="CC41" s="11"/>
       <c r="CD41" s="11"/>
@@ -19159,7 +19576,9 @@
       <c r="BZ42" s="11">
         <v>1</v>
       </c>
-      <c r="CA42" s="11"/>
+      <c r="CA42" s="11">
+        <v>1</v>
+      </c>
       <c r="CB42" s="11"/>
       <c r="CC42" s="11"/>
       <c r="CD42" s="11"/>
@@ -19615,7 +20034,9 @@
       <c r="BZ45" s="11">
         <v>193</v>
       </c>
-      <c r="CA45" s="11"/>
+      <c r="CA45" s="11">
+        <v>193</v>
+      </c>
       <c r="CB45" s="11"/>
       <c r="CC45" s="11"/>
       <c r="CD45" s="11"/>
@@ -19813,7 +20234,9 @@
       <c r="BZ46" s="11">
         <v>21</v>
       </c>
-      <c r="CA46" s="11"/>
+      <c r="CA46" s="11">
+        <v>20</v>
+      </c>
       <c r="CB46" s="11"/>
       <c r="CC46" s="11"/>
       <c r="CD46" s="11"/>
@@ -20011,7 +20434,9 @@
       <c r="BZ47" s="11">
         <v>166</v>
       </c>
-      <c r="CA47" s="11"/>
+      <c r="CA47" s="11">
+        <v>167</v>
+      </c>
       <c r="CB47" s="11"/>
       <c r="CC47" s="11"/>
       <c r="CD47" s="11"/>
@@ -20239,7 +20664,9 @@
       <c r="BZ48" s="11">
         <v>580</v>
       </c>
-      <c r="CA48" s="11"/>
+      <c r="CA48" s="11">
+        <v>515</v>
+      </c>
       <c r="CB48" s="11"/>
       <c r="CC48" s="11"/>
       <c r="CD48" s="11"/>
@@ -20437,7 +20864,9 @@
       <c r="BZ49" s="11">
         <v>601</v>
       </c>
-      <c r="CA49" s="11"/>
+      <c r="CA49" s="11">
+        <v>535</v>
+      </c>
       <c r="CB49" s="11"/>
       <c r="CC49" s="11"/>
       <c r="CD49" s="11"/>
@@ -20633,7 +21062,9 @@
       <c r="BZ50" s="11">
         <v>732</v>
       </c>
-      <c r="CA50" s="11"/>
+      <c r="CA50" s="11">
+        <v>796</v>
+      </c>
       <c r="CB50" s="11"/>
       <c r="CC50" s="11"/>
       <c r="CD50" s="11"/>
@@ -20825,7 +21256,9 @@
       <c r="BZ51" s="11">
         <v>1</v>
       </c>
-      <c r="CA51" s="11"/>
+      <c r="CA51" s="11">
+        <v>1</v>
+      </c>
       <c r="CB51" s="11"/>
       <c r="CC51" s="11"/>
       <c r="CD51" s="11"/>
@@ -21271,7 +21704,9 @@
       <c r="BZ54" s="11">
         <v>27</v>
       </c>
-      <c r="CA54" s="11"/>
+      <c r="CA54" s="11">
+        <v>29</v>
+      </c>
       <c r="CB54" s="11"/>
       <c r="CC54" s="11"/>
       <c r="CD54" s="11"/>
@@ -21467,7 +21902,9 @@
       <c r="BZ55" s="11">
         <v>10</v>
       </c>
-      <c r="CA55" s="11"/>
+      <c r="CA55" s="11">
+        <v>12</v>
+      </c>
       <c r="CB55" s="11"/>
       <c r="CC55" s="11"/>
       <c r="CD55" s="11"/>
@@ -21663,7 +22100,9 @@
       <c r="BZ56" s="11">
         <v>16</v>
       </c>
-      <c r="CA56" s="11"/>
+      <c r="CA56" s="11">
+        <v>16</v>
+      </c>
       <c r="CB56" s="11"/>
       <c r="CC56" s="11"/>
       <c r="CD56" s="11"/>
@@ -21883,7 +22322,9 @@
       <c r="BZ57" s="11">
         <v>15</v>
       </c>
-      <c r="CA57" s="11"/>
+      <c r="CA57" s="11">
+        <v>19</v>
+      </c>
       <c r="CB57" s="11"/>
       <c r="CC57" s="11"/>
       <c r="CD57" s="11"/>
@@ -22103,7 +22544,9 @@
       <c r="BZ58" s="11">
         <v>25</v>
       </c>
-      <c r="CA58" s="11"/>
+      <c r="CA58" s="11">
+        <v>31</v>
+      </c>
       <c r="CB58" s="11"/>
       <c r="CC58" s="11"/>
       <c r="CD58" s="11"/>
@@ -22323,7 +22766,9 @@
       <c r="BZ59" s="11">
         <v>132</v>
       </c>
-      <c r="CA59" s="11"/>
+      <c r="CA59" s="11">
+        <v>132</v>
+      </c>
       <c r="CB59" s="11"/>
       <c r="CC59" s="11"/>
       <c r="CD59" s="11"/>
@@ -22515,7 +22960,9 @@
       <c r="BZ60" s="11">
         <v>1</v>
       </c>
-      <c r="CA60" s="11"/>
+      <c r="CA60" s="11">
+        <v>1</v>
+      </c>
       <c r="CB60" s="11"/>
       <c r="CC60" s="11"/>
       <c r="CD60" s="11"/>
@@ -22847,7 +23294,9 @@
       <c r="BZ62" s="11">
         <v>11</v>
       </c>
-      <c r="CA62" s="11"/>
+      <c r="CA62" s="11">
+        <v>11</v>
+      </c>
       <c r="CB62" s="11"/>
       <c r="CC62" s="11"/>
       <c r="CD62" s="11"/>
@@ -23043,7 +23492,9 @@
       <c r="BZ63" s="11">
         <v>4</v>
       </c>
-      <c r="CA63" s="11"/>
+      <c r="CA63" s="11">
+        <v>4</v>
+      </c>
       <c r="CB63" s="11"/>
       <c r="CC63" s="11"/>
       <c r="CD63" s="11"/>
@@ -23239,7 +23690,9 @@
       <c r="BZ64" s="11">
         <v>7</v>
       </c>
-      <c r="CA64" s="11"/>
+      <c r="CA64" s="11">
+        <v>7</v>
+      </c>
       <c r="CB64" s="11"/>
       <c r="CC64" s="11"/>
       <c r="CD64" s="11"/>
@@ -23459,7 +23912,9 @@
       <c r="BZ65" s="11">
         <v>42</v>
       </c>
-      <c r="CA65" s="11"/>
+      <c r="CA65" s="11">
+        <v>42</v>
+      </c>
       <c r="CB65" s="11"/>
       <c r="CC65" s="11"/>
       <c r="CD65" s="11"/>
@@ -23679,7 +24134,9 @@
       <c r="BZ66" s="11">
         <v>46</v>
       </c>
-      <c r="CA66" s="11"/>
+      <c r="CA66" s="11">
+        <v>46</v>
+      </c>
       <c r="CB66" s="11"/>
       <c r="CC66" s="11"/>
       <c r="CD66" s="11"/>
@@ -23897,7 +24354,9 @@
       <c r="BZ67" s="11">
         <v>0</v>
       </c>
-      <c r="CA67" s="11"/>
+      <c r="CA67" s="11">
+        <v>0</v>
+      </c>
       <c r="CB67" s="11"/>
       <c r="CC67" s="11"/>
       <c r="CD67" s="11"/>
@@ -24093,7 +24552,9 @@
       <c r="BZ68" s="11">
         <v>0</v>
       </c>
-      <c r="CA68" s="11"/>
+      <c r="CA68" s="11">
+        <v>0</v>
+      </c>
       <c r="CB68" s="11"/>
       <c r="CC68" s="11"/>
       <c r="CD68" s="11"/>
@@ -24325,7 +24786,9 @@
       <c r="BZ70" s="11">
         <v>9</v>
       </c>
-      <c r="CA70" s="11"/>
+      <c r="CA70" s="11">
+        <v>9</v>
+      </c>
       <c r="CB70" s="11"/>
       <c r="CC70" s="11"/>
       <c r="CD70" s="11"/>
@@ -24445,7 +24908,9 @@
       <c r="BZ71" s="11">
         <v>8</v>
       </c>
-      <c r="CA71" s="11"/>
+      <c r="CA71" s="11">
+        <v>7</v>
+      </c>
       <c r="CB71" s="11"/>
       <c r="CC71" s="11"/>
       <c r="CD71" s="11"/>
@@ -24565,7 +25030,9 @@
       <c r="BZ72" s="11">
         <v>1</v>
       </c>
-      <c r="CA72" s="11"/>
+      <c r="CA72" s="11">
+        <v>2</v>
+      </c>
       <c r="CB72" s="11"/>
       <c r="CC72" s="11"/>
       <c r="CD72" s="11"/>
@@ -24685,7 +25152,9 @@
       <c r="BZ73" s="11">
         <v>15</v>
       </c>
-      <c r="CA73" s="11"/>
+      <c r="CA73" s="11">
+        <v>17</v>
+      </c>
       <c r="CB73" s="11"/>
       <c r="CC73" s="11"/>
       <c r="CD73" s="11"/>
@@ -24805,7 +25274,9 @@
       <c r="BZ74" s="11">
         <v>23</v>
       </c>
-      <c r="CA74" s="11"/>
+      <c r="CA74" s="11">
+        <v>24</v>
+      </c>
       <c r="CB74" s="11"/>
       <c r="CC74" s="11"/>
       <c r="CD74" s="11"/>
@@ -24925,7 +25396,9 @@
       <c r="BZ75" s="11">
         <v>19</v>
       </c>
-      <c r="CA75" s="11"/>
+      <c r="CA75" s="11">
+        <v>21</v>
+      </c>
       <c r="CB75" s="11"/>
       <c r="CC75" s="11"/>
       <c r="CD75" s="11"/>
@@ -25371,7 +25844,9 @@
       <c r="BZ78" s="11">
         <v>286</v>
       </c>
-      <c r="CA78" s="11"/>
+      <c r="CA78" s="11">
+        <v>287</v>
+      </c>
       <c r="CB78" s="11"/>
       <c r="CC78" s="11"/>
       <c r="CD78" s="11"/>
@@ -25591,7 +26066,9 @@
       <c r="BZ79" s="11">
         <v>246</v>
       </c>
-      <c r="CA79" s="11"/>
+      <c r="CA79" s="11">
+        <v>228</v>
+      </c>
       <c r="CB79" s="11"/>
       <c r="CC79" s="11"/>
       <c r="CD79" s="11"/>
@@ -25811,7 +26288,9 @@
       <c r="BZ80" s="11">
         <v>214</v>
       </c>
-      <c r="CA80" s="11"/>
+      <c r="CA80" s="11">
+        <v>208</v>
+      </c>
       <c r="CB80" s="11"/>
       <c r="CC80" s="11"/>
       <c r="CD80" s="11"/>
@@ -26003,7 +26482,9 @@
       <c r="BZ81" s="11">
         <v>15</v>
       </c>
-      <c r="CA81" s="11"/>
+      <c r="CA81" s="11">
+        <v>15</v>
+      </c>
       <c r="CB81" s="11"/>
       <c r="CC81" s="11"/>
       <c r="CD81" s="11"/>
@@ -26335,7 +26816,9 @@
       <c r="BZ83" s="11">
         <v>108</v>
       </c>
-      <c r="CA83" s="11"/>
+      <c r="CA83" s="11">
+        <v>110</v>
+      </c>
       <c r="CB83" s="11"/>
       <c r="CC83" s="11"/>
       <c r="CD83" s="11"/>
@@ -26555,7 +27038,9 @@
       <c r="BZ84" s="11">
         <v>4</v>
       </c>
-      <c r="CA84" s="11"/>
+      <c r="CA84" s="11">
+        <v>4</v>
+      </c>
       <c r="CB84" s="11"/>
       <c r="CC84" s="11"/>
       <c r="CD84" s="11"/>
@@ -26775,7 +27260,9 @@
       <c r="BZ85" s="11">
         <v>112</v>
       </c>
-      <c r="CA85" s="11"/>
+      <c r="CA85" s="11">
+        <v>114</v>
+      </c>
       <c r="CB85" s="11"/>
       <c r="CC85" s="11"/>
       <c r="CD85" s="11"/>
@@ -26987,7 +27474,9 @@
       <c r="BZ86" s="11">
         <v>180</v>
       </c>
-      <c r="CA86" s="11"/>
+      <c r="CA86" s="11">
+        <v>180</v>
+      </c>
       <c r="CB86" s="11"/>
       <c r="CC86" s="11"/>
       <c r="CD86" s="11"/>
@@ -27123,7 +27612,9 @@
       <c r="BZ87" s="11">
         <v>1</v>
       </c>
-      <c r="CA87" s="11"/>
+      <c r="CA87" s="11">
+        <v>1</v>
+      </c>
       <c r="CB87" s="11"/>
       <c r="CC87" s="11"/>
       <c r="CD87" s="11"/>
@@ -27414,7 +27905,9 @@
       <c r="BZ89" s="11">
         <v>79</v>
       </c>
-      <c r="CA89" s="11"/>
+      <c r="CA89" s="11">
+        <v>79</v>
+      </c>
       <c r="CB89" s="11"/>
       <c r="CC89" s="11"/>
       <c r="CD89" s="11"/>
@@ -27634,7 +28127,9 @@
       <c r="BZ90" s="11">
         <v>56</v>
       </c>
-      <c r="CA90" s="11"/>
+      <c r="CA90" s="11">
+        <v>49</v>
+      </c>
       <c r="CB90" s="11"/>
       <c r="CC90" s="11"/>
       <c r="CD90" s="11"/>
@@ -27832,7 +28327,9 @@
       <c r="BZ91" s="11">
         <v>142</v>
       </c>
-      <c r="CA91" s="11"/>
+      <c r="CA91" s="11">
+        <v>130</v>
+      </c>
       <c r="CB91" s="11"/>
       <c r="CC91" s="11"/>
       <c r="CD91" s="11"/>
@@ -28026,7 +28523,9 @@
       <c r="BZ92" s="11">
         <v>12</v>
       </c>
-      <c r="CA92" s="11"/>
+      <c r="CA92" s="11">
+        <v>13</v>
+      </c>
       <c r="CB92" s="11"/>
       <c r="CC92" s="11"/>
       <c r="CD92" s="11"/>
@@ -28244,7 +28743,9 @@
       <c r="BZ93" s="11">
         <v>13</v>
       </c>
-      <c r="CA93" s="11"/>
+      <c r="CA93" s="11">
+        <v>13</v>
+      </c>
       <c r="CB93" s="11"/>
       <c r="CC93" s="11"/>
       <c r="CD93" s="11"/>
@@ -28967,20 +29468,20 @@
   <dimension ref="A1:CE19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="AW10" sqref="AW10:AW13"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="AZ12" sqref="AZ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="49" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="50" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83">
@@ -29131,7 +29632,9 @@
       <c r="AW1" s="4">
         <v>43972</v>
       </c>
-      <c r="AX1" s="4"/>
+      <c r="AX1" s="4">
+        <v>43973</v>
+      </c>
       <c r="AY1" s="4"/>
       <c r="AZ1" s="4"/>
       <c r="BA1" s="4"/>
@@ -29314,7 +29817,9 @@
       <c r="AW2" s="7">
         <v>926</v>
       </c>
-      <c r="AX2" s="7"/>
+      <c r="AX2" s="7">
+        <v>904</v>
+      </c>
       <c r="AY2" s="7"/>
       <c r="AZ2" s="7"/>
       <c r="BA2" s="7"/>
@@ -29497,7 +30002,9 @@
       <c r="AW3" s="7">
         <v>1232</v>
       </c>
-      <c r="AX3" s="7"/>
+      <c r="AX3" s="7">
+        <v>1237</v>
+      </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
       <c r="BA3" s="7"/>
@@ -29680,7 +30187,9 @@
       <c r="AW4" s="7">
         <v>3683</v>
       </c>
-      <c r="AX4" s="7"/>
+      <c r="AX4" s="7">
+        <v>3729</v>
+      </c>
       <c r="AY4" s="7"/>
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7"/>
@@ -29863,7 +30372,9 @@
       <c r="AW5" s="7">
         <v>101</v>
       </c>
-      <c r="AX5" s="7"/>
+      <c r="AX5" s="7">
+        <v>102</v>
+      </c>
       <c r="AY5" s="7"/>
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
@@ -30046,7 +30557,9 @@
       <c r="AW6" s="7">
         <v>22</v>
       </c>
-      <c r="AX6" s="7"/>
+      <c r="AX6" s="7">
+        <v>22</v>
+      </c>
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
       <c r="BA6" s="7"/>
@@ -30225,7 +30738,9 @@
       <c r="AW7" s="7">
         <v>16</v>
       </c>
-      <c r="AX7" s="7"/>
+      <c r="AX7" s="7">
+        <v>18</v>
+      </c>
       <c r="AY7" s="7"/>
       <c r="AZ7" s="7"/>
       <c r="BA7" s="7"/>
@@ -30408,7 +30923,9 @@
       <c r="AW8" s="7">
         <v>1869</v>
       </c>
-      <c r="AX8" s="7"/>
+      <c r="AX8" s="7">
+        <v>1909</v>
+      </c>
       <c r="AY8" s="7"/>
       <c r="AZ8" s="7"/>
       <c r="BA8" s="7"/>
@@ -30591,7 +31108,9 @@
       <c r="AW9" s="7">
         <v>44</v>
       </c>
-      <c r="AX9" s="7"/>
+      <c r="AX9" s="7">
+        <v>45</v>
+      </c>
       <c r="AY9" s="7"/>
       <c r="AZ9" s="7"/>
       <c r="BA9" s="7"/>
@@ -30774,7 +31293,9 @@
       <c r="AW10" s="7">
         <v>1447</v>
       </c>
-      <c r="AX10" s="7"/>
+      <c r="AX10" s="7">
+        <v>1428</v>
+      </c>
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
@@ -30957,7 +31478,9 @@
       <c r="AW11" s="7">
         <v>1975</v>
       </c>
-      <c r="AX11" s="7"/>
+      <c r="AX11" s="7">
+        <v>2017</v>
+      </c>
       <c r="AY11" s="7"/>
       <c r="AZ11" s="7"/>
       <c r="BA11" s="7"/>
@@ -31140,7 +31663,9 @@
       <c r="AW12" s="7">
         <v>4447</v>
       </c>
-      <c r="AX12" s="7"/>
+      <c r="AX12" s="7">
+        <v>4496</v>
+      </c>
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
@@ -31323,7 +31848,9 @@
       <c r="AW13" s="7">
         <v>24</v>
       </c>
-      <c r="AX13" s="7"/>
+      <c r="AX13" s="7">
+        <v>25</v>
+      </c>
       <c r="AY13" s="7"/>
       <c r="AZ13" s="7"/>
       <c r="BA13" s="7"/>
@@ -31633,14 +32160,14 @@
   <dimension ref="A1:CH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV2" sqref="AV2"/>
+      <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="45" max="48" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="45" max="49" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86">
@@ -31786,7 +32313,9 @@
       <c r="AV1" s="4">
         <v>43972</v>
       </c>
-      <c r="AW1" s="4"/>
+      <c r="AW1" s="4">
+        <v>43973</v>
+      </c>
       <c r="AX1" s="4"/>
       <c r="AY1" s="4"/>
       <c r="AZ1" s="4"/>
@@ -32060,7 +32589,9 @@
       <c r="AV3" s="7">
         <v>7</v>
       </c>
-      <c r="AW3" s="7"/>
+      <c r="AW3" s="7">
+        <v>7</v>
+      </c>
       <c r="AX3" s="7"/>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
@@ -32244,7 +32775,9 @@
       <c r="AV4" s="7">
         <v>320</v>
       </c>
-      <c r="AW4" s="7"/>
+      <c r="AW4" s="7">
+        <v>323</v>
+      </c>
       <c r="AX4" s="7"/>
       <c r="AY4" s="7"/>
       <c r="AZ4" s="7"/>
@@ -32428,7 +32961,9 @@
       <c r="AV5" s="7">
         <v>42</v>
       </c>
-      <c r="AW5" s="7"/>
+      <c r="AW5" s="7">
+        <v>46</v>
+      </c>
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="AZ5" s="7"/>
@@ -32612,7 +33147,9 @@
       <c r="AV6" s="7">
         <v>46</v>
       </c>
-      <c r="AW6" s="7"/>
+      <c r="AW6" s="7">
+        <v>47</v>
+      </c>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
@@ -32794,7 +33331,9 @@
       <c r="AV7" s="7">
         <v>3</v>
       </c>
-      <c r="AW7" s="7"/>
+      <c r="AW7" s="7">
+        <v>4</v>
+      </c>
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="AZ7" s="7"/>
@@ -33227,15 +33766,15 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="90" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="90" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90">
@@ -34354,18 +34893,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51A914D-4CED-7A43-8BD6-4514AC12DE8C}">
-  <dimension ref="A1:C851"/>
+  <dimension ref="A1:C824"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A822" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B826" sqref="B826"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A807" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C849" sqref="C849"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -43432,141 +43971,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:3">
-      <c r="A825" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="826" spans="1:3">
-      <c r="A826" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="827" spans="1:3">
-      <c r="A827" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="828" spans="1:3">
-      <c r="A828" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="829" spans="1:3">
-      <c r="A829" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="830" spans="1:3">
-      <c r="A830" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="831" spans="1:3">
-      <c r="A831" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="832" spans="1:3">
-      <c r="A832" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="833" spans="1:1">
-      <c r="A833" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="834" spans="1:1">
-      <c r="A834" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="835" spans="1:1">
-      <c r="A835" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="836" spans="1:1">
-      <c r="A836" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="837" spans="1:1">
-      <c r="A837" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="838" spans="1:1">
-      <c r="A838" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="839" spans="1:1">
-      <c r="A839" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="840" spans="1:1">
-      <c r="A840" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="841" spans="1:1">
-      <c r="A841" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="842" spans="1:1">
-      <c r="A842" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="843" spans="1:1">
-      <c r="A843" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="844" spans="1:1">
-      <c r="A844" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="845" spans="1:1">
-      <c r="A845" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="846" spans="1:1">
-      <c r="A846" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="847" spans="1:1">
-      <c r="A847" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="848" spans="1:1">
-      <c r="A848" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="849" spans="1:1">
-      <c r="A849" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="850" spans="1:1">
-      <c r="A850" s="17">
-        <v>43973</v>
-      </c>
-    </row>
-    <row r="851" spans="1:1">
-      <c r="A851" s="17">
-        <v>43973</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553D61FA-528A-BA44-A044-AF371578763A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6824AC-E6CD-0A48-8BA0-BF52AA0BAD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="202">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -1259,11 +1259,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0704107B-CC38-954F-8D77-0E0C2F291C39}">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -2998,6 +2998,567 @@
       </c>
       <c r="C157" s="19">
         <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C158" s="20">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C159" s="20">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C160" s="20">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C161" s="20">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C162" s="20">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C163" s="20">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C164" s="20">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C165" s="20">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C166" s="20">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167" s="20">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C168" s="20">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C169" s="20">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C170" s="20">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C171" s="19">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C172" s="19">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C173" s="19">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B174" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C174" s="19">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C175" s="19">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B176" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C176" s="19">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C177" s="19">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C178" s="19">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C179" s="19">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C180" s="19">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C181" s="19">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C182" s="19">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C183" s="19">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C184" s="19">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C185" s="19">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B186" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C186" s="19">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C187" s="19">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B188" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C188" s="19">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C189" s="19">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B190" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C190" s="19">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C191" s="19">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C192" s="19">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C193" s="19">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B194" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C194" s="19">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C195" s="19">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C196" s="19">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B197" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C197" s="19">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C198" s="19">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C199" s="19">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C200" s="19">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C201" s="19">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B202" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C202" s="19">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C203" s="19">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B204" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C204" s="19">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B205" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C205" s="19">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C206" s="19">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C207" s="19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C208" s="19">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3039,7 +3600,7 @@
         <v>165</v>
       </c>
       <c r="B3" s="18">
-        <v>678.8</v>
+        <v>694.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3047,7 +3608,7 @@
         <v>166</v>
       </c>
       <c r="B4" s="18">
-        <v>437.5</v>
+        <v>435.7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3055,7 +3616,7 @@
         <v>167</v>
       </c>
       <c r="B5" s="18">
-        <v>1944.7</v>
+        <v>1949.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3063,7 +3624,7 @@
         <v>168</v>
       </c>
       <c r="B6" s="18">
-        <v>1366.2</v>
+        <v>1370.9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3071,7 +3632,7 @@
         <v>169</v>
       </c>
       <c r="B7" s="18">
-        <v>768.3</v>
+        <v>769.7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3079,7 +3640,7 @@
         <v>170</v>
       </c>
       <c r="B8" s="18">
-        <v>1430.8</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3087,7 +3648,7 @@
         <v>171</v>
       </c>
       <c r="B9" s="23">
-        <v>1517.4</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3117,8 +3678,8 @@
   <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -4419,13 +4980,27 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="26"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
+      <c r="A57" s="26">
+        <v>43976</v>
+      </c>
+      <c r="B57" s="28">
+        <v>1842</v>
+      </c>
+      <c r="C57" s="28">
+        <v>0</v>
+      </c>
+      <c r="D57" s="28">
+        <v>353</v>
+      </c>
+      <c r="E57" s="28">
+        <v>217</v>
+      </c>
+      <c r="F57" s="28">
+        <v>0</v>
+      </c>
+      <c r="G57" s="28">
+        <v>76</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="26"/>
@@ -7245,7 +7820,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -7280,13 +7855,13 @@
         <v>192</v>
       </c>
       <c r="C2" s="18">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="18">
         <v>1.1000000000000001</v>
       </c>
       <c r="E2" s="18">
-        <v>206.6</v>
+        <v>204.4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7314,13 +7889,13 @@
         <v>194</v>
       </c>
       <c r="C4" s="18">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D4" s="18">
         <v>2</v>
       </c>
       <c r="E4" s="18">
-        <v>485.2</v>
+        <v>488.2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7331,13 +7906,13 @@
         <v>195</v>
       </c>
       <c r="C5" s="18">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D5" s="18">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="E5" s="18">
-        <v>843.7</v>
+        <v>853.2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7348,13 +7923,13 @@
         <v>196</v>
       </c>
       <c r="C6" s="18">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="D6" s="18">
         <v>18.600000000000001</v>
       </c>
       <c r="E6" s="18">
-        <v>934.1</v>
+        <v>937.8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7365,13 +7940,13 @@
         <v>197</v>
       </c>
       <c r="C7" s="18">
-        <v>1482</v>
+        <v>1493</v>
       </c>
       <c r="D7" s="18">
-        <v>18</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E7" s="34">
-        <v>1404.3</v>
+        <v>1414.7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7385,7 +7960,7 @@
         <v>1296</v>
       </c>
       <c r="D8" s="18">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E8" s="34">
         <v>1716</v>
@@ -7399,13 +7974,13 @@
         <v>199</v>
       </c>
       <c r="C9" s="18">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="D9" s="18">
-        <v>16.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E9" s="34">
-        <v>1955.1</v>
+        <v>1960.8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7416,13 +7991,13 @@
         <v>200</v>
       </c>
       <c r="C10" s="18">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D10" s="18">
         <v>10.8</v>
       </c>
       <c r="E10" s="34">
-        <v>1820.5</v>
+        <v>1824.6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7433,13 +8008,13 @@
         <v>201</v>
       </c>
       <c r="C11" s="18">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D11" s="18">
         <v>9.6999999999999993</v>
       </c>
       <c r="E11" s="34">
-        <v>2166.1999999999998</v>
+        <v>2168.9</v>
       </c>
     </row>
   </sheetData>
@@ -7452,14 +8027,14 @@
   <dimension ref="A1:BQ21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK2" sqref="AK2:AK11"/>
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="31" max="37" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
@@ -7574,7 +8149,9 @@
       <c r="AK1" s="4">
         <v>43975</v>
       </c>
-      <c r="AL1" s="4"/>
+      <c r="AL1" s="4">
+        <v>43976</v>
+      </c>
       <c r="AM1" s="4"/>
       <c r="AN1" s="4"/>
       <c r="AO1" s="4"/>
@@ -7720,7 +8297,9 @@
       <c r="AK2" s="14">
         <v>440</v>
       </c>
-      <c r="AL2" s="14"/>
+      <c r="AL2" s="14">
+        <v>440</v>
+      </c>
       <c r="AM2" s="14"/>
       <c r="AN2" s="14"/>
       <c r="AO2" s="14"/>
@@ -7865,7 +8444,9 @@
       <c r="AK3" s="7">
         <v>43</v>
       </c>
-      <c r="AL3" s="7"/>
+      <c r="AL3" s="7">
+        <v>43</v>
+      </c>
       <c r="AM3" s="7"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
@@ -8010,7 +8591,9 @@
       <c r="AK4" s="7">
         <v>27</v>
       </c>
-      <c r="AL4" s="7"/>
+      <c r="AL4" s="7">
+        <v>27</v>
+      </c>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
@@ -8155,7 +8738,9 @@
       <c r="AK5" s="7">
         <v>30</v>
       </c>
-      <c r="AL5" s="7"/>
+      <c r="AL5" s="7">
+        <v>30</v>
+      </c>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
@@ -8300,7 +8885,9 @@
       <c r="AK6" s="7">
         <v>62</v>
       </c>
-      <c r="AL6" s="7"/>
+      <c r="AL6" s="7">
+        <v>62</v>
+      </c>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
@@ -8445,7 +9032,9 @@
       <c r="AK7" s="7">
         <v>68</v>
       </c>
-      <c r="AL7" s="7"/>
+      <c r="AL7" s="7">
+        <v>68</v>
+      </c>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
@@ -8590,7 +9179,9 @@
       <c r="AK8" s="7">
         <v>41</v>
       </c>
-      <c r="AL8" s="7"/>
+      <c r="AL8" s="7">
+        <v>41</v>
+      </c>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
@@ -8735,7 +9326,9 @@
       <c r="AK9" s="7">
         <v>62</v>
       </c>
-      <c r="AL9" s="7"/>
+      <c r="AL9" s="7">
+        <v>62</v>
+      </c>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
       <c r="AO9" s="7"/>
@@ -8880,7 +9473,9 @@
       <c r="AK10" s="7">
         <v>91</v>
       </c>
-      <c r="AL10" s="7"/>
+      <c r="AL10" s="7">
+        <v>91</v>
+      </c>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
@@ -9025,7 +9620,9 @@
       <c r="AK11" s="7">
         <v>16</v>
       </c>
-      <c r="AL11" s="7"/>
+      <c r="AL11" s="7">
+        <v>16</v>
+      </c>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
@@ -9168,7 +9765,9 @@
         <v>0</v>
       </c>
       <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
+      <c r="AL12" s="7">
+        <v>0</v>
+      </c>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
@@ -9239,7 +9838,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D13"/>
+      <selection activeCell="E4" sqref="E4:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -9273,16 +9872,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="27">
-        <v>8225</v>
+        <v>8334</v>
       </c>
       <c r="C2" s="27">
-        <v>4074</v>
+        <v>4126</v>
       </c>
       <c r="D2" s="27">
-        <v>4131</v>
+        <v>4189</v>
       </c>
       <c r="E2" s="27">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9290,13 +9889,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="27">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C3" s="7">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D3" s="7">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -9307,13 +9906,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="27">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="7">
         <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
@@ -9327,13 +9926,13 @@
         <v>155</v>
       </c>
       <c r="C5" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="7">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9341,10 +9940,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="27">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7">
         <v>73</v>
@@ -9358,13 +9957,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="27">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C7" s="7">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D7" s="7">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -9375,13 +9974,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="27">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="C8" s="7">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D8" s="7">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -9392,13 +9991,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="27">
-        <v>1482</v>
+        <v>1493</v>
       </c>
       <c r="C9" s="7">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D9" s="7">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -9412,10 +10011,10 @@
         <v>1296</v>
       </c>
       <c r="C10" s="7">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D10" s="7">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -9426,13 +10025,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="27">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="C11" s="7">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D11" s="7">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -9443,13 +10042,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="27">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C12" s="7">
         <v>423</v>
       </c>
       <c r="D12" s="7">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
@@ -9460,10 +10059,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="27">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C13" s="7">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D13" s="7">
         <v>335</v>
@@ -9493,7 +10092,7 @@
   <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="BE3" sqref="BE3"/>
     </sheetView>
   </sheetViews>
@@ -9765,7 +10364,9 @@
       <c r="BD2" s="4">
         <v>43975</v>
       </c>
-      <c r="BE2" s="4"/>
+      <c r="BE2" s="4">
+        <v>43976</v>
+      </c>
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
@@ -9969,7 +10570,9 @@
       <c r="BD3" s="7">
         <v>1144</v>
       </c>
-      <c r="BE3" s="7"/>
+      <c r="BE3" s="7">
+        <v>1166</v>
+      </c>
       <c r="BF3" s="7"/>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7"/>
@@ -10173,7 +10776,9 @@
       <c r="BD4" s="7">
         <v>490</v>
       </c>
-      <c r="BE4" s="7"/>
+      <c r="BE4" s="7">
+        <v>508</v>
+      </c>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
@@ -10377,7 +10982,9 @@
       <c r="BD5" s="7">
         <v>408</v>
       </c>
-      <c r="BE5" s="7"/>
+      <c r="BE5" s="7">
+        <v>410</v>
+      </c>
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
@@ -10581,7 +11188,9 @@
       <c r="BD6" s="7">
         <v>1737</v>
       </c>
-      <c r="BE6" s="7"/>
+      <c r="BE6" s="7">
+        <v>1759</v>
+      </c>
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
@@ -10785,7 +11394,9 @@
       <c r="BD7" s="7">
         <v>1286</v>
       </c>
-      <c r="BE7" s="7"/>
+      <c r="BE7" s="7">
+        <v>1303</v>
+      </c>
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
@@ -10989,7 +11600,9 @@
       <c r="BD8" s="7">
         <v>705</v>
       </c>
-      <c r="BE8" s="7"/>
+      <c r="BE8" s="7">
+        <v>709</v>
+      </c>
       <c r="BF8" s="7"/>
       <c r="BG8" s="7"/>
       <c r="BH8" s="7"/>
@@ -11193,7 +11806,9 @@
       <c r="BD9" s="7">
         <v>1180</v>
       </c>
-      <c r="BE9" s="7"/>
+      <c r="BE9" s="7">
+        <v>1194</v>
+      </c>
       <c r="BF9" s="7"/>
       <c r="BG9" s="7"/>
       <c r="BH9" s="7"/>
@@ -11397,7 +12012,9 @@
       <c r="BD10" s="7">
         <v>1147</v>
       </c>
-      <c r="BE10" s="7"/>
+      <c r="BE10" s="7">
+        <v>1156</v>
+      </c>
       <c r="BF10" s="7"/>
       <c r="BG10" s="7"/>
       <c r="BH10" s="7"/>
@@ -11601,7 +12218,9 @@
       <c r="BD11" s="7">
         <v>128</v>
       </c>
-      <c r="BE11" s="7"/>
+      <c r="BE11" s="7">
+        <v>129</v>
+      </c>
       <c r="BF11" s="7"/>
       <c r="BG11" s="7"/>
       <c r="BH11" s="7"/>
@@ -11647,10 +12266,10 @@
   <dimension ref="A1:CE19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AX2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ10" sqref="AZ10:AZ13"/>
+      <selection pane="bottomRight" activeCell="BB13" sqref="BB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11660,7 +12279,7 @@
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="52" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="53" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83">
@@ -11820,7 +12439,9 @@
       <c r="AZ1" s="4">
         <v>43975</v>
       </c>
-      <c r="BA1" s="4"/>
+      <c r="BA1" s="4">
+        <v>43976</v>
+      </c>
       <c r="BB1" s="4"/>
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
@@ -12009,7 +12630,9 @@
       <c r="AZ2" s="7">
         <v>983</v>
       </c>
-      <c r="BA2" s="7"/>
+      <c r="BA2" s="7">
+        <v>1010</v>
+      </c>
       <c r="BB2" s="7"/>
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
@@ -12198,7 +12821,9 @@
       <c r="AZ3" s="7">
         <v>1271</v>
       </c>
-      <c r="BA3" s="7"/>
+      <c r="BA3" s="7">
+        <v>1282</v>
+      </c>
       <c r="BB3" s="7"/>
       <c r="BC3" s="7"/>
       <c r="BD3" s="7"/>
@@ -12387,7 +13012,9 @@
       <c r="AZ4" s="7">
         <v>3792</v>
       </c>
-      <c r="BA4" s="7"/>
+      <c r="BA4" s="7">
+        <v>3822</v>
+      </c>
       <c r="BB4" s="7"/>
       <c r="BC4" s="7"/>
       <c r="BD4" s="7"/>
@@ -12576,7 +13203,9 @@
       <c r="AZ5" s="7">
         <v>104</v>
       </c>
-      <c r="BA5" s="7"/>
+      <c r="BA5" s="7">
+        <v>104</v>
+      </c>
       <c r="BB5" s="7"/>
       <c r="BC5" s="7"/>
       <c r="BD5" s="7"/>
@@ -12765,7 +13394,9 @@
       <c r="AZ6" s="7">
         <v>23</v>
       </c>
-      <c r="BA6" s="7"/>
+      <c r="BA6" s="7">
+        <v>23</v>
+      </c>
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
       <c r="BD6" s="7"/>
@@ -12950,7 +13581,9 @@
       <c r="AZ7" s="7">
         <v>20</v>
       </c>
-      <c r="BA7" s="7"/>
+      <c r="BA7" s="7">
+        <v>20</v>
+      </c>
       <c r="BB7" s="7"/>
       <c r="BC7" s="7"/>
       <c r="BD7" s="7"/>
@@ -13139,7 +13772,9 @@
       <c r="AZ8" s="7">
         <v>1986</v>
       </c>
-      <c r="BA8" s="7"/>
+      <c r="BA8" s="7">
+        <v>2027</v>
+      </c>
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
       <c r="BD8" s="7"/>
@@ -13328,7 +13963,9 @@
       <c r="AZ9" s="7">
         <v>46</v>
       </c>
-      <c r="BA9" s="7"/>
+      <c r="BA9" s="7">
+        <v>46</v>
+      </c>
       <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="7"/>
@@ -13517,7 +14154,9 @@
       <c r="AZ10" s="7">
         <v>1545</v>
       </c>
-      <c r="BA10" s="7"/>
+      <c r="BA10" s="7">
+        <v>1593</v>
+      </c>
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="7"/>
@@ -13706,7 +14345,9 @@
       <c r="AZ11" s="7">
         <v>2086</v>
       </c>
-      <c r="BA11" s="7"/>
+      <c r="BA11" s="7">
+        <v>2115</v>
+      </c>
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
       <c r="BD11" s="7"/>
@@ -13895,7 +14536,9 @@
       <c r="AZ12" s="7">
         <v>4566</v>
       </c>
-      <c r="BA12" s="7"/>
+      <c r="BA12" s="7">
+        <v>4600</v>
+      </c>
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
@@ -14084,7 +14727,9 @@
       <c r="AZ13" s="7">
         <v>26</v>
       </c>
-      <c r="BA13" s="7"/>
+      <c r="BA13" s="7">
+        <v>26</v>
+      </c>
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
@@ -14391,14 +15036,14 @@
   <dimension ref="A1:CH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY3" sqref="AY3:AY7"/>
+      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BE6" sqref="BE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="45" max="51" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="52" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86">
@@ -14553,7 +15198,9 @@
       <c r="AY1" s="4">
         <v>43975</v>
       </c>
-      <c r="AZ1" s="4"/>
+      <c r="AZ1" s="4">
+        <v>43976</v>
+      </c>
       <c r="BA1" s="4"/>
       <c r="BB1" s="4"/>
       <c r="BC1" s="4"/>
@@ -14833,7 +15480,9 @@
       <c r="AY3" s="7">
         <v>7</v>
       </c>
-      <c r="AZ3" s="7"/>
+      <c r="AZ3" s="7">
+        <v>7</v>
+      </c>
       <c r="BA3" s="7"/>
       <c r="BB3" s="7"/>
       <c r="BC3" s="7"/>
@@ -15023,7 +15672,9 @@
       <c r="AY4" s="7">
         <v>333</v>
       </c>
-      <c r="AZ4" s="7"/>
+      <c r="AZ4" s="7">
+        <v>333</v>
+      </c>
       <c r="BA4" s="7"/>
       <c r="BB4" s="7"/>
       <c r="BC4" s="7"/>
@@ -15213,7 +15864,9 @@
       <c r="AY5" s="7">
         <v>47</v>
       </c>
-      <c r="AZ5" s="7"/>
+      <c r="AZ5" s="7">
+        <v>47</v>
+      </c>
       <c r="BA5" s="7"/>
       <c r="BB5" s="7"/>
       <c r="BC5" s="7"/>
@@ -15403,7 +16056,9 @@
       <c r="AY6" s="7">
         <v>49</v>
       </c>
-      <c r="AZ6" s="7"/>
+      <c r="AZ6" s="7">
+        <v>49</v>
+      </c>
       <c r="BA6" s="7"/>
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
@@ -15591,7 +16246,9 @@
       <c r="AY7" s="7">
         <v>4</v>
       </c>
-      <c r="AZ7" s="7"/>
+      <c r="AZ7" s="7">
+        <v>4</v>
+      </c>
       <c r="BA7" s="7"/>
       <c r="BB7" s="7"/>
       <c r="BC7" s="7"/>
@@ -16019,9 +16676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F09139-DF15-7543-80A9-E66C02C72DE5}">
   <dimension ref="A1:CL26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O7" sqref="O7"/>
+      <selection pane="topRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16134,7 +16791,9 @@
       <c r="C2" s="4">
         <v>43971</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <v>43976</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -16232,7 +16891,9 @@
       <c r="C3" s="7">
         <v>4282</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7">
+        <v>4767</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -16330,7 +16991,9 @@
       <c r="C4" s="7">
         <v>3065</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>3678</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -16428,7 +17091,9 @@
       <c r="C5" s="7">
         <v>3126</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>3471</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -16526,7 +17191,9 @@
       <c r="C6" s="7">
         <v>5614</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>6342</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -16624,7 +17291,9 @@
       <c r="C7" s="7">
         <v>5109</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>5862</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -16722,7 +17391,9 @@
       <c r="C8" s="7">
         <v>4304</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>4816</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -16820,7 +17491,9 @@
       <c r="C9" s="7">
         <v>4725</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>5446</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -16918,7 +17591,9 @@
       <c r="C10" s="7">
         <v>5166</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>5815</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -17016,7 +17691,9 @@
       <c r="C11" s="7">
         <v>1572</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>1982</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -17150,9 +17827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DF99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="CH26" sqref="CH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17405,7 +18082,9 @@
       <c r="CC1" s="4">
         <v>43975</v>
       </c>
-      <c r="CD1" s="4"/>
+      <c r="CD1" s="4">
+        <v>43976</v>
+      </c>
       <c r="CE1" s="4"/>
       <c r="CF1" s="4"/>
       <c r="CG1" s="4"/>
@@ -17781,7 +18460,9 @@
       <c r="CC3" s="11">
         <v>40803</v>
       </c>
-      <c r="CD3" s="11"/>
+      <c r="CD3" s="11">
+        <v>42055</v>
+      </c>
       <c r="CE3" s="11"/>
       <c r="CF3" s="11"/>
       <c r="CG3" s="11"/>
@@ -17903,7 +18584,9 @@
       <c r="CC4" s="11">
         <v>34194</v>
       </c>
-      <c r="CD4" s="11"/>
+      <c r="CD4" s="11">
+        <v>35262</v>
+      </c>
       <c r="CE4" s="11"/>
       <c r="CF4" s="11"/>
       <c r="CG4" s="11"/>
@@ -18177,7 +18860,9 @@
       <c r="CC5" s="11">
         <v>8225</v>
       </c>
-      <c r="CD5" s="11"/>
+      <c r="CD5" s="11">
+        <v>8334</v>
+      </c>
       <c r="CE5" s="11"/>
       <c r="CF5" s="11"/>
       <c r="CG5" s="11"/>
@@ -18439,7 +19124,9 @@
       <c r="CC6" s="11">
         <v>440</v>
       </c>
-      <c r="CD6" s="11"/>
+      <c r="CD6" s="11">
+        <v>440</v>
+      </c>
       <c r="CE6" s="11"/>
       <c r="CF6" s="11"/>
       <c r="CG6" s="11"/>
@@ -18681,7 +19368,9 @@
       <c r="CC7" s="11">
         <v>1080</v>
       </c>
-      <c r="CD7" s="11"/>
+      <c r="CD7" s="11">
+        <v>1080</v>
+      </c>
       <c r="CE7" s="11"/>
       <c r="CF7" s="11"/>
       <c r="CG7" s="11"/>
@@ -18963,7 +19652,9 @@
       <c r="CC9" s="11">
         <v>345</v>
       </c>
-      <c r="CD9" s="11"/>
+      <c r="CD9" s="11">
+        <v>345</v>
+      </c>
       <c r="CE9" s="11"/>
       <c r="CF9" s="11"/>
       <c r="CG9" s="11"/>
@@ -19201,7 +19892,9 @@
       <c r="CC10" s="11">
         <v>114</v>
       </c>
-      <c r="CD10" s="11"/>
+      <c r="CD10" s="11">
+        <v>102</v>
+      </c>
       <c r="CE10" s="11"/>
       <c r="CF10" s="11"/>
       <c r="CG10" s="11"/>
@@ -19439,7 +20132,9 @@
       <c r="CC11" s="11">
         <v>440</v>
       </c>
-      <c r="CD11" s="11"/>
+      <c r="CD11" s="11">
+        <v>440</v>
+      </c>
       <c r="CE11" s="11"/>
       <c r="CF11" s="11"/>
       <c r="CG11" s="11"/>
@@ -19677,7 +20372,9 @@
       <c r="CC12" s="11">
         <v>203</v>
       </c>
-      <c r="CD12" s="11"/>
+      <c r="CD12" s="11">
+        <v>217</v>
+      </c>
       <c r="CE12" s="11"/>
       <c r="CF12" s="11"/>
       <c r="CG12" s="11"/>
@@ -19915,7 +20612,9 @@
       <c r="CC13" s="11">
         <v>237</v>
       </c>
-      <c r="CD13" s="11"/>
+      <c r="CD13" s="11">
+        <v>223</v>
+      </c>
       <c r="CE13" s="11"/>
       <c r="CF13" s="11"/>
       <c r="CG13" s="11"/>
@@ -20061,7 +20760,9 @@
       <c r="CC14" s="11">
         <v>331</v>
       </c>
-      <c r="CD14" s="11"/>
+      <c r="CD14" s="11">
+        <v>353</v>
+      </c>
       <c r="CE14" s="11"/>
       <c r="CF14" s="11"/>
       <c r="CG14" s="11"/>
@@ -20187,7 +20888,9 @@
       <c r="CC15" s="11">
         <v>106</v>
       </c>
-      <c r="CD15" s="11"/>
+      <c r="CD15" s="11">
+        <v>113</v>
+      </c>
       <c r="CE15" s="11"/>
       <c r="CF15" s="11"/>
       <c r="CG15" s="11"/>
@@ -20333,7 +21036,9 @@
       <c r="CC16" s="11">
         <v>1838</v>
       </c>
-      <c r="CD16" s="11"/>
+      <c r="CD16" s="11">
+        <v>1842</v>
+      </c>
       <c r="CE16" s="11"/>
       <c r="CF16" s="11"/>
       <c r="CG16" s="11"/>
@@ -21027,7 +21732,9 @@
       <c r="CC21" s="11">
         <v>106</v>
       </c>
-      <c r="CD21" s="11"/>
+      <c r="CD21" s="11">
+        <v>107</v>
+      </c>
       <c r="CE21" s="11"/>
       <c r="CF21" s="11"/>
       <c r="CG21" s="11"/>
@@ -21231,7 +21938,9 @@
       <c r="CC22" s="11">
         <v>26</v>
       </c>
-      <c r="CD22" s="11"/>
+      <c r="CD22" s="11">
+        <v>18</v>
+      </c>
       <c r="CE22" s="11"/>
       <c r="CF22" s="11"/>
       <c r="CG22" s="11"/>
@@ -21435,7 +22144,9 @@
       <c r="CC23" s="11">
         <v>80</v>
       </c>
-      <c r="CD23" s="11"/>
+      <c r="CD23" s="11">
+        <v>89</v>
+      </c>
       <c r="CE23" s="11"/>
       <c r="CF23" s="11"/>
       <c r="CG23" s="11"/>
@@ -21669,7 +22380,9 @@
       <c r="CC24" s="11">
         <v>66</v>
       </c>
-      <c r="CD24" s="11"/>
+      <c r="CD24" s="11">
+        <v>157</v>
+      </c>
       <c r="CE24" s="11"/>
       <c r="CF24" s="11"/>
       <c r="CG24" s="11"/>
@@ -21903,7 +22616,9 @@
       <c r="CC25" s="11">
         <v>91</v>
       </c>
-      <c r="CD25" s="11"/>
+      <c r="CD25" s="11">
+        <v>175</v>
+      </c>
       <c r="CE25" s="11"/>
       <c r="CF25" s="11"/>
       <c r="CG25" s="11"/>
@@ -22137,7 +22852,9 @@
       <c r="CC26" s="11">
         <v>1281</v>
       </c>
-      <c r="CD26" s="11"/>
+      <c r="CD26" s="11">
+        <v>1296</v>
+      </c>
       <c r="CE26" s="11"/>
       <c r="CF26" s="11"/>
       <c r="CG26" s="11"/>
@@ -22603,7 +23320,9 @@
       <c r="CC29" s="11">
         <v>130</v>
       </c>
-      <c r="CD29" s="11"/>
+      <c r="CD29" s="11">
+        <v>131</v>
+      </c>
       <c r="CE29" s="11"/>
       <c r="CF29" s="11"/>
       <c r="CG29" s="11"/>
@@ -22807,7 +23526,9 @@
       <c r="CC30" s="11">
         <v>33</v>
       </c>
-      <c r="CD30" s="11"/>
+      <c r="CD30" s="11">
+        <v>33</v>
+      </c>
       <c r="CE30" s="11"/>
       <c r="CF30" s="11"/>
       <c r="CG30" s="11"/>
@@ -23011,7 +23732,9 @@
       <c r="CC31" s="11">
         <v>97</v>
       </c>
-      <c r="CD31" s="11"/>
+      <c r="CD31" s="11">
+        <v>98</v>
+      </c>
       <c r="CE31" s="11"/>
       <c r="CF31" s="11"/>
       <c r="CG31" s="11"/>
@@ -23245,7 +23968,9 @@
       <c r="CC32" s="11">
         <v>58</v>
       </c>
-      <c r="CD32" s="11"/>
+      <c r="CD32" s="11">
+        <v>78</v>
+      </c>
       <c r="CE32" s="11"/>
       <c r="CF32" s="11"/>
       <c r="CG32" s="11"/>
@@ -23479,7 +24204,9 @@
       <c r="CC33" s="11">
         <v>91</v>
       </c>
-      <c r="CD33" s="11"/>
+      <c r="CD33" s="11">
+        <v>111</v>
+      </c>
       <c r="CE33" s="11"/>
       <c r="CF33" s="11"/>
       <c r="CG33" s="11"/>
@@ -23713,7 +24440,9 @@
       <c r="CC34" s="11">
         <v>1132</v>
       </c>
-      <c r="CD34" s="11"/>
+      <c r="CD34" s="11">
+        <v>1124</v>
+      </c>
       <c r="CE34" s="11"/>
       <c r="CF34" s="11"/>
       <c r="CG34" s="11"/>
@@ -24171,7 +24900,9 @@
       <c r="CC37" s="11">
         <v>79</v>
       </c>
-      <c r="CD37" s="11"/>
+      <c r="CD37" s="11">
+        <v>79</v>
+      </c>
       <c r="CE37" s="11"/>
       <c r="CF37" s="11"/>
       <c r="CG37" s="11"/>
@@ -24371,7 +25102,9 @@
       <c r="CC38" s="11">
         <v>17</v>
       </c>
-      <c r="CD38" s="11"/>
+      <c r="CD38" s="11">
+        <v>20</v>
+      </c>
       <c r="CE38" s="11"/>
       <c r="CF38" s="11"/>
       <c r="CG38" s="11"/>
@@ -24571,7 +25304,9 @@
       <c r="CC39" s="11">
         <v>170</v>
       </c>
-      <c r="CD39" s="11"/>
+      <c r="CD39" s="11">
+        <v>58</v>
+      </c>
       <c r="CE39" s="11"/>
       <c r="CF39" s="11"/>
       <c r="CG39" s="11"/>
@@ -24801,7 +25536,9 @@
       <c r="CC40" s="11">
         <v>519</v>
       </c>
-      <c r="CD40" s="11"/>
+      <c r="CD40" s="11">
+        <v>2</v>
+      </c>
       <c r="CE40" s="11"/>
       <c r="CF40" s="11"/>
       <c r="CG40" s="11"/>
@@ -25029,7 +25766,9 @@
       <c r="CC41" s="11">
         <v>536</v>
       </c>
-      <c r="CD41" s="11"/>
+      <c r="CD41" s="11">
+        <v>22</v>
+      </c>
       <c r="CE41" s="11"/>
       <c r="CF41" s="11"/>
       <c r="CG41" s="11"/>
@@ -25261,7 +26000,9 @@
       <c r="CC42" s="11">
         <v>804</v>
       </c>
-      <c r="CD42" s="11"/>
+      <c r="CD42" s="11">
+        <v>265</v>
+      </c>
       <c r="CE42" s="11"/>
       <c r="CF42" s="11"/>
       <c r="CG42" s="11"/>
@@ -25449,7 +26190,9 @@
       <c r="CC43" s="11">
         <v>1</v>
       </c>
-      <c r="CD43" s="11"/>
+      <c r="CD43" s="11">
+        <v>1</v>
+      </c>
       <c r="CE43" s="11"/>
       <c r="CF43" s="11"/>
       <c r="CG43" s="11"/>
@@ -25911,7 +26654,9 @@
       <c r="CC46" s="11">
         <v>193</v>
       </c>
-      <c r="CD46" s="11"/>
+      <c r="CD46" s="11">
+        <v>193</v>
+      </c>
       <c r="CE46" s="11"/>
       <c r="CF46" s="11"/>
       <c r="CG46" s="11"/>
@@ -26115,7 +26860,9 @@
       <c r="CC47" s="11">
         <v>17</v>
       </c>
-      <c r="CD47" s="11"/>
+      <c r="CD47" s="11">
+        <v>17</v>
+      </c>
       <c r="CE47" s="11"/>
       <c r="CF47" s="11"/>
       <c r="CG47" s="11"/>
@@ -26319,7 +27066,9 @@
       <c r="CC48" s="11">
         <v>170</v>
       </c>
-      <c r="CD48" s="11"/>
+      <c r="CD48" s="11">
+        <v>170</v>
+      </c>
       <c r="CE48" s="11"/>
       <c r="CF48" s="11"/>
       <c r="CG48" s="11"/>
@@ -26553,7 +27302,9 @@
       <c r="CC49" s="11">
         <v>519</v>
       </c>
-      <c r="CD49" s="11"/>
+      <c r="CD49" s="11">
+        <v>518</v>
+      </c>
       <c r="CE49" s="11"/>
       <c r="CF49" s="11"/>
       <c r="CG49" s="11"/>
@@ -26757,7 +27508,9 @@
       <c r="CC50" s="11">
         <v>536</v>
       </c>
-      <c r="CD50" s="11"/>
+      <c r="CD50" s="11">
+        <v>535</v>
+      </c>
       <c r="CE50" s="11"/>
       <c r="CF50" s="11"/>
       <c r="CG50" s="11"/>
@@ -26959,7 +27712,9 @@
       <c r="CC51" s="11">
         <v>804</v>
       </c>
-      <c r="CD51" s="11"/>
+      <c r="CD51" s="11">
+        <v>805</v>
+      </c>
       <c r="CE51" s="11"/>
       <c r="CF51" s="11"/>
       <c r="CG51" s="11"/>
@@ -27157,7 +27912,9 @@
       <c r="CC52" s="11">
         <v>1</v>
       </c>
-      <c r="CD52" s="11"/>
+      <c r="CD52" s="11">
+        <v>1</v>
+      </c>
       <c r="CE52" s="11"/>
       <c r="CF52" s="11"/>
       <c r="CG52" s="11"/>
@@ -27609,7 +28366,9 @@
       <c r="CC55" s="11">
         <v>29</v>
       </c>
-      <c r="CD55" s="11"/>
+      <c r="CD55" s="11">
+        <v>29</v>
+      </c>
       <c r="CE55" s="11"/>
       <c r="CF55" s="11"/>
       <c r="CG55" s="11"/>
@@ -27811,7 +28570,9 @@
       <c r="CC56" s="11">
         <v>12</v>
       </c>
-      <c r="CD56" s="11"/>
+      <c r="CD56" s="11">
+        <v>12</v>
+      </c>
       <c r="CE56" s="11"/>
       <c r="CF56" s="11"/>
       <c r="CG56" s="11"/>
@@ -28013,7 +28774,9 @@
       <c r="CC57" s="11">
         <v>16</v>
       </c>
-      <c r="CD57" s="11"/>
+      <c r="CD57" s="11">
+        <v>16</v>
+      </c>
       <c r="CE57" s="11"/>
       <c r="CF57" s="11"/>
       <c r="CG57" s="11"/>
@@ -28239,7 +29002,9 @@
       <c r="CC58" s="11">
         <v>19</v>
       </c>
-      <c r="CD58" s="11"/>
+      <c r="CD58" s="11">
+        <v>19</v>
+      </c>
       <c r="CE58" s="11"/>
       <c r="CF58" s="11"/>
       <c r="CG58" s="11"/>
@@ -28465,7 +29230,9 @@
       <c r="CC59" s="11">
         <v>31</v>
       </c>
-      <c r="CD59" s="11"/>
+      <c r="CD59" s="11">
+        <v>31</v>
+      </c>
       <c r="CE59" s="11"/>
       <c r="CF59" s="11"/>
       <c r="CG59" s="11"/>
@@ -28691,7 +29458,9 @@
       <c r="CC60" s="11">
         <v>132</v>
       </c>
-      <c r="CD60" s="11"/>
+      <c r="CD60" s="11">
+        <v>132</v>
+      </c>
       <c r="CE60" s="11"/>
       <c r="CF60" s="11"/>
       <c r="CG60" s="11"/>
@@ -28889,7 +29658,9 @@
       <c r="CC61" s="11">
         <v>1</v>
       </c>
-      <c r="CD61" s="11"/>
+      <c r="CD61" s="11">
+        <v>1</v>
+      </c>
       <c r="CE61" s="11"/>
       <c r="CF61" s="11"/>
       <c r="CG61" s="11"/>
@@ -29227,7 +29998,9 @@
       <c r="CC63" s="11">
         <v>11</v>
       </c>
-      <c r="CD63" s="11"/>
+      <c r="CD63" s="11">
+        <v>11</v>
+      </c>
       <c r="CE63" s="11"/>
       <c r="CF63" s="11"/>
       <c r="CG63" s="11"/>
@@ -29429,7 +30202,9 @@
       <c r="CC64" s="11">
         <v>4</v>
       </c>
-      <c r="CD64" s="11"/>
+      <c r="CD64" s="11">
+        <v>4</v>
+      </c>
       <c r="CE64" s="11"/>
       <c r="CF64" s="11"/>
       <c r="CG64" s="11"/>
@@ -29631,7 +30406,9 @@
       <c r="CC65" s="11">
         <v>7</v>
       </c>
-      <c r="CD65" s="11"/>
+      <c r="CD65" s="11">
+        <v>7</v>
+      </c>
       <c r="CE65" s="11"/>
       <c r="CF65" s="11"/>
       <c r="CG65" s="11"/>
@@ -29857,7 +30634,9 @@
       <c r="CC66" s="11">
         <v>42</v>
       </c>
-      <c r="CD66" s="11"/>
+      <c r="CD66" s="11">
+        <v>43</v>
+      </c>
       <c r="CE66" s="11"/>
       <c r="CF66" s="11"/>
       <c r="CG66" s="11"/>
@@ -30083,7 +30862,9 @@
       <c r="CC67" s="11">
         <v>46</v>
       </c>
-      <c r="CD67" s="11"/>
+      <c r="CD67" s="11">
+        <v>47</v>
+      </c>
       <c r="CE67" s="11"/>
       <c r="CF67" s="11"/>
       <c r="CG67" s="11"/>
@@ -30307,7 +31088,9 @@
       <c r="CC68" s="11">
         <v>0</v>
       </c>
-      <c r="CD68" s="11"/>
+      <c r="CD68" s="11">
+        <v>0</v>
+      </c>
       <c r="CE68" s="11"/>
       <c r="CF68" s="11"/>
       <c r="CG68" s="11"/>
@@ -30509,7 +31292,9 @@
       <c r="CC69" s="11">
         <v>0</v>
       </c>
-      <c r="CD69" s="11"/>
+      <c r="CD69" s="11">
+        <v>0</v>
+      </c>
       <c r="CE69" s="11"/>
       <c r="CF69" s="11"/>
       <c r="CG69" s="11"/>
@@ -30747,7 +31532,9 @@
       <c r="CC71" s="11">
         <v>9</v>
       </c>
-      <c r="CD71" s="11"/>
+      <c r="CD71" s="11">
+        <v>10</v>
+      </c>
       <c r="CE71" s="11"/>
       <c r="CF71" s="11"/>
       <c r="CG71" s="11"/>
@@ -30873,7 +31660,9 @@
       <c r="CC72" s="11">
         <v>6</v>
       </c>
-      <c r="CD72" s="11"/>
+      <c r="CD72" s="11">
+        <v>7</v>
+      </c>
       <c r="CE72" s="11"/>
       <c r="CF72" s="11"/>
       <c r="CG72" s="11"/>
@@ -30999,7 +31788,9 @@
       <c r="CC73" s="11">
         <v>3</v>
       </c>
-      <c r="CD73" s="11"/>
+      <c r="CD73" s="11">
+        <v>3</v>
+      </c>
       <c r="CE73" s="11"/>
       <c r="CF73" s="11"/>
       <c r="CG73" s="11"/>
@@ -31125,7 +31916,9 @@
       <c r="CC74" s="11">
         <v>18</v>
       </c>
-      <c r="CD74" s="11"/>
+      <c r="CD74" s="11">
+        <v>15</v>
+      </c>
       <c r="CE74" s="11"/>
       <c r="CF74" s="11"/>
       <c r="CG74" s="11"/>
@@ -31251,7 +32044,9 @@
       <c r="CC75" s="11">
         <v>24</v>
       </c>
-      <c r="CD75" s="11"/>
+      <c r="CD75" s="11">
+        <v>22</v>
+      </c>
       <c r="CE75" s="11"/>
       <c r="CF75" s="11"/>
       <c r="CG75" s="11"/>
@@ -31377,7 +32172,9 @@
       <c r="CC76" s="11">
         <v>21</v>
       </c>
-      <c r="CD76" s="11"/>
+      <c r="CD76" s="11">
+        <v>23</v>
+      </c>
       <c r="CE76" s="11"/>
       <c r="CF76" s="11"/>
       <c r="CG76" s="11"/>
@@ -31829,7 +32626,9 @@
       <c r="CC79" s="11">
         <v>292</v>
       </c>
-      <c r="CD79" s="11"/>
+      <c r="CD79" s="11">
+        <v>292</v>
+      </c>
       <c r="CE79" s="11"/>
       <c r="CF79" s="11"/>
       <c r="CG79" s="11"/>
@@ -32055,7 +32854,9 @@
       <c r="CC80" s="11">
         <v>205</v>
       </c>
-      <c r="CD80" s="11"/>
+      <c r="CD80" s="11">
+        <v>190</v>
+      </c>
       <c r="CE80" s="11"/>
       <c r="CF80" s="11"/>
       <c r="CG80" s="11"/>
@@ -32281,7 +33082,9 @@
       <c r="CC81" s="11">
         <v>176</v>
       </c>
-      <c r="CD81" s="11"/>
+      <c r="CD81" s="11">
+        <v>154</v>
+      </c>
       <c r="CE81" s="11"/>
       <c r="CF81" s="11"/>
       <c r="CG81" s="11"/>
@@ -32479,7 +33282,9 @@
       <c r="CC82" s="11">
         <v>16</v>
       </c>
-      <c r="CD82" s="11"/>
+      <c r="CD82" s="11">
+        <v>16</v>
+      </c>
       <c r="CE82" s="11"/>
       <c r="CF82" s="11"/>
       <c r="CG82" s="11"/>
@@ -32817,7 +33622,9 @@
       <c r="CC84" s="11">
         <v>110</v>
       </c>
-      <c r="CD84" s="11"/>
+      <c r="CD84" s="11">
+        <v>110</v>
+      </c>
       <c r="CE84" s="11"/>
       <c r="CF84" s="11"/>
       <c r="CG84" s="11"/>
@@ -33043,7 +33850,9 @@
       <c r="CC85" s="11">
         <v>4</v>
       </c>
-      <c r="CD85" s="11"/>
+      <c r="CD85" s="11">
+        <v>4</v>
+      </c>
       <c r="CE85" s="11"/>
       <c r="CF85" s="11"/>
       <c r="CG85" s="11"/>
@@ -33269,7 +34078,9 @@
       <c r="CC86" s="11">
         <v>114</v>
       </c>
-      <c r="CD86" s="11"/>
+      <c r="CD86" s="11">
+        <v>114</v>
+      </c>
       <c r="CE86" s="11"/>
       <c r="CF86" s="11"/>
       <c r="CG86" s="11"/>
@@ -33487,7 +34298,9 @@
       <c r="CC87" s="11">
         <v>180</v>
       </c>
-      <c r="CD87" s="11"/>
+      <c r="CD87" s="11">
+        <v>180</v>
+      </c>
       <c r="CE87" s="11"/>
       <c r="CF87" s="11"/>
       <c r="CG87" s="11"/>
@@ -33629,7 +34442,9 @@
       <c r="CC88" s="11">
         <v>1</v>
       </c>
-      <c r="CD88" s="11"/>
+      <c r="CD88" s="11">
+        <v>1</v>
+      </c>
       <c r="CE88" s="11"/>
       <c r="CF88" s="11"/>
       <c r="CG88" s="11"/>
@@ -33926,7 +34741,9 @@
       <c r="CC90" s="11">
         <v>79</v>
       </c>
-      <c r="CD90" s="11"/>
+      <c r="CD90" s="11">
+        <v>79</v>
+      </c>
       <c r="CE90" s="11"/>
       <c r="CF90" s="11"/>
       <c r="CG90" s="11"/>
@@ -34152,7 +34969,9 @@
       <c r="CC91" s="11">
         <v>49</v>
       </c>
-      <c r="CD91" s="11"/>
+      <c r="CD91" s="11">
+        <v>49</v>
+      </c>
       <c r="CE91" s="11"/>
       <c r="CF91" s="11"/>
       <c r="CG91" s="11"/>
@@ -34356,7 +35175,9 @@
       <c r="CC92" s="11">
         <v>130</v>
       </c>
-      <c r="CD92" s="11"/>
+      <c r="CD92" s="11">
+        <v>130</v>
+      </c>
       <c r="CE92" s="11"/>
       <c r="CF92" s="11"/>
       <c r="CG92" s="11"/>
@@ -34556,7 +35377,9 @@
       <c r="CC93" s="11">
         <v>13</v>
       </c>
-      <c r="CD93" s="11"/>
+      <c r="CD93" s="11">
+        <v>13</v>
+      </c>
       <c r="CE93" s="11"/>
       <c r="CF93" s="11"/>
       <c r="CG93" s="11"/>
@@ -34780,7 +35603,9 @@
       <c r="CC94" s="11">
         <v>13</v>
       </c>
-      <c r="CD94" s="11"/>
+      <c r="CD94" s="11">
+        <v>13</v>
+      </c>
       <c r="CE94" s="11"/>
       <c r="CF94" s="11"/>
       <c r="CG94" s="11"/>
@@ -35063,7 +35888,9 @@
       <c r="CC96" s="11">
         <v>179</v>
       </c>
-      <c r="CD96" s="11"/>
+      <c r="CD96" s="11">
+        <v>179</v>
+      </c>
       <c r="CE96" s="11"/>
       <c r="CF96" s="11"/>
       <c r="CG96" s="11"/>
@@ -35235,7 +36062,9 @@
       <c r="CC97" s="11">
         <v>41</v>
       </c>
-      <c r="CD97" s="11"/>
+      <c r="CD97" s="11">
+        <v>41</v>
+      </c>
       <c r="CE97" s="11"/>
       <c r="CF97" s="11"/>
       <c r="CG97" s="11"/>
@@ -35407,7 +36236,9 @@
       <c r="CC98" s="11">
         <v>25</v>
       </c>
-      <c r="CD98" s="11"/>
+      <c r="CD98" s="11">
+        <v>25</v>
+      </c>
       <c r="CE98" s="11"/>
       <c r="CF98" s="11"/>
       <c r="CG98" s="11"/>
@@ -35515,11 +36346,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51A914D-4CED-7A43-8BD6-4514AC12DE8C}">
-  <dimension ref="A1:C928"/>
+  <dimension ref="A1:C980"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A908" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B929" sqref="B929"/>
+      <pane ySplit="1" topLeftCell="A910" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A929" sqref="A929"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -45737,6 +46568,578 @@
         <v>1</v>
       </c>
     </row>
+    <row r="929" spans="1:3">
+      <c r="A929" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B929" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C929" s="19">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3">
+      <c r="A930" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B930" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C930" s="19">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3">
+      <c r="A931" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B931" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C931" s="19">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3">
+      <c r="A932" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B932" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C932" s="19">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3">
+      <c r="A933" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B933" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C933" s="19">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3">
+      <c r="A934" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B934" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C934" s="19">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3">
+      <c r="A935" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B935" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C935" s="19">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3">
+      <c r="A936" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B936" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C936" s="19">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3">
+      <c r="A937" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B937" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C937" s="19">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3">
+      <c r="A938" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B938" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C938" s="19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3">
+      <c r="A939" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B939" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C939" s="19">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3">
+      <c r="A940" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B940" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C940" s="19">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3">
+      <c r="A941" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B941" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C941" s="19">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3">
+      <c r="A942" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B942" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C942" s="19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3">
+      <c r="A943" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B943" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C943" s="19">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3">
+      <c r="A944" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B944" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C944" s="19">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3">
+      <c r="A945" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B945" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C945" s="19">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3">
+      <c r="A946" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B946" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C946" s="19">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3">
+      <c r="A947" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B947" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C947" s="19">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3">
+      <c r="A948" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B948" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C948" s="19">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3">
+      <c r="A949" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B949" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C949" s="19">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3">
+      <c r="A950" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B950" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C950" s="19">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3">
+      <c r="A951" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B951" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C951" s="19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3">
+      <c r="A952" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B952" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C952" s="19">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3">
+      <c r="A953" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B953" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C953" s="19">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3">
+      <c r="A954" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B954" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C954" s="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3">
+      <c r="A955" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B955" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C955" s="19">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3">
+      <c r="A956" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B956" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C956" s="19">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3">
+      <c r="A957" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B957" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C957" s="19">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3">
+      <c r="A958" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B958" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C958" s="19">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3">
+      <c r="A959" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B959" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C959" s="19">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3">
+      <c r="A960" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B960" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C960" s="19">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3">
+      <c r="A961" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B961" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C961" s="19">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3">
+      <c r="A962" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B962" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C962" s="19">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3">
+      <c r="A963" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B963" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C963" s="19">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3">
+      <c r="A964" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B964" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C964" s="19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3">
+      <c r="A965" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B965" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C965" s="19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3">
+      <c r="A966" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B966" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C966" s="19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3">
+      <c r="A967" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B967" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C967" s="19">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3">
+      <c r="A968" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B968" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C968" s="19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3">
+      <c r="A969" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B969" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C969" s="19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3">
+      <c r="A970" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B970" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C970" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3">
+      <c r="A971" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B971" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C971" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3">
+      <c r="A972" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B972" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C972" s="19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3">
+      <c r="A973" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B973" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C973" s="19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3">
+      <c r="A974" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B974" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C974" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3">
+      <c r="A975" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B975" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C975" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3">
+      <c r="A976" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B976" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C976" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3">
+      <c r="A977" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B977" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C977" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3">
+      <c r="A978" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B978" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C978" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3">
+      <c r="A979" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B979" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C979" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3">
+      <c r="A980" s="17">
+        <v>43976</v>
+      </c>
+      <c r="B980" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C980" s="19">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6824AC-E6CD-0A48-8BA0-BF52AA0BAD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4761F316-50D4-124F-80DA-00BB6584E777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="202">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -907,7 +907,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -917,6 +916,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -1259,11 +1259,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0704107B-CC38-954F-8D77-0E0C2F291C39}">
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C209" sqref="C209"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -3561,6 +3561,567 @@
         <v>34</v>
       </c>
     </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C209" s="20">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B210" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C210" s="20">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B211" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C211" s="20">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B212" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C212" s="20">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C213" s="20">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B214" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C214" s="20">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C215" s="20">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B216" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C216" s="20">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C217" s="20">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C218" s="20">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C219" s="20">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B220" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C220" s="20">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B221" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C221" s="20">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C222" s="20">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C223" s="19">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B224" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C224" s="19">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C225" s="19">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B226" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C226" s="19">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C227" s="19">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B228" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C228" s="19">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B229" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C229" s="19">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B230" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C230" s="19">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C231" s="19">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B232" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C232" s="19">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C233" s="19">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B234" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C234" s="19">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B235" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C235" s="19">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B236" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C236" s="19">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B237" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C237" s="19">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B238" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C238" s="19">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B239" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C239" s="19">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B240" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C240" s="19">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B241" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C241" s="19">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B242" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C242" s="19">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B243" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C243" s="19">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B244" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C244" s="19">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B245" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C245" s="19">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C246" s="19">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B247" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C247" s="19">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B248" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C248" s="19">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B249" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C249" s="19">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B250" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C250" s="19">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B251" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C251" s="19">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B252" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C252" s="19">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B253" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C253" s="19">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B254" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C254" s="19">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B255" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C255" s="19">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B256" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C256" s="19">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B257" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C257" s="19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C258" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B259" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C259" s="19">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3571,7 +4132,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -3592,7 +4153,7 @@
         <v>164</v>
       </c>
       <c r="B2" s="18">
-        <v>1456.2</v>
+        <v>1498.1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3600,7 +4161,7 @@
         <v>165</v>
       </c>
       <c r="B3" s="18">
-        <v>694.2</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3608,7 +4169,7 @@
         <v>166</v>
       </c>
       <c r="B4" s="18">
-        <v>435.7</v>
+        <v>439.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3616,7 +4177,7 @@
         <v>167</v>
       </c>
       <c r="B5" s="18">
-        <v>1949.4</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3624,7 +4185,7 @@
         <v>168</v>
       </c>
       <c r="B6" s="18">
-        <v>1370.9</v>
+        <v>1396.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3632,7 +4193,7 @@
         <v>169</v>
       </c>
       <c r="B7" s="18">
-        <v>769.7</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3640,7 +4201,7 @@
         <v>170</v>
       </c>
       <c r="B8" s="18">
-        <v>1439</v>
+        <v>1460.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3648,22 +4209,22 @@
         <v>171</v>
       </c>
       <c r="B9" s="23">
-        <v>1517</v>
+        <v>1550.7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3679,7 +4240,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -5003,13 +5564,27 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="26"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
+      <c r="A58" s="26">
+        <v>43977</v>
+      </c>
+      <c r="B58" s="28">
+        <v>1851</v>
+      </c>
+      <c r="C58" s="28">
+        <v>0</v>
+      </c>
+      <c r="D58" s="28">
+        <v>349</v>
+      </c>
+      <c r="E58" s="28">
+        <v>214</v>
+      </c>
+      <c r="F58" s="28">
+        <v>0</v>
+      </c>
+      <c r="G58" s="28">
+        <v>76</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="26"/>
@@ -7819,8 +8394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC5DB9-885C-0D44-A0ED-5EB8D004D1EE}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -7848,173 +8423,173 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="18">
-        <v>93</v>
-      </c>
-      <c r="D2" s="18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E2" s="18">
-        <v>204.4</v>
+      <c r="C2" s="6">
+        <v>98</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>215.4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="18">
-        <v>155</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="C3" s="6">
+        <v>161</v>
+      </c>
+      <c r="D3" s="6">
         <v>1.9</v>
       </c>
-      <c r="E3" s="18">
-        <v>234</v>
+      <c r="E3" s="6">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="18">
-        <v>163</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="C4" s="6">
+        <v>168</v>
+      </c>
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="18">
-        <v>488.2</v>
+      <c r="E4" s="6">
+        <v>503.2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="18">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="18">
-        <v>452</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="C5" s="6">
+        <v>466</v>
+      </c>
+      <c r="D5" s="6">
         <v>5.5</v>
       </c>
-      <c r="E5" s="18">
-        <v>853.2</v>
+      <c r="E5" s="6">
+        <v>879.6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="18">
-        <v>1533</v>
-      </c>
-      <c r="D6" s="18">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E6" s="18">
-        <v>937.8</v>
+      <c r="C6" s="6">
+        <v>1570</v>
+      </c>
+      <c r="D6" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="E6" s="6">
+        <v>960.4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="18">
-        <v>1493</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C7" s="6">
+        <v>1518</v>
+      </c>
+      <c r="D7" s="6">
         <v>18.100000000000001</v>
       </c>
-      <c r="E7" s="34">
-        <v>1414.7</v>
+      <c r="E7" s="37">
+        <v>1438.4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="18">
-        <v>1296</v>
-      </c>
-      <c r="D8" s="18">
-        <v>15.7</v>
-      </c>
-      <c r="E8" s="34">
-        <v>1716</v>
+      <c r="C8" s="6">
+        <v>1313</v>
+      </c>
+      <c r="D8" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="E8" s="37">
+        <v>1738.5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="18">
-        <v>1373</v>
-      </c>
-      <c r="D9" s="18">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="E9" s="34">
-        <v>1960.8</v>
+      <c r="C9" s="6">
+        <v>1389</v>
+      </c>
+      <c r="D9" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="E9" s="37">
+        <v>1983.7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="18">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="18">
-        <v>891</v>
-      </c>
-      <c r="D10" s="18">
+      <c r="C10" s="6">
+        <v>904</v>
+      </c>
+      <c r="D10" s="6">
         <v>10.8</v>
       </c>
-      <c r="E10" s="34">
-        <v>1824.6</v>
+      <c r="E10" s="37">
+        <v>1851.2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="18">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="18">
-        <v>798</v>
-      </c>
-      <c r="D11" s="18">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E11" s="34">
-        <v>2168.9</v>
+      <c r="C11" s="6">
+        <v>810</v>
+      </c>
+      <c r="D11" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="E11" s="37">
+        <v>2201.5</v>
       </c>
     </row>
   </sheetData>
@@ -8027,14 +8602,14 @@
   <dimension ref="A1:BQ21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL2" sqref="AL2"/>
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="31" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="39" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
@@ -8152,7 +8727,9 @@
       <c r="AL1" s="4">
         <v>43976</v>
       </c>
-      <c r="AM1" s="4"/>
+      <c r="AM1" s="4">
+        <v>43977</v>
+      </c>
       <c r="AN1" s="4"/>
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
@@ -8300,7 +8877,9 @@
       <c r="AL2" s="14">
         <v>440</v>
       </c>
-      <c r="AM2" s="14"/>
+      <c r="AM2" s="14">
+        <v>445</v>
+      </c>
       <c r="AN2" s="14"/>
       <c r="AO2" s="14"/>
       <c r="AP2" s="14"/>
@@ -8447,7 +9026,9 @@
       <c r="AL3" s="7">
         <v>43</v>
       </c>
-      <c r="AM3" s="7"/>
+      <c r="AM3" s="7">
+        <v>45</v>
+      </c>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
@@ -8594,7 +9175,9 @@
       <c r="AL4" s="7">
         <v>27</v>
       </c>
-      <c r="AM4" s="7"/>
+      <c r="AM4" s="7">
+        <v>27</v>
+      </c>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
@@ -8741,7 +9324,9 @@
       <c r="AL5" s="7">
         <v>30</v>
       </c>
-      <c r="AM5" s="7"/>
+      <c r="AM5" s="7">
+        <v>30</v>
+      </c>
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
@@ -8888,7 +9473,9 @@
       <c r="AL6" s="7">
         <v>62</v>
       </c>
-      <c r="AM6" s="7"/>
+      <c r="AM6" s="7">
+        <v>63</v>
+      </c>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
@@ -9035,7 +9622,9 @@
       <c r="AL7" s="7">
         <v>68</v>
       </c>
-      <c r="AM7" s="7"/>
+      <c r="AM7" s="7">
+        <v>69</v>
+      </c>
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
@@ -9182,7 +9771,9 @@
       <c r="AL8" s="7">
         <v>41</v>
       </c>
-      <c r="AM8" s="7"/>
+      <c r="AM8" s="7">
+        <v>41</v>
+      </c>
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
@@ -9329,7 +9920,9 @@
       <c r="AL9" s="7">
         <v>62</v>
       </c>
-      <c r="AM9" s="7"/>
+      <c r="AM9" s="7">
+        <v>62</v>
+      </c>
       <c r="AN9" s="7"/>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
@@ -9476,7 +10069,9 @@
       <c r="AL10" s="7">
         <v>91</v>
       </c>
-      <c r="AM10" s="7"/>
+      <c r="AM10" s="7">
+        <v>92</v>
+      </c>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
@@ -9623,7 +10218,9 @@
       <c r="AL11" s="7">
         <v>16</v>
       </c>
-      <c r="AM11" s="7"/>
+      <c r="AM11" s="7">
+        <v>16</v>
+      </c>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
@@ -9768,7 +10365,9 @@
       <c r="AL12" s="7">
         <v>0</v>
       </c>
-      <c r="AM12" s="7"/>
+      <c r="AM12" s="7">
+        <v>0</v>
+      </c>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
@@ -9838,7 +10437,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -9872,13 +10471,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="27">
-        <v>8334</v>
+        <v>8403</v>
       </c>
       <c r="C2" s="27">
-        <v>4126</v>
+        <v>4169</v>
       </c>
       <c r="D2" s="27">
-        <v>4189</v>
+        <v>4215</v>
       </c>
       <c r="E2" s="27">
         <v>19</v>
@@ -9889,13 +10488,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="27">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="D3" s="7">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -9906,13 +10505,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="27">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C4" s="7">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
@@ -9923,13 +10522,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="27">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C5" s="7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -9940,13 +10539,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="27">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C6" s="7">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D6" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -9957,13 +10556,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="27">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="C7" s="7">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D7" s="7">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -9974,13 +10573,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="27">
-        <v>1533</v>
+        <v>1570</v>
       </c>
       <c r="C8" s="7">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="D8" s="7">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -9991,13 +10590,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="27">
-        <v>1493</v>
+        <v>1518</v>
       </c>
       <c r="C9" s="7">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="D9" s="7">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -10008,13 +10607,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="27">
-        <v>1296</v>
+        <v>1313</v>
       </c>
       <c r="C10" s="7">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D10" s="7">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -10025,13 +10624,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="27">
-        <v>1373</v>
+        <v>1389</v>
       </c>
       <c r="C11" s="7">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="D11" s="7">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -10042,13 +10641,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="27">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="C12" s="7">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D12" s="7">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
@@ -10059,25 +10658,25 @@
         <v>20</v>
       </c>
       <c r="B13" s="27">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="C13" s="7">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D13" s="7">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="58" customHeight="1">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10092,8 +10691,8 @@
   <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE3" sqref="BE3"/>
+      <pane xSplit="1" topLeftCell="BE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG10" sqref="BG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10367,7 +10966,9 @@
       <c r="BE2" s="4">
         <v>43976</v>
       </c>
-      <c r="BF2" s="4"/>
+      <c r="BF2" s="4">
+        <v>43977</v>
+      </c>
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
@@ -10573,7 +11174,9 @@
       <c r="BE3" s="7">
         <v>1166</v>
       </c>
-      <c r="BF3" s="7"/>
+      <c r="BF3" s="7">
+        <v>1178</v>
+      </c>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7"/>
       <c r="BI3" s="7"/>
@@ -10779,7 +11382,9 @@
       <c r="BE4" s="7">
         <v>508</v>
       </c>
-      <c r="BF4" s="7"/>
+      <c r="BF4" s="7">
+        <v>509</v>
+      </c>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
       <c r="BI4" s="7"/>
@@ -10985,7 +11590,9 @@
       <c r="BE5" s="7">
         <v>410</v>
       </c>
-      <c r="BF5" s="7"/>
+      <c r="BF5" s="7">
+        <v>411</v>
+      </c>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
       <c r="BI5" s="7"/>
@@ -11191,7 +11798,9 @@
       <c r="BE6" s="7">
         <v>1759</v>
       </c>
-      <c r="BF6" s="7"/>
+      <c r="BF6" s="7">
+        <v>1771</v>
+      </c>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
       <c r="BI6" s="7"/>
@@ -11397,7 +12006,9 @@
       <c r="BE7" s="7">
         <v>1303</v>
       </c>
-      <c r="BF7" s="7"/>
+      <c r="BF7" s="7">
+        <v>1315</v>
+      </c>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
       <c r="BI7" s="7"/>
@@ -11603,7 +12214,9 @@
       <c r="BE8" s="7">
         <v>709</v>
       </c>
-      <c r="BF8" s="7"/>
+      <c r="BF8" s="7">
+        <v>713</v>
+      </c>
       <c r="BG8" s="7"/>
       <c r="BH8" s="7"/>
       <c r="BI8" s="7"/>
@@ -11809,7 +12422,9 @@
       <c r="BE9" s="7">
         <v>1194</v>
       </c>
-      <c r="BF9" s="7"/>
+      <c r="BF9" s="7">
+        <v>1204</v>
+      </c>
       <c r="BG9" s="7"/>
       <c r="BH9" s="7"/>
       <c r="BI9" s="7"/>
@@ -12015,7 +12630,9 @@
       <c r="BE10" s="7">
         <v>1156</v>
       </c>
-      <c r="BF10" s="7"/>
+      <c r="BF10" s="7">
+        <v>1174</v>
+      </c>
       <c r="BG10" s="7"/>
       <c r="BH10" s="7"/>
       <c r="BI10" s="7"/>
@@ -12221,7 +12838,9 @@
       <c r="BE11" s="7">
         <v>129</v>
       </c>
-      <c r="BF11" s="7"/>
+      <c r="BF11" s="7">
+        <v>131</v>
+      </c>
       <c r="BG11" s="7"/>
       <c r="BH11" s="7"/>
       <c r="BI11" s="7"/>
@@ -12266,10 +12885,10 @@
   <dimension ref="A1:CE19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AZ2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB13" sqref="BB13"/>
+      <selection pane="bottomRight" activeCell="BB10" sqref="BB10:BB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12279,7 +12898,7 @@
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="53" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="54" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83">
@@ -12442,7 +13061,9 @@
       <c r="BA1" s="4">
         <v>43976</v>
       </c>
-      <c r="BB1" s="4"/>
+      <c r="BB1" s="4">
+        <v>43977</v>
+      </c>
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
       <c r="BE1" s="4"/>
@@ -12633,7 +13254,9 @@
       <c r="BA2" s="7">
         <v>1010</v>
       </c>
-      <c r="BB2" s="7"/>
+      <c r="BB2" s="7">
+        <v>1028</v>
+      </c>
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
       <c r="BE2" s="7"/>
@@ -12824,7 +13447,9 @@
       <c r="BA3" s="7">
         <v>1282</v>
       </c>
-      <c r="BB3" s="7"/>
+      <c r="BB3" s="7">
+        <v>1293</v>
+      </c>
       <c r="BC3" s="7"/>
       <c r="BD3" s="7"/>
       <c r="BE3" s="7"/>
@@ -13015,7 +13640,9 @@
       <c r="BA4" s="7">
         <v>3822</v>
       </c>
-      <c r="BB4" s="7"/>
+      <c r="BB4" s="7">
+        <v>3839</v>
+      </c>
       <c r="BC4" s="7"/>
       <c r="BD4" s="7"/>
       <c r="BE4" s="7"/>
@@ -13206,7 +13833,9 @@
       <c r="BA5" s="7">
         <v>104</v>
       </c>
-      <c r="BB5" s="7"/>
+      <c r="BB5" s="7">
+        <v>104</v>
+      </c>
       <c r="BC5" s="7"/>
       <c r="BD5" s="7"/>
       <c r="BE5" s="7"/>
@@ -13397,7 +14026,9 @@
       <c r="BA6" s="7">
         <v>23</v>
       </c>
-      <c r="BB6" s="7"/>
+      <c r="BB6" s="7">
+        <v>24</v>
+      </c>
       <c r="BC6" s="7"/>
       <c r="BD6" s="7"/>
       <c r="BE6" s="7"/>
@@ -13584,7 +14215,9 @@
       <c r="BA7" s="7">
         <v>20</v>
       </c>
-      <c r="BB7" s="7"/>
+      <c r="BB7" s="7">
+        <v>20</v>
+      </c>
       <c r="BC7" s="7"/>
       <c r="BD7" s="7"/>
       <c r="BE7" s="7"/>
@@ -13775,7 +14408,9 @@
       <c r="BA8" s="7">
         <v>2027</v>
       </c>
-      <c r="BB8" s="7"/>
+      <c r="BB8" s="7">
+        <v>2051</v>
+      </c>
       <c r="BC8" s="7"/>
       <c r="BD8" s="7"/>
       <c r="BE8" s="7"/>
@@ -13966,7 +14601,9 @@
       <c r="BA9" s="7">
         <v>46</v>
       </c>
-      <c r="BB9" s="7"/>
+      <c r="BB9" s="7">
+        <v>47</v>
+      </c>
       <c r="BC9" s="7"/>
       <c r="BD9" s="7"/>
       <c r="BE9" s="7"/>
@@ -14157,7 +14794,9 @@
       <c r="BA10" s="7">
         <v>1593</v>
       </c>
-      <c r="BB10" s="7"/>
+      <c r="BB10" s="7">
+        <v>1612</v>
+      </c>
       <c r="BC10" s="7"/>
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
@@ -14348,7 +14987,9 @@
       <c r="BA11" s="7">
         <v>2115</v>
       </c>
-      <c r="BB11" s="7"/>
+      <c r="BB11" s="7">
+        <v>2138</v>
+      </c>
       <c r="BC11" s="7"/>
       <c r="BD11" s="7"/>
       <c r="BE11" s="7"/>
@@ -14539,7 +15180,9 @@
       <c r="BA12" s="7">
         <v>4600</v>
       </c>
-      <c r="BB12" s="7"/>
+      <c r="BB12" s="7">
+        <v>4630</v>
+      </c>
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
       <c r="BE12" s="7"/>
@@ -14730,7 +15373,9 @@
       <c r="BA13" s="7">
         <v>26</v>
       </c>
-      <c r="BB13" s="7"/>
+      <c r="BB13" s="7">
+        <v>26</v>
+      </c>
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
       <c r="BE13" s="7"/>
@@ -15036,14 +15681,14 @@
   <dimension ref="A1:CH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE6" sqref="BE6"/>
+      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BC5" sqref="BC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="45" max="52" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="53" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86">
@@ -15201,7 +15846,9 @@
       <c r="AZ1" s="4">
         <v>43976</v>
       </c>
-      <c r="BA1" s="4"/>
+      <c r="BA1" s="4">
+        <v>43977</v>
+      </c>
       <c r="BB1" s="4"/>
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
@@ -15483,7 +16130,9 @@
       <c r="AZ3" s="7">
         <v>7</v>
       </c>
-      <c r="BA3" s="7"/>
+      <c r="BA3" s="7">
+        <v>7</v>
+      </c>
       <c r="BB3" s="7"/>
       <c r="BC3" s="7"/>
       <c r="BD3" s="7"/>
@@ -15675,7 +16324,9 @@
       <c r="AZ4" s="7">
         <v>333</v>
       </c>
-      <c r="BA4" s="7"/>
+      <c r="BA4" s="7">
+        <v>335</v>
+      </c>
       <c r="BB4" s="7"/>
       <c r="BC4" s="7"/>
       <c r="BD4" s="7"/>
@@ -15867,7 +16518,9 @@
       <c r="AZ5" s="7">
         <v>47</v>
       </c>
-      <c r="BA5" s="7"/>
+      <c r="BA5" s="7">
+        <v>49</v>
+      </c>
       <c r="BB5" s="7"/>
       <c r="BC5" s="7"/>
       <c r="BD5" s="7"/>
@@ -16059,7 +16712,9 @@
       <c r="AZ6" s="7">
         <v>49</v>
       </c>
-      <c r="BA6" s="7"/>
+      <c r="BA6" s="7">
+        <v>50</v>
+      </c>
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
       <c r="BD6" s="7"/>
@@ -16249,7 +16904,9 @@
       <c r="AZ7" s="7">
         <v>4</v>
       </c>
-      <c r="BA7" s="7"/>
+      <c r="BA7" s="7">
+        <v>4</v>
+      </c>
       <c r="BB7" s="7"/>
       <c r="BC7" s="7"/>
       <c r="BD7" s="7"/>
@@ -16676,9 +17333,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F09139-DF15-7543-80A9-E66C02C72DE5}">
   <dimension ref="A1:CL26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G44" sqref="G44"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17828,8 +18485,8 @@
   <dimension ref="A1:DF99"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH26" sqref="CH26"/>
+      <pane xSplit="2" topLeftCell="CC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CF21" sqref="CF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -18085,7 +18742,9 @@
       <c r="CD1" s="4">
         <v>43976</v>
       </c>
-      <c r="CE1" s="4"/>
+      <c r="CE1" s="4">
+        <v>43977</v>
+      </c>
       <c r="CF1" s="4"/>
       <c r="CG1" s="4"/>
       <c r="CH1" s="4"/>
@@ -18463,7 +19122,9 @@
       <c r="CD3" s="11">
         <v>42055</v>
       </c>
-      <c r="CE3" s="11"/>
+      <c r="CE3" s="11">
+        <v>42697</v>
+      </c>
       <c r="CF3" s="11"/>
       <c r="CG3" s="11"/>
       <c r="CH3" s="11"/>
@@ -18587,7 +19248,9 @@
       <c r="CD4" s="11">
         <v>35262</v>
       </c>
-      <c r="CE4" s="11"/>
+      <c r="CE4" s="11">
+        <v>35682</v>
+      </c>
       <c r="CF4" s="11"/>
       <c r="CG4" s="11"/>
       <c r="CH4" s="11"/>
@@ -18863,7 +19526,9 @@
       <c r="CD5" s="11">
         <v>8334</v>
       </c>
-      <c r="CE5" s="11"/>
+      <c r="CE5" s="11">
+        <v>8406</v>
+      </c>
       <c r="CF5" s="11"/>
       <c r="CG5" s="11"/>
       <c r="CH5" s="11"/>
@@ -19127,7 +19792,9 @@
       <c r="CD6" s="11">
         <v>440</v>
       </c>
-      <c r="CE6" s="11"/>
+      <c r="CE6" s="11">
+        <v>445</v>
+      </c>
       <c r="CF6" s="11"/>
       <c r="CG6" s="11"/>
       <c r="CH6" s="11"/>
@@ -19371,7 +20038,9 @@
       <c r="CD7" s="11">
         <v>1080</v>
       </c>
-      <c r="CE7" s="11"/>
+      <c r="CE7" s="11">
+        <v>1082</v>
+      </c>
       <c r="CF7" s="11"/>
       <c r="CG7" s="11"/>
       <c r="CH7" s="11"/>
@@ -19655,7 +20324,9 @@
       <c r="CD9" s="11">
         <v>345</v>
       </c>
-      <c r="CE9" s="11"/>
+      <c r="CE9" s="11">
+        <v>345</v>
+      </c>
       <c r="CF9" s="11"/>
       <c r="CG9" s="11"/>
       <c r="CH9" s="11"/>
@@ -19895,7 +20566,9 @@
       <c r="CD10" s="11">
         <v>102</v>
       </c>
-      <c r="CE10" s="11"/>
+      <c r="CE10" s="11">
+        <v>80</v>
+      </c>
       <c r="CF10" s="11"/>
       <c r="CG10" s="11"/>
       <c r="CH10" s="11"/>
@@ -20135,7 +20808,9 @@
       <c r="CD11" s="11">
         <v>440</v>
       </c>
-      <c r="CE11" s="11"/>
+      <c r="CE11" s="11">
+        <v>440</v>
+      </c>
       <c r="CF11" s="11"/>
       <c r="CG11" s="11"/>
       <c r="CH11" s="11"/>
@@ -20375,7 +21050,9 @@
       <c r="CD12" s="11">
         <v>217</v>
       </c>
-      <c r="CE12" s="11"/>
+      <c r="CE12" s="11">
+        <v>214</v>
+      </c>
       <c r="CF12" s="11"/>
       <c r="CG12" s="11"/>
       <c r="CH12" s="11"/>
@@ -20615,7 +21292,9 @@
       <c r="CD13" s="11">
         <v>223</v>
       </c>
-      <c r="CE13" s="11"/>
+      <c r="CE13" s="11">
+        <v>226</v>
+      </c>
       <c r="CF13" s="11"/>
       <c r="CG13" s="11"/>
       <c r="CH13" s="11"/>
@@ -20763,7 +21442,9 @@
       <c r="CD14" s="11">
         <v>353</v>
       </c>
-      <c r="CE14" s="11"/>
+      <c r="CE14" s="11">
+        <v>349</v>
+      </c>
       <c r="CF14" s="11"/>
       <c r="CG14" s="11"/>
       <c r="CH14" s="11"/>
@@ -20891,7 +21572,9 @@
       <c r="CD15" s="11">
         <v>113</v>
       </c>
-      <c r="CE15" s="11"/>
+      <c r="CE15" s="11">
+        <v>113</v>
+      </c>
       <c r="CF15" s="11"/>
       <c r="CG15" s="11"/>
       <c r="CH15" s="11"/>
@@ -21039,7 +21722,9 @@
       <c r="CD16" s="11">
         <v>1842</v>
       </c>
-      <c r="CE16" s="11"/>
+      <c r="CE16" s="11">
+        <v>1851</v>
+      </c>
       <c r="CF16" s="11"/>
       <c r="CG16" s="11"/>
       <c r="CH16" s="11"/>
@@ -21735,7 +22420,9 @@
       <c r="CD21" s="11">
         <v>107</v>
       </c>
-      <c r="CE21" s="11"/>
+      <c r="CE21" s="11">
+        <v>107</v>
+      </c>
       <c r="CF21" s="11"/>
       <c r="CG21" s="11"/>
       <c r="CH21" s="11"/>
@@ -21941,7 +22628,9 @@
       <c r="CD22" s="11">
         <v>18</v>
       </c>
-      <c r="CE22" s="11"/>
+      <c r="CE22" s="11">
+        <v>18</v>
+      </c>
       <c r="CF22" s="11"/>
       <c r="CG22" s="11"/>
       <c r="CH22" s="11"/>
@@ -22147,7 +22836,9 @@
       <c r="CD23" s="11">
         <v>89</v>
       </c>
-      <c r="CE23" s="11"/>
+      <c r="CE23" s="11">
+        <v>89</v>
+      </c>
       <c r="CF23" s="11"/>
       <c r="CG23" s="11"/>
       <c r="CH23" s="11"/>
@@ -22383,7 +23074,9 @@
       <c r="CD24" s="11">
         <v>157</v>
       </c>
-      <c r="CE24" s="11"/>
+      <c r="CE24" s="11">
+        <v>161</v>
+      </c>
       <c r="CF24" s="11"/>
       <c r="CG24" s="11"/>
       <c r="CH24" s="11"/>
@@ -22619,7 +23312,9 @@
       <c r="CD25" s="11">
         <v>175</v>
       </c>
-      <c r="CE25" s="11"/>
+      <c r="CE25" s="11">
+        <v>179</v>
+      </c>
       <c r="CF25" s="11"/>
       <c r="CG25" s="11"/>
       <c r="CH25" s="11"/>
@@ -22855,7 +23550,9 @@
       <c r="CD26" s="11">
         <v>1296</v>
       </c>
-      <c r="CE26" s="11"/>
+      <c r="CE26" s="11">
+        <v>1312</v>
+      </c>
       <c r="CF26" s="11"/>
       <c r="CG26" s="11"/>
       <c r="CH26" s="11"/>
@@ -23323,7 +24020,9 @@
       <c r="CD29" s="11">
         <v>131</v>
       </c>
-      <c r="CE29" s="11"/>
+      <c r="CE29" s="11">
+        <v>131</v>
+      </c>
       <c r="CF29" s="11"/>
       <c r="CG29" s="11"/>
       <c r="CH29" s="11"/>
@@ -23529,7 +24228,9 @@
       <c r="CD30" s="11">
         <v>33</v>
       </c>
-      <c r="CE30" s="11"/>
+      <c r="CE30" s="11">
+        <v>33</v>
+      </c>
       <c r="CF30" s="11"/>
       <c r="CG30" s="11"/>
       <c r="CH30" s="11"/>
@@ -23735,7 +24436,9 @@
       <c r="CD31" s="11">
         <v>98</v>
       </c>
-      <c r="CE31" s="11"/>
+      <c r="CE31" s="11">
+        <v>98</v>
+      </c>
       <c r="CF31" s="11"/>
       <c r="CG31" s="11"/>
       <c r="CH31" s="11"/>
@@ -23971,7 +24674,9 @@
       <c r="CD32" s="11">
         <v>78</v>
       </c>
-      <c r="CE32" s="11"/>
+      <c r="CE32" s="11">
+        <v>63</v>
+      </c>
       <c r="CF32" s="11"/>
       <c r="CG32" s="11"/>
       <c r="CH32" s="11"/>
@@ -24207,7 +24912,9 @@
       <c r="CD33" s="11">
         <v>111</v>
       </c>
-      <c r="CE33" s="11"/>
+      <c r="CE33" s="11">
+        <v>96</v>
+      </c>
       <c r="CF33" s="11"/>
       <c r="CG33" s="11"/>
       <c r="CH33" s="11"/>
@@ -24443,7 +25150,9 @@
       <c r="CD34" s="11">
         <v>1124</v>
       </c>
-      <c r="CE34" s="11"/>
+      <c r="CE34" s="11">
+        <v>1156</v>
+      </c>
       <c r="CF34" s="11"/>
       <c r="CG34" s="11"/>
       <c r="CH34" s="11"/>
@@ -24903,7 +25612,9 @@
       <c r="CD37" s="11">
         <v>79</v>
       </c>
-      <c r="CE37" s="11"/>
+      <c r="CE37" s="11">
+        <v>80</v>
+      </c>
       <c r="CF37" s="11"/>
       <c r="CG37" s="11"/>
       <c r="CH37" s="11"/>
@@ -25105,7 +25816,9 @@
       <c r="CD38" s="11">
         <v>20</v>
       </c>
-      <c r="CE38" s="11"/>
+      <c r="CE38" s="11">
+        <v>17</v>
+      </c>
       <c r="CF38" s="11"/>
       <c r="CG38" s="11"/>
       <c r="CH38" s="11"/>
@@ -25307,7 +26020,9 @@
       <c r="CD39" s="11">
         <v>58</v>
       </c>
-      <c r="CE39" s="11"/>
+      <c r="CE39" s="11">
+        <v>62</v>
+      </c>
       <c r="CF39" s="11"/>
       <c r="CG39" s="11"/>
       <c r="CH39" s="11"/>
@@ -25539,7 +26254,9 @@
       <c r="CD40" s="11">
         <v>2</v>
       </c>
-      <c r="CE40" s="11"/>
+      <c r="CE40" s="11">
+        <v>1</v>
+      </c>
       <c r="CF40" s="11"/>
       <c r="CG40" s="11"/>
       <c r="CH40" s="11"/>
@@ -25769,7 +26486,9 @@
       <c r="CD41" s="11">
         <v>22</v>
       </c>
-      <c r="CE41" s="11"/>
+      <c r="CE41" s="11">
+        <v>18</v>
+      </c>
       <c r="CF41" s="11"/>
       <c r="CG41" s="11"/>
       <c r="CH41" s="11"/>
@@ -26003,7 +26722,9 @@
       <c r="CD42" s="11">
         <v>265</v>
       </c>
-      <c r="CE42" s="11"/>
+      <c r="CE42" s="11">
+        <v>270</v>
+      </c>
       <c r="CF42" s="11"/>
       <c r="CG42" s="11"/>
       <c r="CH42" s="11"/>
@@ -26193,7 +26914,9 @@
       <c r="CD43" s="11">
         <v>1</v>
       </c>
-      <c r="CE43" s="11"/>
+      <c r="CE43" s="11">
+        <v>1</v>
+      </c>
       <c r="CF43" s="11"/>
       <c r="CG43" s="11"/>
       <c r="CH43" s="11"/>
@@ -26657,7 +27380,9 @@
       <c r="CD46" s="11">
         <v>193</v>
       </c>
-      <c r="CE46" s="11"/>
+      <c r="CE46" s="11">
+        <v>193</v>
+      </c>
       <c r="CF46" s="11"/>
       <c r="CG46" s="11"/>
       <c r="CH46" s="11"/>
@@ -26863,7 +27588,9 @@
       <c r="CD47" s="11">
         <v>17</v>
       </c>
-      <c r="CE47" s="11"/>
+      <c r="CE47" s="11">
+        <v>17</v>
+      </c>
       <c r="CF47" s="11"/>
       <c r="CG47" s="11"/>
       <c r="CH47" s="11"/>
@@ -27069,7 +27796,9 @@
       <c r="CD48" s="11">
         <v>170</v>
       </c>
-      <c r="CE48" s="11"/>
+      <c r="CE48" s="11">
+        <v>170</v>
+      </c>
       <c r="CF48" s="11"/>
       <c r="CG48" s="11"/>
       <c r="CH48" s="11"/>
@@ -27305,7 +28034,9 @@
       <c r="CD49" s="11">
         <v>518</v>
       </c>
-      <c r="CE49" s="11"/>
+      <c r="CE49" s="11">
+        <v>517</v>
+      </c>
       <c r="CF49" s="11"/>
       <c r="CG49" s="11"/>
       <c r="CH49" s="11"/>
@@ -27511,7 +28242,9 @@
       <c r="CD50" s="11">
         <v>535</v>
       </c>
-      <c r="CE50" s="11"/>
+      <c r="CE50" s="11">
+        <v>534</v>
+      </c>
       <c r="CF50" s="11"/>
       <c r="CG50" s="11"/>
       <c r="CH50" s="11"/>
@@ -27715,7 +28448,9 @@
       <c r="CD51" s="11">
         <v>805</v>
       </c>
-      <c r="CE51" s="11"/>
+      <c r="CE51" s="11">
+        <v>813</v>
+      </c>
       <c r="CF51" s="11"/>
       <c r="CG51" s="11"/>
       <c r="CH51" s="11"/>
@@ -27915,7 +28650,9 @@
       <c r="CD52" s="11">
         <v>1</v>
       </c>
-      <c r="CE52" s="11"/>
+      <c r="CE52" s="11">
+        <v>1</v>
+      </c>
       <c r="CF52" s="11"/>
       <c r="CG52" s="11"/>
       <c r="CH52" s="11"/>
@@ -28369,7 +29106,9 @@
       <c r="CD55" s="11">
         <v>29</v>
       </c>
-      <c r="CE55" s="11"/>
+      <c r="CE55" s="11">
+        <v>30</v>
+      </c>
       <c r="CF55" s="11"/>
       <c r="CG55" s="11"/>
       <c r="CH55" s="11"/>
@@ -28573,7 +29312,9 @@
       <c r="CD56" s="11">
         <v>12</v>
       </c>
-      <c r="CE56" s="11"/>
+      <c r="CE56" s="11">
+        <v>11</v>
+      </c>
       <c r="CF56" s="11"/>
       <c r="CG56" s="11"/>
       <c r="CH56" s="11"/>
@@ -28777,7 +29518,9 @@
       <c r="CD57" s="11">
         <v>16</v>
       </c>
-      <c r="CE57" s="11"/>
+      <c r="CE57" s="11">
+        <v>19</v>
+      </c>
       <c r="CF57" s="11"/>
       <c r="CG57" s="11"/>
       <c r="CH57" s="11"/>
@@ -29005,7 +29748,9 @@
       <c r="CD58" s="11">
         <v>19</v>
       </c>
-      <c r="CE58" s="11"/>
+      <c r="CE58" s="11">
+        <v>20</v>
+      </c>
       <c r="CF58" s="11"/>
       <c r="CG58" s="11"/>
       <c r="CH58" s="11"/>
@@ -29233,7 +29978,9 @@
       <c r="CD59" s="11">
         <v>31</v>
       </c>
-      <c r="CE59" s="11"/>
+      <c r="CE59" s="11">
+        <v>31</v>
+      </c>
       <c r="CF59" s="11"/>
       <c r="CG59" s="11"/>
       <c r="CH59" s="11"/>
@@ -29461,7 +30208,9 @@
       <c r="CD60" s="11">
         <v>132</v>
       </c>
-      <c r="CE60" s="11"/>
+      <c r="CE60" s="11">
+        <v>138</v>
+      </c>
       <c r="CF60" s="11"/>
       <c r="CG60" s="11"/>
       <c r="CH60" s="11"/>
@@ -29661,7 +30410,9 @@
       <c r="CD61" s="11">
         <v>1</v>
       </c>
-      <c r="CE61" s="11"/>
+      <c r="CE61" s="11">
+        <v>1</v>
+      </c>
       <c r="CF61" s="11"/>
       <c r="CG61" s="11"/>
       <c r="CH61" s="11"/>
@@ -30001,7 +30752,9 @@
       <c r="CD63" s="11">
         <v>11</v>
       </c>
-      <c r="CE63" s="11"/>
+      <c r="CE63" s="11">
+        <v>11</v>
+      </c>
       <c r="CF63" s="11"/>
       <c r="CG63" s="11"/>
       <c r="CH63" s="11"/>
@@ -30205,7 +30958,9 @@
       <c r="CD64" s="11">
         <v>4</v>
       </c>
-      <c r="CE64" s="11"/>
+      <c r="CE64" s="11">
+        <v>4</v>
+      </c>
       <c r="CF64" s="11"/>
       <c r="CG64" s="11"/>
       <c r="CH64" s="11"/>
@@ -30409,7 +31164,9 @@
       <c r="CD65" s="11">
         <v>7</v>
       </c>
-      <c r="CE65" s="11"/>
+      <c r="CE65" s="11">
+        <v>0</v>
+      </c>
       <c r="CF65" s="11"/>
       <c r="CG65" s="11"/>
       <c r="CH65" s="11"/>
@@ -30637,7 +31394,9 @@
       <c r="CD66" s="11">
         <v>43</v>
       </c>
-      <c r="CE66" s="11"/>
+      <c r="CE66" s="11">
+        <v>46</v>
+      </c>
       <c r="CF66" s="11"/>
       <c r="CG66" s="11"/>
       <c r="CH66" s="11"/>
@@ -30865,7 +31624,9 @@
       <c r="CD67" s="11">
         <v>47</v>
       </c>
-      <c r="CE67" s="11"/>
+      <c r="CE67" s="11">
+        <v>50</v>
+      </c>
       <c r="CF67" s="11"/>
       <c r="CG67" s="11"/>
       <c r="CH67" s="11"/>
@@ -31091,7 +31852,9 @@
       <c r="CD68" s="11">
         <v>0</v>
       </c>
-      <c r="CE68" s="11"/>
+      <c r="CE68" s="11">
+        <v>0</v>
+      </c>
       <c r="CF68" s="11"/>
       <c r="CG68" s="11"/>
       <c r="CH68" s="11"/>
@@ -31295,7 +32058,9 @@
       <c r="CD69" s="11">
         <v>0</v>
       </c>
-      <c r="CE69" s="11"/>
+      <c r="CE69" s="11">
+        <v>0</v>
+      </c>
       <c r="CF69" s="11"/>
       <c r="CG69" s="11"/>
       <c r="CH69" s="11"/>
@@ -31535,7 +32300,9 @@
       <c r="CD71" s="11">
         <v>10</v>
       </c>
-      <c r="CE71" s="11"/>
+      <c r="CE71" s="11">
+        <v>10</v>
+      </c>
       <c r="CF71" s="11"/>
       <c r="CG71" s="11"/>
       <c r="CH71" s="11"/>
@@ -31663,7 +32430,9 @@
       <c r="CD72" s="11">
         <v>7</v>
       </c>
-      <c r="CE72" s="11"/>
+      <c r="CE72" s="11">
+        <v>7</v>
+      </c>
       <c r="CF72" s="11"/>
       <c r="CG72" s="11"/>
       <c r="CH72" s="11"/>
@@ -31791,7 +32560,9 @@
       <c r="CD73" s="11">
         <v>3</v>
       </c>
-      <c r="CE73" s="11"/>
+      <c r="CE73" s="11">
+        <v>3</v>
+      </c>
       <c r="CF73" s="11"/>
       <c r="CG73" s="11"/>
       <c r="CH73" s="11"/>
@@ -31919,7 +32690,9 @@
       <c r="CD74" s="11">
         <v>15</v>
       </c>
-      <c r="CE74" s="11"/>
+      <c r="CE74" s="11">
+        <v>13</v>
+      </c>
       <c r="CF74" s="11"/>
       <c r="CG74" s="11"/>
       <c r="CH74" s="11"/>
@@ -32047,7 +32820,9 @@
       <c r="CD75" s="11">
         <v>22</v>
       </c>
-      <c r="CE75" s="11"/>
+      <c r="CE75" s="11">
+        <v>20</v>
+      </c>
       <c r="CF75" s="11"/>
       <c r="CG75" s="11"/>
       <c r="CH75" s="11"/>
@@ -32175,7 +32950,9 @@
       <c r="CD76" s="11">
         <v>23</v>
       </c>
-      <c r="CE76" s="11"/>
+      <c r="CE76" s="11">
+        <v>25</v>
+      </c>
       <c r="CF76" s="11"/>
       <c r="CG76" s="11"/>
       <c r="CH76" s="11"/>
@@ -32629,7 +33406,9 @@
       <c r="CD79" s="11">
         <v>292</v>
       </c>
-      <c r="CE79" s="11"/>
+      <c r="CE79" s="11">
+        <v>294</v>
+      </c>
       <c r="CF79" s="11"/>
       <c r="CG79" s="11"/>
       <c r="CH79" s="11"/>
@@ -32857,7 +33636,9 @@
       <c r="CD80" s="11">
         <v>190</v>
       </c>
-      <c r="CE80" s="11"/>
+      <c r="CE80" s="11">
+        <v>179</v>
+      </c>
       <c r="CF80" s="11"/>
       <c r="CG80" s="11"/>
       <c r="CH80" s="11"/>
@@ -33085,7 +33866,9 @@
       <c r="CD81" s="11">
         <v>154</v>
       </c>
-      <c r="CE81" s="11"/>
+      <c r="CE81" s="11">
+        <v>150</v>
+      </c>
       <c r="CF81" s="11"/>
       <c r="CG81" s="11"/>
       <c r="CH81" s="11"/>
@@ -33285,7 +34068,9 @@
       <c r="CD82" s="11">
         <v>16</v>
       </c>
-      <c r="CE82" s="11"/>
+      <c r="CE82" s="11">
+        <v>16</v>
+      </c>
       <c r="CF82" s="11"/>
       <c r="CG82" s="11"/>
       <c r="CH82" s="11"/>
@@ -33625,7 +34410,9 @@
       <c r="CD84" s="11">
         <v>110</v>
       </c>
-      <c r="CE84" s="11"/>
+      <c r="CE84" s="11">
+        <v>115</v>
+      </c>
       <c r="CF84" s="11"/>
       <c r="CG84" s="11"/>
       <c r="CH84" s="11"/>
@@ -33853,7 +34640,9 @@
       <c r="CD85" s="11">
         <v>4</v>
       </c>
-      <c r="CE85" s="11"/>
+      <c r="CE85" s="11">
+        <v>3</v>
+      </c>
       <c r="CF85" s="11"/>
       <c r="CG85" s="11"/>
       <c r="CH85" s="11"/>
@@ -34081,7 +34870,9 @@
       <c r="CD86" s="11">
         <v>114</v>
       </c>
-      <c r="CE86" s="11"/>
+      <c r="CE86" s="11">
+        <v>118</v>
+      </c>
       <c r="CF86" s="11"/>
       <c r="CG86" s="11"/>
       <c r="CH86" s="11"/>
@@ -34301,7 +35092,9 @@
       <c r="CD87" s="11">
         <v>180</v>
       </c>
-      <c r="CE87" s="11"/>
+      <c r="CE87" s="11">
+        <v>180</v>
+      </c>
       <c r="CF87" s="11"/>
       <c r="CG87" s="11"/>
       <c r="CH87" s="11"/>
@@ -34445,7 +35238,9 @@
       <c r="CD88" s="11">
         <v>1</v>
       </c>
-      <c r="CE88" s="11"/>
+      <c r="CE88" s="11">
+        <v>1</v>
+      </c>
       <c r="CF88" s="11"/>
       <c r="CG88" s="11"/>
       <c r="CH88" s="11"/>
@@ -34744,7 +35539,9 @@
       <c r="CD90" s="11">
         <v>79</v>
       </c>
-      <c r="CE90" s="11"/>
+      <c r="CE90" s="11">
+        <v>79</v>
+      </c>
       <c r="CF90" s="11"/>
       <c r="CG90" s="11"/>
       <c r="CH90" s="11"/>
@@ -34972,7 +35769,9 @@
       <c r="CD91" s="11">
         <v>49</v>
       </c>
-      <c r="CE91" s="11"/>
+      <c r="CE91" s="11">
+        <v>49</v>
+      </c>
       <c r="CF91" s="11"/>
       <c r="CG91" s="11"/>
       <c r="CH91" s="11"/>
@@ -35178,7 +35977,9 @@
       <c r="CD92" s="11">
         <v>130</v>
       </c>
-      <c r="CE92" s="11"/>
+      <c r="CE92" s="11">
+        <v>130</v>
+      </c>
       <c r="CF92" s="11"/>
       <c r="CG92" s="11"/>
       <c r="CH92" s="11"/>
@@ -35380,7 +36181,9 @@
       <c r="CD93" s="11">
         <v>13</v>
       </c>
-      <c r="CE93" s="11"/>
+      <c r="CE93" s="11">
+        <v>13</v>
+      </c>
       <c r="CF93" s="11"/>
       <c r="CG93" s="11"/>
       <c r="CH93" s="11"/>
@@ -35606,7 +36409,9 @@
       <c r="CD94" s="11">
         <v>13</v>
       </c>
-      <c r="CE94" s="11"/>
+      <c r="CE94" s="11">
+        <v>13</v>
+      </c>
       <c r="CF94" s="11"/>
       <c r="CG94" s="11"/>
       <c r="CH94" s="11"/>
@@ -35891,7 +36696,9 @@
       <c r="CD96" s="11">
         <v>179</v>
       </c>
-      <c r="CE96" s="11"/>
+      <c r="CE96" s="11">
+        <v>182</v>
+      </c>
       <c r="CF96" s="11"/>
       <c r="CG96" s="11"/>
       <c r="CH96" s="11"/>
@@ -36065,7 +36872,9 @@
       <c r="CD97" s="11">
         <v>41</v>
       </c>
-      <c r="CE97" s="11"/>
+      <c r="CE97" s="11">
+        <v>47</v>
+      </c>
       <c r="CF97" s="11"/>
       <c r="CG97" s="11"/>
       <c r="CH97" s="11"/>
@@ -36239,7 +37048,9 @@
       <c r="CD98" s="11">
         <v>25</v>
       </c>
-      <c r="CE98" s="11"/>
+      <c r="CE98" s="11">
+        <v>25</v>
+      </c>
       <c r="CF98" s="11"/>
       <c r="CG98" s="11"/>
       <c r="CH98" s="11"/>
@@ -36346,11 +37157,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51A914D-4CED-7A43-8BD6-4514AC12DE8C}">
-  <dimension ref="A1:C980"/>
+  <dimension ref="A1:C1032"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A910" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A929" sqref="A929"/>
+      <pane ySplit="1" topLeftCell="A973" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1036" sqref="A1036"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -47140,6 +47951,578 @@
         <v>4</v>
       </c>
     </row>
+    <row r="981" spans="1:3">
+      <c r="A981" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B981" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C981" s="19">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3">
+      <c r="A982" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B982" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C982" s="19">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3">
+      <c r="A983" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B983" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C983" s="19">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3">
+      <c r="A984" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B984" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C984" s="19">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3">
+      <c r="A985" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B985" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C985" s="19">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3">
+      <c r="A986" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B986" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C986" s="19">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3">
+      <c r="A987" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B987" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C987" s="19">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3">
+      <c r="A988" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B988" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C988" s="19">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3">
+      <c r="A989" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B989" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C989" s="19">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3">
+      <c r="A990" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B990" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C990" s="19">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3">
+      <c r="A991" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B991" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C991" s="19">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3">
+      <c r="A992" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B992" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C992" s="19">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3">
+      <c r="A993" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B993" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C993" s="19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3">
+      <c r="A994" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B994" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C994" s="19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3">
+      <c r="A995" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B995" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C995" s="19">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3">
+      <c r="A996" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B996" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C996" s="19">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3">
+      <c r="A997" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B997" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C997" s="19">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3">
+      <c r="A998" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B998" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C998" s="19">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3">
+      <c r="A999" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B999" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C999" s="19">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3">
+      <c r="A1000" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1000" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1000" s="19">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3">
+      <c r="A1001" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1001" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1001" s="19">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3">
+      <c r="A1002" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1002" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1002" s="19">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3">
+      <c r="A1003" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1003" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1003" s="19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3">
+      <c r="A1004" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1004" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1004" s="19">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3">
+      <c r="A1005" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1005" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1005" s="19">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3">
+      <c r="A1006" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1006" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1006" s="19">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3">
+      <c r="A1007" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1007" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1007" s="19">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3">
+      <c r="A1008" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1008" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1008" s="19">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3">
+      <c r="A1009" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1009" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1009" s="19">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3">
+      <c r="A1010" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1010" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1010" s="19">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3">
+      <c r="A1011" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1011" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1011" s="19">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3">
+      <c r="A1012" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1012" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1012" s="19">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3">
+      <c r="A1013" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1013" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1013" s="19">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3">
+      <c r="A1014" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1014" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1014" s="19">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3">
+      <c r="A1015" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1015" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1015" s="19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3">
+      <c r="A1016" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1016" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1016" s="19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3">
+      <c r="A1017" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1017" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1017" s="19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3">
+      <c r="A1018" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1018" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1018" s="19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3">
+      <c r="A1019" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1019" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1019" s="19">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3">
+      <c r="A1020" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1020" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1020" s="19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3">
+      <c r="A1021" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1021" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1021" s="19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3">
+      <c r="A1022" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1022" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1022" s="19">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3">
+      <c r="A1023" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1023" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1023" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3">
+      <c r="A1024" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1024" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1024" s="19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3">
+      <c r="A1025" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1025" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1025" s="19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3">
+      <c r="A1026" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1026" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1026" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3">
+      <c r="A1027" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1027" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1027" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3">
+      <c r="A1028" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1028" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1028" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3">
+      <c r="A1029" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1029" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1029" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3">
+      <c r="A1030" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1030" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1030" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3">
+      <c r="A1031" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1031" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1031" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3">
+      <c r="A1032" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B1032" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1032" s="19">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4761F316-50D4-124F-80DA-00BB6584E777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="12" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Hospital Data" sheetId="12" r:id="rId12"/>
     <sheet name="Rates by Age Categories" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="202">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -846,7 +846,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -907,6 +907,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -916,7 +917,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -1240,14 +1243,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="19">
+    <row r="1" spans="1:1" ht="18.95">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19">
+    <row r="2" spans="1:1" ht="18.95">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1259,18 +1262,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0704107B-CC38-954F-8D77-0E0C2F291C39}">
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:C310"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A310" sqref="A260:A310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4119,6 +4122,567 @@
         <v>161</v>
       </c>
       <c r="C259" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B260" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C260" s="20">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C261" s="20">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B262" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C262" s="20">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B263" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C263" s="20">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B264" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C264" s="20">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B265" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C265" s="20">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B266" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C266" s="20">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B267" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C267" s="20">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B268" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C268" s="20">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B269" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C269" s="20">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B270" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C270" s="20">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B271" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C271" s="20">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B272" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C272" s="20">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B273" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C273" s="20">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B274" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C274" s="19">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B275" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C275" s="19">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B276" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C276" s="19">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B277" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C277" s="19">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B278" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C278" s="19">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B279" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C279" s="19">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B280" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C280" s="19">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B281" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C281" s="19">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B282" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C282" s="19">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B283" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C283" s="19">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B284" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C284" s="19">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B285" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C285" s="19">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B286" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C286" s="19">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B287" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C287" s="19">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B288" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C288" s="19">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B289" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C289" s="19">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B290" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C290" s="19">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B291" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C291" s="19">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B292" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C292" s="19">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B293" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C293" s="19">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B294" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C294" s="19">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B295" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C295" s="19">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B296" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C296" s="19">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B297" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C297" s="19">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B298" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C298" s="19">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B299" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C299" s="19">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B300" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C300" s="19">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B301" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C301" s="19">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B302" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C302" s="19">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B303" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C303" s="19">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B304" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C304" s="19">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B305" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C305" s="19">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B306" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C306" s="19">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B307" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C307" s="19">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B308" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C308" s="19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B309" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C309" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B310" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C310" s="19">
         <v>13</v>
       </c>
     </row>
@@ -4132,15 +4696,15 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31">
+    <row r="1" spans="1:2" ht="30.95">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -4153,7 +4717,7 @@
         <v>164</v>
       </c>
       <c r="B2" s="18">
-        <v>1498.1</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4161,7 +4725,7 @@
         <v>165</v>
       </c>
       <c r="B3" s="18">
-        <v>707</v>
+        <v>709.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4169,7 +4733,7 @@
         <v>166</v>
       </c>
       <c r="B4" s="18">
-        <v>439.8</v>
+        <v>442.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4177,7 +4741,7 @@
         <v>167</v>
       </c>
       <c r="B5" s="18">
-        <v>1985</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4185,7 +4749,7 @@
         <v>168</v>
       </c>
       <c r="B6" s="18">
-        <v>1396.8</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4193,7 +4757,7 @@
         <v>169</v>
       </c>
       <c r="B7" s="18">
-        <v>776</v>
+        <v>788.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4201,7 +4765,7 @@
         <v>170</v>
       </c>
       <c r="B8" s="18">
-        <v>1460.6</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4209,22 +4773,22 @@
         <v>171</v>
       </c>
       <c r="B9" s="23">
-        <v>1550.7</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4238,20 +4802,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7943BA5F-E71E-CD41-AA11-6C89A2B51AB2}">
   <dimension ref="A1:G369"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="C45" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="24"/>
-    <col min="2" max="2" width="21.5" style="31" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="31" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="24"/>
+    <col min="2" max="2" width="21.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="105">
@@ -5587,13 +6151,27 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="26"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
+      <c r="A59" s="26">
+        <v>43978</v>
+      </c>
+      <c r="B59" s="28">
+        <v>1939</v>
+      </c>
+      <c r="C59" s="28">
+        <v>0</v>
+      </c>
+      <c r="D59" s="28">
+        <v>343</v>
+      </c>
+      <c r="E59" s="28">
+        <v>218</v>
+      </c>
+      <c r="F59" s="28">
+        <v>0</v>
+      </c>
+      <c r="G59" s="28">
+        <v>65</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="26"/>
@@ -8394,18 +8972,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC5DB9-885C-0D44-A0ED-5EB8D004D1EE}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31">
+    <row r="1" spans="1:5" ht="30.95">
       <c r="A1" s="33" t="s">
         <v>187</v>
       </c>
@@ -8430,13 +9008,13 @@
         <v>192</v>
       </c>
       <c r="C2" s="6">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D2" s="6">
         <v>1.2</v>
       </c>
       <c r="E2" s="6">
-        <v>215.4</v>
+        <v>230.8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8447,13 +9025,13 @@
         <v>193</v>
       </c>
       <c r="C3" s="6">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D3" s="6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E3" s="6">
-        <v>243</v>
+        <v>250.6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8464,13 +9042,13 @@
         <v>194</v>
       </c>
       <c r="C4" s="6">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D4" s="6">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E4" s="6">
-        <v>503.2</v>
+        <v>524.20000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8481,13 +9059,13 @@
         <v>195</v>
       </c>
       <c r="C5" s="6">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D5" s="6">
         <v>5.5</v>
       </c>
       <c r="E5" s="6">
-        <v>879.6</v>
+        <v>883.4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8498,13 +9076,13 @@
         <v>196</v>
       </c>
       <c r="C6" s="6">
-        <v>1570</v>
+        <v>1586</v>
       </c>
       <c r="D6" s="6">
         <v>18.7</v>
       </c>
       <c r="E6" s="6">
-        <v>960.4</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8515,13 +9093,13 @@
         <v>197</v>
       </c>
       <c r="C7" s="6">
-        <v>1518</v>
+        <v>1531</v>
       </c>
       <c r="D7" s="6">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="E7" s="37">
-        <v>1438.4</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="34">
+        <v>1450.7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8532,13 +9110,13 @@
         <v>198</v>
       </c>
       <c r="C8" s="6">
-        <v>1313</v>
+        <v>1328</v>
       </c>
       <c r="D8" s="6">
-        <v>15.6</v>
-      </c>
-      <c r="E8" s="37">
-        <v>1738.5</v>
+        <v>15.7</v>
+      </c>
+      <c r="E8" s="34">
+        <v>1758.3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8549,13 +9127,13 @@
         <v>199</v>
       </c>
       <c r="C9" s="6">
-        <v>1389</v>
+        <v>1398</v>
       </c>
       <c r="D9" s="6">
         <v>16.5</v>
       </c>
-      <c r="E9" s="37">
-        <v>1983.7</v>
+      <c r="E9" s="34">
+        <v>1996.5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8566,13 +9144,13 @@
         <v>200</v>
       </c>
       <c r="C10" s="6">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D10" s="6">
-        <v>10.8</v>
-      </c>
-      <c r="E10" s="37">
-        <v>1851.2</v>
+        <v>10.7</v>
+      </c>
+      <c r="E10" s="34">
+        <v>1857.4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8583,13 +9161,13 @@
         <v>201</v>
       </c>
       <c r="C11" s="6">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="D11" s="6">
         <v>9.6</v>
       </c>
-      <c r="E11" s="37">
-        <v>2201.5</v>
+      <c r="E11" s="34">
+        <v>2223.1999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8602,14 +9180,14 @@
   <dimension ref="A1:BQ21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM2" sqref="AM2"/>
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="31" max="39" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="31" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
@@ -8730,7 +9308,9 @@
       <c r="AM1" s="4">
         <v>43977</v>
       </c>
-      <c r="AN1" s="4"/>
+      <c r="AN1" s="4">
+        <v>43978</v>
+      </c>
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
       <c r="AQ1" s="4"/>
@@ -8880,7 +9460,9 @@
       <c r="AM2" s="14">
         <v>445</v>
       </c>
-      <c r="AN2" s="14"/>
+      <c r="AN2" s="14">
+        <v>453</v>
+      </c>
       <c r="AO2" s="14"/>
       <c r="AP2" s="14"/>
       <c r="AQ2" s="14"/>
@@ -9029,7 +9611,9 @@
       <c r="AM3" s="7">
         <v>45</v>
       </c>
-      <c r="AN3" s="7"/>
+      <c r="AN3" s="7">
+        <v>46</v>
+      </c>
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
@@ -9178,7 +9762,9 @@
       <c r="AM4" s="7">
         <v>27</v>
       </c>
-      <c r="AN4" s="7"/>
+      <c r="AN4" s="7">
+        <v>27</v>
+      </c>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
@@ -9327,7 +9913,9 @@
       <c r="AM5" s="7">
         <v>30</v>
       </c>
-      <c r="AN5" s="7"/>
+      <c r="AN5" s="7">
+        <v>30</v>
+      </c>
       <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
@@ -9476,7 +10064,9 @@
       <c r="AM6" s="7">
         <v>63</v>
       </c>
-      <c r="AN6" s="7"/>
+      <c r="AN6" s="7">
+        <v>64</v>
+      </c>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
@@ -9625,7 +10215,9 @@
       <c r="AM7" s="7">
         <v>69</v>
       </c>
-      <c r="AN7" s="7"/>
+      <c r="AN7" s="7">
+        <v>72</v>
+      </c>
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
@@ -9774,7 +10366,9 @@
       <c r="AM8" s="7">
         <v>41</v>
       </c>
-      <c r="AN8" s="7"/>
+      <c r="AN8" s="7">
+        <v>41</v>
+      </c>
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
@@ -9923,7 +10517,9 @@
       <c r="AM9" s="7">
         <v>62</v>
       </c>
-      <c r="AN9" s="7"/>
+      <c r="AN9" s="7">
+        <v>64</v>
+      </c>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
@@ -10072,7 +10668,9 @@
       <c r="AM10" s="7">
         <v>92</v>
       </c>
-      <c r="AN10" s="7"/>
+      <c r="AN10" s="7">
+        <v>93</v>
+      </c>
       <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
@@ -10221,7 +10819,9 @@
       <c r="AM11" s="7">
         <v>16</v>
       </c>
-      <c r="AN11" s="7"/>
+      <c r="AN11" s="7">
+        <v>16</v>
+      </c>
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
@@ -10368,7 +10968,9 @@
       <c r="AM12" s="7">
         <v>0</v>
       </c>
-      <c r="AN12" s="7"/>
+      <c r="AN12" s="7">
+        <v>0</v>
+      </c>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
@@ -10437,15 +11039,15 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
     <col min="3" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="17.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -10471,13 +11073,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="27">
-        <v>8403</v>
+        <v>8492</v>
       </c>
       <c r="C2" s="27">
-        <v>4169</v>
+        <v>4208</v>
       </c>
       <c r="D2" s="27">
-        <v>4215</v>
+        <v>4265</v>
       </c>
       <c r="E2" s="27">
         <v>19</v>
@@ -10488,13 +11090,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -10505,13 +11107,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="27">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
@@ -10522,13 +11124,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="27">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C5" s="7">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D5" s="7">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -10539,13 +11141,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="27">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C6" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D6" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -10556,13 +11158,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="27">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C7" s="7">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7" s="7">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -10573,13 +11175,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="27">
-        <v>1570</v>
+        <v>1586</v>
       </c>
       <c r="C8" s="7">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="D8" s="7">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -10590,13 +11192,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="27">
-        <v>1518</v>
+        <v>1531</v>
       </c>
       <c r="C9" s="7">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="D9" s="7">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -10607,13 +11209,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="27">
-        <v>1313</v>
+        <v>1328</v>
       </c>
       <c r="C10" s="7">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="D10" s="7">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -10624,13 +11226,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="27">
-        <v>1389</v>
+        <v>1398</v>
       </c>
       <c r="C11" s="7">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D11" s="7">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -10641,13 +11243,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="27">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C12" s="7">
         <v>427</v>
       </c>
       <c r="D12" s="7">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
@@ -10658,25 +11260,25 @@
         <v>20</v>
       </c>
       <c r="B13" s="27">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="C13" s="7">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D13" s="7">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="58" customHeight="1">
-      <c r="B14" s="34" t="s">
+    <row r="14" spans="1:5" ht="57.95" customHeight="1">
+      <c r="B14" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10691,15 +11293,15 @@
   <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG10" sqref="BG10"/>
+      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH6" sqref="BH6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="42" max="90" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="42" max="90" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90">
@@ -10969,7 +11571,9 @@
       <c r="BF2" s="4">
         <v>43977</v>
       </c>
-      <c r="BG2" s="4"/>
+      <c r="BG2" s="4">
+        <v>43978</v>
+      </c>
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
@@ -11174,10 +11778,12 @@
       <c r="BE3" s="7">
         <v>1166</v>
       </c>
-      <c r="BF3" s="7">
+      <c r="BF3" s="38">
         <v>1178</v>
       </c>
-      <c r="BG3" s="7"/>
+      <c r="BG3" s="38">
+        <v>1188</v>
+      </c>
       <c r="BH3" s="7"/>
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7"/>
@@ -11382,10 +11988,12 @@
       <c r="BE4" s="7">
         <v>508</v>
       </c>
-      <c r="BF4" s="7">
+      <c r="BF4" s="38">
         <v>509</v>
       </c>
-      <c r="BG4" s="7"/>
+      <c r="BG4" s="38">
+        <v>511</v>
+      </c>
       <c r="BH4" s="7"/>
       <c r="BI4" s="7"/>
       <c r="BJ4" s="7"/>
@@ -11590,10 +12198,12 @@
       <c r="BE5" s="7">
         <v>410</v>
       </c>
-      <c r="BF5" s="7">
+      <c r="BF5" s="38">
         <v>411</v>
       </c>
-      <c r="BG5" s="7"/>
+      <c r="BG5" s="38">
+        <v>413</v>
+      </c>
       <c r="BH5" s="7"/>
       <c r="BI5" s="7"/>
       <c r="BJ5" s="7"/>
@@ -11798,10 +12408,12 @@
       <c r="BE6" s="7">
         <v>1759</v>
       </c>
-      <c r="BF6" s="7">
+      <c r="BF6" s="38">
         <v>1771</v>
       </c>
-      <c r="BG6" s="7"/>
+      <c r="BG6" s="38">
+        <v>1785</v>
+      </c>
       <c r="BH6" s="7"/>
       <c r="BI6" s="7"/>
       <c r="BJ6" s="7"/>
@@ -12006,10 +12618,12 @@
       <c r="BE7" s="7">
         <v>1303</v>
       </c>
-      <c r="BF7" s="7">
+      <c r="BF7" s="38">
         <v>1315</v>
       </c>
-      <c r="BG7" s="7"/>
+      <c r="BG7" s="38">
+        <v>1327</v>
+      </c>
       <c r="BH7" s="7"/>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="7"/>
@@ -12214,10 +12828,12 @@
       <c r="BE8" s="7">
         <v>709</v>
       </c>
-      <c r="BF8" s="7">
+      <c r="BF8" s="38">
         <v>713</v>
       </c>
-      <c r="BG8" s="7"/>
+      <c r="BG8" s="38">
+        <v>722</v>
+      </c>
       <c r="BH8" s="7"/>
       <c r="BI8" s="7"/>
       <c r="BJ8" s="7"/>
@@ -12422,10 +13038,12 @@
       <c r="BE9" s="7">
         <v>1194</v>
       </c>
-      <c r="BF9" s="7">
+      <c r="BF9" s="38">
         <v>1204</v>
       </c>
-      <c r="BG9" s="7"/>
+      <c r="BG9" s="38">
+        <v>1219</v>
+      </c>
       <c r="BH9" s="7"/>
       <c r="BI9" s="7"/>
       <c r="BJ9" s="7"/>
@@ -12630,10 +13248,12 @@
       <c r="BE10" s="7">
         <v>1156</v>
       </c>
-      <c r="BF10" s="7">
+      <c r="BF10" s="38">
         <v>1174</v>
       </c>
-      <c r="BG10" s="7"/>
+      <c r="BG10" s="38">
+        <v>1191</v>
+      </c>
       <c r="BH10" s="7"/>
       <c r="BI10" s="7"/>
       <c r="BJ10" s="7"/>
@@ -12838,10 +13458,12 @@
       <c r="BE11" s="7">
         <v>129</v>
       </c>
-      <c r="BF11" s="7">
+      <c r="BF11" s="38">
         <v>131</v>
       </c>
-      <c r="BG11" s="7"/>
+      <c r="BG11" s="38">
+        <v>136</v>
+      </c>
       <c r="BH11" s="7"/>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="7"/>
@@ -12885,20 +13507,20 @@
   <dimension ref="A1:CE19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AZ2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="BE5" sqref="BE5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB10" sqref="BB10:BB13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="54" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="55" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83">
@@ -13064,7 +13686,9 @@
       <c r="BB1" s="4">
         <v>43977</v>
       </c>
-      <c r="BC1" s="4"/>
+      <c r="BC1" s="4">
+        <v>43978</v>
+      </c>
       <c r="BD1" s="4"/>
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>
@@ -13257,7 +13881,9 @@
       <c r="BB2" s="7">
         <v>1028</v>
       </c>
-      <c r="BC2" s="7"/>
+      <c r="BC2" s="38">
+        <v>1006</v>
+      </c>
       <c r="BD2" s="7"/>
       <c r="BE2" s="7"/>
       <c r="BF2" s="7"/>
@@ -13450,7 +14076,9 @@
       <c r="BB3" s="7">
         <v>1293</v>
       </c>
-      <c r="BC3" s="7"/>
+      <c r="BC3" s="38">
+        <v>1300</v>
+      </c>
       <c r="BD3" s="7"/>
       <c r="BE3" s="7"/>
       <c r="BF3" s="7"/>
@@ -13643,7 +14271,9 @@
       <c r="BB4" s="7">
         <v>3839</v>
       </c>
-      <c r="BC4" s="7"/>
+      <c r="BC4" s="38">
+        <v>3896</v>
+      </c>
       <c r="BD4" s="7"/>
       <c r="BE4" s="7"/>
       <c r="BF4" s="7"/>
@@ -13836,7 +14466,9 @@
       <c r="BB5" s="7">
         <v>104</v>
       </c>
-      <c r="BC5" s="7"/>
+      <c r="BC5" s="38">
+        <v>106</v>
+      </c>
       <c r="BD5" s="7"/>
       <c r="BE5" s="7"/>
       <c r="BF5" s="7"/>
@@ -14029,7 +14661,9 @@
       <c r="BB6" s="7">
         <v>24</v>
       </c>
-      <c r="BC6" s="7"/>
+      <c r="BC6" s="38">
+        <v>24</v>
+      </c>
       <c r="BD6" s="7"/>
       <c r="BE6" s="7"/>
       <c r="BF6" s="7"/>
@@ -14218,7 +14852,9 @@
       <c r="BB7" s="7">
         <v>20</v>
       </c>
-      <c r="BC7" s="7"/>
+      <c r="BC7" s="38">
+        <v>20</v>
+      </c>
       <c r="BD7" s="7"/>
       <c r="BE7" s="7"/>
       <c r="BF7" s="7"/>
@@ -14411,7 +15047,9 @@
       <c r="BB8" s="7">
         <v>2051</v>
       </c>
-      <c r="BC8" s="7"/>
+      <c r="BC8" s="38">
+        <v>2092</v>
+      </c>
       <c r="BD8" s="7"/>
       <c r="BE8" s="7"/>
       <c r="BF8" s="7"/>
@@ -14604,7 +15242,9 @@
       <c r="BB9" s="7">
         <v>47</v>
       </c>
-      <c r="BC9" s="7"/>
+      <c r="BC9" s="38">
+        <v>48</v>
+      </c>
       <c r="BD9" s="7"/>
       <c r="BE9" s="7"/>
       <c r="BF9" s="7"/>
@@ -14797,7 +15437,9 @@
       <c r="BB10" s="7">
         <v>1612</v>
       </c>
-      <c r="BC10" s="7"/>
+      <c r="BC10" s="38">
+        <v>1618</v>
+      </c>
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
       <c r="BF10" s="7"/>
@@ -14990,7 +15632,9 @@
       <c r="BB11" s="7">
         <v>2138</v>
       </c>
-      <c r="BC11" s="7"/>
+      <c r="BC11" s="38">
+        <v>2173</v>
+      </c>
       <c r="BD11" s="7"/>
       <c r="BE11" s="7"/>
       <c r="BF11" s="7"/>
@@ -15183,7 +15827,9 @@
       <c r="BB12" s="7">
         <v>4630</v>
       </c>
-      <c r="BC12" s="7"/>
+      <c r="BC12" s="38">
+        <v>4674</v>
+      </c>
       <c r="BD12" s="7"/>
       <c r="BE12" s="7"/>
       <c r="BF12" s="7"/>
@@ -15376,7 +16022,9 @@
       <c r="BB13" s="7">
         <v>26</v>
       </c>
-      <c r="BC13" s="7"/>
+      <c r="BC13" s="38">
+        <v>27</v>
+      </c>
       <c r="BD13" s="7"/>
       <c r="BE13" s="7"/>
       <c r="BF13" s="7"/>
@@ -15681,14 +16329,14 @@
   <dimension ref="A1:CH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC5" sqref="BC5"/>
+      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB8" sqref="BB8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="45" max="53" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="45" max="54" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86">
@@ -15849,7 +16497,9 @@
       <c r="BA1" s="4">
         <v>43977</v>
       </c>
-      <c r="BB1" s="4"/>
+      <c r="BB1" s="4">
+        <v>43978</v>
+      </c>
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
       <c r="BE1" s="4"/>
@@ -16133,7 +16783,9 @@
       <c r="BA3" s="7">
         <v>7</v>
       </c>
-      <c r="BB3" s="7"/>
+      <c r="BB3" s="7">
+        <v>7</v>
+      </c>
       <c r="BC3" s="7"/>
       <c r="BD3" s="7"/>
       <c r="BE3" s="7"/>
@@ -16327,7 +16979,9 @@
       <c r="BA4" s="7">
         <v>335</v>
       </c>
-      <c r="BB4" s="7"/>
+      <c r="BB4" s="7">
+        <v>339</v>
+      </c>
       <c r="BC4" s="7"/>
       <c r="BD4" s="7"/>
       <c r="BE4" s="7"/>
@@ -16521,7 +17175,9 @@
       <c r="BA5" s="7">
         <v>49</v>
       </c>
-      <c r="BB5" s="7"/>
+      <c r="BB5" s="7">
+        <v>51</v>
+      </c>
       <c r="BC5" s="7"/>
       <c r="BD5" s="7"/>
       <c r="BE5" s="7"/>
@@ -16715,7 +17371,9 @@
       <c r="BA6" s="7">
         <v>50</v>
       </c>
-      <c r="BB6" s="7"/>
+      <c r="BB6" s="7">
+        <v>52</v>
+      </c>
       <c r="BC6" s="7"/>
       <c r="BD6" s="7"/>
       <c r="BE6" s="7"/>
@@ -16907,7 +17565,9 @@
       <c r="BA7" s="7">
         <v>4</v>
       </c>
-      <c r="BB7" s="7"/>
+      <c r="BB7" s="7">
+        <v>4</v>
+      </c>
       <c r="BC7" s="7"/>
       <c r="BD7" s="7"/>
       <c r="BE7" s="7"/>
@@ -17335,15 +17995,15 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="90" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="90" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90">
@@ -17451,7 +18111,9 @@
       <c r="D2" s="4">
         <v>43976</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>43977</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -17551,7 +18213,9 @@
       <c r="D3" s="7">
         <v>4767</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>4836</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -17651,7 +18315,9 @@
       <c r="D4" s="7">
         <v>3678</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7">
+        <v>3412</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -17751,7 +18417,9 @@
       <c r="D5" s="7">
         <v>3471</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>3540</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -17851,7 +18519,9 @@
       <c r="D6" s="7">
         <v>6342</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>6410</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -17951,7 +18621,9 @@
       <c r="D7" s="7">
         <v>5862</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7">
+        <v>5928</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -18051,7 +18723,9 @@
       <c r="D8" s="7">
         <v>4816</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>4911</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -18151,7 +18825,9 @@
       <c r="D9" s="7">
         <v>5446</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7">
+        <v>5773</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -18251,7 +18927,9 @@
       <c r="D10" s="7">
         <v>5815</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7">
+        <v>5909</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -18351,7 +19029,9 @@
       <c r="D11" s="7">
         <v>1982</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <v>2101</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -18485,18 +19165,18 @@
   <dimension ref="A1:DF99"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CF21" sqref="CF21"/>
+      <pane xSplit="2" topLeftCell="CD86" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CF100" sqref="CF100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="110" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="110" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:110">
@@ -18745,7 +19425,9 @@
       <c r="CE1" s="4">
         <v>43977</v>
       </c>
-      <c r="CF1" s="4"/>
+      <c r="CF1" s="4">
+        <v>43978</v>
+      </c>
       <c r="CG1" s="4"/>
       <c r="CH1" s="4"/>
       <c r="CI1" s="4"/>
@@ -19125,7 +19807,9 @@
       <c r="CE3" s="11">
         <v>42697</v>
       </c>
-      <c r="CF3" s="11"/>
+      <c r="CF3" s="11">
+        <v>43514</v>
+      </c>
       <c r="CG3" s="11"/>
       <c r="CH3" s="11"/>
       <c r="CI3" s="11"/>
@@ -19251,7 +19935,9 @@
       <c r="CE4" s="11">
         <v>35682</v>
       </c>
-      <c r="CF4" s="11"/>
+      <c r="CF4" s="11">
+        <v>36284</v>
+      </c>
       <c r="CG4" s="11"/>
       <c r="CH4" s="11"/>
       <c r="CI4" s="11"/>
@@ -19529,7 +20215,9 @@
       <c r="CE5" s="11">
         <v>8406</v>
       </c>
-      <c r="CF5" s="11"/>
+      <c r="CF5" s="11">
+        <v>8492</v>
+      </c>
       <c r="CG5" s="11"/>
       <c r="CH5" s="11"/>
       <c r="CI5" s="11"/>
@@ -19795,7 +20483,9 @@
       <c r="CE6" s="11">
         <v>445</v>
       </c>
-      <c r="CF6" s="11"/>
+      <c r="CF6" s="11">
+        <v>453</v>
+      </c>
       <c r="CG6" s="11"/>
       <c r="CH6" s="11"/>
       <c r="CI6" s="11"/>
@@ -20041,7 +20731,9 @@
       <c r="CE7" s="11">
         <v>1082</v>
       </c>
-      <c r="CF7" s="11"/>
+      <c r="CF7" s="11">
+        <v>1082</v>
+      </c>
       <c r="CG7" s="11"/>
       <c r="CH7" s="11"/>
       <c r="CI7" s="11"/>
@@ -20327,7 +21019,9 @@
       <c r="CE9" s="11">
         <v>345</v>
       </c>
-      <c r="CF9" s="11"/>
+      <c r="CF9" s="11">
+        <v>345</v>
+      </c>
       <c r="CG9" s="11"/>
       <c r="CH9" s="11"/>
       <c r="CI9" s="11"/>
@@ -20569,7 +21263,9 @@
       <c r="CE10" s="11">
         <v>80</v>
       </c>
-      <c r="CF10" s="11"/>
+      <c r="CF10" s="11">
+        <v>76</v>
+      </c>
       <c r="CG10" s="11"/>
       <c r="CH10" s="11"/>
       <c r="CI10" s="11"/>
@@ -20811,7 +21507,9 @@
       <c r="CE11" s="11">
         <v>440</v>
       </c>
-      <c r="CF11" s="11"/>
+      <c r="CF11" s="11">
+        <v>440</v>
+      </c>
       <c r="CG11" s="11"/>
       <c r="CH11" s="11"/>
       <c r="CI11" s="11"/>
@@ -21053,7 +21751,9 @@
       <c r="CE12" s="11">
         <v>214</v>
       </c>
-      <c r="CF12" s="11"/>
+      <c r="CF12" s="11">
+        <v>218</v>
+      </c>
       <c r="CG12" s="11"/>
       <c r="CH12" s="11"/>
       <c r="CI12" s="11"/>
@@ -21295,7 +21995,9 @@
       <c r="CE13" s="11">
         <v>226</v>
       </c>
-      <c r="CF13" s="11"/>
+      <c r="CF13" s="11">
+        <v>222</v>
+      </c>
       <c r="CG13" s="11"/>
       <c r="CH13" s="11"/>
       <c r="CI13" s="11"/>
@@ -21445,7 +22147,9 @@
       <c r="CE14" s="11">
         <v>349</v>
       </c>
-      <c r="CF14" s="11"/>
+      <c r="CF14" s="11">
+        <v>343</v>
+      </c>
       <c r="CG14" s="11"/>
       <c r="CH14" s="11"/>
       <c r="CI14" s="11"/>
@@ -21575,7 +22279,9 @@
       <c r="CE15" s="11">
         <v>113</v>
       </c>
-      <c r="CF15" s="11"/>
+      <c r="CF15" s="11">
+        <v>108</v>
+      </c>
       <c r="CG15" s="11"/>
       <c r="CH15" s="11"/>
       <c r="CI15" s="11"/>
@@ -21725,7 +22431,9 @@
       <c r="CE16" s="11">
         <v>1851</v>
       </c>
-      <c r="CF16" s="11"/>
+      <c r="CF16" s="11">
+        <v>1939</v>
+      </c>
       <c r="CG16" s="11"/>
       <c r="CH16" s="11"/>
       <c r="CI16" s="11"/>
@@ -22423,7 +23131,9 @@
       <c r="CE21" s="11">
         <v>107</v>
       </c>
-      <c r="CF21" s="11"/>
+      <c r="CF21" s="11">
+        <v>107</v>
+      </c>
       <c r="CG21" s="11"/>
       <c r="CH21" s="11"/>
       <c r="CI21" s="11"/>
@@ -22631,7 +23341,9 @@
       <c r="CE22" s="11">
         <v>18</v>
       </c>
-      <c r="CF22" s="11"/>
+      <c r="CF22" s="11">
+        <v>18</v>
+      </c>
       <c r="CG22" s="11"/>
       <c r="CH22" s="11"/>
       <c r="CI22" s="11"/>
@@ -22839,7 +23551,9 @@
       <c r="CE23" s="11">
         <v>89</v>
       </c>
-      <c r="CF23" s="11"/>
+      <c r="CF23" s="11">
+        <v>89</v>
+      </c>
       <c r="CG23" s="11"/>
       <c r="CH23" s="11"/>
       <c r="CI23" s="11"/>
@@ -23077,7 +23791,9 @@
       <c r="CE24" s="11">
         <v>161</v>
       </c>
-      <c r="CF24" s="11"/>
+      <c r="CF24" s="11">
+        <v>154</v>
+      </c>
       <c r="CG24" s="11"/>
       <c r="CH24" s="11"/>
       <c r="CI24" s="11"/>
@@ -23315,7 +24031,9 @@
       <c r="CE25" s="11">
         <v>179</v>
       </c>
-      <c r="CF25" s="11"/>
+      <c r="CF25" s="11">
+        <v>172</v>
+      </c>
       <c r="CG25" s="11"/>
       <c r="CH25" s="11"/>
       <c r="CI25" s="11"/>
@@ -23553,7 +24271,9 @@
       <c r="CE26" s="11">
         <v>1312</v>
       </c>
-      <c r="CF26" s="11"/>
+      <c r="CF26" s="11">
+        <v>1324</v>
+      </c>
       <c r="CG26" s="11"/>
       <c r="CH26" s="11"/>
       <c r="CI26" s="11"/>
@@ -24023,7 +24743,9 @@
       <c r="CE29" s="11">
         <v>131</v>
       </c>
-      <c r="CF29" s="11"/>
+      <c r="CF29" s="11">
+        <v>132</v>
+      </c>
       <c r="CG29" s="11"/>
       <c r="CH29" s="11"/>
       <c r="CI29" s="11"/>
@@ -24231,7 +24953,9 @@
       <c r="CE30" s="11">
         <v>33</v>
       </c>
-      <c r="CF30" s="11"/>
+      <c r="CF30" s="11">
+        <v>31</v>
+      </c>
       <c r="CG30" s="11"/>
       <c r="CH30" s="11"/>
       <c r="CI30" s="11"/>
@@ -24439,7 +25163,9 @@
       <c r="CE31" s="11">
         <v>98</v>
       </c>
-      <c r="CF31" s="11"/>
+      <c r="CF31" s="11">
+        <v>101</v>
+      </c>
       <c r="CG31" s="11"/>
       <c r="CH31" s="11"/>
       <c r="CI31" s="11"/>
@@ -24677,7 +25403,9 @@
       <c r="CE32" s="11">
         <v>63</v>
       </c>
-      <c r="CF32" s="11"/>
+      <c r="CF32" s="11">
+        <v>59</v>
+      </c>
       <c r="CG32" s="11"/>
       <c r="CH32" s="11"/>
       <c r="CI32" s="11"/>
@@ -24915,7 +25643,9 @@
       <c r="CE33" s="11">
         <v>96</v>
       </c>
-      <c r="CF33" s="11"/>
+      <c r="CF33" s="11">
+        <v>90</v>
+      </c>
       <c r="CG33" s="11"/>
       <c r="CH33" s="11"/>
       <c r="CI33" s="11"/>
@@ -25153,7 +25883,9 @@
       <c r="CE34" s="11">
         <v>1156</v>
       </c>
-      <c r="CF34" s="11"/>
+      <c r="CF34" s="11">
+        <v>1178</v>
+      </c>
       <c r="CG34" s="11"/>
       <c r="CH34" s="11"/>
       <c r="CI34" s="11"/>
@@ -25615,7 +26347,9 @@
       <c r="CE37" s="11">
         <v>80</v>
       </c>
-      <c r="CF37" s="11"/>
+      <c r="CF37" s="11">
+        <v>80</v>
+      </c>
       <c r="CG37" s="11"/>
       <c r="CH37" s="11"/>
       <c r="CI37" s="11"/>
@@ -25819,7 +26553,9 @@
       <c r="CE38" s="11">
         <v>17</v>
       </c>
-      <c r="CF38" s="11"/>
+      <c r="CF38" s="11">
+        <v>6</v>
+      </c>
       <c r="CG38" s="11"/>
       <c r="CH38" s="11"/>
       <c r="CI38" s="11"/>
@@ -26023,7 +26759,9 @@
       <c r="CE39" s="11">
         <v>62</v>
       </c>
-      <c r="CF39" s="11"/>
+      <c r="CF39" s="11">
+        <v>73</v>
+      </c>
       <c r="CG39" s="11"/>
       <c r="CH39" s="11"/>
       <c r="CI39" s="11"/>
@@ -26257,7 +26995,9 @@
       <c r="CE40" s="11">
         <v>1</v>
       </c>
-      <c r="CF40" s="11"/>
+      <c r="CF40" s="11">
+        <v>1</v>
+      </c>
       <c r="CG40" s="11"/>
       <c r="CH40" s="11"/>
       <c r="CI40" s="11"/>
@@ -26489,7 +27229,9 @@
       <c r="CE41" s="11">
         <v>18</v>
       </c>
-      <c r="CF41" s="11"/>
+      <c r="CF41" s="11">
+        <v>7</v>
+      </c>
       <c r="CG41" s="11"/>
       <c r="CH41" s="11"/>
       <c r="CI41" s="11"/>
@@ -26725,7 +27467,9 @@
       <c r="CE42" s="11">
         <v>270</v>
       </c>
-      <c r="CF42" s="11"/>
+      <c r="CF42" s="11">
+        <v>281</v>
+      </c>
       <c r="CG42" s="11"/>
       <c r="CH42" s="11"/>
       <c r="CI42" s="11"/>
@@ -26917,7 +27661,9 @@
       <c r="CE43" s="11">
         <v>1</v>
       </c>
-      <c r="CF43" s="11"/>
+      <c r="CF43" s="11">
+        <v>1</v>
+      </c>
       <c r="CG43" s="11"/>
       <c r="CH43" s="11"/>
       <c r="CI43" s="11"/>
@@ -27383,7 +28129,9 @@
       <c r="CE46" s="11">
         <v>193</v>
       </c>
-      <c r="CF46" s="11"/>
+      <c r="CF46" s="11">
+        <v>205</v>
+      </c>
       <c r="CG46" s="11"/>
       <c r="CH46" s="11"/>
       <c r="CI46" s="11"/>
@@ -27591,7 +28339,9 @@
       <c r="CE47" s="11">
         <v>17</v>
       </c>
-      <c r="CF47" s="11"/>
+      <c r="CF47" s="11">
+        <v>25</v>
+      </c>
       <c r="CG47" s="11"/>
       <c r="CH47" s="11"/>
       <c r="CI47" s="11"/>
@@ -27799,7 +28549,9 @@
       <c r="CE48" s="11">
         <v>170</v>
       </c>
-      <c r="CF48" s="11"/>
+      <c r="CF48" s="11">
+        <v>174</v>
+      </c>
       <c r="CG48" s="11"/>
       <c r="CH48" s="11"/>
       <c r="CI48" s="11"/>
@@ -28037,7 +28789,9 @@
       <c r="CE49" s="11">
         <v>517</v>
       </c>
-      <c r="CF49" s="11"/>
+      <c r="CF49" s="11">
+        <v>619</v>
+      </c>
       <c r="CG49" s="11"/>
       <c r="CH49" s="11"/>
       <c r="CI49" s="11"/>
@@ -28245,7 +28999,9 @@
       <c r="CE50" s="11">
         <v>534</v>
       </c>
-      <c r="CF50" s="11"/>
+      <c r="CF50" s="11">
+        <v>644</v>
+      </c>
       <c r="CG50" s="11"/>
       <c r="CH50" s="11"/>
       <c r="CI50" s="11"/>
@@ -28451,7 +29207,9 @@
       <c r="CE51" s="11">
         <v>813</v>
       </c>
-      <c r="CF51" s="11"/>
+      <c r="CF51" s="11">
+        <v>708</v>
+      </c>
       <c r="CG51" s="11"/>
       <c r="CH51" s="11"/>
       <c r="CI51" s="11"/>
@@ -28653,7 +29411,9 @@
       <c r="CE52" s="11">
         <v>1</v>
       </c>
-      <c r="CF52" s="11"/>
+      <c r="CF52" s="11">
+        <v>1</v>
+      </c>
       <c r="CG52" s="11"/>
       <c r="CH52" s="11"/>
       <c r="CI52" s="11"/>
@@ -29109,7 +29869,9 @@
       <c r="CE55" s="11">
         <v>30</v>
       </c>
-      <c r="CF55" s="11"/>
+      <c r="CF55" s="11">
+        <v>30</v>
+      </c>
       <c r="CG55" s="11"/>
       <c r="CH55" s="11"/>
       <c r="CI55" s="11"/>
@@ -29315,7 +30077,9 @@
       <c r="CE56" s="11">
         <v>11</v>
       </c>
-      <c r="CF56" s="11"/>
+      <c r="CF56" s="11">
+        <v>10</v>
+      </c>
       <c r="CG56" s="11"/>
       <c r="CH56" s="11"/>
       <c r="CI56" s="11"/>
@@ -29521,7 +30285,9 @@
       <c r="CE57" s="11">
         <v>19</v>
       </c>
-      <c r="CF57" s="11"/>
+      <c r="CF57" s="11">
+        <v>19</v>
+      </c>
       <c r="CG57" s="11"/>
       <c r="CH57" s="11"/>
       <c r="CI57" s="11"/>
@@ -29751,7 +30517,9 @@
       <c r="CE58" s="11">
         <v>20</v>
       </c>
-      <c r="CF58" s="11"/>
+      <c r="CF58" s="11">
+        <v>21</v>
+      </c>
       <c r="CG58" s="11"/>
       <c r="CH58" s="11"/>
       <c r="CI58" s="11"/>
@@ -29981,7 +30749,9 @@
       <c r="CE59" s="11">
         <v>31</v>
       </c>
-      <c r="CF59" s="11"/>
+      <c r="CF59" s="11">
+        <v>31</v>
+      </c>
       <c r="CG59" s="11"/>
       <c r="CH59" s="11"/>
       <c r="CI59" s="11"/>
@@ -30211,7 +30981,9 @@
       <c r="CE60" s="11">
         <v>138</v>
       </c>
-      <c r="CF60" s="11"/>
+      <c r="CF60" s="11">
+        <v>138</v>
+      </c>
       <c r="CG60" s="11"/>
       <c r="CH60" s="11"/>
       <c r="CI60" s="11"/>
@@ -30413,7 +31185,9 @@
       <c r="CE61" s="11">
         <v>1</v>
       </c>
-      <c r="CF61" s="11"/>
+      <c r="CF61" s="11">
+        <v>1</v>
+      </c>
       <c r="CG61" s="11"/>
       <c r="CH61" s="11"/>
       <c r="CI61" s="11"/>
@@ -30755,7 +31529,9 @@
       <c r="CE63" s="11">
         <v>11</v>
       </c>
-      <c r="CF63" s="11"/>
+      <c r="CF63" s="11">
+        <v>11</v>
+      </c>
       <c r="CG63" s="11"/>
       <c r="CH63" s="11"/>
       <c r="CI63" s="11"/>
@@ -30961,7 +31737,9 @@
       <c r="CE64" s="11">
         <v>4</v>
       </c>
-      <c r="CF64" s="11"/>
+      <c r="CF64" s="11">
+        <v>4</v>
+      </c>
       <c r="CG64" s="11"/>
       <c r="CH64" s="11"/>
       <c r="CI64" s="11"/>
@@ -31167,7 +31945,9 @@
       <c r="CE65" s="11">
         <v>0</v>
       </c>
-      <c r="CF65" s="11"/>
+      <c r="CF65" s="11">
+        <v>7</v>
+      </c>
       <c r="CG65" s="11"/>
       <c r="CH65" s="11"/>
       <c r="CI65" s="11"/>
@@ -31397,7 +32177,9 @@
       <c r="CE66" s="11">
         <v>46</v>
       </c>
-      <c r="CF66" s="11"/>
+      <c r="CF66" s="11">
+        <v>46</v>
+      </c>
       <c r="CG66" s="11"/>
       <c r="CH66" s="11"/>
       <c r="CI66" s="11"/>
@@ -31627,7 +32409,9 @@
       <c r="CE67" s="11">
         <v>50</v>
       </c>
-      <c r="CF67" s="11"/>
+      <c r="CF67" s="11">
+        <v>50</v>
+      </c>
       <c r="CG67" s="11"/>
       <c r="CH67" s="11"/>
       <c r="CI67" s="11"/>
@@ -31855,7 +32639,9 @@
       <c r="CE68" s="11">
         <v>0</v>
       </c>
-      <c r="CF68" s="11"/>
+      <c r="CF68" s="11">
+        <v>0</v>
+      </c>
       <c r="CG68" s="11"/>
       <c r="CH68" s="11"/>
       <c r="CI68" s="11"/>
@@ -32061,7 +32847,9 @@
       <c r="CE69" s="11">
         <v>0</v>
       </c>
-      <c r="CF69" s="11"/>
+      <c r="CF69" s="11">
+        <v>0</v>
+      </c>
       <c r="CG69" s="11"/>
       <c r="CH69" s="11"/>
       <c r="CI69" s="11"/>
@@ -32303,7 +33091,9 @@
       <c r="CE71" s="11">
         <v>10</v>
       </c>
-      <c r="CF71" s="11"/>
+      <c r="CF71" s="11">
+        <v>10</v>
+      </c>
       <c r="CG71" s="11"/>
       <c r="CH71" s="11"/>
       <c r="CI71" s="11"/>
@@ -32433,7 +33223,9 @@
       <c r="CE72" s="11">
         <v>7</v>
       </c>
-      <c r="CF72" s="11"/>
+      <c r="CF72" s="11">
+        <v>7</v>
+      </c>
       <c r="CG72" s="11"/>
       <c r="CH72" s="11"/>
       <c r="CI72" s="11"/>
@@ -32563,7 +33355,9 @@
       <c r="CE73" s="11">
         <v>3</v>
       </c>
-      <c r="CF73" s="11"/>
+      <c r="CF73" s="11">
+        <v>3</v>
+      </c>
       <c r="CG73" s="11"/>
       <c r="CH73" s="11"/>
       <c r="CI73" s="11"/>
@@ -32693,7 +33487,9 @@
       <c r="CE74" s="11">
         <v>13</v>
       </c>
-      <c r="CF74" s="11"/>
+      <c r="CF74" s="11">
+        <v>13</v>
+      </c>
       <c r="CG74" s="11"/>
       <c r="CH74" s="11"/>
       <c r="CI74" s="11"/>
@@ -32823,7 +33619,9 @@
       <c r="CE75" s="11">
         <v>20</v>
       </c>
-      <c r="CF75" s="11"/>
+      <c r="CF75" s="11">
+        <v>20</v>
+      </c>
       <c r="CG75" s="11"/>
       <c r="CH75" s="11"/>
       <c r="CI75" s="11"/>
@@ -32953,7 +33751,9 @@
       <c r="CE76" s="11">
         <v>25</v>
       </c>
-      <c r="CF76" s="11"/>
+      <c r="CF76" s="11">
+        <v>26</v>
+      </c>
       <c r="CG76" s="11"/>
       <c r="CH76" s="11"/>
       <c r="CI76" s="11"/>
@@ -33409,7 +34209,9 @@
       <c r="CE79" s="11">
         <v>294</v>
       </c>
-      <c r="CF79" s="11"/>
+      <c r="CF79" s="11">
+        <v>295</v>
+      </c>
       <c r="CG79" s="11"/>
       <c r="CH79" s="11"/>
       <c r="CI79" s="11"/>
@@ -33639,7 +34441,9 @@
       <c r="CE80" s="11">
         <v>179</v>
       </c>
-      <c r="CF80" s="11"/>
+      <c r="CF80" s="11">
+        <v>167</v>
+      </c>
       <c r="CG80" s="11"/>
       <c r="CH80" s="11"/>
       <c r="CI80" s="11"/>
@@ -33869,7 +34673,9 @@
       <c r="CE81" s="11">
         <v>150</v>
       </c>
-      <c r="CF81" s="11"/>
+      <c r="CF81" s="11">
+        <v>135</v>
+      </c>
       <c r="CG81" s="11"/>
       <c r="CH81" s="11"/>
       <c r="CI81" s="11"/>
@@ -34071,7 +34877,9 @@
       <c r="CE82" s="11">
         <v>16</v>
       </c>
-      <c r="CF82" s="11"/>
+      <c r="CF82" s="11">
+        <v>16</v>
+      </c>
       <c r="CG82" s="11"/>
       <c r="CH82" s="11"/>
       <c r="CI82" s="11"/>
@@ -34413,7 +35221,9 @@
       <c r="CE84" s="11">
         <v>115</v>
       </c>
-      <c r="CF84" s="11"/>
+      <c r="CF84" s="11">
+        <v>116</v>
+      </c>
       <c r="CG84" s="11"/>
       <c r="CH84" s="11"/>
       <c r="CI84" s="11"/>
@@ -34643,7 +35453,9 @@
       <c r="CE85" s="11">
         <v>3</v>
       </c>
-      <c r="CF85" s="11"/>
+      <c r="CF85" s="11">
+        <v>26</v>
+      </c>
       <c r="CG85" s="11"/>
       <c r="CH85" s="11"/>
       <c r="CI85" s="11"/>
@@ -34873,7 +35685,9 @@
       <c r="CE86" s="11">
         <v>118</v>
       </c>
-      <c r="CF86" s="11"/>
+      <c r="CF86" s="11">
+        <v>142</v>
+      </c>
       <c r="CG86" s="11"/>
       <c r="CH86" s="11"/>
       <c r="CI86" s="11"/>
@@ -35095,7 +35909,9 @@
       <c r="CE87" s="11">
         <v>180</v>
       </c>
-      <c r="CF87" s="11"/>
+      <c r="CF87" s="11">
+        <v>186</v>
+      </c>
       <c r="CG87" s="11"/>
       <c r="CH87" s="11"/>
       <c r="CI87" s="11"/>
@@ -35241,7 +36057,9 @@
       <c r="CE88" s="11">
         <v>1</v>
       </c>
-      <c r="CF88" s="11"/>
+      <c r="CF88" s="11">
+        <v>1</v>
+      </c>
       <c r="CG88" s="11"/>
       <c r="CH88" s="11"/>
       <c r="CI88" s="11"/>
@@ -35542,7 +36360,9 @@
       <c r="CE90" s="11">
         <v>79</v>
       </c>
-      <c r="CF90" s="11"/>
+      <c r="CF90" s="11">
+        <v>79</v>
+      </c>
       <c r="CG90" s="11"/>
       <c r="CH90" s="11"/>
       <c r="CI90" s="11"/>
@@ -35772,7 +36592,9 @@
       <c r="CE91" s="11">
         <v>49</v>
       </c>
-      <c r="CF91" s="11"/>
+      <c r="CF91" s="11">
+        <v>31</v>
+      </c>
       <c r="CG91" s="11"/>
       <c r="CH91" s="11"/>
       <c r="CI91" s="11"/>
@@ -35980,7 +36802,9 @@
       <c r="CE92" s="11">
         <v>130</v>
       </c>
-      <c r="CF92" s="11"/>
+      <c r="CF92" s="11">
+        <v>163</v>
+      </c>
       <c r="CG92" s="11"/>
       <c r="CH92" s="11"/>
       <c r="CI92" s="11"/>
@@ -36184,7 +37008,9 @@
       <c r="CE93" s="11">
         <v>13</v>
       </c>
-      <c r="CF93" s="11"/>
+      <c r="CF93" s="11">
+        <v>32</v>
+      </c>
       <c r="CG93" s="11"/>
       <c r="CH93" s="11"/>
       <c r="CI93" s="11"/>
@@ -36412,7 +37238,9 @@
       <c r="CE94" s="11">
         <v>13</v>
       </c>
-      <c r="CF94" s="11"/>
+      <c r="CF94" s="11">
+        <v>13</v>
+      </c>
       <c r="CG94" s="11"/>
       <c r="CH94" s="11"/>
       <c r="CI94" s="11"/>
@@ -36699,7 +37527,9 @@
       <c r="CE96" s="11">
         <v>182</v>
       </c>
-      <c r="CF96" s="11"/>
+      <c r="CF96" s="11">
+        <v>183</v>
+      </c>
       <c r="CG96" s="11"/>
       <c r="CH96" s="11"/>
       <c r="CI96" s="11"/>
@@ -36875,7 +37705,9 @@
       <c r="CE97" s="11">
         <v>47</v>
       </c>
-      <c r="CF97" s="11"/>
+      <c r="CF97" s="11">
+        <v>49</v>
+      </c>
       <c r="CG97" s="11"/>
       <c r="CH97" s="11"/>
       <c r="CI97" s="11"/>
@@ -37051,7 +37883,9 @@
       <c r="CE98" s="11">
         <v>25</v>
       </c>
-      <c r="CF98" s="11"/>
+      <c r="CF98" s="11">
+        <v>25</v>
+      </c>
       <c r="CG98" s="11"/>
       <c r="CH98" s="11"/>
       <c r="CI98" s="11"/>
@@ -37157,18 +37991,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51A914D-4CED-7A43-8BD6-4514AC12DE8C}">
-  <dimension ref="A1:C1032"/>
+  <dimension ref="A1:C1084"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A973" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1036" sqref="A1036"/>
+      <pane ySplit="1" topLeftCell="A996" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1086" sqref="B1086"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -48523,6 +49357,578 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1033" spans="1:3">
+      <c r="A1033" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1033" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1033" s="18">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3">
+      <c r="A1034" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1034" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1034" s="19">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3">
+      <c r="A1035" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1035" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1035" s="19">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3">
+      <c r="A1036" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1036" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1036" s="19">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3">
+      <c r="A1037" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1037" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1037" s="19">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3">
+      <c r="A1038" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1038" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1038" s="19">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3">
+      <c r="A1039" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1039" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1039" s="19">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3">
+      <c r="A1040" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1040" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1040" s="19">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3">
+      <c r="A1041" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1041" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1041" s="19">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3">
+      <c r="A1042" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1042" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1042" s="19">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3">
+      <c r="A1043" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1043" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1043" s="19">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3">
+      <c r="A1044" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1044" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1044" s="19">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3">
+      <c r="A1045" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1045" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1045" s="19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3">
+      <c r="A1046" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1046" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1046" s="19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3">
+      <c r="A1047" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1047" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1047" s="19">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3">
+      <c r="A1048" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1048" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1048" s="19">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3">
+      <c r="A1049" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1049" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1049" s="19">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3">
+      <c r="A1050" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1050" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1050" s="19">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3">
+      <c r="A1051" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1051" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1051" s="19">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3">
+      <c r="A1052" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1052" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1052" s="19">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3">
+      <c r="A1053" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1053" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1053" s="19">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3">
+      <c r="A1054" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1054" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1054" s="19">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3">
+      <c r="A1055" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1055" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1055" s="19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3">
+      <c r="A1056" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1056" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1056" s="19">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3">
+      <c r="A1057" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1057" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1057" s="19">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3">
+      <c r="A1058" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1058" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1058" s="19">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3">
+      <c r="A1059" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1059" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1059" s="19">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3">
+      <c r="A1060" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1060" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1060" s="19">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3">
+      <c r="A1061" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1061" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1061" s="19">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3">
+      <c r="A1062" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1062" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1062" s="19">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3">
+      <c r="A1063" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1063" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1063" s="19">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3">
+      <c r="A1064" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1064" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1064" s="19">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3">
+      <c r="A1065" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1065" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1065" s="19">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3">
+      <c r="A1066" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1066" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1066" s="19">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3">
+      <c r="A1067" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1067" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1067" s="19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3">
+      <c r="A1068" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1068" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1068" s="19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3">
+      <c r="A1069" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1069" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1069" s="19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3">
+      <c r="A1070" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1070" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1070" s="19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3">
+      <c r="A1071" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1071" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1071" s="19">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3">
+      <c r="A1072" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1072" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1072" s="19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3">
+      <c r="A1073" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1073" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1073" s="19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3">
+      <c r="A1074" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1074" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1074" s="19">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3">
+      <c r="A1075" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1075" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1075" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3">
+      <c r="A1076" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1076" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1076" s="19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3">
+      <c r="A1077" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1077" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1077" s="19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3">
+      <c r="A1078" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1078" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1078" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3">
+      <c r="A1079" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1079" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1079" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3">
+      <c r="A1080" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1080" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1080" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3">
+      <c r="A1081" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1081" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1081" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3">
+      <c r="A1082" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1082" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1082" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3">
+      <c r="A1083" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1083" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1083" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3">
+      <c r="A1084" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B1084" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1084" s="19">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4761F316-50D4-124F-80DA-00BB6584E777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A55B1BC-B591-B945-88A9-FE31E9B7F8B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="12" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -23,11 +23,11 @@
     <sheet name="Overall Stats" sheetId="1" r:id="rId8"/>
     <sheet name="Total Positives by Neighborhood" sheetId="9" r:id="rId9"/>
     <sheet name="Total Tests by Neighborhood" sheetId="10" r:id="rId10"/>
-    <sheet name="Age-Adjusted Rate by Ward" sheetId="11" r:id="rId11"/>
-    <sheet name="Hospital Data" sheetId="12" r:id="rId12"/>
+    <sheet name="Hospital Data" sheetId="12" r:id="rId11"/>
+    <sheet name="Age-Adjusted Rate by Ward" sheetId="11" r:id="rId12"/>
     <sheet name="Rates by Age Categories" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="202">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -536,36 +536,6 @@
     <t>Total Tests</t>
   </si>
   <si>
-    <t>Age-Adjusted Rate (per 100,000 Standard Population)</t>
-  </si>
-  <si>
-    <t>Ward 1</t>
-  </si>
-  <si>
-    <t>Ward 2</t>
-  </si>
-  <si>
-    <t>Ward 3</t>
-  </si>
-  <si>
-    <t>Ward 4</t>
-  </si>
-  <si>
-    <t>Ward 5</t>
-  </si>
-  <si>
-    <t>Ward 6</t>
-  </si>
-  <si>
-    <t>Ward 7</t>
-  </si>
-  <si>
-    <t>Ward 8</t>
-  </si>
-  <si>
-    <t>Data source: 2014-2018 5-year American Community Survey (ACS) population Estimates. U.S. Census Bureau.</t>
-  </si>
-  <si>
     <t>Number of inpatients (covid and non-covid)</t>
   </si>
   <si>
@@ -608,6 +578,36 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Age-Adjusted Rate (per 100,000 Standard Population)</t>
+  </si>
+  <si>
+    <t>Ward 1</t>
+  </si>
+  <si>
+    <t>Ward 2</t>
+  </si>
+  <si>
+    <t>Ward 3</t>
+  </si>
+  <si>
+    <t>Ward 4</t>
+  </si>
+  <si>
+    <t>Ward 5</t>
+  </si>
+  <si>
+    <t>Ward 6</t>
+  </si>
+  <si>
+    <t>Ward 7</t>
+  </si>
+  <si>
+    <t>Ward 8</t>
+  </si>
+  <si>
+    <t>Data source: 2014-2018 5-year American Community Survey (ACS) population Estimates. U.S. Census Bureau.</t>
   </si>
   <si>
     <t>Age Sort</t>
@@ -846,7 +846,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -908,6 +908,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -916,9 +925,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1243,14 +1249,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.95">
+    <row r="1" spans="1:1" ht="19">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.95">
+    <row r="2" spans="1:1" ht="19">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1262,18 +1268,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0704107B-CC38-954F-8D77-0E0C2F291C39}">
-  <dimension ref="A1:C310"/>
+  <dimension ref="A1:C361"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A310" sqref="A260:A310"/>
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B362" sqref="B362"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4684,6 +4690,567 @@
       </c>
       <c r="C310" s="19">
         <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B311" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C311" s="20">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B312" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C312" s="20">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B313" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C313" s="20">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B314" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C314" s="20">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B315" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C315" s="20">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B316" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C316" s="20">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B317" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C317" s="20">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B318" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C318" s="20">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B319" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C319" s="20">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B320" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C320" s="20">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B321" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C321" s="20">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B322" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C322" s="20">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B323" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C323" s="20">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B324" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C324" s="20">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B325" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C325" s="20">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B326" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C326" s="19">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B327" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C327" s="19">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B328" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C328" s="19">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B329" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C329" s="19">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B330" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C330" s="19">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B331" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C331" s="19">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B332" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C332" s="19">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B333" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C333" s="19">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B334" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C334" s="19">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B335" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C335" s="19">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B336" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C336" s="19">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B337" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C337" s="19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B338" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C338" s="19">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B339" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C339" s="19">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B340" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C340" s="19">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B341" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C341" s="19">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B342" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C342" s="19">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B343" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C343" s="19">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B344" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C344" s="19">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B345" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C345" s="19">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B346" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C346" s="19">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B347" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C347" s="19">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B348" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C348" s="19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B349" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C349" s="19">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B350" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C350" s="19">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B351" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C351" s="19">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B352" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C352" s="19">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B353" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C353" s="19">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B354" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C354" s="19">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B355" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C355" s="19">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B356" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C356" s="19">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B357" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C357" s="19">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B358" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C358" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B359" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C359" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B360" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C360" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B361" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C361" s="19">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4692,174 +5259,67 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403832ED-8857-DC4F-9AB8-BE20370D1DC9}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="30.95">
-      <c r="A1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="18">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="18">
-        <v>709.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="18">
-        <v>442.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="18">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="18">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="18">
-        <v>788.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="18">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="23">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="36"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A10:B12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7943BA5F-E71E-CD41-AA11-6C89A2B51AB2}">
   <dimension ref="A1:G369"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="C45" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="24"/>
-    <col min="2" max="2" width="21.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="24"/>
+    <col min="2" max="2" width="21.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="31" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="105">
       <c r="A1" s="25"/>
       <c r="B1" s="29" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="25" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5135,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6174,13 +6634,27 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="26"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
+      <c r="A60" s="26">
+        <v>43979</v>
+      </c>
+      <c r="B60" s="28">
+        <v>1981</v>
+      </c>
+      <c r="C60" s="28">
+        <v>0</v>
+      </c>
+      <c r="D60" s="28">
+        <v>338</v>
+      </c>
+      <c r="E60" s="28">
+        <v>223</v>
+      </c>
+      <c r="F60" s="28">
+        <v>0</v>
+      </c>
+      <c r="G60" s="28">
+        <v>65</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="26"/>
@@ -8964,6 +9438,113 @@
       <c r="G369" s="28"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403832ED-8857-DC4F-9AB8-BE20370D1DC9}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31">
+      <c r="A1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1525.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="18">
+        <v>711.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="18">
+        <v>445.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2010.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1415.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="18">
+        <v>794.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1484.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1579.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="39"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:B12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8973,17 +9554,17 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.95">
+    <row r="1" spans="1:5" ht="31">
       <c r="A1" s="33" t="s">
         <v>187</v>
       </c>
@@ -9028,7 +9609,7 @@
         <v>166</v>
       </c>
       <c r="D3" s="6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E3" s="6">
         <v>250.6</v>
@@ -9042,13 +9623,13 @@
         <v>194</v>
       </c>
       <c r="C4" s="6">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D4" s="6">
         <v>2.1</v>
       </c>
       <c r="E4" s="6">
-        <v>524.20000000000005</v>
+        <v>527.20000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9059,13 +9640,13 @@
         <v>195</v>
       </c>
       <c r="C5" s="6">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D5" s="6">
         <v>5.5</v>
       </c>
       <c r="E5" s="6">
-        <v>883.4</v>
+        <v>887.2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9076,13 +9657,13 @@
         <v>196</v>
       </c>
       <c r="C6" s="6">
-        <v>1586</v>
+        <v>1593</v>
       </c>
       <c r="D6" s="6">
         <v>18.7</v>
       </c>
       <c r="E6" s="6">
-        <v>970.2</v>
+        <v>974.5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9093,13 +9674,13 @@
         <v>197</v>
       </c>
       <c r="C7" s="6">
-        <v>1531</v>
+        <v>1542</v>
       </c>
       <c r="D7" s="6">
-        <v>18</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E7" s="34">
-        <v>1450.7</v>
+        <v>1461.1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9110,13 +9691,13 @@
         <v>198</v>
       </c>
       <c r="C8" s="6">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="D8" s="6">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E8" s="34">
-        <v>1758.3</v>
+        <v>1763.6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9127,13 +9708,13 @@
         <v>199</v>
       </c>
       <c r="C9" s="6">
-        <v>1398</v>
+        <v>1409</v>
       </c>
       <c r="D9" s="6">
         <v>16.5</v>
       </c>
       <c r="E9" s="34">
-        <v>1996.5</v>
+        <v>2012.2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9144,13 +9725,13 @@
         <v>200</v>
       </c>
       <c r="C10" s="6">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="D10" s="6">
         <v>10.7</v>
       </c>
       <c r="E10" s="34">
-        <v>1857.4</v>
+        <v>1867.6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9161,13 +9742,13 @@
         <v>201</v>
       </c>
       <c r="C11" s="6">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D11" s="6">
-        <v>9.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E11" s="34">
-        <v>2223.1999999999998</v>
+        <v>2239.6</v>
       </c>
     </row>
   </sheetData>
@@ -9181,13 +9762,13 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP4" sqref="AP4"/>
+      <selection pane="topRight" activeCell="AO2" sqref="AO2:AO12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="31" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="31" max="41" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
@@ -9311,7 +9892,9 @@
       <c r="AN1" s="4">
         <v>43978</v>
       </c>
-      <c r="AO1" s="4"/>
+      <c r="AO1" s="4">
+        <v>43979</v>
+      </c>
       <c r="AP1" s="4"/>
       <c r="AQ1" s="4"/>
       <c r="AR1" s="4"/>
@@ -9463,7 +10046,9 @@
       <c r="AN2" s="14">
         <v>453</v>
       </c>
-      <c r="AO2" s="14"/>
+      <c r="AO2" s="14">
+        <v>460</v>
+      </c>
       <c r="AP2" s="14"/>
       <c r="AQ2" s="14"/>
       <c r="AR2" s="14"/>
@@ -9614,7 +10199,9 @@
       <c r="AN3" s="7">
         <v>46</v>
       </c>
-      <c r="AO3" s="7"/>
+      <c r="AO3" s="7">
+        <v>47</v>
+      </c>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
@@ -9765,7 +10352,9 @@
       <c r="AN4" s="7">
         <v>27</v>
       </c>
-      <c r="AO4" s="7"/>
+      <c r="AO4" s="7">
+        <v>29</v>
+      </c>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
@@ -9916,7 +10505,9 @@
       <c r="AN5" s="7">
         <v>30</v>
       </c>
-      <c r="AO5" s="7"/>
+      <c r="AO5" s="7">
+        <v>30</v>
+      </c>
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
@@ -10067,7 +10658,9 @@
       <c r="AN6" s="7">
         <v>64</v>
       </c>
-      <c r="AO6" s="7"/>
+      <c r="AO6" s="7">
+        <v>65</v>
+      </c>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
@@ -10218,7 +10811,9 @@
       <c r="AN7" s="7">
         <v>72</v>
       </c>
-      <c r="AO7" s="7"/>
+      <c r="AO7" s="7">
+        <v>73</v>
+      </c>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
       <c r="AR7" s="7"/>
@@ -10369,7 +10964,9 @@
       <c r="AN8" s="7">
         <v>41</v>
       </c>
-      <c r="AO8" s="7"/>
+      <c r="AO8" s="7">
+        <v>42</v>
+      </c>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7"/>
@@ -10520,7 +11117,9 @@
       <c r="AN9" s="7">
         <v>64</v>
       </c>
-      <c r="AO9" s="7"/>
+      <c r="AO9" s="7">
+        <v>64</v>
+      </c>
       <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7"/>
@@ -10671,7 +11270,9 @@
       <c r="AN10" s="7">
         <v>93</v>
       </c>
-      <c r="AO10" s="7"/>
+      <c r="AO10" s="7">
+        <v>94</v>
+      </c>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7"/>
@@ -10822,7 +11423,9 @@
       <c r="AN11" s="7">
         <v>16</v>
       </c>
-      <c r="AO11" s="7"/>
+      <c r="AO11" s="7">
+        <v>16</v>
+      </c>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
       <c r="AR11" s="7"/>
@@ -10971,7 +11574,9 @@
       <c r="AN12" s="7">
         <v>0</v>
       </c>
-      <c r="AO12" s="7"/>
+      <c r="AO12" s="7">
+        <v>0</v>
+      </c>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
@@ -11042,12 +11647,12 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
     <col min="3" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -11073,13 +11678,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="27">
-        <v>8492</v>
+        <v>8538</v>
       </c>
       <c r="C2" s="27">
-        <v>4208</v>
+        <v>4234</v>
       </c>
       <c r="D2" s="27">
-        <v>4265</v>
+        <v>4285</v>
       </c>
       <c r="E2" s="27">
         <v>19</v>
@@ -11090,13 +11695,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -11141,10 +11746,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="27">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C6" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="7">
         <v>78</v>
@@ -11158,13 +11763,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="27">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C7" s="7">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D7" s="7">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -11175,13 +11780,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="27">
-        <v>1586</v>
+        <v>1593</v>
       </c>
       <c r="C8" s="7">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="D8" s="7">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -11192,13 +11797,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="27">
-        <v>1531</v>
+        <v>1542</v>
       </c>
       <c r="C9" s="7">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="D9" s="7">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -11209,13 +11814,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="27">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="C10" s="7">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D10" s="7">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -11226,13 +11831,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="27">
-        <v>1398</v>
+        <v>1409</v>
       </c>
       <c r="C11" s="7">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="D11" s="7">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -11243,13 +11848,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="27">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C12" s="7">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D12" s="7">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
@@ -11260,25 +11865,25 @@
         <v>20</v>
       </c>
       <c r="B13" s="27">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="C13" s="7">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D13" s="7">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57.95" customHeight="1">
-      <c r="B14" s="35" t="s">
+    <row r="14" spans="1:5" ht="58" customHeight="1">
+      <c r="B14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11293,15 +11898,15 @@
   <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH6" sqref="BH6"/>
+      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BI9" sqref="BI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="42" max="90" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="42" max="90" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90">
@@ -11574,7 +12179,9 @@
       <c r="BG2" s="4">
         <v>43978</v>
       </c>
-      <c r="BH2" s="4"/>
+      <c r="BH2" s="4">
+        <v>43979</v>
+      </c>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
       <c r="BK2" s="4"/>
@@ -11778,13 +12385,15 @@
       <c r="BE3" s="7">
         <v>1166</v>
       </c>
-      <c r="BF3" s="38">
+      <c r="BF3" s="35">
         <v>1178</v>
       </c>
-      <c r="BG3" s="38">
+      <c r="BG3" s="35">
         <v>1188</v>
       </c>
-      <c r="BH3" s="7"/>
+      <c r="BH3" s="35">
+        <v>1198</v>
+      </c>
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7"/>
       <c r="BK3" s="7"/>
@@ -11988,13 +12597,15 @@
       <c r="BE4" s="7">
         <v>508</v>
       </c>
-      <c r="BF4" s="38">
+      <c r="BF4" s="35">
         <v>509</v>
       </c>
-      <c r="BG4" s="38">
+      <c r="BG4" s="35">
         <v>511</v>
       </c>
-      <c r="BH4" s="7"/>
+      <c r="BH4" s="35">
+        <v>512</v>
+      </c>
       <c r="BI4" s="7"/>
       <c r="BJ4" s="7"/>
       <c r="BK4" s="7"/>
@@ -12198,13 +12809,15 @@
       <c r="BE5" s="7">
         <v>410</v>
       </c>
-      <c r="BF5" s="38">
+      <c r="BF5" s="35">
         <v>411</v>
       </c>
-      <c r="BG5" s="38">
+      <c r="BG5" s="35">
         <v>413</v>
       </c>
-      <c r="BH5" s="7"/>
+      <c r="BH5" s="35">
+        <v>416</v>
+      </c>
       <c r="BI5" s="7"/>
       <c r="BJ5" s="7"/>
       <c r="BK5" s="7"/>
@@ -12408,13 +13021,15 @@
       <c r="BE6" s="7">
         <v>1759</v>
       </c>
-      <c r="BF6" s="38">
+      <c r="BF6" s="35">
         <v>1771</v>
       </c>
-      <c r="BG6" s="38">
+      <c r="BG6" s="35">
         <v>1785</v>
       </c>
-      <c r="BH6" s="7"/>
+      <c r="BH6" s="35">
+        <v>1795</v>
+      </c>
       <c r="BI6" s="7"/>
       <c r="BJ6" s="7"/>
       <c r="BK6" s="7"/>
@@ -12618,13 +13233,15 @@
       <c r="BE7" s="7">
         <v>1303</v>
       </c>
-      <c r="BF7" s="38">
+      <c r="BF7" s="35">
         <v>1315</v>
       </c>
-      <c r="BG7" s="38">
+      <c r="BG7" s="35">
         <v>1327</v>
       </c>
-      <c r="BH7" s="7"/>
+      <c r="BH7" s="35">
+        <v>1331</v>
+      </c>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="7"/>
       <c r="BK7" s="7"/>
@@ -12828,13 +13445,15 @@
       <c r="BE8" s="7">
         <v>709</v>
       </c>
-      <c r="BF8" s="38">
+      <c r="BF8" s="35">
         <v>713</v>
       </c>
-      <c r="BG8" s="38">
+      <c r="BG8" s="35">
         <v>722</v>
       </c>
-      <c r="BH8" s="7"/>
+      <c r="BH8" s="35">
+        <v>729</v>
+      </c>
       <c r="BI8" s="7"/>
       <c r="BJ8" s="7"/>
       <c r="BK8" s="7"/>
@@ -13038,13 +13657,15 @@
       <c r="BE9" s="7">
         <v>1194</v>
       </c>
-      <c r="BF9" s="38">
+      <c r="BF9" s="35">
         <v>1204</v>
       </c>
-      <c r="BG9" s="38">
+      <c r="BG9" s="35">
         <v>1219</v>
       </c>
-      <c r="BH9" s="7"/>
+      <c r="BH9" s="35">
+        <v>1224</v>
+      </c>
       <c r="BI9" s="7"/>
       <c r="BJ9" s="7"/>
       <c r="BK9" s="7"/>
@@ -13248,13 +13869,15 @@
       <c r="BE10" s="7">
         <v>1156</v>
       </c>
-      <c r="BF10" s="38">
+      <c r="BF10" s="35">
         <v>1174</v>
       </c>
-      <c r="BG10" s="38">
+      <c r="BG10" s="35">
         <v>1191</v>
       </c>
-      <c r="BH10" s="7"/>
+      <c r="BH10" s="35">
+        <v>1196</v>
+      </c>
       <c r="BI10" s="7"/>
       <c r="BJ10" s="7"/>
       <c r="BK10" s="7"/>
@@ -13458,13 +14081,15 @@
       <c r="BE11" s="7">
         <v>129</v>
       </c>
-      <c r="BF11" s="38">
+      <c r="BF11" s="35">
         <v>131</v>
       </c>
-      <c r="BG11" s="38">
+      <c r="BG11" s="35">
         <v>136</v>
       </c>
-      <c r="BH11" s="7"/>
+      <c r="BH11" s="35">
+        <v>137</v>
+      </c>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="7"/>
       <c r="BK11" s="7"/>
@@ -13507,20 +14132,21 @@
   <dimension ref="A1:CE19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="BE5" sqref="BE5"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="BF10" sqref="BF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="55" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="55" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83">
@@ -13689,7 +14315,9 @@
       <c r="BC1" s="4">
         <v>43978</v>
       </c>
-      <c r="BD1" s="4"/>
+      <c r="BD1" s="36">
+        <v>43979</v>
+      </c>
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>
       <c r="BG1" s="4"/>
@@ -13881,10 +14509,12 @@
       <c r="BB2" s="7">
         <v>1028</v>
       </c>
-      <c r="BC2" s="38">
+      <c r="BC2" s="35">
         <v>1006</v>
       </c>
-      <c r="BD2" s="7"/>
+      <c r="BD2" s="35">
+        <v>870</v>
+      </c>
       <c r="BE2" s="7"/>
       <c r="BF2" s="7"/>
       <c r="BG2" s="7"/>
@@ -14076,10 +14706,12 @@
       <c r="BB3" s="7">
         <v>1293</v>
       </c>
-      <c r="BC3" s="38">
+      <c r="BC3" s="35">
         <v>1300</v>
       </c>
-      <c r="BD3" s="7"/>
+      <c r="BD3" s="35">
+        <v>1331</v>
+      </c>
       <c r="BE3" s="7"/>
       <c r="BF3" s="7"/>
       <c r="BG3" s="7"/>
@@ -14271,10 +14903,12 @@
       <c r="BB4" s="7">
         <v>3839</v>
       </c>
-      <c r="BC4" s="38">
+      <c r="BC4" s="35">
         <v>3896</v>
       </c>
-      <c r="BD4" s="7"/>
+      <c r="BD4" s="35">
+        <v>3991</v>
+      </c>
       <c r="BE4" s="7"/>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
@@ -14466,10 +15100,12 @@
       <c r="BB5" s="7">
         <v>104</v>
       </c>
-      <c r="BC5" s="38">
+      <c r="BC5" s="35">
         <v>106</v>
       </c>
-      <c r="BD5" s="7"/>
+      <c r="BD5" s="35">
+        <v>106</v>
+      </c>
       <c r="BE5" s="7"/>
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
@@ -14661,10 +15297,12 @@
       <c r="BB6" s="7">
         <v>24</v>
       </c>
-      <c r="BC6" s="38">
+      <c r="BC6" s="35">
         <v>24</v>
       </c>
-      <c r="BD6" s="7"/>
+      <c r="BD6" s="35">
+        <v>26</v>
+      </c>
       <c r="BE6" s="7"/>
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
@@ -14852,10 +15490,12 @@
       <c r="BB7" s="7">
         <v>20</v>
       </c>
-      <c r="BC7" s="38">
+      <c r="BC7" s="35">
         <v>20</v>
       </c>
-      <c r="BD7" s="7"/>
+      <c r="BD7" s="35">
+        <v>21</v>
+      </c>
       <c r="BE7" s="7"/>
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
@@ -15047,10 +15687,12 @@
       <c r="BB8" s="7">
         <v>2051</v>
       </c>
-      <c r="BC8" s="38">
+      <c r="BC8" s="35">
         <v>2092</v>
       </c>
-      <c r="BD8" s="7"/>
+      <c r="BD8" s="35">
+        <v>2135</v>
+      </c>
       <c r="BE8" s="7"/>
       <c r="BF8" s="7"/>
       <c r="BG8" s="7"/>
@@ -15242,10 +15884,12 @@
       <c r="BB9" s="7">
         <v>47</v>
       </c>
-      <c r="BC9" s="38">
+      <c r="BC9" s="35">
         <v>48</v>
       </c>
-      <c r="BD9" s="7"/>
+      <c r="BD9" s="35">
+        <v>58</v>
+      </c>
       <c r="BE9" s="7"/>
       <c r="BF9" s="7"/>
       <c r="BG9" s="7"/>
@@ -15437,10 +16081,12 @@
       <c r="BB10" s="7">
         <v>1612</v>
       </c>
-      <c r="BC10" s="38">
+      <c r="BC10" s="35">
         <v>1618</v>
       </c>
-      <c r="BD10" s="7"/>
+      <c r="BD10" s="35">
+        <v>1419</v>
+      </c>
       <c r="BE10" s="7"/>
       <c r="BF10" s="7"/>
       <c r="BG10" s="7"/>
@@ -15632,10 +16278,12 @@
       <c r="BB11" s="7">
         <v>2138</v>
       </c>
-      <c r="BC11" s="38">
+      <c r="BC11" s="35">
         <v>2173</v>
       </c>
-      <c r="BD11" s="7"/>
+      <c r="BD11" s="35">
+        <v>2272</v>
+      </c>
       <c r="BE11" s="7"/>
       <c r="BF11" s="7"/>
       <c r="BG11" s="7"/>
@@ -15827,10 +16475,12 @@
       <c r="BB12" s="7">
         <v>4630</v>
       </c>
-      <c r="BC12" s="38">
+      <c r="BC12" s="35">
         <v>4674</v>
       </c>
-      <c r="BD12" s="7"/>
+      <c r="BD12" s="35">
+        <v>4822</v>
+      </c>
       <c r="BE12" s="7"/>
       <c r="BF12" s="7"/>
       <c r="BG12" s="7"/>
@@ -16022,10 +16672,12 @@
       <c r="BB13" s="7">
         <v>26</v>
       </c>
-      <c r="BC13" s="38">
+      <c r="BC13" s="35">
         <v>27</v>
       </c>
-      <c r="BD13" s="7"/>
+      <c r="BD13" s="35">
+        <v>25</v>
+      </c>
       <c r="BE13" s="7"/>
       <c r="BF13" s="7"/>
       <c r="BG13" s="7"/>
@@ -16110,7 +16762,7 @@
       <c r="BA14" s="7"/>
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
-      <c r="BD14" s="7"/>
+      <c r="BD14" s="35"/>
       <c r="BE14" s="7"/>
       <c r="BF14" s="7"/>
       <c r="BG14" s="7"/>
@@ -16195,7 +16847,7 @@
       <c r="BA15" s="7"/>
       <c r="BB15" s="7"/>
       <c r="BC15" s="7"/>
-      <c r="BD15" s="7"/>
+      <c r="BD15" s="35"/>
       <c r="BE15" s="7"/>
       <c r="BF15" s="7"/>
       <c r="BG15" s="7"/>
@@ -16280,7 +16932,7 @@
       <c r="BA16" s="7"/>
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
-      <c r="BD16" s="7"/>
+      <c r="BD16" s="35"/>
       <c r="BE16" s="7"/>
       <c r="BF16" s="7"/>
       <c r="BG16" s="7"/>
@@ -16329,14 +16981,14 @@
   <dimension ref="A1:CH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB8" sqref="BB8"/>
+      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="45" max="54" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="45" max="55" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86">
@@ -16500,7 +17152,9 @@
       <c r="BB1" s="4">
         <v>43978</v>
       </c>
-      <c r="BC1" s="4"/>
+      <c r="BC1" s="4">
+        <v>43979</v>
+      </c>
       <c r="BD1" s="4"/>
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>
@@ -16786,7 +17440,9 @@
       <c r="BB3" s="7">
         <v>7</v>
       </c>
-      <c r="BC3" s="7"/>
+      <c r="BC3" s="7">
+        <v>7</v>
+      </c>
       <c r="BD3" s="7"/>
       <c r="BE3" s="7"/>
       <c r="BF3" s="7"/>
@@ -16982,7 +17638,9 @@
       <c r="BB4" s="7">
         <v>339</v>
       </c>
-      <c r="BC4" s="7"/>
+      <c r="BC4" s="7">
+        <v>333</v>
+      </c>
       <c r="BD4" s="7"/>
       <c r="BE4" s="7"/>
       <c r="BF4" s="7"/>
@@ -17178,7 +17836,9 @@
       <c r="BB5" s="7">
         <v>51</v>
       </c>
-      <c r="BC5" s="7"/>
+      <c r="BC5" s="7">
+        <v>47</v>
+      </c>
       <c r="BD5" s="7"/>
       <c r="BE5" s="7"/>
       <c r="BF5" s="7"/>
@@ -17374,7 +18034,9 @@
       <c r="BB6" s="7">
         <v>52</v>
       </c>
-      <c r="BC6" s="7"/>
+      <c r="BC6" s="7">
+        <v>49</v>
+      </c>
       <c r="BD6" s="7"/>
       <c r="BE6" s="7"/>
       <c r="BF6" s="7"/>
@@ -17568,7 +18230,9 @@
       <c r="BB7" s="7">
         <v>4</v>
       </c>
-      <c r="BC7" s="7"/>
+      <c r="BC7" s="7">
+        <v>4</v>
+      </c>
       <c r="BD7" s="7"/>
       <c r="BE7" s="7"/>
       <c r="BF7" s="7"/>
@@ -17993,17 +18657,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F09139-DF15-7543-80A9-E66C02C72DE5}">
   <dimension ref="A1:CL26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="90" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="90" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90">
@@ -18214,7 +18878,7 @@
         <v>4767</v>
       </c>
       <c r="E3" s="7">
-        <v>4836</v>
+        <v>4951</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -18316,7 +18980,7 @@
         <v>3678</v>
       </c>
       <c r="E4" s="7">
-        <v>3412</v>
+        <v>3513</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -18418,7 +19082,7 @@
         <v>3471</v>
       </c>
       <c r="E5" s="7">
-        <v>3540</v>
+        <v>3645</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -18520,7 +19184,7 @@
         <v>6342</v>
       </c>
       <c r="E6" s="7">
-        <v>6410</v>
+        <v>6597</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -18622,7 +19286,7 @@
         <v>5862</v>
       </c>
       <c r="E7" s="7">
-        <v>5928</v>
+        <v>6096</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -18724,7 +19388,7 @@
         <v>4816</v>
       </c>
       <c r="E8" s="7">
-        <v>4911</v>
+        <v>5067</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -18826,7 +19490,7 @@
         <v>5446</v>
       </c>
       <c r="E9" s="7">
-        <v>5773</v>
+        <v>5911</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -18928,7 +19592,7 @@
         <v>5815</v>
       </c>
       <c r="E10" s="7">
-        <v>5909</v>
+        <v>6040</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -19030,7 +19694,7 @@
         <v>1982</v>
       </c>
       <c r="E11" s="7">
-        <v>2101</v>
+        <v>2171</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -19165,18 +19829,18 @@
   <dimension ref="A1:DF99"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CD86" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CF100" sqref="CF100"/>
+      <pane xSplit="2" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CG21" sqref="CG21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="110" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="110" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:110">
@@ -19428,7 +20092,9 @@
       <c r="CF1" s="4">
         <v>43978</v>
       </c>
-      <c r="CG1" s="4"/>
+      <c r="CG1" s="4">
+        <v>43979</v>
+      </c>
       <c r="CH1" s="4"/>
       <c r="CI1" s="4"/>
       <c r="CJ1" s="4"/>
@@ -19810,7 +20476,9 @@
       <c r="CF3" s="11">
         <v>43514</v>
       </c>
-      <c r="CG3" s="11"/>
+      <c r="CG3" s="11">
+        <v>43858</v>
+      </c>
       <c r="CH3" s="11"/>
       <c r="CI3" s="11"/>
       <c r="CJ3" s="11"/>
@@ -19938,7 +20606,9 @@
       <c r="CF4" s="11">
         <v>36284</v>
       </c>
-      <c r="CG4" s="11"/>
+      <c r="CG4" s="11">
+        <v>36511</v>
+      </c>
       <c r="CH4" s="11"/>
       <c r="CI4" s="11"/>
       <c r="CJ4" s="11"/>
@@ -20218,7 +20888,9 @@
       <c r="CF5" s="11">
         <v>8492</v>
       </c>
-      <c r="CG5" s="11"/>
+      <c r="CG5" s="11">
+        <v>8538</v>
+      </c>
       <c r="CH5" s="11"/>
       <c r="CI5" s="11"/>
       <c r="CJ5" s="11"/>
@@ -20486,7 +21158,9 @@
       <c r="CF6" s="11">
         <v>453</v>
       </c>
-      <c r="CG6" s="11"/>
+      <c r="CG6" s="11">
+        <v>460</v>
+      </c>
       <c r="CH6" s="11"/>
       <c r="CI6" s="11"/>
       <c r="CJ6" s="11"/>
@@ -20734,7 +21408,9 @@
       <c r="CF7" s="11">
         <v>1082</v>
       </c>
-      <c r="CG7" s="11"/>
+      <c r="CG7" s="11">
+        <v>1089</v>
+      </c>
       <c r="CH7" s="11"/>
       <c r="CI7" s="11"/>
       <c r="CJ7" s="11"/>
@@ -21022,7 +21698,9 @@
       <c r="CF9" s="11">
         <v>345</v>
       </c>
-      <c r="CG9" s="11"/>
+      <c r="CG9" s="11">
+        <v>345</v>
+      </c>
       <c r="CH9" s="11"/>
       <c r="CI9" s="11"/>
       <c r="CJ9" s="11"/>
@@ -21266,7 +21944,9 @@
       <c r="CF10" s="11">
         <v>76</v>
       </c>
-      <c r="CG10" s="11"/>
+      <c r="CG10" s="11">
+        <v>90</v>
+      </c>
       <c r="CH10" s="11"/>
       <c r="CI10" s="11"/>
       <c r="CJ10" s="11"/>
@@ -21510,7 +22190,9 @@
       <c r="CF11" s="11">
         <v>440</v>
       </c>
-      <c r="CG11" s="11"/>
+      <c r="CG11" s="11">
+        <v>440</v>
+      </c>
       <c r="CH11" s="11"/>
       <c r="CI11" s="11"/>
       <c r="CJ11" s="11"/>
@@ -21754,7 +22436,9 @@
       <c r="CF12" s="11">
         <v>218</v>
       </c>
-      <c r="CG12" s="11"/>
+      <c r="CG12" s="11">
+        <v>223</v>
+      </c>
       <c r="CH12" s="11"/>
       <c r="CI12" s="11"/>
       <c r="CJ12" s="11"/>
@@ -21998,7 +22682,9 @@
       <c r="CF13" s="11">
         <v>222</v>
       </c>
-      <c r="CG13" s="11"/>
+      <c r="CG13" s="11">
+        <v>217</v>
+      </c>
       <c r="CH13" s="11"/>
       <c r="CI13" s="11"/>
       <c r="CJ13" s="11"/>
@@ -22150,7 +22836,9 @@
       <c r="CF14" s="11">
         <v>343</v>
       </c>
-      <c r="CG14" s="11"/>
+      <c r="CG14" s="11">
+        <v>338</v>
+      </c>
       <c r="CH14" s="11"/>
       <c r="CI14" s="11"/>
       <c r="CJ14" s="11"/>
@@ -22282,7 +22970,9 @@
       <c r="CF15" s="11">
         <v>108</v>
       </c>
-      <c r="CG15" s="11"/>
+      <c r="CG15" s="11">
+        <v>114</v>
+      </c>
       <c r="CH15" s="11"/>
       <c r="CI15" s="11"/>
       <c r="CJ15" s="11"/>
@@ -22434,7 +23124,9 @@
       <c r="CF16" s="11">
         <v>1939</v>
       </c>
-      <c r="CG16" s="11"/>
+      <c r="CG16" s="11">
+        <v>1981</v>
+      </c>
       <c r="CH16" s="11"/>
       <c r="CI16" s="11"/>
       <c r="CJ16" s="11"/>
@@ -23134,7 +23826,9 @@
       <c r="CF21" s="11">
         <v>107</v>
       </c>
-      <c r="CG21" s="11"/>
+      <c r="CG21" s="11">
+        <v>109</v>
+      </c>
       <c r="CH21" s="11"/>
       <c r="CI21" s="11"/>
       <c r="CJ21" s="11"/>
@@ -23344,7 +24038,9 @@
       <c r="CF22" s="11">
         <v>18</v>
       </c>
-      <c r="CG22" s="11"/>
+      <c r="CG22" s="11">
+        <v>20</v>
+      </c>
       <c r="CH22" s="11"/>
       <c r="CI22" s="11"/>
       <c r="CJ22" s="11"/>
@@ -23554,7 +24250,9 @@
       <c r="CF23" s="11">
         <v>89</v>
       </c>
-      <c r="CG23" s="11"/>
+      <c r="CG23" s="11">
+        <v>89</v>
+      </c>
       <c r="CH23" s="11"/>
       <c r="CI23" s="11"/>
       <c r="CJ23" s="11"/>
@@ -23794,7 +24492,9 @@
       <c r="CF24" s="11">
         <v>154</v>
       </c>
-      <c r="CG24" s="11"/>
+      <c r="CG24" s="11">
+        <v>118</v>
+      </c>
       <c r="CH24" s="11"/>
       <c r="CI24" s="11"/>
       <c r="CJ24" s="11"/>
@@ -24034,7 +24734,9 @@
       <c r="CF25" s="11">
         <v>172</v>
       </c>
-      <c r="CG25" s="11"/>
+      <c r="CG25" s="11">
+        <v>138</v>
+      </c>
       <c r="CH25" s="11"/>
       <c r="CI25" s="11"/>
       <c r="CJ25" s="11"/>
@@ -24274,7 +24976,9 @@
       <c r="CF26" s="11">
         <v>1324</v>
       </c>
-      <c r="CG26" s="11"/>
+      <c r="CG26" s="11">
+        <v>1324</v>
+      </c>
       <c r="CH26" s="11"/>
       <c r="CI26" s="11"/>
       <c r="CJ26" s="11"/>
@@ -24746,7 +25450,9 @@
       <c r="CF29" s="11">
         <v>132</v>
       </c>
-      <c r="CG29" s="11"/>
+      <c r="CG29" s="11">
+        <v>132</v>
+      </c>
       <c r="CH29" s="11"/>
       <c r="CI29" s="11"/>
       <c r="CJ29" s="11"/>
@@ -24956,7 +25662,9 @@
       <c r="CF30" s="11">
         <v>31</v>
       </c>
-      <c r="CG30" s="11"/>
+      <c r="CG30" s="11">
+        <v>28</v>
+      </c>
       <c r="CH30" s="11"/>
       <c r="CI30" s="11"/>
       <c r="CJ30" s="11"/>
@@ -25166,7 +25874,9 @@
       <c r="CF31" s="11">
         <v>101</v>
       </c>
-      <c r="CG31" s="11"/>
+      <c r="CG31" s="11">
+        <v>104</v>
+      </c>
       <c r="CH31" s="11"/>
       <c r="CI31" s="11"/>
       <c r="CJ31" s="11"/>
@@ -25406,7 +26116,9 @@
       <c r="CF32" s="11">
         <v>59</v>
       </c>
-      <c r="CG32" s="11"/>
+      <c r="CG32" s="11">
+        <v>57</v>
+      </c>
       <c r="CH32" s="11"/>
       <c r="CI32" s="11"/>
       <c r="CJ32" s="11"/>
@@ -25646,7 +26358,9 @@
       <c r="CF33" s="11">
         <v>90</v>
       </c>
-      <c r="CG33" s="11"/>
+      <c r="CG33" s="11">
+        <v>85</v>
+      </c>
       <c r="CH33" s="11"/>
       <c r="CI33" s="11"/>
       <c r="CJ33" s="11"/>
@@ -25886,7 +26600,9 @@
       <c r="CF34" s="11">
         <v>1178</v>
       </c>
-      <c r="CG34" s="11"/>
+      <c r="CG34" s="11">
+        <v>1194</v>
+      </c>
       <c r="CH34" s="11"/>
       <c r="CI34" s="11"/>
       <c r="CJ34" s="11"/>
@@ -26350,7 +27066,9 @@
       <c r="CF37" s="11">
         <v>80</v>
       </c>
-      <c r="CG37" s="11"/>
+      <c r="CG37" s="11">
+        <v>80</v>
+      </c>
       <c r="CH37" s="11"/>
       <c r="CI37" s="11"/>
       <c r="CJ37" s="11"/>
@@ -26556,7 +27274,9 @@
       <c r="CF38" s="11">
         <v>6</v>
       </c>
-      <c r="CG38" s="11"/>
+      <c r="CG38" s="11">
+        <v>6</v>
+      </c>
       <c r="CH38" s="11"/>
       <c r="CI38" s="11"/>
       <c r="CJ38" s="11"/>
@@ -26762,7 +27482,9 @@
       <c r="CF39" s="11">
         <v>73</v>
       </c>
-      <c r="CG39" s="11"/>
+      <c r="CG39" s="11">
+        <v>73</v>
+      </c>
       <c r="CH39" s="11"/>
       <c r="CI39" s="11"/>
       <c r="CJ39" s="11"/>
@@ -26998,7 +27720,9 @@
       <c r="CF40" s="11">
         <v>1</v>
       </c>
-      <c r="CG40" s="11"/>
+      <c r="CG40" s="11">
+        <v>1</v>
+      </c>
       <c r="CH40" s="11"/>
       <c r="CI40" s="11"/>
       <c r="CJ40" s="11"/>
@@ -27232,7 +27956,9 @@
       <c r="CF41" s="11">
         <v>7</v>
       </c>
-      <c r="CG41" s="11"/>
+      <c r="CG41" s="11">
+        <v>7</v>
+      </c>
       <c r="CH41" s="11"/>
       <c r="CI41" s="11"/>
       <c r="CJ41" s="11"/>
@@ -27470,7 +28196,9 @@
       <c r="CF42" s="11">
         <v>281</v>
       </c>
-      <c r="CG42" s="11"/>
+      <c r="CG42" s="11">
+        <v>281</v>
+      </c>
       <c r="CH42" s="11"/>
       <c r="CI42" s="11"/>
       <c r="CJ42" s="11"/>
@@ -27664,7 +28392,9 @@
       <c r="CF43" s="11">
         <v>1</v>
       </c>
-      <c r="CG43" s="11"/>
+      <c r="CG43" s="11">
+        <v>1</v>
+      </c>
       <c r="CH43" s="11"/>
       <c r="CI43" s="11"/>
       <c r="CJ43" s="11"/>
@@ -28132,7 +28862,9 @@
       <c r="CF46" s="11">
         <v>205</v>
       </c>
-      <c r="CG46" s="11"/>
+      <c r="CG46" s="11">
+        <v>205</v>
+      </c>
       <c r="CH46" s="11"/>
       <c r="CI46" s="11"/>
       <c r="CJ46" s="11"/>
@@ -28342,7 +29074,9 @@
       <c r="CF47" s="11">
         <v>25</v>
       </c>
-      <c r="CG47" s="11"/>
+      <c r="CG47" s="11">
+        <v>25</v>
+      </c>
       <c r="CH47" s="11"/>
       <c r="CI47" s="11"/>
       <c r="CJ47" s="11"/>
@@ -28552,7 +29286,9 @@
       <c r="CF48" s="11">
         <v>174</v>
       </c>
-      <c r="CG48" s="11"/>
+      <c r="CG48" s="11">
+        <v>174</v>
+      </c>
       <c r="CH48" s="11"/>
       <c r="CI48" s="11"/>
       <c r="CJ48" s="11"/>
@@ -28792,7 +29528,9 @@
       <c r="CF49" s="11">
         <v>619</v>
       </c>
-      <c r="CG49" s="11"/>
+      <c r="CG49" s="11">
+        <v>494</v>
+      </c>
       <c r="CH49" s="11"/>
       <c r="CI49" s="11"/>
       <c r="CJ49" s="11"/>
@@ -29002,7 +29740,9 @@
       <c r="CF50" s="11">
         <v>644</v>
       </c>
-      <c r="CG50" s="11"/>
+      <c r="CG50" s="11">
+        <v>519</v>
+      </c>
       <c r="CH50" s="11"/>
       <c r="CI50" s="11"/>
       <c r="CJ50" s="11"/>
@@ -29210,7 +29950,9 @@
       <c r="CF51" s="11">
         <v>708</v>
       </c>
-      <c r="CG51" s="11"/>
+      <c r="CG51" s="11">
+        <v>839</v>
+      </c>
       <c r="CH51" s="11"/>
       <c r="CI51" s="11"/>
       <c r="CJ51" s="11"/>
@@ -29414,7 +30156,9 @@
       <c r="CF52" s="11">
         <v>1</v>
       </c>
-      <c r="CG52" s="11"/>
+      <c r="CG52" s="11">
+        <v>1</v>
+      </c>
       <c r="CH52" s="11"/>
       <c r="CI52" s="11"/>
       <c r="CJ52" s="11"/>
@@ -29872,7 +30616,9 @@
       <c r="CF55" s="11">
         <v>30</v>
       </c>
-      <c r="CG55" s="11"/>
+      <c r="CG55" s="11">
+        <v>30</v>
+      </c>
       <c r="CH55" s="11"/>
       <c r="CI55" s="11"/>
       <c r="CJ55" s="11"/>
@@ -30080,7 +30826,9 @@
       <c r="CF56" s="11">
         <v>10</v>
       </c>
-      <c r="CG56" s="11"/>
+      <c r="CG56" s="11">
+        <v>8</v>
+      </c>
       <c r="CH56" s="11"/>
       <c r="CI56" s="11"/>
       <c r="CJ56" s="11"/>
@@ -30288,7 +31036,9 @@
       <c r="CF57" s="11">
         <v>19</v>
       </c>
-      <c r="CG57" s="11"/>
+      <c r="CG57" s="11">
+        <v>21</v>
+      </c>
       <c r="CH57" s="11"/>
       <c r="CI57" s="11"/>
       <c r="CJ57" s="11"/>
@@ -30520,7 +31270,9 @@
       <c r="CF58" s="11">
         <v>21</v>
       </c>
-      <c r="CG58" s="11"/>
+      <c r="CG58" s="11">
+        <v>20</v>
+      </c>
       <c r="CH58" s="11"/>
       <c r="CI58" s="11"/>
       <c r="CJ58" s="11"/>
@@ -30752,7 +31504,9 @@
       <c r="CF59" s="11">
         <v>31</v>
       </c>
-      <c r="CG59" s="11"/>
+      <c r="CG59" s="11">
+        <v>28</v>
+      </c>
       <c r="CH59" s="11"/>
       <c r="CI59" s="11"/>
       <c r="CJ59" s="11"/>
@@ -30984,7 +31738,9 @@
       <c r="CF60" s="11">
         <v>138</v>
       </c>
-      <c r="CG60" s="11"/>
+      <c r="CG60" s="11">
+        <v>141</v>
+      </c>
       <c r="CH60" s="11"/>
       <c r="CI60" s="11"/>
       <c r="CJ60" s="11"/>
@@ -31188,7 +31944,9 @@
       <c r="CF61" s="11">
         <v>1</v>
       </c>
-      <c r="CG61" s="11"/>
+      <c r="CG61" s="11">
+        <v>1</v>
+      </c>
       <c r="CH61" s="11"/>
       <c r="CI61" s="11"/>
       <c r="CJ61" s="11"/>
@@ -31532,7 +32290,9 @@
       <c r="CF63" s="11">
         <v>11</v>
       </c>
-      <c r="CG63" s="11"/>
+      <c r="CG63" s="11">
+        <v>11</v>
+      </c>
       <c r="CH63" s="11"/>
       <c r="CI63" s="11"/>
       <c r="CJ63" s="11"/>
@@ -31740,7 +32500,9 @@
       <c r="CF64" s="11">
         <v>4</v>
       </c>
-      <c r="CG64" s="11"/>
+      <c r="CG64" s="11">
+        <v>4</v>
+      </c>
       <c r="CH64" s="11"/>
       <c r="CI64" s="11"/>
       <c r="CJ64" s="11"/>
@@ -31948,7 +32710,9 @@
       <c r="CF65" s="11">
         <v>7</v>
       </c>
-      <c r="CG65" s="11"/>
+      <c r="CG65" s="11">
+        <v>7</v>
+      </c>
       <c r="CH65" s="11"/>
       <c r="CI65" s="11"/>
       <c r="CJ65" s="11"/>
@@ -32180,7 +32944,9 @@
       <c r="CF66" s="11">
         <v>46</v>
       </c>
-      <c r="CG66" s="11"/>
+      <c r="CG66" s="11">
+        <v>46</v>
+      </c>
       <c r="CH66" s="11"/>
       <c r="CI66" s="11"/>
       <c r="CJ66" s="11"/>
@@ -32412,7 +33178,9 @@
       <c r="CF67" s="11">
         <v>50</v>
       </c>
-      <c r="CG67" s="11"/>
+      <c r="CG67" s="11">
+        <v>50</v>
+      </c>
       <c r="CH67" s="11"/>
       <c r="CI67" s="11"/>
       <c r="CJ67" s="11"/>
@@ -32642,7 +33410,9 @@
       <c r="CF68" s="11">
         <v>0</v>
       </c>
-      <c r="CG68" s="11"/>
+      <c r="CG68" s="11">
+        <v>0</v>
+      </c>
       <c r="CH68" s="11"/>
       <c r="CI68" s="11"/>
       <c r="CJ68" s="11"/>
@@ -32850,7 +33620,9 @@
       <c r="CF69" s="11">
         <v>0</v>
       </c>
-      <c r="CG69" s="11"/>
+      <c r="CG69" s="11">
+        <v>0</v>
+      </c>
       <c r="CH69" s="11"/>
       <c r="CI69" s="11"/>
       <c r="CJ69" s="11"/>
@@ -33094,7 +33866,9 @@
       <c r="CF71" s="11">
         <v>10</v>
       </c>
-      <c r="CG71" s="11"/>
+      <c r="CG71" s="11">
+        <v>10</v>
+      </c>
       <c r="CH71" s="11"/>
       <c r="CI71" s="11"/>
       <c r="CJ71" s="11"/>
@@ -33226,7 +34000,9 @@
       <c r="CF72" s="11">
         <v>7</v>
       </c>
-      <c r="CG72" s="11"/>
+      <c r="CG72" s="11">
+        <v>6</v>
+      </c>
       <c r="CH72" s="11"/>
       <c r="CI72" s="11"/>
       <c r="CJ72" s="11"/>
@@ -33358,7 +34134,9 @@
       <c r="CF73" s="11">
         <v>3</v>
       </c>
-      <c r="CG73" s="11"/>
+      <c r="CG73" s="11">
+        <v>4</v>
+      </c>
       <c r="CH73" s="11"/>
       <c r="CI73" s="11"/>
       <c r="CJ73" s="11"/>
@@ -33490,7 +34268,9 @@
       <c r="CF74" s="11">
         <v>13</v>
       </c>
-      <c r="CG74" s="11"/>
+      <c r="CG74" s="11">
+        <v>12</v>
+      </c>
       <c r="CH74" s="11"/>
       <c r="CI74" s="11"/>
       <c r="CJ74" s="11"/>
@@ -33622,7 +34402,9 @@
       <c r="CF75" s="11">
         <v>20</v>
       </c>
-      <c r="CG75" s="11"/>
+      <c r="CG75" s="11">
+        <v>18</v>
+      </c>
       <c r="CH75" s="11"/>
       <c r="CI75" s="11"/>
       <c r="CJ75" s="11"/>
@@ -33754,7 +34536,9 @@
       <c r="CF76" s="11">
         <v>26</v>
       </c>
-      <c r="CG76" s="11"/>
+      <c r="CG76" s="11">
+        <v>28</v>
+      </c>
       <c r="CH76" s="11"/>
       <c r="CI76" s="11"/>
       <c r="CJ76" s="11"/>
@@ -34212,7 +34996,9 @@
       <c r="CF79" s="11">
         <v>295</v>
       </c>
-      <c r="CG79" s="11"/>
+      <c r="CG79" s="11">
+        <v>295</v>
+      </c>
       <c r="CH79" s="11"/>
       <c r="CI79" s="11"/>
       <c r="CJ79" s="11"/>
@@ -34444,7 +35230,9 @@
       <c r="CF80" s="11">
         <v>167</v>
       </c>
-      <c r="CG80" s="11"/>
+      <c r="CG80" s="11">
+        <v>148</v>
+      </c>
       <c r="CH80" s="11"/>
       <c r="CI80" s="11"/>
       <c r="CJ80" s="11"/>
@@ -34676,7 +35464,9 @@
       <c r="CF81" s="11">
         <v>135</v>
       </c>
-      <c r="CG81" s="11"/>
+      <c r="CG81" s="11">
+        <v>125</v>
+      </c>
       <c r="CH81" s="11"/>
       <c r="CI81" s="11"/>
       <c r="CJ81" s="11"/>
@@ -34880,7 +35670,9 @@
       <c r="CF82" s="11">
         <v>16</v>
       </c>
-      <c r="CG82" s="11"/>
+      <c r="CG82" s="11">
+        <v>16</v>
+      </c>
       <c r="CH82" s="11"/>
       <c r="CI82" s="11"/>
       <c r="CJ82" s="11"/>
@@ -35224,7 +36016,9 @@
       <c r="CF84" s="11">
         <v>116</v>
       </c>
-      <c r="CG84" s="11"/>
+      <c r="CG84" s="11">
+        <v>117</v>
+      </c>
       <c r="CH84" s="11"/>
       <c r="CI84" s="11"/>
       <c r="CJ84" s="11"/>
@@ -35456,7 +36250,9 @@
       <c r="CF85" s="11">
         <v>26</v>
       </c>
-      <c r="CG85" s="11"/>
+      <c r="CG85" s="11">
+        <v>27</v>
+      </c>
       <c r="CH85" s="11"/>
       <c r="CI85" s="11"/>
       <c r="CJ85" s="11"/>
@@ -35688,7 +36484,9 @@
       <c r="CF86" s="11">
         <v>142</v>
       </c>
-      <c r="CG86" s="11"/>
+      <c r="CG86" s="11">
+        <v>144</v>
+      </c>
       <c r="CH86" s="11"/>
       <c r="CI86" s="11"/>
       <c r="CJ86" s="11"/>
@@ -35912,7 +36710,9 @@
       <c r="CF87" s="11">
         <v>186</v>
       </c>
-      <c r="CG87" s="11"/>
+      <c r="CG87" s="11">
+        <v>187</v>
+      </c>
       <c r="CH87" s="11"/>
       <c r="CI87" s="11"/>
       <c r="CJ87" s="11"/>
@@ -36060,7 +36860,9 @@
       <c r="CF88" s="11">
         <v>1</v>
       </c>
-      <c r="CG88" s="11"/>
+      <c r="CG88" s="11">
+        <v>1</v>
+      </c>
       <c r="CH88" s="11"/>
       <c r="CI88" s="11"/>
       <c r="CJ88" s="11"/>
@@ -36363,7 +37165,9 @@
       <c r="CF90" s="11">
         <v>79</v>
       </c>
-      <c r="CG90" s="11"/>
+      <c r="CG90" s="11">
+        <v>80</v>
+      </c>
       <c r="CH90" s="11"/>
       <c r="CI90" s="11"/>
       <c r="CJ90" s="11"/>
@@ -36595,7 +37399,9 @@
       <c r="CF91" s="11">
         <v>31</v>
       </c>
-      <c r="CG91" s="11"/>
+      <c r="CG91" s="11">
+        <v>31</v>
+      </c>
       <c r="CH91" s="11"/>
       <c r="CI91" s="11"/>
       <c r="CJ91" s="11"/>
@@ -36805,7 +37611,9 @@
       <c r="CF92" s="11">
         <v>163</v>
       </c>
-      <c r="CG92" s="11"/>
+      <c r="CG92" s="11">
+        <v>163</v>
+      </c>
       <c r="CH92" s="11"/>
       <c r="CI92" s="11"/>
       <c r="CJ92" s="11"/>
@@ -37011,7 +37819,9 @@
       <c r="CF93" s="11">
         <v>32</v>
       </c>
-      <c r="CG93" s="11"/>
+      <c r="CG93" s="11">
+        <v>32</v>
+      </c>
       <c r="CH93" s="11"/>
       <c r="CI93" s="11"/>
       <c r="CJ93" s="11"/>
@@ -37241,7 +38051,9 @@
       <c r="CF94" s="11">
         <v>13</v>
       </c>
-      <c r="CG94" s="11"/>
+      <c r="CG94" s="11">
+        <v>13</v>
+      </c>
       <c r="CH94" s="11"/>
       <c r="CI94" s="11"/>
       <c r="CJ94" s="11"/>
@@ -37530,7 +38342,9 @@
       <c r="CF96" s="11">
         <v>183</v>
       </c>
-      <c r="CG96" s="11"/>
+      <c r="CG96" s="11">
+        <v>185</v>
+      </c>
       <c r="CH96" s="11"/>
       <c r="CI96" s="11"/>
       <c r="CJ96" s="11"/>
@@ -37708,7 +38522,9 @@
       <c r="CF97" s="11">
         <v>49</v>
       </c>
-      <c r="CG97" s="11"/>
+      <c r="CG97" s="11">
+        <v>53</v>
+      </c>
       <c r="CH97" s="11"/>
       <c r="CI97" s="11"/>
       <c r="CJ97" s="11"/>
@@ -37886,7 +38702,9 @@
       <c r="CF98" s="11">
         <v>25</v>
       </c>
-      <c r="CG98" s="11"/>
+      <c r="CG98" s="11">
+        <v>25</v>
+      </c>
       <c r="CH98" s="11"/>
       <c r="CI98" s="11"/>
       <c r="CJ98" s="11"/>
@@ -37991,18 +38809,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51A914D-4CED-7A43-8BD6-4514AC12DE8C}">
-  <dimension ref="A1:C1084"/>
+  <dimension ref="A1:C1136"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A996" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1086" sqref="B1086"/>
+      <pane ySplit="1" topLeftCell="A1098" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1085" sqref="A1085:A1136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -49929,6 +50747,578 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1085" spans="1:3">
+      <c r="A1085" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1085" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1085" s="19">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3">
+      <c r="A1086" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1086" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1086" s="19">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3">
+      <c r="A1087" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1087" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1087" s="19">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3">
+      <c r="A1088" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1088" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1088" s="19">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3">
+      <c r="A1089" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1089" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1089" s="19">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3">
+      <c r="A1090" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1090" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1090" s="19">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3">
+      <c r="A1091" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1091" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1091" s="19">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3">
+      <c r="A1092" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1092" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1092" s="19">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3">
+      <c r="A1093" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1093" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1093" s="19">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3">
+      <c r="A1094" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1094" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1094" s="19">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3">
+      <c r="A1095" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1095" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1095" s="19">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3">
+      <c r="A1096" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1096" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1096" s="19">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3">
+      <c r="A1097" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1097" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1097" s="19">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3">
+      <c r="A1098" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1098" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1098" s="19">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3">
+      <c r="A1099" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1099" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1099" s="19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3">
+      <c r="A1100" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1100" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1100" s="19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3">
+      <c r="A1101" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1101" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1101" s="19">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3">
+      <c r="A1102" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1102" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1102" s="19">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3">
+      <c r="A1103" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1103" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1103" s="19">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3">
+      <c r="A1104" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1104" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1104" s="19">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3">
+      <c r="A1105" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1105" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1105" s="19">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3">
+      <c r="A1106" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1106" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1106" s="19">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3">
+      <c r="A1107" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1107" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1107" s="19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3">
+      <c r="A1108" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1108" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1108" s="19">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3">
+      <c r="A1109" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1109" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1109" s="19">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3">
+      <c r="A1110" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1110" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1110" s="19">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3">
+      <c r="A1111" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1111" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1111" s="19">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3">
+      <c r="A1112" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1112" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1112" s="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3">
+      <c r="A1113" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1113" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1113" s="19">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3">
+      <c r="A1114" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1114" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1114" s="19">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3">
+      <c r="A1115" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1115" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1115" s="19">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3">
+      <c r="A1116" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1116" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1116" s="19">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3">
+      <c r="A1117" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1117" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1117" s="19">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3">
+      <c r="A1118" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1118" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1118" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3">
+      <c r="A1119" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1119" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1119" s="19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3">
+      <c r="A1120" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1120" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1120" s="19">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3">
+      <c r="A1121" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1121" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1121" s="19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3">
+      <c r="A1122" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1122" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1122" s="19">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3">
+      <c r="A1123" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1123" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1123" s="19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3">
+      <c r="A1124" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1124" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1124" s="19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3">
+      <c r="A1125" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1125" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1125" s="19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3">
+      <c r="A1126" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1126" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1126" s="19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3">
+      <c r="A1127" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1127" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1127" s="19">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3">
+      <c r="A1128" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1128" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1128" s="19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3">
+      <c r="A1129" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1129" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1129" s="19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3">
+      <c r="A1130" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1130" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1130" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3">
+      <c r="A1131" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1131" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1131" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3">
+      <c r="A1132" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1132" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1132" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3">
+      <c r="A1133" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1133" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1133" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3">
+      <c r="A1134" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1134" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1134" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3">
+      <c r="A1135" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1135" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1135" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3">
+      <c r="A1136" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B1136" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1136" s="19">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A350B93-4722-484D-9823-FA15D70DD7A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="8" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Age-Adjusted Rate by Ward" sheetId="11" r:id="rId12"/>
     <sheet name="Rates by Age Categories" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="206">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -675,7 +675,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,12 +763,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -870,7 +864,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -941,8 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1275,14 +1268,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="19">
+    <row r="1" spans="1:1" ht="18.95">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19">
+    <row r="2" spans="1:1" ht="18.95">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1294,18 +1287,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0704107B-CC38-954F-8D77-0E0C2F291C39}">
-  <dimension ref="A1:C412"/>
+  <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E366" sqref="E366"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A413" sqref="A413:A463"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5838,6 +5831,567 @@
       </c>
       <c r="C412" s="19">
         <v>14</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B413" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C413" s="20">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B414" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C414" s="20">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B415" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C415" s="20">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B416" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C416" s="20">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B417" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C417" s="20">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B418" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C418" s="20">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B419" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C419" s="20">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B420" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C420" s="20">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B421" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C421" s="20">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B422" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C422" s="20">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B423" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C423" s="20">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B424" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C424" s="20">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B425" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C425" s="20">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B426" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C426" s="20">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B427" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C427" s="20">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B428" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C428" s="20">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B429" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C429" s="20">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B430" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C430" s="19">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B431" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C431" s="19">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B432" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C432" s="19">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B433" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C433" s="19">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B434" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C434" s="19">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B435" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C435" s="19">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B436" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C436" s="19">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B437" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C437" s="19">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B438" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C438" s="19">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B439" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C439" s="19">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B440" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C440" s="19">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B441" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C441" s="19">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B442" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C442" s="19">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B443" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C443" s="19">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B444" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C444" s="19">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B445" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C445" s="19">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B446" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C446" s="19">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B447" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C447" s="19">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B448" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C448" s="19">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B449" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C449" s="19">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B450" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C450" s="19">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B451" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C451" s="19">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B452" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C452" s="19">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B453" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C453" s="19">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B454" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C454" s="19">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B455" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C455" s="19">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B456" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C456" s="19">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B457" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C457" s="19">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B458" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C458" s="19">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B459" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C459" s="19">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B460" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C460" s="19">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B461" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C461" s="19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B462" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C462" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B463" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C463" s="19">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5850,19 +6404,19 @@
   <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="24"/>
-    <col min="2" max="2" width="21.5" style="31" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="31" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="24"/>
+    <col min="2" max="2" width="21.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="105">
@@ -7267,13 +7821,27 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="26"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
+      <c r="A62" s="26">
+        <v>43981</v>
+      </c>
+      <c r="B62" s="28">
+        <v>1931</v>
+      </c>
+      <c r="C62" s="28">
+        <v>0</v>
+      </c>
+      <c r="D62" s="28">
+        <v>295</v>
+      </c>
+      <c r="E62" s="28">
+        <v>215</v>
+      </c>
+      <c r="F62" s="28">
+        <v>0</v>
+      </c>
+      <c r="G62" s="28">
+        <v>66</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="26"/>
@@ -10051,12 +10619,12 @@
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31">
+    <row r="1" spans="1:2" ht="30.95">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -10069,7 +10637,7 @@
         <v>182</v>
       </c>
       <c r="B2" s="18">
-        <v>1561.5</v>
+        <v>1568.7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10077,7 +10645,7 @@
         <v>183</v>
       </c>
       <c r="B3" s="18">
-        <v>700.7</v>
+        <v>683.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10085,7 +10653,7 @@
         <v>184</v>
       </c>
       <c r="B4" s="18">
-        <v>429.5</v>
+        <v>446.1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10093,7 +10661,7 @@
         <v>185</v>
       </c>
       <c r="B5" s="18">
-        <v>2052.1</v>
+        <v>2063.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10101,7 +10669,7 @@
         <v>186</v>
       </c>
       <c r="B6" s="18">
-        <v>1439.2</v>
+        <v>1452.1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10109,7 +10677,7 @@
         <v>187</v>
       </c>
       <c r="B7" s="18">
-        <v>816</v>
+        <v>823.1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10117,7 +10685,7 @@
         <v>188</v>
       </c>
       <c r="B8" s="18">
-        <v>1539.7</v>
+        <v>1557.2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10125,22 +10693,22 @@
         <v>189</v>
       </c>
       <c r="B9" s="23">
-        <v>1637.9</v>
+        <v>1666.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10158,14 +10726,14 @@
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31">
+    <row r="1" spans="1:5" ht="30.95">
       <c r="A1" s="33" t="s">
         <v>191</v>
       </c>
@@ -10207,13 +10775,13 @@
         <v>197</v>
       </c>
       <c r="C3" s="6">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E3" s="6">
-        <v>256.60000000000002</v>
+        <v>258.10000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10224,13 +10792,13 @@
         <v>198</v>
       </c>
       <c r="C4" s="6">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D4" s="6">
         <v>2.1</v>
       </c>
       <c r="E4" s="6">
-        <v>548.1</v>
+        <v>551.1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10241,13 +10809,13 @@
         <v>199</v>
       </c>
       <c r="C5" s="6">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D5" s="6">
         <v>5.5</v>
       </c>
       <c r="E5" s="6">
-        <v>907.9</v>
+        <v>913.6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10258,13 +10826,13 @@
         <v>200</v>
       </c>
       <c r="C6" s="6">
-        <v>1634</v>
+        <v>1649</v>
       </c>
       <c r="D6" s="6">
         <v>18.8</v>
       </c>
-      <c r="E6" s="6">
-        <v>999.6</v>
+      <c r="E6" s="34">
+        <v>1008.8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10275,13 +10843,13 @@
         <v>201</v>
       </c>
       <c r="C7" s="6">
-        <v>1577</v>
+        <v>1584</v>
       </c>
       <c r="D7" s="6">
-        <v>18.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="E7" s="34">
-        <v>1494.3</v>
+        <v>1500.9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10292,13 +10860,13 @@
         <v>202</v>
       </c>
       <c r="C8" s="6">
-        <v>1359</v>
+        <v>1370</v>
       </c>
       <c r="D8" s="6">
         <v>15.6</v>
       </c>
       <c r="E8" s="34">
-        <v>1799.4</v>
+        <v>1813.9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10309,13 +10877,13 @@
         <v>203</v>
       </c>
       <c r="C9" s="6">
-        <v>1432</v>
+        <v>1444</v>
       </c>
       <c r="D9" s="6">
         <v>16.399999999999999</v>
       </c>
       <c r="E9" s="34">
-        <v>2045.1</v>
+        <v>2062.1999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10326,13 +10894,13 @@
         <v>204</v>
       </c>
       <c r="C10" s="6">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="D10" s="6">
         <v>10.6</v>
       </c>
       <c r="E10" s="34">
-        <v>1892.2</v>
+        <v>1916.7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10343,13 +10911,13 @@
         <v>205</v>
       </c>
       <c r="C11" s="6">
-        <v>839</v>
+        <v>860</v>
       </c>
       <c r="D11" s="6">
-        <v>9.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E11" s="34">
-        <v>2280.3000000000002</v>
+        <v>2337.4</v>
       </c>
     </row>
   </sheetData>
@@ -10362,14 +10930,14 @@
   <dimension ref="A1:BQ21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP2" sqref="AP2:AP12"/>
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="31" max="42" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="31" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
@@ -10499,7 +11067,9 @@
       <c r="AP1" s="4">
         <v>43980</v>
       </c>
-      <c r="AQ1" s="4"/>
+      <c r="AQ1" s="4">
+        <v>43981</v>
+      </c>
       <c r="AR1" s="4"/>
       <c r="AS1" s="4"/>
       <c r="AT1" s="4"/>
@@ -10655,7 +11225,9 @@
       <c r="AP2" s="14">
         <v>462</v>
       </c>
-      <c r="AQ2" s="14"/>
+      <c r="AQ2" s="14">
+        <v>466</v>
+      </c>
       <c r="AR2" s="14"/>
       <c r="AS2" s="14"/>
       <c r="AT2" s="14"/>
@@ -10810,7 +11382,9 @@
       <c r="AP3" s="7">
         <v>47</v>
       </c>
-      <c r="AQ3" s="7"/>
+      <c r="AQ3" s="7">
+        <v>48</v>
+      </c>
       <c r="AR3" s="7"/>
       <c r="AS3" s="7"/>
       <c r="AT3" s="7"/>
@@ -10965,7 +11539,9 @@
       <c r="AP4" s="7">
         <v>29</v>
       </c>
-      <c r="AQ4" s="7"/>
+      <c r="AQ4" s="7">
+        <v>29</v>
+      </c>
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
@@ -11120,7 +11696,9 @@
       <c r="AP5" s="7">
         <v>30</v>
       </c>
-      <c r="AQ5" s="7"/>
+      <c r="AQ5" s="7">
+        <v>30</v>
+      </c>
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
@@ -11275,7 +11853,9 @@
       <c r="AP6" s="7">
         <v>65</v>
       </c>
-      <c r="AQ6" s="7"/>
+      <c r="AQ6" s="7">
+        <v>66</v>
+      </c>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
@@ -11430,7 +12010,9 @@
       <c r="AP7" s="7">
         <v>73</v>
       </c>
-      <c r="AQ7" s="7"/>
+      <c r="AQ7" s="7">
+        <v>74</v>
+      </c>
       <c r="AR7" s="7"/>
       <c r="AS7" s="7"/>
       <c r="AT7" s="7"/>
@@ -11585,7 +12167,9 @@
       <c r="AP8" s="7">
         <v>42</v>
       </c>
-      <c r="AQ8" s="7"/>
+      <c r="AQ8" s="7">
+        <v>42</v>
+      </c>
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
       <c r="AT8" s="7"/>
@@ -11740,7 +12324,9 @@
       <c r="AP9" s="7">
         <v>66</v>
       </c>
-      <c r="AQ9" s="7"/>
+      <c r="AQ9" s="7">
+        <v>66</v>
+      </c>
       <c r="AR9" s="7"/>
       <c r="AS9" s="7"/>
       <c r="AT9" s="7"/>
@@ -11895,7 +12481,9 @@
       <c r="AP10" s="7">
         <v>94</v>
       </c>
-      <c r="AQ10" s="7"/>
+      <c r="AQ10" s="7">
+        <v>95</v>
+      </c>
       <c r="AR10" s="7"/>
       <c r="AS10" s="7"/>
       <c r="AT10" s="7"/>
@@ -12050,7 +12638,9 @@
       <c r="AP11" s="7">
         <v>16</v>
       </c>
-      <c r="AQ11" s="7"/>
+      <c r="AQ11" s="7">
+        <v>16</v>
+      </c>
       <c r="AR11" s="7"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
@@ -12203,7 +12793,9 @@
       <c r="AP12" s="7">
         <v>0</v>
       </c>
-      <c r="AQ12" s="7"/>
+      <c r="AQ12" s="7">
+        <v>0</v>
+      </c>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
@@ -12269,15 +12861,15 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
     <col min="3" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="17.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -12303,7 +12895,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="27">
-        <v>8717</v>
+        <v>8801</v>
       </c>
       <c r="C2" s="27">
         <v>4323</v>
@@ -12312,7 +12904,7 @@
         <v>4373</v>
       </c>
       <c r="E2" s="27">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12320,13 +12912,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -12354,10 +12946,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="27">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="7">
         <v>85</v>
@@ -12371,10 +12963,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="27">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C6" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="7">
         <v>81</v>
@@ -12388,13 +12980,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="27">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C7" s="7">
         <v>277</v>
       </c>
       <c r="D7" s="7">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -12405,13 +12997,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="27">
-        <v>1634</v>
+        <v>1649</v>
       </c>
       <c r="C8" s="7">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="D8" s="7">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -12422,13 +13014,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="27">
-        <v>1577</v>
+        <v>1584</v>
       </c>
       <c r="C9" s="7">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="D9" s="7">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -12439,13 +13031,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="27">
-        <v>1359</v>
+        <v>1370</v>
       </c>
       <c r="C10" s="7">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="D10" s="7">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -12456,13 +13048,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="27">
-        <v>1432</v>
+        <v>1444</v>
       </c>
       <c r="C11" s="7">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="D11" s="7">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -12473,13 +13065,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="27">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="C12" s="7">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D12" s="7">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
@@ -12490,25 +13082,25 @@
         <v>20</v>
       </c>
       <c r="B13" s="27">
-        <v>839</v>
+        <v>860</v>
       </c>
       <c r="C13" s="7">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="D13" s="7">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E13" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="58" customHeight="1">
-      <c r="B14" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="57.95" customHeight="1">
+      <c r="B14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12523,15 +13115,15 @@
   <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BI3" sqref="BI3:BI11"/>
+      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BL5" sqref="BL5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="42" max="90" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="42" max="90" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90">
@@ -12810,7 +13402,9 @@
       <c r="BI2" s="4">
         <v>43980</v>
       </c>
-      <c r="BJ2" s="4"/>
+      <c r="BJ2" s="4">
+        <v>43981</v>
+      </c>
       <c r="BK2" s="4"/>
       <c r="BL2" s="4"/>
       <c r="BM2" s="4"/>
@@ -13024,7 +13618,9 @@
       <c r="BI3" s="35">
         <v>1221</v>
       </c>
-      <c r="BJ3" s="7"/>
+      <c r="BJ3" s="7">
+        <v>1229</v>
+      </c>
       <c r="BK3" s="7"/>
       <c r="BL3" s="7"/>
       <c r="BM3" s="7"/>
@@ -13238,7 +13834,9 @@
       <c r="BI4" s="35">
         <v>507</v>
       </c>
-      <c r="BJ4" s="7"/>
+      <c r="BJ4" s="7">
+        <v>498</v>
+      </c>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
@@ -13452,7 +14050,9 @@
       <c r="BI5" s="35">
         <v>400</v>
       </c>
-      <c r="BJ5" s="7"/>
+      <c r="BJ5" s="7">
+        <v>417</v>
+      </c>
       <c r="BK5" s="7"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
@@ -13666,7 +14266,9 @@
       <c r="BI6" s="35">
         <v>1828</v>
       </c>
-      <c r="BJ6" s="7"/>
+      <c r="BJ6" s="7">
+        <v>1840</v>
+      </c>
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
@@ -13880,7 +14482,9 @@
       <c r="BI7" s="35">
         <v>1351</v>
       </c>
-      <c r="BJ7" s="7"/>
+      <c r="BJ7" s="7">
+        <v>1364</v>
+      </c>
       <c r="BK7" s="7"/>
       <c r="BL7" s="7"/>
       <c r="BM7" s="7"/>
@@ -14094,7 +14698,9 @@
       <c r="BI8" s="35">
         <v>750</v>
       </c>
-      <c r="BJ8" s="7"/>
+      <c r="BJ8" s="7">
+        <v>755</v>
+      </c>
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
       <c r="BM8" s="7"/>
@@ -14308,7 +14914,9 @@
       <c r="BI9" s="35">
         <v>1269</v>
       </c>
-      <c r="BJ9" s="7"/>
+      <c r="BJ9" s="7">
+        <v>1285</v>
+      </c>
       <c r="BK9" s="7"/>
       <c r="BL9" s="7"/>
       <c r="BM9" s="7"/>
@@ -14522,7 +15130,9 @@
       <c r="BI10" s="35">
         <v>1242</v>
       </c>
-      <c r="BJ10" s="7"/>
+      <c r="BJ10" s="7">
+        <v>1259</v>
+      </c>
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
       <c r="BM10" s="7"/>
@@ -14736,7 +15346,9 @@
       <c r="BI11" s="35">
         <v>149</v>
       </c>
-      <c r="BJ11" s="7"/>
+      <c r="BJ11" s="7">
+        <v>154</v>
+      </c>
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
       <c r="BM11" s="7"/>
@@ -14778,20 +15390,21 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="BF2" sqref="BF2:BF13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG8" sqref="BG8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="55" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="55" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83">
@@ -14966,7 +15579,9 @@
       <c r="BE1" s="36">
         <v>43980</v>
       </c>
-      <c r="BF1" s="4"/>
+      <c r="BF1" s="4">
+        <v>43981</v>
+      </c>
       <c r="BG1" s="4"/>
       <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
@@ -15165,7 +15780,9 @@
       <c r="BE2" s="35">
         <v>939</v>
       </c>
-      <c r="BF2" s="7"/>
+      <c r="BF2" s="35">
+        <v>914</v>
+      </c>
       <c r="BG2" s="7"/>
       <c r="BH2" s="7"/>
       <c r="BI2" s="7"/>
@@ -15364,7 +15981,9 @@
       <c r="BE3" s="35">
         <v>1342</v>
       </c>
-      <c r="BF3" s="7"/>
+      <c r="BF3" s="35">
+        <v>1346</v>
+      </c>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7"/>
       <c r="BI3" s="7"/>
@@ -15563,7 +16182,9 @@
       <c r="BE4" s="35">
         <v>4055</v>
       </c>
-      <c r="BF4" s="7"/>
+      <c r="BF4" s="35">
+        <v>4097</v>
+      </c>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
       <c r="BI4" s="7"/>
@@ -15762,7 +16383,9 @@
       <c r="BE5" s="35">
         <v>106</v>
       </c>
-      <c r="BF5" s="7"/>
+      <c r="BF5" s="35">
+        <v>106</v>
+      </c>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
       <c r="BI5" s="7"/>
@@ -15961,7 +16584,9 @@
       <c r="BE6" s="35">
         <v>26</v>
       </c>
-      <c r="BF6" s="7"/>
+      <c r="BF6" s="35">
+        <v>26</v>
+      </c>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
       <c r="BI6" s="7"/>
@@ -16156,7 +16781,9 @@
       <c r="BE7" s="35">
         <v>22</v>
       </c>
-      <c r="BF7" s="7"/>
+      <c r="BF7" s="35">
+        <v>22</v>
+      </c>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
       <c r="BI7" s="7"/>
@@ -16355,7 +16982,9 @@
       <c r="BE8" s="35">
         <v>2169</v>
       </c>
-      <c r="BF8" s="7"/>
+      <c r="BF8" s="35">
+        <v>2232</v>
+      </c>
       <c r="BG8" s="7"/>
       <c r="BH8" s="7"/>
       <c r="BI8" s="7"/>
@@ -16554,7 +17183,9 @@
       <c r="BE9" s="35">
         <v>58</v>
       </c>
-      <c r="BF9" s="7"/>
+      <c r="BF9" s="35">
+        <v>58</v>
+      </c>
       <c r="BG9" s="7"/>
       <c r="BH9" s="7"/>
       <c r="BI9" s="7"/>
@@ -16753,7 +17384,9 @@
       <c r="BE10" s="35">
         <v>1500</v>
       </c>
-      <c r="BF10" s="7"/>
+      <c r="BF10" s="35">
+        <v>1521</v>
+      </c>
       <c r="BG10" s="7"/>
       <c r="BH10" s="7"/>
       <c r="BI10" s="7"/>
@@ -16952,7 +17585,9 @@
       <c r="BE11" s="35">
         <v>2309</v>
       </c>
-      <c r="BF11" s="7"/>
+      <c r="BF11" s="35">
+        <v>2328</v>
+      </c>
       <c r="BG11" s="7"/>
       <c r="BH11" s="7"/>
       <c r="BI11" s="7"/>
@@ -17151,7 +17786,9 @@
       <c r="BE12" s="35">
         <v>4883</v>
       </c>
-      <c r="BF12" s="7"/>
+      <c r="BF12" s="35">
+        <v>4927</v>
+      </c>
       <c r="BG12" s="7"/>
       <c r="BH12" s="7"/>
       <c r="BI12" s="7"/>
@@ -17350,7 +17987,9 @@
       <c r="BE13" s="35">
         <v>25</v>
       </c>
-      <c r="BF13" s="7"/>
+      <c r="BF13" s="35">
+        <v>25</v>
+      </c>
       <c r="BG13" s="7"/>
       <c r="BH13" s="7"/>
       <c r="BI13" s="7"/>
@@ -17652,14 +18291,14 @@
   <dimension ref="A1:CH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF6" sqref="BF6"/>
+      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG7" sqref="BG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="45" max="56" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="45" max="57" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86">
@@ -17829,7 +18468,9 @@
       <c r="BD1" s="4">
         <v>43980</v>
       </c>
-      <c r="BE1" s="4"/>
+      <c r="BE1" s="4">
+        <v>43981</v>
+      </c>
       <c r="BF1" s="4"/>
       <c r="BG1" s="4"/>
       <c r="BH1" s="4"/>
@@ -18119,7 +18760,9 @@
       <c r="BD3" s="7">
         <v>7</v>
       </c>
-      <c r="BE3" s="7"/>
+      <c r="BE3" s="7">
+        <v>7</v>
+      </c>
       <c r="BF3" s="7"/>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7"/>
@@ -18319,7 +18962,9 @@
       <c r="BD4" s="7">
         <v>346</v>
       </c>
-      <c r="BE4" s="7"/>
+      <c r="BE4" s="7">
+        <v>349</v>
+      </c>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
@@ -18519,7 +19164,9 @@
       <c r="BD5" s="7">
         <v>52</v>
       </c>
-      <c r="BE5" s="7"/>
+      <c r="BE5" s="7">
+        <v>54</v>
+      </c>
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
@@ -18719,7 +19366,9 @@
       <c r="BD6" s="7">
         <v>53</v>
       </c>
-      <c r="BE6" s="7"/>
+      <c r="BE6" s="7">
+        <v>52</v>
+      </c>
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
@@ -18917,7 +19566,9 @@
       <c r="BD7" s="7">
         <v>4</v>
       </c>
-      <c r="BE7" s="7"/>
+      <c r="BE7" s="7">
+        <v>4</v>
+      </c>
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
@@ -19341,16 +19992,16 @@
   <dimension ref="A1:CL26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G10" sqref="G10"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="90" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="90" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90">
@@ -19464,7 +20115,9 @@
       <c r="F2" s="4">
         <v>43980</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4">
+        <v>43981</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -19568,7 +20221,9 @@
       <c r="F3" s="7">
         <v>5156</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>5200</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -19672,7 +20327,9 @@
       <c r="F4" s="7">
         <v>3657</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>3736</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -19776,7 +20433,9 @@
       <c r="F5" s="7">
         <v>3733</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>3823</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -19880,7 +20539,9 @@
       <c r="F6" s="7">
         <v>6840</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>6921</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -19984,7 +20645,9 @@
       <c r="F7" s="7">
         <v>6355</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>6470</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -20088,7 +20751,9 @@
       <c r="F8" s="7">
         <v>5380</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>5437</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -20192,7 +20857,9 @@
       <c r="F9" s="7">
         <v>6129</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>6203</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -20296,7 +20963,9 @@
       <c r="F10" s="7">
         <v>6312</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>6499</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -20400,7 +21069,9 @@
       <c r="F11" s="7">
         <v>2203</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>2331</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -20531,19 +21202,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DF105"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH96" sqref="CH96"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="CG85" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CI101" sqref="CI101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="110" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="110" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:110">
@@ -20801,7 +21472,9 @@
       <c r="CH1" s="4">
         <v>43980</v>
       </c>
-      <c r="CI1" s="4"/>
+      <c r="CI1" s="4">
+        <v>43981</v>
+      </c>
       <c r="CJ1" s="4"/>
       <c r="CK1" s="4"/>
       <c r="CL1" s="4"/>
@@ -21187,7 +21860,9 @@
       <c r="CH3" s="11">
         <v>45629</v>
       </c>
-      <c r="CI3" s="11"/>
+      <c r="CI3" s="11">
+        <v>46483</v>
+      </c>
       <c r="CJ3" s="11"/>
       <c r="CK3" s="11"/>
       <c r="CL3" s="11"/>
@@ -21319,7 +21994,9 @@
       <c r="CH4" s="11">
         <v>37881</v>
       </c>
-      <c r="CI4" s="11"/>
+      <c r="CI4" s="11">
+        <v>38413</v>
+      </c>
       <c r="CJ4" s="11"/>
       <c r="CK4" s="11"/>
       <c r="CL4" s="11"/>
@@ -21603,7 +22280,9 @@
       <c r="CH5" s="11">
         <v>8717</v>
       </c>
-      <c r="CI5" s="11"/>
+      <c r="CI5" s="11">
+        <v>8801</v>
+      </c>
       <c r="CJ5" s="11"/>
       <c r="CK5" s="11"/>
       <c r="CL5" s="11"/>
@@ -21875,7 +22554,9 @@
       <c r="CH6" s="11">
         <v>462</v>
       </c>
-      <c r="CI6" s="11"/>
+      <c r="CI6" s="11">
+        <v>466</v>
+      </c>
       <c r="CJ6" s="11"/>
       <c r="CK6" s="11"/>
       <c r="CL6" s="11"/>
@@ -22127,7 +22808,9 @@
       <c r="CH7" s="11">
         <v>1100</v>
       </c>
-      <c r="CI7" s="11"/>
+      <c r="CI7" s="11">
+        <v>1116</v>
+      </c>
       <c r="CJ7" s="11"/>
       <c r="CK7" s="11"/>
       <c r="CL7" s="11"/>
@@ -22419,7 +23102,9 @@
       <c r="CH9" s="11">
         <v>345</v>
       </c>
-      <c r="CI9" s="11"/>
+      <c r="CI9" s="11">
+        <v>345</v>
+      </c>
       <c r="CJ9" s="11"/>
       <c r="CK9" s="11"/>
       <c r="CL9" s="11"/>
@@ -22667,7 +23352,9 @@
       <c r="CH10" s="11">
         <v>77</v>
       </c>
-      <c r="CI10" s="11"/>
+      <c r="CI10" s="11">
+        <v>59</v>
+      </c>
       <c r="CJ10" s="11"/>
       <c r="CK10" s="11"/>
       <c r="CL10" s="11"/>
@@ -22915,7 +23602,9 @@
       <c r="CH11" s="11">
         <v>440</v>
       </c>
-      <c r="CI11" s="11"/>
+      <c r="CI11" s="11">
+        <v>440</v>
+      </c>
       <c r="CJ11" s="11"/>
       <c r="CK11" s="11"/>
       <c r="CL11" s="11"/>
@@ -23163,7 +23852,9 @@
       <c r="CH12" s="11">
         <v>222</v>
       </c>
-      <c r="CI12" s="11"/>
+      <c r="CI12" s="11">
+        <v>215</v>
+      </c>
       <c r="CJ12" s="11"/>
       <c r="CK12" s="11"/>
       <c r="CL12" s="11"/>
@@ -23411,7 +24102,9 @@
       <c r="CH13" s="11">
         <v>218</v>
       </c>
-      <c r="CI13" s="11"/>
+      <c r="CI13" s="11">
+        <v>225</v>
+      </c>
       <c r="CJ13" s="11"/>
       <c r="CK13" s="11"/>
       <c r="CL13" s="11"/>
@@ -23567,7 +24260,9 @@
       <c r="CH14" s="11">
         <v>317</v>
       </c>
-      <c r="CI14" s="11"/>
+      <c r="CI14" s="11">
+        <v>295</v>
+      </c>
       <c r="CJ14" s="11"/>
       <c r="CK14" s="11"/>
       <c r="CL14" s="11"/>
@@ -23703,7 +24398,9 @@
       <c r="CH15" s="11">
         <v>109</v>
       </c>
-      <c r="CI15" s="11"/>
+      <c r="CI15" s="11">
+        <v>109</v>
+      </c>
       <c r="CJ15" s="11"/>
       <c r="CK15" s="11"/>
       <c r="CL15" s="11"/>
@@ -23859,7 +24556,9 @@
       <c r="CH16" s="11">
         <v>1984</v>
       </c>
-      <c r="CI16" s="11"/>
+      <c r="CI16" s="11">
+        <v>1931</v>
+      </c>
       <c r="CJ16" s="11"/>
       <c r="CK16" s="11"/>
       <c r="CL16" s="11"/>
@@ -24563,7 +25262,9 @@
       <c r="CH21" s="11">
         <v>111</v>
       </c>
-      <c r="CI21" s="11"/>
+      <c r="CI21" s="11">
+        <v>111</v>
+      </c>
       <c r="CJ21" s="11"/>
       <c r="CK21" s="11"/>
       <c r="CL21" s="11"/>
@@ -24777,7 +25478,9 @@
       <c r="CH22" s="11">
         <v>19</v>
       </c>
-      <c r="CI22" s="11"/>
+      <c r="CI22" s="11">
+        <v>19</v>
+      </c>
       <c r="CJ22" s="11"/>
       <c r="CK22" s="11"/>
       <c r="CL22" s="11"/>
@@ -24991,7 +25694,9 @@
       <c r="CH23" s="11">
         <v>92</v>
       </c>
-      <c r="CI23" s="11"/>
+      <c r="CI23" s="11">
+        <v>92</v>
+      </c>
       <c r="CJ23" s="11"/>
       <c r="CK23" s="11"/>
       <c r="CL23" s="11"/>
@@ -25235,7 +25940,9 @@
       <c r="CH24" s="11">
         <v>149</v>
       </c>
-      <c r="CI24" s="11"/>
+      <c r="CI24" s="11">
+        <v>123</v>
+      </c>
       <c r="CJ24" s="11"/>
       <c r="CK24" s="11"/>
       <c r="CL24" s="11"/>
@@ -25479,7 +26186,9 @@
       <c r="CH25" s="11">
         <v>168</v>
       </c>
-      <c r="CI25" s="11"/>
+      <c r="CI25" s="11">
+        <v>142</v>
+      </c>
       <c r="CJ25" s="11"/>
       <c r="CK25" s="11"/>
       <c r="CL25" s="11"/>
@@ -25723,7 +26432,9 @@
       <c r="CH26" s="11">
         <v>1292</v>
       </c>
-      <c r="CI26" s="11"/>
+      <c r="CI26" s="11">
+        <v>1371</v>
+      </c>
       <c r="CJ26" s="11"/>
       <c r="CK26" s="11"/>
       <c r="CL26" s="11"/>
@@ -26199,7 +26910,9 @@
       <c r="CH29" s="11">
         <v>133</v>
       </c>
-      <c r="CI29" s="11"/>
+      <c r="CI29" s="11">
+        <v>134</v>
+      </c>
       <c r="CJ29" s="11"/>
       <c r="CK29" s="11"/>
       <c r="CL29" s="11"/>
@@ -26413,7 +27126,9 @@
       <c r="CH30" s="11">
         <v>27</v>
       </c>
-      <c r="CI30" s="11"/>
+      <c r="CI30" s="11">
+        <v>28</v>
+      </c>
       <c r="CJ30" s="11"/>
       <c r="CK30" s="11"/>
       <c r="CL30" s="11"/>
@@ -26627,7 +27342,9 @@
       <c r="CH31" s="11">
         <v>106</v>
       </c>
-      <c r="CI31" s="11"/>
+      <c r="CI31" s="11">
+        <v>106</v>
+      </c>
       <c r="CJ31" s="11"/>
       <c r="CK31" s="11"/>
       <c r="CL31" s="11"/>
@@ -26871,7 +27588,9 @@
       <c r="CH32" s="11">
         <v>49</v>
       </c>
-      <c r="CI32" s="11"/>
+      <c r="CI32" s="11">
+        <v>48</v>
+      </c>
       <c r="CJ32" s="11"/>
       <c r="CK32" s="11"/>
       <c r="CL32" s="11"/>
@@ -27115,7 +27834,9 @@
       <c r="CH33" s="11">
         <v>76</v>
       </c>
-      <c r="CI33" s="11"/>
+      <c r="CI33" s="11">
+        <v>76</v>
+      </c>
       <c r="CJ33" s="11"/>
       <c r="CK33" s="11"/>
       <c r="CL33" s="11"/>
@@ -27359,7 +28080,9 @@
       <c r="CH34" s="11">
         <v>1205</v>
       </c>
-      <c r="CI34" s="11"/>
+      <c r="CI34" s="11">
+        <v>1206</v>
+      </c>
       <c r="CJ34" s="11"/>
       <c r="CK34" s="11"/>
       <c r="CL34" s="11"/>
@@ -27827,7 +28550,9 @@
       <c r="CH37" s="11">
         <v>80</v>
       </c>
-      <c r="CI37" s="11"/>
+      <c r="CI37" s="11">
+        <v>80</v>
+      </c>
       <c r="CJ37" s="11"/>
       <c r="CK37" s="11"/>
       <c r="CL37" s="11"/>
@@ -28037,7 +28762,9 @@
       <c r="CH38" s="11">
         <v>6</v>
       </c>
-      <c r="CI38" s="11"/>
+      <c r="CI38" s="11">
+        <v>6</v>
+      </c>
       <c r="CJ38" s="11"/>
       <c r="CK38" s="11"/>
       <c r="CL38" s="11"/>
@@ -28247,7 +28974,9 @@
       <c r="CH39" s="11">
         <v>73</v>
       </c>
-      <c r="CI39" s="11"/>
+      <c r="CI39" s="11">
+        <v>73</v>
+      </c>
       <c r="CJ39" s="11"/>
       <c r="CK39" s="11"/>
       <c r="CL39" s="11"/>
@@ -28487,7 +29216,9 @@
       <c r="CH40" s="11">
         <v>1</v>
       </c>
-      <c r="CI40" s="11"/>
+      <c r="CI40" s="11">
+        <v>1</v>
+      </c>
       <c r="CJ40" s="11"/>
       <c r="CK40" s="11"/>
       <c r="CL40" s="11"/>
@@ -28725,7 +29456,9 @@
       <c r="CH41" s="11">
         <v>7</v>
       </c>
-      <c r="CI41" s="11"/>
+      <c r="CI41" s="11">
+        <v>7</v>
+      </c>
       <c r="CJ41" s="11"/>
       <c r="CK41" s="11"/>
       <c r="CL41" s="11"/>
@@ -28967,7 +29700,9 @@
       <c r="CH42" s="11">
         <v>281</v>
       </c>
-      <c r="CI42" s="11"/>
+      <c r="CI42" s="11">
+        <v>281</v>
+      </c>
       <c r="CJ42" s="11"/>
       <c r="CK42" s="11"/>
       <c r="CL42" s="11"/>
@@ -29165,7 +29900,9 @@
       <c r="CH43" s="11">
         <v>1</v>
       </c>
-      <c r="CI43" s="11"/>
+      <c r="CI43" s="11">
+        <v>1</v>
+      </c>
       <c r="CJ43" s="11"/>
       <c r="CK43" s="11"/>
       <c r="CL43" s="11"/>
@@ -29637,7 +30374,9 @@
       <c r="CH46" s="11">
         <v>205</v>
       </c>
-      <c r="CI46" s="11"/>
+      <c r="CI46" s="11">
+        <v>205</v>
+      </c>
       <c r="CJ46" s="11"/>
       <c r="CK46" s="11"/>
       <c r="CL46" s="11"/>
@@ -29851,7 +30590,9 @@
       <c r="CH47" s="11">
         <v>25</v>
       </c>
-      <c r="CI47" s="11"/>
+      <c r="CI47" s="11">
+        <v>24</v>
+      </c>
       <c r="CJ47" s="11"/>
       <c r="CK47" s="11"/>
       <c r="CL47" s="11"/>
@@ -30065,7 +30806,9 @@
       <c r="CH48" s="11">
         <v>174</v>
       </c>
-      <c r="CI48" s="11"/>
+      <c r="CI48" s="11">
+        <v>175</v>
+      </c>
       <c r="CJ48" s="11"/>
       <c r="CK48" s="11"/>
       <c r="CL48" s="11"/>
@@ -30309,7 +31052,9 @@
       <c r="CH49" s="11">
         <v>500</v>
       </c>
-      <c r="CI49" s="11"/>
+      <c r="CI49" s="11">
+        <v>470</v>
+      </c>
       <c r="CJ49" s="11"/>
       <c r="CK49" s="11"/>
       <c r="CL49" s="11"/>
@@ -30523,7 +31268,9 @@
       <c r="CH50" s="11">
         <v>525</v>
       </c>
-      <c r="CI50" s="11"/>
+      <c r="CI50" s="11">
+        <v>494</v>
+      </c>
       <c r="CJ50" s="11"/>
       <c r="CK50" s="11"/>
       <c r="CL50" s="11"/>
@@ -30735,7 +31482,9 @@
       <c r="CH51" s="11">
         <v>828</v>
       </c>
-      <c r="CI51" s="11"/>
+      <c r="CI51" s="11">
+        <v>815</v>
+      </c>
       <c r="CJ51" s="11"/>
       <c r="CK51" s="11"/>
       <c r="CL51" s="11"/>
@@ -30943,7 +31692,9 @@
       <c r="CH52" s="11">
         <v>1</v>
       </c>
-      <c r="CI52" s="11"/>
+      <c r="CI52" s="11">
+        <v>1</v>
+      </c>
       <c r="CJ52" s="11"/>
       <c r="CK52" s="11"/>
       <c r="CL52" s="11"/>
@@ -31405,7 +32156,9 @@
       <c r="CH55" s="11">
         <v>29</v>
       </c>
-      <c r="CI55" s="11"/>
+      <c r="CI55" s="11">
+        <v>29</v>
+      </c>
       <c r="CJ55" s="11"/>
       <c r="CK55" s="11"/>
       <c r="CL55" s="11"/>
@@ -31617,7 +32370,9 @@
       <c r="CH56" s="11">
         <v>7</v>
       </c>
-      <c r="CI56" s="11"/>
+      <c r="CI56" s="11">
+        <v>7</v>
+      </c>
       <c r="CJ56" s="11"/>
       <c r="CK56" s="11"/>
       <c r="CL56" s="11"/>
@@ -31829,7 +32584,9 @@
       <c r="CH57" s="11">
         <v>21</v>
       </c>
-      <c r="CI57" s="11"/>
+      <c r="CI57" s="11">
+        <v>21</v>
+      </c>
       <c r="CJ57" s="11"/>
       <c r="CK57" s="11"/>
       <c r="CL57" s="11"/>
@@ -32065,7 +32822,9 @@
       <c r="CH58" s="11">
         <v>18</v>
       </c>
-      <c r="CI58" s="11"/>
+      <c r="CI58" s="11">
+        <v>18</v>
+      </c>
       <c r="CJ58" s="11"/>
       <c r="CK58" s="11"/>
       <c r="CL58" s="11"/>
@@ -32301,7 +33060,9 @@
       <c r="CH59" s="11">
         <v>25</v>
       </c>
-      <c r="CI59" s="11"/>
+      <c r="CI59" s="11">
+        <v>25</v>
+      </c>
       <c r="CJ59" s="11"/>
       <c r="CK59" s="11"/>
       <c r="CL59" s="11"/>
@@ -32537,7 +33298,9 @@
       <c r="CH60" s="11">
         <v>142</v>
       </c>
-      <c r="CI60" s="11"/>
+      <c r="CI60" s="11">
+        <v>142</v>
+      </c>
       <c r="CJ60" s="11"/>
       <c r="CK60" s="11"/>
       <c r="CL60" s="11"/>
@@ -32745,7 +33508,9 @@
       <c r="CH61" s="11">
         <v>1</v>
       </c>
-      <c r="CI61" s="11"/>
+      <c r="CI61" s="11">
+        <v>1</v>
+      </c>
       <c r="CJ61" s="11"/>
       <c r="CK61" s="11"/>
       <c r="CL61" s="11"/>
@@ -33093,7 +33858,9 @@
       <c r="CH63" s="11">
         <v>11</v>
       </c>
-      <c r="CI63" s="11"/>
+      <c r="CI63" s="11">
+        <v>11</v>
+      </c>
       <c r="CJ63" s="11"/>
       <c r="CK63" s="11"/>
       <c r="CL63" s="11"/>
@@ -33305,7 +34072,9 @@
       <c r="CH64" s="11">
         <v>3</v>
       </c>
-      <c r="CI64" s="11"/>
+      <c r="CI64" s="11">
+        <v>3</v>
+      </c>
       <c r="CJ64" s="11"/>
       <c r="CK64" s="11"/>
       <c r="CL64" s="11"/>
@@ -33517,7 +34286,9 @@
       <c r="CH65" s="11">
         <v>8</v>
       </c>
-      <c r="CI65" s="11"/>
+      <c r="CI65" s="11">
+        <v>8</v>
+      </c>
       <c r="CJ65" s="11"/>
       <c r="CK65" s="11"/>
       <c r="CL65" s="11"/>
@@ -33753,7 +34524,9 @@
       <c r="CH66" s="11">
         <v>48</v>
       </c>
-      <c r="CI66" s="11"/>
+      <c r="CI66" s="11">
+        <v>48</v>
+      </c>
       <c r="CJ66" s="11"/>
       <c r="CK66" s="11"/>
       <c r="CL66" s="11"/>
@@ -33989,7 +34762,9 @@
       <c r="CH67" s="11">
         <v>51</v>
       </c>
-      <c r="CI67" s="11"/>
+      <c r="CI67" s="11">
+        <v>51</v>
+      </c>
       <c r="CJ67" s="11"/>
       <c r="CK67" s="11"/>
       <c r="CL67" s="11"/>
@@ -34223,7 +34998,9 @@
       <c r="CH68" s="11">
         <v>0</v>
       </c>
-      <c r="CI68" s="11"/>
+      <c r="CI68" s="11">
+        <v>0</v>
+      </c>
       <c r="CJ68" s="11"/>
       <c r="CK68" s="11"/>
       <c r="CL68" s="11"/>
@@ -34435,7 +35212,9 @@
       <c r="CH69" s="11">
         <v>0</v>
       </c>
-      <c r="CI69" s="11"/>
+      <c r="CI69" s="11">
+        <v>0</v>
+      </c>
       <c r="CJ69" s="11"/>
       <c r="CK69" s="11"/>
       <c r="CL69" s="11"/>
@@ -34683,7 +35462,9 @@
       <c r="CH71" s="11">
         <v>10</v>
       </c>
-      <c r="CI71" s="11"/>
+      <c r="CI71" s="11">
+        <v>10</v>
+      </c>
       <c r="CJ71" s="11"/>
       <c r="CK71" s="11"/>
       <c r="CL71" s="11"/>
@@ -34819,7 +35600,9 @@
       <c r="CH72" s="11">
         <v>6</v>
       </c>
-      <c r="CI72" s="11"/>
+      <c r="CI72" s="11">
+        <v>6</v>
+      </c>
       <c r="CJ72" s="11"/>
       <c r="CK72" s="11"/>
       <c r="CL72" s="11"/>
@@ -34955,7 +35738,9 @@
       <c r="CH73" s="11">
         <v>4</v>
       </c>
-      <c r="CI73" s="11"/>
+      <c r="CI73" s="11">
+        <v>4</v>
+      </c>
       <c r="CJ73" s="11"/>
       <c r="CK73" s="11"/>
       <c r="CL73" s="11"/>
@@ -35091,7 +35876,9 @@
       <c r="CH74" s="11">
         <v>13</v>
       </c>
-      <c r="CI74" s="11"/>
+      <c r="CI74" s="11">
+        <v>13</v>
+      </c>
       <c r="CJ74" s="11"/>
       <c r="CK74" s="11"/>
       <c r="CL74" s="11"/>
@@ -35227,7 +36014,9 @@
       <c r="CH75" s="11">
         <v>19</v>
       </c>
-      <c r="CI75" s="11"/>
+      <c r="CI75" s="11">
+        <v>19</v>
+      </c>
       <c r="CJ75" s="11"/>
       <c r="CK75" s="11"/>
       <c r="CL75" s="11"/>
@@ -35363,7 +36152,9 @@
       <c r="CH76" s="11">
         <v>28</v>
       </c>
-      <c r="CI76" s="11"/>
+      <c r="CI76" s="11">
+        <v>28</v>
+      </c>
       <c r="CJ76" s="11"/>
       <c r="CK76" s="11"/>
       <c r="CL76" s="11"/>
@@ -35825,7 +36616,9 @@
       <c r="CH79" s="11">
         <v>297</v>
       </c>
-      <c r="CI79" s="11"/>
+      <c r="CI79" s="11">
+        <v>297</v>
+      </c>
       <c r="CJ79" s="11"/>
       <c r="CK79" s="11"/>
       <c r="CL79" s="11"/>
@@ -36061,7 +36854,9 @@
       <c r="CH80" s="11">
         <v>124</v>
       </c>
-      <c r="CI80" s="11"/>
+      <c r="CI80" s="11">
+        <v>109</v>
+      </c>
       <c r="CJ80" s="11"/>
       <c r="CK80" s="11"/>
       <c r="CL80" s="11"/>
@@ -36297,7 +37092,9 @@
       <c r="CH81" s="11">
         <v>104</v>
       </c>
-      <c r="CI81" s="11"/>
+      <c r="CI81" s="11">
+        <v>85</v>
+      </c>
       <c r="CJ81" s="11"/>
       <c r="CK81" s="11"/>
       <c r="CL81" s="11"/>
@@ -36505,7 +37302,9 @@
       <c r="CH82" s="11">
         <v>16</v>
       </c>
-      <c r="CI82" s="11"/>
+      <c r="CI82" s="11">
+        <v>16</v>
+      </c>
       <c r="CJ82" s="11"/>
       <c r="CK82" s="11"/>
       <c r="CL82" s="11"/>
@@ -36853,7 +37652,9 @@
       <c r="CH84" s="11">
         <v>119</v>
       </c>
-      <c r="CI84" s="11"/>
+      <c r="CI84" s="11">
+        <v>119</v>
+      </c>
       <c r="CJ84" s="11"/>
       <c r="CK84" s="11"/>
       <c r="CL84" s="11"/>
@@ -37089,7 +37890,9 @@
       <c r="CH85" s="11">
         <v>28</v>
       </c>
-      <c r="CI85" s="11"/>
+      <c r="CI85" s="11">
+        <v>28</v>
+      </c>
       <c r="CJ85" s="11"/>
       <c r="CK85" s="11"/>
       <c r="CL85" s="11"/>
@@ -37325,7 +38128,9 @@
       <c r="CH86" s="11">
         <v>147</v>
       </c>
-      <c r="CI86" s="11"/>
+      <c r="CI86" s="11">
+        <v>147</v>
+      </c>
       <c r="CJ86" s="11"/>
       <c r="CK86" s="11"/>
       <c r="CL86" s="11"/>
@@ -37553,7 +38358,9 @@
       <c r="CH87" s="11">
         <v>190</v>
       </c>
-      <c r="CI87" s="11"/>
+      <c r="CI87" s="11">
+        <v>190</v>
+      </c>
       <c r="CJ87" s="11"/>
       <c r="CK87" s="11"/>
       <c r="CL87" s="11"/>
@@ -37705,7 +38512,9 @@
       <c r="CH88" s="11">
         <v>1</v>
       </c>
-      <c r="CI88" s="11"/>
+      <c r="CI88" s="11">
+        <v>1</v>
+      </c>
       <c r="CJ88" s="11"/>
       <c r="CK88" s="11"/>
       <c r="CL88" s="11"/>
@@ -38012,7 +38821,9 @@
       <c r="CH90" s="11">
         <v>79</v>
       </c>
-      <c r="CI90" s="11"/>
+      <c r="CI90" s="11">
+        <v>81</v>
+      </c>
       <c r="CJ90" s="11"/>
       <c r="CK90" s="11"/>
       <c r="CL90" s="11"/>
@@ -38248,7 +39059,9 @@
       <c r="CH91" s="11">
         <v>21</v>
       </c>
-      <c r="CI91" s="11"/>
+      <c r="CI91" s="11">
+        <v>22</v>
+      </c>
       <c r="CJ91" s="11"/>
       <c r="CK91" s="11"/>
       <c r="CL91" s="11"/>
@@ -38462,7 +39275,9 @@
       <c r="CH92" s="11">
         <v>159</v>
       </c>
-      <c r="CI92" s="11"/>
+      <c r="CI92" s="11">
+        <v>158</v>
+      </c>
       <c r="CJ92" s="11"/>
       <c r="CK92" s="11"/>
       <c r="CL92" s="11"/>
@@ -38672,7 +39487,9 @@
       <c r="CH93" s="11">
         <v>41</v>
       </c>
-      <c r="CI93" s="11"/>
+      <c r="CI93" s="11">
+        <v>41</v>
+      </c>
       <c r="CJ93" s="11"/>
       <c r="CK93" s="11"/>
       <c r="CL93" s="11"/>
@@ -38906,7 +39723,9 @@
       <c r="CH94" s="11">
         <v>13</v>
       </c>
-      <c r="CI94" s="11"/>
+      <c r="CI94" s="11">
+        <v>13</v>
+      </c>
       <c r="CJ94" s="11"/>
       <c r="CK94" s="11"/>
       <c r="CL94" s="11"/>
@@ -39165,7 +39984,7 @@
       <c r="A97" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="38" t="s">
         <v>108</v>
       </c>
       <c r="C97" s="11" t="s">
@@ -39284,7 +40103,7 @@
       <c r="A98" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C98" s="11"/>
@@ -39401,7 +40220,7 @@
       <c r="A99" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="38" t="s">
+      <c r="B99" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C99" s="11"/>
@@ -39782,7 +40601,9 @@
       <c r="CH101" s="11">
         <v>187</v>
       </c>
-      <c r="CI101" s="11"/>
+      <c r="CI101" s="11">
+        <v>187</v>
+      </c>
       <c r="CJ101" s="11"/>
       <c r="CK101" s="11"/>
       <c r="CL101" s="11"/>
@@ -39964,7 +40785,9 @@
       <c r="CH102" s="11">
         <v>60</v>
       </c>
-      <c r="CI102" s="11"/>
+      <c r="CI102" s="11">
+        <v>60</v>
+      </c>
       <c r="CJ102" s="11"/>
       <c r="CK102" s="11"/>
       <c r="CL102" s="11"/>
@@ -40146,7 +40969,9 @@
       <c r="CH103" s="11">
         <v>25</v>
       </c>
-      <c r="CI103" s="11"/>
+      <c r="CI103" s="11">
+        <v>25</v>
+      </c>
       <c r="CJ103" s="11"/>
       <c r="CK103" s="11"/>
       <c r="CL103" s="11"/>
@@ -40254,18 +41079,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51A914D-4CED-7A43-8BD6-4514AC12DE8C}">
-  <dimension ref="A1:C1188"/>
+  <dimension ref="A1:C1240"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1137" sqref="A1137:XFD1137"/>
+      <pane ySplit="1" topLeftCell="A1179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1240" sqref="A1240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -53336,6 +54161,578 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1189" spans="1:3">
+      <c r="A1189" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1189" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1189" s="19">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3">
+      <c r="A1190" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1190" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1190" s="19">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3">
+      <c r="A1191" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1191" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1191" s="19">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3">
+      <c r="A1192" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1192" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1192" s="19">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3">
+      <c r="A1193" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1193" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1193" s="19">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3">
+      <c r="A1194" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1194" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1194" s="19">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3">
+      <c r="A1195" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1195" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1195" s="19">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3">
+      <c r="A1196" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1196" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1196" s="19">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3">
+      <c r="A1197" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1197" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1197" s="19">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3">
+      <c r="A1198" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1198" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1198" s="19">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3">
+      <c r="A1199" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1199" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1199" s="19">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3">
+      <c r="A1200" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1200" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1200" s="19">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3">
+      <c r="A1201" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1201" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1201" s="19">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3">
+      <c r="A1202" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1202" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1202" s="19">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3">
+      <c r="A1203" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1203" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1203" s="19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3">
+      <c r="A1204" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1204" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1204" s="19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:3">
+      <c r="A1205" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1205" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1205" s="19">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:3">
+      <c r="A1206" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1206" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1206" s="19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3">
+      <c r="A1207" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1207" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1207" s="19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:3">
+      <c r="A1208" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1208" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1208" s="19">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:3">
+      <c r="A1209" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1209" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1209" s="19">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:3">
+      <c r="A1210" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1210" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1210" s="19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:3">
+      <c r="A1211" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1211" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1211" s="19">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:3">
+      <c r="A1212" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1212" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1212" s="19">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3">
+      <c r="A1213" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1213" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1213" s="19">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3">
+      <c r="A1214" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1214" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1214" s="19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3">
+      <c r="A1215" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1215" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1215" s="19">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:3">
+      <c r="A1216" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1216" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1216" s="19">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3">
+      <c r="A1217" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1217" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1217" s="19">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3">
+      <c r="A1218" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1218" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1218" s="19">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3">
+      <c r="A1219" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1219" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1219" s="19">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3">
+      <c r="A1220" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1220" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1220" s="19">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3">
+      <c r="A1221" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1221" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1221" s="19">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3">
+      <c r="A1222" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1222" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1222" s="19">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3">
+      <c r="A1223" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1223" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1223" s="19">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3">
+      <c r="A1224" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1224" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1224" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3">
+      <c r="A1225" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1225" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1225" s="19">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3">
+      <c r="A1226" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1226" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1226" s="19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3">
+      <c r="A1227" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1227" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1227" s="19">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3">
+      <c r="A1228" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1228" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1228" s="19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3">
+      <c r="A1229" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1229" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1229" s="19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3">
+      <c r="A1230" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1230" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1230" s="19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3">
+      <c r="A1231" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1231" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1231" s="19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3">
+      <c r="A1232" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1232" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1232" s="19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3">
+      <c r="A1233" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1233" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1233" s="19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3">
+      <c r="A1234" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1234" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1234" s="19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3">
+      <c r="A1235" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1235" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1235" s="19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3">
+      <c r="A1236" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1236" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1236" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3">
+      <c r="A1237" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1237" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1237" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3">
+      <c r="A1238" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1238" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1238" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3">
+      <c r="A1239" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1239" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1239" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3">
+      <c r="A1240" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B1240" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1240" s="19">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A350B93-4722-484D-9823-FA15D70DD7A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="8" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="10" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="206">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -1287,11 +1287,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0704107B-CC38-954F-8D77-0E0C2F291C39}">
-  <dimension ref="A1:C463"/>
+  <dimension ref="A1:C514"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A413" sqref="A413:A463"/>
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A464" sqref="A464:A514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6394,6 +6394,567 @@
         <v>15</v>
       </c>
     </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B464" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C464" s="20">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B465" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C465" s="20">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B466" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C466" s="20">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B467" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C467" s="20">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B468" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C468" s="20">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B469" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C469" s="20">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B470" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C470" s="20">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B471" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C471" s="20">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B472" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C472" s="20">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B473" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C473" s="20">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B474" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C474" s="20">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B475" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C475" s="20">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B476" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C476" s="20">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B477" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C477" s="20">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B478" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C478" s="20">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B479" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C479" s="20">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B480" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C480" s="20">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B481" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C481" s="19">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B482" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C482" s="19">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B483" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C483" s="19">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B484" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C484" s="19">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B485" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C485" s="19">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B486" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C486" s="19">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B487" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C487" s="19">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B488" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C488" s="19">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B489" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C489" s="19">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B490" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C490" s="19">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B491" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C491" s="19">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B492" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C492" s="19">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B493" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C493" s="19">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B494" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C494" s="19">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B495" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C495" s="19">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B496" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C496" s="19">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B497" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C497" s="19">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B498" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C498" s="19">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B499" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C499" s="19">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B500" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C500" s="19">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B501" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C501" s="19">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B502" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C502" s="19">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B503" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C503" s="19">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B504" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C504" s="19">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B505" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C505" s="19">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B506" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C506" s="19">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B507" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C507" s="19">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B508" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C508" s="19">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B509" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C509" s="19">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B510" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C510" s="19">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B511" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C511" s="19">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B512" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C512" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B513" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C513" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B514" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C514" s="19">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6404,8 +6965,8 @@
   <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <pane ySplit="2" topLeftCell="G64" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7844,13 +8405,27 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="26"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
+      <c r="A63" s="26">
+        <v>43982</v>
+      </c>
+      <c r="B63" s="28">
+        <v>1891</v>
+      </c>
+      <c r="C63" s="28">
+        <v>0</v>
+      </c>
+      <c r="D63" s="28">
+        <v>302</v>
+      </c>
+      <c r="E63" s="28">
+        <v>204</v>
+      </c>
+      <c r="F63" s="28">
+        <v>0</v>
+      </c>
+      <c r="G63" s="28">
+        <v>67</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="26"/>
@@ -10637,7 +11212,7 @@
         <v>182</v>
       </c>
       <c r="B2" s="18">
-        <v>1568.7</v>
+        <v>1580.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10645,7 +11220,7 @@
         <v>183</v>
       </c>
       <c r="B3" s="18">
-        <v>683.2</v>
+        <v>706.9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10653,7 +11228,7 @@
         <v>184</v>
       </c>
       <c r="B4" s="18">
-        <v>446.1</v>
+        <v>448.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10661,7 +11236,7 @@
         <v>185</v>
       </c>
       <c r="B5" s="18">
-        <v>2063.6</v>
+        <v>2069.9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10669,7 +11244,7 @@
         <v>186</v>
       </c>
       <c r="B6" s="18">
-        <v>1452.1</v>
+        <v>1464.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10677,7 +11252,7 @@
         <v>187</v>
       </c>
       <c r="B7" s="18">
-        <v>823.1</v>
+        <v>825.3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10685,7 +11260,7 @@
         <v>188</v>
       </c>
       <c r="B8" s="18">
-        <v>1557.2</v>
+        <v>1569.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10693,7 +11268,7 @@
         <v>189</v>
       </c>
       <c r="B9" s="23">
-        <v>1666.6</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10723,7 +11298,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="C2" sqref="C2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -10775,13 +11350,13 @@
         <v>197</v>
       </c>
       <c r="C3" s="6">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D3" s="6">
         <v>1.9</v>
       </c>
       <c r="E3" s="6">
-        <v>258.10000000000002</v>
+        <v>259.7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10809,13 +11384,13 @@
         <v>199</v>
       </c>
       <c r="C5" s="6">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D5" s="6">
         <v>5.5</v>
       </c>
       <c r="E5" s="6">
-        <v>913.6</v>
+        <v>915.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10826,13 +11401,13 @@
         <v>200</v>
       </c>
       <c r="C6" s="6">
-        <v>1649</v>
+        <v>1663</v>
       </c>
       <c r="D6" s="6">
         <v>18.8</v>
       </c>
       <c r="E6" s="34">
-        <v>1008.8</v>
+        <v>1017.3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10843,13 +11418,13 @@
         <v>201</v>
       </c>
       <c r="C7" s="6">
-        <v>1584</v>
+        <v>1593</v>
       </c>
       <c r="D7" s="6">
         <v>18</v>
       </c>
       <c r="E7" s="34">
-        <v>1500.9</v>
+        <v>1509.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10860,13 +11435,13 @@
         <v>202</v>
       </c>
       <c r="C8" s="6">
-        <v>1370</v>
+        <v>1380</v>
       </c>
       <c r="D8" s="6">
         <v>15.6</v>
       </c>
       <c r="E8" s="34">
-        <v>1813.9</v>
+        <v>1827.2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10877,13 +11452,13 @@
         <v>203</v>
       </c>
       <c r="C9" s="6">
-        <v>1444</v>
+        <v>1459</v>
       </c>
       <c r="D9" s="6">
-        <v>16.399999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="E9" s="34">
-        <v>2062.1999999999998</v>
+        <v>2083.6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10894,13 +11469,13 @@
         <v>204</v>
       </c>
       <c r="C10" s="6">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="D10" s="6">
         <v>10.6</v>
       </c>
       <c r="E10" s="34">
-        <v>1916.7</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10914,7 +11489,7 @@
         <v>860</v>
       </c>
       <c r="D11" s="6">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E11" s="34">
         <v>2337.4</v>
@@ -10930,14 +11505,14 @@
   <dimension ref="A1:BQ21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR9" sqref="AR9"/>
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="31" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
@@ -11070,7 +11645,9 @@
       <c r="AQ1" s="4">
         <v>43981</v>
       </c>
-      <c r="AR1" s="4"/>
+      <c r="AR1" s="4">
+        <v>43982</v>
+      </c>
       <c r="AS1" s="4"/>
       <c r="AT1" s="4"/>
       <c r="AU1" s="4"/>
@@ -11228,7 +11805,9 @@
       <c r="AQ2" s="14">
         <v>466</v>
       </c>
-      <c r="AR2" s="14"/>
+      <c r="AR2" s="14">
+        <v>468</v>
+      </c>
       <c r="AS2" s="14"/>
       <c r="AT2" s="14"/>
       <c r="AU2" s="14"/>
@@ -11385,7 +11964,9 @@
       <c r="AQ3" s="7">
         <v>48</v>
       </c>
-      <c r="AR3" s="7"/>
+      <c r="AR3" s="7">
+        <v>48</v>
+      </c>
       <c r="AS3" s="7"/>
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
@@ -11542,7 +12123,9 @@
       <c r="AQ4" s="7">
         <v>29</v>
       </c>
-      <c r="AR4" s="7"/>
+      <c r="AR4" s="7">
+        <v>29</v>
+      </c>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
@@ -11699,7 +12282,9 @@
       <c r="AQ5" s="7">
         <v>30</v>
       </c>
-      <c r="AR5" s="7"/>
+      <c r="AR5" s="7">
+        <v>30</v>
+      </c>
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
       <c r="AU5" s="7"/>
@@ -11856,7 +12441,9 @@
       <c r="AQ6" s="7">
         <v>66</v>
       </c>
-      <c r="AR6" s="7"/>
+      <c r="AR6" s="7">
+        <v>66</v>
+      </c>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
       <c r="AU6" s="7"/>
@@ -12013,7 +12600,9 @@
       <c r="AQ7" s="7">
         <v>74</v>
       </c>
-      <c r="AR7" s="7"/>
+      <c r="AR7" s="7">
+        <v>75</v>
+      </c>
       <c r="AS7" s="7"/>
       <c r="AT7" s="7"/>
       <c r="AU7" s="7"/>
@@ -12170,7 +12759,9 @@
       <c r="AQ8" s="7">
         <v>42</v>
       </c>
-      <c r="AR8" s="7"/>
+      <c r="AR8" s="7">
+        <v>42</v>
+      </c>
       <c r="AS8" s="7"/>
       <c r="AT8" s="7"/>
       <c r="AU8" s="7"/>
@@ -12327,7 +12918,9 @@
       <c r="AQ9" s="7">
         <v>66</v>
       </c>
-      <c r="AR9" s="7"/>
+      <c r="AR9" s="7">
+        <v>67</v>
+      </c>
       <c r="AS9" s="7"/>
       <c r="AT9" s="7"/>
       <c r="AU9" s="7"/>
@@ -12484,7 +13077,9 @@
       <c r="AQ10" s="7">
         <v>95</v>
       </c>
-      <c r="AR10" s="7"/>
+      <c r="AR10" s="7">
+        <v>95</v>
+      </c>
       <c r="AS10" s="7"/>
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
@@ -12641,7 +13236,9 @@
       <c r="AQ11" s="7">
         <v>16</v>
       </c>
-      <c r="AR11" s="7"/>
+      <c r="AR11" s="7">
+        <v>16</v>
+      </c>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
@@ -12796,7 +13393,9 @@
       <c r="AQ12" s="7">
         <v>0</v>
       </c>
-      <c r="AR12" s="7"/>
+      <c r="AR12" s="7">
+        <v>0</v>
+      </c>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
@@ -12861,7 +13460,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -12895,13 +13494,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="27">
-        <v>8801</v>
+        <v>8857</v>
       </c>
       <c r="C2" s="27">
-        <v>4323</v>
+        <v>4396</v>
       </c>
       <c r="D2" s="27">
-        <v>4373</v>
+        <v>4442</v>
       </c>
       <c r="E2" s="27">
         <v>20</v>
@@ -12946,13 +13545,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="27">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C5" s="7">
         <v>85</v>
       </c>
       <c r="D5" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -12980,10 +13579,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="27">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C7" s="7">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D7" s="7">
         <v>206</v>
@@ -12997,13 +13596,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="27">
-        <v>1649</v>
+        <v>1663</v>
       </c>
       <c r="C8" s="7">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="D8" s="7">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -13014,13 +13613,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="27">
-        <v>1584</v>
+        <v>1593</v>
       </c>
       <c r="C9" s="7">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D9" s="7">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -13031,13 +13630,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="27">
-        <v>1370</v>
+        <v>1380</v>
       </c>
       <c r="C10" s="7">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="D10" s="7">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -13048,13 +13647,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="27">
-        <v>1444</v>
+        <v>1459</v>
       </c>
       <c r="C11" s="7">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="D11" s="7">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -13065,13 +13664,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="27">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="C12" s="7">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D12" s="7">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
@@ -13088,10 +13687,10 @@
         <v>498</v>
       </c>
       <c r="D13" s="7">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="57.95" customHeight="1">
@@ -13115,8 +13714,8 @@
   <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BL5" sqref="BL5"/>
+      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BK3" sqref="BK3:BK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13405,7 +14004,9 @@
       <c r="BJ2" s="4">
         <v>43981</v>
       </c>
-      <c r="BK2" s="4"/>
+      <c r="BK2" s="4">
+        <v>43982</v>
+      </c>
       <c r="BL2" s="4"/>
       <c r="BM2" s="4"/>
       <c r="BN2" s="4"/>
@@ -13621,7 +14222,9 @@
       <c r="BJ3" s="7">
         <v>1229</v>
       </c>
-      <c r="BK3" s="7"/>
+      <c r="BK3" s="35">
+        <v>1237</v>
+      </c>
       <c r="BL3" s="7"/>
       <c r="BM3" s="7"/>
       <c r="BN3" s="7"/>
@@ -13837,7 +14440,9 @@
       <c r="BJ4" s="7">
         <v>498</v>
       </c>
-      <c r="BK4" s="7"/>
+      <c r="BK4" s="35">
+        <v>514</v>
+      </c>
       <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
       <c r="BN4" s="7"/>
@@ -14053,7 +14658,9 @@
       <c r="BJ5" s="7">
         <v>417</v>
       </c>
-      <c r="BK5" s="7"/>
+      <c r="BK5" s="35">
+        <v>419</v>
+      </c>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
       <c r="BN5" s="7"/>
@@ -14269,7 +14876,9 @@
       <c r="BJ6" s="7">
         <v>1840</v>
       </c>
-      <c r="BK6" s="7"/>
+      <c r="BK6" s="35">
+        <v>1846</v>
+      </c>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
       <c r="BN6" s="7"/>
@@ -14485,7 +15094,9 @@
       <c r="BJ7" s="7">
         <v>1364</v>
       </c>
-      <c r="BK7" s="7"/>
+      <c r="BK7" s="35">
+        <v>1376</v>
+      </c>
       <c r="BL7" s="7"/>
       <c r="BM7" s="7"/>
       <c r="BN7" s="7"/>
@@ -14701,7 +15312,9 @@
       <c r="BJ8" s="7">
         <v>755</v>
       </c>
-      <c r="BK8" s="7"/>
+      <c r="BK8" s="35">
+        <v>757</v>
+      </c>
       <c r="BL8" s="7"/>
       <c r="BM8" s="7"/>
       <c r="BN8" s="7"/>
@@ -14917,7 +15530,9 @@
       <c r="BJ9" s="7">
         <v>1285</v>
       </c>
-      <c r="BK9" s="7"/>
+      <c r="BK9" s="35">
+        <v>1296</v>
+      </c>
       <c r="BL9" s="7"/>
       <c r="BM9" s="7"/>
       <c r="BN9" s="7"/>
@@ -15133,7 +15748,9 @@
       <c r="BJ10" s="7">
         <v>1259</v>
       </c>
-      <c r="BK10" s="7"/>
+      <c r="BK10" s="35">
+        <v>1269</v>
+      </c>
       <c r="BL10" s="7"/>
       <c r="BM10" s="7"/>
       <c r="BN10" s="7"/>
@@ -15349,7 +15966,9 @@
       <c r="BJ11" s="7">
         <v>154</v>
       </c>
-      <c r="BK11" s="7"/>
+      <c r="BK11" s="35">
+        <v>143</v>
+      </c>
       <c r="BL11" s="7"/>
       <c r="BM11" s="7"/>
       <c r="BN11" s="7"/>
@@ -15388,9 +16007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CE19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="BF2" sqref="BF2:BF13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="BG2" sqref="BG2:BG13"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -15404,7 +16023,7 @@
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="46" max="55" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="56" max="57" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83">
@@ -15582,7 +16201,9 @@
       <c r="BF1" s="4">
         <v>43981</v>
       </c>
-      <c r="BG1" s="4"/>
+      <c r="BG1" s="4">
+        <v>43982</v>
+      </c>
       <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
       <c r="BJ1" s="4"/>
@@ -15783,7 +16404,9 @@
       <c r="BF2" s="35">
         <v>914</v>
       </c>
-      <c r="BG2" s="7"/>
+      <c r="BG2" s="35">
+        <v>926</v>
+      </c>
       <c r="BH2" s="7"/>
       <c r="BI2" s="7"/>
       <c r="BJ2" s="7"/>
@@ -15984,7 +16607,9 @@
       <c r="BF3" s="35">
         <v>1346</v>
       </c>
-      <c r="BG3" s="7"/>
+      <c r="BG3" s="35">
+        <v>1354</v>
+      </c>
       <c r="BH3" s="7"/>
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7"/>
@@ -16185,7 +16810,9 @@
       <c r="BF4" s="35">
         <v>4097</v>
       </c>
-      <c r="BG4" s="7"/>
+      <c r="BG4" s="35">
+        <v>4119</v>
+      </c>
       <c r="BH4" s="7"/>
       <c r="BI4" s="7"/>
       <c r="BJ4" s="7"/>
@@ -16386,7 +17013,9 @@
       <c r="BF5" s="35">
         <v>106</v>
       </c>
-      <c r="BG5" s="7"/>
+      <c r="BG5" s="35">
+        <v>106</v>
+      </c>
       <c r="BH5" s="7"/>
       <c r="BI5" s="7"/>
       <c r="BJ5" s="7"/>
@@ -16587,7 +17216,9 @@
       <c r="BF6" s="35">
         <v>26</v>
       </c>
-      <c r="BG6" s="7"/>
+      <c r="BG6" s="35">
+        <v>26</v>
+      </c>
       <c r="BH6" s="7"/>
       <c r="BI6" s="7"/>
       <c r="BJ6" s="7"/>
@@ -16784,7 +17415,9 @@
       <c r="BF7" s="35">
         <v>22</v>
       </c>
-      <c r="BG7" s="7"/>
+      <c r="BG7" s="35">
+        <v>22</v>
+      </c>
       <c r="BH7" s="7"/>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="7"/>
@@ -16985,7 +17618,9 @@
       <c r="BF8" s="35">
         <v>2232</v>
       </c>
-      <c r="BG8" s="7"/>
+      <c r="BG8" s="35">
+        <v>2246</v>
+      </c>
       <c r="BH8" s="7"/>
       <c r="BI8" s="7"/>
       <c r="BJ8" s="7"/>
@@ -17186,7 +17821,9 @@
       <c r="BF9" s="35">
         <v>58</v>
       </c>
-      <c r="BG9" s="7"/>
+      <c r="BG9" s="35">
+        <v>58</v>
+      </c>
       <c r="BH9" s="7"/>
       <c r="BI9" s="7"/>
       <c r="BJ9" s="7"/>
@@ -17387,7 +18024,9 @@
       <c r="BF10" s="35">
         <v>1521</v>
       </c>
-      <c r="BG10" s="7"/>
+      <c r="BG10" s="35">
+        <v>1540</v>
+      </c>
       <c r="BH10" s="7"/>
       <c r="BI10" s="7"/>
       <c r="BJ10" s="7"/>
@@ -17588,7 +18227,9 @@
       <c r="BF11" s="35">
         <v>2328</v>
       </c>
-      <c r="BG11" s="7"/>
+      <c r="BG11" s="35">
+        <v>2336</v>
+      </c>
       <c r="BH11" s="7"/>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="7"/>
@@ -17789,7 +18430,9 @@
       <c r="BF12" s="35">
         <v>4927</v>
       </c>
-      <c r="BG12" s="7"/>
+      <c r="BG12" s="35">
+        <v>4955</v>
+      </c>
       <c r="BH12" s="7"/>
       <c r="BI12" s="7"/>
       <c r="BJ12" s="7"/>
@@ -17990,7 +18633,9 @@
       <c r="BF13" s="35">
         <v>25</v>
       </c>
-      <c r="BG13" s="7"/>
+      <c r="BG13" s="35">
+        <v>26</v>
+      </c>
       <c r="BH13" s="7"/>
       <c r="BI13" s="7"/>
       <c r="BJ13" s="7"/>
@@ -18292,13 +18937,13 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG7" sqref="BG7"/>
+      <selection pane="topRight" activeCell="BH9" sqref="BH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="45" max="57" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="58" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86">
@@ -18471,7 +19116,9 @@
       <c r="BE1" s="4">
         <v>43981</v>
       </c>
-      <c r="BF1" s="4"/>
+      <c r="BF1" s="4">
+        <v>43982</v>
+      </c>
       <c r="BG1" s="4"/>
       <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
@@ -18763,7 +19410,9 @@
       <c r="BE3" s="7">
         <v>7</v>
       </c>
-      <c r="BF3" s="7"/>
+      <c r="BF3" s="7">
+        <v>7</v>
+      </c>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7"/>
       <c r="BI3" s="7"/>
@@ -18965,7 +19614,9 @@
       <c r="BE4" s="7">
         <v>349</v>
       </c>
-      <c r="BF4" s="7"/>
+      <c r="BF4" s="7">
+        <v>351</v>
+      </c>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
       <c r="BI4" s="7"/>
@@ -19167,7 +19818,9 @@
       <c r="BE5" s="7">
         <v>54</v>
       </c>
-      <c r="BF5" s="7"/>
+      <c r="BF5" s="7">
+        <v>54</v>
+      </c>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
       <c r="BI5" s="7"/>
@@ -19369,7 +20022,9 @@
       <c r="BE6" s="7">
         <v>52</v>
       </c>
-      <c r="BF6" s="7"/>
+      <c r="BF6" s="7">
+        <v>52</v>
+      </c>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
       <c r="BI6" s="7"/>
@@ -19569,7 +20224,9 @@
       <c r="BE7" s="7">
         <v>4</v>
       </c>
-      <c r="BF7" s="7"/>
+      <c r="BF7" s="7">
+        <v>4</v>
+      </c>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
       <c r="BI7" s="7"/>
@@ -19993,7 +20650,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -20222,7 +20879,7 @@
         <v>5156</v>
       </c>
       <c r="G3" s="7">
-        <v>5200</v>
+        <v>5251</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -20328,7 +20985,7 @@
         <v>3657</v>
       </c>
       <c r="G4" s="7">
-        <v>3736</v>
+        <v>3792</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -20434,7 +21091,7 @@
         <v>3733</v>
       </c>
       <c r="G5" s="7">
-        <v>3823</v>
+        <v>3870</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -20540,7 +21197,7 @@
         <v>6840</v>
       </c>
       <c r="G6" s="7">
-        <v>6921</v>
+        <v>6984</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -20646,7 +21303,7 @@
         <v>6355</v>
       </c>
       <c r="G7" s="7">
-        <v>6470</v>
+        <v>6540</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -20752,7 +21409,7 @@
         <v>5380</v>
       </c>
       <c r="G8" s="7">
-        <v>5437</v>
+        <v>5535</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -20858,7 +21515,7 @@
         <v>6129</v>
       </c>
       <c r="G9" s="7">
-        <v>6203</v>
+        <v>6273</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -20964,7 +21621,7 @@
         <v>6312</v>
       </c>
       <c r="G10" s="7">
-        <v>6499</v>
+        <v>6640</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -21070,7 +21727,7 @@
         <v>2203</v>
       </c>
       <c r="G11" s="7">
-        <v>2331</v>
+        <v>2517</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -21202,9 +21859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DF105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CG85" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CI101" sqref="CI101"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="CH69" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CJ87" sqref="CJ87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -21475,7 +22132,9 @@
       <c r="CI1" s="4">
         <v>43981</v>
       </c>
-      <c r="CJ1" s="4"/>
+      <c r="CJ1" s="4">
+        <v>43982</v>
+      </c>
       <c r="CK1" s="4"/>
       <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
@@ -21863,7 +22522,9 @@
       <c r="CI3" s="11">
         <v>46483</v>
       </c>
-      <c r="CJ3" s="11"/>
+      <c r="CJ3" s="11">
+        <v>47263</v>
+      </c>
       <c r="CK3" s="11"/>
       <c r="CL3" s="11"/>
       <c r="CM3" s="11"/>
@@ -21997,7 +22658,9 @@
       <c r="CI4" s="11">
         <v>38413</v>
       </c>
-      <c r="CJ4" s="11"/>
+      <c r="CJ4" s="11">
+        <v>38975</v>
+      </c>
       <c r="CK4" s="11"/>
       <c r="CL4" s="11"/>
       <c r="CM4" s="11"/>
@@ -22283,7 +22946,9 @@
       <c r="CI5" s="11">
         <v>8801</v>
       </c>
-      <c r="CJ5" s="11"/>
+      <c r="CJ5" s="11">
+        <v>8857</v>
+      </c>
       <c r="CK5" s="11"/>
       <c r="CL5" s="11"/>
       <c r="CM5" s="11"/>
@@ -22557,7 +23222,9 @@
       <c r="CI6" s="11">
         <v>466</v>
       </c>
-      <c r="CJ6" s="11"/>
+      <c r="CJ6" s="11">
+        <v>468</v>
+      </c>
       <c r="CK6" s="11"/>
       <c r="CL6" s="11"/>
       <c r="CM6" s="11"/>
@@ -22811,7 +23478,9 @@
       <c r="CI7" s="11">
         <v>1116</v>
       </c>
-      <c r="CJ7" s="11"/>
+      <c r="CJ7" s="11">
+        <v>1126</v>
+      </c>
       <c r="CK7" s="11"/>
       <c r="CL7" s="11"/>
       <c r="CM7" s="11"/>
@@ -23105,7 +23774,9 @@
       <c r="CI9" s="11">
         <v>345</v>
       </c>
-      <c r="CJ9" s="11"/>
+      <c r="CJ9" s="11">
+        <v>345</v>
+      </c>
       <c r="CK9" s="11"/>
       <c r="CL9" s="11"/>
       <c r="CM9" s="11"/>
@@ -23355,7 +24026,9 @@
       <c r="CI10" s="11">
         <v>59</v>
       </c>
-      <c r="CJ10" s="11"/>
+      <c r="CJ10" s="11">
+        <v>73</v>
+      </c>
       <c r="CK10" s="11"/>
       <c r="CL10" s="11"/>
       <c r="CM10" s="11"/>
@@ -23605,7 +24278,9 @@
       <c r="CI11" s="11">
         <v>440</v>
       </c>
-      <c r="CJ11" s="11"/>
+      <c r="CJ11" s="11">
+        <v>440</v>
+      </c>
       <c r="CK11" s="11"/>
       <c r="CL11" s="11"/>
       <c r="CM11" s="11"/>
@@ -23855,7 +24530,9 @@
       <c r="CI12" s="11">
         <v>215</v>
       </c>
-      <c r="CJ12" s="11"/>
+      <c r="CJ12" s="11">
+        <v>204</v>
+      </c>
       <c r="CK12" s="11"/>
       <c r="CL12" s="11"/>
       <c r="CM12" s="11"/>
@@ -24105,7 +24782,9 @@
       <c r="CI13" s="11">
         <v>225</v>
       </c>
-      <c r="CJ13" s="11"/>
+      <c r="CJ13" s="11">
+        <v>236</v>
+      </c>
       <c r="CK13" s="11"/>
       <c r="CL13" s="11"/>
       <c r="CM13" s="11"/>
@@ -24263,7 +24942,9 @@
       <c r="CI14" s="11">
         <v>295</v>
       </c>
-      <c r="CJ14" s="11"/>
+      <c r="CJ14" s="11">
+        <v>302</v>
+      </c>
       <c r="CK14" s="11"/>
       <c r="CL14" s="11"/>
       <c r="CM14" s="11"/>
@@ -24401,7 +25082,9 @@
       <c r="CI15" s="11">
         <v>109</v>
       </c>
-      <c r="CJ15" s="11"/>
+      <c r="CJ15" s="11">
+        <v>108</v>
+      </c>
       <c r="CK15" s="11"/>
       <c r="CL15" s="11"/>
       <c r="CM15" s="11"/>
@@ -24559,7 +25242,9 @@
       <c r="CI16" s="11">
         <v>1931</v>
       </c>
-      <c r="CJ16" s="11"/>
+      <c r="CJ16" s="11">
+        <v>1891</v>
+      </c>
       <c r="CK16" s="11"/>
       <c r="CL16" s="11"/>
       <c r="CM16" s="11"/>
@@ -25265,7 +25950,9 @@
       <c r="CI21" s="11">
         <v>111</v>
       </c>
-      <c r="CJ21" s="11"/>
+      <c r="CJ21" s="11">
+        <v>111</v>
+      </c>
       <c r="CK21" s="11"/>
       <c r="CL21" s="11"/>
       <c r="CM21" s="11"/>
@@ -25481,7 +26168,9 @@
       <c r="CI22" s="11">
         <v>19</v>
       </c>
-      <c r="CJ22" s="11"/>
+      <c r="CJ22" s="11">
+        <v>19</v>
+      </c>
       <c r="CK22" s="11"/>
       <c r="CL22" s="11"/>
       <c r="CM22" s="11"/>
@@ -25697,7 +26386,9 @@
       <c r="CI23" s="11">
         <v>92</v>
       </c>
-      <c r="CJ23" s="11"/>
+      <c r="CJ23" s="11">
+        <v>92</v>
+      </c>
       <c r="CK23" s="11"/>
       <c r="CL23" s="11"/>
       <c r="CM23" s="11"/>
@@ -25943,7 +26634,9 @@
       <c r="CI24" s="11">
         <v>123</v>
       </c>
-      <c r="CJ24" s="11"/>
+      <c r="CJ24" s="11">
+        <v>129</v>
+      </c>
       <c r="CK24" s="11"/>
       <c r="CL24" s="11"/>
       <c r="CM24" s="11"/>
@@ -26189,7 +26882,9 @@
       <c r="CI25" s="11">
         <v>142</v>
       </c>
-      <c r="CJ25" s="11"/>
+      <c r="CJ25" s="11">
+        <v>148</v>
+      </c>
       <c r="CK25" s="11"/>
       <c r="CL25" s="11"/>
       <c r="CM25" s="11"/>
@@ -26435,7 +27130,9 @@
       <c r="CI26" s="11">
         <v>1371</v>
       </c>
-      <c r="CJ26" s="11"/>
+      <c r="CJ26" s="11">
+        <v>1384</v>
+      </c>
       <c r="CK26" s="11"/>
       <c r="CL26" s="11"/>
       <c r="CM26" s="11"/>
@@ -26913,7 +27610,9 @@
       <c r="CI29" s="11">
         <v>134</v>
       </c>
-      <c r="CJ29" s="11"/>
+      <c r="CJ29" s="11">
+        <v>135</v>
+      </c>
       <c r="CK29" s="11"/>
       <c r="CL29" s="11"/>
       <c r="CM29" s="11"/>
@@ -27129,7 +27828,9 @@
       <c r="CI30" s="11">
         <v>28</v>
       </c>
-      <c r="CJ30" s="11"/>
+      <c r="CJ30" s="11">
+        <v>29</v>
+      </c>
       <c r="CK30" s="11"/>
       <c r="CL30" s="11"/>
       <c r="CM30" s="11"/>
@@ -27345,7 +28046,9 @@
       <c r="CI31" s="11">
         <v>106</v>
       </c>
-      <c r="CJ31" s="11"/>
+      <c r="CJ31" s="11">
+        <v>106</v>
+      </c>
       <c r="CK31" s="11"/>
       <c r="CL31" s="11"/>
       <c r="CM31" s="11"/>
@@ -27591,7 +28294,9 @@
       <c r="CI32" s="11">
         <v>48</v>
       </c>
-      <c r="CJ32" s="11"/>
+      <c r="CJ32" s="11">
+        <v>48</v>
+      </c>
       <c r="CK32" s="11"/>
       <c r="CL32" s="11"/>
       <c r="CM32" s="11"/>
@@ -27837,7 +28542,9 @@
       <c r="CI33" s="11">
         <v>76</v>
       </c>
-      <c r="CJ33" s="11"/>
+      <c r="CJ33" s="11">
+        <v>77</v>
+      </c>
       <c r="CK33" s="11"/>
       <c r="CL33" s="11"/>
       <c r="CM33" s="11"/>
@@ -28083,7 +28790,9 @@
       <c r="CI34" s="11">
         <v>1206</v>
       </c>
-      <c r="CJ34" s="11"/>
+      <c r="CJ34" s="11">
+        <v>1206</v>
+      </c>
       <c r="CK34" s="11"/>
       <c r="CL34" s="11"/>
       <c r="CM34" s="11"/>
@@ -28553,7 +29262,9 @@
       <c r="CI37" s="11">
         <v>80</v>
       </c>
-      <c r="CJ37" s="11"/>
+      <c r="CJ37" s="11">
+        <v>80</v>
+      </c>
       <c r="CK37" s="11"/>
       <c r="CL37" s="11"/>
       <c r="CM37" s="11"/>
@@ -28765,7 +29476,9 @@
       <c r="CI38" s="11">
         <v>6</v>
       </c>
-      <c r="CJ38" s="11"/>
+      <c r="CJ38" s="11">
+        <v>6</v>
+      </c>
       <c r="CK38" s="11"/>
       <c r="CL38" s="11"/>
       <c r="CM38" s="11"/>
@@ -28977,7 +29690,9 @@
       <c r="CI39" s="11">
         <v>73</v>
       </c>
-      <c r="CJ39" s="11"/>
+      <c r="CJ39" s="11">
+        <v>73</v>
+      </c>
       <c r="CK39" s="11"/>
       <c r="CL39" s="11"/>
       <c r="CM39" s="11"/>
@@ -29219,7 +29934,9 @@
       <c r="CI40" s="11">
         <v>1</v>
       </c>
-      <c r="CJ40" s="11"/>
+      <c r="CJ40" s="11">
+        <v>1</v>
+      </c>
       <c r="CK40" s="11"/>
       <c r="CL40" s="11"/>
       <c r="CM40" s="11"/>
@@ -29459,7 +30176,9 @@
       <c r="CI41" s="11">
         <v>7</v>
       </c>
-      <c r="CJ41" s="11"/>
+      <c r="CJ41" s="11">
+        <v>7</v>
+      </c>
       <c r="CK41" s="11"/>
       <c r="CL41" s="11"/>
       <c r="CM41" s="11"/>
@@ -29703,7 +30422,9 @@
       <c r="CI42" s="11">
         <v>281</v>
       </c>
-      <c r="CJ42" s="11"/>
+      <c r="CJ42" s="11">
+        <v>281</v>
+      </c>
       <c r="CK42" s="11"/>
       <c r="CL42" s="11"/>
       <c r="CM42" s="11"/>
@@ -29903,7 +30624,9 @@
       <c r="CI43" s="11">
         <v>1</v>
       </c>
-      <c r="CJ43" s="11"/>
+      <c r="CJ43" s="11">
+        <v>1</v>
+      </c>
       <c r="CK43" s="11"/>
       <c r="CL43" s="11"/>
       <c r="CM43" s="11"/>
@@ -30377,7 +31100,9 @@
       <c r="CI46" s="11">
         <v>205</v>
       </c>
-      <c r="CJ46" s="11"/>
+      <c r="CJ46" s="11">
+        <v>205</v>
+      </c>
       <c r="CK46" s="11"/>
       <c r="CL46" s="11"/>
       <c r="CM46" s="11"/>
@@ -30593,7 +31318,9 @@
       <c r="CI47" s="11">
         <v>24</v>
       </c>
-      <c r="CJ47" s="11"/>
+      <c r="CJ47" s="11">
+        <v>18</v>
+      </c>
       <c r="CK47" s="11"/>
       <c r="CL47" s="11"/>
       <c r="CM47" s="11"/>
@@ -30809,7 +31536,9 @@
       <c r="CI48" s="11">
         <v>175</v>
       </c>
-      <c r="CJ48" s="11"/>
+      <c r="CJ48" s="11">
+        <v>181</v>
+      </c>
       <c r="CK48" s="11"/>
       <c r="CL48" s="11"/>
       <c r="CM48" s="11"/>
@@ -31055,7 +31784,9 @@
       <c r="CI49" s="11">
         <v>470</v>
       </c>
-      <c r="CJ49" s="11"/>
+      <c r="CJ49" s="11">
+        <v>479</v>
+      </c>
       <c r="CK49" s="11"/>
       <c r="CL49" s="11"/>
       <c r="CM49" s="11"/>
@@ -31271,7 +32002,9 @@
       <c r="CI50" s="11">
         <v>494</v>
       </c>
-      <c r="CJ50" s="11"/>
+      <c r="CJ50" s="11">
+        <v>497</v>
+      </c>
       <c r="CK50" s="11"/>
       <c r="CL50" s="11"/>
       <c r="CM50" s="11"/>
@@ -31485,7 +32218,9 @@
       <c r="CI51" s="11">
         <v>815</v>
       </c>
-      <c r="CJ51" s="11"/>
+      <c r="CJ51" s="11">
+        <v>820</v>
+      </c>
       <c r="CK51" s="11"/>
       <c r="CL51" s="11"/>
       <c r="CM51" s="11"/>
@@ -31695,7 +32430,9 @@
       <c r="CI52" s="11">
         <v>1</v>
       </c>
-      <c r="CJ52" s="11"/>
+      <c r="CJ52" s="11">
+        <v>1</v>
+      </c>
       <c r="CK52" s="11"/>
       <c r="CL52" s="11"/>
       <c r="CM52" s="11"/>
@@ -32159,7 +32896,9 @@
       <c r="CI55" s="11">
         <v>29</v>
       </c>
-      <c r="CJ55" s="11"/>
+      <c r="CJ55" s="11">
+        <v>29</v>
+      </c>
       <c r="CK55" s="11"/>
       <c r="CL55" s="11"/>
       <c r="CM55" s="11"/>
@@ -32373,7 +33112,9 @@
       <c r="CI56" s="11">
         <v>7</v>
       </c>
-      <c r="CJ56" s="11"/>
+      <c r="CJ56" s="11">
+        <v>7</v>
+      </c>
       <c r="CK56" s="11"/>
       <c r="CL56" s="11"/>
       <c r="CM56" s="11"/>
@@ -32587,7 +33328,9 @@
       <c r="CI57" s="11">
         <v>21</v>
       </c>
-      <c r="CJ57" s="11"/>
+      <c r="CJ57" s="11">
+        <v>21</v>
+      </c>
       <c r="CK57" s="11"/>
       <c r="CL57" s="11"/>
       <c r="CM57" s="11"/>
@@ -32825,7 +33568,9 @@
       <c r="CI58" s="11">
         <v>18</v>
       </c>
-      <c r="CJ58" s="11"/>
+      <c r="CJ58" s="11">
+        <v>18</v>
+      </c>
       <c r="CK58" s="11"/>
       <c r="CL58" s="11"/>
       <c r="CM58" s="11"/>
@@ -33063,7 +33808,9 @@
       <c r="CI59" s="11">
         <v>25</v>
       </c>
-      <c r="CJ59" s="11"/>
+      <c r="CJ59" s="11">
+        <v>25</v>
+      </c>
       <c r="CK59" s="11"/>
       <c r="CL59" s="11"/>
       <c r="CM59" s="11"/>
@@ -33301,7 +34048,9 @@
       <c r="CI60" s="11">
         <v>142</v>
       </c>
-      <c r="CJ60" s="11"/>
+      <c r="CJ60" s="11">
+        <v>142</v>
+      </c>
       <c r="CK60" s="11"/>
       <c r="CL60" s="11"/>
       <c r="CM60" s="11"/>
@@ -33511,7 +34260,9 @@
       <c r="CI61" s="11">
         <v>1</v>
       </c>
-      <c r="CJ61" s="11"/>
+      <c r="CJ61" s="11">
+        <v>1</v>
+      </c>
       <c r="CK61" s="11"/>
       <c r="CL61" s="11"/>
       <c r="CM61" s="11"/>
@@ -33861,7 +34612,9 @@
       <c r="CI63" s="11">
         <v>11</v>
       </c>
-      <c r="CJ63" s="11"/>
+      <c r="CJ63" s="11">
+        <v>11</v>
+      </c>
       <c r="CK63" s="11"/>
       <c r="CL63" s="11"/>
       <c r="CM63" s="11"/>
@@ -34075,7 +34828,9 @@
       <c r="CI64" s="11">
         <v>3</v>
       </c>
-      <c r="CJ64" s="11"/>
+      <c r="CJ64" s="11">
+        <v>2</v>
+      </c>
       <c r="CK64" s="11"/>
       <c r="CL64" s="11"/>
       <c r="CM64" s="11"/>
@@ -34289,7 +35044,9 @@
       <c r="CI65" s="11">
         <v>8</v>
       </c>
-      <c r="CJ65" s="11"/>
+      <c r="CJ65" s="11">
+        <v>9</v>
+      </c>
       <c r="CK65" s="11"/>
       <c r="CL65" s="11"/>
       <c r="CM65" s="11"/>
@@ -34527,7 +35284,9 @@
       <c r="CI66" s="11">
         <v>48</v>
       </c>
-      <c r="CJ66" s="11"/>
+      <c r="CJ66" s="11">
+        <v>52</v>
+      </c>
       <c r="CK66" s="11"/>
       <c r="CL66" s="11"/>
       <c r="CM66" s="11"/>
@@ -34765,7 +35524,9 @@
       <c r="CI67" s="11">
         <v>51</v>
       </c>
-      <c r="CJ67" s="11"/>
+      <c r="CJ67" s="11">
+        <v>54</v>
+      </c>
       <c r="CK67" s="11"/>
       <c r="CL67" s="11"/>
       <c r="CM67" s="11"/>
@@ -35001,7 +35762,9 @@
       <c r="CI68" s="11">
         <v>0</v>
       </c>
-      <c r="CJ68" s="11"/>
+      <c r="CJ68" s="11">
+        <v>0</v>
+      </c>
       <c r="CK68" s="11"/>
       <c r="CL68" s="11"/>
       <c r="CM68" s="11"/>
@@ -35215,7 +35978,9 @@
       <c r="CI69" s="11">
         <v>0</v>
       </c>
-      <c r="CJ69" s="11"/>
+      <c r="CJ69" s="11">
+        <v>0</v>
+      </c>
       <c r="CK69" s="11"/>
       <c r="CL69" s="11"/>
       <c r="CM69" s="11"/>
@@ -35465,7 +36230,9 @@
       <c r="CI71" s="11">
         <v>10</v>
       </c>
-      <c r="CJ71" s="11"/>
+      <c r="CJ71" s="11">
+        <v>10</v>
+      </c>
       <c r="CK71" s="11"/>
       <c r="CL71" s="11"/>
       <c r="CM71" s="11"/>
@@ -35603,7 +36370,9 @@
       <c r="CI72" s="11">
         <v>6</v>
       </c>
-      <c r="CJ72" s="11"/>
+      <c r="CJ72" s="11">
+        <v>6</v>
+      </c>
       <c r="CK72" s="11"/>
       <c r="CL72" s="11"/>
       <c r="CM72" s="11"/>
@@ -35741,7 +36510,9 @@
       <c r="CI73" s="11">
         <v>4</v>
       </c>
-      <c r="CJ73" s="11"/>
+      <c r="CJ73" s="11">
+        <v>4</v>
+      </c>
       <c r="CK73" s="11"/>
       <c r="CL73" s="11"/>
       <c r="CM73" s="11"/>
@@ -35879,7 +36650,9 @@
       <c r="CI74" s="11">
         <v>13</v>
       </c>
-      <c r="CJ74" s="11"/>
+      <c r="CJ74" s="11">
+        <v>12</v>
+      </c>
       <c r="CK74" s="11"/>
       <c r="CL74" s="11"/>
       <c r="CM74" s="11"/>
@@ -36017,7 +36790,9 @@
       <c r="CI75" s="11">
         <v>19</v>
       </c>
-      <c r="CJ75" s="11"/>
+      <c r="CJ75" s="11">
+        <v>18</v>
+      </c>
       <c r="CK75" s="11"/>
       <c r="CL75" s="11"/>
       <c r="CM75" s="11"/>
@@ -36155,7 +36930,9 @@
       <c r="CI76" s="11">
         <v>28</v>
       </c>
-      <c r="CJ76" s="11"/>
+      <c r="CJ76" s="11">
+        <v>29</v>
+      </c>
       <c r="CK76" s="11"/>
       <c r="CL76" s="11"/>
       <c r="CM76" s="11"/>
@@ -36619,7 +37396,9 @@
       <c r="CI79" s="11">
         <v>297</v>
       </c>
-      <c r="CJ79" s="11"/>
+      <c r="CJ79" s="11">
+        <v>297</v>
+      </c>
       <c r="CK79" s="11"/>
       <c r="CL79" s="11"/>
       <c r="CM79" s="11"/>
@@ -36857,7 +37636,9 @@
       <c r="CI80" s="11">
         <v>109</v>
       </c>
-      <c r="CJ80" s="11"/>
+      <c r="CJ80" s="11">
+        <v>114</v>
+      </c>
       <c r="CK80" s="11"/>
       <c r="CL80" s="11"/>
       <c r="CM80" s="11"/>
@@ -37095,7 +37876,9 @@
       <c r="CI81" s="11">
         <v>85</v>
       </c>
-      <c r="CJ81" s="11"/>
+      <c r="CJ81" s="11">
+        <v>93</v>
+      </c>
       <c r="CK81" s="11"/>
       <c r="CL81" s="11"/>
       <c r="CM81" s="11"/>
@@ -37305,7 +38088,9 @@
       <c r="CI82" s="11">
         <v>16</v>
       </c>
-      <c r="CJ82" s="11"/>
+      <c r="CJ82" s="11">
+        <v>16</v>
+      </c>
       <c r="CK82" s="11"/>
       <c r="CL82" s="11"/>
       <c r="CM82" s="11"/>
@@ -37446,7 +38231,7 @@
         <v>96</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -37655,7 +38440,9 @@
       <c r="CI84" s="11">
         <v>119</v>
       </c>
-      <c r="CJ84" s="11"/>
+      <c r="CJ84" s="11">
+        <v>119</v>
+      </c>
       <c r="CK84" s="11"/>
       <c r="CL84" s="11"/>
       <c r="CM84" s="11"/>
@@ -37893,7 +38680,9 @@
       <c r="CI85" s="11">
         <v>28</v>
       </c>
-      <c r="CJ85" s="11"/>
+      <c r="CJ85" s="11">
+        <v>28</v>
+      </c>
       <c r="CK85" s="11"/>
       <c r="CL85" s="11"/>
       <c r="CM85" s="11"/>
@@ -38131,7 +38920,9 @@
       <c r="CI86" s="11">
         <v>147</v>
       </c>
-      <c r="CJ86" s="11"/>
+      <c r="CJ86" s="11">
+        <v>71</v>
+      </c>
       <c r="CK86" s="11"/>
       <c r="CL86" s="11"/>
       <c r="CM86" s="11"/>
@@ -38361,7 +39152,9 @@
       <c r="CI87" s="11">
         <v>190</v>
       </c>
-      <c r="CJ87" s="11"/>
+      <c r="CJ87" s="11">
+        <v>190</v>
+      </c>
       <c r="CK87" s="11"/>
       <c r="CL87" s="11"/>
       <c r="CM87" s="11"/>
@@ -38515,7 +39308,9 @@
       <c r="CI88" s="11">
         <v>1</v>
       </c>
-      <c r="CJ88" s="11"/>
+      <c r="CJ88" s="11">
+        <v>1</v>
+      </c>
       <c r="CK88" s="11"/>
       <c r="CL88" s="11"/>
       <c r="CM88" s="11"/>
@@ -38824,7 +39619,9 @@
       <c r="CI90" s="11">
         <v>81</v>
       </c>
-      <c r="CJ90" s="11"/>
+      <c r="CJ90" s="11">
+        <v>81</v>
+      </c>
       <c r="CK90" s="11"/>
       <c r="CL90" s="11"/>
       <c r="CM90" s="11"/>
@@ -39062,7 +39859,9 @@
       <c r="CI91" s="11">
         <v>22</v>
       </c>
-      <c r="CJ91" s="11"/>
+      <c r="CJ91" s="11">
+        <v>22</v>
+      </c>
       <c r="CK91" s="11"/>
       <c r="CL91" s="11"/>
       <c r="CM91" s="11"/>
@@ -39278,7 +40077,9 @@
       <c r="CI92" s="11">
         <v>158</v>
       </c>
-      <c r="CJ92" s="11"/>
+      <c r="CJ92" s="11">
+        <v>158</v>
+      </c>
       <c r="CK92" s="11"/>
       <c r="CL92" s="11"/>
       <c r="CM92" s="11"/>
@@ -39490,7 +40291,9 @@
       <c r="CI93" s="11">
         <v>41</v>
       </c>
-      <c r="CJ93" s="11"/>
+      <c r="CJ93" s="11">
+        <v>41</v>
+      </c>
       <c r="CK93" s="11"/>
       <c r="CL93" s="11"/>
       <c r="CM93" s="11"/>
@@ -39726,7 +40529,9 @@
       <c r="CI94" s="11">
         <v>13</v>
       </c>
-      <c r="CJ94" s="11"/>
+      <c r="CJ94" s="11">
+        <v>13</v>
+      </c>
       <c r="CK94" s="11"/>
       <c r="CL94" s="11"/>
       <c r="CM94" s="11"/>
@@ -40604,7 +41409,9 @@
       <c r="CI101" s="11">
         <v>187</v>
       </c>
-      <c r="CJ101" s="11"/>
+      <c r="CJ101" s="11">
+        <v>188</v>
+      </c>
       <c r="CK101" s="11"/>
       <c r="CL101" s="11"/>
       <c r="CM101" s="11"/>
@@ -40788,7 +41595,9 @@
       <c r="CI102" s="11">
         <v>60</v>
       </c>
-      <c r="CJ102" s="11"/>
+      <c r="CJ102" s="11">
+        <v>65</v>
+      </c>
       <c r="CK102" s="11"/>
       <c r="CL102" s="11"/>
       <c r="CM102" s="11"/>
@@ -40972,7 +41781,9 @@
       <c r="CI103" s="11">
         <v>25</v>
       </c>
-      <c r="CJ103" s="11"/>
+      <c r="CJ103" s="11">
+        <v>25</v>
+      </c>
       <c r="CK103" s="11"/>
       <c r="CL103" s="11"/>
       <c r="CM103" s="11"/>
@@ -41079,11 +41890,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51A914D-4CED-7A43-8BD6-4514AC12DE8C}">
-  <dimension ref="A1:C1240"/>
+  <dimension ref="A1:C1291"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1240" sqref="A1240"/>
+      <pane ySplit="1" topLeftCell="A1200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1291" sqref="C1291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -54733,6 +55544,567 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1241" spans="1:3">
+      <c r="A1241" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1241" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1241" s="19">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3">
+      <c r="A1242" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1242" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1242" s="19">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3">
+      <c r="A1243" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1243" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1243" s="19">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3">
+      <c r="A1244" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1244" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1244" s="19">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3">
+      <c r="A1245" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1245" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1245" s="19">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3">
+      <c r="A1246" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1246" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1246" s="19">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3">
+      <c r="A1247" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1247" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1247" s="19">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3">
+      <c r="A1248" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1248" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1248" s="19">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3">
+      <c r="A1249" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1249" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1249" s="19">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3">
+      <c r="A1250" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1250" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1250" s="19">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3">
+      <c r="A1251" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1251" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1251" s="19">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3">
+      <c r="A1252" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1252" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1252" s="19">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3">
+      <c r="A1253" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1253" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1253" s="19">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3">
+      <c r="A1254" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1254" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1254" s="19">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3">
+      <c r="A1255" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1255" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1255" s="19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3">
+      <c r="A1256" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1256" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1256" s="19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3">
+      <c r="A1257" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1257" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1257" s="19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3">
+      <c r="A1258" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1258" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1258" s="19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3">
+      <c r="A1259" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1259" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1259" s="19">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3">
+      <c r="A1260" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1260" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1260" s="19">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3">
+      <c r="A1261" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1261" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1261" s="19">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3">
+      <c r="A1262" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1262" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1262" s="19">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3">
+      <c r="A1263" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1263" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1263" s="19">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3">
+      <c r="A1264" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1264" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1264" s="19">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:3">
+      <c r="A1265" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1265" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1265" s="19">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:3">
+      <c r="A1266" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1266" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1266" s="19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:3">
+      <c r="A1267" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1267" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1267" s="19">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:3">
+      <c r="A1268" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1268" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1268" s="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:3">
+      <c r="A1269" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1269" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1269" s="19">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:3">
+      <c r="A1270" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1270" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1270" s="19">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:3">
+      <c r="A1271" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1271" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1271" s="19">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:3">
+      <c r="A1272" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1272" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1272" s="19">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:3">
+      <c r="A1273" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1273" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1273" s="19">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:3">
+      <c r="A1274" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1274" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1274" s="19">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:3">
+      <c r="A1275" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1275" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1275" s="19">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:3">
+      <c r="A1276" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1276" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1276" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:3">
+      <c r="A1277" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1277" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1277" s="19">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3">
+      <c r="A1278" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1278" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1278" s="19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:3">
+      <c r="A1279" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1279" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1279" s="19">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:3">
+      <c r="A1280" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1280" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1280" s="19">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3">
+      <c r="A1281" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1281" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1281" s="19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3">
+      <c r="A1282" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1282" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1282" s="19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3">
+      <c r="A1283" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1283" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1283" s="19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3">
+      <c r="A1284" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1284" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1284" s="19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3">
+      <c r="A1285" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1285" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1285" s="19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:3">
+      <c r="A1286" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1286" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1286" s="19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3">
+      <c r="A1287" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1287" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1287" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3">
+      <c r="A1288" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1288" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1288" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3">
+      <c r="A1289" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1289" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1289" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3">
+      <c r="A1290" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1290" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1290" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3">
+      <c r="A1291" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B1291" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1291" s="19">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A350B93-4722-484D-9823-FA15D70DD7A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="10" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="10" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="206">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -1287,11 +1287,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0704107B-CC38-954F-8D77-0E0C2F291C39}">
-  <dimension ref="A1:C514"/>
+  <dimension ref="A1:C565"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A464" sqref="A464:A514"/>
+      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A515" sqref="A515:A565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6955,6 +6955,567 @@
         <v>15</v>
       </c>
     </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B515" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C515" s="20">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B516" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C516" s="20">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B517" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C517" s="20">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B518" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C518" s="20">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B519" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C519" s="20">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B520" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C520" s="20">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B521" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C521" s="20">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B522" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C522" s="20">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B523" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C523" s="20">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B524" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C524" s="20">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B525" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C525" s="20">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B526" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C526" s="20">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B527" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C527" s="20">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B528" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C528" s="20">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B529" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C529" s="20">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B530" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C530" s="20">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B531" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C531" s="20">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B532" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C532" s="20">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B533" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C533" s="19">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B534" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C534" s="19">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B535" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C535" s="19">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B536" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C536" s="19">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B537" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C537" s="19">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B538" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C538" s="19">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B539" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C539" s="19">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B540" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C540" s="19">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B541" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C541" s="19">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B542" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C542" s="19">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B543" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C543" s="19">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B544" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C544" s="19">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B545" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C545" s="19">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B546" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C546" s="19">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B547" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C547" s="19">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B548" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C548" s="19">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B549" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C549" s="19">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B550" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C550" s="19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B551" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C551" s="19">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B552" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C552" s="19">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B553" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C553" s="19">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B554" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C554" s="19">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B555" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C555" s="19">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B556" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C556" s="19">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B557" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C557" s="19">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B558" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C558" s="19">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B559" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C559" s="19">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B560" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C560" s="19">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B561" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C561" s="19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B562" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C562" s="19">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B563" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C563" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B564" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C564" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B565" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C565" s="19">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6965,8 +7526,8 @@
   <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="G64" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <pane ySplit="2" topLeftCell="C55" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8428,13 +8989,27 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="26"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
+      <c r="A64" s="26">
+        <v>43983</v>
+      </c>
+      <c r="B64" s="28">
+        <v>1887</v>
+      </c>
+      <c r="C64" s="28">
+        <v>0</v>
+      </c>
+      <c r="D64" s="28">
+        <v>295</v>
+      </c>
+      <c r="E64" s="28">
+        <v>208</v>
+      </c>
+      <c r="F64" s="28">
+        <v>0</v>
+      </c>
+      <c r="G64" s="28">
+        <v>74</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="26"/>
@@ -11212,7 +11787,7 @@
         <v>182</v>
       </c>
       <c r="B2" s="18">
-        <v>1580.4</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11220,7 +11795,7 @@
         <v>183</v>
       </c>
       <c r="B3" s="18">
-        <v>706.9</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11228,7 +11803,7 @@
         <v>184</v>
       </c>
       <c r="B4" s="18">
-        <v>448.2</v>
+        <v>449.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11236,7 +11811,7 @@
         <v>185</v>
       </c>
       <c r="B5" s="18">
-        <v>2069.9</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11244,7 +11819,7 @@
         <v>186</v>
       </c>
       <c r="B6" s="18">
-        <v>1464.6</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11252,7 +11827,7 @@
         <v>187</v>
       </c>
       <c r="B7" s="18">
-        <v>825.3</v>
+        <v>826.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11260,7 +11835,7 @@
         <v>188</v>
       </c>
       <c r="B8" s="18">
-        <v>1569.5</v>
+        <v>1572.1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11268,7 +11843,7 @@
         <v>189</v>
       </c>
       <c r="B9" s="23">
-        <v>1677</v>
+        <v>1686.8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11384,13 +11959,13 @@
         <v>199</v>
       </c>
       <c r="C5" s="6">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D5" s="6">
         <v>5.5</v>
       </c>
       <c r="E5" s="6">
-        <v>915.5</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11401,13 +11976,13 @@
         <v>200</v>
       </c>
       <c r="C6" s="6">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="D6" s="6">
         <v>18.8</v>
       </c>
       <c r="E6" s="34">
-        <v>1017.3</v>
+        <v>1022.2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11418,13 +11993,13 @@
         <v>201</v>
       </c>
       <c r="C7" s="6">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D7" s="6">
-        <v>18</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E7" s="34">
-        <v>1509.5</v>
+        <v>1508.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11435,13 +12010,13 @@
         <v>202</v>
       </c>
       <c r="C8" s="6">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="D8" s="6">
         <v>15.6</v>
       </c>
       <c r="E8" s="34">
-        <v>1827.2</v>
+        <v>1833.8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11452,13 +12027,13 @@
         <v>203</v>
       </c>
       <c r="C9" s="6">
-        <v>1459</v>
+        <v>1469</v>
       </c>
       <c r="D9" s="6">
-        <v>16.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E9" s="34">
-        <v>2083.6</v>
+        <v>2097.9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11469,13 +12044,13 @@
         <v>204</v>
       </c>
       <c r="C10" s="6">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D10" s="6">
         <v>10.6</v>
       </c>
       <c r="E10" s="34">
-        <v>1929</v>
+        <v>1931.1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11486,13 +12061,13 @@
         <v>205</v>
       </c>
       <c r="C11" s="6">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D11" s="6">
         <v>9.6999999999999993</v>
       </c>
       <c r="E11" s="34">
-        <v>2337.4</v>
+        <v>2342.8000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -11505,8 +12080,8 @@
   <dimension ref="A1:BQ21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR2" sqref="AR2"/>
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11648,7 +12223,9 @@
       <c r="AR1" s="4">
         <v>43982</v>
       </c>
-      <c r="AS1" s="4"/>
+      <c r="AS1" s="4">
+        <v>43983</v>
+      </c>
       <c r="AT1" s="4"/>
       <c r="AU1" s="4"/>
       <c r="AV1" s="4"/>
@@ -11808,7 +12385,9 @@
       <c r="AR2" s="14">
         <v>468</v>
       </c>
-      <c r="AS2" s="14"/>
+      <c r="AS2" s="14">
+        <v>470</v>
+      </c>
       <c r="AT2" s="14"/>
       <c r="AU2" s="14"/>
       <c r="AV2" s="14"/>
@@ -11967,7 +12546,9 @@
       <c r="AR3" s="7">
         <v>48</v>
       </c>
-      <c r="AS3" s="7"/>
+      <c r="AS3" s="7">
+        <v>48</v>
+      </c>
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
       <c r="AV3" s="7"/>
@@ -12126,7 +12707,9 @@
       <c r="AR4" s="7">
         <v>29</v>
       </c>
-      <c r="AS4" s="7"/>
+      <c r="AS4" s="7">
+        <v>29</v>
+      </c>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
       <c r="AV4" s="7"/>
@@ -12285,7 +12868,9 @@
       <c r="AR5" s="7">
         <v>30</v>
       </c>
-      <c r="AS5" s="7"/>
+      <c r="AS5" s="7">
+        <v>30</v>
+      </c>
       <c r="AT5" s="7"/>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
@@ -12444,7 +13029,9 @@
       <c r="AR6" s="7">
         <v>66</v>
       </c>
-      <c r="AS6" s="7"/>
+      <c r="AS6" s="7">
+        <v>66</v>
+      </c>
       <c r="AT6" s="7"/>
       <c r="AU6" s="7"/>
       <c r="AV6" s="7"/>
@@ -12603,7 +13190,9 @@
       <c r="AR7" s="7">
         <v>75</v>
       </c>
-      <c r="AS7" s="7"/>
+      <c r="AS7" s="7">
+        <v>75</v>
+      </c>
       <c r="AT7" s="7"/>
       <c r="AU7" s="7"/>
       <c r="AV7" s="7"/>
@@ -12762,7 +13351,9 @@
       <c r="AR8" s="7">
         <v>42</v>
       </c>
-      <c r="AS8" s="7"/>
+      <c r="AS8" s="7">
+        <v>43</v>
+      </c>
       <c r="AT8" s="7"/>
       <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
@@ -12921,7 +13512,9 @@
       <c r="AR9" s="7">
         <v>67</v>
       </c>
-      <c r="AS9" s="7"/>
+      <c r="AS9" s="7">
+        <v>68</v>
+      </c>
       <c r="AT9" s="7"/>
       <c r="AU9" s="7"/>
       <c r="AV9" s="7"/>
@@ -13080,7 +13673,9 @@
       <c r="AR10" s="7">
         <v>95</v>
       </c>
-      <c r="AS10" s="7"/>
+      <c r="AS10" s="7">
+        <v>95</v>
+      </c>
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
@@ -13239,7 +13834,9 @@
       <c r="AR11" s="7">
         <v>16</v>
       </c>
-      <c r="AS11" s="7"/>
+      <c r="AS11" s="7">
+        <v>16</v>
+      </c>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
       <c r="AV11" s="7"/>
@@ -13396,7 +13993,9 @@
       <c r="AR12" s="7">
         <v>0</v>
       </c>
-      <c r="AS12" s="7"/>
+      <c r="AS12" s="7">
+        <v>0</v>
+      </c>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
@@ -13460,7 +14059,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -13494,16 +14093,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="27">
-        <v>8857</v>
+        <v>8886</v>
       </c>
       <c r="C2" s="27">
-        <v>4396</v>
+        <v>4407</v>
       </c>
       <c r="D2" s="27">
-        <v>4442</v>
+        <v>4460</v>
       </c>
       <c r="E2" s="27">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13579,13 +14178,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="27">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C7" s="7">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D7" s="7">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -13596,13 +14195,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="27">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="C8" s="7">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D8" s="7">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -13613,13 +14212,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="27">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C9" s="7">
         <v>773</v>
       </c>
       <c r="D9" s="7">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -13630,13 +14229,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="27">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="C10" s="7">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D10" s="7">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -13647,13 +14246,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="27">
-        <v>1459</v>
+        <v>1469</v>
       </c>
       <c r="C11" s="7">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="D11" s="7">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -13664,10 +14263,10 @@
         <v>19</v>
       </c>
       <c r="B12" s="27">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C12" s="7">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D12" s="7">
         <v>499</v>
@@ -13681,13 +14280,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="27">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C13" s="7">
         <v>498</v>
       </c>
       <c r="D13" s="7">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
@@ -13714,8 +14313,8 @@
   <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK3" sqref="BK3:BK11"/>
+      <pane xSplit="1" topLeftCell="BK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BL3" sqref="BL3:BL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14007,7 +14606,9 @@
       <c r="BK2" s="4">
         <v>43982</v>
       </c>
-      <c r="BL2" s="4"/>
+      <c r="BL2" s="4">
+        <v>43983</v>
+      </c>
       <c r="BM2" s="4"/>
       <c r="BN2" s="4"/>
       <c r="BO2" s="4"/>
@@ -14225,7 +14826,9 @@
       <c r="BK3" s="35">
         <v>1237</v>
       </c>
-      <c r="BL3" s="7"/>
+      <c r="BL3" s="35">
+        <v>1243</v>
+      </c>
       <c r="BM3" s="7"/>
       <c r="BN3" s="7"/>
       <c r="BO3" s="7"/>
@@ -14443,7 +15046,9 @@
       <c r="BK4" s="35">
         <v>514</v>
       </c>
-      <c r="BL4" s="7"/>
+      <c r="BL4" s="35">
+        <v>513</v>
+      </c>
       <c r="BM4" s="7"/>
       <c r="BN4" s="7"/>
       <c r="BO4" s="7"/>
@@ -14661,7 +15266,9 @@
       <c r="BK5" s="35">
         <v>419</v>
       </c>
-      <c r="BL5" s="7"/>
+      <c r="BL5" s="35">
+        <v>420</v>
+      </c>
       <c r="BM5" s="7"/>
       <c r="BN5" s="7"/>
       <c r="BO5" s="7"/>
@@ -14879,7 +15486,9 @@
       <c r="BK6" s="35">
         <v>1846</v>
       </c>
-      <c r="BL6" s="7"/>
+      <c r="BL6" s="35">
+        <v>1852</v>
+      </c>
       <c r="BM6" s="7"/>
       <c r="BN6" s="7"/>
       <c r="BO6" s="7"/>
@@ -15097,7 +15706,9 @@
       <c r="BK7" s="35">
         <v>1376</v>
       </c>
-      <c r="BL7" s="7"/>
+      <c r="BL7" s="35">
+        <v>1379</v>
+      </c>
       <c r="BM7" s="7"/>
       <c r="BN7" s="7"/>
       <c r="BO7" s="7"/>
@@ -15315,7 +15926,9 @@
       <c r="BK8" s="35">
         <v>757</v>
       </c>
-      <c r="BL8" s="7"/>
+      <c r="BL8" s="35">
+        <v>758</v>
+      </c>
       <c r="BM8" s="7"/>
       <c r="BN8" s="7"/>
       <c r="BO8" s="7"/>
@@ -15533,7 +16146,9 @@
       <c r="BK9" s="35">
         <v>1296</v>
       </c>
-      <c r="BL9" s="7"/>
+      <c r="BL9" s="35">
+        <v>1298</v>
+      </c>
       <c r="BM9" s="7"/>
       <c r="BN9" s="7"/>
       <c r="BO9" s="7"/>
@@ -15751,7 +16366,9 @@
       <c r="BK10" s="35">
         <v>1269</v>
       </c>
-      <c r="BL10" s="7"/>
+      <c r="BL10" s="35">
+        <v>1278</v>
+      </c>
       <c r="BM10" s="7"/>
       <c r="BN10" s="7"/>
       <c r="BO10" s="7"/>
@@ -15969,7 +16586,9 @@
       <c r="BK11" s="35">
         <v>143</v>
       </c>
-      <c r="BL11" s="7"/>
+      <c r="BL11" s="35">
+        <v>145</v>
+      </c>
       <c r="BM11" s="7"/>
       <c r="BN11" s="7"/>
       <c r="BO11" s="7"/>
@@ -16007,9 +16626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CE19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="BG2" sqref="BG2:BG13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="BH2" sqref="BH2:BH13"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -16204,7 +16823,9 @@
       <c r="BG1" s="4">
         <v>43982</v>
       </c>
-      <c r="BH1" s="4"/>
+      <c r="BH1" s="4">
+        <v>43983</v>
+      </c>
       <c r="BI1" s="4"/>
       <c r="BJ1" s="4"/>
       <c r="BK1" s="4"/>
@@ -16407,7 +17028,9 @@
       <c r="BG2" s="35">
         <v>926</v>
       </c>
-      <c r="BH2" s="7"/>
+      <c r="BH2" s="35">
+        <v>916</v>
+      </c>
       <c r="BI2" s="7"/>
       <c r="BJ2" s="7"/>
       <c r="BK2" s="7"/>
@@ -16610,7 +17233,9 @@
       <c r="BG3" s="35">
         <v>1354</v>
       </c>
-      <c r="BH3" s="7"/>
+      <c r="BH3" s="35">
+        <v>1358</v>
+      </c>
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7"/>
       <c r="BK3" s="7"/>
@@ -16813,7 +17438,9 @@
       <c r="BG4" s="35">
         <v>4119</v>
       </c>
-      <c r="BH4" s="7"/>
+      <c r="BH4" s="35">
+        <v>4142</v>
+      </c>
       <c r="BI4" s="7"/>
       <c r="BJ4" s="7"/>
       <c r="BK4" s="7"/>
@@ -17016,7 +17643,9 @@
       <c r="BG5" s="35">
         <v>106</v>
       </c>
-      <c r="BH5" s="7"/>
+      <c r="BH5" s="35">
+        <v>106</v>
+      </c>
       <c r="BI5" s="7"/>
       <c r="BJ5" s="7"/>
       <c r="BK5" s="7"/>
@@ -17219,7 +17848,9 @@
       <c r="BG6" s="35">
         <v>26</v>
       </c>
-      <c r="BH6" s="7"/>
+      <c r="BH6" s="35">
+        <v>26</v>
+      </c>
       <c r="BI6" s="7"/>
       <c r="BJ6" s="7"/>
       <c r="BK6" s="7"/>
@@ -17418,7 +18049,9 @@
       <c r="BG7" s="35">
         <v>22</v>
       </c>
-      <c r="BH7" s="7"/>
+      <c r="BH7" s="35">
+        <v>22</v>
+      </c>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="7"/>
       <c r="BK7" s="7"/>
@@ -17621,7 +18254,9 @@
       <c r="BG8" s="35">
         <v>2246</v>
       </c>
-      <c r="BH8" s="7"/>
+      <c r="BH8" s="35">
+        <v>2258</v>
+      </c>
       <c r="BI8" s="7"/>
       <c r="BJ8" s="7"/>
       <c r="BK8" s="7"/>
@@ -17824,7 +18459,9 @@
       <c r="BG9" s="35">
         <v>58</v>
       </c>
-      <c r="BH9" s="7"/>
+      <c r="BH9" s="35">
+        <v>58</v>
+      </c>
       <c r="BI9" s="7"/>
       <c r="BJ9" s="7"/>
       <c r="BK9" s="7"/>
@@ -18027,7 +18664,9 @@
       <c r="BG10" s="35">
         <v>1540</v>
       </c>
-      <c r="BH10" s="7"/>
+      <c r="BH10" s="35">
+        <v>1531</v>
+      </c>
       <c r="BI10" s="7"/>
       <c r="BJ10" s="7"/>
       <c r="BK10" s="7"/>
@@ -18230,7 +18869,9 @@
       <c r="BG11" s="35">
         <v>2336</v>
       </c>
-      <c r="BH11" s="7"/>
+      <c r="BH11" s="35">
+        <v>2349</v>
+      </c>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="7"/>
       <c r="BK11" s="7"/>
@@ -18433,7 +19074,9 @@
       <c r="BG12" s="35">
         <v>4955</v>
       </c>
-      <c r="BH12" s="7"/>
+      <c r="BH12" s="35">
+        <v>4980</v>
+      </c>
       <c r="BI12" s="7"/>
       <c r="BJ12" s="7"/>
       <c r="BK12" s="7"/>
@@ -18636,7 +19279,9 @@
       <c r="BG13" s="35">
         <v>26</v>
       </c>
-      <c r="BH13" s="7"/>
+      <c r="BH13" s="35">
+        <v>26</v>
+      </c>
       <c r="BI13" s="7"/>
       <c r="BJ13" s="7"/>
       <c r="BK13" s="7"/>
@@ -18936,8 +19581,8 @@
   <dimension ref="A1:CH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH9" sqref="BH9"/>
+      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG8" sqref="BG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -19119,7 +19764,9 @@
       <c r="BF1" s="4">
         <v>43982</v>
       </c>
-      <c r="BG1" s="4"/>
+      <c r="BG1" s="4">
+        <v>43983</v>
+      </c>
       <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
       <c r="BJ1" s="4"/>
@@ -19413,7 +20060,9 @@
       <c r="BF3" s="7">
         <v>7</v>
       </c>
-      <c r="BG3" s="7"/>
+      <c r="BG3" s="7">
+        <v>7</v>
+      </c>
       <c r="BH3" s="7"/>
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7"/>
@@ -19617,7 +20266,9 @@
       <c r="BF4" s="7">
         <v>351</v>
       </c>
-      <c r="BG4" s="7"/>
+      <c r="BG4" s="7">
+        <v>353</v>
+      </c>
       <c r="BH4" s="7"/>
       <c r="BI4" s="7"/>
       <c r="BJ4" s="7"/>
@@ -19821,7 +20472,9 @@
       <c r="BF5" s="7">
         <v>54</v>
       </c>
-      <c r="BG5" s="7"/>
+      <c r="BG5" s="7">
+        <v>52</v>
+      </c>
       <c r="BH5" s="7"/>
       <c r="BI5" s="7"/>
       <c r="BJ5" s="7"/>
@@ -20025,7 +20678,9 @@
       <c r="BF6" s="7">
         <v>52</v>
       </c>
-      <c r="BG6" s="7"/>
+      <c r="BG6" s="7">
+        <v>54</v>
+      </c>
       <c r="BH6" s="7"/>
       <c r="BI6" s="7"/>
       <c r="BJ6" s="7"/>
@@ -20227,7 +20882,9 @@
       <c r="BF7" s="7">
         <v>4</v>
       </c>
-      <c r="BG7" s="7"/>
+      <c r="BG7" s="7">
+        <v>4</v>
+      </c>
       <c r="BH7" s="7"/>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="7"/>
@@ -20649,8 +21306,8 @@
   <dimension ref="A1:CL26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J8" sqref="J8"/>
+      <pane xSplit="1" topLeftCell="G11" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -20775,7 +21432,9 @@
       <c r="G2" s="4">
         <v>43981</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4">
+        <v>43983</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -20881,7 +21540,9 @@
       <c r="G3" s="7">
         <v>5251</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7">
+        <v>5298</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -20987,7 +21648,9 @@
       <c r="G4" s="7">
         <v>3792</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>3814</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -21093,7 +21756,9 @@
       <c r="G5" s="7">
         <v>3870</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>3898</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -21199,7 +21864,9 @@
       <c r="G6" s="7">
         <v>6984</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>7047</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -21305,7 +21972,9 @@
       <c r="G7" s="7">
         <v>6540</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>6625</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -21411,7 +22080,9 @@
       <c r="G8" s="7">
         <v>5535</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>5581</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -21517,7 +22188,9 @@
       <c r="G9" s="7">
         <v>6273</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>6338</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -21623,7 +22296,9 @@
       <c r="G10" s="7">
         <v>6640</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>6718</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -21729,7 +22404,9 @@
       <c r="G11" s="7">
         <v>2517</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <v>2529</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -21859,9 +22536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DF105"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CH69" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CJ87" sqref="CJ87"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="CI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CK21" sqref="CK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -22135,7 +22812,9 @@
       <c r="CJ1" s="4">
         <v>43982</v>
       </c>
-      <c r="CK1" s="4"/>
+      <c r="CK1" s="4">
+        <v>43983</v>
+      </c>
       <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
       <c r="CN1" s="4"/>
@@ -22525,7 +23204,9 @@
       <c r="CJ3" s="11">
         <v>47263</v>
       </c>
-      <c r="CK3" s="11"/>
+      <c r="CK3" s="11">
+        <v>47701</v>
+      </c>
       <c r="CL3" s="11"/>
       <c r="CM3" s="11"/>
       <c r="CN3" s="11"/>
@@ -22661,7 +23342,9 @@
       <c r="CJ4" s="11">
         <v>38975</v>
       </c>
-      <c r="CK4" s="11"/>
+      <c r="CK4" s="11">
+        <v>39251</v>
+      </c>
       <c r="CL4" s="11"/>
       <c r="CM4" s="11"/>
       <c r="CN4" s="11"/>
@@ -22949,7 +23632,9 @@
       <c r="CJ5" s="11">
         <v>8857</v>
       </c>
-      <c r="CK5" s="11"/>
+      <c r="CK5" s="11">
+        <v>8886</v>
+      </c>
       <c r="CL5" s="11"/>
       <c r="CM5" s="11"/>
       <c r="CN5" s="11"/>
@@ -23225,7 +23910,9 @@
       <c r="CJ6" s="11">
         <v>468</v>
       </c>
-      <c r="CK6" s="11"/>
+      <c r="CK6" s="11">
+        <v>470</v>
+      </c>
       <c r="CL6" s="11"/>
       <c r="CM6" s="11"/>
       <c r="CN6" s="11"/>
@@ -23481,7 +24168,9 @@
       <c r="CJ7" s="11">
         <v>1126</v>
       </c>
-      <c r="CK7" s="11"/>
+      <c r="CK7" s="11">
+        <v>1137</v>
+      </c>
       <c r="CL7" s="11"/>
       <c r="CM7" s="11"/>
       <c r="CN7" s="11"/>
@@ -23777,7 +24466,9 @@
       <c r="CJ9" s="11">
         <v>345</v>
       </c>
-      <c r="CK9" s="11"/>
+      <c r="CK9" s="11">
+        <v>345</v>
+      </c>
       <c r="CL9" s="11"/>
       <c r="CM9" s="11"/>
       <c r="CN9" s="11"/>
@@ -24029,7 +24720,9 @@
       <c r="CJ10" s="11">
         <v>73</v>
       </c>
-      <c r="CK10" s="11"/>
+      <c r="CK10" s="11">
+        <v>76</v>
+      </c>
       <c r="CL10" s="11"/>
       <c r="CM10" s="11"/>
       <c r="CN10" s="11"/>
@@ -24281,7 +24974,9 @@
       <c r="CJ11" s="11">
         <v>440</v>
       </c>
-      <c r="CK11" s="11"/>
+      <c r="CK11" s="11">
+        <v>440</v>
+      </c>
       <c r="CL11" s="11"/>
       <c r="CM11" s="11"/>
       <c r="CN11" s="11"/>
@@ -24533,7 +25228,9 @@
       <c r="CJ12" s="11">
         <v>204</v>
       </c>
-      <c r="CK12" s="11"/>
+      <c r="CK12" s="11">
+        <v>208</v>
+      </c>
       <c r="CL12" s="11"/>
       <c r="CM12" s="11"/>
       <c r="CN12" s="11"/>
@@ -24785,7 +25482,9 @@
       <c r="CJ13" s="11">
         <v>236</v>
       </c>
-      <c r="CK13" s="11"/>
+      <c r="CK13" s="11">
+        <v>232</v>
+      </c>
       <c r="CL13" s="11"/>
       <c r="CM13" s="11"/>
       <c r="CN13" s="11"/>
@@ -24945,7 +25644,9 @@
       <c r="CJ14" s="11">
         <v>302</v>
       </c>
-      <c r="CK14" s="11"/>
+      <c r="CK14" s="11">
+        <v>295</v>
+      </c>
       <c r="CL14" s="11"/>
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
@@ -25085,7 +25786,9 @@
       <c r="CJ15" s="11">
         <v>108</v>
       </c>
-      <c r="CK15" s="11"/>
+      <c r="CK15" s="11">
+        <v>106</v>
+      </c>
       <c r="CL15" s="11"/>
       <c r="CM15" s="11"/>
       <c r="CN15" s="11"/>
@@ -25245,7 +25948,9 @@
       <c r="CJ16" s="11">
         <v>1891</v>
       </c>
-      <c r="CK16" s="11"/>
+      <c r="CK16" s="11">
+        <v>1887</v>
+      </c>
       <c r="CL16" s="11"/>
       <c r="CM16" s="11"/>
       <c r="CN16" s="11"/>
@@ -25953,7 +26658,9 @@
       <c r="CJ21" s="11">
         <v>111</v>
       </c>
-      <c r="CK21" s="11"/>
+      <c r="CK21" s="11">
+        <v>111</v>
+      </c>
       <c r="CL21" s="11"/>
       <c r="CM21" s="11"/>
       <c r="CN21" s="11"/>
@@ -26171,7 +26878,9 @@
       <c r="CJ22" s="11">
         <v>19</v>
       </c>
-      <c r="CK22" s="11"/>
+      <c r="CK22" s="11">
+        <v>19</v>
+      </c>
       <c r="CL22" s="11"/>
       <c r="CM22" s="11"/>
       <c r="CN22" s="11"/>
@@ -26389,7 +27098,9 @@
       <c r="CJ23" s="11">
         <v>92</v>
       </c>
-      <c r="CK23" s="11"/>
+      <c r="CK23" s="11">
+        <v>92</v>
+      </c>
       <c r="CL23" s="11"/>
       <c r="CM23" s="11"/>
       <c r="CN23" s="11"/>
@@ -26637,7 +27348,9 @@
       <c r="CJ24" s="11">
         <v>129</v>
       </c>
-      <c r="CK24" s="11"/>
+      <c r="CK24" s="11">
+        <v>105</v>
+      </c>
       <c r="CL24" s="11"/>
       <c r="CM24" s="11"/>
       <c r="CN24" s="11"/>
@@ -26885,7 +27598,9 @@
       <c r="CJ25" s="11">
         <v>148</v>
       </c>
-      <c r="CK25" s="11"/>
+      <c r="CK25" s="11">
+        <v>124</v>
+      </c>
       <c r="CL25" s="11"/>
       <c r="CM25" s="11"/>
       <c r="CN25" s="11"/>
@@ -27133,7 +27848,9 @@
       <c r="CJ26" s="11">
         <v>1384</v>
       </c>
-      <c r="CK26" s="11"/>
+      <c r="CK26" s="11">
+        <v>1395</v>
+      </c>
       <c r="CL26" s="11"/>
       <c r="CM26" s="11"/>
       <c r="CN26" s="11"/>
@@ -27613,7 +28330,9 @@
       <c r="CJ29" s="11">
         <v>135</v>
       </c>
-      <c r="CK29" s="11"/>
+      <c r="CK29" s="11">
+        <v>138</v>
+      </c>
       <c r="CL29" s="11"/>
       <c r="CM29" s="11"/>
       <c r="CN29" s="11"/>
@@ -27831,7 +28550,9 @@
       <c r="CJ30" s="11">
         <v>29</v>
       </c>
-      <c r="CK30" s="11"/>
+      <c r="CK30" s="11">
+        <v>32</v>
+      </c>
       <c r="CL30" s="11"/>
       <c r="CM30" s="11"/>
       <c r="CN30" s="11"/>
@@ -28049,7 +28770,9 @@
       <c r="CJ31" s="11">
         <v>106</v>
       </c>
-      <c r="CK31" s="11"/>
+      <c r="CK31" s="11">
+        <v>106</v>
+      </c>
       <c r="CL31" s="11"/>
       <c r="CM31" s="11"/>
       <c r="CN31" s="11"/>
@@ -28297,7 +29020,9 @@
       <c r="CJ32" s="11">
         <v>48</v>
       </c>
-      <c r="CK32" s="11"/>
+      <c r="CK32" s="11">
+        <v>52</v>
+      </c>
       <c r="CL32" s="11"/>
       <c r="CM32" s="11"/>
       <c r="CN32" s="11"/>
@@ -28545,7 +29270,9 @@
       <c r="CJ33" s="11">
         <v>77</v>
       </c>
-      <c r="CK33" s="11"/>
+      <c r="CK33" s="11">
+        <v>84</v>
+      </c>
       <c r="CL33" s="11"/>
       <c r="CM33" s="11"/>
       <c r="CN33" s="11"/>
@@ -28793,7 +29520,9 @@
       <c r="CJ34" s="11">
         <v>1206</v>
       </c>
-      <c r="CK34" s="11"/>
+      <c r="CK34" s="11">
+        <v>1212</v>
+      </c>
       <c r="CL34" s="11"/>
       <c r="CM34" s="11"/>
       <c r="CN34" s="11"/>
@@ -29265,7 +29994,9 @@
       <c r="CJ37" s="11">
         <v>80</v>
       </c>
-      <c r="CK37" s="11"/>
+      <c r="CK37" s="11">
+        <v>80</v>
+      </c>
       <c r="CL37" s="11"/>
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
@@ -29479,7 +30210,9 @@
       <c r="CJ38" s="11">
         <v>6</v>
       </c>
-      <c r="CK38" s="11"/>
+      <c r="CK38" s="11">
+        <v>6</v>
+      </c>
       <c r="CL38" s="11"/>
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
@@ -29693,7 +30426,9 @@
       <c r="CJ39" s="11">
         <v>73</v>
       </c>
-      <c r="CK39" s="11"/>
+      <c r="CK39" s="11">
+        <v>73</v>
+      </c>
       <c r="CL39" s="11"/>
       <c r="CM39" s="11"/>
       <c r="CN39" s="11"/>
@@ -29937,7 +30672,9 @@
       <c r="CJ40" s="11">
         <v>1</v>
       </c>
-      <c r="CK40" s="11"/>
+      <c r="CK40" s="11">
+        <v>1</v>
+      </c>
       <c r="CL40" s="11"/>
       <c r="CM40" s="11"/>
       <c r="CN40" s="11"/>
@@ -30179,7 +30916,9 @@
       <c r="CJ41" s="11">
         <v>7</v>
       </c>
-      <c r="CK41" s="11"/>
+      <c r="CK41" s="11">
+        <v>9</v>
+      </c>
       <c r="CL41" s="11"/>
       <c r="CM41" s="11"/>
       <c r="CN41" s="11"/>
@@ -30425,7 +31164,9 @@
       <c r="CJ42" s="11">
         <v>281</v>
       </c>
-      <c r="CK42" s="11"/>
+      <c r="CK42" s="11">
+        <v>281</v>
+      </c>
       <c r="CL42" s="11"/>
       <c r="CM42" s="11"/>
       <c r="CN42" s="11"/>
@@ -30627,7 +31368,9 @@
       <c r="CJ43" s="11">
         <v>1</v>
       </c>
-      <c r="CK43" s="11"/>
+      <c r="CK43" s="11">
+        <v>1</v>
+      </c>
       <c r="CL43" s="11"/>
       <c r="CM43" s="11"/>
       <c r="CN43" s="11"/>
@@ -31103,7 +31846,9 @@
       <c r="CJ46" s="11">
         <v>205</v>
       </c>
-      <c r="CK46" s="11"/>
+      <c r="CK46" s="11">
+        <v>205</v>
+      </c>
       <c r="CL46" s="11"/>
       <c r="CM46" s="11"/>
       <c r="CN46" s="11"/>
@@ -31321,7 +32066,9 @@
       <c r="CJ47" s="11">
         <v>18</v>
       </c>
-      <c r="CK47" s="11"/>
+      <c r="CK47" s="11">
+        <v>18</v>
+      </c>
       <c r="CL47" s="11"/>
       <c r="CM47" s="11"/>
       <c r="CN47" s="11"/>
@@ -31539,7 +32286,9 @@
       <c r="CJ48" s="11">
         <v>181</v>
       </c>
-      <c r="CK48" s="11"/>
+      <c r="CK48" s="11">
+        <v>181</v>
+      </c>
       <c r="CL48" s="11"/>
       <c r="CM48" s="11"/>
       <c r="CN48" s="11"/>
@@ -31787,7 +32536,9 @@
       <c r="CJ49" s="11">
         <v>479</v>
       </c>
-      <c r="CK49" s="11"/>
+      <c r="CK49" s="11">
+        <v>469</v>
+      </c>
       <c r="CL49" s="11"/>
       <c r="CM49" s="11"/>
       <c r="CN49" s="11"/>
@@ -32005,7 +32756,9 @@
       <c r="CJ50" s="11">
         <v>497</v>
       </c>
-      <c r="CK50" s="11"/>
+      <c r="CK50" s="11">
+        <v>487</v>
+      </c>
       <c r="CL50" s="11"/>
       <c r="CM50" s="11"/>
       <c r="CN50" s="11"/>
@@ -32221,7 +32974,9 @@
       <c r="CJ51" s="11">
         <v>820</v>
       </c>
-      <c r="CK51" s="11"/>
+      <c r="CK51" s="11">
+        <v>830</v>
+      </c>
       <c r="CL51" s="11"/>
       <c r="CM51" s="11"/>
       <c r="CN51" s="11"/>
@@ -32433,7 +33188,9 @@
       <c r="CJ52" s="11">
         <v>1</v>
       </c>
-      <c r="CK52" s="11"/>
+      <c r="CK52" s="11">
+        <v>1</v>
+      </c>
       <c r="CL52" s="11"/>
       <c r="CM52" s="11"/>
       <c r="CN52" s="11"/>
@@ -32899,7 +33656,9 @@
       <c r="CJ55" s="11">
         <v>29</v>
       </c>
-      <c r="CK55" s="11"/>
+      <c r="CK55" s="11">
+        <v>30</v>
+      </c>
       <c r="CL55" s="11"/>
       <c r="CM55" s="11"/>
       <c r="CN55" s="11"/>
@@ -33115,7 +33874,9 @@
       <c r="CJ56" s="11">
         <v>7</v>
       </c>
-      <c r="CK56" s="11"/>
+      <c r="CK56" s="11">
+        <v>7</v>
+      </c>
       <c r="CL56" s="11"/>
       <c r="CM56" s="11"/>
       <c r="CN56" s="11"/>
@@ -33331,7 +34092,9 @@
       <c r="CJ57" s="11">
         <v>21</v>
       </c>
-      <c r="CK57" s="11"/>
+      <c r="CK57" s="11">
+        <v>22</v>
+      </c>
       <c r="CL57" s="11"/>
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
@@ -33571,7 +34334,9 @@
       <c r="CJ58" s="11">
         <v>18</v>
       </c>
-      <c r="CK58" s="11"/>
+      <c r="CK58" s="11">
+        <v>16</v>
+      </c>
       <c r="CL58" s="11"/>
       <c r="CM58" s="11"/>
       <c r="CN58" s="11"/>
@@ -33811,7 +34576,9 @@
       <c r="CJ59" s="11">
         <v>25</v>
       </c>
-      <c r="CK59" s="11"/>
+      <c r="CK59" s="11">
+        <v>23</v>
+      </c>
       <c r="CL59" s="11"/>
       <c r="CM59" s="11"/>
       <c r="CN59" s="11"/>
@@ -34051,7 +34818,9 @@
       <c r="CJ60" s="11">
         <v>142</v>
       </c>
-      <c r="CK60" s="11"/>
+      <c r="CK60" s="11">
+        <v>145</v>
+      </c>
       <c r="CL60" s="11"/>
       <c r="CM60" s="11"/>
       <c r="CN60" s="11"/>
@@ -34263,7 +35032,9 @@
       <c r="CJ61" s="11">
         <v>1</v>
       </c>
-      <c r="CK61" s="11"/>
+      <c r="CK61" s="11">
+        <v>1</v>
+      </c>
       <c r="CL61" s="11"/>
       <c r="CM61" s="11"/>
       <c r="CN61" s="11"/>
@@ -34615,7 +35386,9 @@
       <c r="CJ63" s="11">
         <v>11</v>
       </c>
-      <c r="CK63" s="11"/>
+      <c r="CK63" s="11">
+        <v>11</v>
+      </c>
       <c r="CL63" s="11"/>
       <c r="CM63" s="11"/>
       <c r="CN63" s="11"/>
@@ -34831,7 +35604,9 @@
       <c r="CJ64" s="11">
         <v>2</v>
       </c>
-      <c r="CK64" s="11"/>
+      <c r="CK64" s="11">
+        <v>2</v>
+      </c>
       <c r="CL64" s="11"/>
       <c r="CM64" s="11"/>
       <c r="CN64" s="11"/>
@@ -35047,7 +35822,9 @@
       <c r="CJ65" s="11">
         <v>9</v>
       </c>
-      <c r="CK65" s="11"/>
+      <c r="CK65" s="11">
+        <v>9</v>
+      </c>
       <c r="CL65" s="11"/>
       <c r="CM65" s="11"/>
       <c r="CN65" s="11"/>
@@ -35287,7 +36064,9 @@
       <c r="CJ66" s="11">
         <v>52</v>
       </c>
-      <c r="CK66" s="11"/>
+      <c r="CK66" s="11">
+        <v>54</v>
+      </c>
       <c r="CL66" s="11"/>
       <c r="CM66" s="11"/>
       <c r="CN66" s="11"/>
@@ -35527,7 +36306,9 @@
       <c r="CJ67" s="11">
         <v>54</v>
       </c>
-      <c r="CK67" s="11"/>
+      <c r="CK67" s="11">
+        <v>56</v>
+      </c>
       <c r="CL67" s="11"/>
       <c r="CM67" s="11"/>
       <c r="CN67" s="11"/>
@@ -35765,7 +36546,9 @@
       <c r="CJ68" s="11">
         <v>0</v>
       </c>
-      <c r="CK68" s="11"/>
+      <c r="CK68" s="11">
+        <v>0</v>
+      </c>
       <c r="CL68" s="11"/>
       <c r="CM68" s="11"/>
       <c r="CN68" s="11"/>
@@ -35981,7 +36764,9 @@
       <c r="CJ69" s="11">
         <v>0</v>
       </c>
-      <c r="CK69" s="11"/>
+      <c r="CK69" s="11">
+        <v>0</v>
+      </c>
       <c r="CL69" s="11"/>
       <c r="CM69" s="11"/>
       <c r="CN69" s="11"/>
@@ -36233,7 +37018,9 @@
       <c r="CJ71" s="11">
         <v>10</v>
       </c>
-      <c r="CK71" s="11"/>
+      <c r="CK71" s="11">
+        <v>10</v>
+      </c>
       <c r="CL71" s="11"/>
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
@@ -36373,7 +37160,9 @@
       <c r="CJ72" s="11">
         <v>6</v>
       </c>
-      <c r="CK72" s="11"/>
+      <c r="CK72" s="11">
+        <v>5</v>
+      </c>
       <c r="CL72" s="11"/>
       <c r="CM72" s="11"/>
       <c r="CN72" s="11"/>
@@ -36513,7 +37302,9 @@
       <c r="CJ73" s="11">
         <v>4</v>
       </c>
-      <c r="CK73" s="11"/>
+      <c r="CK73" s="11">
+        <v>5</v>
+      </c>
       <c r="CL73" s="11"/>
       <c r="CM73" s="11"/>
       <c r="CN73" s="11"/>
@@ -36653,7 +37444,9 @@
       <c r="CJ74" s="11">
         <v>12</v>
       </c>
-      <c r="CK74" s="11"/>
+      <c r="CK74" s="11">
+        <v>8</v>
+      </c>
       <c r="CL74" s="11"/>
       <c r="CM74" s="11"/>
       <c r="CN74" s="11"/>
@@ -36793,7 +37586,9 @@
       <c r="CJ75" s="11">
         <v>18</v>
       </c>
-      <c r="CK75" s="11"/>
+      <c r="CK75" s="11">
+        <v>13</v>
+      </c>
       <c r="CL75" s="11"/>
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
@@ -36933,7 +37728,9 @@
       <c r="CJ76" s="11">
         <v>29</v>
       </c>
-      <c r="CK76" s="11"/>
+      <c r="CK76" s="11">
+        <v>33</v>
+      </c>
       <c r="CL76" s="11"/>
       <c r="CM76" s="11"/>
       <c r="CN76" s="11"/>
@@ -37399,7 +38196,9 @@
       <c r="CJ79" s="11">
         <v>297</v>
       </c>
-      <c r="CK79" s="11"/>
+      <c r="CK79" s="11">
+        <v>298</v>
+      </c>
       <c r="CL79" s="11"/>
       <c r="CM79" s="11"/>
       <c r="CN79" s="11"/>
@@ -37639,7 +38438,9 @@
       <c r="CJ80" s="11">
         <v>114</v>
       </c>
-      <c r="CK80" s="11"/>
+      <c r="CK80" s="11">
+        <v>104</v>
+      </c>
       <c r="CL80" s="11"/>
       <c r="CM80" s="11"/>
       <c r="CN80" s="11"/>
@@ -37879,7 +38680,9 @@
       <c r="CJ81" s="11">
         <v>93</v>
       </c>
-      <c r="CK81" s="11"/>
+      <c r="CK81" s="11">
+        <v>84</v>
+      </c>
       <c r="CL81" s="11"/>
       <c r="CM81" s="11"/>
       <c r="CN81" s="11"/>
@@ -38091,7 +38894,9 @@
       <c r="CJ82" s="11">
         <v>16</v>
       </c>
-      <c r="CK82" s="11"/>
+      <c r="CK82" s="11">
+        <v>16</v>
+      </c>
       <c r="CL82" s="11"/>
       <c r="CM82" s="11"/>
       <c r="CN82" s="11"/>
@@ -38443,7 +39248,9 @@
       <c r="CJ84" s="11">
         <v>119</v>
       </c>
-      <c r="CK84" s="11"/>
+      <c r="CK84" s="11">
+        <v>119</v>
+      </c>
       <c r="CL84" s="11"/>
       <c r="CM84" s="11"/>
       <c r="CN84" s="11"/>
@@ -38683,7 +39490,9 @@
       <c r="CJ85" s="11">
         <v>28</v>
       </c>
-      <c r="CK85" s="11"/>
+      <c r="CK85" s="11">
+        <v>25</v>
+      </c>
       <c r="CL85" s="11"/>
       <c r="CM85" s="11"/>
       <c r="CN85" s="11"/>
@@ -38923,7 +39732,9 @@
       <c r="CJ86" s="11">
         <v>71</v>
       </c>
-      <c r="CK86" s="11"/>
+      <c r="CK86" s="11">
+        <v>144</v>
+      </c>
       <c r="CL86" s="11"/>
       <c r="CM86" s="11"/>
       <c r="CN86" s="11"/>
@@ -39155,7 +39966,9 @@
       <c r="CJ87" s="11">
         <v>190</v>
       </c>
-      <c r="CK87" s="11"/>
+      <c r="CK87" s="11">
+        <v>194</v>
+      </c>
       <c r="CL87" s="11"/>
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
@@ -39311,7 +40124,9 @@
       <c r="CJ88" s="11">
         <v>1</v>
       </c>
-      <c r="CK88" s="11"/>
+      <c r="CK88" s="11">
+        <v>1</v>
+      </c>
       <c r="CL88" s="11"/>
       <c r="CM88" s="11"/>
       <c r="CN88" s="11"/>
@@ -39622,7 +40437,9 @@
       <c r="CJ90" s="11">
         <v>81</v>
       </c>
-      <c r="CK90" s="11"/>
+      <c r="CK90" s="11">
+        <v>81</v>
+      </c>
       <c r="CL90" s="11"/>
       <c r="CM90" s="11"/>
       <c r="CN90" s="11"/>
@@ -39862,7 +40679,9 @@
       <c r="CJ91" s="11">
         <v>22</v>
       </c>
-      <c r="CK91" s="11"/>
+      <c r="CK91" s="11">
+        <v>21</v>
+      </c>
       <c r="CL91" s="11"/>
       <c r="CM91" s="11"/>
       <c r="CN91" s="11"/>
@@ -40080,7 +40899,9 @@
       <c r="CJ92" s="11">
         <v>158</v>
       </c>
-      <c r="CK92" s="11"/>
+      <c r="CK92" s="11">
+        <v>168</v>
+      </c>
       <c r="CL92" s="11"/>
       <c r="CM92" s="11"/>
       <c r="CN92" s="11"/>
@@ -40294,7 +41115,9 @@
       <c r="CJ93" s="11">
         <v>41</v>
       </c>
-      <c r="CK93" s="11"/>
+      <c r="CK93" s="11">
+        <v>41</v>
+      </c>
       <c r="CL93" s="11"/>
       <c r="CM93" s="11"/>
       <c r="CN93" s="11"/>
@@ -40532,7 +41355,9 @@
       <c r="CJ94" s="11">
         <v>13</v>
       </c>
-      <c r="CK94" s="11"/>
+      <c r="CK94" s="11">
+        <v>13</v>
+      </c>
       <c r="CL94" s="11"/>
       <c r="CM94" s="11"/>
       <c r="CN94" s="11"/>
@@ -40762,7 +41587,9 @@
       <c r="CH96" s="11"/>
       <c r="CI96" s="11"/>
       <c r="CJ96" s="11"/>
-      <c r="CK96" s="11"/>
+      <c r="CK96" s="11">
+        <v>9</v>
+      </c>
       <c r="CL96" s="11"/>
       <c r="CM96" s="11"/>
       <c r="CN96" s="11"/>
@@ -40881,7 +41708,9 @@
       <c r="CH97" s="11"/>
       <c r="CI97" s="11"/>
       <c r="CJ97" s="11"/>
-      <c r="CK97" s="11"/>
+      <c r="CK97" s="11">
+        <v>12</v>
+      </c>
       <c r="CL97" s="11"/>
       <c r="CM97" s="11"/>
       <c r="CN97" s="11"/>
@@ -40998,7 +41827,9 @@
       <c r="CH98" s="11"/>
       <c r="CI98" s="11"/>
       <c r="CJ98" s="11"/>
-      <c r="CK98" s="11"/>
+      <c r="CK98" s="11">
+        <v>35</v>
+      </c>
       <c r="CL98" s="11"/>
       <c r="CM98" s="11"/>
       <c r="CN98" s="11"/>
@@ -41115,7 +41946,9 @@
       <c r="CH99" s="11"/>
       <c r="CI99" s="11"/>
       <c r="CJ99" s="11"/>
-      <c r="CK99" s="11"/>
+      <c r="CK99" s="11">
+        <v>1</v>
+      </c>
       <c r="CL99" s="11"/>
       <c r="CM99" s="11"/>
       <c r="CN99" s="11"/>
@@ -41412,7 +42245,9 @@
       <c r="CJ101" s="11">
         <v>188</v>
       </c>
-      <c r="CK101" s="11"/>
+      <c r="CK101" s="11">
+        <v>188</v>
+      </c>
       <c r="CL101" s="11"/>
       <c r="CM101" s="11"/>
       <c r="CN101" s="11"/>
@@ -41598,7 +42433,9 @@
       <c r="CJ102" s="11">
         <v>65</v>
       </c>
-      <c r="CK102" s="11"/>
+      <c r="CK102" s="11">
+        <v>70</v>
+      </c>
       <c r="CL102" s="11"/>
       <c r="CM102" s="11"/>
       <c r="CN102" s="11"/>
@@ -41784,7 +42621,9 @@
       <c r="CJ103" s="11">
         <v>25</v>
       </c>
-      <c r="CK103" s="11"/>
+      <c r="CK103" s="11">
+        <v>25</v>
+      </c>
       <c r="CL103" s="11"/>
       <c r="CM103" s="11"/>
       <c r="CN103" s="11"/>
@@ -41890,11 +42729,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51A914D-4CED-7A43-8BD6-4514AC12DE8C}">
-  <dimension ref="A1:C1291"/>
+  <dimension ref="A1:C1342"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1291" sqref="C1291"/>
+      <pane ySplit="1" topLeftCell="A1239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1309" sqref="D1309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -56105,6 +56944,567 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1292" spans="1:3">
+      <c r="A1292" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1292" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1292" s="19">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3">
+      <c r="A1293" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1293" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1293" s="19">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3">
+      <c r="A1294" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1294" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1294" s="19">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3">
+      <c r="A1295" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1295" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1295" s="19">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3">
+      <c r="A1296" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1296" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1296" s="19">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:3">
+      <c r="A1297" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1297" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1297" s="19">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:3">
+      <c r="A1298" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1298" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1298" s="19">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:3">
+      <c r="A1299" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1299" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1299" s="19">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:3">
+      <c r="A1300" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1300" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1300" s="19">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:3">
+      <c r="A1301" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1301" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1301" s="19">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:3">
+      <c r="A1302" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1302" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1302" s="19">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:3">
+      <c r="A1303" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1303" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1303" s="19">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:3">
+      <c r="A1304" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1304" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1304" s="19">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:3">
+      <c r="A1305" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1305" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1305" s="19">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:3">
+      <c r="A1306" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1306" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1306" s="19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3">
+      <c r="A1307" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1307" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1307" s="19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3">
+      <c r="A1308" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1308" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1308" s="19">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:3">
+      <c r="A1309" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1309" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1309" s="19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:3">
+      <c r="A1310" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1310" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1310" s="19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3">
+      <c r="A1311" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1311" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1311" s="19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3">
+      <c r="A1312" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1312" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1312" s="19">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3">
+      <c r="A1313" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1313" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1313" s="19">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3">
+      <c r="A1314" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1314" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1314" s="19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3">
+      <c r="A1315" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1315" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1315" s="19">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3">
+      <c r="A1316" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1316" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1316" s="19">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3">
+      <c r="A1317" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1317" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1317" s="19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3">
+      <c r="A1318" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1318" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1318" s="19">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3">
+      <c r="A1319" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1319" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1319" s="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3">
+      <c r="A1320" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1320" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1320" s="19">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3">
+      <c r="A1321" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1321" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1321" s="19">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3">
+      <c r="A1322" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1322" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1322" s="19">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:3">
+      <c r="A1323" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1323" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1323" s="19">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3">
+      <c r="A1324" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1324" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1324" s="19">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3">
+      <c r="A1325" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1325" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1325" s="19">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3">
+      <c r="A1326" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1326" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1326" s="19">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3">
+      <c r="A1327" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1327" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1327" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3">
+      <c r="A1328" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1328" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1328" s="19">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3">
+      <c r="A1329" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1329" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1329" s="19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3">
+      <c r="A1330" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1330" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1330" s="19">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3">
+      <c r="A1331" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1331" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1331" s="19">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3">
+      <c r="A1332" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1332" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1332" s="19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3">
+      <c r="A1333" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1333" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1333" s="19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3">
+      <c r="A1334" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1334" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1334" s="19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3">
+      <c r="A1335" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1335" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1335" s="19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3">
+      <c r="A1336" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1336" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1336" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3">
+      <c r="A1337" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1337" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1337" s="19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3">
+      <c r="A1338" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1338" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1338" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3">
+      <c r="A1339" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1339" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1339" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3">
+      <c r="A1340" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1340" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1340" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3">
+      <c r="A1341" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1341" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1341" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3">
+      <c r="A1342" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B1342" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1342" s="19">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="206">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -864,7 +864,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -944,6 +944,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1287,11 +1290,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0704107B-CC38-954F-8D77-0E0C2F291C39}">
-  <dimension ref="A1:C565"/>
+  <dimension ref="A1:C616"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A515" sqref="A515:A565"/>
+      <pane ySplit="1" topLeftCell="A602" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B566" sqref="B566:C616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7516,6 +7519,567 @@
         <v>16</v>
       </c>
     </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B566" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C566" s="20">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B567" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C567" s="20">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B568" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C568" s="20">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B569" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C569" s="20">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B570" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C570" s="20">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B571" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C571" s="20">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B572" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C572" s="20">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B573" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C573" s="20">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B574" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C574" s="20">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B575" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C575" s="20">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B576" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C576" s="20">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B577" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C577" s="20">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B578" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C578" s="20">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B579" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C579" s="20">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B580" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C580" s="20">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B581" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C581" s="20">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B582" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C582" s="20">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B583" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C583" s="20">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B584" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C584" s="20">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B585" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C585" s="20">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B586" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C586" s="19">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B587" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C587" s="19">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B588" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C588" s="19">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B589" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C589" s="19">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B590" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C590" s="19">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B591" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C591" s="19">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B592" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C592" s="19">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B593" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C593" s="19">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B594" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C594" s="19">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B595" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C595" s="19">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B596" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C596" s="19">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B597" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C597" s="19">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B598" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C598" s="19">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B599" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C599" s="19">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B600" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C600" s="19">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B601" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C601" s="19">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B602" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C602" s="19">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B603" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C603" s="19">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B604" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C604" s="19">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B605" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C605" s="19">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B606" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C606" s="19">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B607" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C607" s="19">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B608" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C608" s="19">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B609" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C609" s="19">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B610" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C610" s="19">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B611" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C611" s="19">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B612" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C612" s="19">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B613" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C613" s="19">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B614" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C614" s="19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B615" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C615" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B616" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C616" s="19">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7526,8 +8090,8 @@
   <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="C55" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
+      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9012,13 +9576,27 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="26"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
+      <c r="A65" s="26">
+        <v>43984</v>
+      </c>
+      <c r="B65" s="28">
+        <v>1914</v>
+      </c>
+      <c r="C65" s="28">
+        <v>0</v>
+      </c>
+      <c r="D65" s="28">
+        <v>285</v>
+      </c>
+      <c r="E65" s="28">
+        <v>205</v>
+      </c>
+      <c r="F65" s="28">
+        <v>0</v>
+      </c>
+      <c r="G65" s="28">
+        <v>72</v>
+      </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="26"/>
@@ -11787,7 +12365,7 @@
         <v>182</v>
       </c>
       <c r="B2" s="18">
-        <v>1587</v>
+        <v>1620.2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11795,7 +12373,7 @@
         <v>183</v>
       </c>
       <c r="B3" s="18">
-        <v>705</v>
+        <v>711.4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11803,7 +12381,7 @@
         <v>184</v>
       </c>
       <c r="B4" s="18">
-        <v>449.2</v>
+        <v>458.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11811,7 +12389,7 @@
         <v>185</v>
       </c>
       <c r="B5" s="18">
-        <v>2076</v>
+        <v>2122.3000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11819,7 +12397,7 @@
         <v>186</v>
       </c>
       <c r="B6" s="18">
-        <v>1467</v>
+        <v>1476.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11827,7 +12405,7 @@
         <v>187</v>
       </c>
       <c r="B7" s="18">
-        <v>826.6</v>
+        <v>835.9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11835,7 +12413,7 @@
         <v>188</v>
       </c>
       <c r="B8" s="18">
-        <v>1572.1</v>
+        <v>1586.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11843,7 +12421,7 @@
         <v>189</v>
       </c>
       <c r="B9" s="23">
-        <v>1686.8</v>
+        <v>1713.9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11908,13 +12486,13 @@
         <v>196</v>
       </c>
       <c r="C2" s="6">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D2" s="6">
         <v>1.2</v>
       </c>
       <c r="E2" s="6">
-        <v>237.4</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11925,13 +12503,13 @@
         <v>197</v>
       </c>
       <c r="C3" s="6">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D3" s="6">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="E3" s="6">
-        <v>259.7</v>
+        <v>280.8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11942,13 +12520,13 @@
         <v>198</v>
       </c>
       <c r="C4" s="6">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D4" s="6">
         <v>2.1</v>
       </c>
       <c r="E4" s="6">
-        <v>551.1</v>
+        <v>557.1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11959,13 +12537,13 @@
         <v>199</v>
       </c>
       <c r="C5" s="6">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D5" s="6">
         <v>5.5</v>
       </c>
       <c r="E5" s="6">
-        <v>923</v>
+        <v>941.9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11976,13 +12554,13 @@
         <v>200</v>
       </c>
       <c r="C6" s="6">
-        <v>1671</v>
+        <v>1703</v>
       </c>
       <c r="D6" s="6">
-        <v>18.8</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E6" s="34">
-        <v>1022.2</v>
+        <v>1041.8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11993,13 +12571,13 @@
         <v>201</v>
       </c>
       <c r="C7" s="6">
-        <v>1592</v>
+        <v>1626</v>
       </c>
       <c r="D7" s="6">
-        <v>17.899999999999999</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E7" s="34">
-        <v>1508.5</v>
+        <v>1540.7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12010,13 +12588,13 @@
         <v>202</v>
       </c>
       <c r="C8" s="6">
-        <v>1385</v>
+        <v>1395</v>
       </c>
       <c r="D8" s="6">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E8" s="34">
-        <v>1833.8</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12027,13 +12605,13 @@
         <v>203</v>
       </c>
       <c r="C9" s="6">
-        <v>1469</v>
+        <v>1483</v>
       </c>
       <c r="D9" s="6">
-        <v>16.600000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="E9" s="34">
-        <v>2097.9</v>
+        <v>2117.9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12044,13 +12622,13 @@
         <v>204</v>
       </c>
       <c r="C10" s="6">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="D10" s="6">
         <v>10.6</v>
       </c>
       <c r="E10" s="34">
-        <v>1931.1</v>
+        <v>1947.5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12061,13 +12639,13 @@
         <v>205</v>
       </c>
       <c r="C11" s="6">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="D11" s="6">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="E11" s="34">
-        <v>2342.8000000000002</v>
+        <v>2353.6999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -12080,8 +12658,8 @@
   <dimension ref="A1:BQ21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU9" sqref="AU9"/>
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT2" sqref="AT2:AT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12226,7 +12804,9 @@
       <c r="AS1" s="4">
         <v>43983</v>
       </c>
-      <c r="AT1" s="4"/>
+      <c r="AT1" s="4">
+        <v>43984</v>
+      </c>
       <c r="AU1" s="4"/>
       <c r="AV1" s="4"/>
       <c r="AW1" s="4"/>
@@ -12388,7 +12968,9 @@
       <c r="AS2" s="14">
         <v>470</v>
       </c>
-      <c r="AT2" s="14"/>
+      <c r="AT2" s="42">
+        <v>473</v>
+      </c>
       <c r="AU2" s="14"/>
       <c r="AV2" s="14"/>
       <c r="AW2" s="14"/>
@@ -12549,7 +13131,9 @@
       <c r="AS3" s="7">
         <v>48</v>
       </c>
-      <c r="AT3" s="7"/>
+      <c r="AT3" s="35">
+        <v>48</v>
+      </c>
       <c r="AU3" s="7"/>
       <c r="AV3" s="7"/>
       <c r="AW3" s="7"/>
@@ -12710,7 +13294,9 @@
       <c r="AS4" s="7">
         <v>29</v>
       </c>
-      <c r="AT4" s="7"/>
+      <c r="AT4" s="35">
+        <v>29</v>
+      </c>
       <c r="AU4" s="7"/>
       <c r="AV4" s="7"/>
       <c r="AW4" s="7"/>
@@ -12871,7 +13457,9 @@
       <c r="AS5" s="7">
         <v>30</v>
       </c>
-      <c r="AT5" s="7"/>
+      <c r="AT5" s="35">
+        <v>30</v>
+      </c>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
       <c r="AW5" s="7"/>
@@ -13032,7 +13620,9 @@
       <c r="AS6" s="7">
         <v>66</v>
       </c>
-      <c r="AT6" s="7"/>
+      <c r="AT6" s="35">
+        <v>66</v>
+      </c>
       <c r="AU6" s="7"/>
       <c r="AV6" s="7"/>
       <c r="AW6" s="7"/>
@@ -13193,7 +13783,9 @@
       <c r="AS7" s="7">
         <v>75</v>
       </c>
-      <c r="AT7" s="7"/>
+      <c r="AT7" s="35">
+        <v>75</v>
+      </c>
       <c r="AU7" s="7"/>
       <c r="AV7" s="7"/>
       <c r="AW7" s="7"/>
@@ -13354,7 +13946,9 @@
       <c r="AS8" s="7">
         <v>43</v>
       </c>
-      <c r="AT8" s="7"/>
+      <c r="AT8" s="35">
+        <v>43</v>
+      </c>
       <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
       <c r="AW8" s="7"/>
@@ -13515,7 +14109,9 @@
       <c r="AS9" s="7">
         <v>68</v>
       </c>
-      <c r="AT9" s="7"/>
+      <c r="AT9" s="35">
+        <v>69</v>
+      </c>
       <c r="AU9" s="7"/>
       <c r="AV9" s="7"/>
       <c r="AW9" s="7"/>
@@ -13676,7 +14272,9 @@
       <c r="AS10" s="7">
         <v>95</v>
       </c>
-      <c r="AT10" s="7"/>
+      <c r="AT10" s="35">
+        <v>97</v>
+      </c>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
       <c r="AW10" s="7"/>
@@ -13837,7 +14435,9 @@
       <c r="AS11" s="7">
         <v>16</v>
       </c>
-      <c r="AT11" s="7"/>
+      <c r="AT11" s="35">
+        <v>16</v>
+      </c>
       <c r="AU11" s="7"/>
       <c r="AV11" s="7"/>
       <c r="AW11" s="7"/>
@@ -13996,7 +14596,9 @@
       <c r="AS12" s="7">
         <v>0</v>
       </c>
-      <c r="AT12" s="7"/>
+      <c r="AT12" s="35">
+        <v>0</v>
+      </c>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
@@ -14059,7 +14661,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -14093,13 +14695,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="27">
-        <v>8886</v>
+        <v>9016</v>
       </c>
       <c r="C2" s="27">
-        <v>4407</v>
+        <v>4482</v>
       </c>
       <c r="D2" s="27">
-        <v>4460</v>
+        <v>4515</v>
       </c>
       <c r="E2" s="27">
         <v>19</v>
@@ -14110,7 +14712,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
@@ -14119,7 +14721,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -14127,13 +14729,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="27">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C4" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
@@ -14144,13 +14746,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="27">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C5" s="7">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D5" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -14161,13 +14763,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="27">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C6" s="7">
         <v>100</v>
       </c>
       <c r="D6" s="7">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -14178,13 +14780,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="27">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C7" s="7">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D7" s="7">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -14195,16 +14797,16 @@
         <v>15</v>
       </c>
       <c r="B8" s="27">
-        <v>1671</v>
+        <v>1703</v>
       </c>
       <c r="C8" s="7">
-        <v>850</v>
+        <v>872</v>
       </c>
       <c r="D8" s="7">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="E8" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -14212,13 +14814,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="27">
-        <v>1592</v>
+        <v>1626</v>
       </c>
       <c r="C9" s="7">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="D9" s="7">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -14229,13 +14831,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="27">
-        <v>1385</v>
+        <v>1395</v>
       </c>
       <c r="C10" s="7">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="D10" s="7">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -14246,13 +14848,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="27">
-        <v>1469</v>
+        <v>1483</v>
       </c>
       <c r="C11" s="7">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="D11" s="7">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -14263,13 +14865,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="27">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="C12" s="7">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D12" s="7">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
@@ -14280,13 +14882,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="27">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="C13" s="7">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D13" s="7">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
@@ -14313,8 +14915,8 @@
   <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BL3" sqref="BL3:BL11"/>
+      <pane xSplit="1" topLeftCell="BL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM3" sqref="BM3:BM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14609,7 +15211,9 @@
       <c r="BL2" s="4">
         <v>43983</v>
       </c>
-      <c r="BM2" s="4"/>
+      <c r="BM2" s="4">
+        <v>43984</v>
+      </c>
       <c r="BN2" s="4"/>
       <c r="BO2" s="4"/>
       <c r="BP2" s="4"/>
@@ -14829,7 +15433,9 @@
       <c r="BL3" s="35">
         <v>1243</v>
       </c>
-      <c r="BM3" s="7"/>
+      <c r="BM3" s="35">
+        <v>1243</v>
+      </c>
       <c r="BN3" s="7"/>
       <c r="BO3" s="7"/>
       <c r="BP3" s="7"/>
@@ -15049,7 +15655,9 @@
       <c r="BL4" s="35">
         <v>513</v>
       </c>
-      <c r="BM4" s="7"/>
+      <c r="BM4" s="35">
+        <v>513</v>
+      </c>
       <c r="BN4" s="7"/>
       <c r="BO4" s="7"/>
       <c r="BP4" s="7"/>
@@ -15269,7 +15877,9 @@
       <c r="BL5" s="35">
         <v>420</v>
       </c>
-      <c r="BM5" s="7"/>
+      <c r="BM5" s="35">
+        <v>420</v>
+      </c>
       <c r="BN5" s="7"/>
       <c r="BO5" s="7"/>
       <c r="BP5" s="7"/>
@@ -15489,7 +16099,9 @@
       <c r="BL6" s="35">
         <v>1852</v>
       </c>
-      <c r="BM6" s="7"/>
+      <c r="BM6" s="35">
+        <v>1852</v>
+      </c>
       <c r="BN6" s="7"/>
       <c r="BO6" s="7"/>
       <c r="BP6" s="7"/>
@@ -15709,7 +16321,9 @@
       <c r="BL7" s="35">
         <v>1379</v>
       </c>
-      <c r="BM7" s="7"/>
+      <c r="BM7" s="35">
+        <v>1379</v>
+      </c>
       <c r="BN7" s="7"/>
       <c r="BO7" s="7"/>
       <c r="BP7" s="7"/>
@@ -15929,7 +16543,9 @@
       <c r="BL8" s="35">
         <v>758</v>
       </c>
-      <c r="BM8" s="7"/>
+      <c r="BM8" s="35">
+        <v>758</v>
+      </c>
       <c r="BN8" s="7"/>
       <c r="BO8" s="7"/>
       <c r="BP8" s="7"/>
@@ -16149,7 +16765,9 @@
       <c r="BL9" s="35">
         <v>1298</v>
       </c>
-      <c r="BM9" s="7"/>
+      <c r="BM9" s="35">
+        <v>1298</v>
+      </c>
       <c r="BN9" s="7"/>
       <c r="BO9" s="7"/>
       <c r="BP9" s="7"/>
@@ -16369,7 +16987,9 @@
       <c r="BL10" s="35">
         <v>1278</v>
       </c>
-      <c r="BM10" s="7"/>
+      <c r="BM10" s="35">
+        <v>1278</v>
+      </c>
       <c r="BN10" s="7"/>
       <c r="BO10" s="7"/>
       <c r="BP10" s="7"/>
@@ -16589,7 +17209,9 @@
       <c r="BL11" s="35">
         <v>145</v>
       </c>
-      <c r="BM11" s="7"/>
+      <c r="BM11" s="35">
+        <v>145</v>
+      </c>
       <c r="BN11" s="7"/>
       <c r="BO11" s="7"/>
       <c r="BP11" s="7"/>
@@ -16627,8 +17249,8 @@
   <dimension ref="A1:CE19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="BH2" sqref="BH2:BH13"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BG2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="BI2" sqref="BI2:BI13"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -16826,7 +17448,9 @@
       <c r="BH1" s="4">
         <v>43983</v>
       </c>
-      <c r="BI1" s="4"/>
+      <c r="BI1" s="4">
+        <v>43984</v>
+      </c>
       <c r="BJ1" s="4"/>
       <c r="BK1" s="4"/>
       <c r="BL1" s="4"/>
@@ -17031,7 +17655,9 @@
       <c r="BH2" s="35">
         <v>916</v>
       </c>
-      <c r="BI2" s="7"/>
+      <c r="BI2" s="35">
+        <v>995</v>
+      </c>
       <c r="BJ2" s="7"/>
       <c r="BK2" s="7"/>
       <c r="BL2" s="7"/>
@@ -17236,7 +17862,9 @@
       <c r="BH3" s="35">
         <v>1358</v>
       </c>
-      <c r="BI3" s="7"/>
+      <c r="BI3" s="35">
+        <v>1364</v>
+      </c>
       <c r="BJ3" s="7"/>
       <c r="BK3" s="7"/>
       <c r="BL3" s="7"/>
@@ -17441,7 +18069,9 @@
       <c r="BH4" s="35">
         <v>4142</v>
       </c>
-      <c r="BI4" s="7"/>
+      <c r="BI4" s="35">
+        <v>4164</v>
+      </c>
       <c r="BJ4" s="7"/>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
@@ -17646,7 +18276,9 @@
       <c r="BH5" s="35">
         <v>106</v>
       </c>
-      <c r="BI5" s="7"/>
+      <c r="BI5" s="35">
+        <v>106</v>
+      </c>
       <c r="BJ5" s="7"/>
       <c r="BK5" s="7"/>
       <c r="BL5" s="7"/>
@@ -17851,7 +18483,9 @@
       <c r="BH6" s="35">
         <v>26</v>
       </c>
-      <c r="BI6" s="7"/>
+      <c r="BI6" s="35">
+        <v>26</v>
+      </c>
       <c r="BJ6" s="7"/>
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
@@ -18052,7 +18686,9 @@
       <c r="BH7" s="35">
         <v>22</v>
       </c>
-      <c r="BI7" s="7"/>
+      <c r="BI7" s="35">
+        <v>22</v>
+      </c>
       <c r="BJ7" s="7"/>
       <c r="BK7" s="7"/>
       <c r="BL7" s="7"/>
@@ -18257,7 +18893,9 @@
       <c r="BH8" s="35">
         <v>2258</v>
       </c>
-      <c r="BI8" s="7"/>
+      <c r="BI8" s="35">
+        <v>2281</v>
+      </c>
       <c r="BJ8" s="7"/>
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
@@ -18462,7 +19100,9 @@
       <c r="BH9" s="35">
         <v>58</v>
       </c>
-      <c r="BI9" s="7"/>
+      <c r="BI9" s="35">
+        <v>58</v>
+      </c>
       <c r="BJ9" s="7"/>
       <c r="BK9" s="7"/>
       <c r="BL9" s="7"/>
@@ -18667,7 +19307,9 @@
       <c r="BH10" s="35">
         <v>1531</v>
       </c>
-      <c r="BI10" s="7"/>
+      <c r="BI10" s="35">
+        <v>1608</v>
+      </c>
       <c r="BJ10" s="7"/>
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
@@ -18872,7 +19514,9 @@
       <c r="BH11" s="35">
         <v>2349</v>
       </c>
-      <c r="BI11" s="7"/>
+      <c r="BI11" s="35">
+        <v>2372</v>
+      </c>
       <c r="BJ11" s="7"/>
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
@@ -19077,7 +19721,9 @@
       <c r="BH12" s="35">
         <v>4980</v>
       </c>
-      <c r="BI12" s="7"/>
+      <c r="BI12" s="35">
+        <v>5010</v>
+      </c>
       <c r="BJ12" s="7"/>
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
@@ -19282,7 +19928,9 @@
       <c r="BH13" s="35">
         <v>26</v>
       </c>
-      <c r="BI13" s="7"/>
+      <c r="BI13" s="35">
+        <v>26</v>
+      </c>
       <c r="BJ13" s="7"/>
       <c r="BK13" s="7"/>
       <c r="BL13" s="7"/>
@@ -19581,8 +20229,8 @@
   <dimension ref="A1:CH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG8" sqref="BG8"/>
+      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BL6" sqref="BL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -19767,7 +20415,9 @@
       <c r="BG1" s="4">
         <v>43983</v>
       </c>
-      <c r="BH1" s="4"/>
+      <c r="BH1" s="4">
+        <v>43984</v>
+      </c>
       <c r="BI1" s="4"/>
       <c r="BJ1" s="4"/>
       <c r="BK1" s="4"/>
@@ -20063,7 +20713,9 @@
       <c r="BG3" s="7">
         <v>7</v>
       </c>
-      <c r="BH3" s="7"/>
+      <c r="BH3" s="7">
+        <v>7</v>
+      </c>
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7"/>
       <c r="BK3" s="7"/>
@@ -20269,7 +20921,9 @@
       <c r="BG4" s="7">
         <v>353</v>
       </c>
-      <c r="BH4" s="7"/>
+      <c r="BH4" s="7">
+        <v>356</v>
+      </c>
       <c r="BI4" s="7"/>
       <c r="BJ4" s="7"/>
       <c r="BK4" s="7"/>
@@ -20475,7 +21129,9 @@
       <c r="BG5" s="7">
         <v>52</v>
       </c>
-      <c r="BH5" s="7"/>
+      <c r="BH5" s="7">
+        <v>54</v>
+      </c>
       <c r="BI5" s="7"/>
       <c r="BJ5" s="7"/>
       <c r="BK5" s="7"/>
@@ -20681,7 +21337,9 @@
       <c r="BG6" s="7">
         <v>54</v>
       </c>
-      <c r="BH6" s="7"/>
+      <c r="BH6" s="7">
+        <v>52</v>
+      </c>
       <c r="BI6" s="7"/>
       <c r="BJ6" s="7"/>
       <c r="BK6" s="7"/>
@@ -20885,7 +21543,9 @@
       <c r="BG7" s="7">
         <v>4</v>
       </c>
-      <c r="BH7" s="7"/>
+      <c r="BH7" s="7">
+        <v>4</v>
+      </c>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="7"/>
       <c r="BK7" s="7"/>
@@ -21306,8 +21966,8 @@
   <dimension ref="A1:CL26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G11" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H11" sqref="H11"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -21435,7 +22095,9 @@
       <c r="H2" s="4">
         <v>43983</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4">
+        <v>43984</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -21543,7 +22205,9 @@
       <c r="H3" s="7">
         <v>5298</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7">
+        <v>5572</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -21651,7 +22315,9 @@
       <c r="H4" s="7">
         <v>3814</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>3969</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -21759,7 +22425,9 @@
       <c r="H5" s="7">
         <v>3898</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>4071</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -21867,7 +22535,9 @@
       <c r="H6" s="7">
         <v>7047</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>7400</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -21975,7 +22645,9 @@
       <c r="H7" s="7">
         <v>6625</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>6848</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -22083,7 +22755,9 @@
       <c r="H8" s="7">
         <v>5581</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>5799</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -22191,7 +22865,9 @@
       <c r="H9" s="7">
         <v>6338</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>6561</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -22299,7 +22975,9 @@
       <c r="H10" s="7">
         <v>6718</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>6922</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -22407,7 +23085,9 @@
       <c r="H11" s="7">
         <v>2529</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7">
+        <v>2565</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -22537,8 +23217,8 @@
   <dimension ref="A1:DF105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CK21" sqref="CK21"/>
+      <pane xSplit="2" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CL21" sqref="CL21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -22815,7 +23495,9 @@
       <c r="CK1" s="4">
         <v>43983</v>
       </c>
-      <c r="CL1" s="4"/>
+      <c r="CL1" s="4">
+        <v>43984</v>
+      </c>
       <c r="CM1" s="4"/>
       <c r="CN1" s="4"/>
       <c r="CO1" s="4"/>
@@ -23207,7 +23889,9 @@
       <c r="CK3" s="11">
         <v>47701</v>
       </c>
-      <c r="CL3" s="11"/>
+      <c r="CL3" s="11">
+        <v>49562</v>
+      </c>
       <c r="CM3" s="11"/>
       <c r="CN3" s="11"/>
       <c r="CO3" s="11"/>
@@ -23345,7 +24029,9 @@
       <c r="CK4" s="11">
         <v>39251</v>
       </c>
-      <c r="CL4" s="11"/>
+      <c r="CL4" s="11">
+        <v>40751</v>
+      </c>
       <c r="CM4" s="11"/>
       <c r="CN4" s="11"/>
       <c r="CO4" s="11"/>
@@ -23635,7 +24321,9 @@
       <c r="CK5" s="11">
         <v>8886</v>
       </c>
-      <c r="CL5" s="11"/>
+      <c r="CL5" s="11">
+        <v>9016</v>
+      </c>
       <c r="CM5" s="11"/>
       <c r="CN5" s="11"/>
       <c r="CO5" s="11"/>
@@ -23913,7 +24601,9 @@
       <c r="CK6" s="11">
         <v>470</v>
       </c>
-      <c r="CL6" s="11"/>
+      <c r="CL6" s="11">
+        <v>473</v>
+      </c>
       <c r="CM6" s="11"/>
       <c r="CN6" s="11"/>
       <c r="CO6" s="11"/>
@@ -24171,7 +24861,9 @@
       <c r="CK7" s="11">
         <v>1137</v>
       </c>
-      <c r="CL7" s="11"/>
+      <c r="CL7" s="11">
+        <v>1138</v>
+      </c>
       <c r="CM7" s="11"/>
       <c r="CN7" s="11"/>
       <c r="CO7" s="11"/>
@@ -24469,7 +25161,9 @@
       <c r="CK9" s="11">
         <v>345</v>
       </c>
-      <c r="CL9" s="11"/>
+      <c r="CL9" s="11">
+        <v>345</v>
+      </c>
       <c r="CM9" s="11"/>
       <c r="CN9" s="11"/>
       <c r="CO9" s="11"/>
@@ -24723,7 +25417,9 @@
       <c r="CK10" s="11">
         <v>76</v>
       </c>
-      <c r="CL10" s="11"/>
+      <c r="CL10" s="11">
+        <v>111</v>
+      </c>
       <c r="CM10" s="11"/>
       <c r="CN10" s="11"/>
       <c r="CO10" s="11"/>
@@ -24977,7 +25673,9 @@
       <c r="CK11" s="11">
         <v>440</v>
       </c>
-      <c r="CL11" s="11"/>
+      <c r="CL11" s="11">
+        <v>440</v>
+      </c>
       <c r="CM11" s="11"/>
       <c r="CN11" s="11"/>
       <c r="CO11" s="11"/>
@@ -25231,7 +25929,9 @@
       <c r="CK12" s="11">
         <v>208</v>
       </c>
-      <c r="CL12" s="11"/>
+      <c r="CL12" s="11">
+        <v>205</v>
+      </c>
       <c r="CM12" s="11"/>
       <c r="CN12" s="11"/>
       <c r="CO12" s="11"/>
@@ -25485,7 +26185,9 @@
       <c r="CK13" s="11">
         <v>232</v>
       </c>
-      <c r="CL13" s="11"/>
+      <c r="CL13" s="11">
+        <v>235</v>
+      </c>
       <c r="CM13" s="11"/>
       <c r="CN13" s="11"/>
       <c r="CO13" s="11"/>
@@ -25647,7 +26349,9 @@
       <c r="CK14" s="11">
         <v>295</v>
       </c>
-      <c r="CL14" s="11"/>
+      <c r="CL14" s="11">
+        <v>285</v>
+      </c>
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
@@ -25789,7 +26493,9 @@
       <c r="CK15" s="11">
         <v>106</v>
       </c>
-      <c r="CL15" s="11"/>
+      <c r="CL15" s="11">
+        <v>103</v>
+      </c>
       <c r="CM15" s="11"/>
       <c r="CN15" s="11"/>
       <c r="CO15" s="11"/>
@@ -25951,7 +26657,9 @@
       <c r="CK16" s="11">
         <v>1887</v>
       </c>
-      <c r="CL16" s="11"/>
+      <c r="CL16" s="11">
+        <v>1914</v>
+      </c>
       <c r="CM16" s="11"/>
       <c r="CN16" s="11"/>
       <c r="CO16" s="11"/>
@@ -26661,7 +27369,9 @@
       <c r="CK21" s="11">
         <v>111</v>
       </c>
-      <c r="CL21" s="11"/>
+      <c r="CL21" s="11">
+        <v>111</v>
+      </c>
       <c r="CM21" s="11"/>
       <c r="CN21" s="11"/>
       <c r="CO21" s="11"/>
@@ -26881,7 +27591,9 @@
       <c r="CK22" s="11">
         <v>19</v>
       </c>
-      <c r="CL22" s="11"/>
+      <c r="CL22" s="11">
+        <v>19</v>
+      </c>
       <c r="CM22" s="11"/>
       <c r="CN22" s="11"/>
       <c r="CO22" s="11"/>
@@ -27101,7 +27813,9 @@
       <c r="CK23" s="11">
         <v>92</v>
       </c>
-      <c r="CL23" s="11"/>
+      <c r="CL23" s="11">
+        <v>92</v>
+      </c>
       <c r="CM23" s="11"/>
       <c r="CN23" s="11"/>
       <c r="CO23" s="11"/>
@@ -27351,7 +28065,9 @@
       <c r="CK24" s="11">
         <v>105</v>
       </c>
-      <c r="CL24" s="11"/>
+      <c r="CL24" s="11">
+        <v>89</v>
+      </c>
       <c r="CM24" s="11"/>
       <c r="CN24" s="11"/>
       <c r="CO24" s="11"/>
@@ -27601,7 +28317,9 @@
       <c r="CK25" s="11">
         <v>124</v>
       </c>
-      <c r="CL25" s="11"/>
+      <c r="CL25" s="11">
+        <v>108</v>
+      </c>
       <c r="CM25" s="11"/>
       <c r="CN25" s="11"/>
       <c r="CO25" s="11"/>
@@ -27851,7 +28569,9 @@
       <c r="CK26" s="11">
         <v>1395</v>
       </c>
-      <c r="CL26" s="11"/>
+      <c r="CL26" s="11">
+        <v>1412</v>
+      </c>
       <c r="CM26" s="11"/>
       <c r="CN26" s="11"/>
       <c r="CO26" s="11"/>
@@ -28333,7 +29053,9 @@
       <c r="CK29" s="11">
         <v>138</v>
       </c>
-      <c r="CL29" s="11"/>
+      <c r="CL29" s="11">
+        <v>139</v>
+      </c>
       <c r="CM29" s="11"/>
       <c r="CN29" s="11"/>
       <c r="CO29" s="11"/>
@@ -28553,7 +29275,9 @@
       <c r="CK30" s="11">
         <v>32</v>
       </c>
-      <c r="CL30" s="11"/>
+      <c r="CL30" s="11">
+        <v>31</v>
+      </c>
       <c r="CM30" s="11"/>
       <c r="CN30" s="11"/>
       <c r="CO30" s="11"/>
@@ -28773,7 +29497,9 @@
       <c r="CK31" s="11">
         <v>106</v>
       </c>
-      <c r="CL31" s="11"/>
+      <c r="CL31" s="11">
+        <v>108</v>
+      </c>
       <c r="CM31" s="11"/>
       <c r="CN31" s="11"/>
       <c r="CO31" s="11"/>
@@ -29023,7 +29749,9 @@
       <c r="CK32" s="11">
         <v>52</v>
       </c>
-      <c r="CL32" s="11"/>
+      <c r="CL32" s="11">
+        <v>46</v>
+      </c>
       <c r="CM32" s="11"/>
       <c r="CN32" s="11"/>
       <c r="CO32" s="11"/>
@@ -29273,7 +30001,9 @@
       <c r="CK33" s="11">
         <v>84</v>
       </c>
-      <c r="CL33" s="11"/>
+      <c r="CL33" s="11">
+        <v>77</v>
+      </c>
       <c r="CM33" s="11"/>
       <c r="CN33" s="11"/>
       <c r="CO33" s="11"/>
@@ -29523,7 +30253,9 @@
       <c r="CK34" s="11">
         <v>1212</v>
       </c>
-      <c r="CL34" s="11"/>
+      <c r="CL34" s="11">
+        <v>1228</v>
+      </c>
       <c r="CM34" s="11"/>
       <c r="CN34" s="11"/>
       <c r="CO34" s="11"/>
@@ -29997,7 +30729,9 @@
       <c r="CK37" s="11">
         <v>80</v>
       </c>
-      <c r="CL37" s="11"/>
+      <c r="CL37" s="11">
+        <v>83</v>
+      </c>
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
@@ -30213,7 +30947,9 @@
       <c r="CK38" s="11">
         <v>6</v>
       </c>
-      <c r="CL38" s="11"/>
+      <c r="CL38" s="11">
+        <v>9</v>
+      </c>
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
@@ -30429,7 +31165,9 @@
       <c r="CK39" s="11">
         <v>73</v>
       </c>
-      <c r="CL39" s="11"/>
+      <c r="CL39" s="11">
+        <v>73</v>
+      </c>
       <c r="CM39" s="11"/>
       <c r="CN39" s="11"/>
       <c r="CO39" s="11"/>
@@ -30675,7 +31413,9 @@
       <c r="CK40" s="11">
         <v>1</v>
       </c>
-      <c r="CL40" s="11"/>
+      <c r="CL40" s="11">
+        <v>1</v>
+      </c>
       <c r="CM40" s="11"/>
       <c r="CN40" s="11"/>
       <c r="CO40" s="11"/>
@@ -30919,7 +31659,9 @@
       <c r="CK41" s="11">
         <v>9</v>
       </c>
-      <c r="CL41" s="11"/>
+      <c r="CL41" s="11">
+        <v>10</v>
+      </c>
       <c r="CM41" s="11"/>
       <c r="CN41" s="11"/>
       <c r="CO41" s="11"/>
@@ -31167,7 +31909,9 @@
       <c r="CK42" s="11">
         <v>281</v>
       </c>
-      <c r="CL42" s="11"/>
+      <c r="CL42" s="11">
+        <v>281</v>
+      </c>
       <c r="CM42" s="11"/>
       <c r="CN42" s="11"/>
       <c r="CO42" s="11"/>
@@ -31371,7 +32115,9 @@
       <c r="CK43" s="11">
         <v>1</v>
       </c>
-      <c r="CL43" s="11"/>
+      <c r="CL43" s="11">
+        <v>1</v>
+      </c>
       <c r="CM43" s="11"/>
       <c r="CN43" s="11"/>
       <c r="CO43" s="11"/>
@@ -31849,7 +32595,9 @@
       <c r="CK46" s="11">
         <v>205</v>
       </c>
-      <c r="CL46" s="11"/>
+      <c r="CL46" s="11">
+        <v>206</v>
+      </c>
       <c r="CM46" s="11"/>
       <c r="CN46" s="11"/>
       <c r="CO46" s="11"/>
@@ -32069,7 +32817,9 @@
       <c r="CK47" s="11">
         <v>18</v>
       </c>
-      <c r="CL47" s="11"/>
+      <c r="CL47" s="11">
+        <v>16</v>
+      </c>
       <c r="CM47" s="11"/>
       <c r="CN47" s="11"/>
       <c r="CO47" s="11"/>
@@ -32289,7 +33039,9 @@
       <c r="CK48" s="11">
         <v>181</v>
       </c>
-      <c r="CL48" s="11"/>
+      <c r="CL48" s="11">
+        <v>183</v>
+      </c>
       <c r="CM48" s="11"/>
       <c r="CN48" s="11"/>
       <c r="CO48" s="11"/>
@@ -32539,7 +33291,9 @@
       <c r="CK49" s="11">
         <v>469</v>
       </c>
-      <c r="CL49" s="11"/>
+      <c r="CL49" s="11">
+        <v>396</v>
+      </c>
       <c r="CM49" s="11"/>
       <c r="CN49" s="11"/>
       <c r="CO49" s="11"/>
@@ -32759,7 +33513,9 @@
       <c r="CK50" s="11">
         <v>487</v>
       </c>
-      <c r="CL50" s="11"/>
+      <c r="CL50" s="11">
+        <v>412</v>
+      </c>
       <c r="CM50" s="11"/>
       <c r="CN50" s="11"/>
       <c r="CO50" s="11"/>
@@ -32977,7 +33733,9 @@
       <c r="CK51" s="11">
         <v>830</v>
       </c>
-      <c r="CL51" s="11"/>
+      <c r="CL51" s="11">
+        <v>729</v>
+      </c>
       <c r="CM51" s="11"/>
       <c r="CN51" s="11"/>
       <c r="CO51" s="11"/>
@@ -33191,7 +33949,9 @@
       <c r="CK52" s="11">
         <v>1</v>
       </c>
-      <c r="CL52" s="11"/>
+      <c r="CL52" s="11">
+        <v>1</v>
+      </c>
       <c r="CM52" s="11"/>
       <c r="CN52" s="11"/>
       <c r="CO52" s="11"/>
@@ -33659,7 +34419,9 @@
       <c r="CK55" s="11">
         <v>30</v>
       </c>
-      <c r="CL55" s="11"/>
+      <c r="CL55" s="11">
+        <v>30</v>
+      </c>
       <c r="CM55" s="11"/>
       <c r="CN55" s="11"/>
       <c r="CO55" s="11"/>
@@ -33877,7 +34639,9 @@
       <c r="CK56" s="11">
         <v>7</v>
       </c>
-      <c r="CL56" s="11"/>
+      <c r="CL56" s="11">
+        <v>8</v>
+      </c>
       <c r="CM56" s="11"/>
       <c r="CN56" s="11"/>
       <c r="CO56" s="11"/>
@@ -34095,7 +34859,9 @@
       <c r="CK57" s="11">
         <v>22</v>
       </c>
-      <c r="CL57" s="11"/>
+      <c r="CL57" s="11">
+        <v>22</v>
+      </c>
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
@@ -34337,7 +35103,9 @@
       <c r="CK58" s="11">
         <v>16</v>
       </c>
-      <c r="CL58" s="11"/>
+      <c r="CL58" s="11">
+        <v>15</v>
+      </c>
       <c r="CM58" s="11"/>
       <c r="CN58" s="11"/>
       <c r="CO58" s="11"/>
@@ -34579,7 +35347,9 @@
       <c r="CK59" s="11">
         <v>23</v>
       </c>
-      <c r="CL59" s="11"/>
+      <c r="CL59" s="11">
+        <v>23</v>
+      </c>
       <c r="CM59" s="11"/>
       <c r="CN59" s="11"/>
       <c r="CO59" s="11"/>
@@ -34821,7 +35591,9 @@
       <c r="CK60" s="11">
         <v>145</v>
       </c>
-      <c r="CL60" s="11"/>
+      <c r="CL60" s="11">
+        <v>147</v>
+      </c>
       <c r="CM60" s="11"/>
       <c r="CN60" s="11"/>
       <c r="CO60" s="11"/>
@@ -35035,7 +35807,9 @@
       <c r="CK61" s="11">
         <v>1</v>
       </c>
-      <c r="CL61" s="11"/>
+      <c r="CL61" s="11">
+        <v>1</v>
+      </c>
       <c r="CM61" s="11"/>
       <c r="CN61" s="11"/>
       <c r="CO61" s="11"/>
@@ -35389,7 +36163,9 @@
       <c r="CK63" s="11">
         <v>11</v>
       </c>
-      <c r="CL63" s="11"/>
+      <c r="CL63" s="11">
+        <v>11</v>
+      </c>
       <c r="CM63" s="11"/>
       <c r="CN63" s="11"/>
       <c r="CO63" s="11"/>
@@ -35607,7 +36383,9 @@
       <c r="CK64" s="11">
         <v>2</v>
       </c>
-      <c r="CL64" s="11"/>
+      <c r="CL64" s="11">
+        <v>2</v>
+      </c>
       <c r="CM64" s="11"/>
       <c r="CN64" s="11"/>
       <c r="CO64" s="11"/>
@@ -35825,7 +36603,9 @@
       <c r="CK65" s="11">
         <v>9</v>
       </c>
-      <c r="CL65" s="11"/>
+      <c r="CL65" s="11">
+        <v>9</v>
+      </c>
       <c r="CM65" s="11"/>
       <c r="CN65" s="11"/>
       <c r="CO65" s="11"/>
@@ -36067,7 +36847,9 @@
       <c r="CK66" s="11">
         <v>54</v>
       </c>
-      <c r="CL66" s="11"/>
+      <c r="CL66" s="11">
+        <v>56</v>
+      </c>
       <c r="CM66" s="11"/>
       <c r="CN66" s="11"/>
       <c r="CO66" s="11"/>
@@ -36309,7 +37091,9 @@
       <c r="CK67" s="11">
         <v>56</v>
       </c>
-      <c r="CL67" s="11"/>
+      <c r="CL67" s="11">
+        <v>58</v>
+      </c>
       <c r="CM67" s="11"/>
       <c r="CN67" s="11"/>
       <c r="CO67" s="11"/>
@@ -36549,7 +37333,9 @@
       <c r="CK68" s="11">
         <v>0</v>
       </c>
-      <c r="CL68" s="11"/>
+      <c r="CL68" s="11">
+        <v>0</v>
+      </c>
       <c r="CM68" s="11"/>
       <c r="CN68" s="11"/>
       <c r="CO68" s="11"/>
@@ -36767,7 +37553,9 @@
       <c r="CK69" s="11">
         <v>0</v>
       </c>
-      <c r="CL69" s="11"/>
+      <c r="CL69" s="11">
+        <v>0</v>
+      </c>
       <c r="CM69" s="11"/>
       <c r="CN69" s="11"/>
       <c r="CO69" s="11"/>
@@ -37021,7 +37809,9 @@
       <c r="CK71" s="11">
         <v>10</v>
       </c>
-      <c r="CL71" s="11"/>
+      <c r="CL71" s="11">
+        <v>10</v>
+      </c>
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
@@ -37163,7 +37953,9 @@
       <c r="CK72" s="11">
         <v>5</v>
       </c>
-      <c r="CL72" s="11"/>
+      <c r="CL72" s="11">
+        <v>5</v>
+      </c>
       <c r="CM72" s="11"/>
       <c r="CN72" s="11"/>
       <c r="CO72" s="11"/>
@@ -37305,7 +38097,9 @@
       <c r="CK73" s="11">
         <v>5</v>
       </c>
-      <c r="CL73" s="11"/>
+      <c r="CL73" s="11">
+        <v>5</v>
+      </c>
       <c r="CM73" s="11"/>
       <c r="CN73" s="11"/>
       <c r="CO73" s="11"/>
@@ -37447,7 +38241,9 @@
       <c r="CK74" s="11">
         <v>8</v>
       </c>
-      <c r="CL74" s="11"/>
+      <c r="CL74" s="11">
+        <v>8</v>
+      </c>
       <c r="CM74" s="11"/>
       <c r="CN74" s="11"/>
       <c r="CO74" s="11"/>
@@ -37589,7 +38385,9 @@
       <c r="CK75" s="11">
         <v>13</v>
       </c>
-      <c r="CL75" s="11"/>
+      <c r="CL75" s="11">
+        <v>13</v>
+      </c>
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
@@ -37731,7 +38529,9 @@
       <c r="CK76" s="11">
         <v>33</v>
       </c>
-      <c r="CL76" s="11"/>
+      <c r="CL76" s="11">
+        <v>34</v>
+      </c>
       <c r="CM76" s="11"/>
       <c r="CN76" s="11"/>
       <c r="CO76" s="11"/>
@@ -38199,7 +38999,9 @@
       <c r="CK79" s="11">
         <v>298</v>
       </c>
-      <c r="CL79" s="11"/>
+      <c r="CL79" s="11">
+        <v>302</v>
+      </c>
       <c r="CM79" s="11"/>
       <c r="CN79" s="11"/>
       <c r="CO79" s="11"/>
@@ -38441,7 +39243,9 @@
       <c r="CK80" s="11">
         <v>104</v>
       </c>
-      <c r="CL80" s="11"/>
+      <c r="CL80" s="11">
+        <v>105</v>
+      </c>
       <c r="CM80" s="11"/>
       <c r="CN80" s="11"/>
       <c r="CO80" s="11"/>
@@ -38683,7 +39487,9 @@
       <c r="CK81" s="11">
         <v>84</v>
       </c>
-      <c r="CL81" s="11"/>
+      <c r="CL81" s="11">
+        <v>84</v>
+      </c>
       <c r="CM81" s="11"/>
       <c r="CN81" s="11"/>
       <c r="CO81" s="11"/>
@@ -38897,7 +39703,9 @@
       <c r="CK82" s="11">
         <v>16</v>
       </c>
-      <c r="CL82" s="11"/>
+      <c r="CL82" s="11">
+        <v>16</v>
+      </c>
       <c r="CM82" s="11"/>
       <c r="CN82" s="11"/>
       <c r="CO82" s="11"/>
@@ -39251,7 +40059,9 @@
       <c r="CK84" s="11">
         <v>119</v>
       </c>
-      <c r="CL84" s="11"/>
+      <c r="CL84" s="11">
+        <v>119</v>
+      </c>
       <c r="CM84" s="11"/>
       <c r="CN84" s="11"/>
       <c r="CO84" s="11"/>
@@ -39493,7 +40303,9 @@
       <c r="CK85" s="11">
         <v>25</v>
       </c>
-      <c r="CL85" s="11"/>
+      <c r="CL85" s="11">
+        <v>25</v>
+      </c>
       <c r="CM85" s="11"/>
       <c r="CN85" s="11"/>
       <c r="CO85" s="11"/>
@@ -39735,7 +40547,9 @@
       <c r="CK86" s="11">
         <v>144</v>
       </c>
-      <c r="CL86" s="11"/>
+      <c r="CL86" s="11">
+        <v>68</v>
+      </c>
       <c r="CM86" s="11"/>
       <c r="CN86" s="11"/>
       <c r="CO86" s="11"/>
@@ -39969,7 +40783,9 @@
       <c r="CK87" s="11">
         <v>194</v>
       </c>
-      <c r="CL87" s="11"/>
+      <c r="CL87" s="11">
+        <v>195</v>
+      </c>
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
       <c r="CO87" s="11"/>
@@ -40127,7 +40943,9 @@
       <c r="CK88" s="11">
         <v>1</v>
       </c>
-      <c r="CL88" s="11"/>
+      <c r="CL88" s="11">
+        <v>1</v>
+      </c>
       <c r="CM88" s="11"/>
       <c r="CN88" s="11"/>
       <c r="CO88" s="11"/>
@@ -40440,7 +41258,9 @@
       <c r="CK90" s="11">
         <v>81</v>
       </c>
-      <c r="CL90" s="11"/>
+      <c r="CL90" s="11">
+        <v>81</v>
+      </c>
       <c r="CM90" s="11"/>
       <c r="CN90" s="11"/>
       <c r="CO90" s="11"/>
@@ -40682,7 +41502,9 @@
       <c r="CK91" s="11">
         <v>21</v>
       </c>
-      <c r="CL91" s="11"/>
+      <c r="CL91" s="11">
+        <v>21</v>
+      </c>
       <c r="CM91" s="11"/>
       <c r="CN91" s="11"/>
       <c r="CO91" s="11"/>
@@ -40902,7 +41724,9 @@
       <c r="CK92" s="11">
         <v>168</v>
       </c>
-      <c r="CL92" s="11"/>
+      <c r="CL92" s="11">
+        <v>168</v>
+      </c>
       <c r="CM92" s="11"/>
       <c r="CN92" s="11"/>
       <c r="CO92" s="11"/>
@@ -41118,7 +41942,9 @@
       <c r="CK93" s="11">
         <v>41</v>
       </c>
-      <c r="CL93" s="11"/>
+      <c r="CL93" s="11">
+        <v>43</v>
+      </c>
       <c r="CM93" s="11"/>
       <c r="CN93" s="11"/>
       <c r="CO93" s="11"/>
@@ -41358,7 +42184,9 @@
       <c r="CK94" s="11">
         <v>13</v>
       </c>
-      <c r="CL94" s="11"/>
+      <c r="CL94" s="11">
+        <v>13</v>
+      </c>
       <c r="CM94" s="11"/>
       <c r="CN94" s="11"/>
       <c r="CO94" s="11"/>
@@ -41590,7 +42418,9 @@
       <c r="CK96" s="11">
         <v>9</v>
       </c>
-      <c r="CL96" s="11"/>
+      <c r="CL96" s="11">
+        <v>9</v>
+      </c>
       <c r="CM96" s="11"/>
       <c r="CN96" s="11"/>
       <c r="CO96" s="11"/>
@@ -41711,7 +42541,9 @@
       <c r="CK97" s="11">
         <v>12</v>
       </c>
-      <c r="CL97" s="11"/>
+      <c r="CL97" s="11">
+        <v>12</v>
+      </c>
       <c r="CM97" s="11"/>
       <c r="CN97" s="11"/>
       <c r="CO97" s="11"/>
@@ -41830,7 +42662,9 @@
       <c r="CK98" s="11">
         <v>35</v>
       </c>
-      <c r="CL98" s="11"/>
+      <c r="CL98" s="11">
+        <v>35</v>
+      </c>
       <c r="CM98" s="11"/>
       <c r="CN98" s="11"/>
       <c r="CO98" s="11"/>
@@ -41949,7 +42783,9 @@
       <c r="CK99" s="11">
         <v>1</v>
       </c>
-      <c r="CL99" s="11"/>
+      <c r="CL99" s="11">
+        <v>1</v>
+      </c>
       <c r="CM99" s="11"/>
       <c r="CN99" s="11"/>
       <c r="CO99" s="11"/>
@@ -42248,7 +43084,9 @@
       <c r="CK101" s="11">
         <v>188</v>
       </c>
-      <c r="CL101" s="11"/>
+      <c r="CL101" s="11">
+        <v>189</v>
+      </c>
       <c r="CM101" s="11"/>
       <c r="CN101" s="11"/>
       <c r="CO101" s="11"/>
@@ -42436,7 +43274,9 @@
       <c r="CK102" s="11">
         <v>70</v>
       </c>
-      <c r="CL102" s="11"/>
+      <c r="CL102" s="11">
+        <v>77</v>
+      </c>
       <c r="CM102" s="11"/>
       <c r="CN102" s="11"/>
       <c r="CO102" s="11"/>
@@ -42624,7 +43464,9 @@
       <c r="CK103" s="11">
         <v>25</v>
       </c>
-      <c r="CL103" s="11"/>
+      <c r="CL103" s="11">
+        <v>25</v>
+      </c>
       <c r="CM103" s="11"/>
       <c r="CN103" s="11"/>
       <c r="CO103" s="11"/>
@@ -42729,11 +43571,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51A914D-4CED-7A43-8BD6-4514AC12DE8C}">
-  <dimension ref="A1:C1342"/>
+  <dimension ref="A1:C1393"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1309" sqref="D1309"/>
+      <pane ySplit="1" topLeftCell="A1330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1393" sqref="A1343:A1393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -57505,6 +58347,567 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1343" spans="1:3">
+      <c r="A1343" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1343" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1343" s="19">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3">
+      <c r="A1344" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1344" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1344" s="19">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:3">
+      <c r="A1345" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1345" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1345" s="19">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3">
+      <c r="A1346" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1346" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1346" s="19">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:3">
+      <c r="A1347" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1347" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1347" s="19">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:3">
+      <c r="A1348" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1348" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1348" s="19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:3">
+      <c r="A1349" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1349" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1349" s="19">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:3">
+      <c r="A1350" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1350" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1350" s="19">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:3">
+      <c r="A1351" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1351" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1351" s="19">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:3">
+      <c r="A1352" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1352" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1352" s="19">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:3">
+      <c r="A1353" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1353" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1353" s="19">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:3">
+      <c r="A1354" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1354" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1354" s="19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:3">
+      <c r="A1355" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1355" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1355" s="19">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:3">
+      <c r="A1356" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1356" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1356" s="19">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:3">
+      <c r="A1357" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1357" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1357" s="19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:3">
+      <c r="A1358" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1358" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1358" s="19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:3">
+      <c r="A1359" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1359" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1359" s="19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:3">
+      <c r="A1360" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1360" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1360" s="19">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:3">
+      <c r="A1361" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1361" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1361" s="19">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:3">
+      <c r="A1362" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1362" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1362" s="19">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:3">
+      <c r="A1363" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1363" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1363" s="19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:3">
+      <c r="A1364" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1364" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1364" s="19">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:3">
+      <c r="A1365" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1365" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1365" s="19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:3">
+      <c r="A1366" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1366" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1366" s="19">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:3">
+      <c r="A1367" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1367" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1367" s="19">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:3">
+      <c r="A1368" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1368" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1368" s="19">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:3">
+      <c r="A1369" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1369" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1369" s="19">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:3">
+      <c r="A1370" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1370" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1370" s="19">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:3">
+      <c r="A1371" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1371" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1371" s="19">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:3">
+      <c r="A1372" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1372" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1372" s="19">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:3">
+      <c r="A1373" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1373" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1373" s="19">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:3">
+      <c r="A1374" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1374" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1374" s="19">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:3">
+      <c r="A1375" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1375" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1375" s="19">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:3">
+      <c r="A1376" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1376" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1376" s="19">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:3">
+      <c r="A1377" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1377" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1377" s="19">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:3">
+      <c r="A1378" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1378" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1378" s="19">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:3">
+      <c r="A1379" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1379" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1379" s="19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:3">
+      <c r="A1380" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1380" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1380" s="19">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:3">
+      <c r="A1381" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1381" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1381" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:3">
+      <c r="A1382" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1382" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1382" s="19">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:3">
+      <c r="A1383" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1383" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1383" s="19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:3">
+      <c r="A1384" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1384" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1384" s="19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:3">
+      <c r="A1385" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1385" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1385" s="19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:3">
+      <c r="A1386" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1386" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1386" s="19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:3">
+      <c r="A1387" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1387" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1387" s="19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:3">
+      <c r="A1388" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1388" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1388" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:3">
+      <c r="A1389" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1389" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1389" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:3">
+      <c r="A1390" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1390" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1390" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:3">
+      <c r="A1391" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1391" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1391" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:3">
+      <c r="A1392" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1392" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1392" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:3">
+      <c r="A1393" s="17">
+        <v>43984</v>
+      </c>
+      <c r="B1393" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1393" s="19">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DCCovid19Data.xlsx
+++ b/DCCovid19Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A350B93-4722-484D-9823-FA15D70DD7A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC201139-7F00-E94A-9762-C48EF93F2382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="10" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Age-Adjusted Rate by Ward" sheetId="11" r:id="rId12"/>
     <sheet name="Rates by Age Categories" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="206">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -936,6 +936,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -944,9 +947,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1271,14 +1271,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.95">
+    <row r="1" spans="1:1" ht="19">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.95">
+    <row r="2" spans="1:1" ht="19">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1290,18 +1290,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0704107B-CC38-954F-8D77-0E0C2F291C39}">
-  <dimension ref="A1:C616"/>
+  <dimension ref="A1:C667"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A602" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B566" sqref="B566:C616"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A629" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B617" sqref="B617:C667"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8078,6 +8078,567 @@
       </c>
       <c r="C616" s="19">
         <v>18</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B617" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C617" s="19">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B618" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C618" s="19">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B619" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C619" s="19">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B620" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C620" s="19">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B621" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C621" s="19">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B622" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C622" s="19">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B623" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C623" s="19">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B624" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C624" s="19">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B625" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C625" s="19">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B626" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C626" s="19">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B627" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C627" s="19">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B628" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C628" s="19">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B629" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C629" s="19">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B630" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C630" s="19">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B631" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C631" s="19">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B632" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C632" s="19">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B633" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C633" s="19">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B634" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C634" s="19">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B635" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C635" s="19">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B636" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C636" s="19">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B637" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C637" s="19">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B638" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C638" s="19">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B639" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C639" s="19">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B640" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C640" s="19">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B641" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C641" s="19">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B642" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C642" s="19">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B643" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C643" s="19">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B644" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C644" s="19">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B645" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C645" s="19">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B646" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C646" s="19">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B647" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C647" s="19">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B648" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C648" s="19">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B649" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C649" s="19">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B650" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C650" s="19">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B651" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C651" s="19">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B652" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C652" s="19">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B653" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C653" s="19">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B654" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C654" s="19">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B655" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C655" s="19">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B656" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C656" s="19">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B657" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C657" s="19">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B658" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C658" s="19">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B659" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C659" s="19">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B660" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C660" s="19">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B661" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C661" s="19">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B662" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C662" s="19">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B663" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C663" s="19">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B664" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C664" s="19">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B665" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C665" s="19">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B666" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C666" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" s="17">
+        <v>43985</v>
+      </c>
+      <c r="B667" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C667" s="19">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -8090,19 +8651,19 @@
   <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="24"/>
-    <col min="2" max="2" width="21.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="24"/>
+    <col min="2" max="2" width="21.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="31" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="105">
@@ -9599,13 +10160,27 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="26"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
+      <c r="A66" s="26">
+        <v>43985</v>
+      </c>
+      <c r="B66" s="28">
+        <v>1928</v>
+      </c>
+      <c r="C66" s="28">
+        <v>0</v>
+      </c>
+      <c r="D66" s="28">
+        <v>276</v>
+      </c>
+      <c r="E66" s="28">
+        <v>218</v>
+      </c>
+      <c r="F66" s="28">
+        <v>0</v>
+      </c>
+      <c r="G66" s="28">
+        <v>73</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="26"/>
@@ -12347,12 +12922,12 @@
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.95">
+    <row r="1" spans="1:2" ht="31">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -12365,7 +12940,7 @@
         <v>182</v>
       </c>
       <c r="B2" s="18">
-        <v>1620.2</v>
+        <v>1643.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -12373,7 +12948,7 @@
         <v>183</v>
       </c>
       <c r="B3" s="18">
-        <v>711.4</v>
+        <v>719.9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -12389,7 +12964,7 @@
         <v>185</v>
       </c>
       <c r="B5" s="18">
-        <v>2122.3000000000002</v>
+        <v>2150.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -12397,7 +12972,7 @@
         <v>186</v>
       </c>
       <c r="B6" s="18">
-        <v>1476.2</v>
+        <v>1490.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -12405,7 +12980,7 @@
         <v>187</v>
       </c>
       <c r="B7" s="18">
-        <v>835.9</v>
+        <v>842.7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -12413,7 +12988,7 @@
         <v>188</v>
       </c>
       <c r="B8" s="18">
-        <v>1586.6</v>
+        <v>1595.1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -12421,22 +12996,22 @@
         <v>189</v>
       </c>
       <c r="B9" s="23">
-        <v>1713.9</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="41"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12454,14 +13029,14 @@
       <selection activeCell="C2" sqref="C2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.95">
+    <row r="1" spans="1:5" ht="31">
       <c r="A1" s="33" t="s">
         <v>191</v>
       </c>
@@ -12486,13 +13061,13 @@
         <v>196</v>
       </c>
       <c r="C2" s="6">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D2" s="6">
         <v>1.2</v>
       </c>
       <c r="E2" s="6">
-        <v>244</v>
+        <v>248.4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12503,13 +13078,13 @@
         <v>197</v>
       </c>
       <c r="C3" s="6">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D3" s="6">
         <v>2.1</v>
       </c>
       <c r="E3" s="6">
-        <v>280.8</v>
+        <v>292.89999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12520,13 +13095,13 @@
         <v>198</v>
       </c>
       <c r="C4" s="6">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D4" s="6">
         <v>2.1</v>
       </c>
       <c r="E4" s="6">
-        <v>557.1</v>
+        <v>569.1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12537,13 +13112,13 @@
         <v>199</v>
       </c>
       <c r="C5" s="6">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D5" s="6">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="E5" s="6">
-        <v>941.9</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12554,13 +13129,13 @@
         <v>200</v>
       </c>
       <c r="C6" s="6">
-        <v>1703</v>
+        <v>1722</v>
       </c>
       <c r="D6" s="6">
         <v>18.899999999999999</v>
       </c>
       <c r="E6" s="34">
-        <v>1041.8</v>
+        <v>1053.4000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12571,13 +13146,13 @@
         <v>201</v>
       </c>
       <c r="C7" s="6">
-        <v>1626</v>
+        <v>1645</v>
       </c>
       <c r="D7" s="6">
         <v>18.100000000000001</v>
       </c>
       <c r="E7" s="34">
-        <v>1540.7</v>
+        <v>1558.7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12588,13 +13163,13 @@
         <v>202</v>
       </c>
       <c r="C8" s="6">
-        <v>1395</v>
+        <v>1414</v>
       </c>
       <c r="D8" s="6">
         <v>15.5</v>
       </c>
       <c r="E8" s="34">
-        <v>1847</v>
+        <v>1872.2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12605,13 +13180,13 @@
         <v>203</v>
       </c>
       <c r="C9" s="6">
-        <v>1483</v>
+        <v>1499</v>
       </c>
       <c r="D9" s="6">
         <v>16.5</v>
       </c>
       <c r="E9" s="34">
-        <v>2117.9</v>
+        <v>2140.8000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12622,13 +13197,13 @@
         <v>204</v>
       </c>
       <c r="C10" s="6">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="D10" s="6">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="E10" s="34">
-        <v>1947.5</v>
+        <v>1957.7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12639,13 +13214,13 @@
         <v>205</v>
       </c>
       <c r="C11" s="6">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D11" s="6">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="E11" s="34">
-        <v>2353.6999999999998</v>
+        <v>2364.6</v>
       </c>
     </row>
   </sheetData>
@@ -12658,14 +13233,14 @@
   <dimension ref="A1:BQ21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT2" sqref="AT2:AT12"/>
+      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="31" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="31" max="44" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
@@ -12807,7 +13382,9 @@
       <c r="AT1" s="4">
         <v>43984</v>
       </c>
-      <c r="AU1" s="4"/>
+      <c r="AU1" s="4">
+        <v>43985</v>
+      </c>
       <c r="AV1" s="4"/>
       <c r="AW1" s="4"/>
       <c r="AX1" s="4"/>
@@ -12968,10 +13545,12 @@
       <c r="AS2" s="14">
         <v>470</v>
       </c>
-      <c r="AT2" s="42">
+      <c r="AT2" s="39">
         <v>473</v>
       </c>
-      <c r="AU2" s="14"/>
+      <c r="AU2" s="39">
+        <v>475</v>
+      </c>
       <c r="AV2" s="14"/>
       <c r="AW2" s="14"/>
       <c r="AX2" s="14"/>
@@ -13134,7 +13713,9 @@
       <c r="AT3" s="35">
         <v>48</v>
       </c>
-      <c r="AU3" s="7"/>
+      <c r="AU3" s="35">
+        <v>49</v>
+      </c>
       <c r="AV3" s="7"/>
       <c r="AW3" s="7"/>
       <c r="AX3" s="7"/>
@@ -13297,7 +13878,9 @@
       <c r="AT4" s="35">
         <v>29</v>
       </c>
-      <c r="AU4" s="7"/>
+      <c r="AU4" s="35">
+        <v>29</v>
+      </c>
       <c r="AV4" s="7"/>
       <c r="AW4" s="7"/>
       <c r="AX4" s="7"/>
@@ -13460,7 +14043,9 @@
       <c r="AT5" s="35">
         <v>30</v>
       </c>
-      <c r="AU5" s="7"/>
+      <c r="AU5" s="35">
+        <v>30</v>
+      </c>
       <c r="AV5" s="7"/>
       <c r="AW5" s="7"/>
       <c r="AX5" s="7"/>
@@ -13623,7 +14208,9 @@
       <c r="AT6" s="35">
         <v>66</v>
       </c>
-      <c r="AU6" s="7"/>
+      <c r="AU6" s="35">
+        <v>67</v>
+      </c>
       <c r="AV6" s="7"/>
       <c r="AW6" s="7"/>
       <c r="AX6" s="7"/>
@@ -13786,7 +14373,9 @@
       <c r="AT7" s="35">
         <v>75</v>
       </c>
-      <c r="AU7" s="7"/>
+      <c r="AU7" s="35">
+        <v>75</v>
+      </c>
       <c r="AV7" s="7"/>
       <c r="AW7" s="7"/>
       <c r="AX7" s="7"/>
@@ -13949,7 +14538,9 @@
       <c r="AT8" s="35">
         <v>43</v>
       </c>
-      <c r="AU8" s="7"/>
+      <c r="AU8" s="35">
+        <v>43</v>
+      </c>
       <c r="AV8" s="7"/>
       <c r="AW8" s="7"/>
       <c r="AX8" s="7"/>
@@ -14112,7 +14703,9 @@
       <c r="AT9" s="35">
         <v>69</v>
       </c>
-      <c r="AU9" s="7"/>
+      <c r="AU9" s="35">
+        <v>69</v>
+      </c>
       <c r="AV9" s="7"/>
       <c r="AW9" s="7"/>
       <c r="AX9" s="7"/>
@@ -14275,7 +14868,9 @@
       <c r="AT10" s="35">
         <v>97</v>
       </c>
-      <c r="AU10" s="7"/>
+      <c r="AU10" s="35">
+        <v>97</v>
+      </c>
       <c r="AV10" s="7"/>
       <c r="AW10" s="7"/>
       <c r="AX10" s="7"/>
@@ -14438,7 +15033,9 @@
       <c r="AT11" s="35">
         <v>16</v>
       </c>
-      <c r="AU11" s="7"/>
+      <c r="AU11" s="35">
+        <v>16</v>
+      </c>
       <c r="AV11" s="7"/>
       <c r="AW11" s="7"/>
       <c r="AX11" s="7"/>
@@ -14599,7 +15196,9 @@
       <c r="AT12" s="35">
         <v>0</v>
       </c>
-      <c r="AU12" s="7"/>
+      <c r="AU12" s="35">
+        <v>0</v>
+      </c>
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
@@ -14661,15 +15260,15 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
     <col min="3" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -14695,16 +15294,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="27">
-        <v>9016</v>
+        <v>9120</v>
       </c>
       <c r="C2" s="27">
-        <v>4482</v>
+        <v>4536</v>
       </c>
       <c r="D2" s="27">
-        <v>4515</v>
+        <v>4564</v>
       </c>
       <c r="E2" s="27">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14729,16 +15328,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="27">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C4" s="7">
         <v>56</v>
       </c>
       <c r="D4" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14746,13 +15345,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="27">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C5" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D5" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -14763,16 +15362,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="27">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C6" s="7">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14780,13 +15379,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="27">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C7" s="7">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D7" s="7">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -14797,16 +15396,16 @@
         <v>15</v>
       </c>
       <c r="B8" s="27">
-        <v>1703</v>
+        <v>1722</v>
       </c>
       <c r="C8" s="7">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="D8" s="7">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="E8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -14814,13 +15413,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="27">
-        <v>1626</v>
+        <v>1645</v>
       </c>
       <c r="C9" s="7">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="D9" s="7">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -14831,13 +15430,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="27">
-        <v>1395</v>
+        <v>1414</v>
       </c>
       <c r="C10" s="7">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="D10" s="7">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -14848,13 +15447,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="27">
-        <v>1483</v>
+        <v>1499</v>
       </c>
       <c r="C11" s="7">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="D11" s="7">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -14865,13 +15464,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="27">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="C12" s="7">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D12" s="7">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
@@ -14882,25 +15481,25 @@
         <v>20</v>
       </c>
       <c r="B13" s="27">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C13" s="7">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D13" s="7">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57.95" customHeight="1">
-      <c r="B14" s="39" t="s">
+    <row r="14" spans="1:5" ht="58" customHeight="1">
+      <c r="B14" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14915,15 +15514,15 @@
   <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM3" sqref="BM3:BM11"/>
+      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BP34" sqref="BP34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="42" max="90" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="42" max="90" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90">
@@ -15214,7 +15813,9 @@
       <c r="BM2" s="4">
         <v>43984</v>
       </c>
-      <c r="BN2" s="4"/>
+      <c r="BN2" s="36">
+        <v>43985</v>
+      </c>
       <c r="BO2" s="4"/>
       <c r="BP2" s="4"/>
       <c r="BQ2" s="4"/>
@@ -15436,7 +16037,9 @@
       <c r="BM3" s="35">
         <v>1243</v>
       </c>
-      <c r="BN3" s="7"/>
+      <c r="BN3" s="35">
+        <v>1288</v>
+      </c>
       <c r="BO3" s="7"/>
       <c r="BP3" s="7"/>
       <c r="BQ3" s="7"/>
@@ -15658,7 +16261,9 @@
       <c r="BM4" s="35">
         <v>513</v>
       </c>
-      <c r="BN4" s="7"/>
+      <c r="BN4" s="35">
+        <v>522</v>
+      </c>
       <c r="BO4" s="7"/>
       <c r="BP4" s="7"/>
       <c r="BQ4" s="7"/>
@@ -15880,7 +16485,9 @@
       <c r="BM5" s="35">
         <v>420</v>
       </c>
-      <c r="BN5" s="7"/>
+      <c r="BN5" s="35">
+        <v>428</v>
+      </c>
       <c r="BO5" s="7"/>
       <c r="BP5" s="7"/>
       <c r="BQ5" s="7"/>
@@ -16102,7 +16709,9 @@
       <c r="BM6" s="35">
         <v>1852</v>
       </c>
-      <c r="BN6" s="7"/>
+      <c r="BN6" s="35">
+        <v>1913</v>
+      </c>
       <c r="BO6" s="7"/>
       <c r="BP6" s="7"/>
       <c r="BQ6" s="7"/>
@@ -16324,7 +16933,9 @@
       <c r="BM7" s="35">
         <v>1379</v>
       </c>
-      <c r="BN7" s="7"/>
+      <c r="BN7" s="35">
+        <v>1400</v>
+      </c>
       <c r="BO7" s="7"/>
       <c r="BP7" s="7"/>
       <c r="BQ7" s="7"/>
@@ -16546,7 +17157,9 @@
       <c r="BM8" s="35">
         <v>758</v>
       </c>
-      <c r="BN8" s="7"/>
+      <c r="BN8" s="35">
+        <v>774</v>
+      </c>
       <c r="BO8" s="7"/>
       <c r="BP8" s="7"/>
       <c r="BQ8" s="7"/>
@@ -16768,7 +17381,9 @@
       <c r="BM9" s="35">
         <v>1298</v>
       </c>
-      <c r="BN9" s="7"/>
+      <c r="BN9" s="35">
+        <v>1317</v>
+      </c>
       <c r="BO9" s="7"/>
       <c r="BP9" s="7"/>
       <c r="BQ9" s="7"/>
@@ -16990,7 +17605,9 @@
       <c r="BM10" s="35">
         <v>1278</v>
       </c>
-      <c r="BN10" s="7"/>
+      <c r="BN10" s="35">
+        <v>1323</v>
+      </c>
       <c r="BO10" s="7"/>
       <c r="BP10" s="7"/>
       <c r="BQ10" s="7"/>
@@ -17212,7 +17829,9 @@
       <c r="BM11" s="35">
         <v>145</v>
       </c>
-      <c r="BN11" s="7"/>
+      <c r="BN11" s="35">
+        <v>155</v>
+      </c>
       <c r="BO11" s="7"/>
       <c r="BP11" s="7"/>
       <c r="BQ11" s="7"/>
@@ -17249,22 +17868,22 @@
   <dimension ref="A1:CE19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BG2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="BI2" sqref="BI2:BI13"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BI2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="BM12" sqref="BM12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="55" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="55" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83">
@@ -17451,7 +18070,9 @@
       <c r="BI1" s="4">
         <v>43984</v>
       </c>
-      <c r="BJ1" s="4"/>
+      <c r="BJ1" s="4">
+        <v>43985</v>
+      </c>
       <c r="BK1" s="4"/>
       <c r="BL1" s="4"/>
       <c r="BM1" s="4"/>
@@ -17658,7 +18279,9 @@
       <c r="BI2" s="35">
         <v>995</v>
       </c>
-      <c r="BJ2" s="7"/>
+      <c r="BJ2" s="35">
+        <v>1024</v>
+      </c>
       <c r="BK2" s="7"/>
       <c r="BL2" s="7"/>
       <c r="BM2" s="7"/>
@@ -17865,7 +18488,9 @@
       <c r="BI3" s="35">
         <v>1364</v>
       </c>
-      <c r="BJ3" s="7"/>
+      <c r="BJ3" s="35">
+        <v>1368</v>
+      </c>
       <c r="BK3" s="7"/>
       <c r="BL3" s="7"/>
       <c r="BM3" s="7"/>
@@ -18072,7 +18697,9 @@
       <c r="BI4" s="35">
         <v>4164</v>
       </c>
-      <c r="BJ4" s="7"/>
+      <c r="BJ4" s="35">
+        <v>4200</v>
+      </c>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
@@ -18279,7 +18906,9 @@
       <c r="BI5" s="35">
         <v>106</v>
       </c>
-      <c r="BJ5" s="7"/>
+      <c r="BJ5" s="35">
+        <v>106</v>
+      </c>
       <c r="BK5" s="7"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
@@ -18486,7 +19115,9 @@
       <c r="BI6" s="35">
         <v>26</v>
       </c>
-      <c r="BJ6" s="7"/>
+      <c r="BJ6" s="35">
+        <v>26</v>
+      </c>
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
@@ -18689,7 +19320,9 @@
       <c r="BI7" s="35">
         <v>22</v>
       </c>
-      <c r="BJ7" s="7"/>
+      <c r="BJ7" s="35">
+        <v>22</v>
+      </c>
       <c r="BK7" s="7"/>
       <c r="BL7" s="7"/>
       <c r="BM7" s="7"/>
@@ -18896,7 +19529,9 @@
       <c r="BI8" s="35">
         <v>2281</v>
       </c>
-      <c r="BJ8" s="7"/>
+      <c r="BJ8" s="35">
+        <v>2314</v>
+      </c>
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
       <c r="BM8" s="7"/>
@@ -19103,7 +19738,9 @@
       <c r="BI9" s="35">
         <v>58</v>
       </c>
-      <c r="BJ9" s="7"/>
+      <c r="BJ9" s="35">
+        <v>58</v>
+      </c>
       <c r="BK9" s="7"/>
       <c r="BL9" s="7"/>
       <c r="BM9" s="7"/>
@@ -19310,7 +19947,9 @@
       <c r="BI10" s="35">
         <v>1608</v>
       </c>
-      <c r="BJ10" s="7"/>
+      <c r="BJ10" s="35">
+        <v>1646</v>
+      </c>
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
       <c r="BM10" s="7"/>
@@ -19517,7 +20156,9 @@
       <c r="BI11" s="35">
         <v>2372</v>
       </c>
-      <c r="BJ11" s="7"/>
+      <c r="BJ11" s="35">
+        <v>2400</v>
+      </c>
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
       <c r="BM11" s="7"/>
@@ -19724,7 +20365,9 @@
       <c r="BI12" s="35">
         <v>5010</v>
       </c>
-      <c r="BJ12" s="7"/>
+      <c r="BJ12" s="35">
+        <v>5048</v>
+      </c>
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
@@ -19931,7 +20574,9 @@
       <c r="BI13" s="35">
         <v>26</v>
       </c>
-      <c r="BJ13" s="7"/>
+      <c r="BJ13" s="35">
+        <v>26</v>
+      </c>
       <c r="BK13" s="7"/>
       <c r="BL13" s="7"/>
       <c r="BM13" s="7"/>
@@ -20230,13 +20875,13 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BL6" sqref="BL6"/>
+      <selection pane="topRight" activeCell="BI8" sqref="BI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="45" max="58" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="45" max="58" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86">
@@ -20418,7 +21063,9 @@
       <c r="BH1" s="4">
         <v>43984</v>
       </c>
-      <c r="BI1" s="4"/>
+      <c r="BI1" s="4">
+        <v>43985</v>
+      </c>
       <c r="BJ1" s="4"/>
       <c r="BK1" s="4"/>
       <c r="BL1" s="4"/>
@@ -20716,7 +21363,9 @@
       <c r="BH3" s="7">
         <v>7</v>
       </c>
-      <c r="BI3" s="7"/>
+      <c r="BI3" s="7">
+        <v>7</v>
+      </c>
       <c r="BJ3" s="7"/>
       <c r="BK3" s="7"/>
       <c r="BL3" s="7"/>
@@ -20924,7 +21573,9 @@
       <c r="BH4" s="7">
         <v>356</v>
       </c>
-      <c r="BI4" s="7"/>
+      <c r="BI4" s="7">
+        <v>356</v>
+      </c>
       <c r="BJ4" s="7"/>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
@@ -21132,7 +21783,9 @@
       <c r="BH5" s="7">
         <v>54</v>
       </c>
-      <c r="BI5" s="7"/>
+      <c r="BI5" s="7">
+        <v>54</v>
+      </c>
       <c r="BJ5" s="7"/>
       <c r="BK5" s="7"/>
       <c r="BL5" s="7"/>
@@ -21340,7 +21993,9 @@
       <c r="BH6" s="7">
         <v>52</v>
       </c>
-      <c r="BI6" s="7"/>
+      <c r="BI6" s="7">
+        <v>53</v>
+      </c>
       <c r="BJ6" s="7"/>
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
@@ -21546,7 +22201,9 @@
       <c r="BH7" s="7">
         <v>4</v>
       </c>
-      <c r="BI7" s="7"/>
+      <c r="BI7" s="7">
+        <v>5</v>
+      </c>
       <c r="BJ7" s="7"/>
       <c r="BK7" s="7"/>
       <c r="BL7" s="7"/>
@@ -21966,16 +22623,16 @@
   <dimension ref="A1:CL26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I11" sqref="I11"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="90" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="90" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90">
@@ -22098,7 +22755,9 @@
       <c r="I2" s="4">
         <v>43984</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4">
+        <v>43985</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -22208,7 +22867,9 @@
       <c r="I3" s="7">
         <v>5572</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7">
+        <v>5820</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -22318,7 +22979,9 @@
       <c r="I4" s="7">
         <v>3969</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7">
+        <v>4055</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -22428,7 +23091,9 @@
       <c r="I5" s="7">
         <v>4071</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7">
+        <v>4155</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -22538,7 +23203,9 @@
       <c r="I6" s="7">
         <v>7400</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7">
+        <v>7613</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -22648,7 +23315,9 @@
       <c r="I7" s="7">
         <v>6848</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7">
+        <v>7085</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -22758,7 +23427,9 @@
       <c r="I8" s="7">
         <v>5799</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7">
+        <v>6000</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -22868,7 +23539,9 @@
       <c r="I9" s="7">
         <v>6561</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7">
+        <v>6740</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -22978,7 +23651,9 @@
       <c r="I10" s="7">
         <v>6922</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7">
+        <v>7133</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -23088,7 +23763,9 @@
       <c r="I11" s="7">
         <v>2565</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7">
+        <v>2642</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -23216,19 +23893,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DF105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CL21" sqref="CL21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="CK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CL4" sqref="CL4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="110" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="110" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:110">
@@ -23498,7 +24175,9 @@
       <c r="CL1" s="4">
         <v>43984</v>
       </c>
-      <c r="CM1" s="4"/>
+      <c r="CM1" s="4">
+        <v>43985</v>
+      </c>
       <c r="CN1" s="4"/>
       <c r="CO1" s="4"/>
       <c r="CP1" s="4"/>
@@ -23892,7 +24571,9 @@
       <c r="CL3" s="11">
         <v>49562</v>
       </c>
-      <c r="CM3" s="11"/>
+      <c r="CM3" s="11">
+        <v>51096</v>
+      </c>
       <c r="CN3" s="11"/>
       <c r="CO3" s="11"/>
       <c r="CP3" s="11"/>
@@ -24032,7 +24713,9 @@
       <c r="CL4" s="11">
         <v>40751</v>
       </c>
-      <c r="CM4" s="11"/>
+      <c r="CM4" s="11">
+        <v>41571</v>
+      </c>
       <c r="CN4" s="11"/>
       <c r="CO4" s="11"/>
       <c r="CP4" s="11"/>
@@ -24324,7 +25007,9 @@
       <c r="CL5" s="11">
         <v>9016</v>
       </c>
-      <c r="CM5" s="11"/>
+      <c r="CM5" s="11">
+        <v>9120</v>
+      </c>
       <c r="CN5" s="11"/>
       <c r="CO5" s="11"/>
       <c r="CP5" s="11"/>
@@ -24604,7 +25289,9 @@
       <c r="CL6" s="11">
         <v>473</v>
       </c>
-      <c r="CM6" s="11"/>
+      <c r="CM6" s="11">
+        <v>475</v>
+      </c>
       <c r="CN6" s="11"/>
       <c r="CO6" s="11"/>
       <c r="CP6" s="11"/>
@@ -24864,7 +25551,9 @@
       <c r="CL7" s="11">
         <v>1138</v>
       </c>
-      <c r="CM7" s="11"/>
+      <c r="CM7" s="11">
+        <v>1138</v>
+      </c>
       <c r="CN7" s="11"/>
       <c r="CO7" s="11"/>
       <c r="CP7" s="11"/>
@@ -25164,7 +25853,9 @@
       <c r="CL9" s="11">
         <v>345</v>
       </c>
-      <c r="CM9" s="11"/>
+      <c r="CM9" s="11">
+        <v>345</v>
+      </c>
       <c r="CN9" s="11"/>
       <c r="CO9" s="11"/>
       <c r="CP9" s="11"/>
@@ -25420,7 +26111,9 @@
       <c r="CL10" s="11">
         <v>111</v>
       </c>
-      <c r="CM10" s="11"/>
+      <c r="CM10" s="11">
+        <v>57</v>
+      </c>
       <c r="CN10" s="11"/>
       <c r="CO10" s="11"/>
       <c r="CP10" s="11"/>
@@ -25676,7 +26369,9 @@
       <c r="CL11" s="11">
         <v>440</v>
       </c>
-      <c r="CM11" s="11"/>
+      <c r="CM11" s="11">
+        <v>440</v>
+      </c>
       <c r="CN11" s="11"/>
       <c r="CO11" s="11"/>
       <c r="CP11" s="11"/>
@@ -25932,7 +26627,9 @@
       <c r="CL12" s="11">
         <v>205</v>
       </c>
-      <c r="CM12" s="11"/>
+      <c r="CM12" s="11">
+        <v>218</v>
+      </c>
       <c r="CN12" s="11"/>
       <c r="CO12" s="11"/>
       <c r="CP12" s="11"/>
@@ -26188,7 +26885,9 @@
       <c r="CL13" s="11">
         <v>235</v>
       </c>
-      <c r="CM13" s="11"/>
+      <c r="CM13" s="11">
+        <v>222</v>
+      </c>
       <c r="CN13" s="11"/>
       <c r="CO13" s="11"/>
       <c r="CP13" s="11"/>
@@ -26352,7 +27051,9 @@
       <c r="CL14" s="11">
         <v>285</v>
       </c>
-      <c r="CM14" s="11"/>
+      <c r="CM14" s="11">
+        <v>276</v>
+      </c>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
       <c r="CP14" s="11"/>
@@ -26496,7 +27197,9 @@
       <c r="CL15" s="11">
         <v>103</v>
       </c>
-      <c r="CM15" s="11"/>
+      <c r="CM15" s="11">
+        <v>98</v>
+      </c>
       <c r="CN15" s="11"/>
       <c r="CO15" s="11"/>
       <c r="CP15" s="11"/>
@@ -26660,7 +27363,9 @@
       <c r="CL16" s="11">
         <v>1914</v>
       </c>
-      <c r="CM16" s="11"/>
+      <c r="CM16" s="11">
+        <v>1928</v>
+      </c>
       <c r="CN16" s="11"/>
       <c r="CO16" s="11"/>
       <c r="CP16" s="11"/>
@@ -27372,7 +28077,9 @@
       <c r="CL21" s="11">
         <v>111</v>
       </c>
-      <c r="CM21" s="11"/>
+      <c r="CM21" s="11">
+        <v>111</v>
+      </c>
       <c r="CN21" s="11"/>
       <c r="CO21" s="11"/>
       <c r="CP21" s="11"/>
@@ -27594,7 +28301,9 @@
       <c r="CL22" s="11">
         <v>19</v>
       </c>
-      <c r="CM22" s="11"/>
+      <c r="CM22" s="11">
+        <v>19</v>
+      </c>
       <c r="CN22" s="11"/>
       <c r="CO22" s="11"/>
       <c r="CP22" s="11"/>
@@ -27816,7 +28525,9 @@
       <c r="CL23" s="11">
         <v>92</v>
       </c>
-      <c r="CM23" s="11"/>
+      <c r="CM23" s="11">
+        <v>92</v>
+      </c>
       <c r="CN23" s="11"/>
       <c r="CO23" s="11"/>
       <c r="CP23" s="11"/>
@@ -28068,7 +28779,9 @@
       <c r="CL24" s="11">
         <v>89</v>
       </c>
-      <c r="CM24" s="11"/>
+      <c r="CM24" s="11">
+        <v>89</v>
+      </c>
       <c r="CN24" s="11"/>
       <c r="CO24" s="11"/>
       <c r="CP24" s="11"/>
@@ -28320,7 +29033,9 @@
       <c r="CL25" s="11">
         <v>108</v>
       </c>
-      <c r="CM25" s="11"/>
+      <c r="CM25" s="11">
+        <v>111</v>
+      </c>
       <c r="CN25" s="11"/>
       <c r="CO25" s="11"/>
       <c r="CP25" s="11"/>
@@ -28572,7 +29287,9 @@
       <c r="CL26" s="11">
         <v>1412</v>
       </c>
-      <c r="CM26" s="11"/>
+      <c r="CM26" s="11">
+        <v>1448</v>
+      </c>
       <c r="CN26" s="11"/>
       <c r="CO26" s="11"/>
       <c r="CP26" s="11"/>
@@ -29056,7 +29773,9 @@
       <c r="CL29" s="11">
         <v>139</v>
       </c>
-      <c r="CM29" s="11"/>
+      <c r="CM29" s="11">
+        <v>139</v>
+      </c>
       <c r="CN29" s="11"/>
       <c r="CO29" s="11"/>
       <c r="CP29" s="11"/>
@@ -29278,7 +29997,9 @@
       <c r="CL30" s="11">
         <v>31</v>
       </c>
-      <c r="CM30" s="11"/>
+      <c r="CM30" s="11">
+        <v>29</v>
+      </c>
       <c r="CN30" s="11"/>
       <c r="CO30" s="11"/>
       <c r="CP30" s="11"/>
@@ -29500,7 +30221,9 @@
       <c r="CL31" s="11">
         <v>108</v>
       </c>
-      <c r="CM31" s="11"/>
+      <c r="CM31" s="11">
+        <v>110</v>
+      </c>
       <c r="CN31" s="11"/>
       <c r="CO31" s="11"/>
       <c r="CP31" s="11"/>
@@ -29752,7 +30475,9 @@
       <c r="CL32" s="11">
         <v>46</v>
       </c>
-      <c r="CM32" s="11"/>
+      <c r="CM32" s="11">
+        <v>35</v>
+      </c>
       <c r="CN32" s="11"/>
       <c r="CO32" s="11"/>
       <c r="CP32" s="11"/>
@@ -30004,7 +30729,9 @@
       <c r="CL33" s="11">
         <v>77</v>
       </c>
-      <c r="CM33" s="11"/>
+      <c r="CM33" s="11">
+        <v>64</v>
+      </c>
       <c r="CN33" s="11"/>
       <c r="CO33" s="11"/>
       <c r="CP33" s="11"/>
@@ -30256,7 +30983,9 @@
       <c r="CL34" s="11">
         <v>1228</v>
       </c>
-      <c r="CM34" s="11"/>
+      <c r="CM34" s="11">
+        <v>1244</v>
+      </c>
       <c r="CN34" s="11"/>
       <c r="CO34" s="11"/>
       <c r="CP34" s="11"/>
@@ -30732,7 +31461,9 @@
       <c r="CL37" s="11">
         <v>83</v>
       </c>
-      <c r="CM37" s="11"/>
+      <c r="CM37" s="11">
+        <v>84</v>
+      </c>
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
       <c r="CP37" s="11"/>
@@ -30950,7 +31681,9 @@
       <c r="CL38" s="11">
         <v>9</v>
       </c>
-      <c r="CM38" s="11"/>
+      <c r="CM38" s="11">
+        <v>9</v>
+      </c>
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
       <c r="CP38" s="11"/>
@@ -31168,7 +31901,9 @@
       <c r="CL39" s="11">
         <v>73</v>
       </c>
-      <c r="CM39" s="11"/>
+      <c r="CM39" s="11">
+        <v>74</v>
+      </c>
       <c r="CN39" s="11"/>
       <c r="CO39" s="11"/>
       <c r="CP39" s="11"/>
@@ -31416,7 +32151,9 @@
       <c r="CL40" s="11">
         <v>1</v>
       </c>
-      <c r="CM40" s="11"/>
+      <c r="CM40" s="11">
+        <v>1</v>
+      </c>
       <c r="CN40" s="11"/>
       <c r="CO40" s="11"/>
       <c r="CP40" s="11"/>
@@ -31662,7 +32399,9 @@
       <c r="CL41" s="11">
         <v>10</v>
       </c>
-      <c r="CM41" s="11"/>
+      <c r="CM41" s="11">
+        <v>10</v>
+      </c>
       <c r="CN41" s="11"/>
       <c r="CO41" s="11"/>
       <c r="CP41" s="11"/>
@@ -31912,7 +32651,9 @@
       <c r="CL42" s="11">
         <v>281</v>
       </c>
-      <c r="CM42" s="11"/>
+      <c r="CM42" s="11">
+        <v>282</v>
+      </c>
       <c r="CN42" s="11"/>
       <c r="CO42" s="11"/>
       <c r="CP42" s="11"/>
@@ -32118,7 +32859,9 @@
       <c r="CL43" s="11">
         <v>1</v>
       </c>
-      <c r="CM43" s="11"/>
+      <c r="CM43" s="11">
+        <v>1</v>
+      </c>
       <c r="CN43" s="11"/>
       <c r="CO43" s="11"/>
       <c r="CP43" s="11"/>
@@ -32598,7 +33341,9 @@
       <c r="CL46" s="11">
         <v>206</v>
       </c>
-      <c r="CM46" s="11"/>
+      <c r="CM46" s="11">
+        <v>206</v>
+      </c>
       <c r="CN46" s="11"/>
       <c r="CO46" s="11"/>
       <c r="CP46" s="11"/>
@@ -32820,7 +33565,9 @@
       <c r="CL47" s="11">
         <v>16</v>
       </c>
-      <c r="CM47" s="11"/>
+      <c r="CM47" s="11">
+        <v>11</v>
+      </c>
       <c r="CN47" s="11"/>
       <c r="CO47" s="11"/>
       <c r="CP47" s="11"/>
@@ -33042,7 +33789,9 @@
       <c r="CL48" s="11">
         <v>183</v>
       </c>
-      <c r="CM48" s="11"/>
+      <c r="CM48" s="11">
+        <v>188</v>
+      </c>
       <c r="CN48" s="11"/>
       <c r="CO48" s="11"/>
       <c r="CP48" s="11"/>
@@ -33294,7 +34043,9 @@
       <c r="CL49" s="11">
         <v>396</v>
       </c>
-      <c r="CM49" s="11"/>
+      <c r="CM49" s="11">
+        <v>362</v>
+      </c>
       <c r="CN49" s="11"/>
       <c r="CO49" s="11"/>
       <c r="CP49" s="11"/>
@@ -33516,7 +34267,9 @@
       <c r="CL50" s="11">
         <v>412</v>
       </c>
-      <c r="CM50" s="11"/>
+      <c r="CM50" s="11">
+        <v>373</v>
+      </c>
       <c r="CN50" s="11"/>
       <c r="CO50" s="11"/>
       <c r="CP50" s="11"/>
@@ -33736,7 +34489,9 @@
       <c r="CL51" s="11">
         <v>729</v>
       </c>
-      <c r="CM51" s="11"/>
+      <c r="CM51" s="11">
+        <v>947</v>
+      </c>
       <c r="CN51" s="11"/>
       <c r="CO51" s="11"/>
       <c r="CP51" s="11"/>
@@ -33952,7 +34707,9 @@
       <c r="CL52" s="11">
         <v>1</v>
       </c>
-      <c r="CM52" s="11"/>
+      <c r="CM52" s="11">
+        <v>1</v>
+      </c>
       <c r="CN52" s="11"/>
       <c r="CO52" s="11"/>
       <c r="CP52" s="11"/>
@@ -34422,7 +35179,9 @@
       <c r="CL55" s="11">
         <v>30</v>
       </c>
-      <c r="CM55" s="11"/>
+      <c r="CM55" s="11">
+        <v>30</v>
+      </c>
       <c r="CN55" s="11"/>
       <c r="CO55" s="11"/>
       <c r="CP55" s="11"/>
@@ -34642,7 +35401,9 @@
       <c r="CL56" s="11">
         <v>8</v>
       </c>
-      <c r="CM56" s="11"/>
+      <c r="CM56" s="11">
+        <v>7</v>
+      </c>
       <c r="CN56" s="11"/>
       <c r="CO56" s="11"/>
       <c r="CP56" s="11"/>
@@ -34862,7 +35623,9 @@
       <c r="CL57" s="11">
         <v>22</v>
       </c>
-      <c r="CM57" s="11"/>
+      <c r="CM57" s="11">
+        <v>22</v>
+      </c>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
       <c r="CP57" s="11"/>
@@ -35106,7 +35869,9 @@
       <c r="CL58" s="11">
         <v>15</v>
       </c>
-      <c r="CM58" s="11"/>
+      <c r="CM58" s="11">
+        <v>13</v>
+      </c>
       <c r="CN58" s="11"/>
       <c r="CO58" s="11"/>
       <c r="CP58" s="11"/>
@@ -35350,7 +36115,9 @@
       <c r="CL59" s="11">
         <v>23</v>
       </c>
-      <c r="CM59" s="11"/>
+      <c r="CM59" s="11">
+        <v>20</v>
+      </c>
       <c r="CN59" s="11"/>
       <c r="CO59" s="11"/>
       <c r="CP59" s="11"/>
@@ -35594,7 +36361,9 @@
       <c r="CL60" s="11">
         <v>147</v>
       </c>
-      <c r="CM60" s="11"/>
+      <c r="CM60" s="11">
+        <v>149</v>
+      </c>
       <c r="CN60" s="11"/>
       <c r="CO60" s="11"/>
       <c r="CP60" s="11"/>
@@ -35810,7 +36579,9 @@
       <c r="CL61" s="11">
         <v>1</v>
       </c>
-      <c r="CM61" s="11"/>
+      <c r="CM61" s="11">
+        <v>1</v>
+      </c>
       <c r="CN61" s="11"/>
       <c r="CO61" s="11"/>
       <c r="CP61" s="11"/>
@@ -36166,7 +36937,9 @@
       <c r="CL63" s="11">
         <v>11</v>
       </c>
-      <c r="CM63" s="11"/>
+      <c r="CM63" s="11">
+        <v>11</v>
+      </c>
       <c r="CN63" s="11"/>
       <c r="CO63" s="11"/>
       <c r="CP63" s="11"/>
@@ -36386,7 +37159,9 @@
       <c r="CL64" s="11">
         <v>2</v>
       </c>
-      <c r="CM64" s="11"/>
+      <c r="CM64" s="11">
+        <v>2</v>
+      </c>
       <c r="CN64" s="11"/>
       <c r="CO64" s="11"/>
       <c r="CP64" s="11"/>
@@ -36606,7 +37381,9 @@
       <c r="CL65" s="11">
         <v>9</v>
       </c>
-      <c r="CM65" s="11"/>
+      <c r="CM65" s="11">
+        <v>9</v>
+      </c>
       <c r="CN65" s="11"/>
       <c r="CO65" s="11"/>
       <c r="CP65" s="11"/>
@@ -36850,7 +37627,9 @@
       <c r="CL66" s="11">
         <v>56</v>
       </c>
-      <c r="CM66" s="11"/>
+      <c r="CM66" s="11">
+        <v>55</v>
+      </c>
       <c r="CN66" s="11"/>
       <c r="CO66" s="11"/>
       <c r="CP66" s="11"/>
@@ -37094,7 +37873,9 @@
       <c r="CL67" s="11">
         <v>58</v>
       </c>
-      <c r="CM67" s="11"/>
+      <c r="CM67" s="11">
+        <v>57</v>
+      </c>
       <c r="CN67" s="11"/>
       <c r="CO67" s="11"/>
       <c r="CP67" s="11"/>
@@ -37336,7 +38117,9 @@
       <c r="CL68" s="11">
         <v>0</v>
       </c>
-      <c r="CM68" s="11"/>
+      <c r="CM68" s="11">
+        <v>0</v>
+      </c>
       <c r="CN68" s="11"/>
       <c r="CO68" s="11"/>
       <c r="CP68" s="11"/>
@@ -37556,7 +38339,9 @@
       <c r="CL69" s="11">
         <v>0</v>
       </c>
-      <c r="CM69" s="11"/>
+      <c r="CM69" s="11">
+        <v>0</v>
+      </c>
       <c r="CN69" s="11"/>
       <c r="CO69" s="11"/>
       <c r="CP69" s="11"/>
@@ -37812,7 +38597,9 @@
       <c r="CL71" s="11">
         <v>10</v>
       </c>
-      <c r="CM71" s="11"/>
+      <c r="CM71" s="11">
+        <v>10</v>
+      </c>
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
       <c r="CP71" s="11"/>
@@ -37956,7 +38743,9 @@
       <c r="CL72" s="11">
         <v>5</v>
       </c>
-      <c r="CM72" s="11"/>
+      <c r="CM72" s="11">
+        <v>4</v>
+      </c>
       <c r="CN72" s="11"/>
       <c r="CO72" s="11"/>
       <c r="CP72" s="11"/>
@@ -38100,7 +38889,9 @@
       <c r="CL73" s="11">
         <v>5</v>
       </c>
-      <c r="CM73" s="11"/>
+      <c r="CM73" s="11">
+        <v>6</v>
+      </c>
       <c r="CN73" s="11"/>
       <c r="CO73" s="11"/>
       <c r="CP73" s="11"/>
@@ -38244,7 +39035,9 @@
       <c r="CL74" s="11">
         <v>8</v>
       </c>
-      <c r="CM74" s="11"/>
+      <c r="CM74" s="11">
+        <v>4</v>
+      </c>
       <c r="CN74" s="11"/>
       <c r="CO74" s="11"/>
       <c r="CP74" s="11"/>
@@ -38388,7 +39181,9 @@
       <c r="CL75" s="11">
         <v>13</v>
       </c>
-      <c r="CM75" s="11"/>
+      <c r="CM75" s="11">
+        <v>8</v>
+      </c>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
       <c r="CP75" s="11"/>
@@ -38532,7 +39327,9 @@
       <c r="CL76" s="11">
         <v>34</v>
       </c>
-      <c r="CM76" s="11"/>
+      <c r="CM76" s="11">
+        <v>37</v>
+      </c>
       <c r="CN76" s="11"/>
       <c r="CO76" s="11"/>
       <c r="CP76" s="11"/>
@@ -39002,7 +39799,9 @@
       <c r="CL79" s="11">
         <v>302</v>
       </c>
-      <c r="CM79" s="11"/>
+      <c r="CM79" s="11">
+        <v>302</v>
+      </c>
       <c r="CN79" s="11"/>
       <c r="CO79" s="11"/>
       <c r="CP79" s="11"/>
@@ -39246,7 +40045,9 @@
       <c r="CL80" s="11">
         <v>105</v>
       </c>
-      <c r="CM80" s="11"/>
+      <c r="CM80" s="11">
+        <v>88</v>
+      </c>
       <c r="CN80" s="11"/>
       <c r="CO80" s="11"/>
       <c r="CP80" s="11"/>
@@ -39490,7 +40291,9 @@
       <c r="CL81" s="11">
         <v>84</v>
       </c>
-      <c r="CM81" s="11"/>
+      <c r="CM81" s="11">
+        <v>76</v>
+      </c>
       <c r="CN81" s="11"/>
       <c r="CO81" s="11"/>
       <c r="CP81" s="11"/>
@@ -39706,7 +40509,9 @@
       <c r="CL82" s="11">
         <v>16</v>
       </c>
-      <c r="CM82" s="11"/>
+      <c r="CM82" s="11">
+        <v>16</v>
+      </c>
       <c r="CN82" s="11"/>
       <c r="CO82" s="11"/>
       <c r="CP82" s="11"/>
@@ -40062,7 +40867,9 @@
       <c r="CL84" s="11">
         <v>119</v>
       </c>
-      <c r="CM84" s="11"/>
+      <c r="CM84" s="11">
+        <v>119</v>
+      </c>
       <c r="CN84" s="11"/>
       <c r="CO84" s="11"/>
       <c r="CP84" s="11"/>
@@ -40306,7 +41113,9 @@
       <c r="CL85" s="11">
         <v>25</v>
       </c>
-      <c r="CM85" s="11"/>
+      <c r="CM85" s="11">
+        <v>25</v>
+      </c>
       <c r="CN85" s="11"/>
       <c r="CO85" s="11"/>
       <c r="CP85" s="11"/>
@@ -40550,7 +41359,9 @@
       <c r="CL86" s="11">
         <v>68</v>
       </c>
-      <c r="CM86" s="11"/>
+      <c r="CM86" s="11">
+        <v>66</v>
+      </c>
       <c r="CN86" s="11"/>
       <c r="CO86" s="11"/>
       <c r="CP86" s="11"/>
@@ -40786,7 +41597,9 @@
       <c r="CL87" s="11">
         <v>195</v>
       </c>
-      <c r="CM87" s="11"/>
+      <c r="CM87" s="11">
+        <v>197</v>
+      </c>
       <c r="CN87" s="11"/>
       <c r="CO87" s="11"/>
       <c r="CP87" s="11"/>
@@ -40946,7 +41759,9 @@
       <c r="CL88" s="11">
         <v>1</v>
       </c>
-      <c r="CM88" s="11"/>
+      <c r="CM88" s="11">
+        <v>1</v>
+      </c>
       <c r="CN88" s="11"/>
       <c r="CO88" s="11"/>
       <c r="CP88" s="11"/>
@@ -41261,7 +42076,9 @@
       <c r="CL90" s="11">
         <v>81</v>
       </c>
-      <c r="CM90" s="11"/>
+      <c r="CM90" s="11">
+        <v>81</v>
+      </c>
       <c r="CN90" s="11"/>
       <c r="CO90" s="11"/>
       <c r="CP90" s="11"/>
@@ -41505,7 +42322,9 @@
       <c r="CL91" s="11">
         <v>21</v>
       </c>
-      <c r="CM91" s="11"/>
+      <c r="CM91" s="11"